--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -195,6 +195,24 @@
   <si>
     <t>Real Gross Domestic Product, Billions of Chained 2012 Dollars, Quarterly, Seasonally Adjusted Annual Rate</t>
   </si>
+  <si>
+    <t>DurableConsumption</t>
+  </si>
+  <si>
+    <t>TFP</t>
+  </si>
+  <si>
+    <t>DTFP_UTIL</t>
+  </si>
+  <si>
+    <t>John Fernald</t>
+  </si>
+  <si>
+    <t>Utilization-adjusted TFP</t>
+  </si>
+  <si>
+    <t>Already in log levels</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +337,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,23 +620,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M281"/>
+  <dimension ref="A1:N937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G267" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="N278" sqref="N278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
-    <col min="3" max="13" width="22" style="3" customWidth="1"/>
+    <col min="3" max="12" width="22" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +653,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -657,8 +679,11 @@
       <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -693,13 +718,16 @@
         <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,8 +767,11 @@
       <c r="M3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,31 +788,34 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>9</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>10</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>11</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>12</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,31 +832,34 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>9</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>11</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>12</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" s="4">
         <v>1950</v>
       </c>
@@ -844,8 +881,11 @@
       <c r="J6" s="3">
         <v>42986.333333333336</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="3">
+        <v>0.39475227297379989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="4">
         <v>1950.25</v>
       </c>
@@ -867,8 +907,11 @@
       <c r="J7" s="3">
         <v>44477.333333333336</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="3">
+        <v>0.38466803325650517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="4">
         <v>1950.5</v>
       </c>
@@ -890,8 +933,11 @@
       <c r="J8" s="3">
         <v>46226</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="3">
+        <v>0.38387155772308751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="4">
         <v>1950.75</v>
       </c>
@@ -913,8 +959,11 @@
       <c r="J9" s="3">
         <v>47459</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="3">
+        <v>0.39045055297536641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="4">
         <v>1951</v>
       </c>
@@ -936,8 +985,11 @@
       <c r="J10" s="3">
         <v>46943.666666666664</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="3">
+        <v>0.36219624014728236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="4">
         <v>1951.25</v>
       </c>
@@ -959,8 +1011,11 @@
       <c r="J11" s="3">
         <v>47729.333333333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="3">
+        <v>0.34224106941801691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" s="4">
         <v>1951.5</v>
       </c>
@@ -982,8 +1037,11 @@
       <c r="J12" s="3">
         <v>48189.666666666664</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="3">
+        <v>0.45305092344282594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="4">
         <v>1951.75</v>
       </c>
@@ -1005,8 +1063,11 @@
       <c r="J13" s="3">
         <v>48856</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="3">
+        <v>0.43932455334558279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="4">
         <v>1952</v>
       </c>
@@ -1031,8 +1092,11 @@
       <c r="K14" s="3">
         <v>156522.33333333334</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="3">
+        <v>0.38794360918704018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="4">
         <v>1952.25</v>
       </c>
@@ -1057,8 +1121,11 @@
       <c r="K15" s="3">
         <v>157142</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="3">
+        <v>0.46974652100276992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="4">
         <v>1952.5</v>
       </c>
@@ -1083,8 +1150,11 @@
       <c r="K16" s="3">
         <v>157801.33333333334</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="N16" s="3">
+        <v>0.44078166996739621</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="4">
         <v>1952.75</v>
       </c>
@@ -1109,8 +1179,11 @@
       <c r="K17" s="3">
         <v>158504.66666666666</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="N17" s="3">
+        <v>0.43869321131181388</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="4">
         <v>1953</v>
       </c>
@@ -1135,8 +1208,11 @@
       <c r="K18" s="3">
         <v>159164</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="N18" s="3">
+        <v>0.52752361607906728</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="4">
         <v>1953.25</v>
       </c>
@@ -1161,8 +1237,11 @@
       <c r="K19" s="3">
         <v>159752.33333333334</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="N19" s="3">
+        <v>0.57493618539391433</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="4">
         <v>1953.5</v>
       </c>
@@ -1187,8 +1266,11 @@
       <c r="K20" s="3">
         <v>160450.33333333334</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="N20" s="3">
+        <v>0.62914481556130386</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="4">
         <v>1953.75</v>
       </c>
@@ -1213,8 +1295,11 @@
       <c r="K21" s="3">
         <v>161218</v>
       </c>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="N21" s="3">
+        <v>0.64931003085967276</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="4">
         <v>1954</v>
       </c>
@@ -1239,8 +1324,11 @@
       <c r="K22" s="3">
         <v>161908.66666666666</v>
       </c>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="N22" s="3">
+        <v>0.70002909359865406</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="4">
         <v>1954.25</v>
       </c>
@@ -1265,8 +1353,11 @@
       <c r="K23" s="3">
         <v>162568</v>
       </c>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="N23" s="3">
+        <v>0.73172860895444369</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="4">
         <v>1954.5</v>
       </c>
@@ -1294,8 +1385,11 @@
       <c r="L24" s="3">
         <v>1.0266666666666666</v>
       </c>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="N24" s="3">
+        <v>0.77090305332784947</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="4">
         <v>1954.75</v>
       </c>
@@ -1323,8 +1417,11 @@
       <c r="L25" s="3">
         <v>0.98666666666666669</v>
       </c>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="N25" s="3">
+        <v>0.79231164491268469</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26" s="4">
         <v>1955</v>
       </c>
@@ -1352,8 +1449,11 @@
       <c r="L26" s="3">
         <v>1.3433333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="N26" s="3">
+        <v>0.77393015080504324</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="4">
         <v>1955.25</v>
       </c>
@@ -1381,8 +1481,11 @@
       <c r="L27" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="N27" s="3">
+        <v>0.7857353472380818</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="4">
         <v>1955.5</v>
       </c>
@@ -1410,8 +1513,11 @@
       <c r="L28" s="3">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="N28" s="3">
+        <v>0.8019057455068862</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="4">
         <v>1955.75</v>
       </c>
@@ -1439,8 +1545,11 @@
       <c r="L29" s="3">
         <v>2.3566666666666669</v>
       </c>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="N29" s="3">
+        <v>0.7459515643880692</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="4">
         <v>1956</v>
       </c>
@@ -1468,8 +1577,11 @@
       <c r="L30" s="3">
         <v>2.4833333333333334</v>
       </c>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="N30" s="3">
+        <v>0.76649716411319513</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="4">
         <v>1956.25</v>
       </c>
@@ -1497,8 +1609,11 @@
       <c r="L31" s="3">
         <v>2.6933333333333334</v>
       </c>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="N31" s="3">
+        <v>0.8293887156643911</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="B32" s="4">
         <v>1956.5</v>
       </c>
@@ -1526,8 +1641,11 @@
       <c r="L32" s="3">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="N32" s="3">
+        <v>0.80813420904400135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" s="4">
         <v>1956.75</v>
       </c>
@@ -1555,8 +1673,11 @@
       <c r="L33" s="3">
         <v>2.9266666666666667</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="N33" s="3">
+        <v>0.83598450135501345</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="4">
         <v>1957</v>
       </c>
@@ -1584,8 +1705,11 @@
       <c r="L34" s="3">
         <v>2.9333333333333331</v>
       </c>
-    </row>
-    <row r="35" spans="2:13">
+      <c r="N34" s="3">
+        <v>0.87337393312700828</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" s="4">
         <v>1957.25</v>
       </c>
@@ -1613,8 +1737,11 @@
       <c r="L35" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="2:13">
+      <c r="N35" s="3">
+        <v>0.93414448999132871</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" s="4">
         <v>1957.5</v>
       </c>
@@ -1642,8 +1769,11 @@
       <c r="L36" s="3">
         <v>3.2333333333333334</v>
       </c>
-    </row>
-    <row r="37" spans="2:13">
+      <c r="N36" s="3">
+        <v>0.97855436969996856</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" s="4">
         <v>1957.75</v>
       </c>
@@ -1671,8 +1801,11 @@
       <c r="L37" s="3">
         <v>3.2533333333333334</v>
       </c>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="N37" s="3">
+        <v>1.0676111069955274</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" s="4">
         <v>1958</v>
       </c>
@@ -1700,8 +1833,11 @@
       <c r="L38" s="3">
         <v>1.8633333333333333</v>
       </c>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="N38" s="3">
+        <v>1.0806008874213426</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" s="4">
         <v>1958.25</v>
       </c>
@@ -1729,8 +1865,11 @@
       <c r="L39" s="3">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="40" spans="2:13">
+      <c r="N39" s="3">
+        <v>1.0910094006975493</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" s="4">
         <v>1958.5</v>
       </c>
@@ -1758,8 +1897,11 @@
       <c r="L40" s="3">
         <v>1.3233333333333333</v>
       </c>
-    </row>
-    <row r="41" spans="2:13">
+      <c r="N40" s="3">
+        <v>1.0878147863321577</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" s="4">
         <v>1958.75</v>
       </c>
@@ -1787,8 +1929,11 @@
       <c r="L41" s="3">
         <v>2.1633333333333331</v>
       </c>
-    </row>
-    <row r="42" spans="2:13">
+      <c r="N41" s="3">
+        <v>1.0916876242572662</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" s="4">
         <v>1959</v>
       </c>
@@ -1819,8 +1964,11 @@
       <c r="M42" s="3">
         <v>287.83333333333331</v>
       </c>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="N42" s="3">
+        <v>1.0548283024463831</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" s="4">
         <v>1959.25</v>
       </c>
@@ -1851,8 +1999,11 @@
       <c r="M43" s="3">
         <v>292.13333333333333</v>
       </c>
-    </row>
-    <row r="44" spans="2:13">
+      <c r="N43" s="3">
+        <v>1.0589260663197693</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" s="4">
         <v>1959.5</v>
       </c>
@@ -1883,8 +2034,11 @@
       <c r="M44" s="3">
         <v>296.10000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="2:13">
+      <c r="N44" s="3">
+        <v>1.0880634723872045</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
       <c r="B45" s="4">
         <v>1959.75</v>
       </c>
@@ -1915,8 +2069,11 @@
       <c r="M45" s="3">
         <v>297.13333333333333</v>
       </c>
-    </row>
-    <row r="46" spans="2:13">
+      <c r="N45" s="3">
+        <v>1.1267856052424752</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" s="4">
         <v>1960</v>
       </c>
@@ -1950,8 +2107,11 @@
       <c r="M46" s="3">
         <v>298.7</v>
       </c>
-    </row>
-    <row r="47" spans="2:13">
+      <c r="N46" s="3">
+        <v>1.1897794361981526</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
       <c r="B47" s="4">
         <v>1960.25</v>
       </c>
@@ -1985,8 +2145,11 @@
       <c r="M47" s="3">
         <v>301.10000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="2:13">
+      <c r="N47" s="3">
+        <v>1.185870398307624</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" s="4">
         <v>1960.5</v>
       </c>
@@ -2020,8 +2183,11 @@
       <c r="M48" s="3">
         <v>306.46666666666664</v>
       </c>
-    </row>
-    <row r="49" spans="2:13">
+      <c r="N48" s="3">
+        <v>1.1994488458302532</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" s="4">
         <v>1960.75</v>
       </c>
@@ -2055,8 +2221,11 @@
       <c r="M49" s="3">
         <v>310.93333333333334</v>
       </c>
-    </row>
-    <row r="50" spans="2:13">
+      <c r="N49" s="3">
+        <v>1.2335624695396643</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
       <c r="B50" s="4">
         <v>1961</v>
       </c>
@@ -2090,8 +2259,11 @@
       <c r="M50" s="3">
         <v>316.3</v>
       </c>
-    </row>
-    <row r="51" spans="2:13">
+      <c r="N50" s="3">
+        <v>1.227903179795371</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
       <c r="B51" s="4">
         <v>1961.25</v>
       </c>
@@ -2125,8 +2297,11 @@
       <c r="M51" s="3">
         <v>322.13333333333333</v>
       </c>
-    </row>
-    <row r="52" spans="2:13">
+      <c r="N51" s="3">
+        <v>1.2573577851045694</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
       <c r="B52" s="4">
         <v>1961.5</v>
       </c>
@@ -2160,8 +2335,11 @@
       <c r="M52" s="3">
         <v>327.56666666666666</v>
       </c>
-    </row>
-    <row r="53" spans="2:13">
+      <c r="N52" s="3">
+        <v>1.2758783527314714</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
       <c r="B53" s="4">
         <v>1961.75</v>
       </c>
@@ -2195,8 +2373,11 @@
       <c r="M53" s="3">
         <v>333.33333333333331</v>
       </c>
-    </row>
-    <row r="54" spans="2:13">
+      <c r="N53" s="3">
+        <v>1.2457753253158745</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
       <c r="B54" s="4">
         <v>1962</v>
       </c>
@@ -2230,8 +2411,11 @@
       <c r="M54" s="3">
         <v>340.23333333333335</v>
       </c>
-    </row>
-    <row r="55" spans="2:13">
+      <c r="N54" s="3">
+        <v>1.2821198906462874</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
       <c r="B55" s="4">
         <v>1962.25</v>
       </c>
@@ -2265,8 +2449,11 @@
       <c r="M55" s="3">
         <v>347.43333333333334</v>
       </c>
-    </row>
-    <row r="56" spans="2:13">
+      <c r="N55" s="3">
+        <v>1.271435843163637</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
       <c r="B56" s="4">
         <v>1962.5</v>
       </c>
@@ -2300,8 +2487,11 @@
       <c r="M56" s="3">
         <v>352.83333333333331</v>
       </c>
-    </row>
-    <row r="57" spans="2:13">
+      <c r="N56" s="3">
+        <v>1.3129342586912349</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
       <c r="B57" s="4">
         <v>1962.75</v>
       </c>
@@ -2335,8 +2525,11 @@
       <c r="M57" s="3">
         <v>359.9</v>
       </c>
-    </row>
-    <row r="58" spans="2:13">
+      <c r="N57" s="3">
+        <v>1.3621953407332263</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
       <c r="B58" s="4">
         <v>1963</v>
       </c>
@@ -2370,8 +2563,11 @@
       <c r="M58" s="3">
         <v>367.93333333333334</v>
       </c>
-    </row>
-    <row r="59" spans="2:13">
+      <c r="N58" s="3">
+        <v>1.3545773294239081</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
       <c r="B59" s="4">
         <v>1963.25</v>
       </c>
@@ -2405,8 +2601,11 @@
       <c r="M59" s="3">
         <v>375.93333333333334</v>
       </c>
-    </row>
-    <row r="60" spans="2:13">
+      <c r="N59" s="3">
+        <v>1.3634366239798239</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
       <c r="B60" s="4">
         <v>1963.5</v>
       </c>
@@ -2440,8 +2639,11 @@
       <c r="M60" s="3">
         <v>383.56666666666666</v>
       </c>
-    </row>
-    <row r="61" spans="2:13">
+      <c r="N60" s="3">
+        <v>1.4131715308141459</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
       <c r="B61" s="4">
         <v>1963.75</v>
       </c>
@@ -2475,8 +2677,11 @@
       <c r="M61" s="3">
         <v>391</v>
       </c>
-    </row>
-    <row r="62" spans="2:13">
+      <c r="N61" s="3">
+        <v>1.4110254028356408</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
       <c r="B62" s="4">
         <v>1964</v>
       </c>
@@ -2510,8 +2715,11 @@
       <c r="M62" s="3">
         <v>397.53333333333336</v>
       </c>
-    </row>
-    <row r="63" spans="2:13">
+      <c r="N62" s="3">
+        <v>1.4736818632936168</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
       <c r="B63" s="4">
         <v>1964.25</v>
       </c>
@@ -2545,8 +2753,11 @@
       <c r="M63" s="3">
         <v>404.33333333333331</v>
       </c>
-    </row>
-    <row r="64" spans="2:13">
+      <c r="N63" s="3">
+        <v>1.4459410143415008</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
       <c r="B64" s="4">
         <v>1964.5</v>
       </c>
@@ -2580,8 +2791,11 @@
       <c r="M64" s="3">
         <v>413.46666666666664</v>
       </c>
-    </row>
-    <row r="65" spans="2:13">
+      <c r="N64" s="3">
+        <v>1.475712506659185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
       <c r="B65" s="4">
         <v>1964.75</v>
       </c>
@@ -2615,8 +2829,11 @@
       <c r="M65" s="3">
         <v>421.93333333333334</v>
       </c>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="N65" s="3">
+        <v>1.467657054542411</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" s="4">
         <v>1965</v>
       </c>
@@ -2650,8 +2867,11 @@
       <c r="M66" s="3">
         <v>430.36666666666667</v>
       </c>
-    </row>
-    <row r="67" spans="2:13">
+      <c r="N66" s="3">
+        <v>1.4637808802519181</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
       <c r="B67" s="4">
         <v>1965.25</v>
       </c>
@@ -2685,8 +2905,11 @@
       <c r="M67" s="3">
         <v>437.53333333333336</v>
       </c>
-    </row>
-    <row r="68" spans="2:13">
+      <c r="N67" s="3">
+        <v>1.4787342393175595</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
       <c r="B68" s="4">
         <v>1965.5</v>
       </c>
@@ -2720,8 +2943,11 @@
       <c r="M68" s="3">
         <v>446.06666666666666</v>
       </c>
-    </row>
-    <row r="69" spans="2:13">
+      <c r="N68" s="3">
+        <v>1.5573129604012002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
       <c r="B69" s="4">
         <v>1965.75</v>
       </c>
@@ -2755,8 +2981,11 @@
       <c r="M69" s="3">
         <v>455.83333333333331</v>
       </c>
-    </row>
-    <row r="70" spans="2:13">
+      <c r="N69" s="3">
+        <v>1.5858330096634849</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
       <c r="B70" s="4">
         <v>1966</v>
       </c>
@@ -2790,8 +3019,11 @@
       <c r="M70" s="3">
         <v>464.6</v>
       </c>
-    </row>
-    <row r="71" spans="2:13">
+      <c r="N70" s="3">
+        <v>1.6186586875163362</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
       <c r="B71" s="4">
         <v>1966.25</v>
       </c>
@@ -2825,8 +3057,11 @@
       <c r="M71" s="3">
         <v>470.2</v>
       </c>
-    </row>
-    <row r="72" spans="2:13">
+      <c r="N71" s="3">
+        <v>1.5997900786133961</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72" s="4">
         <v>1966.5</v>
       </c>
@@ -2860,8 +3095,11 @@
       <c r="M72" s="3">
         <v>472.96666666666664</v>
       </c>
-    </row>
-    <row r="73" spans="2:13">
+      <c r="N72" s="3">
+        <v>1.6049430055896223</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
       <c r="B73" s="4">
         <v>1966.75</v>
       </c>
@@ -2895,8 +3133,11 @@
       <c r="M73" s="3">
         <v>477.73333333333335</v>
       </c>
-    </row>
-    <row r="74" spans="2:13">
+      <c r="N73" s="3">
+        <v>1.6434434162205676</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
       <c r="B74" s="4">
         <v>1967</v>
       </c>
@@ -2930,8 +3171,11 @@
       <c r="M74" s="3">
         <v>485.46666666666664</v>
       </c>
-    </row>
-    <row r="75" spans="2:13">
+      <c r="N74" s="3">
+        <v>1.7216012783653634</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
       <c r="B75" s="4">
         <v>1967.25</v>
       </c>
@@ -2965,8 +3209,11 @@
       <c r="M75" s="3">
         <v>497.1</v>
       </c>
-    </row>
-    <row r="76" spans="2:13">
+      <c r="N75" s="3">
+        <v>1.7669615426585137</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
       <c r="B76" s="4">
         <v>1967.5</v>
       </c>
@@ -3000,8 +3247,11 @@
       <c r="M76" s="3">
         <v>510.6</v>
       </c>
-    </row>
-    <row r="77" spans="2:13">
+      <c r="N76" s="3">
+        <v>1.7484119381669971</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
       <c r="B77" s="4">
         <v>1967.75</v>
       </c>
@@ -3035,8 +3285,11 @@
       <c r="M77" s="3">
         <v>521.4</v>
       </c>
-    </row>
-    <row r="78" spans="2:13">
+      <c r="N77" s="3">
+        <v>1.7858389236725147</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
       <c r="B78" s="4">
         <v>1968</v>
       </c>
@@ -3070,8 +3323,11 @@
       <c r="M78" s="3">
         <v>530.33333333333337</v>
       </c>
-    </row>
-    <row r="79" spans="2:13">
+      <c r="N78" s="3">
+        <v>1.8444819654235025</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
       <c r="B79" s="4">
         <v>1968.25</v>
       </c>
@@ -3105,8 +3361,11 @@
       <c r="M79" s="3">
         <v>539.06666666666672</v>
       </c>
-    </row>
-    <row r="80" spans="2:13">
+      <c r="N79" s="3">
+        <v>1.8700453278125659</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
       <c r="B80" s="4">
         <v>1968.5</v>
       </c>
@@ -3140,8 +3399,11 @@
       <c r="M80" s="3">
         <v>549.5333333333333</v>
       </c>
-    </row>
-    <row r="81" spans="2:13">
+      <c r="N80" s="3">
+        <v>1.8610958895255845</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
       <c r="B81" s="4">
         <v>1968.75</v>
       </c>
@@ -3175,8 +3437,11 @@
       <c r="M81" s="3">
         <v>562.26666666666665</v>
       </c>
-    </row>
-    <row r="82" spans="2:13">
+      <c r="N81" s="3">
+        <v>1.8405049612292383</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
       <c r="B82" s="4">
         <v>1969</v>
       </c>
@@ -3210,8 +3475,11 @@
       <c r="M82" s="3">
         <v>571.86666666666667</v>
       </c>
-    </row>
-    <row r="83" spans="2:13">
+      <c r="N82" s="3">
+        <v>1.8325180914338304</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
       <c r="B83" s="4">
         <v>1969.25</v>
       </c>
@@ -3245,8 +3513,11 @@
       <c r="M83" s="3">
         <v>576.9</v>
       </c>
-    </row>
-    <row r="84" spans="2:13">
+      <c r="N83" s="3">
+        <v>1.8050795351411695</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84" s="4">
         <v>1969.5</v>
       </c>
@@ -3280,8 +3551,11 @@
       <c r="M84" s="3">
         <v>580.56666666666672</v>
       </c>
-    </row>
-    <row r="85" spans="2:13">
+      <c r="N84" s="3">
+        <v>1.7975847869765269</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85" s="4">
         <v>1969.75</v>
       </c>
@@ -3315,8 +3589,11 @@
       <c r="M85" s="3">
         <v>585.56666666666672</v>
       </c>
-    </row>
-    <row r="86" spans="2:13">
+      <c r="N85" s="3">
+        <v>1.7921361631566111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86" s="4">
         <v>1970</v>
       </c>
@@ -3350,8 +3627,11 @@
       <c r="M86" s="3">
         <v>587.73333333333335</v>
       </c>
-    </row>
-    <row r="87" spans="2:13">
+      <c r="N86" s="3">
+        <v>1.8344575274522941</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
       <c r="B87" s="4">
         <v>1970.25</v>
       </c>
@@ -3385,8 +3665,11 @@
       <c r="M87" s="3">
         <v>591.70000000000005</v>
       </c>
-    </row>
-    <row r="88" spans="2:13">
+      <c r="N87" s="3">
+        <v>1.9054807855085196</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
       <c r="B88" s="4">
         <v>1970.5</v>
       </c>
@@ -3420,8 +3703,11 @@
       <c r="M88" s="3">
         <v>605.06666666666672</v>
       </c>
-    </row>
-    <row r="89" spans="2:13">
+      <c r="N88" s="3">
+        <v>1.9604305712466923</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
       <c r="B89" s="4">
         <v>1970.75</v>
       </c>
@@ -3455,8 +3741,11 @@
       <c r="M89" s="3">
         <v>621.33333333333337</v>
       </c>
-    </row>
-    <row r="90" spans="2:13">
+      <c r="N89" s="3">
+        <v>1.9571518725953316</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
       <c r="B90" s="4">
         <v>1971</v>
       </c>
@@ -3490,8 +3779,11 @@
       <c r="M90" s="3">
         <v>641.26666666666665</v>
       </c>
-    </row>
-    <row r="91" spans="2:13">
+      <c r="N90" s="3">
+        <v>2.0062741441555008</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
       <c r="B91" s="4">
         <v>1971.25</v>
       </c>
@@ -3525,8 +3817,11 @@
       <c r="M91" s="3">
         <v>666.0333333333333</v>
       </c>
-    </row>
-    <row r="92" spans="2:13">
+      <c r="N91" s="3">
+        <v>2.008476218960729</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
       <c r="B92" s="4">
         <v>1971.5</v>
       </c>
@@ -3560,8 +3855,11 @@
       <c r="M92" s="3">
         <v>685.86666666666667</v>
       </c>
-    </row>
-    <row r="93" spans="2:13">
+      <c r="N92" s="3">
+        <v>2.0938507805157243</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14">
       <c r="B93" s="4">
         <v>1971.75</v>
       </c>
@@ -3595,8 +3893,11 @@
       <c r="M93" s="3">
         <v>704.43333333333328</v>
       </c>
-    </row>
-    <row r="94" spans="2:13">
+      <c r="N93" s="3">
+        <v>2.0396589681456043</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
       <c r="B94" s="4">
         <v>1972</v>
       </c>
@@ -3630,8 +3931,11 @@
       <c r="M94" s="3">
         <v>725.63333333333333</v>
       </c>
-    </row>
-    <row r="95" spans="2:13">
+      <c r="N94" s="3">
+        <v>2.0512020234779418</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
       <c r="B95" s="4">
         <v>1972.25</v>
       </c>
@@ -3665,8 +3969,11 @@
       <c r="M95" s="3">
         <v>743.8</v>
       </c>
-    </row>
-    <row r="96" spans="2:13">
+      <c r="N95" s="3">
+        <v>2.0785714211621356</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14">
       <c r="B96" s="4">
         <v>1972.5</v>
       </c>
@@ -3700,8 +4007,11 @@
       <c r="M96" s="3">
         <v>768.83333333333337</v>
       </c>
-    </row>
-    <row r="97" spans="2:13">
+      <c r="N96" s="3">
+        <v>2.1048234375714721</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14">
       <c r="B97" s="4">
         <v>1972.75</v>
       </c>
@@ -3735,8 +4045,11 @@
       <c r="M97" s="3">
         <v>794.36666666666667</v>
       </c>
-    </row>
-    <row r="98" spans="2:13">
+      <c r="N97" s="3">
+        <v>2.1382166368657805</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14">
       <c r="B98" s="4">
         <v>1973</v>
       </c>
@@ -3770,8 +4083,11 @@
       <c r="M98" s="3">
         <v>813.23333333333335</v>
       </c>
-    </row>
-    <row r="99" spans="2:13">
+      <c r="N98" s="3">
+        <v>2.1794005202459172</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14">
       <c r="B99" s="4">
         <v>1973.25</v>
       </c>
@@ -3805,8 +4121,11 @@
       <c r="M99" s="3">
         <v>826.6</v>
       </c>
-    </row>
-    <row r="100" spans="2:13">
+      <c r="N99" s="3">
+        <v>2.1561124730471866</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14">
       <c r="B100" s="4">
         <v>1973.5</v>
       </c>
@@ -3840,8 +4159,11 @@
       <c r="M100" s="3">
         <v>838.2</v>
       </c>
-    </row>
-    <row r="101" spans="2:13">
+      <c r="N100" s="3">
+        <v>2.1136614145781638</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14">
       <c r="B101" s="4">
         <v>1973.75</v>
       </c>
@@ -3875,8 +4197,11 @@
       <c r="M101" s="3">
         <v>849</v>
       </c>
-    </row>
-    <row r="102" spans="2:13">
+      <c r="N101" s="3">
+        <v>2.125813896754563</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14">
       <c r="B102" s="4">
         <v>1974</v>
       </c>
@@ -3910,8 +4235,11 @@
       <c r="M102" s="3">
         <v>864.66666666666663</v>
       </c>
-    </row>
-    <row r="103" spans="2:13">
+      <c r="N102" s="3">
+        <v>2.0939386214214029</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14">
       <c r="B103" s="4">
         <v>1974.25</v>
       </c>
@@ -3945,8 +4273,11 @@
       <c r="M103" s="3">
         <v>875.1</v>
       </c>
-    </row>
-    <row r="104" spans="2:13">
+      <c r="N103" s="3">
+        <v>2.1212511781738272</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14">
       <c r="B104" s="4">
         <v>1974.5</v>
       </c>
@@ -3980,8 +4311,11 @@
       <c r="M104" s="3">
         <v>884.4666666666667</v>
       </c>
-    </row>
-    <row r="105" spans="2:13">
+      <c r="N104" s="3">
+        <v>2.0636835511365876</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14">
       <c r="B105" s="4">
         <v>1974.75</v>
       </c>
@@ -4015,8 +4349,11 @@
       <c r="M105" s="3">
         <v>898</v>
       </c>
-    </row>
-    <row r="106" spans="2:13">
+      <c r="N105" s="3">
+        <v>2.1152803734906915</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14">
       <c r="B106" s="4">
         <v>1975</v>
       </c>
@@ -4050,8 +4387,11 @@
       <c r="M106" s="3">
         <v>915.13333333333333</v>
       </c>
-    </row>
-    <row r="107" spans="2:13">
+      <c r="N106" s="3">
+        <v>2.2122275673001557</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14">
       <c r="B107" s="4">
         <v>1975.25</v>
       </c>
@@ -4085,8 +4425,11 @@
       <c r="M107" s="3">
         <v>948.66666666666663</v>
       </c>
-    </row>
-    <row r="108" spans="2:13">
+      <c r="N107" s="3">
+        <v>2.2637850345180865</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14">
       <c r="B108" s="4">
         <v>1975.5</v>
       </c>
@@ -4120,8 +4463,11 @@
       <c r="M108" s="3">
         <v>983.23333333333335</v>
       </c>
-    </row>
-    <row r="109" spans="2:13">
+      <c r="N108" s="3">
+        <v>2.241046536753156</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14">
       <c r="B109" s="4">
         <v>1975.75</v>
       </c>
@@ -4155,8 +4501,11 @@
       <c r="M109" s="3">
         <v>1006.9666666666667</v>
       </c>
-    </row>
-    <row r="110" spans="2:13">
+      <c r="N109" s="3">
+        <v>2.1994796196371276</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14">
       <c r="B110" s="4">
         <v>1976</v>
       </c>
@@ -4190,8 +4539,11 @@
       <c r="M110" s="3">
         <v>1038.9666666666667</v>
       </c>
-    </row>
-    <row r="111" spans="2:13">
+      <c r="N110" s="3">
+        <v>2.2024641254856605</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14">
       <c r="B111" s="4">
         <v>1976.25</v>
       </c>
@@ -4225,8 +4577,11 @@
       <c r="M111" s="3">
         <v>1070.1666666666667</v>
       </c>
-    </row>
-    <row r="112" spans="2:13">
+      <c r="N111" s="3">
+        <v>2.2362664681661926</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14">
       <c r="B112" s="4">
         <v>1976.5</v>
       </c>
@@ -4260,8 +4615,11 @@
       <c r="M112" s="3">
         <v>1098.5999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="2:13">
+      <c r="N112" s="3">
+        <v>2.2292835917268885</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14">
       <c r="B113" s="4">
         <v>1976.75</v>
       </c>
@@ -4295,8 +4653,11 @@
       <c r="M113" s="3">
         <v>1138.4000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="2:13">
+      <c r="N113" s="3">
+        <v>2.267531682708726</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14">
       <c r="B114" s="4">
         <v>1977</v>
       </c>
@@ -4330,8 +4691,11 @@
       <c r="M114" s="3">
         <v>1177.0999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="2:13">
+      <c r="N114" s="3">
+        <v>2.2909601011571272</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14">
       <c r="B115" s="4">
         <v>1977.25</v>
       </c>
@@ -4365,8 +4729,11 @@
       <c r="M115" s="3">
         <v>1208.8</v>
       </c>
-    </row>
-    <row r="116" spans="2:13">
+      <c r="N115" s="3">
+        <v>2.2749173879800622</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14">
       <c r="B116" s="4">
         <v>1977.5</v>
       </c>
@@ -4400,8 +4767,11 @@
       <c r="M116" s="3">
         <v>1236.6333333333334</v>
       </c>
-    </row>
-    <row r="117" spans="2:13">
+      <c r="N116" s="3">
+        <v>2.3350286739231523</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14">
       <c r="B117" s="4">
         <v>1977.75</v>
       </c>
@@ -4435,8 +4805,11 @@
       <c r="M117" s="3">
         <v>1262.2333333333333</v>
       </c>
-    </row>
-    <row r="118" spans="2:13">
+      <c r="N117" s="3">
+        <v>2.293627433439946</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14">
       <c r="B118" s="4">
         <v>1978</v>
       </c>
@@ -4470,8 +4843,11 @@
       <c r="M118" s="3">
         <v>1285.8</v>
       </c>
-    </row>
-    <row r="119" spans="2:13">
+      <c r="N118" s="3">
+        <v>2.3198507274897202</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14">
       <c r="B119" s="4">
         <v>1978.25</v>
       </c>
@@ -4505,8 +4881,11 @@
       <c r="M119" s="3">
         <v>1309.8</v>
       </c>
-    </row>
-    <row r="120" spans="2:13">
+      <c r="N119" s="3">
+        <v>2.322110288191046</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14">
       <c r="B120" s="4">
         <v>1978.5</v>
       </c>
@@ -4540,8 +4919,11 @@
       <c r="M120" s="3">
         <v>1334.2</v>
       </c>
-    </row>
-    <row r="121" spans="2:13">
+      <c r="N120" s="3">
+        <v>2.3193922161160279</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14">
       <c r="B121" s="4">
         <v>1978.75</v>
       </c>
@@ -4575,8 +4957,11 @@
       <c r="M121" s="3">
         <v>1359.1333333333334</v>
       </c>
-    </row>
-    <row r="122" spans="2:13">
+      <c r="N121" s="3">
+        <v>2.3113550486609298</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14">
       <c r="B122" s="4">
         <v>1979</v>
       </c>
@@ -4610,8 +4995,11 @@
       <c r="M122" s="3">
         <v>1379.0666666666666</v>
       </c>
-    </row>
-    <row r="123" spans="2:13">
+      <c r="N122" s="3">
+        <v>2.313045644655455</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14">
       <c r="B123" s="4">
         <v>1979.25</v>
       </c>
@@ -4645,8 +5033,11 @@
       <c r="M123" s="3">
         <v>1411.7666666666667</v>
       </c>
-    </row>
-    <row r="124" spans="2:13">
+      <c r="N123" s="3">
+        <v>2.3530314585539922</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14">
       <c r="B124" s="4">
         <v>1979.5</v>
       </c>
@@ -4680,8 +5071,11 @@
       <c r="M124" s="3">
         <v>1445.1666666666667</v>
       </c>
-    </row>
-    <row r="125" spans="2:13">
+      <c r="N124" s="3">
+        <v>2.2971711001776107</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14">
       <c r="B125" s="4">
         <v>1979.75</v>
       </c>
@@ -4715,8 +5109,11 @@
       <c r="M125" s="3">
         <v>1466.6666666666667</v>
       </c>
-    </row>
-    <row r="126" spans="2:13">
+      <c r="N125" s="3">
+        <v>2.300909863136269</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14">
       <c r="B126" s="4">
         <v>1980</v>
       </c>
@@ -4750,8 +5147,11 @@
       <c r="M126" s="3">
         <v>1492.3666666666666</v>
       </c>
-    </row>
-    <row r="127" spans="2:13">
+      <c r="N126" s="3">
+        <v>2.3792557545124553</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14">
       <c r="B127" s="4">
         <v>1980.25</v>
       </c>
@@ -4785,8 +5185,11 @@
       <c r="M127" s="3">
         <v>1514.5666666666666</v>
       </c>
-    </row>
-    <row r="128" spans="2:13">
+      <c r="N127" s="3">
+        <v>2.3405950460645473</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14">
       <c r="B128" s="4">
         <v>1980.5</v>
       </c>
@@ -4820,8 +5223,11 @@
       <c r="M128" s="3">
         <v>1560.3333333333333</v>
       </c>
-    </row>
-    <row r="129" spans="2:13">
+      <c r="N128" s="3">
+        <v>2.3185572601192197</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14">
       <c r="B129" s="4">
         <v>1980.75</v>
       </c>
@@ -4855,8 +5261,11 @@
       <c r="M129" s="3">
         <v>1593.4666666666667</v>
       </c>
-    </row>
-    <row r="130" spans="2:13">
+      <c r="N129" s="3">
+        <v>2.3031048371107574</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14">
       <c r="B130" s="4">
         <v>1981</v>
       </c>
@@ -4890,8 +5299,11 @@
       <c r="M130" s="3">
         <v>1620.7333333333333</v>
       </c>
-    </row>
-    <row r="131" spans="2:13">
+      <c r="N130" s="3">
+        <v>2.3470368092251737</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14">
       <c r="B131" s="4">
         <v>1981.25</v>
       </c>
@@ -4925,8 +5337,11 @@
       <c r="M131" s="3">
         <v>1664.5666666666666</v>
       </c>
-    </row>
-    <row r="132" spans="2:13">
+      <c r="N131" s="3">
+        <v>2.3084970302374885</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14">
       <c r="B132" s="4">
         <v>1981.5</v>
       </c>
@@ -4960,8 +5375,11 @@
       <c r="M132" s="3">
         <v>1694.0666666666666</v>
       </c>
-    </row>
-    <row r="133" spans="2:13">
+      <c r="N132" s="3">
+        <v>2.3841022662629916</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14">
       <c r="B133" s="4">
         <v>1981.75</v>
       </c>
@@ -4995,8 +5413,11 @@
       <c r="M133" s="3">
         <v>1737.8</v>
       </c>
-    </row>
-    <row r="134" spans="2:13">
+      <c r="N133" s="3">
+        <v>2.3643823257562184</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14">
       <c r="B134" s="4">
         <v>1982</v>
       </c>
@@ -5030,8 +5451,11 @@
       <c r="M134" s="3">
         <v>1777.1333333333334</v>
       </c>
-    </row>
-    <row r="135" spans="2:13">
+      <c r="N134" s="3">
+        <v>2.3779232021099781</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14">
       <c r="B135" s="4">
         <v>1982.25</v>
       </c>
@@ -5065,8 +5489,11 @@
       <c r="M135" s="3">
         <v>1815.1</v>
       </c>
-    </row>
-    <row r="136" spans="2:13">
+      <c r="N135" s="3">
+        <v>2.3536002737447008</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14">
       <c r="B136" s="4">
         <v>1982.5</v>
       </c>
@@ -5100,8 +5527,11 @@
       <c r="M136" s="3">
         <v>1845.0333333333333</v>
       </c>
-    </row>
-    <row r="137" spans="2:13">
+      <c r="N136" s="3">
+        <v>2.3322816753324118</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14">
       <c r="B137" s="4">
         <v>1982.75</v>
       </c>
@@ -5135,8 +5565,11 @@
       <c r="M137" s="3">
         <v>1886.4333333333334</v>
       </c>
-    </row>
-    <row r="138" spans="2:13">
+      <c r="N137" s="3">
+        <v>2.3396919390091986</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14">
       <c r="B138" s="4">
         <v>1983</v>
       </c>
@@ -5170,8 +5603,11 @@
       <c r="M138" s="3">
         <v>1990.4666666666667</v>
       </c>
-    </row>
-    <row r="139" spans="2:13">
+      <c r="N138" s="3">
+        <v>2.3313483138674749</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14">
       <c r="B139" s="4">
         <v>1983.25</v>
       </c>
@@ -5205,8 +5641,11 @@
       <c r="M139" s="3">
         <v>2041.7333333333333</v>
       </c>
-    </row>
-    <row r="140" spans="2:13">
+      <c r="N139" s="3">
+        <v>2.3231094064651177</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14">
       <c r="B140" s="4">
         <v>1983.5</v>
       </c>
@@ -5240,8 +5679,11 @@
       <c r="M140" s="3">
         <v>2074</v>
       </c>
-    </row>
-    <row r="141" spans="2:13">
+      <c r="N140" s="3">
+        <v>2.2758271355976274</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14">
       <c r="B141" s="4">
         <v>1983.75</v>
       </c>
@@ -5275,8 +5717,11 @@
       <c r="M141" s="3">
         <v>2111.6999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="2:13">
+      <c r="N141" s="3">
+        <v>2.2792384723795895</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14">
       <c r="B142" s="4">
         <v>1984</v>
       </c>
@@ -5310,8 +5755,11 @@
       <c r="M142" s="3">
         <v>2157.1999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="2:13">
+      <c r="N142" s="3">
+        <v>2.3131955377934852</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14">
       <c r="B143" s="4">
         <v>1984.25</v>
       </c>
@@ -5345,8 +5793,11 @@
       <c r="M143" s="3">
         <v>2203.6333333333332</v>
       </c>
-    </row>
-    <row r="144" spans="2:13">
+      <c r="N143" s="3">
+        <v>2.342786168711521</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14">
       <c r="B144" s="4">
         <v>1984.5</v>
       </c>
@@ -5380,8 +5831,11 @@
       <c r="M144" s="3">
         <v>2232.7666666666669</v>
       </c>
-    </row>
-    <row r="145" spans="2:13">
+      <c r="N144" s="3">
+        <v>2.3624608654095427</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14">
       <c r="B145" s="4">
         <v>1984.75</v>
       </c>
@@ -5415,8 +5869,11 @@
       <c r="M145" s="3">
         <v>2282.2333333333331</v>
       </c>
-    </row>
-    <row r="146" spans="2:13">
+      <c r="N145" s="3">
+        <v>2.3715086745111225</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14">
       <c r="B146" s="4">
         <v>1985</v>
       </c>
@@ -5450,8 +5907,11 @@
       <c r="M146" s="3">
         <v>2350.9</v>
       </c>
-    </row>
-    <row r="147" spans="2:13">
+      <c r="N146" s="3">
+        <v>2.415884779300022</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14">
       <c r="B147" s="4">
         <v>1985.25</v>
       </c>
@@ -5485,8 +5945,11 @@
       <c r="M147" s="3">
         <v>2392.5</v>
       </c>
-    </row>
-    <row r="148" spans="2:13">
+      <c r="N147" s="3">
+        <v>2.4077739595064784</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14">
       <c r="B148" s="4">
         <v>1985.5</v>
       </c>
@@ -5520,8 +5983,11 @@
       <c r="M148" s="3">
         <v>2443.3000000000002</v>
       </c>
-    </row>
-    <row r="149" spans="2:13">
+      <c r="N148" s="3">
+        <v>2.4347342995282144</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14">
       <c r="B149" s="4">
         <v>1985.75</v>
       </c>
@@ -5555,8 +6021,11 @@
       <c r="M149" s="3">
         <v>2479.3000000000002</v>
       </c>
-    </row>
-    <row r="150" spans="2:13">
+      <c r="N149" s="3">
+        <v>2.4253555050936666</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14">
       <c r="B150" s="4">
         <v>1986</v>
       </c>
@@ -5593,8 +6062,11 @@
       <c r="M150" s="3">
         <v>2516.0333333333333</v>
       </c>
-    </row>
-    <row r="151" spans="2:13">
+      <c r="N150" s="3">
+        <v>2.4627815406921902</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14">
       <c r="B151" s="4">
         <v>1986.25</v>
       </c>
@@ -5631,8 +6103,11 @@
       <c r="M151" s="3">
         <v>2582.5333333333333</v>
       </c>
-    </row>
-    <row r="152" spans="2:13">
+      <c r="N151" s="3">
+        <v>2.4950520939178098</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14">
       <c r="B152" s="4">
         <v>1986.5</v>
       </c>
@@ -5669,8 +6144,11 @@
       <c r="M152" s="3">
         <v>2646.9666666666667</v>
       </c>
-    </row>
-    <row r="153" spans="2:13">
+      <c r="N152" s="3">
+        <v>2.4997099280276878</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14">
       <c r="B153" s="4">
         <v>1986.75</v>
       </c>
@@ -5707,8 +6185,11 @@
       <c r="M153" s="3">
         <v>2705.5666666666666</v>
       </c>
-    </row>
-    <row r="154" spans="2:13">
+      <c r="N153" s="3">
+        <v>2.4856125702640037</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14">
       <c r="B154" s="4">
         <v>1987</v>
       </c>
@@ -5745,8 +6226,11 @@
       <c r="M154" s="3">
         <v>2748.3666666666668</v>
       </c>
-    </row>
-    <row r="155" spans="2:13">
+      <c r="N154" s="3">
+        <v>2.4439263853676003</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14">
       <c r="B155" s="4">
         <v>1987.25</v>
       </c>
@@ -5783,8 +6267,11 @@
       <c r="M155" s="3">
         <v>2771.7333333333331</v>
       </c>
-    </row>
-    <row r="156" spans="2:13">
+      <c r="N155" s="3">
+        <v>2.4867642499152147</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14">
       <c r="B156" s="4">
         <v>1987.5</v>
       </c>
@@ -5821,8 +6308,11 @@
       <c r="M156" s="3">
         <v>2788.9</v>
       </c>
-    </row>
-    <row r="157" spans="2:13">
+      <c r="N156" s="3">
+        <v>2.5018988462963665</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14">
       <c r="B157" s="4">
         <v>1987.75</v>
       </c>
@@ -5859,8 +6349,11 @@
       <c r="M157" s="3">
         <v>2820.0333333333333</v>
       </c>
-    </row>
-    <row r="158" spans="2:13">
+      <c r="N157" s="3">
+        <v>2.5052746101355798</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14">
       <c r="B158" s="4">
         <v>1988</v>
       </c>
@@ -5897,8 +6390,11 @@
       <c r="M158" s="3">
         <v>2869.5</v>
       </c>
-    </row>
-    <row r="159" spans="2:13">
+      <c r="N158" s="3">
+        <v>2.5628320208870119</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14">
       <c r="B159" s="4">
         <v>1988.25</v>
       </c>
@@ -5935,8 +6431,11 @@
       <c r="M159" s="3">
         <v>2925.0333333333333</v>
       </c>
-    </row>
-    <row r="160" spans="2:13">
+      <c r="N159" s="3">
+        <v>2.5733069966048392</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14">
       <c r="B160" s="4">
         <v>1988.5</v>
       </c>
@@ -5973,8 +6472,11 @@
       <c r="M160" s="3">
         <v>2952.0333333333333</v>
       </c>
-    </row>
-    <row r="161" spans="2:13">
+      <c r="N160" s="3">
+        <v>2.5907893909007105</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14">
       <c r="B161" s="4">
         <v>1988.75</v>
       </c>
@@ -6011,8 +6513,11 @@
       <c r="M161" s="3">
         <v>2977.9</v>
       </c>
-    </row>
-    <row r="162" spans="2:13">
+      <c r="N161" s="3">
+        <v>2.5905708767109679</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14">
       <c r="B162" s="4">
         <v>1989</v>
       </c>
@@ -6049,8 +6554,11 @@
       <c r="M162" s="3">
         <v>2994.5333333333333</v>
       </c>
-    </row>
-    <row r="163" spans="2:13">
+      <c r="N162" s="3">
+        <v>2.5786078770674288</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14">
       <c r="B163" s="4">
         <v>1989.25</v>
       </c>
@@ -6087,8 +6595,11 @@
       <c r="M163" s="3">
         <v>3015.1666666666665</v>
       </c>
-    </row>
-    <row r="164" spans="2:13">
+      <c r="N163" s="3">
+        <v>2.5603001398787901</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14">
       <c r="B164" s="4">
         <v>1989.5</v>
       </c>
@@ -6125,8 +6636,11 @@
       <c r="M164" s="3">
         <v>3073.1</v>
       </c>
-    </row>
-    <row r="165" spans="2:13">
+      <c r="N164" s="3">
+        <v>2.5813592494586093</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14">
       <c r="B165" s="4">
         <v>1989.75</v>
       </c>
@@ -6163,8 +6677,11 @@
       <c r="M165" s="3">
         <v>3133.3</v>
       </c>
-    </row>
-    <row r="166" spans="2:13">
+      <c r="N165" s="3">
+        <v>2.5729497790448566</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14">
       <c r="B166" s="4">
         <v>1990</v>
       </c>
@@ -6201,8 +6718,11 @@
       <c r="M166" s="3">
         <v>3178.7</v>
       </c>
-    </row>
-    <row r="167" spans="2:13">
+      <c r="N166" s="3">
+        <v>2.5811070096883668</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14">
       <c r="B167" s="4">
         <v>1990.25</v>
       </c>
@@ -6239,8 +6759,11 @@
       <c r="M167" s="3">
         <v>3205.3</v>
       </c>
-    </row>
-    <row r="168" spans="2:13">
+      <c r="N167" s="3">
+        <v>2.5878792262094987</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14">
       <c r="B168" s="4">
         <v>1990.5</v>
       </c>
@@ -6277,8 +6800,11 @@
       <c r="M168" s="3">
         <v>3240.3666666666668</v>
       </c>
-    </row>
-    <row r="169" spans="2:13">
+      <c r="N168" s="3">
+        <v>2.5890344562984939</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14">
       <c r="B169" s="4">
         <v>1990.75</v>
       </c>
@@ -6315,8 +6841,11 @@
       <c r="M169" s="3">
         <v>3264.5666666666666</v>
       </c>
-    </row>
-    <row r="170" spans="2:13">
+      <c r="N169" s="3">
+        <v>2.5841353235015014</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14">
       <c r="B170" s="4">
         <v>1991</v>
       </c>
@@ -6353,8 +6882,11 @@
       <c r="M170" s="3">
         <v>3304.7</v>
       </c>
-    </row>
-    <row r="171" spans="2:13">
+      <c r="N170" s="3">
+        <v>2.6015901116812445</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14">
       <c r="B171" s="4">
         <v>1991.25</v>
       </c>
@@ -6391,8 +6923,11 @@
       <c r="M171" s="3">
         <v>3342.4333333333334</v>
       </c>
-    </row>
-    <row r="172" spans="2:13">
+      <c r="N171" s="3">
+        <v>2.6256532865112217</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14">
       <c r="B172" s="4">
         <v>1991.5</v>
       </c>
@@ -6429,8 +6964,11 @@
       <c r="M172" s="3">
         <v>3355.3333333333335</v>
       </c>
-    </row>
-    <row r="173" spans="2:13">
+      <c r="N172" s="3">
+        <v>2.6178199655687573</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14">
       <c r="B173" s="4">
         <v>1991.75</v>
       </c>
@@ -6467,8 +7005,11 @@
       <c r="M173" s="3">
         <v>3365.9333333333334</v>
       </c>
-    </row>
-    <row r="174" spans="2:13">
+      <c r="N173" s="3">
+        <v>2.610040664704651</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14">
       <c r="B174" s="4">
         <v>1992</v>
       </c>
@@ -6505,8 +7046,11 @@
       <c r="M174" s="3">
         <v>3395.0333333333333</v>
       </c>
-    </row>
-    <row r="175" spans="2:13">
+      <c r="N174" s="3">
+        <v>2.710730965940912</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14">
       <c r="B175" s="4">
         <v>1992.25</v>
       </c>
@@ -6543,8 +7087,11 @@
       <c r="M175" s="3">
         <v>3397.2333333333331</v>
       </c>
-    </row>
-    <row r="176" spans="2:13">
+      <c r="N175" s="3">
+        <v>2.697289144656736</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14">
       <c r="B176" s="4">
         <v>1992.5</v>
       </c>
@@ -6581,8 +7128,11 @@
       <c r="M176" s="3">
         <v>3401</v>
       </c>
-    </row>
-    <row r="177" spans="2:13">
+      <c r="N176" s="3">
+        <v>2.7022210290388045</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14">
       <c r="B177" s="4">
         <v>1992.75</v>
       </c>
@@ -6619,8 +7169,11 @@
       <c r="M177" s="3">
         <v>3425</v>
       </c>
-    </row>
-    <row r="178" spans="2:13">
+      <c r="N177" s="3">
+        <v>2.6958219264664565</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14">
       <c r="B178" s="4">
         <v>1993</v>
       </c>
@@ -6657,8 +7210,11 @@
       <c r="M178" s="3">
         <v>3415.1</v>
       </c>
-    </row>
-    <row r="179" spans="2:13">
+      <c r="N178" s="3">
+        <v>2.6236126785536165</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14">
       <c r="B179" s="4">
         <v>1993.25</v>
       </c>
@@ -6695,8 +7251,11 @@
       <c r="M179" s="3">
         <v>3430.2</v>
       </c>
-    </row>
-    <row r="180" spans="2:13">
+      <c r="N179" s="3">
+        <v>2.6035362456602336</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14">
       <c r="B180" s="4">
         <v>1993.5</v>
       </c>
@@ -6733,8 +7292,11 @@
       <c r="M180" s="3">
         <v>3446.6333333333332</v>
       </c>
-    </row>
-    <row r="181" spans="2:13">
+      <c r="N180" s="3">
+        <v>2.5665877527265439</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14">
       <c r="B181" s="4">
         <v>1993.75</v>
       </c>
@@ -6771,8 +7333,11 @@
       <c r="M181" s="3">
         <v>3467.1</v>
       </c>
-    </row>
-    <row r="182" spans="2:13">
+      <c r="N181" s="3">
+        <v>2.6052553113480492</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14">
       <c r="B182" s="4">
         <v>1994</v>
       </c>
@@ -6809,8 +7374,11 @@
       <c r="M182" s="3">
         <v>3476.9</v>
       </c>
-    </row>
-    <row r="183" spans="2:13">
+      <c r="N182" s="3">
+        <v>2.568432677857635</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14">
       <c r="B183" s="4">
         <v>1994.25</v>
       </c>
@@ -6847,8 +7415,11 @@
       <c r="M183" s="3">
         <v>3483.8666666666668</v>
       </c>
-    </row>
-    <row r="184" spans="2:13">
+      <c r="N183" s="3">
+        <v>2.5601520579903139</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14">
       <c r="B184" s="4">
         <v>1994.5</v>
       </c>
@@ -6885,8 +7456,11 @@
       <c r="M184" s="3">
         <v>3486.6666666666665</v>
       </c>
-    </row>
-    <row r="185" spans="2:13">
+      <c r="N184" s="3">
+        <v>2.5553932010645175</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14">
       <c r="B185" s="4">
         <v>1994.75</v>
       </c>
@@ -6923,8 +7497,11 @@
       <c r="M185" s="3">
         <v>3485.9666666666667</v>
       </c>
-    </row>
-    <row r="186" spans="2:13">
+      <c r="N185" s="3">
+        <v>2.5867195745694249</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14">
       <c r="B186" s="4">
         <v>1995</v>
       </c>
@@ -6961,8 +7538,11 @@
       <c r="M186" s="3">
         <v>3491.1333333333332</v>
       </c>
-    </row>
-    <row r="187" spans="2:13">
+      <c r="N186" s="3">
+        <v>2.5969353653918055</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14">
       <c r="B187" s="4">
         <v>1995.25</v>
       </c>
@@ -6999,8 +7579,11 @@
       <c r="M187" s="3">
         <v>3524.1</v>
       </c>
-    </row>
-    <row r="188" spans="2:13">
+      <c r="N187" s="3">
+        <v>2.6382688741459637</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14">
       <c r="B188" s="4">
         <v>1995.5</v>
       </c>
@@ -7037,8 +7620,11 @@
       <c r="M188" s="3">
         <v>3586.1666666666665</v>
       </c>
-    </row>
-    <row r="189" spans="2:13">
+      <c r="N188" s="3">
+        <v>2.6444037306380541</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14">
       <c r="B189" s="4">
         <v>1995.75</v>
       </c>
@@ -7075,8 +7661,11 @@
       <c r="M189" s="3">
         <v>3620.9333333333334</v>
       </c>
-    </row>
-    <row r="190" spans="2:13">
+      <c r="N189" s="3">
+        <v>2.6549786951275407</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14">
       <c r="B190" s="4">
         <v>1996</v>
       </c>
@@ -7113,8 +7702,11 @@
       <c r="M190" s="3">
         <v>3665.6</v>
       </c>
-    </row>
-    <row r="191" spans="2:13">
+      <c r="N190" s="3">
+        <v>2.7176451435033151</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14">
       <c r="B191" s="4">
         <v>1996.25</v>
       </c>
@@ -7151,8 +7743,11 @@
       <c r="M191" s="3">
         <v>3710.0666666666666</v>
       </c>
-    </row>
-    <row r="192" spans="2:13">
+      <c r="N191" s="3">
+        <v>2.6900208545091138</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14">
       <c r="B192" s="4">
         <v>1996.5</v>
       </c>
@@ -7189,8 +7784,11 @@
       <c r="M192" s="3">
         <v>3745.1</v>
       </c>
-    </row>
-    <row r="193" spans="2:13">
+      <c r="N192" s="3">
+        <v>2.6898150675758443</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14">
       <c r="B193" s="4">
         <v>1996.75</v>
       </c>
@@ -7227,8 +7825,11 @@
       <c r="M193" s="3">
         <v>3790.5666666666666</v>
       </c>
-    </row>
-    <row r="194" spans="2:13">
+      <c r="N193" s="3">
+        <v>2.7085638167849346</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14">
       <c r="B194" s="4">
         <v>1997</v>
       </c>
@@ -7265,8 +7866,11 @@
       <c r="M194" s="3">
         <v>3837.5</v>
       </c>
-    </row>
-    <row r="195" spans="2:13">
+      <c r="N194" s="3">
+        <v>2.6893318062844069</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14">
       <c r="B195" s="4">
         <v>1997.25</v>
       </c>
@@ -7303,8 +7907,11 @@
       <c r="M195" s="3">
         <v>3880.8666666666668</v>
       </c>
-    </row>
-    <row r="196" spans="2:13">
+      <c r="N195" s="3">
+        <v>2.7161457059747192</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14">
       <c r="B196" s="4">
         <v>1997.5</v>
       </c>
@@ -7341,8 +7948,11 @@
       <c r="M196" s="3">
         <v>3941.5333333333333</v>
       </c>
-    </row>
-    <row r="197" spans="2:13">
+      <c r="N196" s="3">
+        <v>2.7640782027708042</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14">
       <c r="B197" s="4">
         <v>1997.75</v>
       </c>
@@ -7379,8 +7989,11 @@
       <c r="M197" s="3">
         <v>4003.3666666666668</v>
       </c>
-    </row>
-    <row r="198" spans="2:13">
+      <c r="N197" s="3">
+        <v>2.7547417824155866</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14">
       <c r="B198" s="4">
         <v>1998</v>
       </c>
@@ -7417,8 +8030,11 @@
       <c r="M198" s="3">
         <v>4076.6333333333332</v>
       </c>
-    </row>
-    <row r="199" spans="2:13">
+      <c r="N198" s="3">
+        <v>2.7713359820983503</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14">
       <c r="B199" s="4">
         <v>1998.25</v>
       </c>
@@ -7455,8 +8071,11 @@
       <c r="M199" s="3">
         <v>4152.8666666666668</v>
       </c>
-    </row>
-    <row r="200" spans="2:13">
+      <c r="N199" s="3">
+        <v>2.8211097445966709</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14">
       <c r="B200" s="4">
         <v>1998.5</v>
       </c>
@@ -7493,8 +8112,11 @@
       <c r="M200" s="3">
         <v>4223.4333333333334</v>
       </c>
-    </row>
-    <row r="201" spans="2:13">
+      <c r="N200" s="3">
+        <v>2.8648019100237128</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14">
       <c r="B201" s="4">
         <v>1998.75</v>
       </c>
@@ -7531,8 +8153,11 @@
       <c r="M201" s="3">
         <v>4333.4333333333334</v>
       </c>
-    </row>
-    <row r="202" spans="2:13">
+      <c r="N201" s="3">
+        <v>2.8508978545619472</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14">
       <c r="B202" s="4">
         <v>1999</v>
       </c>
@@ -7569,8 +8194,11 @@
       <c r="M202" s="3">
         <v>4410.5333333333338</v>
       </c>
-    </row>
-    <row r="203" spans="2:13">
+      <c r="N202" s="3">
+        <v>2.9059335187150674</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14">
       <c r="B203" s="4">
         <v>1999.25</v>
       </c>
@@ -7607,8 +8235,11 @@
       <c r="M203" s="3">
         <v>4474.7</v>
       </c>
-    </row>
-    <row r="204" spans="2:13">
+      <c r="N203" s="3">
+        <v>2.8967755931013457</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14">
       <c r="B204" s="4">
         <v>1999.5</v>
       </c>
@@ -7645,8 +8276,11 @@
       <c r="M204" s="3">
         <v>4541.4333333333334</v>
       </c>
-    </row>
-    <row r="205" spans="2:13">
+      <c r="N204" s="3">
+        <v>2.904195509033499</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14">
       <c r="B205" s="4">
         <v>1999.75</v>
       </c>
@@ -7683,8 +8317,11 @@
       <c r="M205" s="3">
         <v>4603.4333333333334</v>
       </c>
-    </row>
-    <row r="206" spans="2:13">
+      <c r="N205" s="3">
+        <v>2.9653499377079409</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14">
       <c r="B206" s="4">
         <v>2000</v>
       </c>
@@ -7721,8 +8358,11 @@
       <c r="M206" s="3">
         <v>4675.4333333333334</v>
       </c>
-    </row>
-    <row r="207" spans="2:13">
+      <c r="N206" s="3">
+        <v>2.9618168003479934</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14">
       <c r="B207" s="4">
         <v>2000.25</v>
       </c>
@@ -7759,8 +8399,11 @@
       <c r="M207" s="3">
         <v>4753.8</v>
       </c>
-    </row>
-    <row r="208" spans="2:13">
+      <c r="N207" s="3">
+        <v>2.9991725070364272</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14">
       <c r="B208" s="4">
         <v>2000.5</v>
       </c>
@@ -7797,8 +8440,11 @@
       <c r="M208" s="3">
         <v>4809.7</v>
       </c>
-    </row>
-    <row r="209" spans="2:13">
+      <c r="N208" s="3">
+        <v>3.0046497284497131</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14">
       <c r="B209" s="4">
         <v>2000.75</v>
       </c>
@@ -7835,8 +8481,11 @@
       <c r="M209" s="3">
         <v>4880.9333333333334</v>
       </c>
-    </row>
-    <row r="210" spans="2:13">
+      <c r="N209" s="3">
+        <v>3.048268988264871</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14">
       <c r="B210" s="4">
         <v>2001</v>
       </c>
@@ -7873,8 +8522,11 @@
       <c r="M210" s="3">
         <v>5009.7666666666664</v>
       </c>
-    </row>
-    <row r="211" spans="2:13">
+      <c r="N210" s="3">
+        <v>3.0552628783041098</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14">
       <c r="B211" s="4">
         <v>2001.25</v>
       </c>
@@ -7911,8 +8563,11 @@
       <c r="M211" s="3">
         <v>5136.3</v>
       </c>
-    </row>
-    <row r="212" spans="2:13">
+      <c r="N211" s="3">
+        <v>3.0929697387971276</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14">
       <c r="B212" s="4">
         <v>2001.5</v>
       </c>
@@ -7949,8 +8604,11 @@
       <c r="M212" s="3">
         <v>5251.4666666666662</v>
       </c>
-    </row>
-    <row r="213" spans="2:13">
+      <c r="N212" s="3">
+        <v>3.1026079519065677</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14">
       <c r="B213" s="4">
         <v>2001.75</v>
       </c>
@@ -7987,8 +8645,11 @@
       <c r="M213" s="3">
         <v>5369.7</v>
       </c>
-    </row>
-    <row r="214" spans="2:13">
+      <c r="N213" s="3">
+        <v>3.1465469492043336</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14">
       <c r="B214" s="4">
         <v>2002</v>
       </c>
@@ -8025,8 +8686,11 @@
       <c r="M214" s="3">
         <v>5463.7333333333336</v>
       </c>
-    </row>
-    <row r="215" spans="2:13">
+      <c r="N214" s="3">
+        <v>3.2024699128763667</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14">
       <c r="B215" s="4">
         <v>2002.25</v>
       </c>
@@ -8063,8 +8727,11 @@
       <c r="M215" s="3">
         <v>5507</v>
       </c>
-    </row>
-    <row r="216" spans="2:13">
+      <c r="N215" s="3">
+        <v>3.1862066659189758</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14">
       <c r="B216" s="4">
         <v>2002.5</v>
       </c>
@@ -8101,8 +8768,11 @@
       <c r="M216" s="3">
         <v>5611.3</v>
       </c>
-    </row>
-    <row r="217" spans="2:13">
+      <c r="N216" s="3">
+        <v>3.2040634593784394</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14">
       <c r="B217" s="4">
         <v>2002.75</v>
       </c>
@@ -8139,8 +8809,11 @@
       <c r="M217" s="3">
         <v>5726.666666666667</v>
       </c>
-    </row>
-    <row r="218" spans="2:13">
+      <c r="N217" s="3">
+        <v>3.1961841934826949</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14">
       <c r="B218" s="4">
         <v>2003</v>
       </c>
@@ -8177,8 +8850,11 @@
       <c r="M218" s="3">
         <v>5821.4666666666662</v>
       </c>
-    </row>
-    <row r="219" spans="2:13">
+      <c r="N218" s="3">
+        <v>3.2044203794304917</v>
+      </c>
+    </row>
+    <row r="219" spans="2:14">
       <c r="B219" s="4">
         <v>2003.25</v>
       </c>
@@ -8215,8 +8891,11 @@
       <c r="M219" s="3">
         <v>5937.2333333333336</v>
       </c>
-    </row>
-    <row r="220" spans="2:13">
+      <c r="N219" s="3">
+        <v>3.2581225690562614</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14">
       <c r="B220" s="4">
         <v>2003.5</v>
       </c>
@@ -8253,8 +8932,11 @@
       <c r="M220" s="3">
         <v>6057.7333333333336</v>
       </c>
-    </row>
-    <row r="221" spans="2:13">
+      <c r="N220" s="3">
+        <v>3.3028881519549467</v>
+      </c>
+    </row>
+    <row r="221" spans="2:14">
       <c r="B221" s="4">
         <v>2003.75</v>
       </c>
@@ -8291,8 +8973,11 @@
       <c r="M221" s="3">
         <v>6052.166666666667</v>
       </c>
-    </row>
-    <row r="222" spans="2:13">
+      <c r="N221" s="3">
+        <v>3.2844103685307422</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14">
       <c r="B222" s="4">
         <v>2004</v>
       </c>
@@ -8329,8 +9014,11 @@
       <c r="M222" s="3">
         <v>6099.1333333333332</v>
       </c>
-    </row>
-    <row r="223" spans="2:13">
+      <c r="N222" s="3">
+        <v>3.2842492166874506</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14">
       <c r="B223" s="4">
         <v>2004.25</v>
       </c>
@@ -8367,8 +9055,11 @@
       <c r="M223" s="3">
         <v>6229.1333333333332</v>
       </c>
-    </row>
-    <row r="224" spans="2:13">
+      <c r="N223" s="3">
+        <v>3.3199660549034253</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14">
       <c r="B224" s="4">
         <v>2004.5</v>
       </c>
@@ -8405,8 +9096,11 @@
       <c r="M224" s="3">
         <v>6299.1</v>
       </c>
-    </row>
-    <row r="225" spans="2:13">
+      <c r="N224" s="3">
+        <v>3.3486923583437864</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14">
       <c r="B225" s="4">
         <v>2004.75</v>
       </c>
@@ -8443,8 +9137,11 @@
       <c r="M225" s="3">
         <v>6383.0333333333338</v>
       </c>
-    </row>
-    <row r="226" spans="2:13">
+      <c r="N225" s="3">
+        <v>3.3720603485722638</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14">
       <c r="B226" s="4">
         <v>2005</v>
       </c>
@@ -8481,8 +9178,11 @@
       <c r="M226" s="3">
         <v>6419.166666666667</v>
       </c>
-    </row>
-    <row r="227" spans="2:13">
+      <c r="N226" s="3">
+        <v>3.3840426072004965</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14">
       <c r="B227" s="4">
         <v>2005.25</v>
       </c>
@@ -8519,8 +9219,11 @@
       <c r="M227" s="3">
         <v>6464.2666666666664</v>
       </c>
-    </row>
-    <row r="228" spans="2:13">
+      <c r="N227" s="3">
+        <v>3.386835484254016</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14">
       <c r="B228" s="4">
         <v>2005.5</v>
       </c>
@@ -8557,8 +9260,11 @@
       <c r="M228" s="3">
         <v>6556.333333333333</v>
       </c>
-    </row>
-    <row r="229" spans="2:13">
+      <c r="N228" s="3">
+        <v>3.3963561317076474</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14">
       <c r="B229" s="4">
         <v>2005.75</v>
       </c>
@@ -8595,8 +9301,11 @@
       <c r="M229" s="3">
         <v>6644.1</v>
       </c>
-    </row>
-    <row r="230" spans="2:13">
+      <c r="N229" s="3">
+        <v>3.3777136736233704</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14">
       <c r="B230" s="4">
         <v>2006</v>
       </c>
@@ -8633,8 +9342,11 @@
       <c r="M230" s="3">
         <v>6730.8666666666668</v>
       </c>
-    </row>
-    <row r="231" spans="2:13">
+      <c r="N230" s="3">
+        <v>3.4074820818499396</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14">
       <c r="B231" s="4">
         <v>2006.25</v>
       </c>
@@ -8671,8 +9383,11 @@
       <c r="M231" s="3">
         <v>6802.7</v>
       </c>
-    </row>
-    <row r="232" spans="2:13">
+      <c r="N231" s="3">
+        <v>3.3737573100984002</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14">
       <c r="B232" s="4">
         <v>2006.5</v>
       </c>
@@ -8709,8 +9424,11 @@
       <c r="M232" s="3">
         <v>6901.1</v>
       </c>
-    </row>
-    <row r="233" spans="2:13">
+      <c r="N232" s="3">
+        <v>3.3467856334163693</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14">
       <c r="B233" s="4">
         <v>2006.75</v>
       </c>
@@ -8747,8 +9465,11 @@
       <c r="M233" s="3">
         <v>7016.4333333333334</v>
       </c>
-    </row>
-    <row r="234" spans="2:13">
+      <c r="N233" s="3">
+        <v>3.3624135231071408</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14">
       <c r="B234" s="4">
         <v>2007</v>
       </c>
@@ -8785,8 +9506,11 @@
       <c r="M234" s="3">
         <v>7116.6333333333332</v>
       </c>
-    </row>
-    <row r="235" spans="2:13">
+      <c r="N234" s="3">
+        <v>3.346120416128759</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14">
       <c r="B235" s="4">
         <v>2007.25</v>
       </c>
@@ -8823,8 +9547,11 @@
       <c r="M235" s="3">
         <v>7236.5666666666666</v>
       </c>
-    </row>
-    <row r="236" spans="2:13">
+      <c r="N235" s="3">
+        <v>3.3265993460983116</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14">
       <c r="B236" s="4">
         <v>2007.5</v>
       </c>
@@ -8861,8 +9588,11 @@
       <c r="M236" s="3">
         <v>7350.5</v>
       </c>
-    </row>
-    <row r="237" spans="2:13">
+      <c r="N236" s="3">
+        <v>3.3342430261557117</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14">
       <c r="B237" s="4">
         <v>2007.75</v>
       </c>
@@ -8899,8 +9629,11 @@
       <c r="M237" s="3">
         <v>7428.9333333333334</v>
       </c>
-    </row>
-    <row r="238" spans="2:13">
+      <c r="N237" s="3">
+        <v>3.3500080452173981</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14">
       <c r="B238" s="4">
         <v>2008</v>
       </c>
@@ -8937,8 +9670,11 @@
       <c r="M238" s="3">
         <v>7569.5333333333338</v>
       </c>
-    </row>
-    <row r="239" spans="2:13">
+      <c r="N238" s="3">
+        <v>3.3046438260251181</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14">
       <c r="B239" s="4">
         <v>2008.25</v>
       </c>
@@ -8975,8 +9711,11 @@
       <c r="M239" s="3">
         <v>7698.3</v>
       </c>
-    </row>
-    <row r="240" spans="2:13">
+      <c r="N239" s="3">
+        <v>3.3159341363009149</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14">
       <c r="B240" s="4">
         <v>2008.5</v>
       </c>
@@ -9013,8 +9752,11 @@
       <c r="M240" s="3">
         <v>7793.7</v>
       </c>
-    </row>
-    <row r="241" spans="2:13">
+      <c r="N240" s="3">
+        <v>3.3323368783218053</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14">
       <c r="B241" s="4">
         <v>2008.75</v>
       </c>
@@ -9051,8 +9793,11 @@
       <c r="M241" s="3">
         <v>8046.7</v>
       </c>
-    </row>
-    <row r="242" spans="2:13">
+      <c r="N241" s="3">
+        <v>3.3345775297165163</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14">
       <c r="B242" s="4">
         <v>2009</v>
       </c>
@@ -9089,8 +9834,11 @@
       <c r="M242" s="3">
         <v>8304</v>
       </c>
-    </row>
-    <row r="243" spans="2:13">
+      <c r="N242" s="3">
+        <v>3.3810127680020394</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14">
       <c r="B243" s="4">
         <v>2009.25</v>
       </c>
@@ -9127,8 +9875,11 @@
       <c r="M243" s="3">
         <v>8402</v>
       </c>
-    </row>
-    <row r="244" spans="2:13">
+      <c r="N243" s="3">
+        <v>3.463313246294224</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14">
       <c r="B244" s="4">
         <v>2009.5</v>
       </c>
@@ -9165,8 +9916,11 @@
       <c r="M244" s="3">
         <v>8431.7666666666664</v>
       </c>
-    </row>
-    <row r="245" spans="2:13">
+      <c r="N244" s="3">
+        <v>3.4698125093352834</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14">
       <c r="B245" s="4">
         <v>2009.75</v>
       </c>
@@ -9203,8 +9957,11 @@
       <c r="M245" s="3">
         <v>8476.8666666666668</v>
       </c>
-    </row>
-    <row r="246" spans="2:13">
+      <c r="N245" s="3">
+        <v>3.4873888053220692</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14">
       <c r="B246" s="4">
         <v>2010</v>
       </c>
@@ -9241,8 +9998,11 @@
       <c r="M246" s="3">
         <v>8477.7999999999993</v>
       </c>
-    </row>
-    <row r="247" spans="2:13">
+      <c r="N246" s="3">
+        <v>3.4487716959594206</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14">
       <c r="B247" s="4">
         <v>2010.25</v>
       </c>
@@ -9279,8 +10039,11 @@
       <c r="M247" s="3">
         <v>8565.2000000000007</v>
       </c>
-    </row>
-    <row r="248" spans="2:13">
+      <c r="N247" s="3">
+        <v>3.4271419415728248</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14">
       <c r="B248" s="4">
         <v>2010.5</v>
       </c>
@@ -9317,8 +10080,11 @@
       <c r="M248" s="3">
         <v>8650.0666666666675</v>
       </c>
-    </row>
-    <row r="249" spans="2:13">
+      <c r="N248" s="3">
+        <v>3.4456421234675907</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14">
       <c r="B249" s="4">
         <v>2010.75</v>
       </c>
@@ -9355,8 +10121,11 @@
       <c r="M249" s="3">
         <v>8761.1333333333332</v>
       </c>
-    </row>
-    <row r="250" spans="2:13">
+      <c r="N249" s="3">
+        <v>3.4289319484769076</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14">
       <c r="B250" s="4">
         <v>2011</v>
       </c>
@@ -9393,8 +10162,11 @@
       <c r="M250" s="3">
         <v>8870.9333333333325</v>
       </c>
-    </row>
-    <row r="251" spans="2:13">
+      <c r="N250" s="3">
+        <v>3.4161349219994839</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14">
       <c r="B251" s="4">
         <v>2011.25</v>
       </c>
@@ -9431,8 +10203,11 @@
       <c r="M251" s="3">
         <v>9039.7000000000007</v>
       </c>
-    </row>
-    <row r="252" spans="2:13">
+      <c r="N251" s="3">
+        <v>3.4038797556099918</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14">
       <c r="B252" s="4">
         <v>2011.5</v>
       </c>
@@ -9469,8 +10244,11 @@
       <c r="M252" s="3">
         <v>9452.0333333333328</v>
       </c>
-    </row>
-    <row r="253" spans="2:13">
+      <c r="N252" s="3">
+        <v>3.4053558528451022</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14">
       <c r="B253" s="4">
         <v>2011.75</v>
       </c>
@@ -9507,8 +10285,11 @@
       <c r="M253" s="3">
         <v>9611.4666666666672</v>
       </c>
-    </row>
-    <row r="254" spans="2:13">
+      <c r="N253" s="3">
+        <v>3.4303410434413601</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14">
       <c r="B254" s="4">
         <v>2012</v>
       </c>
@@ -9545,8 +10326,11 @@
       <c r="M254" s="3">
         <v>9773.7000000000007</v>
       </c>
-    </row>
-    <row r="255" spans="2:13">
+      <c r="N254" s="3">
+        <v>3.4596407883132185</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14">
       <c r="B255" s="4">
         <v>2012.25</v>
       </c>
@@ -9583,8 +10367,11 @@
       <c r="M255" s="3">
         <v>9916.1333333333332</v>
       </c>
-    </row>
-    <row r="256" spans="2:13">
+      <c r="N255" s="3">
+        <v>3.4594890869117965</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14">
       <c r="B256" s="4">
         <v>2012.5</v>
       </c>
@@ -9621,8 +10408,11 @@
       <c r="M256" s="3">
         <v>10121.666666666666</v>
       </c>
-    </row>
-    <row r="257" spans="2:13">
+      <c r="N256" s="3">
+        <v>3.4529949203701351</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14">
       <c r="B257" s="4">
         <v>2012.75</v>
       </c>
@@ -9659,8 +10449,11 @@
       <c r="M257" s="3">
         <v>10342.333333333334</v>
       </c>
-    </row>
-    <row r="258" spans="2:13">
+      <c r="N257" s="3">
+        <v>3.4438774204992546</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14">
       <c r="B258" s="4">
         <v>2013</v>
       </c>
@@ -9697,8 +10490,11 @@
       <c r="M258" s="3">
         <v>10493</v>
       </c>
-    </row>
-    <row r="259" spans="2:13">
+      <c r="N258" s="3">
+        <v>3.435837775198928</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14">
       <c r="B259" s="4">
         <v>2013.25</v>
       </c>
@@ -9735,8 +10531,11 @@
       <c r="M259" s="3">
         <v>10617.2</v>
       </c>
-    </row>
-    <row r="260" spans="2:13">
+      <c r="N259" s="3">
+        <v>3.4386239641566272</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14">
       <c r="B260" s="4">
         <v>2013.5</v>
       </c>
@@ -9773,8 +10572,11 @@
       <c r="M260" s="3">
         <v>10778.5</v>
       </c>
-    </row>
-    <row r="261" spans="2:13">
+      <c r="N260" s="3">
+        <v>3.4563353117324893</v>
+      </c>
+    </row>
+    <row r="261" spans="2:14">
       <c r="B261" s="4">
         <v>2013.75</v>
       </c>
@@ -9811,8 +10613,11 @@
       <c r="M261" s="3">
         <v>10971.433333333332</v>
       </c>
-    </row>
-    <row r="262" spans="2:13">
+      <c r="N261" s="3">
+        <v>3.48712947209494</v>
+      </c>
+    </row>
+    <row r="262" spans="2:14">
       <c r="B262" s="4">
         <v>2014</v>
       </c>
@@ -9849,8 +10654,11 @@
       <c r="M262" s="3">
         <v>11134.333333333334</v>
       </c>
-    </row>
-    <row r="263" spans="2:13">
+      <c r="N262" s="3">
+        <v>3.4620627361967138</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14">
       <c r="B263" s="4">
         <v>2014.25</v>
       </c>
@@ -9887,8 +10695,11 @@
       <c r="M263" s="3">
         <v>11309.366666666667</v>
       </c>
-    </row>
-    <row r="264" spans="2:13">
+      <c r="N263" s="3">
+        <v>3.4856988659723771</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14">
       <c r="B264" s="4">
         <v>2014.5</v>
       </c>
@@ -9925,8 +10736,11 @@
       <c r="M264" s="3">
         <v>11459.866666666667</v>
       </c>
-    </row>
-    <row r="265" spans="2:13">
+      <c r="N264" s="3">
+        <v>3.5157819478761256</v>
+      </c>
+    </row>
+    <row r="265" spans="2:14">
       <c r="B265" s="4">
         <v>2014.75</v>
       </c>
@@ -9963,8 +10777,11 @@
       <c r="M265" s="3">
         <v>11604.866666666667</v>
       </c>
-    </row>
-    <row r="266" spans="2:13">
+      <c r="N265" s="3">
+        <v>3.5140833244373799</v>
+      </c>
+    </row>
+    <row r="266" spans="2:14">
       <c r="B266" s="4">
         <v>2015</v>
       </c>
@@ -10001,8 +10818,11 @@
       <c r="M266" s="3">
         <v>11816.266666666666</v>
       </c>
-    </row>
-    <row r="267" spans="2:13">
+      <c r="N266" s="3">
+        <v>3.542496578694371</v>
+      </c>
+    </row>
+    <row r="267" spans="2:14">
       <c r="B267" s="4">
         <v>2015.25</v>
       </c>
@@ -10039,8 +10859,11 @@
       <c r="M267" s="3">
         <v>11952.866666666667</v>
       </c>
-    </row>
-    <row r="268" spans="2:13">
+      <c r="N267" s="3">
+        <v>3.5674849201555832</v>
+      </c>
+    </row>
+    <row r="268" spans="2:14">
       <c r="B268" s="4">
         <v>2015.5</v>
       </c>
@@ -10077,8 +10900,11 @@
       <c r="M268" s="3">
         <v>12100.7</v>
       </c>
-    </row>
-    <row r="269" spans="2:13">
+      <c r="N268" s="3">
+        <v>3.5624949776079848</v>
+      </c>
+    </row>
+    <row r="269" spans="2:14">
       <c r="B269" s="4">
         <v>2015.75</v>
       </c>
@@ -10115,8 +10941,11 @@
       <c r="M269" s="3">
         <v>12266.7</v>
       </c>
-    </row>
-    <row r="270" spans="2:13">
+      <c r="N269" s="3">
+        <v>3.5373710381952068</v>
+      </c>
+    </row>
+    <row r="270" spans="2:14">
       <c r="B270" s="4">
         <v>2016</v>
       </c>
@@ -10153,8 +10982,11 @@
       <c r="M270" s="3">
         <v>12527.6</v>
       </c>
-    </row>
-    <row r="271" spans="2:13">
+      <c r="N270" s="3">
+        <v>3.5366085942788423</v>
+      </c>
+    </row>
+    <row r="271" spans="2:14">
       <c r="B271" s="4">
         <v>2016.25</v>
       </c>
@@ -10191,8 +11023,11 @@
       <c r="M271" s="3">
         <v>12755.7</v>
       </c>
-    </row>
-    <row r="272" spans="2:13">
+      <c r="N271" s="3">
+        <v>3.525016063752592</v>
+      </c>
+    </row>
+    <row r="272" spans="2:14">
       <c r="B272" s="4">
         <v>2016.5</v>
       </c>
@@ -10229,8 +11064,11 @@
       <c r="M272" s="3">
         <v>12967.4</v>
       </c>
-    </row>
-    <row r="273" spans="2:13">
+      <c r="N272" s="3">
+        <v>3.5648921437093049</v>
+      </c>
+    </row>
+    <row r="273" spans="2:14">
       <c r="B273" s="4">
         <v>2016.75</v>
       </c>
@@ -10267,8 +11105,11 @@
       <c r="M273" s="3">
         <v>13162.766666666666</v>
       </c>
-    </row>
-    <row r="274" spans="2:13">
+      <c r="N273" s="3">
+        <v>3.5682050349258128</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14">
       <c r="B274" s="4">
         <v>2017</v>
       </c>
@@ -10305,8 +11146,11 @@
       <c r="M274" s="3">
         <v>13330.066666666668</v>
       </c>
-    </row>
-    <row r="275" spans="2:13">
+      <c r="N274" s="3">
+        <v>3.5790420047419702</v>
+      </c>
+    </row>
+    <row r="275" spans="2:14">
       <c r="B275" s="4">
         <v>2017.25</v>
       </c>
@@ -10343,8 +11187,11 @@
       <c r="M275" s="3">
         <v>13500.4</v>
       </c>
-    </row>
-    <row r="276" spans="2:13">
+      <c r="N275" s="3">
+        <v>3.5848929743951796</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14">
       <c r="B276" s="4">
         <v>2017.5</v>
       </c>
@@ -10381,8 +11228,11 @@
       <c r="M276" s="3">
         <v>13663.133333333333</v>
       </c>
-    </row>
-    <row r="277" spans="2:13">
+      <c r="N276" s="3">
+        <v>3.6141183741048648</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14">
       <c r="B277" s="4">
         <v>2017.75</v>
       </c>
@@ -10419,8 +11269,11 @@
       <c r="M277" s="3">
         <v>13792.7</v>
       </c>
-    </row>
-    <row r="278" spans="2:13">
+      <c r="N277" s="3">
+        <v>3.5946979748431289</v>
+      </c>
+    </row>
+    <row r="278" spans="2:14">
       <c r="B278" s="4">
         <v>2018</v>
       </c>
@@ -10457,8 +11310,11 @@
       <c r="M278" s="3">
         <v>13883.3</v>
       </c>
-    </row>
-    <row r="279" spans="2:13">
+      <c r="N278" s="3">
+        <v>3.5808447132368824</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14">
       <c r="B279" s="4">
         <v>2018.25</v>
       </c>
@@ -10495,22 +11351,1993 @@
       <c r="M279" s="3">
         <v>14032.966666666667</v>
       </c>
-    </row>
-    <row r="280" spans="2:13">
+      <c r="N279" s="3"/>
+    </row>
+    <row r="280" spans="2:14">
       <c r="B280" s="4">
         <v>2018.5</v>
       </c>
       <c r="K280" s="3">
         <v>328477.33333333331</v>
       </c>
-    </row>
-    <row r="281" spans="2:13">
+      <c r="N280" s="3"/>
+    </row>
+    <row r="281" spans="2:14">
       <c r="B281" s="4">
         <v>2018.75</v>
       </c>
       <c r="K281" s="3">
         <v>329124.33333333331</v>
       </c>
+      <c r="N281" s="3"/>
+    </row>
+    <row r="282" spans="2:14">
+      <c r="N282" s="3"/>
+    </row>
+    <row r="283" spans="2:14">
+      <c r="N283" s="3"/>
+    </row>
+    <row r="284" spans="2:14">
+      <c r="N284" s="3"/>
+    </row>
+    <row r="285" spans="2:14">
+      <c r="N285" s="3"/>
+    </row>
+    <row r="286" spans="2:14">
+      <c r="N286" s="3"/>
+    </row>
+    <row r="287" spans="2:14">
+      <c r="N287" s="3"/>
+    </row>
+    <row r="288" spans="2:14">
+      <c r="N288" s="3"/>
+    </row>
+    <row r="289" spans="14:14">
+      <c r="N289" s="3"/>
+    </row>
+    <row r="290" spans="14:14">
+      <c r="N290" s="3"/>
+    </row>
+    <row r="291" spans="14:14">
+      <c r="N291" s="3"/>
+    </row>
+    <row r="292" spans="14:14">
+      <c r="N292" s="3"/>
+    </row>
+    <row r="293" spans="14:14">
+      <c r="N293" s="3"/>
+    </row>
+    <row r="294" spans="14:14">
+      <c r="N294" s="3"/>
+    </row>
+    <row r="295" spans="14:14">
+      <c r="N295" s="3"/>
+    </row>
+    <row r="296" spans="14:14">
+      <c r="N296" s="3"/>
+    </row>
+    <row r="297" spans="14:14">
+      <c r="N297" s="3"/>
+    </row>
+    <row r="298" spans="14:14">
+      <c r="N298" s="3"/>
+    </row>
+    <row r="299" spans="14:14">
+      <c r="N299" s="3"/>
+    </row>
+    <row r="300" spans="14:14">
+      <c r="N300" s="3"/>
+    </row>
+    <row r="301" spans="14:14">
+      <c r="N301" s="3"/>
+    </row>
+    <row r="302" spans="14:14">
+      <c r="N302" s="3"/>
+    </row>
+    <row r="303" spans="14:14">
+      <c r="N303" s="3"/>
+    </row>
+    <row r="304" spans="14:14">
+      <c r="N304" s="3"/>
+    </row>
+    <row r="305" spans="14:14">
+      <c r="N305" s="3"/>
+    </row>
+    <row r="306" spans="14:14">
+      <c r="N306" s="3"/>
+    </row>
+    <row r="307" spans="14:14">
+      <c r="N307" s="3"/>
+    </row>
+    <row r="308" spans="14:14">
+      <c r="N308" s="3"/>
+    </row>
+    <row r="309" spans="14:14">
+      <c r="N309" s="3"/>
+    </row>
+    <row r="310" spans="14:14">
+      <c r="N310" s="3"/>
+    </row>
+    <row r="311" spans="14:14">
+      <c r="N311" s="3"/>
+    </row>
+    <row r="312" spans="14:14">
+      <c r="N312" s="3"/>
+    </row>
+    <row r="313" spans="14:14">
+      <c r="N313" s="3"/>
+    </row>
+    <row r="314" spans="14:14">
+      <c r="N314" s="3"/>
+    </row>
+    <row r="315" spans="14:14">
+      <c r="N315" s="3"/>
+    </row>
+    <row r="316" spans="14:14">
+      <c r="N316" s="3"/>
+    </row>
+    <row r="317" spans="14:14">
+      <c r="N317" s="3"/>
+    </row>
+    <row r="318" spans="14:14">
+      <c r="N318" s="3"/>
+    </row>
+    <row r="319" spans="14:14">
+      <c r="N319" s="3"/>
+    </row>
+    <row r="320" spans="14:14">
+      <c r="N320" s="3"/>
+    </row>
+    <row r="321" spans="14:14">
+      <c r="N321" s="3"/>
+    </row>
+    <row r="322" spans="14:14">
+      <c r="N322" s="3"/>
+    </row>
+    <row r="323" spans="14:14">
+      <c r="N323" s="3"/>
+    </row>
+    <row r="324" spans="14:14">
+      <c r="N324" s="3"/>
+    </row>
+    <row r="325" spans="14:14">
+      <c r="N325" s="3"/>
+    </row>
+    <row r="326" spans="14:14">
+      <c r="N326" s="3"/>
+    </row>
+    <row r="327" spans="14:14">
+      <c r="N327" s="3"/>
+    </row>
+    <row r="328" spans="14:14">
+      <c r="N328" s="3"/>
+    </row>
+    <row r="329" spans="14:14">
+      <c r="N329" s="3"/>
+    </row>
+    <row r="330" spans="14:14">
+      <c r="N330" s="3"/>
+    </row>
+    <row r="331" spans="14:14">
+      <c r="N331" s="3"/>
+    </row>
+    <row r="332" spans="14:14">
+      <c r="N332" s="3"/>
+    </row>
+    <row r="333" spans="14:14">
+      <c r="N333" s="3"/>
+    </row>
+    <row r="334" spans="14:14">
+      <c r="N334" s="3"/>
+    </row>
+    <row r="335" spans="14:14">
+      <c r="N335" s="3"/>
+    </row>
+    <row r="336" spans="14:14">
+      <c r="N336" s="3"/>
+    </row>
+    <row r="337" spans="14:14">
+      <c r="N337" s="3"/>
+    </row>
+    <row r="338" spans="14:14">
+      <c r="N338" s="3"/>
+    </row>
+    <row r="339" spans="14:14">
+      <c r="N339" s="3"/>
+    </row>
+    <row r="340" spans="14:14">
+      <c r="N340" s="3"/>
+    </row>
+    <row r="341" spans="14:14">
+      <c r="N341" s="3"/>
+    </row>
+    <row r="342" spans="14:14">
+      <c r="N342" s="3"/>
+    </row>
+    <row r="343" spans="14:14">
+      <c r="N343" s="3"/>
+    </row>
+    <row r="344" spans="14:14">
+      <c r="N344" s="3"/>
+    </row>
+    <row r="345" spans="14:14">
+      <c r="N345" s="3"/>
+    </row>
+    <row r="346" spans="14:14">
+      <c r="N346" s="3"/>
+    </row>
+    <row r="347" spans="14:14">
+      <c r="N347" s="3"/>
+    </row>
+    <row r="348" spans="14:14">
+      <c r="N348" s="3"/>
+    </row>
+    <row r="349" spans="14:14">
+      <c r="N349" s="3"/>
+    </row>
+    <row r="350" spans="14:14">
+      <c r="N350" s="3"/>
+    </row>
+    <row r="351" spans="14:14">
+      <c r="N351" s="3"/>
+    </row>
+    <row r="352" spans="14:14">
+      <c r="N352" s="3"/>
+    </row>
+    <row r="353" spans="14:14">
+      <c r="N353" s="3"/>
+    </row>
+    <row r="354" spans="14:14">
+      <c r="N354" s="3"/>
+    </row>
+    <row r="355" spans="14:14">
+      <c r="N355" s="3"/>
+    </row>
+    <row r="356" spans="14:14">
+      <c r="N356" s="3"/>
+    </row>
+    <row r="357" spans="14:14">
+      <c r="N357" s="3"/>
+    </row>
+    <row r="358" spans="14:14">
+      <c r="N358" s="3"/>
+    </row>
+    <row r="359" spans="14:14">
+      <c r="N359" s="3"/>
+    </row>
+    <row r="360" spans="14:14">
+      <c r="N360" s="3"/>
+    </row>
+    <row r="361" spans="14:14">
+      <c r="N361" s="3"/>
+    </row>
+    <row r="362" spans="14:14">
+      <c r="N362" s="3"/>
+    </row>
+    <row r="363" spans="14:14">
+      <c r="N363" s="3"/>
+    </row>
+    <row r="364" spans="14:14">
+      <c r="N364" s="3"/>
+    </row>
+    <row r="365" spans="14:14">
+      <c r="N365" s="3"/>
+    </row>
+    <row r="366" spans="14:14">
+      <c r="N366" s="3"/>
+    </row>
+    <row r="367" spans="14:14">
+      <c r="N367" s="3"/>
+    </row>
+    <row r="368" spans="14:14">
+      <c r="N368" s="3"/>
+    </row>
+    <row r="369" spans="14:14">
+      <c r="N369" s="3"/>
+    </row>
+    <row r="370" spans="14:14">
+      <c r="N370" s="3"/>
+    </row>
+    <row r="371" spans="14:14">
+      <c r="N371" s="3"/>
+    </row>
+    <row r="372" spans="14:14">
+      <c r="N372" s="3"/>
+    </row>
+    <row r="373" spans="14:14">
+      <c r="N373" s="3"/>
+    </row>
+    <row r="374" spans="14:14">
+      <c r="N374" s="3"/>
+    </row>
+    <row r="375" spans="14:14">
+      <c r="N375" s="3"/>
+    </row>
+    <row r="376" spans="14:14">
+      <c r="N376" s="3"/>
+    </row>
+    <row r="377" spans="14:14">
+      <c r="N377" s="3"/>
+    </row>
+    <row r="378" spans="14:14">
+      <c r="N378" s="3"/>
+    </row>
+    <row r="379" spans="14:14">
+      <c r="N379" s="3"/>
+    </row>
+    <row r="380" spans="14:14">
+      <c r="N380" s="3"/>
+    </row>
+    <row r="381" spans="14:14">
+      <c r="N381" s="3"/>
+    </row>
+    <row r="382" spans="14:14">
+      <c r="N382" s="3"/>
+    </row>
+    <row r="383" spans="14:14">
+      <c r="N383" s="3"/>
+    </row>
+    <row r="384" spans="14:14">
+      <c r="N384" s="3"/>
+    </row>
+    <row r="385" spans="14:14">
+      <c r="N385" s="3"/>
+    </row>
+    <row r="386" spans="14:14">
+      <c r="N386" s="3"/>
+    </row>
+    <row r="387" spans="14:14">
+      <c r="N387" s="3"/>
+    </row>
+    <row r="388" spans="14:14">
+      <c r="N388" s="3"/>
+    </row>
+    <row r="389" spans="14:14">
+      <c r="N389" s="3"/>
+    </row>
+    <row r="390" spans="14:14">
+      <c r="N390" s="3"/>
+    </row>
+    <row r="391" spans="14:14">
+      <c r="N391" s="3"/>
+    </row>
+    <row r="392" spans="14:14">
+      <c r="N392" s="3"/>
+    </row>
+    <row r="393" spans="14:14">
+      <c r="N393" s="3"/>
+    </row>
+    <row r="394" spans="14:14">
+      <c r="N394" s="3"/>
+    </row>
+    <row r="395" spans="14:14">
+      <c r="N395" s="3"/>
+    </row>
+    <row r="396" spans="14:14">
+      <c r="N396" s="3"/>
+    </row>
+    <row r="397" spans="14:14">
+      <c r="N397" s="3"/>
+    </row>
+    <row r="398" spans="14:14">
+      <c r="N398" s="3"/>
+    </row>
+    <row r="399" spans="14:14">
+      <c r="N399" s="3"/>
+    </row>
+    <row r="400" spans="14:14">
+      <c r="N400" s="3"/>
+    </row>
+    <row r="401" spans="14:14">
+      <c r="N401" s="3"/>
+    </row>
+    <row r="402" spans="14:14">
+      <c r="N402" s="3"/>
+    </row>
+    <row r="403" spans="14:14">
+      <c r="N403" s="3"/>
+    </row>
+    <row r="404" spans="14:14">
+      <c r="N404" s="3"/>
+    </row>
+    <row r="405" spans="14:14">
+      <c r="N405" s="3"/>
+    </row>
+    <row r="406" spans="14:14">
+      <c r="N406" s="3"/>
+    </row>
+    <row r="407" spans="14:14">
+      <c r="N407" s="3"/>
+    </row>
+    <row r="408" spans="14:14">
+      <c r="N408" s="3"/>
+    </row>
+    <row r="409" spans="14:14">
+      <c r="N409" s="3"/>
+    </row>
+    <row r="410" spans="14:14">
+      <c r="N410" s="3"/>
+    </row>
+    <row r="411" spans="14:14">
+      <c r="N411" s="3"/>
+    </row>
+    <row r="412" spans="14:14">
+      <c r="N412" s="3"/>
+    </row>
+    <row r="413" spans="14:14">
+      <c r="N413" s="3"/>
+    </row>
+    <row r="414" spans="14:14">
+      <c r="N414" s="3"/>
+    </row>
+    <row r="415" spans="14:14">
+      <c r="N415" s="3"/>
+    </row>
+    <row r="416" spans="14:14">
+      <c r="N416" s="3"/>
+    </row>
+    <row r="417" spans="14:14">
+      <c r="N417" s="3"/>
+    </row>
+    <row r="418" spans="14:14">
+      <c r="N418" s="3"/>
+    </row>
+    <row r="419" spans="14:14">
+      <c r="N419" s="3"/>
+    </row>
+    <row r="420" spans="14:14">
+      <c r="N420" s="3"/>
+    </row>
+    <row r="421" spans="14:14">
+      <c r="N421" s="3"/>
+    </row>
+    <row r="422" spans="14:14">
+      <c r="N422" s="3"/>
+    </row>
+    <row r="423" spans="14:14">
+      <c r="N423" s="3"/>
+    </row>
+    <row r="424" spans="14:14">
+      <c r="N424" s="3"/>
+    </row>
+    <row r="425" spans="14:14">
+      <c r="N425" s="3"/>
+    </row>
+    <row r="426" spans="14:14">
+      <c r="N426" s="3"/>
+    </row>
+    <row r="427" spans="14:14">
+      <c r="N427" s="3"/>
+    </row>
+    <row r="428" spans="14:14">
+      <c r="N428" s="3"/>
+    </row>
+    <row r="429" spans="14:14">
+      <c r="N429" s="3"/>
+    </row>
+    <row r="430" spans="14:14">
+      <c r="N430" s="3"/>
+    </row>
+    <row r="431" spans="14:14">
+      <c r="N431" s="3"/>
+    </row>
+    <row r="432" spans="14:14">
+      <c r="N432" s="3"/>
+    </row>
+    <row r="433" spans="14:14">
+      <c r="N433" s="3"/>
+    </row>
+    <row r="434" spans="14:14">
+      <c r="N434" s="3"/>
+    </row>
+    <row r="435" spans="14:14">
+      <c r="N435" s="3"/>
+    </row>
+    <row r="436" spans="14:14">
+      <c r="N436" s="3"/>
+    </row>
+    <row r="437" spans="14:14">
+      <c r="N437" s="3"/>
+    </row>
+    <row r="438" spans="14:14">
+      <c r="N438" s="3"/>
+    </row>
+    <row r="439" spans="14:14">
+      <c r="N439" s="3"/>
+    </row>
+    <row r="440" spans="14:14">
+      <c r="N440" s="3"/>
+    </row>
+    <row r="441" spans="14:14">
+      <c r="N441" s="3"/>
+    </row>
+    <row r="442" spans="14:14">
+      <c r="N442" s="3"/>
+    </row>
+    <row r="443" spans="14:14">
+      <c r="N443" s="3"/>
+    </row>
+    <row r="444" spans="14:14">
+      <c r="N444" s="3"/>
+    </row>
+    <row r="445" spans="14:14">
+      <c r="N445" s="3"/>
+    </row>
+    <row r="446" spans="14:14">
+      <c r="N446" s="3"/>
+    </row>
+    <row r="447" spans="14:14">
+      <c r="N447" s="3"/>
+    </row>
+    <row r="448" spans="14:14">
+      <c r="N448" s="3"/>
+    </row>
+    <row r="449" spans="14:14">
+      <c r="N449" s="3"/>
+    </row>
+    <row r="450" spans="14:14">
+      <c r="N450" s="3"/>
+    </row>
+    <row r="451" spans="14:14">
+      <c r="N451" s="3"/>
+    </row>
+    <row r="452" spans="14:14">
+      <c r="N452" s="3"/>
+    </row>
+    <row r="453" spans="14:14">
+      <c r="N453" s="3"/>
+    </row>
+    <row r="454" spans="14:14">
+      <c r="N454" s="3"/>
+    </row>
+    <row r="455" spans="14:14">
+      <c r="N455" s="3"/>
+    </row>
+    <row r="456" spans="14:14">
+      <c r="N456" s="3"/>
+    </row>
+    <row r="457" spans="14:14">
+      <c r="N457" s="3"/>
+    </row>
+    <row r="458" spans="14:14">
+      <c r="N458" s="3"/>
+    </row>
+    <row r="459" spans="14:14">
+      <c r="N459" s="3"/>
+    </row>
+    <row r="460" spans="14:14">
+      <c r="N460" s="3"/>
+    </row>
+    <row r="461" spans="14:14">
+      <c r="N461" s="3"/>
+    </row>
+    <row r="462" spans="14:14">
+      <c r="N462" s="3"/>
+    </row>
+    <row r="463" spans="14:14">
+      <c r="N463" s="3"/>
+    </row>
+    <row r="464" spans="14:14">
+      <c r="N464" s="3"/>
+    </row>
+    <row r="465" spans="14:14">
+      <c r="N465" s="3"/>
+    </row>
+    <row r="466" spans="14:14">
+      <c r="N466" s="3"/>
+    </row>
+    <row r="467" spans="14:14">
+      <c r="N467" s="3"/>
+    </row>
+    <row r="468" spans="14:14">
+      <c r="N468" s="3"/>
+    </row>
+    <row r="469" spans="14:14">
+      <c r="N469" s="3"/>
+    </row>
+    <row r="470" spans="14:14">
+      <c r="N470" s="3"/>
+    </row>
+    <row r="471" spans="14:14">
+      <c r="N471" s="3"/>
+    </row>
+    <row r="472" spans="14:14">
+      <c r="N472" s="3"/>
+    </row>
+    <row r="473" spans="14:14">
+      <c r="N473" s="3"/>
+    </row>
+    <row r="474" spans="14:14">
+      <c r="N474" s="3"/>
+    </row>
+    <row r="475" spans="14:14">
+      <c r="N475" s="3"/>
+    </row>
+    <row r="476" spans="14:14">
+      <c r="N476" s="3"/>
+    </row>
+    <row r="477" spans="14:14">
+      <c r="N477" s="3"/>
+    </row>
+    <row r="478" spans="14:14">
+      <c r="N478" s="3"/>
+    </row>
+    <row r="479" spans="14:14">
+      <c r="N479" s="3"/>
+    </row>
+    <row r="480" spans="14:14">
+      <c r="N480" s="3"/>
+    </row>
+    <row r="481" spans="14:14">
+      <c r="N481" s="3"/>
+    </row>
+    <row r="482" spans="14:14">
+      <c r="N482" s="3"/>
+    </row>
+    <row r="483" spans="14:14">
+      <c r="N483" s="3"/>
+    </row>
+    <row r="484" spans="14:14">
+      <c r="N484" s="3"/>
+    </row>
+    <row r="485" spans="14:14">
+      <c r="N485" s="3"/>
+    </row>
+    <row r="486" spans="14:14">
+      <c r="N486" s="3"/>
+    </row>
+    <row r="487" spans="14:14">
+      <c r="N487" s="3"/>
+    </row>
+    <row r="488" spans="14:14">
+      <c r="N488" s="3"/>
+    </row>
+    <row r="489" spans="14:14">
+      <c r="N489" s="3"/>
+    </row>
+    <row r="490" spans="14:14">
+      <c r="N490" s="3"/>
+    </row>
+    <row r="491" spans="14:14">
+      <c r="N491" s="3"/>
+    </row>
+    <row r="492" spans="14:14">
+      <c r="N492" s="3"/>
+    </row>
+    <row r="493" spans="14:14">
+      <c r="N493" s="3"/>
+    </row>
+    <row r="494" spans="14:14">
+      <c r="N494" s="3"/>
+    </row>
+    <row r="495" spans="14:14">
+      <c r="N495" s="3"/>
+    </row>
+    <row r="496" spans="14:14">
+      <c r="N496" s="3"/>
+    </row>
+    <row r="497" spans="14:14">
+      <c r="N497" s="3"/>
+    </row>
+    <row r="498" spans="14:14">
+      <c r="N498" s="3"/>
+    </row>
+    <row r="499" spans="14:14">
+      <c r="N499" s="3"/>
+    </row>
+    <row r="500" spans="14:14">
+      <c r="N500" s="3"/>
+    </row>
+    <row r="501" spans="14:14">
+      <c r="N501" s="3"/>
+    </row>
+    <row r="502" spans="14:14">
+      <c r="N502" s="3"/>
+    </row>
+    <row r="503" spans="14:14">
+      <c r="N503" s="3"/>
+    </row>
+    <row r="504" spans="14:14">
+      <c r="N504" s="3"/>
+    </row>
+    <row r="505" spans="14:14">
+      <c r="N505" s="3"/>
+    </row>
+    <row r="506" spans="14:14">
+      <c r="N506" s="3"/>
+    </row>
+    <row r="507" spans="14:14">
+      <c r="N507" s="3"/>
+    </row>
+    <row r="508" spans="14:14">
+      <c r="N508" s="3"/>
+    </row>
+    <row r="509" spans="14:14">
+      <c r="N509" s="3"/>
+    </row>
+    <row r="510" spans="14:14">
+      <c r="N510" s="3"/>
+    </row>
+    <row r="511" spans="14:14">
+      <c r="N511" s="3"/>
+    </row>
+    <row r="512" spans="14:14">
+      <c r="N512" s="3"/>
+    </row>
+    <row r="513" spans="14:14">
+      <c r="N513" s="3"/>
+    </row>
+    <row r="514" spans="14:14">
+      <c r="N514" s="3"/>
+    </row>
+    <row r="515" spans="14:14">
+      <c r="N515" s="3"/>
+    </row>
+    <row r="516" spans="14:14">
+      <c r="N516" s="3"/>
+    </row>
+    <row r="517" spans="14:14">
+      <c r="N517" s="3"/>
+    </row>
+    <row r="518" spans="14:14">
+      <c r="N518" s="3"/>
+    </row>
+    <row r="519" spans="14:14">
+      <c r="N519" s="3"/>
+    </row>
+    <row r="520" spans="14:14">
+      <c r="N520" s="3"/>
+    </row>
+    <row r="521" spans="14:14">
+      <c r="N521" s="3"/>
+    </row>
+    <row r="522" spans="14:14">
+      <c r="N522" s="3"/>
+    </row>
+    <row r="523" spans="14:14">
+      <c r="N523" s="3"/>
+    </row>
+    <row r="524" spans="14:14">
+      <c r="N524" s="3"/>
+    </row>
+    <row r="525" spans="14:14">
+      <c r="N525" s="3"/>
+    </row>
+    <row r="526" spans="14:14">
+      <c r="N526" s="3"/>
+    </row>
+    <row r="527" spans="14:14">
+      <c r="N527" s="3"/>
+    </row>
+    <row r="528" spans="14:14">
+      <c r="N528" s="3"/>
+    </row>
+    <row r="529" spans="14:14">
+      <c r="N529" s="3"/>
+    </row>
+    <row r="530" spans="14:14">
+      <c r="N530" s="3"/>
+    </row>
+    <row r="531" spans="14:14">
+      <c r="N531" s="3"/>
+    </row>
+    <row r="532" spans="14:14">
+      <c r="N532" s="3"/>
+    </row>
+    <row r="533" spans="14:14">
+      <c r="N533" s="3"/>
+    </row>
+    <row r="534" spans="14:14">
+      <c r="N534" s="3"/>
+    </row>
+    <row r="535" spans="14:14">
+      <c r="N535" s="3"/>
+    </row>
+    <row r="536" spans="14:14">
+      <c r="N536" s="3"/>
+    </row>
+    <row r="537" spans="14:14">
+      <c r="N537" s="3"/>
+    </row>
+    <row r="538" spans="14:14">
+      <c r="N538" s="3"/>
+    </row>
+    <row r="539" spans="14:14">
+      <c r="N539" s="3"/>
+    </row>
+    <row r="540" spans="14:14">
+      <c r="N540" s="3"/>
+    </row>
+    <row r="541" spans="14:14">
+      <c r="N541" s="3"/>
+    </row>
+    <row r="542" spans="14:14">
+      <c r="N542" s="3"/>
+    </row>
+    <row r="543" spans="14:14">
+      <c r="N543" s="3"/>
+    </row>
+    <row r="544" spans="14:14">
+      <c r="N544" s="3"/>
+    </row>
+    <row r="545" spans="14:14">
+      <c r="N545" s="3"/>
+    </row>
+    <row r="546" spans="14:14">
+      <c r="N546" s="3"/>
+    </row>
+    <row r="547" spans="14:14">
+      <c r="N547" s="3"/>
+    </row>
+    <row r="548" spans="14:14">
+      <c r="N548" s="3"/>
+    </row>
+    <row r="549" spans="14:14">
+      <c r="N549" s="3"/>
+    </row>
+    <row r="550" spans="14:14">
+      <c r="N550" s="3"/>
+    </row>
+    <row r="551" spans="14:14">
+      <c r="N551" s="3"/>
+    </row>
+    <row r="552" spans="14:14">
+      <c r="N552" s="3"/>
+    </row>
+    <row r="553" spans="14:14">
+      <c r="N553" s="3"/>
+    </row>
+    <row r="554" spans="14:14">
+      <c r="N554" s="3"/>
+    </row>
+    <row r="555" spans="14:14">
+      <c r="N555" s="3"/>
+    </row>
+    <row r="556" spans="14:14">
+      <c r="N556" s="3"/>
+    </row>
+    <row r="557" spans="14:14">
+      <c r="N557" s="3"/>
+    </row>
+    <row r="558" spans="14:14">
+      <c r="N558" s="3"/>
+    </row>
+    <row r="559" spans="14:14">
+      <c r="N559" s="3"/>
+    </row>
+    <row r="560" spans="14:14">
+      <c r="N560" s="3"/>
+    </row>
+    <row r="561" spans="14:14">
+      <c r="N561" s="3"/>
+    </row>
+    <row r="562" spans="14:14">
+      <c r="N562" s="3"/>
+    </row>
+    <row r="563" spans="14:14">
+      <c r="N563" s="3"/>
+    </row>
+    <row r="564" spans="14:14">
+      <c r="N564" s="3"/>
+    </row>
+    <row r="565" spans="14:14">
+      <c r="N565" s="3"/>
+    </row>
+    <row r="566" spans="14:14">
+      <c r="N566" s="3"/>
+    </row>
+    <row r="567" spans="14:14">
+      <c r="N567" s="3"/>
+    </row>
+    <row r="568" spans="14:14">
+      <c r="N568" s="3"/>
+    </row>
+    <row r="569" spans="14:14">
+      <c r="N569" s="3"/>
+    </row>
+    <row r="570" spans="14:14">
+      <c r="N570" s="3"/>
+    </row>
+    <row r="571" spans="14:14">
+      <c r="N571" s="3"/>
+    </row>
+    <row r="572" spans="14:14">
+      <c r="N572" s="3"/>
+    </row>
+    <row r="573" spans="14:14">
+      <c r="N573" s="3"/>
+    </row>
+    <row r="574" spans="14:14">
+      <c r="N574" s="3"/>
+    </row>
+    <row r="575" spans="14:14">
+      <c r="N575" s="3"/>
+    </row>
+    <row r="576" spans="14:14">
+      <c r="N576" s="3"/>
+    </row>
+    <row r="577" spans="14:14">
+      <c r="N577" s="3"/>
+    </row>
+    <row r="578" spans="14:14">
+      <c r="N578" s="3"/>
+    </row>
+    <row r="579" spans="14:14">
+      <c r="N579" s="3"/>
+    </row>
+    <row r="580" spans="14:14">
+      <c r="N580" s="3"/>
+    </row>
+    <row r="581" spans="14:14">
+      <c r="N581" s="3"/>
+    </row>
+    <row r="582" spans="14:14">
+      <c r="N582" s="3"/>
+    </row>
+    <row r="583" spans="14:14">
+      <c r="N583" s="3"/>
+    </row>
+    <row r="584" spans="14:14">
+      <c r="N584" s="3"/>
+    </row>
+    <row r="585" spans="14:14">
+      <c r="N585" s="3"/>
+    </row>
+    <row r="586" spans="14:14">
+      <c r="N586" s="3"/>
+    </row>
+    <row r="587" spans="14:14">
+      <c r="N587" s="3"/>
+    </row>
+    <row r="588" spans="14:14">
+      <c r="N588" s="3"/>
+    </row>
+    <row r="589" spans="14:14">
+      <c r="N589" s="3"/>
+    </row>
+    <row r="590" spans="14:14">
+      <c r="N590" s="3"/>
+    </row>
+    <row r="591" spans="14:14">
+      <c r="N591" s="3"/>
+    </row>
+    <row r="592" spans="14:14">
+      <c r="N592" s="3"/>
+    </row>
+    <row r="593" spans="14:14">
+      <c r="N593" s="3"/>
+    </row>
+    <row r="594" spans="14:14">
+      <c r="N594" s="3"/>
+    </row>
+    <row r="595" spans="14:14">
+      <c r="N595" s="3"/>
+    </row>
+    <row r="596" spans="14:14">
+      <c r="N596" s="3"/>
+    </row>
+    <row r="597" spans="14:14">
+      <c r="N597" s="3"/>
+    </row>
+    <row r="598" spans="14:14">
+      <c r="N598" s="3"/>
+    </row>
+    <row r="599" spans="14:14">
+      <c r="N599" s="3"/>
+    </row>
+    <row r="600" spans="14:14">
+      <c r="N600" s="3"/>
+    </row>
+    <row r="601" spans="14:14">
+      <c r="N601" s="3"/>
+    </row>
+    <row r="602" spans="14:14">
+      <c r="N602" s="3"/>
+    </row>
+    <row r="603" spans="14:14">
+      <c r="N603" s="3"/>
+    </row>
+    <row r="604" spans="14:14">
+      <c r="N604" s="3"/>
+    </row>
+    <row r="605" spans="14:14">
+      <c r="N605" s="3"/>
+    </row>
+    <row r="606" spans="14:14">
+      <c r="N606" s="3"/>
+    </row>
+    <row r="607" spans="14:14">
+      <c r="N607" s="3"/>
+    </row>
+    <row r="608" spans="14:14">
+      <c r="N608" s="3"/>
+    </row>
+    <row r="609" spans="14:14">
+      <c r="N609" s="3"/>
+    </row>
+    <row r="610" spans="14:14">
+      <c r="N610" s="3"/>
+    </row>
+    <row r="611" spans="14:14">
+      <c r="N611" s="3"/>
+    </row>
+    <row r="612" spans="14:14">
+      <c r="N612" s="3"/>
+    </row>
+    <row r="613" spans="14:14">
+      <c r="N613" s="3"/>
+    </row>
+    <row r="614" spans="14:14">
+      <c r="N614" s="3"/>
+    </row>
+    <row r="615" spans="14:14">
+      <c r="N615" s="3"/>
+    </row>
+    <row r="616" spans="14:14">
+      <c r="N616" s="3"/>
+    </row>
+    <row r="617" spans="14:14">
+      <c r="N617" s="3"/>
+    </row>
+    <row r="618" spans="14:14">
+      <c r="N618" s="3"/>
+    </row>
+    <row r="619" spans="14:14">
+      <c r="N619" s="3"/>
+    </row>
+    <row r="620" spans="14:14">
+      <c r="N620" s="3"/>
+    </row>
+    <row r="621" spans="14:14">
+      <c r="N621" s="3"/>
+    </row>
+    <row r="622" spans="14:14">
+      <c r="N622" s="3"/>
+    </row>
+    <row r="623" spans="14:14">
+      <c r="N623" s="3"/>
+    </row>
+    <row r="624" spans="14:14">
+      <c r="N624" s="3"/>
+    </row>
+    <row r="625" spans="14:14">
+      <c r="N625" s="3"/>
+    </row>
+    <row r="626" spans="14:14">
+      <c r="N626" s="3"/>
+    </row>
+    <row r="627" spans="14:14">
+      <c r="N627" s="3"/>
+    </row>
+    <row r="628" spans="14:14">
+      <c r="N628" s="3"/>
+    </row>
+    <row r="629" spans="14:14">
+      <c r="N629" s="3"/>
+    </row>
+    <row r="630" spans="14:14">
+      <c r="N630" s="3"/>
+    </row>
+    <row r="631" spans="14:14">
+      <c r="N631" s="3"/>
+    </row>
+    <row r="632" spans="14:14">
+      <c r="N632" s="3"/>
+    </row>
+    <row r="633" spans="14:14">
+      <c r="N633" s="3"/>
+    </row>
+    <row r="634" spans="14:14">
+      <c r="N634" s="3"/>
+    </row>
+    <row r="635" spans="14:14">
+      <c r="N635" s="3"/>
+    </row>
+    <row r="636" spans="14:14">
+      <c r="N636" s="3"/>
+    </row>
+    <row r="637" spans="14:14">
+      <c r="N637" s="3"/>
+    </row>
+    <row r="638" spans="14:14">
+      <c r="N638" s="3"/>
+    </row>
+    <row r="639" spans="14:14">
+      <c r="N639" s="3"/>
+    </row>
+    <row r="640" spans="14:14">
+      <c r="N640" s="3"/>
+    </row>
+    <row r="641" spans="14:14">
+      <c r="N641" s="3"/>
+    </row>
+    <row r="642" spans="14:14">
+      <c r="N642" s="3"/>
+    </row>
+    <row r="643" spans="14:14">
+      <c r="N643" s="3"/>
+    </row>
+    <row r="644" spans="14:14">
+      <c r="N644" s="3"/>
+    </row>
+    <row r="645" spans="14:14">
+      <c r="N645" s="3"/>
+    </row>
+    <row r="646" spans="14:14">
+      <c r="N646" s="3"/>
+    </row>
+    <row r="647" spans="14:14">
+      <c r="N647" s="3"/>
+    </row>
+    <row r="648" spans="14:14">
+      <c r="N648" s="3"/>
+    </row>
+    <row r="649" spans="14:14">
+      <c r="N649" s="3"/>
+    </row>
+    <row r="650" spans="14:14">
+      <c r="N650" s="3"/>
+    </row>
+    <row r="651" spans="14:14">
+      <c r="N651" s="3"/>
+    </row>
+    <row r="652" spans="14:14">
+      <c r="N652" s="3"/>
+    </row>
+    <row r="653" spans="14:14">
+      <c r="N653" s="3"/>
+    </row>
+    <row r="654" spans="14:14">
+      <c r="N654" s="3"/>
+    </row>
+    <row r="655" spans="14:14">
+      <c r="N655" s="3"/>
+    </row>
+    <row r="656" spans="14:14">
+      <c r="N656" s="3"/>
+    </row>
+    <row r="657" spans="14:14">
+      <c r="N657" s="3"/>
+    </row>
+    <row r="658" spans="14:14">
+      <c r="N658" s="3"/>
+    </row>
+    <row r="659" spans="14:14">
+      <c r="N659" s="3"/>
+    </row>
+    <row r="660" spans="14:14">
+      <c r="N660" s="3"/>
+    </row>
+    <row r="661" spans="14:14">
+      <c r="N661" s="3"/>
+    </row>
+    <row r="662" spans="14:14">
+      <c r="N662" s="3"/>
+    </row>
+    <row r="663" spans="14:14">
+      <c r="N663" s="3"/>
+    </row>
+    <row r="664" spans="14:14">
+      <c r="N664" s="3"/>
+    </row>
+    <row r="665" spans="14:14">
+      <c r="N665" s="3"/>
+    </row>
+    <row r="666" spans="14:14">
+      <c r="N666" s="3"/>
+    </row>
+    <row r="667" spans="14:14">
+      <c r="N667" s="3"/>
+    </row>
+    <row r="668" spans="14:14">
+      <c r="N668" s="3"/>
+    </row>
+    <row r="669" spans="14:14">
+      <c r="N669" s="3"/>
+    </row>
+    <row r="670" spans="14:14">
+      <c r="N670" s="3"/>
+    </row>
+    <row r="671" spans="14:14">
+      <c r="N671" s="3"/>
+    </row>
+    <row r="672" spans="14:14">
+      <c r="N672" s="3"/>
+    </row>
+    <row r="673" spans="14:14">
+      <c r="N673" s="3"/>
+    </row>
+    <row r="674" spans="14:14">
+      <c r="N674" s="3"/>
+    </row>
+    <row r="675" spans="14:14">
+      <c r="N675" s="3"/>
+    </row>
+    <row r="676" spans="14:14">
+      <c r="N676" s="3"/>
+    </row>
+    <row r="677" spans="14:14">
+      <c r="N677" s="3"/>
+    </row>
+    <row r="678" spans="14:14">
+      <c r="N678" s="3"/>
+    </row>
+    <row r="679" spans="14:14">
+      <c r="N679" s="3"/>
+    </row>
+    <row r="680" spans="14:14">
+      <c r="N680" s="3"/>
+    </row>
+    <row r="681" spans="14:14">
+      <c r="N681" s="3"/>
+    </row>
+    <row r="682" spans="14:14">
+      <c r="N682" s="3"/>
+    </row>
+    <row r="683" spans="14:14">
+      <c r="N683" s="3"/>
+    </row>
+    <row r="684" spans="14:14">
+      <c r="N684" s="3"/>
+    </row>
+    <row r="685" spans="14:14">
+      <c r="N685" s="3"/>
+    </row>
+    <row r="686" spans="14:14">
+      <c r="N686" s="3"/>
+    </row>
+    <row r="687" spans="14:14">
+      <c r="N687" s="3"/>
+    </row>
+    <row r="688" spans="14:14">
+      <c r="N688" s="3"/>
+    </row>
+    <row r="689" spans="14:14">
+      <c r="N689" s="3"/>
+    </row>
+    <row r="690" spans="14:14">
+      <c r="N690" s="3"/>
+    </row>
+    <row r="691" spans="14:14">
+      <c r="N691" s="3"/>
+    </row>
+    <row r="692" spans="14:14">
+      <c r="N692" s="3"/>
+    </row>
+    <row r="693" spans="14:14">
+      <c r="N693" s="3"/>
+    </row>
+    <row r="694" spans="14:14">
+      <c r="N694" s="3"/>
+    </row>
+    <row r="695" spans="14:14">
+      <c r="N695" s="3"/>
+    </row>
+    <row r="696" spans="14:14">
+      <c r="N696" s="3"/>
+    </row>
+    <row r="697" spans="14:14">
+      <c r="N697" s="3"/>
+    </row>
+    <row r="698" spans="14:14">
+      <c r="N698" s="3"/>
+    </row>
+    <row r="699" spans="14:14">
+      <c r="N699" s="3"/>
+    </row>
+    <row r="700" spans="14:14">
+      <c r="N700" s="3"/>
+    </row>
+    <row r="701" spans="14:14">
+      <c r="N701" s="3"/>
+    </row>
+    <row r="702" spans="14:14">
+      <c r="N702" s="3"/>
+    </row>
+    <row r="703" spans="14:14">
+      <c r="N703" s="3"/>
+    </row>
+    <row r="704" spans="14:14">
+      <c r="N704" s="3"/>
+    </row>
+    <row r="705" spans="14:14">
+      <c r="N705" s="3"/>
+    </row>
+    <row r="706" spans="14:14">
+      <c r="N706" s="3"/>
+    </row>
+    <row r="707" spans="14:14">
+      <c r="N707" s="3"/>
+    </row>
+    <row r="708" spans="14:14">
+      <c r="N708" s="3"/>
+    </row>
+    <row r="709" spans="14:14">
+      <c r="N709" s="3"/>
+    </row>
+    <row r="710" spans="14:14">
+      <c r="N710" s="3"/>
+    </row>
+    <row r="711" spans="14:14">
+      <c r="N711" s="3"/>
+    </row>
+    <row r="712" spans="14:14">
+      <c r="N712" s="3"/>
+    </row>
+    <row r="713" spans="14:14">
+      <c r="N713" s="3"/>
+    </row>
+    <row r="714" spans="14:14">
+      <c r="N714" s="3"/>
+    </row>
+    <row r="715" spans="14:14">
+      <c r="N715" s="3"/>
+    </row>
+    <row r="716" spans="14:14">
+      <c r="N716" s="3"/>
+    </row>
+    <row r="717" spans="14:14">
+      <c r="N717" s="3"/>
+    </row>
+    <row r="718" spans="14:14">
+      <c r="N718" s="3"/>
+    </row>
+    <row r="719" spans="14:14">
+      <c r="N719" s="3"/>
+    </row>
+    <row r="720" spans="14:14">
+      <c r="N720" s="3"/>
+    </row>
+    <row r="721" spans="14:14">
+      <c r="N721" s="3"/>
+    </row>
+    <row r="722" spans="14:14">
+      <c r="N722" s="3"/>
+    </row>
+    <row r="723" spans="14:14">
+      <c r="N723" s="3"/>
+    </row>
+    <row r="724" spans="14:14">
+      <c r="N724" s="3"/>
+    </row>
+    <row r="725" spans="14:14">
+      <c r="N725" s="3"/>
+    </row>
+    <row r="726" spans="14:14">
+      <c r="N726" s="3"/>
+    </row>
+    <row r="727" spans="14:14">
+      <c r="N727" s="3"/>
+    </row>
+    <row r="728" spans="14:14">
+      <c r="N728" s="3"/>
+    </row>
+    <row r="729" spans="14:14">
+      <c r="N729" s="3"/>
+    </row>
+    <row r="730" spans="14:14">
+      <c r="N730" s="3"/>
+    </row>
+    <row r="731" spans="14:14">
+      <c r="N731" s="3"/>
+    </row>
+    <row r="732" spans="14:14">
+      <c r="N732" s="3"/>
+    </row>
+    <row r="733" spans="14:14">
+      <c r="N733" s="3"/>
+    </row>
+    <row r="734" spans="14:14">
+      <c r="N734" s="3"/>
+    </row>
+    <row r="735" spans="14:14">
+      <c r="N735" s="3"/>
+    </row>
+    <row r="736" spans="14:14">
+      <c r="N736" s="3"/>
+    </row>
+    <row r="737" spans="14:14">
+      <c r="N737" s="3"/>
+    </row>
+    <row r="738" spans="14:14">
+      <c r="N738" s="3"/>
+    </row>
+    <row r="739" spans="14:14">
+      <c r="N739" s="3"/>
+    </row>
+    <row r="740" spans="14:14">
+      <c r="N740" s="3"/>
+    </row>
+    <row r="741" spans="14:14">
+      <c r="N741" s="3"/>
+    </row>
+    <row r="742" spans="14:14">
+      <c r="N742" s="3"/>
+    </row>
+    <row r="743" spans="14:14">
+      <c r="N743" s="3"/>
+    </row>
+    <row r="744" spans="14:14">
+      <c r="N744" s="3"/>
+    </row>
+    <row r="745" spans="14:14">
+      <c r="N745" s="3"/>
+    </row>
+    <row r="746" spans="14:14">
+      <c r="N746" s="3"/>
+    </row>
+    <row r="747" spans="14:14">
+      <c r="N747" s="3"/>
+    </row>
+    <row r="748" spans="14:14">
+      <c r="N748" s="3"/>
+    </row>
+    <row r="749" spans="14:14">
+      <c r="N749" s="3"/>
+    </row>
+    <row r="750" spans="14:14">
+      <c r="N750" s="3"/>
+    </row>
+    <row r="751" spans="14:14">
+      <c r="N751" s="3"/>
+    </row>
+    <row r="752" spans="14:14">
+      <c r="N752" s="3"/>
+    </row>
+    <row r="753" spans="14:14">
+      <c r="N753" s="3"/>
+    </row>
+    <row r="754" spans="14:14">
+      <c r="N754" s="3"/>
+    </row>
+    <row r="755" spans="14:14">
+      <c r="N755" s="3"/>
+    </row>
+    <row r="756" spans="14:14">
+      <c r="N756" s="3"/>
+    </row>
+    <row r="757" spans="14:14">
+      <c r="N757" s="3"/>
+    </row>
+    <row r="758" spans="14:14">
+      <c r="N758" s="3"/>
+    </row>
+    <row r="759" spans="14:14">
+      <c r="N759" s="3"/>
+    </row>
+    <row r="760" spans="14:14">
+      <c r="N760" s="3"/>
+    </row>
+    <row r="761" spans="14:14">
+      <c r="N761" s="3"/>
+    </row>
+    <row r="762" spans="14:14">
+      <c r="N762" s="3"/>
+    </row>
+    <row r="763" spans="14:14">
+      <c r="N763" s="3"/>
+    </row>
+    <row r="764" spans="14:14">
+      <c r="N764" s="3"/>
+    </row>
+    <row r="765" spans="14:14">
+      <c r="N765" s="3"/>
+    </row>
+    <row r="766" spans="14:14">
+      <c r="N766" s="3"/>
+    </row>
+    <row r="767" spans="14:14">
+      <c r="N767" s="3"/>
+    </row>
+    <row r="768" spans="14:14">
+      <c r="N768" s="3"/>
+    </row>
+    <row r="769" spans="14:14">
+      <c r="N769" s="3"/>
+    </row>
+    <row r="770" spans="14:14">
+      <c r="N770" s="3"/>
+    </row>
+    <row r="771" spans="14:14">
+      <c r="N771" s="3"/>
+    </row>
+    <row r="772" spans="14:14">
+      <c r="N772" s="3"/>
+    </row>
+    <row r="773" spans="14:14">
+      <c r="N773" s="3"/>
+    </row>
+    <row r="774" spans="14:14">
+      <c r="N774" s="3"/>
+    </row>
+    <row r="775" spans="14:14">
+      <c r="N775" s="3"/>
+    </row>
+    <row r="776" spans="14:14">
+      <c r="N776" s="3"/>
+    </row>
+    <row r="777" spans="14:14">
+      <c r="N777" s="3"/>
+    </row>
+    <row r="778" spans="14:14">
+      <c r="N778" s="3"/>
+    </row>
+    <row r="779" spans="14:14">
+      <c r="N779" s="3"/>
+    </row>
+    <row r="780" spans="14:14">
+      <c r="N780" s="3"/>
+    </row>
+    <row r="781" spans="14:14">
+      <c r="N781" s="3"/>
+    </row>
+    <row r="782" spans="14:14">
+      <c r="N782" s="3"/>
+    </row>
+    <row r="783" spans="14:14">
+      <c r="N783" s="3"/>
+    </row>
+    <row r="784" spans="14:14">
+      <c r="N784" s="3"/>
+    </row>
+    <row r="785" spans="14:14">
+      <c r="N785" s="3"/>
+    </row>
+    <row r="786" spans="14:14">
+      <c r="N786" s="3"/>
+    </row>
+    <row r="787" spans="14:14">
+      <c r="N787" s="3"/>
+    </row>
+    <row r="788" spans="14:14">
+      <c r="N788" s="3"/>
+    </row>
+    <row r="789" spans="14:14">
+      <c r="N789" s="3"/>
+    </row>
+    <row r="790" spans="14:14">
+      <c r="N790" s="3"/>
+    </row>
+    <row r="791" spans="14:14">
+      <c r="N791" s="3"/>
+    </row>
+    <row r="792" spans="14:14">
+      <c r="N792" s="3"/>
+    </row>
+    <row r="793" spans="14:14">
+      <c r="N793" s="3"/>
+    </row>
+    <row r="794" spans="14:14">
+      <c r="N794" s="3"/>
+    </row>
+    <row r="795" spans="14:14">
+      <c r="N795" s="3"/>
+    </row>
+    <row r="796" spans="14:14">
+      <c r="N796" s="3"/>
+    </row>
+    <row r="797" spans="14:14">
+      <c r="N797" s="3"/>
+    </row>
+    <row r="798" spans="14:14">
+      <c r="N798" s="3"/>
+    </row>
+    <row r="799" spans="14:14">
+      <c r="N799" s="3"/>
+    </row>
+    <row r="800" spans="14:14">
+      <c r="N800" s="3"/>
+    </row>
+    <row r="801" spans="14:14">
+      <c r="N801" s="3"/>
+    </row>
+    <row r="802" spans="14:14">
+      <c r="N802" s="3"/>
+    </row>
+    <row r="803" spans="14:14">
+      <c r="N803" s="3"/>
+    </row>
+    <row r="804" spans="14:14">
+      <c r="N804" s="3"/>
+    </row>
+    <row r="805" spans="14:14">
+      <c r="N805" s="3"/>
+    </row>
+    <row r="806" spans="14:14">
+      <c r="N806" s="3"/>
+    </row>
+    <row r="807" spans="14:14">
+      <c r="N807" s="3"/>
+    </row>
+    <row r="808" spans="14:14">
+      <c r="N808" s="3"/>
+    </row>
+    <row r="809" spans="14:14">
+      <c r="N809" s="3"/>
+    </row>
+    <row r="810" spans="14:14">
+      <c r="N810" s="3"/>
+    </row>
+    <row r="811" spans="14:14">
+      <c r="N811" s="3"/>
+    </row>
+    <row r="812" spans="14:14">
+      <c r="N812" s="3"/>
+    </row>
+    <row r="813" spans="14:14">
+      <c r="N813" s="3"/>
+    </row>
+    <row r="814" spans="14:14">
+      <c r="N814" s="3"/>
+    </row>
+    <row r="815" spans="14:14">
+      <c r="N815" s="3"/>
+    </row>
+    <row r="816" spans="14:14">
+      <c r="N816" s="3"/>
+    </row>
+    <row r="817" spans="14:14">
+      <c r="N817" s="3"/>
+    </row>
+    <row r="818" spans="14:14">
+      <c r="N818" s="3"/>
+    </row>
+    <row r="819" spans="14:14">
+      <c r="N819" s="3"/>
+    </row>
+    <row r="820" spans="14:14">
+      <c r="N820" s="3"/>
+    </row>
+    <row r="821" spans="14:14">
+      <c r="N821" s="3"/>
+    </row>
+    <row r="822" spans="14:14">
+      <c r="N822" s="3"/>
+    </row>
+    <row r="823" spans="14:14">
+      <c r="N823" s="3"/>
+    </row>
+    <row r="824" spans="14:14">
+      <c r="N824" s="3"/>
+    </row>
+    <row r="825" spans="14:14">
+      <c r="N825" s="3"/>
+    </row>
+    <row r="826" spans="14:14">
+      <c r="N826" s="3"/>
+    </row>
+    <row r="827" spans="14:14">
+      <c r="N827" s="3"/>
+    </row>
+    <row r="828" spans="14:14">
+      <c r="N828" s="3"/>
+    </row>
+    <row r="829" spans="14:14">
+      <c r="N829" s="3"/>
+    </row>
+    <row r="830" spans="14:14">
+      <c r="N830" s="3"/>
+    </row>
+    <row r="831" spans="14:14">
+      <c r="N831" s="3"/>
+    </row>
+    <row r="832" spans="14:14">
+      <c r="N832" s="3"/>
+    </row>
+    <row r="833" spans="14:14">
+      <c r="N833" s="3"/>
+    </row>
+    <row r="834" spans="14:14">
+      <c r="N834" s="3"/>
+    </row>
+    <row r="835" spans="14:14">
+      <c r="N835" s="3"/>
+    </row>
+    <row r="836" spans="14:14">
+      <c r="N836" s="3"/>
+    </row>
+    <row r="837" spans="14:14">
+      <c r="N837" s="3"/>
+    </row>
+    <row r="838" spans="14:14">
+      <c r="N838" s="3"/>
+    </row>
+    <row r="839" spans="14:14">
+      <c r="N839" s="3"/>
+    </row>
+    <row r="840" spans="14:14">
+      <c r="N840" s="3"/>
+    </row>
+    <row r="841" spans="14:14">
+      <c r="N841" s="3"/>
+    </row>
+    <row r="842" spans="14:14">
+      <c r="N842" s="3"/>
+    </row>
+    <row r="843" spans="14:14">
+      <c r="N843" s="3"/>
+    </row>
+    <row r="844" spans="14:14">
+      <c r="N844" s="3"/>
+    </row>
+    <row r="845" spans="14:14">
+      <c r="N845" s="3"/>
+    </row>
+    <row r="846" spans="14:14">
+      <c r="N846" s="3"/>
+    </row>
+    <row r="847" spans="14:14">
+      <c r="N847" s="3"/>
+    </row>
+    <row r="848" spans="14:14">
+      <c r="N848" s="3"/>
+    </row>
+    <row r="849" spans="14:14">
+      <c r="N849" s="3"/>
+    </row>
+    <row r="850" spans="14:14">
+      <c r="N850" s="3"/>
+    </row>
+    <row r="851" spans="14:14">
+      <c r="N851" s="3"/>
+    </row>
+    <row r="852" spans="14:14">
+      <c r="N852" s="3"/>
+    </row>
+    <row r="853" spans="14:14">
+      <c r="N853" s="3"/>
+    </row>
+    <row r="854" spans="14:14">
+      <c r="N854" s="3"/>
+    </row>
+    <row r="855" spans="14:14">
+      <c r="N855" s="3"/>
+    </row>
+    <row r="856" spans="14:14">
+      <c r="N856" s="3"/>
+    </row>
+    <row r="857" spans="14:14">
+      <c r="N857" s="3"/>
+    </row>
+    <row r="858" spans="14:14">
+      <c r="N858" s="3"/>
+    </row>
+    <row r="859" spans="14:14">
+      <c r="N859" s="3"/>
+    </row>
+    <row r="860" spans="14:14">
+      <c r="N860" s="3"/>
+    </row>
+    <row r="861" spans="14:14">
+      <c r="N861" s="3"/>
+    </row>
+    <row r="862" spans="14:14">
+      <c r="N862" s="3"/>
+    </row>
+    <row r="863" spans="14:14">
+      <c r="N863" s="3"/>
+    </row>
+    <row r="864" spans="14:14">
+      <c r="N864" s="3"/>
+    </row>
+    <row r="865" spans="14:14">
+      <c r="N865" s="3"/>
+    </row>
+    <row r="866" spans="14:14">
+      <c r="N866" s="3"/>
+    </row>
+    <row r="867" spans="14:14">
+      <c r="N867" s="3"/>
+    </row>
+    <row r="868" spans="14:14">
+      <c r="N868" s="3"/>
+    </row>
+    <row r="869" spans="14:14">
+      <c r="N869" s="3"/>
+    </row>
+    <row r="870" spans="14:14">
+      <c r="N870" s="3"/>
+    </row>
+    <row r="871" spans="14:14">
+      <c r="N871" s="3"/>
+    </row>
+    <row r="872" spans="14:14">
+      <c r="N872" s="3"/>
+    </row>
+    <row r="873" spans="14:14">
+      <c r="N873" s="3"/>
+    </row>
+    <row r="874" spans="14:14">
+      <c r="N874" s="3"/>
+    </row>
+    <row r="875" spans="14:14">
+      <c r="N875" s="3"/>
+    </row>
+    <row r="876" spans="14:14">
+      <c r="N876" s="3"/>
+    </row>
+    <row r="877" spans="14:14">
+      <c r="N877" s="3"/>
+    </row>
+    <row r="878" spans="14:14">
+      <c r="N878" s="3"/>
+    </row>
+    <row r="879" spans="14:14">
+      <c r="N879" s="3"/>
+    </row>
+    <row r="880" spans="14:14">
+      <c r="N880" s="3"/>
+    </row>
+    <row r="881" spans="14:14">
+      <c r="N881" s="3"/>
+    </row>
+    <row r="882" spans="14:14">
+      <c r="N882" s="3"/>
+    </row>
+    <row r="883" spans="14:14">
+      <c r="N883" s="3"/>
+    </row>
+    <row r="884" spans="14:14">
+      <c r="N884" s="3"/>
+    </row>
+    <row r="885" spans="14:14">
+      <c r="N885" s="3"/>
+    </row>
+    <row r="886" spans="14:14">
+      <c r="N886" s="3"/>
+    </row>
+    <row r="887" spans="14:14">
+      <c r="N887" s="3"/>
+    </row>
+    <row r="888" spans="14:14">
+      <c r="N888" s="3"/>
+    </row>
+    <row r="889" spans="14:14">
+      <c r="N889" s="3"/>
+    </row>
+    <row r="890" spans="14:14">
+      <c r="N890" s="3"/>
+    </row>
+    <row r="891" spans="14:14">
+      <c r="N891" s="3"/>
+    </row>
+    <row r="892" spans="14:14">
+      <c r="N892" s="3"/>
+    </row>
+    <row r="893" spans="14:14">
+      <c r="N893" s="3"/>
+    </row>
+    <row r="894" spans="14:14">
+      <c r="N894" s="3"/>
+    </row>
+    <row r="895" spans="14:14">
+      <c r="N895" s="3"/>
+    </row>
+    <row r="896" spans="14:14">
+      <c r="N896" s="3"/>
+    </row>
+    <row r="897" spans="14:14">
+      <c r="N897" s="3"/>
+    </row>
+    <row r="898" spans="14:14">
+      <c r="N898" s="3"/>
+    </row>
+    <row r="899" spans="14:14">
+      <c r="N899" s="3"/>
+    </row>
+    <row r="900" spans="14:14">
+      <c r="N900" s="3"/>
+    </row>
+    <row r="901" spans="14:14">
+      <c r="N901" s="3"/>
+    </row>
+    <row r="902" spans="14:14">
+      <c r="N902" s="3"/>
+    </row>
+    <row r="903" spans="14:14">
+      <c r="N903" s="3"/>
+    </row>
+    <row r="904" spans="14:14">
+      <c r="N904" s="3"/>
+    </row>
+    <row r="905" spans="14:14">
+      <c r="N905" s="3"/>
+    </row>
+    <row r="906" spans="14:14">
+      <c r="N906" s="3"/>
+    </row>
+    <row r="907" spans="14:14">
+      <c r="N907" s="3"/>
+    </row>
+    <row r="908" spans="14:14">
+      <c r="N908" s="3"/>
+    </row>
+    <row r="909" spans="14:14">
+      <c r="N909" s="3"/>
+    </row>
+    <row r="910" spans="14:14">
+      <c r="N910" s="3"/>
+    </row>
+    <row r="911" spans="14:14">
+      <c r="N911" s="3"/>
+    </row>
+    <row r="912" spans="14:14">
+      <c r="N912" s="3"/>
+    </row>
+    <row r="913" spans="14:14">
+      <c r="N913" s="3"/>
+    </row>
+    <row r="914" spans="14:14">
+      <c r="N914" s="3"/>
+    </row>
+    <row r="915" spans="14:14">
+      <c r="N915" s="3"/>
+    </row>
+    <row r="916" spans="14:14">
+      <c r="N916" s="3"/>
+    </row>
+    <row r="917" spans="14:14">
+      <c r="N917" s="3"/>
+    </row>
+    <row r="918" spans="14:14">
+      <c r="N918" s="3"/>
+    </row>
+    <row r="919" spans="14:14">
+      <c r="N919" s="3"/>
+    </row>
+    <row r="920" spans="14:14">
+      <c r="N920" s="3"/>
+    </row>
+    <row r="921" spans="14:14">
+      <c r="N921" s="3"/>
+    </row>
+    <row r="922" spans="14:14">
+      <c r="N922" s="3"/>
+    </row>
+    <row r="923" spans="14:14">
+      <c r="N923" s="3"/>
+    </row>
+    <row r="924" spans="14:14">
+      <c r="N924" s="3"/>
+    </row>
+    <row r="925" spans="14:14">
+      <c r="N925" s="3"/>
+    </row>
+    <row r="926" spans="14:14">
+      <c r="N926" s="3"/>
+    </row>
+    <row r="927" spans="14:14">
+      <c r="N927" s="3"/>
+    </row>
+    <row r="928" spans="14:14">
+      <c r="N928" s="3"/>
+    </row>
+    <row r="929" spans="14:14">
+      <c r="N929" s="3"/>
+    </row>
+    <row r="930" spans="14:14">
+      <c r="N930" s="3"/>
+    </row>
+    <row r="931" spans="14:14">
+      <c r="N931" s="3"/>
+    </row>
+    <row r="932" spans="14:14">
+      <c r="N932" s="3"/>
+    </row>
+    <row r="933" spans="14:14">
+      <c r="N933" s="3"/>
+    </row>
+    <row r="934" spans="14:14">
+      <c r="N934" s="3"/>
+    </row>
+    <row r="935" spans="14:14">
+      <c r="N935" s="3"/>
+    </row>
+    <row r="936" spans="14:14">
+      <c r="N936" s="3"/>
+    </row>
+    <row r="937" spans="14:14">
+      <c r="N937" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10519,13 +13346,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5"/>
@@ -10709,7 +13536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1">
+    <row r="11" spans="1:5" ht="55.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -10726,7 +13553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="52.5" customHeight="1">
+    <row r="12" spans="1:5" ht="60" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -10741,6 +13568,23 @@
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -213,12 +213,36 @@
   <si>
     <t>Already in log levels</t>
   </si>
+  <si>
+    <t>GDPDef</t>
+  </si>
+  <si>
+    <t>SP5001</t>
+  </si>
+  <si>
+    <t>SP5002</t>
+  </si>
+  <si>
+    <t>S&amp;P500 Index Open</t>
+  </si>
+  <si>
+    <t>S&amp;P500 Index Close</t>
+  </si>
+  <si>
+    <t>Yahoo Finance Historical Data</t>
+  </si>
+  <si>
+    <t>Opening Price - Nominal</t>
+  </si>
+  <si>
+    <t>Closing Price - Nominal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +291,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -306,12 +336,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,11 +369,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normale 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N937"/>
+  <dimension ref="A1:P937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G267" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N278" sqref="N278"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -635,11 +671,12 @@
     <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
     <col min="3" max="12" width="22" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="14" max="15" width="21.5703125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -682,8 +719,14 @@
       <c r="N1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -726,8 +769,14 @@
       <c r="N2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="2">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,8 +819,14 @@
       <c r="N3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -814,8 +869,14 @@
       <c r="N4" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="2">
+        <v>14</v>
+      </c>
+      <c r="P4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +919,14 @@
       <c r="N5" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="2">
+        <v>14</v>
+      </c>
+      <c r="P5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="B6" s="4">
         <v>1950</v>
       </c>
@@ -884,8 +951,14 @@
       <c r="N6" s="3">
         <v>0.39475227297379989</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P6" s="10">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="B7" s="4">
         <v>1950.25</v>
       </c>
@@ -910,8 +983,14 @@
       <c r="N7" s="3">
         <v>0.38466803325650517</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="10">
+        <v>18</v>
+      </c>
+      <c r="P7" s="10">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="B8" s="4">
         <v>1950.5</v>
       </c>
@@ -936,8 +1015,14 @@
       <c r="N8" s="3">
         <v>0.38387155772308751</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="10">
+        <v>18.5</v>
+      </c>
+      <c r="P8" s="10">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="B9" s="4">
         <v>1950.75</v>
       </c>
@@ -962,8 +1047,14 @@
       <c r="N9" s="3">
         <v>0.39045055297536641</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="10">
+        <v>19.900000000000002</v>
+      </c>
+      <c r="P9" s="10">
+        <v>20.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="B10" s="4">
         <v>1951</v>
       </c>
@@ -988,8 +1079,14 @@
       <c r="N10" s="3">
         <v>0.36219624014728236</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="P10" s="10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="B11" s="4">
         <v>1951.25</v>
       </c>
@@ -1014,8 +1111,14 @@
       <c r="N11" s="3">
         <v>0.34224106941801691</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="P11" s="10">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="B12" s="4">
         <v>1951.5</v>
       </c>
@@ -1040,8 +1143,14 @@
       <c r="N12" s="3">
         <v>0.45305092344282594</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="10">
+        <v>22.599999999999998</v>
+      </c>
+      <c r="P12" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="B13" s="4">
         <v>1951.75</v>
       </c>
@@ -1066,8 +1175,14 @@
       <c r="N13" s="3">
         <v>0.43932455334558279</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="P13" s="10">
+        <v>23.400000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="B14" s="4">
         <v>1952</v>
       </c>
@@ -1095,8 +1210,14 @@
       <c r="N14" s="3">
         <v>0.38794360918704018</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="10">
+        <v>23.900000000000002</v>
+      </c>
+      <c r="P14" s="10">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="B15" s="4">
         <v>1952.25</v>
       </c>
@@ -1124,8 +1245,14 @@
       <c r="N15" s="3">
         <v>0.46974652100276992</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>24.400000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16" s="4">
         <v>1952.5</v>
       </c>
@@ -1153,8 +1280,14 @@
       <c r="N16" s="3">
         <v>0.44078166996739621</v>
       </c>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="O16" s="10">
+        <v>25.1</v>
+      </c>
+      <c r="P16" s="10">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="4">
         <v>1952.75</v>
       </c>
@@ -1182,8 +1315,14 @@
       <c r="N17" s="3">
         <v>0.43869321131181388</v>
       </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="O17" s="10">
+        <v>25.3</v>
+      </c>
+      <c r="P17" s="10">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" s="4">
         <v>1953</v>
       </c>
@@ -1211,8 +1350,14 @@
       <c r="N18" s="3">
         <v>0.52752361607906728</v>
       </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="O18" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="P18" s="10">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="4">
         <v>1953.25</v>
       </c>
@@ -1240,8 +1385,14 @@
       <c r="N19" s="3">
         <v>0.57493618539391433</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="O19" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="P19" s="10">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="4">
         <v>1953.5</v>
       </c>
@@ -1269,8 +1420,14 @@
       <c r="N20" s="3">
         <v>0.62914481556130386</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="O20" s="10">
+        <v>24</v>
+      </c>
+      <c r="P20" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="4">
         <v>1953.75</v>
       </c>
@@ -1298,8 +1455,14 @@
       <c r="N21" s="3">
         <v>0.64931003085967276</v>
       </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="O21" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="P21" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="4">
         <v>1954</v>
       </c>
@@ -1327,8 +1490,14 @@
       <c r="N22" s="3">
         <v>0.70002909359865406</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="O22" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="P22" s="10">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="4">
         <v>1954.25</v>
       </c>
@@ -1356,8 +1525,14 @@
       <c r="N23" s="3">
         <v>0.73172860895444369</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="O23" s="10">
+        <v>28.400000000000002</v>
+      </c>
+      <c r="P23" s="10">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="4">
         <v>1954.5</v>
       </c>
@@ -1388,8 +1563,14 @@
       <c r="N24" s="3">
         <v>0.77090305332784947</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="O24" s="10">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="P24" s="10">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" s="4">
         <v>1954.75</v>
       </c>
@@ -1420,8 +1601,14 @@
       <c r="N25" s="3">
         <v>0.79231164491268469</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="O25" s="10">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="P25" s="10">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="4">
         <v>1955</v>
       </c>
@@ -1452,8 +1639,14 @@
       <c r="N26" s="3">
         <v>0.77393015080504324</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="O26" s="10">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="P26" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="4">
         <v>1955.25</v>
       </c>
@@ -1484,8 +1677,14 @@
       <c r="N27" s="3">
         <v>0.7857353472380818</v>
       </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="O27" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="P27" s="10">
+        <v>40.099999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="4">
         <v>1955.5</v>
       </c>
@@ -1516,8 +1715,14 @@
       <c r="N28" s="3">
         <v>0.8019057455068862</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="O28" s="10">
+        <v>42.5</v>
+      </c>
+      <c r="P28" s="10">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29" s="4">
         <v>1955.75</v>
       </c>
@@ -1548,8 +1753,14 @@
       <c r="N29" s="3">
         <v>0.7459515643880692</v>
       </c>
-    </row>
-    <row r="30" spans="2:14">
+      <c r="O29" s="10">
+        <v>43.8</v>
+      </c>
+      <c r="P29" s="10">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30" s="4">
         <v>1956</v>
       </c>
@@ -1580,8 +1791,14 @@
       <c r="N30" s="3">
         <v>0.76649716411319513</v>
       </c>
-    </row>
-    <row r="31" spans="2:14">
+      <c r="O30" s="10">
+        <v>45.900000000000006</v>
+      </c>
+      <c r="P30" s="10">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="4">
         <v>1956.25</v>
       </c>
@@ -1612,8 +1829,14 @@
       <c r="N31" s="3">
         <v>0.8293887156643911</v>
       </c>
-    </row>
-    <row r="32" spans="2:14">
+      <c r="O31" s="10">
+        <v>47.300000000000004</v>
+      </c>
+      <c r="P31" s="10">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="4">
         <v>1956.5</v>
       </c>
@@ -1644,8 +1867,14 @@
       <c r="N32" s="3">
         <v>0.80813420904400135</v>
       </c>
-    </row>
-    <row r="33" spans="2:14">
+      <c r="O32" s="10">
+        <v>47.300000000000004</v>
+      </c>
+      <c r="P32" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" s="4">
         <v>1956.75</v>
       </c>
@@ -1676,8 +1905,14 @@
       <c r="N33" s="3">
         <v>0.83598450135501345</v>
       </c>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="O33" s="10">
+        <v>45.900000000000006</v>
+      </c>
+      <c r="P33" s="10">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34" s="4">
         <v>1957</v>
       </c>
@@ -1708,8 +1943,14 @@
       <c r="N34" s="3">
         <v>0.87337393312700828</v>
       </c>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="O34" s="10">
+        <v>44.699999999999996</v>
+      </c>
+      <c r="P34" s="10">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35" s="4">
         <v>1957.25</v>
       </c>
@@ -1740,8 +1981,14 @@
       <c r="N35" s="3">
         <v>0.93414448999132871</v>
       </c>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="O35" s="10">
+        <v>46.199999999999996</v>
+      </c>
+      <c r="P35" s="10">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36" s="4">
         <v>1957.5</v>
       </c>
@@ -1772,8 +2019,14 @@
       <c r="N36" s="3">
         <v>0.97855436969996856</v>
       </c>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="O36" s="10">
+        <v>45.900000000000006</v>
+      </c>
+      <c r="P36" s="10">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37" s="4">
         <v>1957.75</v>
       </c>
@@ -1804,8 +2057,14 @@
       <c r="N37" s="3">
         <v>1.0676111069955274</v>
       </c>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="O37" s="10">
+        <v>41.2</v>
+      </c>
+      <c r="P37" s="10">
+        <v>41.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38" s="4">
         <v>1958</v>
       </c>
@@ -1836,8 +2095,14 @@
       <c r="N38" s="3">
         <v>1.0806008874213426</v>
       </c>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="O38" s="10">
+        <v>41.4</v>
+      </c>
+      <c r="P38" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39" s="4">
         <v>1958.25</v>
       </c>
@@ -1868,8 +2133,14 @@
       <c r="N39" s="3">
         <v>1.0910094006975493</v>
       </c>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="O39" s="10">
+        <v>43.8</v>
+      </c>
+      <c r="P39" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
       <c r="B40" s="4">
         <v>1958.5</v>
       </c>
@@ -1900,8 +2171,14 @@
       <c r="N40" s="3">
         <v>1.0878147863321577</v>
       </c>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="O40" s="10">
+        <v>47.7</v>
+      </c>
+      <c r="P40" s="10">
+        <v>49.099999999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41" s="4">
         <v>1958.75</v>
       </c>
@@ -1932,8 +2209,14 @@
       <c r="N41" s="3">
         <v>1.0916876242572662</v>
       </c>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="O41" s="10">
+        <v>52.400000000000006</v>
+      </c>
+      <c r="P41" s="10">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42" s="4">
         <v>1959</v>
       </c>
@@ -1967,8 +2250,14 @@
       <c r="N42" s="3">
         <v>1.0548283024463831</v>
       </c>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="O42" s="10">
+        <v>55.5</v>
+      </c>
+      <c r="P42" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43" s="4">
         <v>1959.25</v>
       </c>
@@ -2002,8 +2291,14 @@
       <c r="N43" s="3">
         <v>1.0589260663197693</v>
       </c>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="O43" s="10">
+        <v>57.7</v>
+      </c>
+      <c r="P43" s="10">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44" s="4">
         <v>1959.5</v>
       </c>
@@ -2037,8 +2332,14 @@
       <c r="N44" s="3">
         <v>1.0880634723872045</v>
       </c>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="O44" s="10">
+        <v>58.9</v>
+      </c>
+      <c r="P44" s="10">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45" s="4">
         <v>1959.75</v>
       </c>
@@ -2072,8 +2373,14 @@
       <c r="N45" s="3">
         <v>1.1267856052424752</v>
       </c>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="O45" s="10">
+        <v>58.2</v>
+      </c>
+      <c r="P45" s="10">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
       <c r="B46" s="4">
         <v>1960</v>
       </c>
@@ -2110,8 +2417,14 @@
       <c r="N46" s="3">
         <v>1.1897794361981526</v>
       </c>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="O46" s="10">
+        <v>56.800000000000004</v>
+      </c>
+      <c r="P46" s="10">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47" s="4">
         <v>1960.25</v>
       </c>
@@ -2148,8 +2461,14 @@
       <c r="N47" s="3">
         <v>1.185870398307624</v>
       </c>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="O47" s="10">
+        <v>55.599999999999994</v>
+      </c>
+      <c r="P47" s="10">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48" s="4">
         <v>1960.5</v>
       </c>
@@ -2186,8 +2505,14 @@
       <c r="N48" s="3">
         <v>1.1994488458302532</v>
       </c>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="O48" s="10">
+        <v>55.800000000000004</v>
+      </c>
+      <c r="P48" s="10">
+        <v>54.800000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="4">
         <v>1960.75</v>
       </c>
@@ -2224,8 +2549,14 @@
       <c r="N49" s="3">
         <v>1.2335624695396643</v>
       </c>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="O49" s="10">
+        <v>55</v>
+      </c>
+      <c r="P49" s="10">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" s="4">
         <v>1961</v>
       </c>
@@ -2262,8 +2593,14 @@
       <c r="N50" s="3">
         <v>1.227903179795371</v>
       </c>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="O50" s="10">
+        <v>62.1</v>
+      </c>
+      <c r="P50" s="10">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51" s="4">
         <v>1961.25</v>
       </c>
@@ -2300,8 +2637,14 @@
       <c r="N51" s="3">
         <v>1.2573577851045694</v>
       </c>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="O51" s="10">
+        <v>65.600000000000009</v>
+      </c>
+      <c r="P51" s="10">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16">
       <c r="B52" s="4">
         <v>1961.5</v>
       </c>
@@ -2338,8 +2681,14 @@
       <c r="N52" s="3">
         <v>1.2758783527314714</v>
       </c>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="O52" s="10">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="P52" s="10">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53" s="4">
         <v>1961.75</v>
       </c>
@@ -2376,8 +2725,14 @@
       <c r="N53" s="3">
         <v>1.2457753253158745</v>
       </c>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="O53" s="10">
+        <v>69.7</v>
+      </c>
+      <c r="P53" s="10">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
       <c r="B54" s="4">
         <v>1962</v>
       </c>
@@ -2414,8 +2769,14 @@
       <c r="N54" s="3">
         <v>1.2821198906462874</v>
       </c>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="O54" s="10">
+        <v>70</v>
+      </c>
+      <c r="P54" s="10">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
       <c r="B55" s="4">
         <v>1962.25</v>
       </c>
@@ -2452,8 +2813,14 @@
       <c r="N55" s="3">
         <v>1.271435843163637</v>
       </c>
-    </row>
-    <row r="56" spans="2:14">
+      <c r="O55" s="10">
+        <v>62.300000000000004</v>
+      </c>
+      <c r="P55" s="10">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
       <c r="B56" s="4">
         <v>1962.5</v>
       </c>
@@ -2490,8 +2857,14 @@
       <c r="N56" s="3">
         <v>1.3129342586912349</v>
       </c>
-    </row>
-    <row r="57" spans="2:14">
+      <c r="O56" s="10">
+        <v>57.1</v>
+      </c>
+      <c r="P56" s="10">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
       <c r="B57" s="4">
         <v>1962.75</v>
       </c>
@@ -2528,8 +2901,14 @@
       <c r="N57" s="3">
         <v>1.3621953407332263</v>
       </c>
-    </row>
-    <row r="58" spans="2:14">
+      <c r="O57" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="P57" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" s="4">
         <v>1963</v>
       </c>
@@ -2566,8 +2945,14 @@
       <c r="N58" s="3">
         <v>1.3545773294239081</v>
       </c>
-    </row>
-    <row r="59" spans="2:14">
+      <c r="O58" s="10">
+        <v>65.100000000000009</v>
+      </c>
+      <c r="P58" s="10">
+        <v>66.699999999999989</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59" s="4">
         <v>1963.25</v>
       </c>
@@ -2604,8 +2989,14 @@
       <c r="N59" s="3">
         <v>1.3634366239798239</v>
       </c>
-    </row>
-    <row r="60" spans="2:14">
+      <c r="O59" s="10">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="P59" s="10">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
       <c r="B60" s="4">
         <v>1963.5</v>
       </c>
@@ -2642,8 +3033,14 @@
       <c r="N60" s="3">
         <v>1.4131715308141459</v>
       </c>
-    </row>
-    <row r="61" spans="2:14">
+      <c r="O60" s="10">
+        <v>70.7</v>
+      </c>
+      <c r="P60" s="10">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61" s="4">
         <v>1963.75</v>
       </c>
@@ -2680,8 +3077,14 @@
       <c r="N61" s="3">
         <v>1.4110254028356408</v>
       </c>
-    </row>
-    <row r="62" spans="2:14">
+      <c r="O61" s="10">
+        <v>73.5</v>
+      </c>
+      <c r="P61" s="10">
+        <v>74.800000000000011</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62" s="4">
         <v>1964</v>
       </c>
@@ -2718,8 +3121,14 @@
       <c r="N62" s="3">
         <v>1.4736818632936168</v>
       </c>
-    </row>
-    <row r="63" spans="2:14">
+      <c r="O62" s="10">
+        <v>77.2</v>
+      </c>
+      <c r="P62" s="10">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63" s="4">
         <v>1964.25</v>
       </c>
@@ -2756,8 +3165,14 @@
       <c r="N63" s="3">
         <v>1.4459410143415008</v>
       </c>
-    </row>
-    <row r="64" spans="2:14">
+      <c r="O63" s="10">
+        <v>80.100000000000009</v>
+      </c>
+      <c r="P63" s="10">
+        <v>81.199999999999989</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64" s="4">
         <v>1964.5</v>
       </c>
@@ -2794,8 +3209,14 @@
       <c r="N64" s="3">
         <v>1.475712506659185</v>
       </c>
-    </row>
-    <row r="65" spans="2:14">
+      <c r="O64" s="10">
+        <v>82.699999999999989</v>
+      </c>
+      <c r="P64" s="10">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16">
       <c r="B65" s="4">
         <v>1964.75</v>
       </c>
@@ -2832,8 +3253,14 @@
       <c r="N65" s="3">
         <v>1.467657054542411</v>
       </c>
-    </row>
-    <row r="66" spans="2:14">
+      <c r="O65" s="10">
+        <v>84.6</v>
+      </c>
+      <c r="P65" s="10">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16">
       <c r="B66" s="4">
         <v>1965</v>
       </c>
@@ -2870,8 +3297,14 @@
       <c r="N66" s="3">
         <v>1.4637808802519181</v>
       </c>
-    </row>
-    <row r="67" spans="2:14">
+      <c r="O66" s="10">
+        <v>86.5</v>
+      </c>
+      <c r="P66" s="10">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16">
       <c r="B67" s="4">
         <v>1965.25</v>
       </c>
@@ -2908,8 +3341,14 @@
       <c r="N67" s="3">
         <v>1.4787342393175595</v>
       </c>
-    </row>
-    <row r="68" spans="2:14">
+      <c r="O67" s="10">
+        <v>87</v>
+      </c>
+      <c r="P67" s="10">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16">
       <c r="B68" s="4">
         <v>1965.5</v>
       </c>
@@ -2946,8 +3385,14 @@
       <c r="N68" s="3">
         <v>1.5573129604012002</v>
       </c>
-    </row>
-    <row r="69" spans="2:14">
+      <c r="O68" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="P68" s="10">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16">
       <c r="B69" s="4">
         <v>1965.75</v>
       </c>
@@ -2984,8 +3429,14 @@
       <c r="N69" s="3">
         <v>1.5858330096634849</v>
       </c>
-    </row>
-    <row r="70" spans="2:14">
+      <c r="O69" s="10">
+        <v>91.6</v>
+      </c>
+      <c r="P69" s="10">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16">
       <c r="B70" s="4">
         <v>1966</v>
       </c>
@@ -3022,8 +3473,14 @@
       <c r="N70" s="3">
         <v>1.6186586875163362</v>
       </c>
-    </row>
-    <row r="71" spans="2:14">
+      <c r="O70" s="10">
+        <v>91.399999999999991</v>
+      </c>
+      <c r="P70" s="10">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16">
       <c r="B71" s="4">
         <v>1966.25</v>
       </c>
@@ -3060,8 +3517,14 @@
       <c r="N71" s="3">
         <v>1.5997900786133961</v>
       </c>
-    </row>
-    <row r="72" spans="2:14">
+      <c r="O71" s="10">
+        <v>87.8</v>
+      </c>
+      <c r="P71" s="10">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16">
       <c r="B72" s="4">
         <v>1966.5</v>
       </c>
@@ -3098,8 +3561,14 @@
       <c r="N72" s="3">
         <v>1.6049430055896223</v>
       </c>
-    </row>
-    <row r="73" spans="2:14">
+      <c r="O72" s="10">
+        <v>80.5</v>
+      </c>
+      <c r="P72" s="10">
+        <v>79.399999999999991</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16">
       <c r="B73" s="4">
         <v>1966.75</v>
       </c>
@@ -3136,8 +3605,14 @@
       <c r="N73" s="3">
         <v>1.6434434162205676</v>
       </c>
-    </row>
-    <row r="74" spans="2:14">
+      <c r="O73" s="10">
+        <v>79.399999999999991</v>
+      </c>
+      <c r="P73" s="10">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16">
       <c r="B74" s="4">
         <v>1967</v>
       </c>
@@ -3174,8 +3649,14 @@
       <c r="N74" s="3">
         <v>1.7216012783653634</v>
       </c>
-    </row>
-    <row r="75" spans="2:14">
+      <c r="O74" s="10">
+        <v>86</v>
+      </c>
+      <c r="P74" s="10">
+        <v>89.399999999999991</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16">
       <c r="B75" s="4">
         <v>1967.25</v>
       </c>
@@ -3212,8 +3693,14 @@
       <c r="N75" s="3">
         <v>1.7669615426585137</v>
       </c>
-    </row>
-    <row r="76" spans="2:14">
+      <c r="O75" s="10">
+        <v>91</v>
+      </c>
+      <c r="P75" s="10">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16">
       <c r="B76" s="4">
         <v>1967.5</v>
       </c>
@@ -3250,8 +3737,14 @@
       <c r="N76" s="3">
         <v>1.7484119381669971</v>
       </c>
-    </row>
-    <row r="77" spans="2:14">
+      <c r="O76" s="10">
+        <v>93.899999999999991</v>
+      </c>
+      <c r="P76" s="10">
+        <v>94.600000000000009</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16">
       <c r="B77" s="4">
         <v>1967.75</v>
       </c>
@@ -3288,8 +3781,14 @@
       <c r="N77" s="3">
         <v>1.7858389236725147</v>
       </c>
-    </row>
-    <row r="78" spans="2:14">
+      <c r="O77" s="10">
+        <v>95.100000000000009</v>
+      </c>
+      <c r="P77" s="10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16">
       <c r="B78" s="4">
         <v>1968</v>
       </c>
@@ -3326,8 +3825,14 @@
       <c r="N78" s="3">
         <v>1.8444819654235025</v>
       </c>
-    </row>
-    <row r="79" spans="2:14">
+      <c r="O78" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="P78" s="10">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16">
       <c r="B79" s="4">
         <v>1968.25</v>
       </c>
@@ -3364,8 +3869,14 @@
       <c r="N79" s="3">
         <v>1.8700453278125659</v>
       </c>
-    </row>
-    <row r="80" spans="2:14">
+      <c r="O79" s="10">
+        <v>96.699999999999989</v>
+      </c>
+      <c r="P79" s="10">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16">
       <c r="B80" s="4">
         <v>1968.5</v>
       </c>
@@ -3402,8 +3913,14 @@
       <c r="N80" s="3">
         <v>1.8610958895255845</v>
       </c>
-    </row>
-    <row r="81" spans="2:14">
+      <c r="O80" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="P80" s="10">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16">
       <c r="B81" s="4">
         <v>1968.75</v>
       </c>
@@ -3440,8 +3957,14 @@
       <c r="N81" s="3">
         <v>1.8405049612292383</v>
       </c>
-    </row>
-    <row r="82" spans="2:14">
+      <c r="O81" s="10">
+        <v>104.6</v>
+      </c>
+      <c r="P81" s="10">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16">
       <c r="B82" s="4">
         <v>1969</v>
       </c>
@@ -3478,8 +4001,14 @@
       <c r="N82" s="3">
         <v>1.8325180914338304</v>
       </c>
-    </row>
-    <row r="83" spans="2:14">
+      <c r="O82" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="P82" s="10">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16">
       <c r="B83" s="4">
         <v>1969.25</v>
       </c>
@@ -3516,8 +4045,14 @@
       <c r="N83" s="3">
         <v>1.8050795351411695</v>
       </c>
-    </row>
-    <row r="84" spans="2:14">
+      <c r="O83" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="P83" s="10">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16">
       <c r="B84" s="4">
         <v>1969.5</v>
       </c>
@@ -3554,8 +4089,14 @@
       <c r="N84" s="3">
         <v>1.7975847869765269</v>
       </c>
-    </row>
-    <row r="85" spans="2:14">
+      <c r="O84" s="10">
+        <v>94.600000000000009</v>
+      </c>
+      <c r="P84" s="10">
+        <v>94.399999999999991</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16">
       <c r="B85" s="4">
         <v>1969.75</v>
       </c>
@@ -3592,8 +4133,14 @@
       <c r="N85" s="3">
         <v>1.7921361631566111</v>
       </c>
-    </row>
-    <row r="86" spans="2:14">
+      <c r="O85" s="10">
+        <v>94</v>
+      </c>
+      <c r="P85" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16">
       <c r="B86" s="4">
         <v>1970</v>
       </c>
@@ -3630,8 +4177,14 @@
       <c r="N86" s="3">
         <v>1.8344575274522941</v>
       </c>
-    </row>
-    <row r="87" spans="2:14">
+      <c r="O86" s="10">
+        <v>89.1</v>
+      </c>
+      <c r="P86" s="10">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16">
       <c r="B87" s="4">
         <v>1970.25</v>
       </c>
@@ -3668,8 +4221,14 @@
       <c r="N87" s="3">
         <v>1.9054807855085196</v>
       </c>
-    </row>
-    <row r="88" spans="2:14">
+      <c r="O87" s="10">
+        <v>80.100000000000009</v>
+      </c>
+      <c r="P87" s="10">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16">
       <c r="B88" s="4">
         <v>1970.5</v>
       </c>
@@ -3706,8 +4265,14 @@
       <c r="N88" s="3">
         <v>1.9604305712466923</v>
       </c>
-    </row>
-    <row r="89" spans="2:14">
+      <c r="O88" s="10">
+        <v>79.100000000000009</v>
+      </c>
+      <c r="P88" s="10">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16">
       <c r="B89" s="4">
         <v>1970.75</v>
       </c>
@@ -3744,8 +4309,14 @@
       <c r="N89" s="3">
         <v>1.9571518725953316</v>
       </c>
-    </row>
-    <row r="90" spans="2:14">
+      <c r="O89" s="10">
+        <v>86.7</v>
+      </c>
+      <c r="P89" s="10">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16">
       <c r="B90" s="4">
         <v>1971</v>
       </c>
@@ -3782,8 +4353,14 @@
       <c r="N90" s="3">
         <v>2.0062741441555008</v>
       </c>
-    </row>
-    <row r="91" spans="2:14">
+      <c r="O90" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="P90" s="10">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16">
       <c r="B91" s="4">
         <v>1971.25</v>
       </c>
@@ -3820,8 +4397,14 @@
       <c r="N91" s="3">
         <v>2.008476218960729</v>
       </c>
-    </row>
-    <row r="92" spans="2:14">
+      <c r="O91" s="10">
+        <v>100.8</v>
+      </c>
+      <c r="P91" s="10">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16">
       <c r="B92" s="4">
         <v>1971.5</v>
       </c>
@@ -3858,8 +4441,14 @@
       <c r="N92" s="3">
         <v>2.0938507805157243</v>
       </c>
-    </row>
-    <row r="93" spans="2:14">
+      <c r="O92" s="10">
+        <v>98</v>
+      </c>
+      <c r="P92" s="10">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16">
       <c r="B93" s="4">
         <v>1971.75</v>
       </c>
@@ -3896,8 +4485,14 @@
       <c r="N93" s="3">
         <v>2.0396589681456043</v>
       </c>
-    </row>
-    <row r="94" spans="2:14">
+      <c r="O93" s="10">
+        <v>97.199999999999989</v>
+      </c>
+      <c r="P93" s="10">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16">
       <c r="B94" s="4">
         <v>1972</v>
       </c>
@@ -3934,8 +4529,14 @@
       <c r="N94" s="3">
         <v>2.0512020234779418</v>
       </c>
-    </row>
-    <row r="95" spans="2:14">
+      <c r="O94" s="10">
+        <v>104.89999999999999</v>
+      </c>
+      <c r="P94" s="10">
+        <v>106.30000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16">
       <c r="B95" s="4">
         <v>1972.25</v>
       </c>
@@ -3972,8 +4573,14 @@
       <c r="N95" s="3">
         <v>2.0785714211621356</v>
       </c>
-    </row>
-    <row r="96" spans="2:14">
+      <c r="O95" s="10">
+        <v>107.89999999999999</v>
+      </c>
+      <c r="P95" s="10">
+        <v>107.89999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16">
       <c r="B96" s="4">
         <v>1972.5</v>
       </c>
@@ -4010,8 +4617,14 @@
       <c r="N96" s="3">
         <v>2.1048234375714721</v>
       </c>
-    </row>
-    <row r="97" spans="2:14">
+      <c r="O96" s="10">
+        <v>109</v>
+      </c>
+      <c r="P96" s="10">
+        <v>110.2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16">
       <c r="B97" s="4">
         <v>1972.75</v>
       </c>
@@ -4048,8 +4661,14 @@
       <c r="N97" s="3">
         <v>2.1382166368657805</v>
       </c>
-    </row>
-    <row r="98" spans="2:14">
+      <c r="O97" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="P97" s="10">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16">
       <c r="B98" s="4">
         <v>1973</v>
       </c>
@@ -4086,8 +4705,14 @@
       <c r="N98" s="3">
         <v>2.1794005202459172</v>
       </c>
-    </row>
-    <row r="99" spans="2:14">
+      <c r="O98" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="P98" s="10">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16">
       <c r="B99" s="4">
         <v>1973.25</v>
       </c>
@@ -4124,8 +4749,14 @@
       <c r="N99" s="3">
         <v>2.1561124730471866</v>
       </c>
-    </row>
-    <row r="100" spans="2:14">
+      <c r="O99" s="10">
+        <v>106.89999999999999</v>
+      </c>
+      <c r="P99" s="10">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16">
       <c r="B100" s="4">
         <v>1973.5</v>
       </c>
@@ -4162,8 +4793,14 @@
       <c r="N100" s="3">
         <v>2.1136614145781638</v>
       </c>
-    </row>
-    <row r="101" spans="2:14">
+      <c r="O100" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="P100" s="10">
+        <v>107.30000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16">
       <c r="B101" s="4">
         <v>1973.75</v>
       </c>
@@ -4200,8 +4837,14 @@
       <c r="N101" s="3">
         <v>2.125813896754563</v>
       </c>
-    </row>
-    <row r="102" spans="2:14">
+      <c r="O101" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="P101" s="10">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16">
       <c r="B102" s="4">
         <v>1974</v>
       </c>
@@ -4238,8 +4881,14 @@
       <c r="N102" s="3">
         <v>2.0939386214214029</v>
       </c>
-    </row>
-    <row r="103" spans="2:14">
+      <c r="O102" s="10">
+        <v>96.100000000000009</v>
+      </c>
+      <c r="P102" s="10">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16">
       <c r="B103" s="4">
         <v>1974.25</v>
       </c>
@@ -4276,8 +4925,14 @@
       <c r="N103" s="3">
         <v>2.1212511781738272</v>
       </c>
-    </row>
-    <row r="104" spans="2:14">
+      <c r="O103" s="10">
+        <v>89.399999999999991</v>
+      </c>
+      <c r="P103" s="10">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16">
       <c r="B104" s="4">
         <v>1974.5</v>
       </c>
@@ -4314,8 +4969,14 @@
       <c r="N104" s="3">
         <v>2.0636835511365876</v>
       </c>
-    </row>
-    <row r="105" spans="2:14">
+      <c r="O104" s="10">
+        <v>75.300000000000011</v>
+      </c>
+      <c r="P104" s="10">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16">
       <c r="B105" s="4">
         <v>1974.75</v>
       </c>
@@ -4352,8 +5013,14 @@
       <c r="N105" s="3">
         <v>2.1152803734906915</v>
       </c>
-    </row>
-    <row r="106" spans="2:14">
+      <c r="O105" s="10">
+        <v>69</v>
+      </c>
+      <c r="P105" s="10">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16">
       <c r="B106" s="4">
         <v>1975</v>
       </c>
@@ -4390,8 +5057,14 @@
       <c r="N106" s="3">
         <v>2.2122275673001557</v>
       </c>
-    </row>
-    <row r="107" spans="2:14">
+      <c r="O106" s="10">
+        <v>77.600000000000009</v>
+      </c>
+      <c r="P106" s="10">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16">
       <c r="B107" s="4">
         <v>1975.25</v>
       </c>
@@ -4428,8 +5101,14 @@
       <c r="N107" s="3">
         <v>2.2637850345180865</v>
       </c>
-    </row>
-    <row r="108" spans="2:14">
+      <c r="O107" s="10">
+        <v>89.300000000000011</v>
+      </c>
+      <c r="P107" s="10">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16">
       <c r="B108" s="4">
         <v>1975.5</v>
       </c>
@@ -4466,8 +5145,14 @@
       <c r="N108" s="3">
         <v>2.241046536753156</v>
       </c>
-    </row>
-    <row r="109" spans="2:14">
+      <c r="O108" s="10">
+        <v>88.7</v>
+      </c>
+      <c r="P108" s="10">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16">
       <c r="B109" s="4">
         <v>1975.75</v>
       </c>
@@ -4504,8 +5189,14 @@
       <c r="N109" s="3">
         <v>2.1994796196371276</v>
       </c>
-    </row>
-    <row r="110" spans="2:14">
+      <c r="O109" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="P109" s="10">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16">
       <c r="B110" s="4">
         <v>1976</v>
       </c>
@@ -4542,8 +5233,14 @@
       <c r="N110" s="3">
         <v>2.2024641254856605</v>
       </c>
-    </row>
-    <row r="111" spans="2:14">
+      <c r="O110" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="P110" s="10">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16">
       <c r="B111" s="4">
         <v>1976.25</v>
       </c>
@@ -4580,8 +5277,14 @@
       <c r="N111" s="3">
         <v>2.2362664681661926</v>
       </c>
-    </row>
-    <row r="112" spans="2:14">
+      <c r="O111" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="P111" s="10">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16">
       <c r="B112" s="4">
         <v>1976.5</v>
       </c>
@@ -4618,8 +5321,14 @@
       <c r="N112" s="3">
         <v>2.2292835917268885</v>
       </c>
-    </row>
-    <row r="113" spans="2:14">
+      <c r="O112" s="10">
+        <v>104</v>
+      </c>
+      <c r="P112" s="10">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16">
       <c r="B113" s="4">
         <v>1976.75</v>
       </c>
@@ -4656,8 +5365,14 @@
       <c r="N113" s="3">
         <v>2.267531682708726</v>
       </c>
-    </row>
-    <row r="114" spans="2:14">
+      <c r="O113" s="10">
+        <v>104.4</v>
+      </c>
+      <c r="P113" s="10">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16">
       <c r="B114" s="4">
         <v>1977</v>
       </c>
@@ -4694,8 +5409,14 @@
       <c r="N114" s="3">
         <v>2.2909601011571272</v>
       </c>
-    </row>
-    <row r="115" spans="2:14">
+      <c r="O114" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="P114" s="10">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16">
       <c r="B115" s="4">
         <v>1977.25</v>
       </c>
@@ -4732,8 +5453,14 @@
       <c r="N115" s="3">
         <v>2.2749173879800622</v>
       </c>
-    </row>
-    <row r="116" spans="2:14">
+      <c r="O115" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="P115" s="10">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16">
       <c r="B116" s="4">
         <v>1977.5</v>
       </c>
@@ -4770,8 +5497,14 @@
       <c r="N116" s="3">
         <v>2.3350286739231523</v>
       </c>
-    </row>
-    <row r="117" spans="2:14">
+      <c r="O116" s="10">
+        <v>98.199999999999989</v>
+      </c>
+      <c r="P116" s="10">
+        <v>96.100000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16">
       <c r="B117" s="4">
         <v>1977.75</v>
       </c>
@@ -4808,8 +5541,14 @@
       <c r="N117" s="3">
         <v>2.293627433439946</v>
       </c>
-    </row>
-    <row r="118" spans="2:14">
+      <c r="O117" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="P117" s="10">
+        <v>92.899999999999991</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16">
       <c r="B118" s="4">
         <v>1978</v>
       </c>
@@ -4846,8 +5585,14 @@
       <c r="N118" s="3">
         <v>2.3198507274897202</v>
       </c>
-    </row>
-    <row r="119" spans="2:14">
+      <c r="O118" s="10">
+        <v>90.1</v>
+      </c>
+      <c r="P118" s="10">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16">
       <c r="B119" s="4">
         <v>1978.25</v>
       </c>
@@ -4884,8 +5629,14 @@
       <c r="N119" s="3">
         <v>2.322110288191046</v>
       </c>
-    </row>
-    <row r="120" spans="2:14">
+      <c r="O119" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="P119" s="10">
+        <v>97.600000000000009</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16">
       <c r="B120" s="4">
         <v>1978.5</v>
       </c>
@@ -4922,8 +5673,14 @@
       <c r="N120" s="3">
         <v>2.3193922161160279</v>
       </c>
-    </row>
-    <row r="121" spans="2:14">
+      <c r="O120" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="P120" s="10">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16">
       <c r="B121" s="4">
         <v>1978.75</v>
       </c>
@@ -4960,8 +5717,14 @@
       <c r="N121" s="3">
         <v>2.3113550486609298</v>
       </c>
-    </row>
-    <row r="122" spans="2:14">
+      <c r="O121" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="P121" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16">
       <c r="B122" s="4">
         <v>1979</v>
       </c>
@@ -4998,8 +5761,14 @@
       <c r="N122" s="3">
         <v>2.313045644655455</v>
       </c>
-    </row>
-    <row r="123" spans="2:14">
+      <c r="O122" s="10">
+        <v>98.5</v>
+      </c>
+      <c r="P122" s="10">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16">
       <c r="B123" s="4">
         <v>1979.25</v>
       </c>
@@ -5036,8 +5805,14 @@
       <c r="N123" s="3">
         <v>2.3530314585539922</v>
       </c>
-    </row>
-    <row r="124" spans="2:14">
+      <c r="O123" s="10">
+        <v>101.3</v>
+      </c>
+      <c r="P123" s="10">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16">
       <c r="B124" s="4">
         <v>1979.5</v>
       </c>
@@ -5074,8 +5849,14 @@
       <c r="N124" s="3">
         <v>2.2971711001776107</v>
       </c>
-    </row>
-    <row r="125" spans="2:14">
+      <c r="O124" s="10">
+        <v>106.30000000000001</v>
+      </c>
+      <c r="P124" s="10">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16">
       <c r="B125" s="4">
         <v>1979.75</v>
       </c>
@@ -5112,8 +5893,14 @@
       <c r="N125" s="3">
         <v>2.300909863136269</v>
       </c>
-    </row>
-    <row r="126" spans="2:14">
+      <c r="O125" s="10">
+        <v>106.30000000000001</v>
+      </c>
+      <c r="P125" s="10">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16">
       <c r="B126" s="4">
         <v>1980</v>
       </c>
@@ -5150,8 +5937,14 @@
       <c r="N126" s="3">
         <v>2.3792557545124553</v>
       </c>
-    </row>
-    <row r="127" spans="2:14">
+      <c r="O126" s="10">
+        <v>109.5</v>
+      </c>
+      <c r="P126" s="10">
+        <v>109.10000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16">
       <c r="B127" s="4">
         <v>1980.25</v>
       </c>
@@ -5188,8 +5981,14 @@
       <c r="N127" s="3">
         <v>2.3405950460645473</v>
       </c>
-    </row>
-    <row r="128" spans="2:14">
+      <c r="O127" s="10">
+        <v>108.5</v>
+      </c>
+      <c r="P127" s="10">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:16">
       <c r="B128" s="4">
         <v>1980.5</v>
       </c>
@@ -5226,8 +6025,14 @@
       <c r="N128" s="3">
         <v>2.3185572601192197</v>
       </c>
-    </row>
-    <row r="129" spans="2:14">
+      <c r="O128" s="10">
+        <v>120.89999999999999</v>
+      </c>
+      <c r="P128" s="10">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16">
       <c r="B129" s="4">
         <v>1980.75</v>
       </c>
@@ -5264,8 +6069,14 @@
       <c r="N129" s="3">
         <v>2.3031048371107574</v>
       </c>
-    </row>
-    <row r="130" spans="2:14">
+      <c r="O129" s="10">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="P129" s="10">
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16">
       <c r="B130" s="4">
         <v>1981</v>
       </c>
@@ -5302,8 +6113,14 @@
       <c r="N130" s="3">
         <v>2.3470368092251737</v>
       </c>
-    </row>
-    <row r="131" spans="2:14">
+      <c r="O130" s="10">
+        <v>133.1</v>
+      </c>
+      <c r="P130" s="10">
+        <v>132.39999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16">
       <c r="B131" s="4">
         <v>1981.25</v>
       </c>
@@ -5340,8 +6157,14 @@
       <c r="N131" s="3">
         <v>2.3084970302374885</v>
       </c>
-    </row>
-    <row r="132" spans="2:14">
+      <c r="O131" s="10">
+        <v>133.20000000000002</v>
+      </c>
+      <c r="P131" s="10">
+        <v>131.89999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16">
       <c r="B132" s="4">
         <v>1981.5</v>
       </c>
@@ -5378,8 +6201,14 @@
       <c r="N132" s="3">
         <v>2.3841022662629916</v>
       </c>
-    </row>
-    <row r="133" spans="2:14">
+      <c r="O132" s="10">
+        <v>125.3</v>
+      </c>
+      <c r="P132" s="10">
+        <v>122.89999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16">
       <c r="B133" s="4">
         <v>1981.75</v>
       </c>
@@ -5416,8 +6245,14 @@
       <c r="N133" s="3">
         <v>2.3643823257562184</v>
       </c>
-    </row>
-    <row r="134" spans="2:14">
+      <c r="O133" s="10">
+        <v>121.89999999999999</v>
+      </c>
+      <c r="P133" s="10">
+        <v>122.80000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16">
       <c r="B134" s="4">
         <v>1982</v>
       </c>
@@ -5454,8 +6289,14 @@
       <c r="N134" s="3">
         <v>2.3779232021099781</v>
       </c>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="O134" s="10">
+        <v>116.9</v>
+      </c>
+      <c r="P134" s="10">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16">
       <c r="B135" s="4">
         <v>1982.25</v>
       </c>
@@ -5492,8 +6333,14 @@
       <c r="N135" s="3">
         <v>2.3536002737447008</v>
       </c>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="O135" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="P135" s="10">
+        <v>111.3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16">
       <c r="B136" s="4">
         <v>1982.5</v>
       </c>
@@ -5530,8 +6377,14 @@
       <c r="N136" s="3">
         <v>2.3322816753324118</v>
       </c>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="O136" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="P136" s="10">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16">
       <c r="B137" s="4">
         <v>1982.75</v>
       </c>
@@ -5568,8 +6421,14 @@
       <c r="N137" s="3">
         <v>2.3396919390091986</v>
       </c>
-    </row>
-    <row r="138" spans="2:14">
+      <c r="O137" s="10">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="P137" s="10">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16">
       <c r="B138" s="4">
         <v>1983</v>
       </c>
@@ -5606,8 +6465,14 @@
       <c r="N138" s="3">
         <v>2.3313483138674749</v>
       </c>
-    </row>
-    <row r="139" spans="2:14">
+      <c r="O138" s="10">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="P138" s="10">
+        <v>152.69999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16">
       <c r="B139" s="4">
         <v>1983.25</v>
       </c>
@@ -5644,8 +6509,14 @@
       <c r="N139" s="3">
         <v>2.3231094064651177</v>
       </c>
-    </row>
-    <row r="140" spans="2:14">
+      <c r="O139" s="10">
+        <v>162</v>
+      </c>
+      <c r="P139" s="10">
+        <v>164.3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16">
       <c r="B140" s="4">
         <v>1983.5</v>
       </c>
@@ -5682,8 +6553,14 @@
       <c r="N140" s="3">
         <v>2.2758271355976274</v>
       </c>
-    </row>
-    <row r="141" spans="2:14">
+      <c r="O140" s="10">
+        <v>165.20000000000002</v>
+      </c>
+      <c r="P140" s="10">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16">
       <c r="B141" s="4">
         <v>1983.75</v>
       </c>
@@ -5720,8 +6597,14 @@
       <c r="N141" s="3">
         <v>2.2792384723795895</v>
       </c>
-    </row>
-    <row r="142" spans="2:14">
+      <c r="O141" s="10">
+        <v>165.20000000000002</v>
+      </c>
+      <c r="P141" s="10">
+        <v>164.6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16">
       <c r="B142" s="4">
         <v>1984</v>
       </c>
@@ -5758,8 +6641,14 @@
       <c r="N142" s="3">
         <v>2.3131955377934852</v>
       </c>
-    </row>
-    <row r="143" spans="2:14">
+      <c r="O142" s="10">
+        <v>161.1</v>
+      </c>
+      <c r="P142" s="10">
+        <v>159.89999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16">
       <c r="B143" s="4">
         <v>1984.25</v>
       </c>
@@ -5796,8 +6685,14 @@
       <c r="N143" s="3">
         <v>2.342786168711521</v>
       </c>
-    </row>
-    <row r="144" spans="2:14">
+      <c r="O143" s="10">
+        <v>155.70000000000002</v>
+      </c>
+      <c r="P143" s="10">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
       <c r="B144" s="4">
         <v>1984.5</v>
       </c>
@@ -5834,8 +6729,14 @@
       <c r="N144" s="3">
         <v>2.3624608654095427</v>
       </c>
-    </row>
-    <row r="145" spans="2:14">
+      <c r="O144" s="10">
+        <v>159.20000000000002</v>
+      </c>
+      <c r="P144" s="10">
+        <v>162.39999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16">
       <c r="B145" s="4">
         <v>1984.75</v>
       </c>
@@ -5872,8 +6773,14 @@
       <c r="N145" s="3">
         <v>2.3715086745111225</v>
       </c>
-    </row>
-    <row r="146" spans="2:14">
+      <c r="O145" s="10">
+        <v>165.7</v>
+      </c>
+      <c r="P145" s="10">
+        <v>169.1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16">
       <c r="B146" s="4">
         <v>1985</v>
       </c>
@@ -5910,8 +6817,14 @@
       <c r="N146" s="3">
         <v>2.415884779300022</v>
       </c>
-    </row>
-    <row r="147" spans="2:14">
+      <c r="O146" s="10">
+        <v>177.2</v>
+      </c>
+      <c r="P146" s="10">
+        <v>180.29999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16">
       <c r="B147" s="4">
         <v>1985.25</v>
       </c>
@@ -5948,8 +6861,14 @@
       <c r="N147" s="3">
         <v>2.4077739595064784</v>
       </c>
-    </row>
-    <row r="148" spans="2:14">
+      <c r="O147" s="10">
+        <v>185.5</v>
+      </c>
+      <c r="P147" s="10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16">
       <c r="B148" s="4">
         <v>1985.5</v>
       </c>
@@ -5986,8 +6905,14 @@
       <c r="N148" s="3">
         <v>2.4347342995282144</v>
       </c>
-    </row>
-    <row r="149" spans="2:14">
+      <c r="O148" s="10">
+        <v>188.4</v>
+      </c>
+      <c r="P148" s="10">
+        <v>187.9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16">
       <c r="B149" s="4">
         <v>1985.75</v>
       </c>
@@ -6024,8 +6949,14 @@
       <c r="N149" s="3">
         <v>2.4253555050936666</v>
       </c>
-    </row>
-    <row r="150" spans="2:14">
+      <c r="O149" s="10">
+        <v>196.3</v>
+      </c>
+      <c r="P149" s="10">
+        <v>203.8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16">
       <c r="B150" s="4">
         <v>1986</v>
       </c>
@@ -6065,8 +6996,14 @@
       <c r="N150" s="3">
         <v>2.4627815406921902</v>
       </c>
-    </row>
-    <row r="151" spans="2:14">
+      <c r="O150" s="10">
+        <v>222.20000000000002</v>
+      </c>
+      <c r="P150" s="10">
+        <v>228.3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:16">
       <c r="B151" s="4">
         <v>1986.25</v>
       </c>
@@ -6106,8 +7043,14 @@
       <c r="N151" s="3">
         <v>2.4950520939178098</v>
       </c>
-    </row>
-    <row r="152" spans="2:14">
+      <c r="O151" s="10">
+        <v>242.79999999999998</v>
+      </c>
+      <c r="P151" s="10">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:16">
       <c r="B152" s="4">
         <v>1986.5</v>
       </c>
@@ -6147,8 +7090,14 @@
       <c r="N152" s="3">
         <v>2.4997099280276878</v>
       </c>
-    </row>
-    <row r="153" spans="2:14">
+      <c r="O152" s="10">
+        <v>242.79999999999998</v>
+      </c>
+      <c r="P152" s="10">
+        <v>241.10000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16">
       <c r="B153" s="4">
         <v>1986.75</v>
       </c>
@@ -6188,8 +7137,14 @@
       <c r="N153" s="3">
         <v>2.4856125702640037</v>
       </c>
-    </row>
-    <row r="154" spans="2:14">
+      <c r="O153" s="10">
+        <v>241.7</v>
+      </c>
+      <c r="P153" s="10">
+        <v>252.4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16">
       <c r="B154" s="4">
         <v>1987</v>
       </c>
@@ -6229,8 +7184,14 @@
       <c r="N154" s="3">
         <v>2.4439263853676003</v>
       </c>
-    </row>
-    <row r="155" spans="2:14">
+      <c r="O154" s="10">
+        <v>273</v>
+      </c>
+      <c r="P154" s="10">
+        <v>284.60000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16">
       <c r="B155" s="4">
         <v>1987.25</v>
       </c>
@@ -6270,8 +7231,14 @@
       <c r="N155" s="3">
         <v>2.4867642499152147</v>
       </c>
-    </row>
-    <row r="156" spans="2:14">
+      <c r="O155" s="10">
+        <v>293.2</v>
+      </c>
+      <c r="P155" s="10">
+        <v>300.3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16">
       <c r="B156" s="4">
         <v>1987.5</v>
       </c>
@@ -6311,8 +7278,14 @@
       <c r="N156" s="3">
         <v>2.5018988462963665</v>
       </c>
-    </row>
-    <row r="157" spans="2:14">
+      <c r="O156" s="10">
+        <v>318.60000000000002</v>
+      </c>
+      <c r="P156" s="10">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16">
       <c r="B157" s="4">
         <v>1987.75</v>
       </c>
@@ -6352,8 +7325,14 @@
       <c r="N157" s="3">
         <v>2.5052746101355798</v>
       </c>
-    </row>
-    <row r="158" spans="2:14">
+      <c r="O157" s="10">
+        <v>262.7</v>
+      </c>
+      <c r="P157" s="10">
+        <v>246.60000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16">
       <c r="B158" s="4">
         <v>1988</v>
       </c>
@@ -6393,8 +7372,14 @@
       <c r="N158" s="3">
         <v>2.5628320208870119</v>
       </c>
-    </row>
-    <row r="159" spans="2:14">
+      <c r="O158" s="10">
+        <v>257.7</v>
+      </c>
+      <c r="P158" s="10">
+        <v>261.29999999999995</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16">
       <c r="B159" s="4">
         <v>1988.25</v>
       </c>
@@ -6434,8 +7419,14 @@
       <c r="N159" s="3">
         <v>2.5733069966048392</v>
       </c>
-    </row>
-    <row r="160" spans="2:14">
+      <c r="O159" s="10">
+        <v>264</v>
+      </c>
+      <c r="P159" s="10">
+        <v>267.29999999999995</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16">
       <c r="B160" s="4">
         <v>1988.5</v>
       </c>
@@ -6475,8 +7466,14 @@
       <c r="N160" s="3">
         <v>2.5907893909007105</v>
       </c>
-    </row>
-    <row r="161" spans="2:14">
+      <c r="O160" s="10">
+        <v>269.7</v>
+      </c>
+      <c r="P160" s="10">
+        <v>271.10000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16">
       <c r="B161" s="4">
         <v>1988.75</v>
       </c>
@@ -6516,8 +7513,14 @@
       <c r="N161" s="3">
         <v>2.5905708767109679</v>
       </c>
-    </row>
-    <row r="162" spans="2:14">
+      <c r="O161" s="10">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="P161" s="10">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16">
       <c r="B162" s="4">
         <v>1989</v>
       </c>
@@ -6557,8 +7560,14 @@
       <c r="N162" s="3">
         <v>2.5786078770674288</v>
       </c>
-    </row>
-    <row r="163" spans="2:14">
+      <c r="O162" s="10">
+        <v>289.7</v>
+      </c>
+      <c r="P162" s="10">
+        <v>297.70000000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16">
       <c r="B163" s="4">
         <v>1989.25</v>
       </c>
@@ -6598,8 +7607,14 @@
       <c r="N163" s="3">
         <v>2.5603001398787901</v>
       </c>
-    </row>
-    <row r="164" spans="2:14">
+      <c r="O163" s="10">
+        <v>310.8</v>
+      </c>
+      <c r="P163" s="10">
+        <v>323.60000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16">
       <c r="B164" s="4">
         <v>1989.5</v>
       </c>
@@ -6639,8 +7654,14 @@
       <c r="N164" s="3">
         <v>2.5813592494586093</v>
       </c>
-    </row>
-    <row r="165" spans="2:14">
+      <c r="O164" s="10">
+        <v>341.2</v>
+      </c>
+      <c r="P164" s="10">
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16">
       <c r="B165" s="4">
         <v>1989.75</v>
       </c>
@@ -6680,8 +7701,14 @@
       <c r="N165" s="3">
         <v>2.5729497790448566</v>
       </c>
-    </row>
-    <row r="166" spans="2:14">
+      <c r="O165" s="10">
+        <v>347.2</v>
+      </c>
+      <c r="P165" s="10">
+        <v>342.2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:16">
       <c r="B166" s="4">
         <v>1990</v>
       </c>
@@ -6721,8 +7748,14 @@
       <c r="N166" s="3">
         <v>2.5811070096883668</v>
       </c>
-    </row>
-    <row r="167" spans="2:14">
+      <c r="O166" s="10">
+        <v>338.6</v>
+      </c>
+      <c r="P166" s="10">
+        <v>332.9</v>
+      </c>
+    </row>
+    <row r="167" spans="2:16">
       <c r="B167" s="4">
         <v>1990.25</v>
       </c>
@@ -6762,8 +7795,14 @@
       <c r="N167" s="3">
         <v>2.5878792262094987</v>
       </c>
-    </row>
-    <row r="168" spans="2:14">
+      <c r="O167" s="10">
+        <v>347.5</v>
+      </c>
+      <c r="P167" s="10">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16">
       <c r="B168" s="4">
         <v>1990.5</v>
       </c>
@@ -6803,8 +7842,14 @@
       <c r="N168" s="3">
         <v>2.5890344562984939</v>
       </c>
-    </row>
-    <row r="169" spans="2:14">
+      <c r="O168" s="10">
+        <v>335.7</v>
+      </c>
+      <c r="P168" s="10">
+        <v>322.2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:16">
       <c r="B169" s="4">
         <v>1990.75</v>
       </c>
@@ -6844,8 +7889,14 @@
       <c r="N169" s="3">
         <v>2.5841353235015014</v>
       </c>
-    </row>
-    <row r="170" spans="2:14">
+      <c r="O169" s="10">
+        <v>315.59999999999997</v>
+      </c>
+      <c r="P169" s="10">
+        <v>325.10000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="2:16">
       <c r="B170" s="4">
         <v>1991</v>
       </c>
@@ -6885,8 +7936,14 @@
       <c r="N170" s="3">
         <v>2.6015901116812445</v>
       </c>
-    </row>
-    <row r="171" spans="2:14">
+      <c r="O170" s="10">
+        <v>354.1</v>
+      </c>
+      <c r="P170" s="10">
+        <v>365.4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:16">
       <c r="B171" s="4">
         <v>1991.25</v>
       </c>
@@ -6926,8 +7983,14 @@
       <c r="N171" s="3">
         <v>2.6256532865112217</v>
       </c>
-    </row>
-    <row r="172" spans="2:14">
+      <c r="O171" s="10">
+        <v>377.90000000000003</v>
+      </c>
+      <c r="P171" s="10">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="2:16">
       <c r="B172" s="4">
         <v>1991.5</v>
       </c>
@@ -6967,8 +8030,14 @@
       <c r="N172" s="3">
         <v>2.6178199655687573</v>
       </c>
-    </row>
-    <row r="173" spans="2:14">
+      <c r="O172" s="10">
+        <v>385.6</v>
+      </c>
+      <c r="P172" s="10">
+        <v>390.90000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="2:16">
       <c r="B173" s="4">
         <v>1991.75</v>
       </c>
@@ -7008,8 +8077,14 @@
       <c r="N173" s="3">
         <v>2.610040664704651</v>
       </c>
-    </row>
-    <row r="174" spans="2:14">
+      <c r="O173" s="10">
+        <v>393.1</v>
+      </c>
+      <c r="P173" s="10">
+        <v>398.4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16">
       <c r="B174" s="4">
         <v>1992</v>
       </c>
@@ -7049,8 +8124,14 @@
       <c r="N174" s="3">
         <v>2.710730965940912</v>
       </c>
-    </row>
-    <row r="175" spans="2:14">
+      <c r="O174" s="10">
+        <v>410.5</v>
+      </c>
+      <c r="P174" s="10">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" spans="2:16">
       <c r="B175" s="4">
         <v>1992.25</v>
       </c>
@@ -7090,8 +8171,14 @@
       <c r="N175" s="3">
         <v>2.697289144656736</v>
       </c>
-    </row>
-    <row r="176" spans="2:14">
+      <c r="O175" s="10">
+        <v>410.5</v>
+      </c>
+      <c r="P175" s="10">
+        <v>415.7</v>
+      </c>
+    </row>
+    <row r="176" spans="2:16">
       <c r="B176" s="4">
         <v>1992.5</v>
       </c>
@@ -7131,8 +8218,14 @@
       <c r="N176" s="3">
         <v>2.7022210290388045</v>
       </c>
-    </row>
-    <row r="177" spans="2:14">
+      <c r="O176" s="10">
+        <v>416.1</v>
+      </c>
+      <c r="P176" s="10">
+        <v>418.7</v>
+      </c>
+    </row>
+    <row r="177" spans="2:16">
       <c r="B177" s="4">
         <v>1992.75</v>
       </c>
@@ -7172,8 +8265,14 @@
       <c r="N177" s="3">
         <v>2.6958219264664565</v>
       </c>
-    </row>
-    <row r="178" spans="2:14">
+      <c r="O177" s="10">
+        <v>425.9</v>
+      </c>
+      <c r="P177" s="10">
+        <v>431.09999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="2:16">
       <c r="B178" s="4">
         <v>1993</v>
       </c>
@@ -7213,8 +8312,14 @@
       <c r="N178" s="3">
         <v>2.6236126785536165</v>
       </c>
-    </row>
-    <row r="179" spans="2:14">
+      <c r="O178" s="10">
+        <v>442.40000000000003</v>
+      </c>
+      <c r="P178" s="10">
+        <v>443.5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:16">
       <c r="B179" s="4">
         <v>1993.25</v>
       </c>
@@ -7254,8 +8359,14 @@
       <c r="N179" s="3">
         <v>2.6035362456602336</v>
       </c>
-    </row>
-    <row r="180" spans="2:14">
+      <c r="O179" s="10">
+        <v>448.2</v>
+      </c>
+      <c r="P179" s="10">
+        <v>447.29999999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16">
       <c r="B180" s="4">
         <v>1993.5</v>
       </c>
@@ -7295,8 +8406,14 @@
       <c r="N180" s="3">
         <v>2.5665877527265439</v>
       </c>
-    </row>
-    <row r="181" spans="2:14">
+      <c r="O180" s="10">
+        <v>455.29999999999995</v>
+      </c>
+      <c r="P180" s="10">
+        <v>459.6</v>
+      </c>
+    </row>
+    <row r="181" spans="2:16">
       <c r="B181" s="4">
         <v>1993.75</v>
       </c>
@@ -7336,8 +8453,14 @@
       <c r="N181" s="3">
         <v>2.6052553113480492</v>
       </c>
-    </row>
-    <row r="182" spans="2:14">
+      <c r="O181" s="10">
+        <v>463.8</v>
+      </c>
+      <c r="P181" s="10">
+        <v>469.4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16">
       <c r="B182" s="4">
         <v>1994</v>
       </c>
@@ -7377,8 +8500,14 @@
       <c r="N182" s="3">
         <v>2.568432677857635</v>
       </c>
-    </row>
-    <row r="183" spans="2:14">
+      <c r="O182" s="10">
+        <v>465.2</v>
+      </c>
+      <c r="P182" s="10">
+        <v>461.4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:16">
       <c r="B183" s="4">
         <v>1994.25</v>
       </c>
@@ -7418,8 +8547,14 @@
       <c r="N183" s="3">
         <v>2.5601520579903139</v>
       </c>
-    </row>
-    <row r="184" spans="2:14">
+      <c r="O183" s="10">
+        <v>449.29999999999995</v>
+      </c>
+      <c r="P183" s="10">
+        <v>452.5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:16">
       <c r="B184" s="4">
         <v>1994.5</v>
       </c>
@@ -7459,8 +8594,14 @@
       <c r="N184" s="3">
         <v>2.5553932010645175</v>
       </c>
-    </row>
-    <row r="185" spans="2:14">
+      <c r="O184" s="10">
+        <v>460.2</v>
+      </c>
+      <c r="P184" s="10">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:16">
       <c r="B185" s="4">
         <v>1994.75</v>
       </c>
@@ -7500,8 +8641,14 @@
       <c r="N185" s="3">
         <v>2.5867195745694249</v>
       </c>
-    </row>
-    <row r="186" spans="2:14">
+      <c r="O185" s="10">
+        <v>461.9</v>
+      </c>
+      <c r="P185" s="10">
+        <v>463.9</v>
+      </c>
+    </row>
+    <row r="186" spans="2:16">
       <c r="B186" s="4">
         <v>1995</v>
       </c>
@@ -7541,8 +8688,14 @@
       <c r="N186" s="3">
         <v>2.5969353653918055</v>
       </c>
-    </row>
-    <row r="187" spans="2:14">
+      <c r="O186" s="10">
+        <v>479.4</v>
+      </c>
+      <c r="P186" s="10">
+        <v>493.3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:16">
       <c r="B187" s="4">
         <v>1995.25</v>
       </c>
@@ -7582,8 +8735,14 @@
       <c r="N187" s="3">
         <v>2.6382688741459637</v>
       </c>
-    </row>
-    <row r="188" spans="2:14">
+      <c r="O187" s="10">
+        <v>523.4</v>
+      </c>
+      <c r="P187" s="10">
+        <v>538.69999999999993</v>
+      </c>
+    </row>
+    <row r="188" spans="2:16">
       <c r="B188" s="4">
         <v>1995.5</v>
       </c>
@@ -7623,8 +8782,14 @@
       <c r="N188" s="3">
         <v>2.6444037306380541</v>
       </c>
-    </row>
-    <row r="189" spans="2:14">
+      <c r="O188" s="10">
+        <v>563.30000000000007</v>
+      </c>
+      <c r="P188" s="10">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:16">
       <c r="B189" s="4">
         <v>1995.75</v>
       </c>
@@ -7664,8 +8829,14 @@
       <c r="N189" s="3">
         <v>2.6549786951275407</v>
       </c>
-    </row>
-    <row r="190" spans="2:14">
+      <c r="O189" s="10">
+        <v>596.79999999999995</v>
+      </c>
+      <c r="P189" s="10">
+        <v>609.70000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16">
       <c r="B190" s="4">
         <v>1996</v>
       </c>
@@ -7705,8 +8876,14 @@
       <c r="N190" s="3">
         <v>2.7176451435033151</v>
       </c>
-    </row>
-    <row r="191" spans="2:14">
+      <c r="O190" s="10">
+        <v>634.5</v>
+      </c>
+      <c r="P190" s="10">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16">
       <c r="B191" s="4">
         <v>1996.25</v>
       </c>
@@ -7746,8 +8923,14 @@
       <c r="N191" s="3">
         <v>2.6900208545091138</v>
       </c>
-    </row>
-    <row r="192" spans="2:14">
+      <c r="O191" s="10">
+        <v>659.90000000000009</v>
+      </c>
+      <c r="P191" s="10">
+        <v>658.5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:16">
       <c r="B192" s="4">
         <v>1996.5</v>
       </c>
@@ -7787,8 +8970,14 @@
       <c r="N192" s="3">
         <v>2.6898150675758443</v>
       </c>
-    </row>
-    <row r="193" spans="2:14">
+      <c r="O192" s="10">
+        <v>662.5</v>
+      </c>
+      <c r="P192" s="10">
+        <v>671.1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16">
       <c r="B193" s="4">
         <v>1996.75</v>
       </c>
@@ -7828,8 +9017,14 @@
       <c r="N193" s="3">
         <v>2.7085638167849346</v>
       </c>
-    </row>
-    <row r="194" spans="2:14">
+      <c r="O193" s="10">
+        <v>722.6</v>
+      </c>
+      <c r="P193" s="10">
+        <v>747.3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:16">
       <c r="B194" s="4">
         <v>1997</v>
       </c>
@@ -7869,8 +9064,14 @@
       <c r="N194" s="3">
         <v>2.6893318062844069</v>
       </c>
-    </row>
-    <row r="195" spans="2:14">
+      <c r="O194" s="10">
+        <v>768.7</v>
+      </c>
+      <c r="P194" s="10">
+        <v>783.90000000000009</v>
+      </c>
+    </row>
+    <row r="195" spans="2:16">
       <c r="B195" s="4">
         <v>1997.25</v>
       </c>
@@ -7910,8 +9111,14 @@
       <c r="N195" s="3">
         <v>2.7161457059747192</v>
       </c>
-    </row>
-    <row r="196" spans="2:14">
+      <c r="O195" s="10">
+        <v>823</v>
+      </c>
+      <c r="P195" s="10">
+        <v>872.3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:16">
       <c r="B196" s="4">
         <v>1997.5</v>
       </c>
@@ -7951,8 +9158,14 @@
       <c r="N196" s="3">
         <v>2.7640782027708042</v>
       </c>
-    </row>
-    <row r="197" spans="2:14">
+      <c r="O196" s="10">
+        <v>921.5</v>
+      </c>
+      <c r="P196" s="10">
+        <v>928.9</v>
+      </c>
+    </row>
+    <row r="197" spans="2:16">
       <c r="B197" s="4">
         <v>1997.75</v>
       </c>
@@ -7992,8 +9205,14 @@
       <c r="N197" s="3">
         <v>2.7547417824155866</v>
       </c>
-    </row>
-    <row r="198" spans="2:14">
+      <c r="O197" s="10">
+        <v>946.9</v>
+      </c>
+      <c r="P197" s="10">
+        <v>955.2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:16">
       <c r="B198" s="4">
         <v>1998</v>
       </c>
@@ -8033,8 +9252,14 @@
       <c r="N198" s="3">
         <v>2.7713359820983503</v>
       </c>
-    </row>
-    <row r="199" spans="2:14">
+      <c r="O198" s="10">
+        <v>1025.4000000000001</v>
+      </c>
+      <c r="P198" s="10">
+        <v>1060.8</v>
+      </c>
+    </row>
+    <row r="199" spans="2:16">
       <c r="B199" s="4">
         <v>1998.25</v>
       </c>
@@ -8074,8 +9299,14 @@
       <c r="N199" s="3">
         <v>2.8211097445966709</v>
       </c>
-    </row>
-    <row r="200" spans="2:14">
+      <c r="O199" s="10">
+        <v>1109.5</v>
+      </c>
+      <c r="P199" s="10">
+        <v>1114.3000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="2:16">
       <c r="B200" s="4">
         <v>1998.5</v>
       </c>
@@ -8115,8 +9346,14 @@
       <c r="N200" s="3">
         <v>2.8648019100237128</v>
       </c>
-    </row>
-    <row r="201" spans="2:14">
+      <c r="O200" s="10">
+        <v>1057.1999999999998</v>
+      </c>
+      <c r="P200" s="10">
+        <v>1048.4000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:16">
       <c r="B201" s="4">
         <v>1998.75</v>
       </c>
@@ -8156,8 +9393,14 @@
       <c r="N201" s="3">
         <v>2.8508978545619472</v>
       </c>
-    </row>
-    <row r="202" spans="2:14">
+      <c r="O201" s="10">
+        <v>1127.0999999999999</v>
+      </c>
+      <c r="P201" s="10">
+        <v>1192.8000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16">
       <c r="B202" s="4">
         <v>1999</v>
       </c>
@@ -8197,8 +9440,14 @@
       <c r="N202" s="3">
         <v>2.9059335187150674</v>
       </c>
-    </row>
-    <row r="203" spans="2:14">
+      <c r="O202" s="10">
+        <v>1258.3999999999999</v>
+      </c>
+      <c r="P202" s="10">
+        <v>1284.8999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16">
       <c r="B203" s="4">
         <v>1999.25</v>
       </c>
@@ -8238,8 +9487,14 @@
       <c r="N203" s="3">
         <v>2.8967755931013457</v>
       </c>
-    </row>
-    <row r="204" spans="2:14">
+      <c r="O203" s="10">
+        <v>1324</v>
+      </c>
+      <c r="P203" s="10">
+        <v>1334.6</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16">
       <c r="B204" s="4">
         <v>1999.5</v>
       </c>
@@ -8279,8 +9534,14 @@
       <c r="N204" s="3">
         <v>2.904195509033499</v>
       </c>
-    </row>
-    <row r="205" spans="2:14">
+      <c r="O204" s="10">
+        <v>1326.1000000000001</v>
+      </c>
+      <c r="P204" s="10">
+        <v>1323.7</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16">
       <c r="B205" s="4">
         <v>1999.75</v>
       </c>
@@ -8320,8 +9581,14 @@
       <c r="N205" s="3">
         <v>2.9653499377079409</v>
       </c>
-    </row>
-    <row r="206" spans="2:14">
+      <c r="O205" s="10">
+        <v>1376</v>
+      </c>
+      <c r="P205" s="10">
+        <v>1403.8999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16">
       <c r="B206" s="4">
         <v>2000</v>
       </c>
@@ -8361,8 +9628,14 @@
       <c r="N206" s="3">
         <v>2.9618168003479934</v>
       </c>
-    </row>
-    <row r="207" spans="2:14">
+      <c r="O206" s="10">
+        <v>1432.1999999999998</v>
+      </c>
+      <c r="P206" s="10">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16">
       <c r="B207" s="4">
         <v>2000.25</v>
       </c>
@@ -8402,8 +9675,14 @@
       <c r="N207" s="3">
         <v>2.9991725070364272</v>
       </c>
-    </row>
-    <row r="208" spans="2:14">
+      <c r="O207" s="10">
+        <v>1456.6</v>
+      </c>
+      <c r="P207" s="10">
+        <v>1439.6</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16">
       <c r="B208" s="4">
         <v>2000.5</v>
       </c>
@@ -8443,8 +9722,14 @@
       <c r="N208" s="3">
         <v>3.0046497284497131</v>
       </c>
-    </row>
-    <row r="209" spans="2:14">
+      <c r="O208" s="10">
+        <v>1459.8999999999999</v>
+      </c>
+      <c r="P208" s="10">
+        <v>1453.6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:16">
       <c r="B209" s="4">
         <v>2000.75</v>
       </c>
@@ -8484,8 +9769,14 @@
       <c r="N209" s="3">
         <v>3.048268988264871</v>
       </c>
-    </row>
-    <row r="210" spans="2:14">
+      <c r="O209" s="10">
+        <v>1375.3</v>
+      </c>
+      <c r="P209" s="10">
+        <v>1357.6999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="2:16">
       <c r="B210" s="4">
         <v>2001</v>
       </c>
@@ -8525,8 +9816,14 @@
       <c r="N210" s="3">
         <v>3.0552628783041098</v>
       </c>
-    </row>
-    <row r="211" spans="2:14">
+      <c r="O210" s="10">
+        <v>1271.6000000000001</v>
+      </c>
+      <c r="P210" s="10">
+        <v>1253.9000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:16">
       <c r="B211" s="4">
         <v>2001.25</v>
       </c>
@@ -8566,8 +9863,14 @@
       <c r="N211" s="3">
         <v>3.0929697387971276</v>
       </c>
-    </row>
-    <row r="212" spans="2:14">
+      <c r="O211" s="10">
+        <v>1222.5</v>
+      </c>
+      <c r="P211" s="10">
+        <v>1235.2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16">
       <c r="B212" s="4">
         <v>2001.5</v>
       </c>
@@ -8607,8 +9910,14 @@
       <c r="N212" s="3">
         <v>3.1026079519065677</v>
       </c>
-    </row>
-    <row r="213" spans="2:14">
+      <c r="O212" s="10">
+        <v>1152.5</v>
+      </c>
+      <c r="P212" s="10">
+        <v>1111.3999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="2:16">
       <c r="B213" s="4">
         <v>2001.75</v>
       </c>
@@ -8648,8 +9957,14 @@
       <c r="N213" s="3">
         <v>3.1465469492043336</v>
       </c>
-    </row>
-    <row r="214" spans="2:14">
+      <c r="O213" s="10">
+        <v>1097.0999999999999</v>
+      </c>
+      <c r="P213" s="10">
+        <v>1119.3999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16">
       <c r="B214" s="4">
         <v>2002</v>
       </c>
@@ -8689,8 +10004,14 @@
       <c r="N214" s="3">
         <v>3.2024699128763667</v>
       </c>
-    </row>
-    <row r="215" spans="2:14">
+      <c r="O214" s="10">
+        <v>1133.0999999999999</v>
+      </c>
+      <c r="P214" s="10">
+        <v>1115.3</v>
+      </c>
+    </row>
+    <row r="215" spans="2:16">
       <c r="B215" s="4">
         <v>2002.25</v>
       </c>
@@ -8730,8 +10051,14 @@
       <c r="N215" s="3">
         <v>3.1862066659189758</v>
       </c>
-    </row>
-    <row r="216" spans="2:14">
+      <c r="O215" s="10">
+        <v>1070.3</v>
+      </c>
+      <c r="P215" s="10">
+        <v>1011.4000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:16">
       <c r="B216" s="4">
         <v>2002.5</v>
       </c>
@@ -8771,8 +10098,14 @@
       <c r="N216" s="3">
         <v>3.2040634593784394</v>
       </c>
-    </row>
-    <row r="217" spans="2:14">
+      <c r="O216" s="10">
+        <v>908.2</v>
+      </c>
+      <c r="P216" s="10">
+        <v>882.19999999999993</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16">
       <c r="B217" s="4">
         <v>2002.75</v>
       </c>
@@ -8812,8 +10145,14 @@
       <c r="N217" s="3">
         <v>3.1961841934826949</v>
       </c>
-    </row>
-    <row r="218" spans="2:14">
+      <c r="O217" s="10">
+        <v>879.3</v>
+      </c>
+      <c r="P217" s="10">
+        <v>889.4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:16">
       <c r="B218" s="4">
         <v>2003</v>
       </c>
@@ -8853,8 +10192,14 @@
       <c r="N218" s="3">
         <v>3.2044203794304917</v>
       </c>
-    </row>
-    <row r="219" spans="2:14">
+      <c r="O218" s="10">
+        <v>856.19999999999993</v>
+      </c>
+      <c r="P218" s="10">
+        <v>865.5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:16">
       <c r="B219" s="4">
         <v>2003.25</v>
       </c>
@@ -8894,8 +10239,14 @@
       <c r="N219" s="3">
         <v>3.2581225690562614</v>
       </c>
-    </row>
-    <row r="220" spans="2:14">
+      <c r="O219" s="10">
+        <v>925.8</v>
+      </c>
+      <c r="P219" s="10">
+        <v>961.30000000000007</v>
+      </c>
+    </row>
+    <row r="220" spans="2:16">
       <c r="B220" s="4">
         <v>2003.5</v>
       </c>
@@ -8935,8 +10286,14 @@
       <c r="N220" s="3">
         <v>3.3028881519549467</v>
       </c>
-    </row>
-    <row r="221" spans="2:14">
+      <c r="O220" s="10">
+        <v>992.19999999999993</v>
+      </c>
+      <c r="P220" s="10">
+        <v>1011.2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:16">
       <c r="B221" s="4">
         <v>2003.75</v>
       </c>
@@ -8976,8 +10333,14 @@
       <c r="N221" s="3">
         <v>3.2844103685307422</v>
       </c>
-    </row>
-    <row r="222" spans="2:14">
+      <c r="O221" s="10">
+        <v>1054.2</v>
+      </c>
+      <c r="P221" s="10">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="222" spans="2:16">
       <c r="B222" s="4">
         <v>2004</v>
       </c>
@@ -9017,8 +10380,14 @@
       <c r="N222" s="3">
         <v>3.2842492166874506</v>
       </c>
-    </row>
-    <row r="223" spans="2:14">
+      <c r="O222" s="10">
+        <v>1128.5</v>
+      </c>
+      <c r="P222" s="10">
+        <v>1127.3999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="2:16">
       <c r="B223" s="4">
         <v>2004.25</v>
       </c>
@@ -9058,8 +10427,14 @@
       <c r="N223" s="3">
         <v>3.3199660549034253</v>
       </c>
-    </row>
-    <row r="224" spans="2:14">
+      <c r="O223" s="10">
+        <v>1123.8</v>
+      </c>
+      <c r="P223" s="10">
+        <v>1117.5999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="2:16">
       <c r="B224" s="4">
         <v>2004.5</v>
       </c>
@@ -9099,8 +10474,14 @@
       <c r="N224" s="3">
         <v>3.3486923583437864</v>
       </c>
-    </row>
-    <row r="225" spans="2:14">
+      <c r="O224" s="10">
+        <v>1115.3</v>
+      </c>
+      <c r="P224" s="10">
+        <v>1112.7</v>
+      </c>
+    </row>
+    <row r="225" spans="2:16">
       <c r="B225" s="4">
         <v>2004.75</v>
       </c>
@@ -9140,8 +10521,14 @@
       <c r="N225" s="3">
         <v>3.3720603485722638</v>
       </c>
-    </row>
-    <row r="226" spans="2:14">
+      <c r="O225" s="10">
+        <v>1157.5999999999999</v>
+      </c>
+      <c r="P225" s="10">
+        <v>1174.3</v>
+      </c>
+    </row>
+    <row r="226" spans="2:16">
       <c r="B226" s="4">
         <v>2005</v>
       </c>
@@ -9181,8 +10568,14 @@
       <c r="N226" s="3">
         <v>3.3840426072004965</v>
       </c>
-    </row>
-    <row r="227" spans="2:14">
+      <c r="O226" s="10">
+        <v>1194.3</v>
+      </c>
+      <c r="P226" s="10">
+        <v>1180.6000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="2:16">
       <c r="B227" s="4">
         <v>2005.25</v>
       </c>
@@ -9222,8 +10615,14 @@
       <c r="N227" s="3">
         <v>3.386835484254016</v>
       </c>
-    </row>
-    <row r="228" spans="2:14">
+      <c r="O227" s="10">
+        <v>1180.0999999999999</v>
+      </c>
+      <c r="P227" s="10">
+        <v>1193.5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:16">
       <c r="B228" s="4">
         <v>2005.5</v>
       </c>
@@ -9263,8 +10662,14 @@
       <c r="N228" s="3">
         <v>3.3963561317076474</v>
       </c>
-    </row>
-    <row r="229" spans="2:14">
+      <c r="O228" s="10">
+        <v>1218.6999999999998</v>
+      </c>
+      <c r="P228" s="10">
+        <v>1222.5999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="2:16">
       <c r="B229" s="4">
         <v>2005.75</v>
       </c>
@@ -9304,8 +10709,14 @@
       <c r="N229" s="3">
         <v>3.3777136736233704</v>
       </c>
-    </row>
-    <row r="230" spans="2:14">
+      <c r="O229" s="10">
+        <v>1233.4000000000001</v>
+      </c>
+      <c r="P229" s="10">
+        <v>1246.2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:16">
       <c r="B230" s="4">
         <v>2006</v>
       </c>
@@ -9345,8 +10756,14 @@
       <c r="N230" s="3">
         <v>3.4074820818499396</v>
       </c>
-    </row>
-    <row r="231" spans="2:14">
+      <c r="O230" s="10">
+        <v>1278</v>
+      </c>
+      <c r="P230" s="10">
+        <v>1291.6000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="2:16">
       <c r="B231" s="4">
         <v>2006.25</v>
       </c>
@@ -9386,8 +10803,14 @@
       <c r="N231" s="3">
         <v>3.3737573100984002</v>
       </c>
-    </row>
-    <row r="232" spans="2:14">
+      <c r="O231" s="10">
+        <v>1288.4000000000001</v>
+      </c>
+      <c r="P231" s="10">
+        <v>1281.9000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:16">
       <c r="B232" s="4">
         <v>2006.5</v>
       </c>
@@ -9427,8 +10850,14 @@
       <c r="N232" s="3">
         <v>3.3467856334163693</v>
       </c>
-    </row>
-    <row r="233" spans="2:14">
+      <c r="O232" s="10">
+        <v>1297.0999999999999</v>
+      </c>
+      <c r="P232" s="10">
+        <v>1323.6000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:16">
       <c r="B233" s="4">
         <v>2006.75</v>
       </c>
@@ -9468,8 +10897,14 @@
       <c r="N233" s="3">
         <v>3.3624135231071408</v>
       </c>
-    </row>
-    <row r="234" spans="2:14">
+      <c r="O233" s="10">
+        <v>1383.1</v>
+      </c>
+      <c r="P233" s="10">
+        <v>1408.8</v>
+      </c>
+    </row>
+    <row r="234" spans="2:16">
       <c r="B234" s="4">
         <v>2007</v>
       </c>
@@ -9509,8 +10944,14 @@
       <c r="N234" s="3">
         <v>3.346120416128759</v>
       </c>
-    </row>
-    <row r="235" spans="2:14">
+      <c r="O234" s="10">
+        <v>1420.9</v>
+      </c>
+      <c r="P234" s="10">
+        <v>1437.1000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="2:16">
       <c r="B235" s="4">
         <v>2007.25</v>
       </c>
@@ -9550,8 +10991,14 @@
       <c r="N235" s="3">
         <v>3.3265993460983116</v>
       </c>
-    </row>
-    <row r="236" spans="2:14">
+      <c r="O235" s="10">
+        <v>1484.6</v>
+      </c>
+      <c r="P235" s="10">
+        <v>1492.8999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="2:16">
       <c r="B236" s="4">
         <v>2007.5</v>
       </c>
@@ -9591,8 +11038,14 @@
       <c r="N236" s="3">
         <v>3.3342430261557117</v>
       </c>
-    </row>
-    <row r="237" spans="2:14">
+      <c r="O236" s="10">
+        <v>1490.3</v>
+      </c>
+      <c r="P236" s="10">
+        <v>1501.3000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="2:16">
       <c r="B237" s="4">
         <v>2007.75</v>
       </c>
@@ -9632,8 +11085,14 @@
       <c r="N237" s="3">
         <v>3.3500080452173981</v>
       </c>
-    </row>
-    <row r="238" spans="2:14">
+      <c r="O237" s="10">
+        <v>1505.2</v>
+      </c>
+      <c r="P237" s="10">
+        <v>1469.4</v>
+      </c>
+    </row>
+    <row r="238" spans="2:16">
       <c r="B238" s="4">
         <v>2008</v>
       </c>
@@ -9673,8 +11132,14 @@
       <c r="N238" s="3">
         <v>3.3046438260251181</v>
       </c>
-    </row>
-    <row r="239" spans="2:14">
+      <c r="O238" s="10">
+        <v>1375.8999999999999</v>
+      </c>
+      <c r="P238" s="10">
+        <v>1354.4</v>
+      </c>
+    </row>
+    <row r="239" spans="2:16">
       <c r="B239" s="4">
         <v>2008.25</v>
       </c>
@@ -9714,8 +11179,14 @@
       <c r="N239" s="3">
         <v>3.3159341363009149</v>
       </c>
-    </row>
-    <row r="240" spans="2:14">
+      <c r="O239" s="10">
+        <v>1347.2</v>
+      </c>
+      <c r="P239" s="10">
+        <v>1333.3</v>
+      </c>
+    </row>
+    <row r="240" spans="2:16">
       <c r="B240" s="4">
         <v>2008.5</v>
       </c>
@@ -9755,8 +11226,14 @@
       <c r="N240" s="3">
         <v>3.3323368783218053</v>
       </c>
-    </row>
-    <row r="241" spans="2:14">
+      <c r="O240" s="10">
+        <v>1249.5</v>
+      </c>
+      <c r="P240" s="10">
+        <v>1171.3</v>
+      </c>
+    </row>
+    <row r="241" spans="2:16">
       <c r="B241" s="4">
         <v>2008.75</v>
       </c>
@@ -9796,8 +11273,14 @@
       <c r="N241" s="3">
         <v>3.3345775297165163</v>
       </c>
-    </row>
-    <row r="242" spans="2:14">
+      <c r="O241" s="10">
+        <v>981.1</v>
+      </c>
+      <c r="P241" s="10">
+        <v>898.5</v>
+      </c>
+    </row>
+    <row r="242" spans="2:16">
       <c r="B242" s="4">
         <v>2009</v>
       </c>
@@ -9837,8 +11320,14 @@
       <c r="N242" s="3">
         <v>3.3810127680020394</v>
       </c>
-    </row>
-    <row r="243" spans="2:14">
+      <c r="O242" s="10">
+        <v>812.30000000000007</v>
+      </c>
+      <c r="P242" s="10">
+        <v>807.9</v>
+      </c>
+    </row>
+    <row r="243" spans="2:16">
       <c r="B243" s="4">
         <v>2009.25</v>
       </c>
@@ -9878,8 +11367,14 @@
       <c r="N243" s="3">
         <v>3.463313246294224</v>
       </c>
-    </row>
-    <row r="244" spans="2:14">
+      <c r="O243" s="10">
+        <v>877.6</v>
+      </c>
+      <c r="P243" s="10">
+        <v>924.69999999999993</v>
+      </c>
+    </row>
+    <row r="244" spans="2:16">
       <c r="B244" s="4">
         <v>2009.5</v>
       </c>
@@ -9919,8 +11414,14 @@
       <c r="N244" s="3">
         <v>3.4698125093352834</v>
       </c>
-    </row>
-    <row r="245" spans="2:14">
+      <c r="O244" s="10">
+        <v>996.4</v>
+      </c>
+      <c r="P244" s="10">
+        <v>1025.3000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16">
       <c r="B245" s="4">
         <v>2009.75</v>
       </c>
@@ -9960,8 +11461,14 @@
       <c r="N245" s="3">
         <v>3.4873888053220692</v>
       </c>
-    </row>
-    <row r="246" spans="2:14">
+      <c r="O245" s="10">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="P245" s="10">
+        <v>1080.2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:16">
       <c r="B246" s="4">
         <v>2010</v>
       </c>
@@ -10001,8 +11508,14 @@
       <c r="N246" s="3">
         <v>3.4487716959594206</v>
       </c>
-    </row>
-    <row r="247" spans="2:14">
+      <c r="O246" s="10">
+        <v>1116.8</v>
+      </c>
+      <c r="P246" s="10">
+        <v>1133.5999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="2:16">
       <c r="B247" s="4">
         <v>2010.25</v>
       </c>
@@ -10042,8 +11555,14 @@
       <c r="N247" s="3">
         <v>3.4271419415728248</v>
       </c>
-    </row>
-    <row r="248" spans="2:14">
+      <c r="O247" s="10">
+        <v>1119.5999999999999</v>
+      </c>
+      <c r="P247" s="10">
+        <v>1102.1000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="2:16">
       <c r="B248" s="4">
         <v>2010.5</v>
       </c>
@@ -10083,8 +11602,14 @@
       <c r="N248" s="3">
         <v>3.4456421234675907</v>
       </c>
-    </row>
-    <row r="249" spans="2:14">
+      <c r="O248" s="10">
+        <v>1083</v>
+      </c>
+      <c r="P248" s="10">
+        <v>1118.8</v>
+      </c>
+    </row>
+    <row r="249" spans="2:16">
       <c r="B249" s="4">
         <v>2010.75</v>
       </c>
@@ -10124,8 +11649,14 @@
       <c r="N249" s="3">
         <v>3.4289319484769076</v>
       </c>
-    </row>
-    <row r="250" spans="2:14">
+      <c r="O249" s="10">
+        <v>1193.4000000000001</v>
+      </c>
+      <c r="P249" s="10">
+        <v>1226.9000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16">
       <c r="B250" s="4">
         <v>2011</v>
       </c>
@@ -10165,8 +11696,14 @@
       <c r="N250" s="3">
         <v>3.4161349219994839</v>
       </c>
-    </row>
-    <row r="251" spans="2:14">
+      <c r="O250" s="10">
+        <v>1301.1999999999998</v>
+      </c>
+      <c r="P250" s="10">
+        <v>1325.7</v>
+      </c>
+    </row>
+    <row r="251" spans="2:16">
       <c r="B251" s="4">
         <v>2011.25</v>
       </c>
@@ -10206,8 +11743,14 @@
       <c r="N251" s="3">
         <v>3.4038797556099918</v>
       </c>
-    </row>
-    <row r="252" spans="2:14">
+      <c r="O251" s="10">
+        <v>1340.1000000000001</v>
+      </c>
+      <c r="P251" s="10">
+        <v>1330.4</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16">
       <c r="B252" s="4">
         <v>2011.5</v>
       </c>
@@ -10247,8 +11790,14 @@
       <c r="N252" s="3">
         <v>3.4053558528451022</v>
       </c>
-    </row>
-    <row r="253" spans="2:14">
+      <c r="O252" s="10">
+        <v>1240.8999999999999</v>
+      </c>
+      <c r="P252" s="10">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16">
       <c r="B253" s="4">
         <v>2011.75</v>
       </c>
@@ -10288,8 +11837,14 @@
       <c r="N253" s="3">
         <v>3.4303410434413601</v>
       </c>
-    </row>
-    <row r="254" spans="2:14">
+      <c r="O253" s="10">
+        <v>1222</v>
+      </c>
+      <c r="P253" s="10">
+        <v>1267.6000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:16">
       <c r="B254" s="4">
         <v>2012</v>
       </c>
@@ -10329,8 +11884,14 @@
       <c r="N254" s="3">
         <v>3.4596407883132185</v>
       </c>
-    </row>
-    <row r="255" spans="2:14">
+      <c r="O254" s="10">
+        <v>1336.4</v>
+      </c>
+      <c r="P254" s="10">
+        <v>1371.1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:16">
       <c r="B255" s="4">
         <v>2012.25</v>
       </c>
@@ -10370,8 +11931,14 @@
       <c r="N255" s="3">
         <v>3.4594890869117965</v>
       </c>
-    </row>
-    <row r="256" spans="2:14">
+      <c r="O255" s="10">
+        <v>1369.6</v>
+      </c>
+      <c r="P255" s="10">
+        <v>1362.4</v>
+      </c>
+    </row>
+    <row r="256" spans="2:16">
       <c r="B256" s="4">
         <v>2012.5</v>
       </c>
@@ -10411,8 +11978,14 @@
       <c r="N256" s="3">
         <v>3.4529949203701351</v>
       </c>
-    </row>
-    <row r="257" spans="2:14">
+      <c r="O256" s="10">
+        <v>1397.3</v>
+      </c>
+      <c r="P256" s="10">
+        <v>1409.7</v>
+      </c>
+    </row>
+    <row r="257" spans="2:16">
       <c r="B257" s="4">
         <v>2012.75</v>
       </c>
@@ -10452,8 +12025,14 @@
       <c r="N257" s="3">
         <v>3.4438774204992546</v>
       </c>
-    </row>
-    <row r="258" spans="2:14">
+      <c r="O257" s="10">
+        <v>1423.8999999999999</v>
+      </c>
+      <c r="P257" s="10">
+        <v>1438.1999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="2:16">
       <c r="B258" s="4">
         <v>2013</v>
       </c>
@@ -10493,8 +12072,14 @@
       <c r="N258" s="3">
         <v>3.435837775198928</v>
       </c>
-    </row>
-    <row r="259" spans="2:14">
+      <c r="O258" s="10">
+        <v>1502</v>
+      </c>
+      <c r="P258" s="10">
+        <v>1544.8999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="2:16">
       <c r="B259" s="4">
         <v>2013.25</v>
       </c>
@@ -10534,8 +12119,14 @@
       <c r="N259" s="3">
         <v>3.4386239641566272</v>
       </c>
-    </row>
-    <row r="260" spans="2:14">
+      <c r="O259" s="10">
+        <v>1602.1000000000001</v>
+      </c>
+      <c r="P259" s="10">
+        <v>1630.1000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="2:16">
       <c r="B260" s="4">
         <v>2013.5</v>
       </c>
@@ -10575,8 +12166,14 @@
       <c r="N260" s="3">
         <v>3.4563353117324893</v>
       </c>
-    </row>
-    <row r="261" spans="2:14">
+      <c r="O260" s="10">
+        <v>1654.4</v>
+      </c>
+      <c r="P260" s="10">
+        <v>1689.2</v>
+      </c>
+    </row>
+    <row r="261" spans="2:16">
       <c r="B261" s="4">
         <v>2013.75</v>
       </c>
@@ -10616,8 +12213,14 @@
       <c r="N261" s="3">
         <v>3.48712947209494</v>
       </c>
-    </row>
-    <row r="262" spans="2:14">
+      <c r="O261" s="10">
+        <v>1773.4</v>
+      </c>
+      <c r="P261" s="10">
+        <v>1798.3</v>
+      </c>
+    </row>
+    <row r="262" spans="2:16">
       <c r="B262" s="4">
         <v>2014</v>
       </c>
@@ -10657,8 +12260,14 @@
       <c r="N262" s="3">
         <v>3.4620627361967138</v>
       </c>
-    </row>
-    <row r="263" spans="2:14">
+      <c r="O262" s="10">
+        <v>1840</v>
+      </c>
+      <c r="P262" s="10">
+        <v>1849.6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:16">
       <c r="B263" s="4">
         <v>2014.25</v>
       </c>
@@ -10698,8 +12307,14 @@
       <c r="N263" s="3">
         <v>3.4856988659723771</v>
       </c>
-    </row>
-    <row r="264" spans="2:14">
+      <c r="O263" s="10">
+        <v>1911.1</v>
+      </c>
+      <c r="P263" s="10">
+        <v>1924.6000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="2:16">
       <c r="B264" s="4">
         <v>2014.5</v>
       </c>
@@ -10739,8 +12354,14 @@
       <c r="N264" s="3">
         <v>3.5157819478761256</v>
       </c>
-    </row>
-    <row r="265" spans="2:14">
+      <c r="O264" s="10">
+        <v>1966.9</v>
+      </c>
+      <c r="P264" s="10">
+        <v>1981.1000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="2:16">
       <c r="B265" s="4">
         <v>2014.75</v>
       </c>
@@ -10780,8 +12401,14 @@
       <c r="N265" s="3">
         <v>3.5140833244373799</v>
       </c>
-    </row>
-    <row r="266" spans="2:14">
+      <c r="O265" s="10">
+        <v>2028.6</v>
+      </c>
+      <c r="P265" s="10">
+        <v>2034.8999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="2:16">
       <c r="B266" s="4">
         <v>2015</v>
       </c>
@@ -10821,8 +12448,14 @@
       <c r="N266" s="3">
         <v>3.542496578694371</v>
       </c>
-    </row>
-    <row r="267" spans="2:14">
+      <c r="O266" s="10">
+        <v>2057.1000000000004</v>
+      </c>
+      <c r="P266" s="10">
+        <v>2063.2000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="2:16">
       <c r="B267" s="4">
         <v>2015.25</v>
       </c>
@@ -10862,8 +12495,14 @@
       <c r="N267" s="3">
         <v>3.5674849201555832</v>
       </c>
-    </row>
-    <row r="268" spans="2:14">
+      <c r="O267" s="10">
+        <v>2082.6999999999998</v>
+      </c>
+      <c r="P267" s="10">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="268" spans="2:16">
       <c r="B268" s="4">
         <v>2015.5</v>
       </c>
@@ -10903,8 +12542,14 @@
       <c r="N268" s="3">
         <v>3.5624949776079848</v>
       </c>
-    </row>
-    <row r="269" spans="2:14">
+      <c r="O268" s="10">
+        <v>2015.3</v>
+      </c>
+      <c r="P268" s="10">
+        <v>2018.8999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="2:16">
       <c r="B269" s="4">
         <v>2015.75</v>
       </c>
@@ -10944,8 +12589,14 @@
       <c r="N269" s="3">
         <v>3.5373710381952068</v>
       </c>
-    </row>
-    <row r="270" spans="2:14">
+      <c r="O269" s="10">
+        <v>2030.4</v>
+      </c>
+      <c r="P269" s="10">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="270" spans="2:16">
       <c r="B270" s="4">
         <v>2016</v>
       </c>
@@ -10985,8 +12636,14 @@
       <c r="N270" s="3">
         <v>3.5366085942788423</v>
       </c>
-    </row>
-    <row r="271" spans="2:14">
+      <c r="O270" s="10">
+        <v>1992.2</v>
+      </c>
+      <c r="P270" s="10">
+        <v>1999.4</v>
+      </c>
+    </row>
+    <row r="271" spans="2:16">
       <c r="B271" s="4">
         <v>2016.25</v>
       </c>
@@ -11026,8 +12683,14 @@
       <c r="N271" s="3">
         <v>3.525016063752592</v>
       </c>
-    </row>
-    <row r="272" spans="2:14">
+      <c r="O271" s="10">
+        <v>2079.2999999999997</v>
+      </c>
+      <c r="P271" s="10">
+        <v>2108.6999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="2:16">
       <c r="B272" s="4">
         <v>2016.5</v>
       </c>
@@ -11067,8 +12730,14 @@
       <c r="N272" s="3">
         <v>3.5648921437093049</v>
       </c>
-    </row>
-    <row r="273" spans="2:14">
+      <c r="O272" s="10">
+        <v>2152</v>
+      </c>
+      <c r="P272" s="10">
+        <v>2159.6999999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="2:16">
       <c r="B273" s="4">
         <v>2016.75</v>
       </c>
@@ -11108,8 +12777,14 @@
       <c r="N273" s="3">
         <v>3.5682050349258128</v>
       </c>
-    </row>
-    <row r="274" spans="2:14">
+      <c r="O273" s="10">
+        <v>2186.1999999999998</v>
+      </c>
+      <c r="P273" s="10">
+        <v>2210.7000000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="2:16">
       <c r="B274" s="4">
         <v>2017</v>
       </c>
@@ -11149,8 +12824,14 @@
       <c r="N274" s="3">
         <v>3.5790420047419702</v>
       </c>
-    </row>
-    <row r="275" spans="2:14">
+      <c r="O274" s="10">
+        <v>2319.9</v>
+      </c>
+      <c r="P274" s="10">
+        <v>2347.4</v>
+      </c>
+    </row>
+    <row r="275" spans="2:16">
       <c r="B275" s="4">
         <v>2017.25</v>
       </c>
@@ -11190,8 +12871,14 @@
       <c r="N275" s="3">
         <v>3.5848929743951796</v>
       </c>
-    </row>
-    <row r="276" spans="2:14">
+      <c r="O275" s="10">
+        <v>2399.5</v>
+      </c>
+      <c r="P275" s="10">
+        <v>2422.4</v>
+      </c>
+    </row>
+    <row r="276" spans="2:16">
       <c r="B276" s="4">
         <v>2017.5</v>
       </c>
@@ -11231,8 +12918,14 @@
       <c r="N276" s="3">
         <v>3.6141183741048648</v>
       </c>
-    </row>
-    <row r="277" spans="2:14">
+      <c r="O276" s="10">
+        <v>2476</v>
+      </c>
+      <c r="P276" s="10">
+        <v>2509.1</v>
+      </c>
+    </row>
+    <row r="277" spans="2:16">
       <c r="B277" s="4">
         <v>2017.75</v>
       </c>
@@ -11272,8 +12965,14 @@
       <c r="N277" s="3">
         <v>3.5946979748431289</v>
       </c>
-    </row>
-    <row r="278" spans="2:14">
+      <c r="O277" s="10">
+        <v>2608.2999999999997</v>
+      </c>
+      <c r="P277" s="10">
+        <v>2664.4</v>
+      </c>
+    </row>
+    <row r="278" spans="2:16">
       <c r="B278" s="4">
         <v>2018</v>
       </c>
@@ -11313,8 +13012,14 @@
       <c r="N278" s="3">
         <v>3.5808447132368824</v>
       </c>
-    </row>
-    <row r="279" spans="2:14">
+      <c r="O278" s="10">
+        <v>2712.2000000000003</v>
+      </c>
+      <c r="P278" s="10">
+        <v>2706.6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:16">
       <c r="B279" s="4">
         <v>2018.25</v>
       </c>
@@ -11352,8 +13057,14 @@
         <v>14032.966666666667</v>
       </c>
       <c r="N279" s="3"/>
-    </row>
-    <row r="280" spans="2:14">
+      <c r="O279" s="10">
+        <v>2675</v>
+      </c>
+      <c r="P279" s="10">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="280" spans="2:16">
       <c r="B280" s="4">
         <v>2018.5</v>
       </c>
@@ -11361,8 +13072,9 @@
         <v>328477.33333333331</v>
       </c>
       <c r="N280" s="3"/>
-    </row>
-    <row r="281" spans="2:14">
+      <c r="O280" s="3"/>
+    </row>
+    <row r="281" spans="2:16">
       <c r="B281" s="4">
         <v>2018.75</v>
       </c>
@@ -11370,1974 +13082,2631 @@
         <v>329124.33333333331</v>
       </c>
       <c r="N281" s="3"/>
-    </row>
-    <row r="282" spans="2:14">
+      <c r="O281" s="3"/>
+    </row>
+    <row r="282" spans="2:16">
       <c r="N282" s="3"/>
-    </row>
-    <row r="283" spans="2:14">
+      <c r="O282" s="3"/>
+    </row>
+    <row r="283" spans="2:16">
       <c r="N283" s="3"/>
-    </row>
-    <row r="284" spans="2:14">
+      <c r="O283" s="3"/>
+    </row>
+    <row r="284" spans="2:16">
       <c r="N284" s="3"/>
-    </row>
-    <row r="285" spans="2:14">
+      <c r="O284" s="3"/>
+    </row>
+    <row r="285" spans="2:16">
       <c r="N285" s="3"/>
-    </row>
-    <row r="286" spans="2:14">
+      <c r="O285" s="3"/>
+    </row>
+    <row r="286" spans="2:16">
       <c r="N286" s="3"/>
-    </row>
-    <row r="287" spans="2:14">
+      <c r="O286" s="3"/>
+    </row>
+    <row r="287" spans="2:16">
       <c r="N287" s="3"/>
-    </row>
-    <row r="288" spans="2:14">
+      <c r="O287" s="3"/>
+    </row>
+    <row r="288" spans="2:16">
       <c r="N288" s="3"/>
-    </row>
-    <row r="289" spans="14:14">
+      <c r="O288" s="3"/>
+    </row>
+    <row r="289" spans="14:15">
       <c r="N289" s="3"/>
-    </row>
-    <row r="290" spans="14:14">
+      <c r="O289" s="3"/>
+    </row>
+    <row r="290" spans="14:15">
       <c r="N290" s="3"/>
-    </row>
-    <row r="291" spans="14:14">
+      <c r="O290" s="3"/>
+    </row>
+    <row r="291" spans="14:15">
       <c r="N291" s="3"/>
-    </row>
-    <row r="292" spans="14:14">
+      <c r="O291" s="3"/>
+    </row>
+    <row r="292" spans="14:15">
       <c r="N292" s="3"/>
-    </row>
-    <row r="293" spans="14:14">
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="14:15">
       <c r="N293" s="3"/>
-    </row>
-    <row r="294" spans="14:14">
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="14:15">
       <c r="N294" s="3"/>
-    </row>
-    <row r="295" spans="14:14">
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="14:15">
       <c r="N295" s="3"/>
-    </row>
-    <row r="296" spans="14:14">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="14:15">
       <c r="N296" s="3"/>
-    </row>
-    <row r="297" spans="14:14">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="14:15">
       <c r="N297" s="3"/>
-    </row>
-    <row r="298" spans="14:14">
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="14:15">
       <c r="N298" s="3"/>
-    </row>
-    <row r="299" spans="14:14">
+      <c r="O298" s="3"/>
+    </row>
+    <row r="299" spans="14:15">
       <c r="N299" s="3"/>
-    </row>
-    <row r="300" spans="14:14">
+      <c r="O299" s="3"/>
+    </row>
+    <row r="300" spans="14:15">
       <c r="N300" s="3"/>
-    </row>
-    <row r="301" spans="14:14">
+      <c r="O300" s="3"/>
+    </row>
+    <row r="301" spans="14:15">
       <c r="N301" s="3"/>
-    </row>
-    <row r="302" spans="14:14">
+      <c r="O301" s="3"/>
+    </row>
+    <row r="302" spans="14:15">
       <c r="N302" s="3"/>
-    </row>
-    <row r="303" spans="14:14">
+      <c r="O302" s="3"/>
+    </row>
+    <row r="303" spans="14:15">
       <c r="N303" s="3"/>
-    </row>
-    <row r="304" spans="14:14">
+      <c r="O303" s="3"/>
+    </row>
+    <row r="304" spans="14:15">
       <c r="N304" s="3"/>
-    </row>
-    <row r="305" spans="14:14">
+      <c r="O304" s="3"/>
+    </row>
+    <row r="305" spans="14:15">
       <c r="N305" s="3"/>
-    </row>
-    <row r="306" spans="14:14">
+      <c r="O305" s="3"/>
+    </row>
+    <row r="306" spans="14:15">
       <c r="N306" s="3"/>
-    </row>
-    <row r="307" spans="14:14">
+      <c r="O306" s="3"/>
+    </row>
+    <row r="307" spans="14:15">
       <c r="N307" s="3"/>
-    </row>
-    <row r="308" spans="14:14">
+      <c r="O307" s="3"/>
+    </row>
+    <row r="308" spans="14:15">
       <c r="N308" s="3"/>
-    </row>
-    <row r="309" spans="14:14">
+      <c r="O308" s="3"/>
+    </row>
+    <row r="309" spans="14:15">
       <c r="N309" s="3"/>
-    </row>
-    <row r="310" spans="14:14">
+      <c r="O309" s="3"/>
+    </row>
+    <row r="310" spans="14:15">
       <c r="N310" s="3"/>
-    </row>
-    <row r="311" spans="14:14">
+      <c r="O310" s="3"/>
+    </row>
+    <row r="311" spans="14:15">
       <c r="N311" s="3"/>
-    </row>
-    <row r="312" spans="14:14">
+      <c r="O311" s="3"/>
+    </row>
+    <row r="312" spans="14:15">
       <c r="N312" s="3"/>
-    </row>
-    <row r="313" spans="14:14">
+      <c r="O312" s="3"/>
+    </row>
+    <row r="313" spans="14:15">
       <c r="N313" s="3"/>
-    </row>
-    <row r="314" spans="14:14">
+      <c r="O313" s="3"/>
+    </row>
+    <row r="314" spans="14:15">
       <c r="N314" s="3"/>
-    </row>
-    <row r="315" spans="14:14">
+      <c r="O314" s="3"/>
+    </row>
+    <row r="315" spans="14:15">
       <c r="N315" s="3"/>
-    </row>
-    <row r="316" spans="14:14">
+      <c r="O315" s="3"/>
+    </row>
+    <row r="316" spans="14:15">
       <c r="N316" s="3"/>
-    </row>
-    <row r="317" spans="14:14">
+      <c r="O316" s="3"/>
+    </row>
+    <row r="317" spans="14:15">
       <c r="N317" s="3"/>
-    </row>
-    <row r="318" spans="14:14">
+      <c r="O317" s="3"/>
+    </row>
+    <row r="318" spans="14:15">
       <c r="N318" s="3"/>
-    </row>
-    <row r="319" spans="14:14">
+      <c r="O318" s="3"/>
+    </row>
+    <row r="319" spans="14:15">
       <c r="N319" s="3"/>
-    </row>
-    <row r="320" spans="14:14">
+      <c r="O319" s="3"/>
+    </row>
+    <row r="320" spans="14:15">
       <c r="N320" s="3"/>
-    </row>
-    <row r="321" spans="14:14">
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="14:15">
       <c r="N321" s="3"/>
-    </row>
-    <row r="322" spans="14:14">
+      <c r="O321" s="3"/>
+    </row>
+    <row r="322" spans="14:15">
       <c r="N322" s="3"/>
-    </row>
-    <row r="323" spans="14:14">
+      <c r="O322" s="3"/>
+    </row>
+    <row r="323" spans="14:15">
       <c r="N323" s="3"/>
-    </row>
-    <row r="324" spans="14:14">
+      <c r="O323" s="3"/>
+    </row>
+    <row r="324" spans="14:15">
       <c r="N324" s="3"/>
-    </row>
-    <row r="325" spans="14:14">
+      <c r="O324" s="3"/>
+    </row>
+    <row r="325" spans="14:15">
       <c r="N325" s="3"/>
-    </row>
-    <row r="326" spans="14:14">
+      <c r="O325" s="3"/>
+    </row>
+    <row r="326" spans="14:15">
       <c r="N326" s="3"/>
-    </row>
-    <row r="327" spans="14:14">
+      <c r="O326" s="3"/>
+    </row>
+    <row r="327" spans="14:15">
       <c r="N327" s="3"/>
-    </row>
-    <row r="328" spans="14:14">
+      <c r="O327" s="3"/>
+    </row>
+    <row r="328" spans="14:15">
       <c r="N328" s="3"/>
-    </row>
-    <row r="329" spans="14:14">
+      <c r="O328" s="3"/>
+    </row>
+    <row r="329" spans="14:15">
       <c r="N329" s="3"/>
-    </row>
-    <row r="330" spans="14:14">
+      <c r="O329" s="3"/>
+    </row>
+    <row r="330" spans="14:15">
       <c r="N330" s="3"/>
-    </row>
-    <row r="331" spans="14:14">
+      <c r="O330" s="3"/>
+    </row>
+    <row r="331" spans="14:15">
       <c r="N331" s="3"/>
-    </row>
-    <row r="332" spans="14:14">
+      <c r="O331" s="3"/>
+    </row>
+    <row r="332" spans="14:15">
       <c r="N332" s="3"/>
-    </row>
-    <row r="333" spans="14:14">
+      <c r="O332" s="3"/>
+    </row>
+    <row r="333" spans="14:15">
       <c r="N333" s="3"/>
-    </row>
-    <row r="334" spans="14:14">
+      <c r="O333" s="3"/>
+    </row>
+    <row r="334" spans="14:15">
       <c r="N334" s="3"/>
-    </row>
-    <row r="335" spans="14:14">
+      <c r="O334" s="3"/>
+    </row>
+    <row r="335" spans="14:15">
       <c r="N335" s="3"/>
-    </row>
-    <row r="336" spans="14:14">
+      <c r="O335" s="3"/>
+    </row>
+    <row r="336" spans="14:15">
       <c r="N336" s="3"/>
-    </row>
-    <row r="337" spans="14:14">
+      <c r="O336" s="3"/>
+    </row>
+    <row r="337" spans="14:15">
       <c r="N337" s="3"/>
-    </row>
-    <row r="338" spans="14:14">
+      <c r="O337" s="3"/>
+    </row>
+    <row r="338" spans="14:15">
       <c r="N338" s="3"/>
-    </row>
-    <row r="339" spans="14:14">
+      <c r="O338" s="3"/>
+    </row>
+    <row r="339" spans="14:15">
       <c r="N339" s="3"/>
-    </row>
-    <row r="340" spans="14:14">
+      <c r="O339" s="3"/>
+    </row>
+    <row r="340" spans="14:15">
       <c r="N340" s="3"/>
-    </row>
-    <row r="341" spans="14:14">
+      <c r="O340" s="3"/>
+    </row>
+    <row r="341" spans="14:15">
       <c r="N341" s="3"/>
-    </row>
-    <row r="342" spans="14:14">
+      <c r="O341" s="3"/>
+    </row>
+    <row r="342" spans="14:15">
       <c r="N342" s="3"/>
-    </row>
-    <row r="343" spans="14:14">
+      <c r="O342" s="3"/>
+    </row>
+    <row r="343" spans="14:15">
       <c r="N343" s="3"/>
-    </row>
-    <row r="344" spans="14:14">
+      <c r="O343" s="3"/>
+    </row>
+    <row r="344" spans="14:15">
       <c r="N344" s="3"/>
-    </row>
-    <row r="345" spans="14:14">
+      <c r="O344" s="3"/>
+    </row>
+    <row r="345" spans="14:15">
       <c r="N345" s="3"/>
-    </row>
-    <row r="346" spans="14:14">
+      <c r="O345" s="3"/>
+    </row>
+    <row r="346" spans="14:15">
       <c r="N346" s="3"/>
-    </row>
-    <row r="347" spans="14:14">
+      <c r="O346" s="3"/>
+    </row>
+    <row r="347" spans="14:15">
       <c r="N347" s="3"/>
-    </row>
-    <row r="348" spans="14:14">
+      <c r="O347" s="3"/>
+    </row>
+    <row r="348" spans="14:15">
       <c r="N348" s="3"/>
-    </row>
-    <row r="349" spans="14:14">
+      <c r="O348" s="3"/>
+    </row>
+    <row r="349" spans="14:15">
       <c r="N349" s="3"/>
-    </row>
-    <row r="350" spans="14:14">
+      <c r="O349" s="3"/>
+    </row>
+    <row r="350" spans="14:15">
       <c r="N350" s="3"/>
-    </row>
-    <row r="351" spans="14:14">
+      <c r="O350" s="3"/>
+    </row>
+    <row r="351" spans="14:15">
       <c r="N351" s="3"/>
-    </row>
-    <row r="352" spans="14:14">
+      <c r="O351" s="3"/>
+    </row>
+    <row r="352" spans="14:15">
       <c r="N352" s="3"/>
-    </row>
-    <row r="353" spans="14:14">
+      <c r="O352" s="3"/>
+    </row>
+    <row r="353" spans="14:15">
       <c r="N353" s="3"/>
-    </row>
-    <row r="354" spans="14:14">
+      <c r="O353" s="3"/>
+    </row>
+    <row r="354" spans="14:15">
       <c r="N354" s="3"/>
-    </row>
-    <row r="355" spans="14:14">
+      <c r="O354" s="3"/>
+    </row>
+    <row r="355" spans="14:15">
       <c r="N355" s="3"/>
-    </row>
-    <row r="356" spans="14:14">
+      <c r="O355" s="3"/>
+    </row>
+    <row r="356" spans="14:15">
       <c r="N356" s="3"/>
-    </row>
-    <row r="357" spans="14:14">
+      <c r="O356" s="3"/>
+    </row>
+    <row r="357" spans="14:15">
       <c r="N357" s="3"/>
-    </row>
-    <row r="358" spans="14:14">
+      <c r="O357" s="3"/>
+    </row>
+    <row r="358" spans="14:15">
       <c r="N358" s="3"/>
-    </row>
-    <row r="359" spans="14:14">
+      <c r="O358" s="3"/>
+    </row>
+    <row r="359" spans="14:15">
       <c r="N359" s="3"/>
-    </row>
-    <row r="360" spans="14:14">
+      <c r="O359" s="3"/>
+    </row>
+    <row r="360" spans="14:15">
       <c r="N360" s="3"/>
-    </row>
-    <row r="361" spans="14:14">
+      <c r="O360" s="3"/>
+    </row>
+    <row r="361" spans="14:15">
       <c r="N361" s="3"/>
-    </row>
-    <row r="362" spans="14:14">
+      <c r="O361" s="3"/>
+    </row>
+    <row r="362" spans="14:15">
       <c r="N362" s="3"/>
-    </row>
-    <row r="363" spans="14:14">
+      <c r="O362" s="3"/>
+    </row>
+    <row r="363" spans="14:15">
       <c r="N363" s="3"/>
-    </row>
-    <row r="364" spans="14:14">
+      <c r="O363" s="3"/>
+    </row>
+    <row r="364" spans="14:15">
       <c r="N364" s="3"/>
-    </row>
-    <row r="365" spans="14:14">
+      <c r="O364" s="3"/>
+    </row>
+    <row r="365" spans="14:15">
       <c r="N365" s="3"/>
-    </row>
-    <row r="366" spans="14:14">
+      <c r="O365" s="3"/>
+    </row>
+    <row r="366" spans="14:15">
       <c r="N366" s="3"/>
-    </row>
-    <row r="367" spans="14:14">
+      <c r="O366" s="3"/>
+    </row>
+    <row r="367" spans="14:15">
       <c r="N367" s="3"/>
-    </row>
-    <row r="368" spans="14:14">
+      <c r="O367" s="3"/>
+    </row>
+    <row r="368" spans="14:15">
       <c r="N368" s="3"/>
-    </row>
-    <row r="369" spans="14:14">
+      <c r="O368" s="3"/>
+    </row>
+    <row r="369" spans="14:15">
       <c r="N369" s="3"/>
-    </row>
-    <row r="370" spans="14:14">
+      <c r="O369" s="3"/>
+    </row>
+    <row r="370" spans="14:15">
       <c r="N370" s="3"/>
-    </row>
-    <row r="371" spans="14:14">
+      <c r="O370" s="3"/>
+    </row>
+    <row r="371" spans="14:15">
       <c r="N371" s="3"/>
-    </row>
-    <row r="372" spans="14:14">
+      <c r="O371" s="3"/>
+    </row>
+    <row r="372" spans="14:15">
       <c r="N372" s="3"/>
-    </row>
-    <row r="373" spans="14:14">
+      <c r="O372" s="3"/>
+    </row>
+    <row r="373" spans="14:15">
       <c r="N373" s="3"/>
-    </row>
-    <row r="374" spans="14:14">
+      <c r="O373" s="3"/>
+    </row>
+    <row r="374" spans="14:15">
       <c r="N374" s="3"/>
-    </row>
-    <row r="375" spans="14:14">
+      <c r="O374" s="3"/>
+    </row>
+    <row r="375" spans="14:15">
       <c r="N375" s="3"/>
-    </row>
-    <row r="376" spans="14:14">
+      <c r="O375" s="3"/>
+    </row>
+    <row r="376" spans="14:15">
       <c r="N376" s="3"/>
-    </row>
-    <row r="377" spans="14:14">
+      <c r="O376" s="3"/>
+    </row>
+    <row r="377" spans="14:15">
       <c r="N377" s="3"/>
-    </row>
-    <row r="378" spans="14:14">
+      <c r="O377" s="3"/>
+    </row>
+    <row r="378" spans="14:15">
       <c r="N378" s="3"/>
-    </row>
-    <row r="379" spans="14:14">
+      <c r="O378" s="3"/>
+    </row>
+    <row r="379" spans="14:15">
       <c r="N379" s="3"/>
-    </row>
-    <row r="380" spans="14:14">
+      <c r="O379" s="3"/>
+    </row>
+    <row r="380" spans="14:15">
       <c r="N380" s="3"/>
-    </row>
-    <row r="381" spans="14:14">
+      <c r="O380" s="3"/>
+    </row>
+    <row r="381" spans="14:15">
       <c r="N381" s="3"/>
-    </row>
-    <row r="382" spans="14:14">
+      <c r="O381" s="3"/>
+    </row>
+    <row r="382" spans="14:15">
       <c r="N382" s="3"/>
-    </row>
-    <row r="383" spans="14:14">
+      <c r="O382" s="3"/>
+    </row>
+    <row r="383" spans="14:15">
       <c r="N383" s="3"/>
-    </row>
-    <row r="384" spans="14:14">
+      <c r="O383" s="3"/>
+    </row>
+    <row r="384" spans="14:15">
       <c r="N384" s="3"/>
-    </row>
-    <row r="385" spans="14:14">
+      <c r="O384" s="3"/>
+    </row>
+    <row r="385" spans="14:15">
       <c r="N385" s="3"/>
-    </row>
-    <row r="386" spans="14:14">
+      <c r="O385" s="3"/>
+    </row>
+    <row r="386" spans="14:15">
       <c r="N386" s="3"/>
-    </row>
-    <row r="387" spans="14:14">
+      <c r="O386" s="3"/>
+    </row>
+    <row r="387" spans="14:15">
       <c r="N387" s="3"/>
-    </row>
-    <row r="388" spans="14:14">
+      <c r="O387" s="3"/>
+    </row>
+    <row r="388" spans="14:15">
       <c r="N388" s="3"/>
-    </row>
-    <row r="389" spans="14:14">
+      <c r="O388" s="3"/>
+    </row>
+    <row r="389" spans="14:15">
       <c r="N389" s="3"/>
-    </row>
-    <row r="390" spans="14:14">
+      <c r="O389" s="3"/>
+    </row>
+    <row r="390" spans="14:15">
       <c r="N390" s="3"/>
-    </row>
-    <row r="391" spans="14:14">
+      <c r="O390" s="3"/>
+    </row>
+    <row r="391" spans="14:15">
       <c r="N391" s="3"/>
-    </row>
-    <row r="392" spans="14:14">
+      <c r="O391" s="3"/>
+    </row>
+    <row r="392" spans="14:15">
       <c r="N392" s="3"/>
-    </row>
-    <row r="393" spans="14:14">
+      <c r="O392" s="3"/>
+    </row>
+    <row r="393" spans="14:15">
       <c r="N393" s="3"/>
-    </row>
-    <row r="394" spans="14:14">
+      <c r="O393" s="3"/>
+    </row>
+    <row r="394" spans="14:15">
       <c r="N394" s="3"/>
-    </row>
-    <row r="395" spans="14:14">
+      <c r="O394" s="3"/>
+    </row>
+    <row r="395" spans="14:15">
       <c r="N395" s="3"/>
-    </row>
-    <row r="396" spans="14:14">
+      <c r="O395" s="3"/>
+    </row>
+    <row r="396" spans="14:15">
       <c r="N396" s="3"/>
-    </row>
-    <row r="397" spans="14:14">
+      <c r="O396" s="3"/>
+    </row>
+    <row r="397" spans="14:15">
       <c r="N397" s="3"/>
-    </row>
-    <row r="398" spans="14:14">
+      <c r="O397" s="3"/>
+    </row>
+    <row r="398" spans="14:15">
       <c r="N398" s="3"/>
-    </row>
-    <row r="399" spans="14:14">
+      <c r="O398" s="3"/>
+    </row>
+    <row r="399" spans="14:15">
       <c r="N399" s="3"/>
-    </row>
-    <row r="400" spans="14:14">
+      <c r="O399" s="3"/>
+    </row>
+    <row r="400" spans="14:15">
       <c r="N400" s="3"/>
-    </row>
-    <row r="401" spans="14:14">
+      <c r="O400" s="3"/>
+    </row>
+    <row r="401" spans="14:15">
       <c r="N401" s="3"/>
-    </row>
-    <row r="402" spans="14:14">
+      <c r="O401" s="3"/>
+    </row>
+    <row r="402" spans="14:15">
       <c r="N402" s="3"/>
-    </row>
-    <row r="403" spans="14:14">
+      <c r="O402" s="3"/>
+    </row>
+    <row r="403" spans="14:15">
       <c r="N403" s="3"/>
-    </row>
-    <row r="404" spans="14:14">
+      <c r="O403" s="3"/>
+    </row>
+    <row r="404" spans="14:15">
       <c r="N404" s="3"/>
-    </row>
-    <row r="405" spans="14:14">
+      <c r="O404" s="3"/>
+    </row>
+    <row r="405" spans="14:15">
       <c r="N405" s="3"/>
-    </row>
-    <row r="406" spans="14:14">
+      <c r="O405" s="3"/>
+    </row>
+    <row r="406" spans="14:15">
       <c r="N406" s="3"/>
-    </row>
-    <row r="407" spans="14:14">
+      <c r="O406" s="3"/>
+    </row>
+    <row r="407" spans="14:15">
       <c r="N407" s="3"/>
-    </row>
-    <row r="408" spans="14:14">
+      <c r="O407" s="3"/>
+    </row>
+    <row r="408" spans="14:15">
       <c r="N408" s="3"/>
-    </row>
-    <row r="409" spans="14:14">
+      <c r="O408" s="3"/>
+    </row>
+    <row r="409" spans="14:15">
       <c r="N409" s="3"/>
-    </row>
-    <row r="410" spans="14:14">
+      <c r="O409" s="3"/>
+    </row>
+    <row r="410" spans="14:15">
       <c r="N410" s="3"/>
-    </row>
-    <row r="411" spans="14:14">
+      <c r="O410" s="3"/>
+    </row>
+    <row r="411" spans="14:15">
       <c r="N411" s="3"/>
-    </row>
-    <row r="412" spans="14:14">
+      <c r="O411" s="3"/>
+    </row>
+    <row r="412" spans="14:15">
       <c r="N412" s="3"/>
-    </row>
-    <row r="413" spans="14:14">
+      <c r="O412" s="3"/>
+    </row>
+    <row r="413" spans="14:15">
       <c r="N413" s="3"/>
-    </row>
-    <row r="414" spans="14:14">
+      <c r="O413" s="3"/>
+    </row>
+    <row r="414" spans="14:15">
       <c r="N414" s="3"/>
-    </row>
-    <row r="415" spans="14:14">
+      <c r="O414" s="3"/>
+    </row>
+    <row r="415" spans="14:15">
       <c r="N415" s="3"/>
-    </row>
-    <row r="416" spans="14:14">
+      <c r="O415" s="3"/>
+    </row>
+    <row r="416" spans="14:15">
       <c r="N416" s="3"/>
-    </row>
-    <row r="417" spans="14:14">
+      <c r="O416" s="3"/>
+    </row>
+    <row r="417" spans="14:15">
       <c r="N417" s="3"/>
-    </row>
-    <row r="418" spans="14:14">
+      <c r="O417" s="3"/>
+    </row>
+    <row r="418" spans="14:15">
       <c r="N418" s="3"/>
-    </row>
-    <row r="419" spans="14:14">
+      <c r="O418" s="3"/>
+    </row>
+    <row r="419" spans="14:15">
       <c r="N419" s="3"/>
-    </row>
-    <row r="420" spans="14:14">
+      <c r="O419" s="3"/>
+    </row>
+    <row r="420" spans="14:15">
       <c r="N420" s="3"/>
-    </row>
-    <row r="421" spans="14:14">
+      <c r="O420" s="3"/>
+    </row>
+    <row r="421" spans="14:15">
       <c r="N421" s="3"/>
-    </row>
-    <row r="422" spans="14:14">
+      <c r="O421" s="3"/>
+    </row>
+    <row r="422" spans="14:15">
       <c r="N422" s="3"/>
-    </row>
-    <row r="423" spans="14:14">
+      <c r="O422" s="3"/>
+    </row>
+    <row r="423" spans="14:15">
       <c r="N423" s="3"/>
-    </row>
-    <row r="424" spans="14:14">
+      <c r="O423" s="3"/>
+    </row>
+    <row r="424" spans="14:15">
       <c r="N424" s="3"/>
-    </row>
-    <row r="425" spans="14:14">
+      <c r="O424" s="3"/>
+    </row>
+    <row r="425" spans="14:15">
       <c r="N425" s="3"/>
-    </row>
-    <row r="426" spans="14:14">
+      <c r="O425" s="3"/>
+    </row>
+    <row r="426" spans="14:15">
       <c r="N426" s="3"/>
-    </row>
-    <row r="427" spans="14:14">
+      <c r="O426" s="3"/>
+    </row>
+    <row r="427" spans="14:15">
       <c r="N427" s="3"/>
-    </row>
-    <row r="428" spans="14:14">
+      <c r="O427" s="3"/>
+    </row>
+    <row r="428" spans="14:15">
       <c r="N428" s="3"/>
-    </row>
-    <row r="429" spans="14:14">
+      <c r="O428" s="3"/>
+    </row>
+    <row r="429" spans="14:15">
       <c r="N429" s="3"/>
-    </row>
-    <row r="430" spans="14:14">
+      <c r="O429" s="3"/>
+    </row>
+    <row r="430" spans="14:15">
       <c r="N430" s="3"/>
-    </row>
-    <row r="431" spans="14:14">
+      <c r="O430" s="3"/>
+    </row>
+    <row r="431" spans="14:15">
       <c r="N431" s="3"/>
-    </row>
-    <row r="432" spans="14:14">
+      <c r="O431" s="3"/>
+    </row>
+    <row r="432" spans="14:15">
       <c r="N432" s="3"/>
-    </row>
-    <row r="433" spans="14:14">
+      <c r="O432" s="3"/>
+    </row>
+    <row r="433" spans="14:15">
       <c r="N433" s="3"/>
-    </row>
-    <row r="434" spans="14:14">
+      <c r="O433" s="3"/>
+    </row>
+    <row r="434" spans="14:15">
       <c r="N434" s="3"/>
-    </row>
-    <row r="435" spans="14:14">
+      <c r="O434" s="3"/>
+    </row>
+    <row r="435" spans="14:15">
       <c r="N435" s="3"/>
-    </row>
-    <row r="436" spans="14:14">
+      <c r="O435" s="3"/>
+    </row>
+    <row r="436" spans="14:15">
       <c r="N436" s="3"/>
-    </row>
-    <row r="437" spans="14:14">
+      <c r="O436" s="3"/>
+    </row>
+    <row r="437" spans="14:15">
       <c r="N437" s="3"/>
-    </row>
-    <row r="438" spans="14:14">
+      <c r="O437" s="3"/>
+    </row>
+    <row r="438" spans="14:15">
       <c r="N438" s="3"/>
-    </row>
-    <row r="439" spans="14:14">
+      <c r="O438" s="3"/>
+    </row>
+    <row r="439" spans="14:15">
       <c r="N439" s="3"/>
-    </row>
-    <row r="440" spans="14:14">
+      <c r="O439" s="3"/>
+    </row>
+    <row r="440" spans="14:15">
       <c r="N440" s="3"/>
-    </row>
-    <row r="441" spans="14:14">
+      <c r="O440" s="3"/>
+    </row>
+    <row r="441" spans="14:15">
       <c r="N441" s="3"/>
-    </row>
-    <row r="442" spans="14:14">
+      <c r="O441" s="3"/>
+    </row>
+    <row r="442" spans="14:15">
       <c r="N442" s="3"/>
-    </row>
-    <row r="443" spans="14:14">
+      <c r="O442" s="3"/>
+    </row>
+    <row r="443" spans="14:15">
       <c r="N443" s="3"/>
-    </row>
-    <row r="444" spans="14:14">
+      <c r="O443" s="3"/>
+    </row>
+    <row r="444" spans="14:15">
       <c r="N444" s="3"/>
-    </row>
-    <row r="445" spans="14:14">
+      <c r="O444" s="3"/>
+    </row>
+    <row r="445" spans="14:15">
       <c r="N445" s="3"/>
-    </row>
-    <row r="446" spans="14:14">
+      <c r="O445" s="3"/>
+    </row>
+    <row r="446" spans="14:15">
       <c r="N446" s="3"/>
-    </row>
-    <row r="447" spans="14:14">
+      <c r="O446" s="3"/>
+    </row>
+    <row r="447" spans="14:15">
       <c r="N447" s="3"/>
-    </row>
-    <row r="448" spans="14:14">
+      <c r="O447" s="3"/>
+    </row>
+    <row r="448" spans="14:15">
       <c r="N448" s="3"/>
-    </row>
-    <row r="449" spans="14:14">
+      <c r="O448" s="3"/>
+    </row>
+    <row r="449" spans="14:15">
       <c r="N449" s="3"/>
-    </row>
-    <row r="450" spans="14:14">
+      <c r="O449" s="3"/>
+    </row>
+    <row r="450" spans="14:15">
       <c r="N450" s="3"/>
-    </row>
-    <row r="451" spans="14:14">
+      <c r="O450" s="3"/>
+    </row>
+    <row r="451" spans="14:15">
       <c r="N451" s="3"/>
-    </row>
-    <row r="452" spans="14:14">
+      <c r="O451" s="3"/>
+    </row>
+    <row r="452" spans="14:15">
       <c r="N452" s="3"/>
-    </row>
-    <row r="453" spans="14:14">
+      <c r="O452" s="3"/>
+    </row>
+    <row r="453" spans="14:15">
       <c r="N453" s="3"/>
-    </row>
-    <row r="454" spans="14:14">
+      <c r="O453" s="3"/>
+    </row>
+    <row r="454" spans="14:15">
       <c r="N454" s="3"/>
-    </row>
-    <row r="455" spans="14:14">
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="14:15">
       <c r="N455" s="3"/>
-    </row>
-    <row r="456" spans="14:14">
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="14:15">
       <c r="N456" s="3"/>
-    </row>
-    <row r="457" spans="14:14">
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="14:15">
       <c r="N457" s="3"/>
-    </row>
-    <row r="458" spans="14:14">
+      <c r="O457" s="3"/>
+    </row>
+    <row r="458" spans="14:15">
       <c r="N458" s="3"/>
-    </row>
-    <row r="459" spans="14:14">
+      <c r="O458" s="3"/>
+    </row>
+    <row r="459" spans="14:15">
       <c r="N459" s="3"/>
-    </row>
-    <row r="460" spans="14:14">
+      <c r="O459" s="3"/>
+    </row>
+    <row r="460" spans="14:15">
       <c r="N460" s="3"/>
-    </row>
-    <row r="461" spans="14:14">
+      <c r="O460" s="3"/>
+    </row>
+    <row r="461" spans="14:15">
       <c r="N461" s="3"/>
-    </row>
-    <row r="462" spans="14:14">
+      <c r="O461" s="3"/>
+    </row>
+    <row r="462" spans="14:15">
       <c r="N462" s="3"/>
-    </row>
-    <row r="463" spans="14:14">
+      <c r="O462" s="3"/>
+    </row>
+    <row r="463" spans="14:15">
       <c r="N463" s="3"/>
-    </row>
-    <row r="464" spans="14:14">
+      <c r="O463" s="3"/>
+    </row>
+    <row r="464" spans="14:15">
       <c r="N464" s="3"/>
-    </row>
-    <row r="465" spans="14:14">
+      <c r="O464" s="3"/>
+    </row>
+    <row r="465" spans="14:15">
       <c r="N465" s="3"/>
-    </row>
-    <row r="466" spans="14:14">
+      <c r="O465" s="3"/>
+    </row>
+    <row r="466" spans="14:15">
       <c r="N466" s="3"/>
-    </row>
-    <row r="467" spans="14:14">
+      <c r="O466" s="3"/>
+    </row>
+    <row r="467" spans="14:15">
       <c r="N467" s="3"/>
-    </row>
-    <row r="468" spans="14:14">
+      <c r="O467" s="3"/>
+    </row>
+    <row r="468" spans="14:15">
       <c r="N468" s="3"/>
-    </row>
-    <row r="469" spans="14:14">
+      <c r="O468" s="3"/>
+    </row>
+    <row r="469" spans="14:15">
       <c r="N469" s="3"/>
-    </row>
-    <row r="470" spans="14:14">
+      <c r="O469" s="3"/>
+    </row>
+    <row r="470" spans="14:15">
       <c r="N470" s="3"/>
-    </row>
-    <row r="471" spans="14:14">
+      <c r="O470" s="3"/>
+    </row>
+    <row r="471" spans="14:15">
       <c r="N471" s="3"/>
-    </row>
-    <row r="472" spans="14:14">
+      <c r="O471" s="3"/>
+    </row>
+    <row r="472" spans="14:15">
       <c r="N472" s="3"/>
-    </row>
-    <row r="473" spans="14:14">
+      <c r="O472" s="3"/>
+    </row>
+    <row r="473" spans="14:15">
       <c r="N473" s="3"/>
-    </row>
-    <row r="474" spans="14:14">
+      <c r="O473" s="3"/>
+    </row>
+    <row r="474" spans="14:15">
       <c r="N474" s="3"/>
-    </row>
-    <row r="475" spans="14:14">
+      <c r="O474" s="3"/>
+    </row>
+    <row r="475" spans="14:15">
       <c r="N475" s="3"/>
-    </row>
-    <row r="476" spans="14:14">
+      <c r="O475" s="3"/>
+    </row>
+    <row r="476" spans="14:15">
       <c r="N476" s="3"/>
-    </row>
-    <row r="477" spans="14:14">
+      <c r="O476" s="3"/>
+    </row>
+    <row r="477" spans="14:15">
       <c r="N477" s="3"/>
-    </row>
-    <row r="478" spans="14:14">
+      <c r="O477" s="3"/>
+    </row>
+    <row r="478" spans="14:15">
       <c r="N478" s="3"/>
-    </row>
-    <row r="479" spans="14:14">
+      <c r="O478" s="3"/>
+    </row>
+    <row r="479" spans="14:15">
       <c r="N479" s="3"/>
-    </row>
-    <row r="480" spans="14:14">
+      <c r="O479" s="3"/>
+    </row>
+    <row r="480" spans="14:15">
       <c r="N480" s="3"/>
-    </row>
-    <row r="481" spans="14:14">
+      <c r="O480" s="3"/>
+    </row>
+    <row r="481" spans="14:15">
       <c r="N481" s="3"/>
-    </row>
-    <row r="482" spans="14:14">
+      <c r="O481" s="3"/>
+    </row>
+    <row r="482" spans="14:15">
       <c r="N482" s="3"/>
-    </row>
-    <row r="483" spans="14:14">
+      <c r="O482" s="3"/>
+    </row>
+    <row r="483" spans="14:15">
       <c r="N483" s="3"/>
-    </row>
-    <row r="484" spans="14:14">
+      <c r="O483" s="3"/>
+    </row>
+    <row r="484" spans="14:15">
       <c r="N484" s="3"/>
-    </row>
-    <row r="485" spans="14:14">
+      <c r="O484" s="3"/>
+    </row>
+    <row r="485" spans="14:15">
       <c r="N485" s="3"/>
-    </row>
-    <row r="486" spans="14:14">
+      <c r="O485" s="3"/>
+    </row>
+    <row r="486" spans="14:15">
       <c r="N486" s="3"/>
-    </row>
-    <row r="487" spans="14:14">
+      <c r="O486" s="3"/>
+    </row>
+    <row r="487" spans="14:15">
       <c r="N487" s="3"/>
-    </row>
-    <row r="488" spans="14:14">
+      <c r="O487" s="3"/>
+    </row>
+    <row r="488" spans="14:15">
       <c r="N488" s="3"/>
-    </row>
-    <row r="489" spans="14:14">
+      <c r="O488" s="3"/>
+    </row>
+    <row r="489" spans="14:15">
       <c r="N489" s="3"/>
-    </row>
-    <row r="490" spans="14:14">
+      <c r="O489" s="3"/>
+    </row>
+    <row r="490" spans="14:15">
       <c r="N490" s="3"/>
-    </row>
-    <row r="491" spans="14:14">
+      <c r="O490" s="3"/>
+    </row>
+    <row r="491" spans="14:15">
       <c r="N491" s="3"/>
-    </row>
-    <row r="492" spans="14:14">
+      <c r="O491" s="3"/>
+    </row>
+    <row r="492" spans="14:15">
       <c r="N492" s="3"/>
-    </row>
-    <row r="493" spans="14:14">
+      <c r="O492" s="3"/>
+    </row>
+    <row r="493" spans="14:15">
       <c r="N493" s="3"/>
-    </row>
-    <row r="494" spans="14:14">
+      <c r="O493" s="3"/>
+    </row>
+    <row r="494" spans="14:15">
       <c r="N494" s="3"/>
-    </row>
-    <row r="495" spans="14:14">
+      <c r="O494" s="3"/>
+    </row>
+    <row r="495" spans="14:15">
       <c r="N495" s="3"/>
-    </row>
-    <row r="496" spans="14:14">
+      <c r="O495" s="3"/>
+    </row>
+    <row r="496" spans="14:15">
       <c r="N496" s="3"/>
-    </row>
-    <row r="497" spans="14:14">
+      <c r="O496" s="3"/>
+    </row>
+    <row r="497" spans="14:15">
       <c r="N497" s="3"/>
-    </row>
-    <row r="498" spans="14:14">
+      <c r="O497" s="3"/>
+    </row>
+    <row r="498" spans="14:15">
       <c r="N498" s="3"/>
-    </row>
-    <row r="499" spans="14:14">
+      <c r="O498" s="3"/>
+    </row>
+    <row r="499" spans="14:15">
       <c r="N499" s="3"/>
-    </row>
-    <row r="500" spans="14:14">
+      <c r="O499" s="3"/>
+    </row>
+    <row r="500" spans="14:15">
       <c r="N500" s="3"/>
-    </row>
-    <row r="501" spans="14:14">
+      <c r="O500" s="3"/>
+    </row>
+    <row r="501" spans="14:15">
       <c r="N501" s="3"/>
-    </row>
-    <row r="502" spans="14:14">
+      <c r="O501" s="3"/>
+    </row>
+    <row r="502" spans="14:15">
       <c r="N502" s="3"/>
-    </row>
-    <row r="503" spans="14:14">
+      <c r="O502" s="3"/>
+    </row>
+    <row r="503" spans="14:15">
       <c r="N503" s="3"/>
-    </row>
-    <row r="504" spans="14:14">
+      <c r="O503" s="3"/>
+    </row>
+    <row r="504" spans="14:15">
       <c r="N504" s="3"/>
-    </row>
-    <row r="505" spans="14:14">
+      <c r="O504" s="3"/>
+    </row>
+    <row r="505" spans="14:15">
       <c r="N505" s="3"/>
-    </row>
-    <row r="506" spans="14:14">
+      <c r="O505" s="3"/>
+    </row>
+    <row r="506" spans="14:15">
       <c r="N506" s="3"/>
-    </row>
-    <row r="507" spans="14:14">
+      <c r="O506" s="3"/>
+    </row>
+    <row r="507" spans="14:15">
       <c r="N507" s="3"/>
-    </row>
-    <row r="508" spans="14:14">
+      <c r="O507" s="3"/>
+    </row>
+    <row r="508" spans="14:15">
       <c r="N508" s="3"/>
-    </row>
-    <row r="509" spans="14:14">
+      <c r="O508" s="3"/>
+    </row>
+    <row r="509" spans="14:15">
       <c r="N509" s="3"/>
-    </row>
-    <row r="510" spans="14:14">
+      <c r="O509" s="3"/>
+    </row>
+    <row r="510" spans="14:15">
       <c r="N510" s="3"/>
-    </row>
-    <row r="511" spans="14:14">
+      <c r="O510" s="3"/>
+    </row>
+    <row r="511" spans="14:15">
       <c r="N511" s="3"/>
-    </row>
-    <row r="512" spans="14:14">
+      <c r="O511" s="3"/>
+    </row>
+    <row r="512" spans="14:15">
       <c r="N512" s="3"/>
-    </row>
-    <row r="513" spans="14:14">
+      <c r="O512" s="3"/>
+    </row>
+    <row r="513" spans="14:15">
       <c r="N513" s="3"/>
-    </row>
-    <row r="514" spans="14:14">
+      <c r="O513" s="3"/>
+    </row>
+    <row r="514" spans="14:15">
       <c r="N514" s="3"/>
-    </row>
-    <row r="515" spans="14:14">
+      <c r="O514" s="3"/>
+    </row>
+    <row r="515" spans="14:15">
       <c r="N515" s="3"/>
-    </row>
-    <row r="516" spans="14:14">
+      <c r="O515" s="3"/>
+    </row>
+    <row r="516" spans="14:15">
       <c r="N516" s="3"/>
-    </row>
-    <row r="517" spans="14:14">
+      <c r="O516" s="3"/>
+    </row>
+    <row r="517" spans="14:15">
       <c r="N517" s="3"/>
-    </row>
-    <row r="518" spans="14:14">
+      <c r="O517" s="3"/>
+    </row>
+    <row r="518" spans="14:15">
       <c r="N518" s="3"/>
-    </row>
-    <row r="519" spans="14:14">
+      <c r="O518" s="3"/>
+    </row>
+    <row r="519" spans="14:15">
       <c r="N519" s="3"/>
-    </row>
-    <row r="520" spans="14:14">
+      <c r="O519" s="3"/>
+    </row>
+    <row r="520" spans="14:15">
       <c r="N520" s="3"/>
-    </row>
-    <row r="521" spans="14:14">
+      <c r="O520" s="3"/>
+    </row>
+    <row r="521" spans="14:15">
       <c r="N521" s="3"/>
-    </row>
-    <row r="522" spans="14:14">
+      <c r="O521" s="3"/>
+    </row>
+    <row r="522" spans="14:15">
       <c r="N522" s="3"/>
-    </row>
-    <row r="523" spans="14:14">
+      <c r="O522" s="3"/>
+    </row>
+    <row r="523" spans="14:15">
       <c r="N523" s="3"/>
-    </row>
-    <row r="524" spans="14:14">
+      <c r="O523" s="3"/>
+    </row>
+    <row r="524" spans="14:15">
       <c r="N524" s="3"/>
-    </row>
-    <row r="525" spans="14:14">
+      <c r="O524" s="3"/>
+    </row>
+    <row r="525" spans="14:15">
       <c r="N525" s="3"/>
-    </row>
-    <row r="526" spans="14:14">
+      <c r="O525" s="3"/>
+    </row>
+    <row r="526" spans="14:15">
       <c r="N526" s="3"/>
-    </row>
-    <row r="527" spans="14:14">
+      <c r="O526" s="3"/>
+    </row>
+    <row r="527" spans="14:15">
       <c r="N527" s="3"/>
-    </row>
-    <row r="528" spans="14:14">
+      <c r="O527" s="3"/>
+    </row>
+    <row r="528" spans="14:15">
       <c r="N528" s="3"/>
-    </row>
-    <row r="529" spans="14:14">
+      <c r="O528" s="3"/>
+    </row>
+    <row r="529" spans="14:15">
       <c r="N529" s="3"/>
-    </row>
-    <row r="530" spans="14:14">
+      <c r="O529" s="3"/>
+    </row>
+    <row r="530" spans="14:15">
       <c r="N530" s="3"/>
-    </row>
-    <row r="531" spans="14:14">
+      <c r="O530" s="3"/>
+    </row>
+    <row r="531" spans="14:15">
       <c r="N531" s="3"/>
-    </row>
-    <row r="532" spans="14:14">
+      <c r="O531" s="3"/>
+    </row>
+    <row r="532" spans="14:15">
       <c r="N532" s="3"/>
-    </row>
-    <row r="533" spans="14:14">
+      <c r="O532" s="3"/>
+    </row>
+    <row r="533" spans="14:15">
       <c r="N533" s="3"/>
-    </row>
-    <row r="534" spans="14:14">
+      <c r="O533" s="3"/>
+    </row>
+    <row r="534" spans="14:15">
       <c r="N534" s="3"/>
-    </row>
-    <row r="535" spans="14:14">
+      <c r="O534" s="3"/>
+    </row>
+    <row r="535" spans="14:15">
       <c r="N535" s="3"/>
-    </row>
-    <row r="536" spans="14:14">
+      <c r="O535" s="3"/>
+    </row>
+    <row r="536" spans="14:15">
       <c r="N536" s="3"/>
-    </row>
-    <row r="537" spans="14:14">
+      <c r="O536" s="3"/>
+    </row>
+    <row r="537" spans="14:15">
       <c r="N537" s="3"/>
-    </row>
-    <row r="538" spans="14:14">
+      <c r="O537" s="3"/>
+    </row>
+    <row r="538" spans="14:15">
       <c r="N538" s="3"/>
-    </row>
-    <row r="539" spans="14:14">
+      <c r="O538" s="3"/>
+    </row>
+    <row r="539" spans="14:15">
       <c r="N539" s="3"/>
-    </row>
-    <row r="540" spans="14:14">
+      <c r="O539" s="3"/>
+    </row>
+    <row r="540" spans="14:15">
       <c r="N540" s="3"/>
-    </row>
-    <row r="541" spans="14:14">
+      <c r="O540" s="3"/>
+    </row>
+    <row r="541" spans="14:15">
       <c r="N541" s="3"/>
-    </row>
-    <row r="542" spans="14:14">
+      <c r="O541" s="3"/>
+    </row>
+    <row r="542" spans="14:15">
       <c r="N542" s="3"/>
-    </row>
-    <row r="543" spans="14:14">
+      <c r="O542" s="3"/>
+    </row>
+    <row r="543" spans="14:15">
       <c r="N543" s="3"/>
-    </row>
-    <row r="544" spans="14:14">
+      <c r="O543" s="3"/>
+    </row>
+    <row r="544" spans="14:15">
       <c r="N544" s="3"/>
-    </row>
-    <row r="545" spans="14:14">
+      <c r="O544" s="3"/>
+    </row>
+    <row r="545" spans="14:15">
       <c r="N545" s="3"/>
-    </row>
-    <row r="546" spans="14:14">
+      <c r="O545" s="3"/>
+    </row>
+    <row r="546" spans="14:15">
       <c r="N546" s="3"/>
-    </row>
-    <row r="547" spans="14:14">
+      <c r="O546" s="3"/>
+    </row>
+    <row r="547" spans="14:15">
       <c r="N547" s="3"/>
-    </row>
-    <row r="548" spans="14:14">
+      <c r="O547" s="3"/>
+    </row>
+    <row r="548" spans="14:15">
       <c r="N548" s="3"/>
-    </row>
-    <row r="549" spans="14:14">
+      <c r="O548" s="3"/>
+    </row>
+    <row r="549" spans="14:15">
       <c r="N549" s="3"/>
-    </row>
-    <row r="550" spans="14:14">
+      <c r="O549" s="3"/>
+    </row>
+    <row r="550" spans="14:15">
       <c r="N550" s="3"/>
-    </row>
-    <row r="551" spans="14:14">
+      <c r="O550" s="3"/>
+    </row>
+    <row r="551" spans="14:15">
       <c r="N551" s="3"/>
-    </row>
-    <row r="552" spans="14:14">
+      <c r="O551" s="3"/>
+    </row>
+    <row r="552" spans="14:15">
       <c r="N552" s="3"/>
-    </row>
-    <row r="553" spans="14:14">
+      <c r="O552" s="3"/>
+    </row>
+    <row r="553" spans="14:15">
       <c r="N553" s="3"/>
-    </row>
-    <row r="554" spans="14:14">
+      <c r="O553" s="3"/>
+    </row>
+    <row r="554" spans="14:15">
       <c r="N554" s="3"/>
-    </row>
-    <row r="555" spans="14:14">
+      <c r="O554" s="3"/>
+    </row>
+    <row r="555" spans="14:15">
       <c r="N555" s="3"/>
-    </row>
-    <row r="556" spans="14:14">
+      <c r="O555" s="3"/>
+    </row>
+    <row r="556" spans="14:15">
       <c r="N556" s="3"/>
-    </row>
-    <row r="557" spans="14:14">
+      <c r="O556" s="3"/>
+    </row>
+    <row r="557" spans="14:15">
       <c r="N557" s="3"/>
-    </row>
-    <row r="558" spans="14:14">
+      <c r="O557" s="3"/>
+    </row>
+    <row r="558" spans="14:15">
       <c r="N558" s="3"/>
-    </row>
-    <row r="559" spans="14:14">
+      <c r="O558" s="3"/>
+    </row>
+    <row r="559" spans="14:15">
       <c r="N559" s="3"/>
-    </row>
-    <row r="560" spans="14:14">
+      <c r="O559" s="3"/>
+    </row>
+    <row r="560" spans="14:15">
       <c r="N560" s="3"/>
-    </row>
-    <row r="561" spans="14:14">
+      <c r="O560" s="3"/>
+    </row>
+    <row r="561" spans="14:15">
       <c r="N561" s="3"/>
-    </row>
-    <row r="562" spans="14:14">
+      <c r="O561" s="3"/>
+    </row>
+    <row r="562" spans="14:15">
       <c r="N562" s="3"/>
-    </row>
-    <row r="563" spans="14:14">
+      <c r="O562" s="3"/>
+    </row>
+    <row r="563" spans="14:15">
       <c r="N563" s="3"/>
-    </row>
-    <row r="564" spans="14:14">
+      <c r="O563" s="3"/>
+    </row>
+    <row r="564" spans="14:15">
       <c r="N564" s="3"/>
-    </row>
-    <row r="565" spans="14:14">
+      <c r="O564" s="3"/>
+    </row>
+    <row r="565" spans="14:15">
       <c r="N565" s="3"/>
-    </row>
-    <row r="566" spans="14:14">
+      <c r="O565" s="3"/>
+    </row>
+    <row r="566" spans="14:15">
       <c r="N566" s="3"/>
-    </row>
-    <row r="567" spans="14:14">
+      <c r="O566" s="3"/>
+    </row>
+    <row r="567" spans="14:15">
       <c r="N567" s="3"/>
-    </row>
-    <row r="568" spans="14:14">
+      <c r="O567" s="3"/>
+    </row>
+    <row r="568" spans="14:15">
       <c r="N568" s="3"/>
-    </row>
-    <row r="569" spans="14:14">
+      <c r="O568" s="3"/>
+    </row>
+    <row r="569" spans="14:15">
       <c r="N569" s="3"/>
-    </row>
-    <row r="570" spans="14:14">
+      <c r="O569" s="3"/>
+    </row>
+    <row r="570" spans="14:15">
       <c r="N570" s="3"/>
-    </row>
-    <row r="571" spans="14:14">
+      <c r="O570" s="3"/>
+    </row>
+    <row r="571" spans="14:15">
       <c r="N571" s="3"/>
-    </row>
-    <row r="572" spans="14:14">
+      <c r="O571" s="3"/>
+    </row>
+    <row r="572" spans="14:15">
       <c r="N572" s="3"/>
-    </row>
-    <row r="573" spans="14:14">
+      <c r="O572" s="3"/>
+    </row>
+    <row r="573" spans="14:15">
       <c r="N573" s="3"/>
-    </row>
-    <row r="574" spans="14:14">
+      <c r="O573" s="3"/>
+    </row>
+    <row r="574" spans="14:15">
       <c r="N574" s="3"/>
-    </row>
-    <row r="575" spans="14:14">
+      <c r="O574" s="3"/>
+    </row>
+    <row r="575" spans="14:15">
       <c r="N575" s="3"/>
-    </row>
-    <row r="576" spans="14:14">
+      <c r="O575" s="3"/>
+    </row>
+    <row r="576" spans="14:15">
       <c r="N576" s="3"/>
-    </row>
-    <row r="577" spans="14:14">
+      <c r="O576" s="3"/>
+    </row>
+    <row r="577" spans="14:15">
       <c r="N577" s="3"/>
-    </row>
-    <row r="578" spans="14:14">
+      <c r="O577" s="3"/>
+    </row>
+    <row r="578" spans="14:15">
       <c r="N578" s="3"/>
-    </row>
-    <row r="579" spans="14:14">
+      <c r="O578" s="3"/>
+    </row>
+    <row r="579" spans="14:15">
       <c r="N579" s="3"/>
-    </row>
-    <row r="580" spans="14:14">
+      <c r="O579" s="3"/>
+    </row>
+    <row r="580" spans="14:15">
       <c r="N580" s="3"/>
-    </row>
-    <row r="581" spans="14:14">
+      <c r="O580" s="3"/>
+    </row>
+    <row r="581" spans="14:15">
       <c r="N581" s="3"/>
-    </row>
-    <row r="582" spans="14:14">
+      <c r="O581" s="3"/>
+    </row>
+    <row r="582" spans="14:15">
       <c r="N582" s="3"/>
-    </row>
-    <row r="583" spans="14:14">
+      <c r="O582" s="3"/>
+    </row>
+    <row r="583" spans="14:15">
       <c r="N583" s="3"/>
-    </row>
-    <row r="584" spans="14:14">
+      <c r="O583" s="3"/>
+    </row>
+    <row r="584" spans="14:15">
       <c r="N584" s="3"/>
-    </row>
-    <row r="585" spans="14:14">
+      <c r="O584" s="3"/>
+    </row>
+    <row r="585" spans="14:15">
       <c r="N585" s="3"/>
-    </row>
-    <row r="586" spans="14:14">
+      <c r="O585" s="3"/>
+    </row>
+    <row r="586" spans="14:15">
       <c r="N586" s="3"/>
-    </row>
-    <row r="587" spans="14:14">
+      <c r="O586" s="3"/>
+    </row>
+    <row r="587" spans="14:15">
       <c r="N587" s="3"/>
-    </row>
-    <row r="588" spans="14:14">
+      <c r="O587" s="3"/>
+    </row>
+    <row r="588" spans="14:15">
       <c r="N588" s="3"/>
-    </row>
-    <row r="589" spans="14:14">
+      <c r="O588" s="3"/>
+    </row>
+    <row r="589" spans="14:15">
       <c r="N589" s="3"/>
-    </row>
-    <row r="590" spans="14:14">
+      <c r="O589" s="3"/>
+    </row>
+    <row r="590" spans="14:15">
       <c r="N590" s="3"/>
-    </row>
-    <row r="591" spans="14:14">
+      <c r="O590" s="3"/>
+    </row>
+    <row r="591" spans="14:15">
       <c r="N591" s="3"/>
-    </row>
-    <row r="592" spans="14:14">
+      <c r="O591" s="3"/>
+    </row>
+    <row r="592" spans="14:15">
       <c r="N592" s="3"/>
-    </row>
-    <row r="593" spans="14:14">
+      <c r="O592" s="3"/>
+    </row>
+    <row r="593" spans="14:15">
       <c r="N593" s="3"/>
-    </row>
-    <row r="594" spans="14:14">
+      <c r="O593" s="3"/>
+    </row>
+    <row r="594" spans="14:15">
       <c r="N594" s="3"/>
-    </row>
-    <row r="595" spans="14:14">
+      <c r="O594" s="3"/>
+    </row>
+    <row r="595" spans="14:15">
       <c r="N595" s="3"/>
-    </row>
-    <row r="596" spans="14:14">
+      <c r="O595" s="3"/>
+    </row>
+    <row r="596" spans="14:15">
       <c r="N596" s="3"/>
-    </row>
-    <row r="597" spans="14:14">
+      <c r="O596" s="3"/>
+    </row>
+    <row r="597" spans="14:15">
       <c r="N597" s="3"/>
-    </row>
-    <row r="598" spans="14:14">
+      <c r="O597" s="3"/>
+    </row>
+    <row r="598" spans="14:15">
       <c r="N598" s="3"/>
-    </row>
-    <row r="599" spans="14:14">
+      <c r="O598" s="3"/>
+    </row>
+    <row r="599" spans="14:15">
       <c r="N599" s="3"/>
-    </row>
-    <row r="600" spans="14:14">
+      <c r="O599" s="3"/>
+    </row>
+    <row r="600" spans="14:15">
       <c r="N600" s="3"/>
-    </row>
-    <row r="601" spans="14:14">
+      <c r="O600" s="3"/>
+    </row>
+    <row r="601" spans="14:15">
       <c r="N601" s="3"/>
-    </row>
-    <row r="602" spans="14:14">
+      <c r="O601" s="3"/>
+    </row>
+    <row r="602" spans="14:15">
       <c r="N602" s="3"/>
-    </row>
-    <row r="603" spans="14:14">
+      <c r="O602" s="3"/>
+    </row>
+    <row r="603" spans="14:15">
       <c r="N603" s="3"/>
-    </row>
-    <row r="604" spans="14:14">
+      <c r="O603" s="3"/>
+    </row>
+    <row r="604" spans="14:15">
       <c r="N604" s="3"/>
-    </row>
-    <row r="605" spans="14:14">
+      <c r="O604" s="3"/>
+    </row>
+    <row r="605" spans="14:15">
       <c r="N605" s="3"/>
-    </row>
-    <row r="606" spans="14:14">
+      <c r="O605" s="3"/>
+    </row>
+    <row r="606" spans="14:15">
       <c r="N606" s="3"/>
-    </row>
-    <row r="607" spans="14:14">
+      <c r="O606" s="3"/>
+    </row>
+    <row r="607" spans="14:15">
       <c r="N607" s="3"/>
-    </row>
-    <row r="608" spans="14:14">
+      <c r="O607" s="3"/>
+    </row>
+    <row r="608" spans="14:15">
       <c r="N608" s="3"/>
-    </row>
-    <row r="609" spans="14:14">
+      <c r="O608" s="3"/>
+    </row>
+    <row r="609" spans="14:15">
       <c r="N609" s="3"/>
-    </row>
-    <row r="610" spans="14:14">
+      <c r="O609" s="3"/>
+    </row>
+    <row r="610" spans="14:15">
       <c r="N610" s="3"/>
-    </row>
-    <row r="611" spans="14:14">
+      <c r="O610" s="3"/>
+    </row>
+    <row r="611" spans="14:15">
       <c r="N611" s="3"/>
-    </row>
-    <row r="612" spans="14:14">
+      <c r="O611" s="3"/>
+    </row>
+    <row r="612" spans="14:15">
       <c r="N612" s="3"/>
-    </row>
-    <row r="613" spans="14:14">
+      <c r="O612" s="3"/>
+    </row>
+    <row r="613" spans="14:15">
       <c r="N613" s="3"/>
-    </row>
-    <row r="614" spans="14:14">
+      <c r="O613" s="3"/>
+    </row>
+    <row r="614" spans="14:15">
       <c r="N614" s="3"/>
-    </row>
-    <row r="615" spans="14:14">
+      <c r="O614" s="3"/>
+    </row>
+    <row r="615" spans="14:15">
       <c r="N615" s="3"/>
-    </row>
-    <row r="616" spans="14:14">
+      <c r="O615" s="3"/>
+    </row>
+    <row r="616" spans="14:15">
       <c r="N616" s="3"/>
-    </row>
-    <row r="617" spans="14:14">
+      <c r="O616" s="3"/>
+    </row>
+    <row r="617" spans="14:15">
       <c r="N617" s="3"/>
-    </row>
-    <row r="618" spans="14:14">
+      <c r="O617" s="3"/>
+    </row>
+    <row r="618" spans="14:15">
       <c r="N618" s="3"/>
-    </row>
-    <row r="619" spans="14:14">
+      <c r="O618" s="3"/>
+    </row>
+    <row r="619" spans="14:15">
       <c r="N619" s="3"/>
-    </row>
-    <row r="620" spans="14:14">
+      <c r="O619" s="3"/>
+    </row>
+    <row r="620" spans="14:15">
       <c r="N620" s="3"/>
-    </row>
-    <row r="621" spans="14:14">
+      <c r="O620" s="3"/>
+    </row>
+    <row r="621" spans="14:15">
       <c r="N621" s="3"/>
-    </row>
-    <row r="622" spans="14:14">
+      <c r="O621" s="3"/>
+    </row>
+    <row r="622" spans="14:15">
       <c r="N622" s="3"/>
-    </row>
-    <row r="623" spans="14:14">
+      <c r="O622" s="3"/>
+    </row>
+    <row r="623" spans="14:15">
       <c r="N623" s="3"/>
-    </row>
-    <row r="624" spans="14:14">
+      <c r="O623" s="3"/>
+    </row>
+    <row r="624" spans="14:15">
       <c r="N624" s="3"/>
-    </row>
-    <row r="625" spans="14:14">
+      <c r="O624" s="3"/>
+    </row>
+    <row r="625" spans="14:15">
       <c r="N625" s="3"/>
-    </row>
-    <row r="626" spans="14:14">
+      <c r="O625" s="3"/>
+    </row>
+    <row r="626" spans="14:15">
       <c r="N626" s="3"/>
-    </row>
-    <row r="627" spans="14:14">
+      <c r="O626" s="3"/>
+    </row>
+    <row r="627" spans="14:15">
       <c r="N627" s="3"/>
-    </row>
-    <row r="628" spans="14:14">
+      <c r="O627" s="3"/>
+    </row>
+    <row r="628" spans="14:15">
       <c r="N628" s="3"/>
-    </row>
-    <row r="629" spans="14:14">
+      <c r="O628" s="3"/>
+    </row>
+    <row r="629" spans="14:15">
       <c r="N629" s="3"/>
-    </row>
-    <row r="630" spans="14:14">
+      <c r="O629" s="3"/>
+    </row>
+    <row r="630" spans="14:15">
       <c r="N630" s="3"/>
-    </row>
-    <row r="631" spans="14:14">
+      <c r="O630" s="3"/>
+    </row>
+    <row r="631" spans="14:15">
       <c r="N631" s="3"/>
-    </row>
-    <row r="632" spans="14:14">
+      <c r="O631" s="3"/>
+    </row>
+    <row r="632" spans="14:15">
       <c r="N632" s="3"/>
-    </row>
-    <row r="633" spans="14:14">
+      <c r="O632" s="3"/>
+    </row>
+    <row r="633" spans="14:15">
       <c r="N633" s="3"/>
-    </row>
-    <row r="634" spans="14:14">
+      <c r="O633" s="3"/>
+    </row>
+    <row r="634" spans="14:15">
       <c r="N634" s="3"/>
-    </row>
-    <row r="635" spans="14:14">
+      <c r="O634" s="3"/>
+    </row>
+    <row r="635" spans="14:15">
       <c r="N635" s="3"/>
-    </row>
-    <row r="636" spans="14:14">
+      <c r="O635" s="3"/>
+    </row>
+    <row r="636" spans="14:15">
       <c r="N636" s="3"/>
-    </row>
-    <row r="637" spans="14:14">
+      <c r="O636" s="3"/>
+    </row>
+    <row r="637" spans="14:15">
       <c r="N637" s="3"/>
-    </row>
-    <row r="638" spans="14:14">
+      <c r="O637" s="3"/>
+    </row>
+    <row r="638" spans="14:15">
       <c r="N638" s="3"/>
-    </row>
-    <row r="639" spans="14:14">
+      <c r="O638" s="3"/>
+    </row>
+    <row r="639" spans="14:15">
       <c r="N639" s="3"/>
-    </row>
-    <row r="640" spans="14:14">
+      <c r="O639" s="3"/>
+    </row>
+    <row r="640" spans="14:15">
       <c r="N640" s="3"/>
-    </row>
-    <row r="641" spans="14:14">
+      <c r="O640" s="3"/>
+    </row>
+    <row r="641" spans="14:15">
       <c r="N641" s="3"/>
-    </row>
-    <row r="642" spans="14:14">
+      <c r="O641" s="3"/>
+    </row>
+    <row r="642" spans="14:15">
       <c r="N642" s="3"/>
-    </row>
-    <row r="643" spans="14:14">
+      <c r="O642" s="3"/>
+    </row>
+    <row r="643" spans="14:15">
       <c r="N643" s="3"/>
-    </row>
-    <row r="644" spans="14:14">
+      <c r="O643" s="3"/>
+    </row>
+    <row r="644" spans="14:15">
       <c r="N644" s="3"/>
-    </row>
-    <row r="645" spans="14:14">
+      <c r="O644" s="3"/>
+    </row>
+    <row r="645" spans="14:15">
       <c r="N645" s="3"/>
-    </row>
-    <row r="646" spans="14:14">
+      <c r="O645" s="3"/>
+    </row>
+    <row r="646" spans="14:15">
       <c r="N646" s="3"/>
-    </row>
-    <row r="647" spans="14:14">
+      <c r="O646" s="3"/>
+    </row>
+    <row r="647" spans="14:15">
       <c r="N647" s="3"/>
-    </row>
-    <row r="648" spans="14:14">
+      <c r="O647" s="3"/>
+    </row>
+    <row r="648" spans="14:15">
       <c r="N648" s="3"/>
-    </row>
-    <row r="649" spans="14:14">
+      <c r="O648" s="3"/>
+    </row>
+    <row r="649" spans="14:15">
       <c r="N649" s="3"/>
-    </row>
-    <row r="650" spans="14:14">
+      <c r="O649" s="3"/>
+    </row>
+    <row r="650" spans="14:15">
       <c r="N650" s="3"/>
-    </row>
-    <row r="651" spans="14:14">
+      <c r="O650" s="3"/>
+    </row>
+    <row r="651" spans="14:15">
       <c r="N651" s="3"/>
-    </row>
-    <row r="652" spans="14:14">
+      <c r="O651" s="3"/>
+    </row>
+    <row r="652" spans="14:15">
       <c r="N652" s="3"/>
-    </row>
-    <row r="653" spans="14:14">
+      <c r="O652" s="3"/>
+    </row>
+    <row r="653" spans="14:15">
       <c r="N653" s="3"/>
-    </row>
-    <row r="654" spans="14:14">
+      <c r="O653" s="3"/>
+    </row>
+    <row r="654" spans="14:15">
       <c r="N654" s="3"/>
-    </row>
-    <row r="655" spans="14:14">
+      <c r="O654" s="3"/>
+    </row>
+    <row r="655" spans="14:15">
       <c r="N655" s="3"/>
-    </row>
-    <row r="656" spans="14:14">
+      <c r="O655" s="3"/>
+    </row>
+    <row r="656" spans="14:15">
       <c r="N656" s="3"/>
-    </row>
-    <row r="657" spans="14:14">
+      <c r="O656" s="3"/>
+    </row>
+    <row r="657" spans="14:15">
       <c r="N657" s="3"/>
-    </row>
-    <row r="658" spans="14:14">
+      <c r="O657" s="3"/>
+    </row>
+    <row r="658" spans="14:15">
       <c r="N658" s="3"/>
-    </row>
-    <row r="659" spans="14:14">
+      <c r="O658" s="3"/>
+    </row>
+    <row r="659" spans="14:15">
       <c r="N659" s="3"/>
-    </row>
-    <row r="660" spans="14:14">
+      <c r="O659" s="3"/>
+    </row>
+    <row r="660" spans="14:15">
       <c r="N660" s="3"/>
-    </row>
-    <row r="661" spans="14:14">
+      <c r="O660" s="3"/>
+    </row>
+    <row r="661" spans="14:15">
       <c r="N661" s="3"/>
-    </row>
-    <row r="662" spans="14:14">
+      <c r="O661" s="3"/>
+    </row>
+    <row r="662" spans="14:15">
       <c r="N662" s="3"/>
-    </row>
-    <row r="663" spans="14:14">
+      <c r="O662" s="3"/>
+    </row>
+    <row r="663" spans="14:15">
       <c r="N663" s="3"/>
-    </row>
-    <row r="664" spans="14:14">
+      <c r="O663" s="3"/>
+    </row>
+    <row r="664" spans="14:15">
       <c r="N664" s="3"/>
-    </row>
-    <row r="665" spans="14:14">
+      <c r="O664" s="3"/>
+    </row>
+    <row r="665" spans="14:15">
       <c r="N665" s="3"/>
-    </row>
-    <row r="666" spans="14:14">
+      <c r="O665" s="3"/>
+    </row>
+    <row r="666" spans="14:15">
       <c r="N666" s="3"/>
-    </row>
-    <row r="667" spans="14:14">
+      <c r="O666" s="3"/>
+    </row>
+    <row r="667" spans="14:15">
       <c r="N667" s="3"/>
-    </row>
-    <row r="668" spans="14:14">
+      <c r="O667" s="3"/>
+    </row>
+    <row r="668" spans="14:15">
       <c r="N668" s="3"/>
-    </row>
-    <row r="669" spans="14:14">
+      <c r="O668" s="3"/>
+    </row>
+    <row r="669" spans="14:15">
       <c r="N669" s="3"/>
-    </row>
-    <row r="670" spans="14:14">
+      <c r="O669" s="3"/>
+    </row>
+    <row r="670" spans="14:15">
       <c r="N670" s="3"/>
-    </row>
-    <row r="671" spans="14:14">
+      <c r="O670" s="3"/>
+    </row>
+    <row r="671" spans="14:15">
       <c r="N671" s="3"/>
-    </row>
-    <row r="672" spans="14:14">
+      <c r="O671" s="3"/>
+    </row>
+    <row r="672" spans="14:15">
       <c r="N672" s="3"/>
-    </row>
-    <row r="673" spans="14:14">
+      <c r="O672" s="3"/>
+    </row>
+    <row r="673" spans="14:15">
       <c r="N673" s="3"/>
-    </row>
-    <row r="674" spans="14:14">
+      <c r="O673" s="3"/>
+    </row>
+    <row r="674" spans="14:15">
       <c r="N674" s="3"/>
-    </row>
-    <row r="675" spans="14:14">
+      <c r="O674" s="3"/>
+    </row>
+    <row r="675" spans="14:15">
       <c r="N675" s="3"/>
-    </row>
-    <row r="676" spans="14:14">
+      <c r="O675" s="3"/>
+    </row>
+    <row r="676" spans="14:15">
       <c r="N676" s="3"/>
-    </row>
-    <row r="677" spans="14:14">
+      <c r="O676" s="3"/>
+    </row>
+    <row r="677" spans="14:15">
       <c r="N677" s="3"/>
-    </row>
-    <row r="678" spans="14:14">
+      <c r="O677" s="3"/>
+    </row>
+    <row r="678" spans="14:15">
       <c r="N678" s="3"/>
-    </row>
-    <row r="679" spans="14:14">
+      <c r="O678" s="3"/>
+    </row>
+    <row r="679" spans="14:15">
       <c r="N679" s="3"/>
-    </row>
-    <row r="680" spans="14:14">
+      <c r="O679" s="3"/>
+    </row>
+    <row r="680" spans="14:15">
       <c r="N680" s="3"/>
-    </row>
-    <row r="681" spans="14:14">
+      <c r="O680" s="3"/>
+    </row>
+    <row r="681" spans="14:15">
       <c r="N681" s="3"/>
-    </row>
-    <row r="682" spans="14:14">
+      <c r="O681" s="3"/>
+    </row>
+    <row r="682" spans="14:15">
       <c r="N682" s="3"/>
-    </row>
-    <row r="683" spans="14:14">
+      <c r="O682" s="3"/>
+    </row>
+    <row r="683" spans="14:15">
       <c r="N683" s="3"/>
-    </row>
-    <row r="684" spans="14:14">
+      <c r="O683" s="3"/>
+    </row>
+    <row r="684" spans="14:15">
       <c r="N684" s="3"/>
-    </row>
-    <row r="685" spans="14:14">
+      <c r="O684" s="3"/>
+    </row>
+    <row r="685" spans="14:15">
       <c r="N685" s="3"/>
-    </row>
-    <row r="686" spans="14:14">
+      <c r="O685" s="3"/>
+    </row>
+    <row r="686" spans="14:15">
       <c r="N686" s="3"/>
-    </row>
-    <row r="687" spans="14:14">
+      <c r="O686" s="3"/>
+    </row>
+    <row r="687" spans="14:15">
       <c r="N687" s="3"/>
-    </row>
-    <row r="688" spans="14:14">
+      <c r="O687" s="3"/>
+    </row>
+    <row r="688" spans="14:15">
       <c r="N688" s="3"/>
-    </row>
-    <row r="689" spans="14:14">
+      <c r="O688" s="3"/>
+    </row>
+    <row r="689" spans="14:15">
       <c r="N689" s="3"/>
-    </row>
-    <row r="690" spans="14:14">
+      <c r="O689" s="3"/>
+    </row>
+    <row r="690" spans="14:15">
       <c r="N690" s="3"/>
-    </row>
-    <row r="691" spans="14:14">
+      <c r="O690" s="3"/>
+    </row>
+    <row r="691" spans="14:15">
       <c r="N691" s="3"/>
-    </row>
-    <row r="692" spans="14:14">
+      <c r="O691" s="3"/>
+    </row>
+    <row r="692" spans="14:15">
       <c r="N692" s="3"/>
-    </row>
-    <row r="693" spans="14:14">
+      <c r="O692" s="3"/>
+    </row>
+    <row r="693" spans="14:15">
       <c r="N693" s="3"/>
-    </row>
-    <row r="694" spans="14:14">
+      <c r="O693" s="3"/>
+    </row>
+    <row r="694" spans="14:15">
       <c r="N694" s="3"/>
-    </row>
-    <row r="695" spans="14:14">
+      <c r="O694" s="3"/>
+    </row>
+    <row r="695" spans="14:15">
       <c r="N695" s="3"/>
-    </row>
-    <row r="696" spans="14:14">
+      <c r="O695" s="3"/>
+    </row>
+    <row r="696" spans="14:15">
       <c r="N696" s="3"/>
-    </row>
-    <row r="697" spans="14:14">
+      <c r="O696" s="3"/>
+    </row>
+    <row r="697" spans="14:15">
       <c r="N697" s="3"/>
-    </row>
-    <row r="698" spans="14:14">
+      <c r="O697" s="3"/>
+    </row>
+    <row r="698" spans="14:15">
       <c r="N698" s="3"/>
-    </row>
-    <row r="699" spans="14:14">
+      <c r="O698" s="3"/>
+    </row>
+    <row r="699" spans="14:15">
       <c r="N699" s="3"/>
-    </row>
-    <row r="700" spans="14:14">
+      <c r="O699" s="3"/>
+    </row>
+    <row r="700" spans="14:15">
       <c r="N700" s="3"/>
-    </row>
-    <row r="701" spans="14:14">
+      <c r="O700" s="3"/>
+    </row>
+    <row r="701" spans="14:15">
       <c r="N701" s="3"/>
-    </row>
-    <row r="702" spans="14:14">
+      <c r="O701" s="3"/>
+    </row>
+    <row r="702" spans="14:15">
       <c r="N702" s="3"/>
-    </row>
-    <row r="703" spans="14:14">
+      <c r="O702" s="3"/>
+    </row>
+    <row r="703" spans="14:15">
       <c r="N703" s="3"/>
-    </row>
-    <row r="704" spans="14:14">
+      <c r="O703" s="3"/>
+    </row>
+    <row r="704" spans="14:15">
       <c r="N704" s="3"/>
-    </row>
-    <row r="705" spans="14:14">
+      <c r="O704" s="3"/>
+    </row>
+    <row r="705" spans="14:15">
       <c r="N705" s="3"/>
-    </row>
-    <row r="706" spans="14:14">
+      <c r="O705" s="3"/>
+    </row>
+    <row r="706" spans="14:15">
       <c r="N706" s="3"/>
-    </row>
-    <row r="707" spans="14:14">
+      <c r="O706" s="3"/>
+    </row>
+    <row r="707" spans="14:15">
       <c r="N707" s="3"/>
-    </row>
-    <row r="708" spans="14:14">
+      <c r="O707" s="3"/>
+    </row>
+    <row r="708" spans="14:15">
       <c r="N708" s="3"/>
-    </row>
-    <row r="709" spans="14:14">
+      <c r="O708" s="3"/>
+    </row>
+    <row r="709" spans="14:15">
       <c r="N709" s="3"/>
-    </row>
-    <row r="710" spans="14:14">
+      <c r="O709" s="3"/>
+    </row>
+    <row r="710" spans="14:15">
       <c r="N710" s="3"/>
-    </row>
-    <row r="711" spans="14:14">
+      <c r="O710" s="3"/>
+    </row>
+    <row r="711" spans="14:15">
       <c r="N711" s="3"/>
-    </row>
-    <row r="712" spans="14:14">
+      <c r="O711" s="3"/>
+    </row>
+    <row r="712" spans="14:15">
       <c r="N712" s="3"/>
-    </row>
-    <row r="713" spans="14:14">
+      <c r="O712" s="3"/>
+    </row>
+    <row r="713" spans="14:15">
       <c r="N713" s="3"/>
-    </row>
-    <row r="714" spans="14:14">
+      <c r="O713" s="3"/>
+    </row>
+    <row r="714" spans="14:15">
       <c r="N714" s="3"/>
-    </row>
-    <row r="715" spans="14:14">
+      <c r="O714" s="3"/>
+    </row>
+    <row r="715" spans="14:15">
       <c r="N715" s="3"/>
-    </row>
-    <row r="716" spans="14:14">
+      <c r="O715" s="3"/>
+    </row>
+    <row r="716" spans="14:15">
       <c r="N716" s="3"/>
-    </row>
-    <row r="717" spans="14:14">
+      <c r="O716" s="3"/>
+    </row>
+    <row r="717" spans="14:15">
       <c r="N717" s="3"/>
-    </row>
-    <row r="718" spans="14:14">
+      <c r="O717" s="3"/>
+    </row>
+    <row r="718" spans="14:15">
       <c r="N718" s="3"/>
-    </row>
-    <row r="719" spans="14:14">
+      <c r="O718" s="3"/>
+    </row>
+    <row r="719" spans="14:15">
       <c r="N719" s="3"/>
-    </row>
-    <row r="720" spans="14:14">
+      <c r="O719" s="3"/>
+    </row>
+    <row r="720" spans="14:15">
       <c r="N720" s="3"/>
-    </row>
-    <row r="721" spans="14:14">
+      <c r="O720" s="3"/>
+    </row>
+    <row r="721" spans="14:15">
       <c r="N721" s="3"/>
-    </row>
-    <row r="722" spans="14:14">
+      <c r="O721" s="3"/>
+    </row>
+    <row r="722" spans="14:15">
       <c r="N722" s="3"/>
-    </row>
-    <row r="723" spans="14:14">
+      <c r="O722" s="3"/>
+    </row>
+    <row r="723" spans="14:15">
       <c r="N723" s="3"/>
-    </row>
-    <row r="724" spans="14:14">
+      <c r="O723" s="3"/>
+    </row>
+    <row r="724" spans="14:15">
       <c r="N724" s="3"/>
-    </row>
-    <row r="725" spans="14:14">
+      <c r="O724" s="3"/>
+    </row>
+    <row r="725" spans="14:15">
       <c r="N725" s="3"/>
-    </row>
-    <row r="726" spans="14:14">
+      <c r="O725" s="3"/>
+    </row>
+    <row r="726" spans="14:15">
       <c r="N726" s="3"/>
-    </row>
-    <row r="727" spans="14:14">
+      <c r="O726" s="3"/>
+    </row>
+    <row r="727" spans="14:15">
       <c r="N727" s="3"/>
-    </row>
-    <row r="728" spans="14:14">
+      <c r="O727" s="3"/>
+    </row>
+    <row r="728" spans="14:15">
       <c r="N728" s="3"/>
-    </row>
-    <row r="729" spans="14:14">
+      <c r="O728" s="3"/>
+    </row>
+    <row r="729" spans="14:15">
       <c r="N729" s="3"/>
-    </row>
-    <row r="730" spans="14:14">
+      <c r="O729" s="3"/>
+    </row>
+    <row r="730" spans="14:15">
       <c r="N730" s="3"/>
-    </row>
-    <row r="731" spans="14:14">
+      <c r="O730" s="3"/>
+    </row>
+    <row r="731" spans="14:15">
       <c r="N731" s="3"/>
-    </row>
-    <row r="732" spans="14:14">
+      <c r="O731" s="3"/>
+    </row>
+    <row r="732" spans="14:15">
       <c r="N732" s="3"/>
-    </row>
-    <row r="733" spans="14:14">
+      <c r="O732" s="3"/>
+    </row>
+    <row r="733" spans="14:15">
       <c r="N733" s="3"/>
-    </row>
-    <row r="734" spans="14:14">
+      <c r="O733" s="3"/>
+    </row>
+    <row r="734" spans="14:15">
       <c r="N734" s="3"/>
-    </row>
-    <row r="735" spans="14:14">
+      <c r="O734" s="3"/>
+    </row>
+    <row r="735" spans="14:15">
       <c r="N735" s="3"/>
-    </row>
-    <row r="736" spans="14:14">
+      <c r="O735" s="3"/>
+    </row>
+    <row r="736" spans="14:15">
       <c r="N736" s="3"/>
-    </row>
-    <row r="737" spans="14:14">
+      <c r="O736" s="3"/>
+    </row>
+    <row r="737" spans="14:15">
       <c r="N737" s="3"/>
-    </row>
-    <row r="738" spans="14:14">
+      <c r="O737" s="3"/>
+    </row>
+    <row r="738" spans="14:15">
       <c r="N738" s="3"/>
-    </row>
-    <row r="739" spans="14:14">
+      <c r="O738" s="3"/>
+    </row>
+    <row r="739" spans="14:15">
       <c r="N739" s="3"/>
-    </row>
-    <row r="740" spans="14:14">
+      <c r="O739" s="3"/>
+    </row>
+    <row r="740" spans="14:15">
       <c r="N740" s="3"/>
-    </row>
-    <row r="741" spans="14:14">
+      <c r="O740" s="3"/>
+    </row>
+    <row r="741" spans="14:15">
       <c r="N741" s="3"/>
-    </row>
-    <row r="742" spans="14:14">
+      <c r="O741" s="3"/>
+    </row>
+    <row r="742" spans="14:15">
       <c r="N742" s="3"/>
-    </row>
-    <row r="743" spans="14:14">
+      <c r="O742" s="3"/>
+    </row>
+    <row r="743" spans="14:15">
       <c r="N743" s="3"/>
-    </row>
-    <row r="744" spans="14:14">
+      <c r="O743" s="3"/>
+    </row>
+    <row r="744" spans="14:15">
       <c r="N744" s="3"/>
-    </row>
-    <row r="745" spans="14:14">
+      <c r="O744" s="3"/>
+    </row>
+    <row r="745" spans="14:15">
       <c r="N745" s="3"/>
-    </row>
-    <row r="746" spans="14:14">
+      <c r="O745" s="3"/>
+    </row>
+    <row r="746" spans="14:15">
       <c r="N746" s="3"/>
-    </row>
-    <row r="747" spans="14:14">
+      <c r="O746" s="3"/>
+    </row>
+    <row r="747" spans="14:15">
       <c r="N747" s="3"/>
-    </row>
-    <row r="748" spans="14:14">
+      <c r="O747" s="3"/>
+    </row>
+    <row r="748" spans="14:15">
       <c r="N748" s="3"/>
-    </row>
-    <row r="749" spans="14:14">
+      <c r="O748" s="3"/>
+    </row>
+    <row r="749" spans="14:15">
       <c r="N749" s="3"/>
-    </row>
-    <row r="750" spans="14:14">
+      <c r="O749" s="3"/>
+    </row>
+    <row r="750" spans="14:15">
       <c r="N750" s="3"/>
-    </row>
-    <row r="751" spans="14:14">
+      <c r="O750" s="3"/>
+    </row>
+    <row r="751" spans="14:15">
       <c r="N751" s="3"/>
-    </row>
-    <row r="752" spans="14:14">
+      <c r="O751" s="3"/>
+    </row>
+    <row r="752" spans="14:15">
       <c r="N752" s="3"/>
-    </row>
-    <row r="753" spans="14:14">
+      <c r="O752" s="3"/>
+    </row>
+    <row r="753" spans="14:15">
       <c r="N753" s="3"/>
-    </row>
-    <row r="754" spans="14:14">
+      <c r="O753" s="3"/>
+    </row>
+    <row r="754" spans="14:15">
       <c r="N754" s="3"/>
-    </row>
-    <row r="755" spans="14:14">
+      <c r="O754" s="3"/>
+    </row>
+    <row r="755" spans="14:15">
       <c r="N755" s="3"/>
-    </row>
-    <row r="756" spans="14:14">
+      <c r="O755" s="3"/>
+    </row>
+    <row r="756" spans="14:15">
       <c r="N756" s="3"/>
-    </row>
-    <row r="757" spans="14:14">
+      <c r="O756" s="3"/>
+    </row>
+    <row r="757" spans="14:15">
       <c r="N757" s="3"/>
-    </row>
-    <row r="758" spans="14:14">
+      <c r="O757" s="3"/>
+    </row>
+    <row r="758" spans="14:15">
       <c r="N758" s="3"/>
-    </row>
-    <row r="759" spans="14:14">
+      <c r="O758" s="3"/>
+    </row>
+    <row r="759" spans="14:15">
       <c r="N759" s="3"/>
-    </row>
-    <row r="760" spans="14:14">
+      <c r="O759" s="3"/>
+    </row>
+    <row r="760" spans="14:15">
       <c r="N760" s="3"/>
-    </row>
-    <row r="761" spans="14:14">
+      <c r="O760" s="3"/>
+    </row>
+    <row r="761" spans="14:15">
       <c r="N761" s="3"/>
-    </row>
-    <row r="762" spans="14:14">
+      <c r="O761" s="3"/>
+    </row>
+    <row r="762" spans="14:15">
       <c r="N762" s="3"/>
-    </row>
-    <row r="763" spans="14:14">
+      <c r="O762" s="3"/>
+    </row>
+    <row r="763" spans="14:15">
       <c r="N763" s="3"/>
-    </row>
-    <row r="764" spans="14:14">
+      <c r="O763" s="3"/>
+    </row>
+    <row r="764" spans="14:15">
       <c r="N764" s="3"/>
-    </row>
-    <row r="765" spans="14:14">
+      <c r="O764" s="3"/>
+    </row>
+    <row r="765" spans="14:15">
       <c r="N765" s="3"/>
-    </row>
-    <row r="766" spans="14:14">
+      <c r="O765" s="3"/>
+    </row>
+    <row r="766" spans="14:15">
       <c r="N766" s="3"/>
-    </row>
-    <row r="767" spans="14:14">
+      <c r="O766" s="3"/>
+    </row>
+    <row r="767" spans="14:15">
       <c r="N767" s="3"/>
-    </row>
-    <row r="768" spans="14:14">
+      <c r="O767" s="3"/>
+    </row>
+    <row r="768" spans="14:15">
       <c r="N768" s="3"/>
-    </row>
-    <row r="769" spans="14:14">
+      <c r="O768" s="3"/>
+    </row>
+    <row r="769" spans="14:15">
       <c r="N769" s="3"/>
-    </row>
-    <row r="770" spans="14:14">
+      <c r="O769" s="3"/>
+    </row>
+    <row r="770" spans="14:15">
       <c r="N770" s="3"/>
-    </row>
-    <row r="771" spans="14:14">
+      <c r="O770" s="3"/>
+    </row>
+    <row r="771" spans="14:15">
       <c r="N771" s="3"/>
-    </row>
-    <row r="772" spans="14:14">
+      <c r="O771" s="3"/>
+    </row>
+    <row r="772" spans="14:15">
       <c r="N772" s="3"/>
-    </row>
-    <row r="773" spans="14:14">
+      <c r="O772" s="3"/>
+    </row>
+    <row r="773" spans="14:15">
       <c r="N773" s="3"/>
-    </row>
-    <row r="774" spans="14:14">
+      <c r="O773" s="3"/>
+    </row>
+    <row r="774" spans="14:15">
       <c r="N774" s="3"/>
-    </row>
-    <row r="775" spans="14:14">
+      <c r="O774" s="3"/>
+    </row>
+    <row r="775" spans="14:15">
       <c r="N775" s="3"/>
-    </row>
-    <row r="776" spans="14:14">
+      <c r="O775" s="3"/>
+    </row>
+    <row r="776" spans="14:15">
       <c r="N776" s="3"/>
-    </row>
-    <row r="777" spans="14:14">
+      <c r="O776" s="3"/>
+    </row>
+    <row r="777" spans="14:15">
       <c r="N777" s="3"/>
-    </row>
-    <row r="778" spans="14:14">
+      <c r="O777" s="3"/>
+    </row>
+    <row r="778" spans="14:15">
       <c r="N778" s="3"/>
-    </row>
-    <row r="779" spans="14:14">
+      <c r="O778" s="3"/>
+    </row>
+    <row r="779" spans="14:15">
       <c r="N779" s="3"/>
-    </row>
-    <row r="780" spans="14:14">
+      <c r="O779" s="3"/>
+    </row>
+    <row r="780" spans="14:15">
       <c r="N780" s="3"/>
-    </row>
-    <row r="781" spans="14:14">
+      <c r="O780" s="3"/>
+    </row>
+    <row r="781" spans="14:15">
       <c r="N781" s="3"/>
-    </row>
-    <row r="782" spans="14:14">
+      <c r="O781" s="3"/>
+    </row>
+    <row r="782" spans="14:15">
       <c r="N782" s="3"/>
-    </row>
-    <row r="783" spans="14:14">
+      <c r="O782" s="3"/>
+    </row>
+    <row r="783" spans="14:15">
       <c r="N783" s="3"/>
-    </row>
-    <row r="784" spans="14:14">
+      <c r="O783" s="3"/>
+    </row>
+    <row r="784" spans="14:15">
       <c r="N784" s="3"/>
-    </row>
-    <row r="785" spans="14:14">
+      <c r="O784" s="3"/>
+    </row>
+    <row r="785" spans="14:15">
       <c r="N785" s="3"/>
-    </row>
-    <row r="786" spans="14:14">
+      <c r="O785" s="3"/>
+    </row>
+    <row r="786" spans="14:15">
       <c r="N786" s="3"/>
-    </row>
-    <row r="787" spans="14:14">
+      <c r="O786" s="3"/>
+    </row>
+    <row r="787" spans="14:15">
       <c r="N787" s="3"/>
-    </row>
-    <row r="788" spans="14:14">
+      <c r="O787" s="3"/>
+    </row>
+    <row r="788" spans="14:15">
       <c r="N788" s="3"/>
-    </row>
-    <row r="789" spans="14:14">
+      <c r="O788" s="3"/>
+    </row>
+    <row r="789" spans="14:15">
       <c r="N789" s="3"/>
-    </row>
-    <row r="790" spans="14:14">
+      <c r="O789" s="3"/>
+    </row>
+    <row r="790" spans="14:15">
       <c r="N790" s="3"/>
-    </row>
-    <row r="791" spans="14:14">
+      <c r="O790" s="3"/>
+    </row>
+    <row r="791" spans="14:15">
       <c r="N791" s="3"/>
-    </row>
-    <row r="792" spans="14:14">
+      <c r="O791" s="3"/>
+    </row>
+    <row r="792" spans="14:15">
       <c r="N792" s="3"/>
-    </row>
-    <row r="793" spans="14:14">
+      <c r="O792" s="3"/>
+    </row>
+    <row r="793" spans="14:15">
       <c r="N793" s="3"/>
-    </row>
-    <row r="794" spans="14:14">
+      <c r="O793" s="3"/>
+    </row>
+    <row r="794" spans="14:15">
       <c r="N794" s="3"/>
-    </row>
-    <row r="795" spans="14:14">
+      <c r="O794" s="3"/>
+    </row>
+    <row r="795" spans="14:15">
       <c r="N795" s="3"/>
-    </row>
-    <row r="796" spans="14:14">
+      <c r="O795" s="3"/>
+    </row>
+    <row r="796" spans="14:15">
       <c r="N796" s="3"/>
-    </row>
-    <row r="797" spans="14:14">
+      <c r="O796" s="3"/>
+    </row>
+    <row r="797" spans="14:15">
       <c r="N797" s="3"/>
-    </row>
-    <row r="798" spans="14:14">
+      <c r="O797" s="3"/>
+    </row>
+    <row r="798" spans="14:15">
       <c r="N798" s="3"/>
-    </row>
-    <row r="799" spans="14:14">
+      <c r="O798" s="3"/>
+    </row>
+    <row r="799" spans="14:15">
       <c r="N799" s="3"/>
-    </row>
-    <row r="800" spans="14:14">
+      <c r="O799" s="3"/>
+    </row>
+    <row r="800" spans="14:15">
       <c r="N800" s="3"/>
-    </row>
-    <row r="801" spans="14:14">
+      <c r="O800" s="3"/>
+    </row>
+    <row r="801" spans="14:15">
       <c r="N801" s="3"/>
-    </row>
-    <row r="802" spans="14:14">
+      <c r="O801" s="3"/>
+    </row>
+    <row r="802" spans="14:15">
       <c r="N802" s="3"/>
-    </row>
-    <row r="803" spans="14:14">
+      <c r="O802" s="3"/>
+    </row>
+    <row r="803" spans="14:15">
       <c r="N803" s="3"/>
-    </row>
-    <row r="804" spans="14:14">
+      <c r="O803" s="3"/>
+    </row>
+    <row r="804" spans="14:15">
       <c r="N804" s="3"/>
-    </row>
-    <row r="805" spans="14:14">
+      <c r="O804" s="3"/>
+    </row>
+    <row r="805" spans="14:15">
       <c r="N805" s="3"/>
-    </row>
-    <row r="806" spans="14:14">
+      <c r="O805" s="3"/>
+    </row>
+    <row r="806" spans="14:15">
       <c r="N806" s="3"/>
-    </row>
-    <row r="807" spans="14:14">
+      <c r="O806" s="3"/>
+    </row>
+    <row r="807" spans="14:15">
       <c r="N807" s="3"/>
-    </row>
-    <row r="808" spans="14:14">
+      <c r="O807" s="3"/>
+    </row>
+    <row r="808" spans="14:15">
       <c r="N808" s="3"/>
-    </row>
-    <row r="809" spans="14:14">
+      <c r="O808" s="3"/>
+    </row>
+    <row r="809" spans="14:15">
       <c r="N809" s="3"/>
-    </row>
-    <row r="810" spans="14:14">
+      <c r="O809" s="3"/>
+    </row>
+    <row r="810" spans="14:15">
       <c r="N810" s="3"/>
-    </row>
-    <row r="811" spans="14:14">
+      <c r="O810" s="3"/>
+    </row>
+    <row r="811" spans="14:15">
       <c r="N811" s="3"/>
-    </row>
-    <row r="812" spans="14:14">
+      <c r="O811" s="3"/>
+    </row>
+    <row r="812" spans="14:15">
       <c r="N812" s="3"/>
-    </row>
-    <row r="813" spans="14:14">
+      <c r="O812" s="3"/>
+    </row>
+    <row r="813" spans="14:15">
       <c r="N813" s="3"/>
-    </row>
-    <row r="814" spans="14:14">
+      <c r="O813" s="3"/>
+    </row>
+    <row r="814" spans="14:15">
       <c r="N814" s="3"/>
-    </row>
-    <row r="815" spans="14:14">
+      <c r="O814" s="3"/>
+    </row>
+    <row r="815" spans="14:15">
       <c r="N815" s="3"/>
-    </row>
-    <row r="816" spans="14:14">
+      <c r="O815" s="3"/>
+    </row>
+    <row r="816" spans="14:15">
       <c r="N816" s="3"/>
-    </row>
-    <row r="817" spans="14:14">
+      <c r="O816" s="3"/>
+    </row>
+    <row r="817" spans="14:15">
       <c r="N817" s="3"/>
-    </row>
-    <row r="818" spans="14:14">
+      <c r="O817" s="3"/>
+    </row>
+    <row r="818" spans="14:15">
       <c r="N818" s="3"/>
-    </row>
-    <row r="819" spans="14:14">
+      <c r="O818" s="3"/>
+    </row>
+    <row r="819" spans="14:15">
       <c r="N819" s="3"/>
-    </row>
-    <row r="820" spans="14:14">
+      <c r="O819" s="3"/>
+    </row>
+    <row r="820" spans="14:15">
       <c r="N820" s="3"/>
-    </row>
-    <row r="821" spans="14:14">
+      <c r="O820" s="3"/>
+    </row>
+    <row r="821" spans="14:15">
       <c r="N821" s="3"/>
-    </row>
-    <row r="822" spans="14:14">
+      <c r="O821" s="3"/>
+    </row>
+    <row r="822" spans="14:15">
       <c r="N822" s="3"/>
-    </row>
-    <row r="823" spans="14:14">
+      <c r="O822" s="3"/>
+    </row>
+    <row r="823" spans="14:15">
       <c r="N823" s="3"/>
-    </row>
-    <row r="824" spans="14:14">
+      <c r="O823" s="3"/>
+    </row>
+    <row r="824" spans="14:15">
       <c r="N824" s="3"/>
-    </row>
-    <row r="825" spans="14:14">
+      <c r="O824" s="3"/>
+    </row>
+    <row r="825" spans="14:15">
       <c r="N825" s="3"/>
-    </row>
-    <row r="826" spans="14:14">
+      <c r="O825" s="3"/>
+    </row>
+    <row r="826" spans="14:15">
       <c r="N826" s="3"/>
-    </row>
-    <row r="827" spans="14:14">
+      <c r="O826" s="3"/>
+    </row>
+    <row r="827" spans="14:15">
       <c r="N827" s="3"/>
-    </row>
-    <row r="828" spans="14:14">
+      <c r="O827" s="3"/>
+    </row>
+    <row r="828" spans="14:15">
       <c r="N828" s="3"/>
-    </row>
-    <row r="829" spans="14:14">
+      <c r="O828" s="3"/>
+    </row>
+    <row r="829" spans="14:15">
       <c r="N829" s="3"/>
-    </row>
-    <row r="830" spans="14:14">
+      <c r="O829" s="3"/>
+    </row>
+    <row r="830" spans="14:15">
       <c r="N830" s="3"/>
-    </row>
-    <row r="831" spans="14:14">
+      <c r="O830" s="3"/>
+    </row>
+    <row r="831" spans="14:15">
       <c r="N831" s="3"/>
-    </row>
-    <row r="832" spans="14:14">
+      <c r="O831" s="3"/>
+    </row>
+    <row r="832" spans="14:15">
       <c r="N832" s="3"/>
-    </row>
-    <row r="833" spans="14:14">
+      <c r="O832" s="3"/>
+    </row>
+    <row r="833" spans="14:15">
       <c r="N833" s="3"/>
-    </row>
-    <row r="834" spans="14:14">
+      <c r="O833" s="3"/>
+    </row>
+    <row r="834" spans="14:15">
       <c r="N834" s="3"/>
-    </row>
-    <row r="835" spans="14:14">
+      <c r="O834" s="3"/>
+    </row>
+    <row r="835" spans="14:15">
       <c r="N835" s="3"/>
-    </row>
-    <row r="836" spans="14:14">
+      <c r="O835" s="3"/>
+    </row>
+    <row r="836" spans="14:15">
       <c r="N836" s="3"/>
-    </row>
-    <row r="837" spans="14:14">
+      <c r="O836" s="3"/>
+    </row>
+    <row r="837" spans="14:15">
       <c r="N837" s="3"/>
-    </row>
-    <row r="838" spans="14:14">
+      <c r="O837" s="3"/>
+    </row>
+    <row r="838" spans="14:15">
       <c r="N838" s="3"/>
-    </row>
-    <row r="839" spans="14:14">
+      <c r="O838" s="3"/>
+    </row>
+    <row r="839" spans="14:15">
       <c r="N839" s="3"/>
-    </row>
-    <row r="840" spans="14:14">
+      <c r="O839" s="3"/>
+    </row>
+    <row r="840" spans="14:15">
       <c r="N840" s="3"/>
-    </row>
-    <row r="841" spans="14:14">
+      <c r="O840" s="3"/>
+    </row>
+    <row r="841" spans="14:15">
       <c r="N841" s="3"/>
-    </row>
-    <row r="842" spans="14:14">
+      <c r="O841" s="3"/>
+    </row>
+    <row r="842" spans="14:15">
       <c r="N842" s="3"/>
-    </row>
-    <row r="843" spans="14:14">
+      <c r="O842" s="3"/>
+    </row>
+    <row r="843" spans="14:15">
       <c r="N843" s="3"/>
-    </row>
-    <row r="844" spans="14:14">
+      <c r="O843" s="3"/>
+    </row>
+    <row r="844" spans="14:15">
       <c r="N844" s="3"/>
-    </row>
-    <row r="845" spans="14:14">
+      <c r="O844" s="3"/>
+    </row>
+    <row r="845" spans="14:15">
       <c r="N845" s="3"/>
-    </row>
-    <row r="846" spans="14:14">
+      <c r="O845" s="3"/>
+    </row>
+    <row r="846" spans="14:15">
       <c r="N846" s="3"/>
-    </row>
-    <row r="847" spans="14:14">
+      <c r="O846" s="3"/>
+    </row>
+    <row r="847" spans="14:15">
       <c r="N847" s="3"/>
-    </row>
-    <row r="848" spans="14:14">
+      <c r="O847" s="3"/>
+    </row>
+    <row r="848" spans="14:15">
       <c r="N848" s="3"/>
-    </row>
-    <row r="849" spans="14:14">
+      <c r="O848" s="3"/>
+    </row>
+    <row r="849" spans="14:15">
       <c r="N849" s="3"/>
-    </row>
-    <row r="850" spans="14:14">
+      <c r="O849" s="3"/>
+    </row>
+    <row r="850" spans="14:15">
       <c r="N850" s="3"/>
-    </row>
-    <row r="851" spans="14:14">
+      <c r="O850" s="3"/>
+    </row>
+    <row r="851" spans="14:15">
       <c r="N851" s="3"/>
-    </row>
-    <row r="852" spans="14:14">
+      <c r="O851" s="3"/>
+    </row>
+    <row r="852" spans="14:15">
       <c r="N852" s="3"/>
-    </row>
-    <row r="853" spans="14:14">
+      <c r="O852" s="3"/>
+    </row>
+    <row r="853" spans="14:15">
       <c r="N853" s="3"/>
-    </row>
-    <row r="854" spans="14:14">
+      <c r="O853" s="3"/>
+    </row>
+    <row r="854" spans="14:15">
       <c r="N854" s="3"/>
-    </row>
-    <row r="855" spans="14:14">
+      <c r="O854" s="3"/>
+    </row>
+    <row r="855" spans="14:15">
       <c r="N855" s="3"/>
-    </row>
-    <row r="856" spans="14:14">
+      <c r="O855" s="3"/>
+    </row>
+    <row r="856" spans="14:15">
       <c r="N856" s="3"/>
-    </row>
-    <row r="857" spans="14:14">
+      <c r="O856" s="3"/>
+    </row>
+    <row r="857" spans="14:15">
       <c r="N857" s="3"/>
-    </row>
-    <row r="858" spans="14:14">
+      <c r="O857" s="3"/>
+    </row>
+    <row r="858" spans="14:15">
       <c r="N858" s="3"/>
-    </row>
-    <row r="859" spans="14:14">
+      <c r="O858" s="3"/>
+    </row>
+    <row r="859" spans="14:15">
       <c r="N859" s="3"/>
-    </row>
-    <row r="860" spans="14:14">
+      <c r="O859" s="3"/>
+    </row>
+    <row r="860" spans="14:15">
       <c r="N860" s="3"/>
-    </row>
-    <row r="861" spans="14:14">
+      <c r="O860" s="3"/>
+    </row>
+    <row r="861" spans="14:15">
       <c r="N861" s="3"/>
-    </row>
-    <row r="862" spans="14:14">
+      <c r="O861" s="3"/>
+    </row>
+    <row r="862" spans="14:15">
       <c r="N862" s="3"/>
-    </row>
-    <row r="863" spans="14:14">
+      <c r="O862" s="3"/>
+    </row>
+    <row r="863" spans="14:15">
       <c r="N863" s="3"/>
-    </row>
-    <row r="864" spans="14:14">
+      <c r="O863" s="3"/>
+    </row>
+    <row r="864" spans="14:15">
       <c r="N864" s="3"/>
-    </row>
-    <row r="865" spans="14:14">
+      <c r="O864" s="3"/>
+    </row>
+    <row r="865" spans="14:15">
       <c r="N865" s="3"/>
-    </row>
-    <row r="866" spans="14:14">
+      <c r="O865" s="3"/>
+    </row>
+    <row r="866" spans="14:15">
       <c r="N866" s="3"/>
-    </row>
-    <row r="867" spans="14:14">
+      <c r="O866" s="3"/>
+    </row>
+    <row r="867" spans="14:15">
       <c r="N867" s="3"/>
-    </row>
-    <row r="868" spans="14:14">
+      <c r="O867" s="3"/>
+    </row>
+    <row r="868" spans="14:15">
       <c r="N868" s="3"/>
-    </row>
-    <row r="869" spans="14:14">
+      <c r="O868" s="3"/>
+    </row>
+    <row r="869" spans="14:15">
       <c r="N869" s="3"/>
-    </row>
-    <row r="870" spans="14:14">
+      <c r="O869" s="3"/>
+    </row>
+    <row r="870" spans="14:15">
       <c r="N870" s="3"/>
-    </row>
-    <row r="871" spans="14:14">
+      <c r="O870" s="3"/>
+    </row>
+    <row r="871" spans="14:15">
       <c r="N871" s="3"/>
-    </row>
-    <row r="872" spans="14:14">
+      <c r="O871" s="3"/>
+    </row>
+    <row r="872" spans="14:15">
       <c r="N872" s="3"/>
-    </row>
-    <row r="873" spans="14:14">
+      <c r="O872" s="3"/>
+    </row>
+    <row r="873" spans="14:15">
       <c r="N873" s="3"/>
-    </row>
-    <row r="874" spans="14:14">
+      <c r="O873" s="3"/>
+    </row>
+    <row r="874" spans="14:15">
       <c r="N874" s="3"/>
-    </row>
-    <row r="875" spans="14:14">
+      <c r="O874" s="3"/>
+    </row>
+    <row r="875" spans="14:15">
       <c r="N875" s="3"/>
-    </row>
-    <row r="876" spans="14:14">
+      <c r="O875" s="3"/>
+    </row>
+    <row r="876" spans="14:15">
       <c r="N876" s="3"/>
-    </row>
-    <row r="877" spans="14:14">
+      <c r="O876" s="3"/>
+    </row>
+    <row r="877" spans="14:15">
       <c r="N877" s="3"/>
-    </row>
-    <row r="878" spans="14:14">
+      <c r="O877" s="3"/>
+    </row>
+    <row r="878" spans="14:15">
       <c r="N878" s="3"/>
-    </row>
-    <row r="879" spans="14:14">
+      <c r="O878" s="3"/>
+    </row>
+    <row r="879" spans="14:15">
       <c r="N879" s="3"/>
-    </row>
-    <row r="880" spans="14:14">
+      <c r="O879" s="3"/>
+    </row>
+    <row r="880" spans="14:15">
       <c r="N880" s="3"/>
-    </row>
-    <row r="881" spans="14:14">
+      <c r="O880" s="3"/>
+    </row>
+    <row r="881" spans="14:15">
       <c r="N881" s="3"/>
-    </row>
-    <row r="882" spans="14:14">
+      <c r="O881" s="3"/>
+    </row>
+    <row r="882" spans="14:15">
       <c r="N882" s="3"/>
-    </row>
-    <row r="883" spans="14:14">
+      <c r="O882" s="3"/>
+    </row>
+    <row r="883" spans="14:15">
       <c r="N883" s="3"/>
-    </row>
-    <row r="884" spans="14:14">
+      <c r="O883" s="3"/>
+    </row>
+    <row r="884" spans="14:15">
       <c r="N884" s="3"/>
-    </row>
-    <row r="885" spans="14:14">
+      <c r="O884" s="3"/>
+    </row>
+    <row r="885" spans="14:15">
       <c r="N885" s="3"/>
-    </row>
-    <row r="886" spans="14:14">
+      <c r="O885" s="3"/>
+    </row>
+    <row r="886" spans="14:15">
       <c r="N886" s="3"/>
-    </row>
-    <row r="887" spans="14:14">
+      <c r="O886" s="3"/>
+    </row>
+    <row r="887" spans="14:15">
       <c r="N887" s="3"/>
-    </row>
-    <row r="888" spans="14:14">
+      <c r="O887" s="3"/>
+    </row>
+    <row r="888" spans="14:15">
       <c r="N888" s="3"/>
-    </row>
-    <row r="889" spans="14:14">
+      <c r="O888" s="3"/>
+    </row>
+    <row r="889" spans="14:15">
       <c r="N889" s="3"/>
-    </row>
-    <row r="890" spans="14:14">
+      <c r="O889" s="3"/>
+    </row>
+    <row r="890" spans="14:15">
       <c r="N890" s="3"/>
-    </row>
-    <row r="891" spans="14:14">
+      <c r="O890" s="3"/>
+    </row>
+    <row r="891" spans="14:15">
       <c r="N891" s="3"/>
-    </row>
-    <row r="892" spans="14:14">
+      <c r="O891" s="3"/>
+    </row>
+    <row r="892" spans="14:15">
       <c r="N892" s="3"/>
-    </row>
-    <row r="893" spans="14:14">
+      <c r="O892" s="3"/>
+    </row>
+    <row r="893" spans="14:15">
       <c r="N893" s="3"/>
-    </row>
-    <row r="894" spans="14:14">
+      <c r="O893" s="3"/>
+    </row>
+    <row r="894" spans="14:15">
       <c r="N894" s="3"/>
-    </row>
-    <row r="895" spans="14:14">
+      <c r="O894" s="3"/>
+    </row>
+    <row r="895" spans="14:15">
       <c r="N895" s="3"/>
-    </row>
-    <row r="896" spans="14:14">
+      <c r="O895" s="3"/>
+    </row>
+    <row r="896" spans="14:15">
       <c r="N896" s="3"/>
-    </row>
-    <row r="897" spans="14:14">
+      <c r="O896" s="3"/>
+    </row>
+    <row r="897" spans="14:15">
       <c r="N897" s="3"/>
-    </row>
-    <row r="898" spans="14:14">
+      <c r="O897" s="3"/>
+    </row>
+    <row r="898" spans="14:15">
       <c r="N898" s="3"/>
-    </row>
-    <row r="899" spans="14:14">
+      <c r="O898" s="3"/>
+    </row>
+    <row r="899" spans="14:15">
       <c r="N899" s="3"/>
-    </row>
-    <row r="900" spans="14:14">
+      <c r="O899" s="3"/>
+    </row>
+    <row r="900" spans="14:15">
       <c r="N900" s="3"/>
-    </row>
-    <row r="901" spans="14:14">
+      <c r="O900" s="3"/>
+    </row>
+    <row r="901" spans="14:15">
       <c r="N901" s="3"/>
-    </row>
-    <row r="902" spans="14:14">
+      <c r="O901" s="3"/>
+    </row>
+    <row r="902" spans="14:15">
       <c r="N902" s="3"/>
-    </row>
-    <row r="903" spans="14:14">
+      <c r="O902" s="3"/>
+    </row>
+    <row r="903" spans="14:15">
       <c r="N903" s="3"/>
-    </row>
-    <row r="904" spans="14:14">
+      <c r="O903" s="3"/>
+    </row>
+    <row r="904" spans="14:15">
       <c r="N904" s="3"/>
-    </row>
-    <row r="905" spans="14:14">
+      <c r="O904" s="3"/>
+    </row>
+    <row r="905" spans="14:15">
       <c r="N905" s="3"/>
-    </row>
-    <row r="906" spans="14:14">
+      <c r="O905" s="3"/>
+    </row>
+    <row r="906" spans="14:15">
       <c r="N906" s="3"/>
-    </row>
-    <row r="907" spans="14:14">
+      <c r="O906" s="3"/>
+    </row>
+    <row r="907" spans="14:15">
       <c r="N907" s="3"/>
-    </row>
-    <row r="908" spans="14:14">
+      <c r="O907" s="3"/>
+    </row>
+    <row r="908" spans="14:15">
       <c r="N908" s="3"/>
-    </row>
-    <row r="909" spans="14:14">
+      <c r="O908" s="3"/>
+    </row>
+    <row r="909" spans="14:15">
       <c r="N909" s="3"/>
-    </row>
-    <row r="910" spans="14:14">
+      <c r="O909" s="3"/>
+    </row>
+    <row r="910" spans="14:15">
       <c r="N910" s="3"/>
-    </row>
-    <row r="911" spans="14:14">
+      <c r="O910" s="3"/>
+    </row>
+    <row r="911" spans="14:15">
       <c r="N911" s="3"/>
-    </row>
-    <row r="912" spans="14:14">
+      <c r="O911" s="3"/>
+    </row>
+    <row r="912" spans="14:15">
       <c r="N912" s="3"/>
-    </row>
-    <row r="913" spans="14:14">
+      <c r="O912" s="3"/>
+    </row>
+    <row r="913" spans="14:15">
       <c r="N913" s="3"/>
-    </row>
-    <row r="914" spans="14:14">
+      <c r="O913" s="3"/>
+    </row>
+    <row r="914" spans="14:15">
       <c r="N914" s="3"/>
-    </row>
-    <row r="915" spans="14:14">
+      <c r="O914" s="3"/>
+    </row>
+    <row r="915" spans="14:15">
       <c r="N915" s="3"/>
-    </row>
-    <row r="916" spans="14:14">
+      <c r="O915" s="3"/>
+    </row>
+    <row r="916" spans="14:15">
       <c r="N916" s="3"/>
-    </row>
-    <row r="917" spans="14:14">
+      <c r="O916" s="3"/>
+    </row>
+    <row r="917" spans="14:15">
       <c r="N917" s="3"/>
-    </row>
-    <row r="918" spans="14:14">
+      <c r="O917" s="3"/>
+    </row>
+    <row r="918" spans="14:15">
       <c r="N918" s="3"/>
-    </row>
-    <row r="919" spans="14:14">
+      <c r="O918" s="3"/>
+    </row>
+    <row r="919" spans="14:15">
       <c r="N919" s="3"/>
-    </row>
-    <row r="920" spans="14:14">
+      <c r="O919" s="3"/>
+    </row>
+    <row r="920" spans="14:15">
       <c r="N920" s="3"/>
-    </row>
-    <row r="921" spans="14:14">
+      <c r="O920" s="3"/>
+    </row>
+    <row r="921" spans="14:15">
       <c r="N921" s="3"/>
-    </row>
-    <row r="922" spans="14:14">
+      <c r="O921" s="3"/>
+    </row>
+    <row r="922" spans="14:15">
       <c r="N922" s="3"/>
-    </row>
-    <row r="923" spans="14:14">
+      <c r="O922" s="3"/>
+    </row>
+    <row r="923" spans="14:15">
       <c r="N923" s="3"/>
-    </row>
-    <row r="924" spans="14:14">
+      <c r="O923" s="3"/>
+    </row>
+    <row r="924" spans="14:15">
       <c r="N924" s="3"/>
-    </row>
-    <row r="925" spans="14:14">
+      <c r="O924" s="3"/>
+    </row>
+    <row r="925" spans="14:15">
       <c r="N925" s="3"/>
-    </row>
-    <row r="926" spans="14:14">
+      <c r="O925" s="3"/>
+    </row>
+    <row r="926" spans="14:15">
       <c r="N926" s="3"/>
-    </row>
-    <row r="927" spans="14:14">
+      <c r="O926" s="3"/>
+    </row>
+    <row r="927" spans="14:15">
       <c r="N927" s="3"/>
-    </row>
-    <row r="928" spans="14:14">
+      <c r="O927" s="3"/>
+    </row>
+    <row r="928" spans="14:15">
       <c r="N928" s="3"/>
-    </row>
-    <row r="929" spans="14:14">
+      <c r="O928" s="3"/>
+    </row>
+    <row r="929" spans="14:15">
       <c r="N929" s="3"/>
-    </row>
-    <row r="930" spans="14:14">
+      <c r="O929" s="3"/>
+    </row>
+    <row r="930" spans="14:15">
       <c r="N930" s="3"/>
-    </row>
-    <row r="931" spans="14:14">
+      <c r="O930" s="3"/>
+    </row>
+    <row r="931" spans="14:15">
       <c r="N931" s="3"/>
-    </row>
-    <row r="932" spans="14:14">
+      <c r="O931" s="3"/>
+    </row>
+    <row r="932" spans="14:15">
       <c r="N932" s="3"/>
-    </row>
-    <row r="933" spans="14:14">
+      <c r="O932" s="3"/>
+    </row>
+    <row r="933" spans="14:15">
       <c r="N933" s="3"/>
-    </row>
-    <row r="934" spans="14:14">
+      <c r="O933" s="3"/>
+    </row>
+    <row r="934" spans="14:15">
       <c r="N934" s="3"/>
-    </row>
-    <row r="935" spans="14:14">
+      <c r="O934" s="3"/>
+    </row>
+    <row r="935" spans="14:15">
       <c r="N935" s="3"/>
-    </row>
-    <row r="936" spans="14:14">
+      <c r="O935" s="3"/>
+    </row>
+    <row r="936" spans="14:15">
       <c r="N936" s="3"/>
-    </row>
-    <row r="937" spans="14:14">
+      <c r="O936" s="3"/>
+    </row>
+    <row r="937" spans="14:15">
       <c r="N937" s="3"/>
+      <c r="O937" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13346,13 +15715,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5"/>
@@ -13570,7 +15939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" customHeight="1">
+    <row r="13" spans="1:5" ht="58.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>57</v>
       </c>
@@ -13585,6 +15954,34 @@
       </c>
       <c r="E13" s="7" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="58.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="58.5" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -237,12 +237,24 @@
   <si>
     <t>Closing Price - Nominal</t>
   </si>
+  <si>
+    <t>Mich5Y</t>
+  </si>
+  <si>
+    <t>TFPUtil</t>
+  </si>
+  <si>
+    <t>Utilization</t>
+  </si>
+  <si>
+    <t>Mich1Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +309,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -342,7 +362,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +392,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -656,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P937"/>
+  <dimension ref="A1:T937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="M101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -672,11 +698,14 @@
     <col min="3" max="12" width="22" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="3" customWidth="1"/>
     <col min="14" max="15" width="21.5703125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
+    <col min="16" max="16" width="20.85546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="9" customWidth="1"/>
+    <col min="19" max="20" width="22.140625" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>63</v>
@@ -725,8 +754,20 @@
       <c r="P1" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -775,8 +816,20 @@
       <c r="P2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="2">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -825,8 +878,20 @@
       <c r="P3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -875,8 +940,20 @@
       <c r="P4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>17</v>
+      </c>
+      <c r="S4" s="2">
+        <v>18</v>
+      </c>
+      <c r="T4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,8 +1002,20 @@
       <c r="P5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="2">
+        <v>16</v>
+      </c>
+      <c r="R5" s="2">
+        <v>17</v>
+      </c>
+      <c r="S5" s="2">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="B6" s="4">
         <v>1950</v>
       </c>
@@ -957,8 +1046,14 @@
       <c r="P6" s="10">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="R6" s="10">
+        <v>0.26792895496178376</v>
+      </c>
+      <c r="S6" s="10">
+        <v>-0.11431313472008581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="B7" s="4">
         <v>1950.25</v>
       </c>
@@ -989,8 +1084,14 @@
       <c r="P7" s="10">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="R7" s="10">
+        <v>0.34926337466525692</v>
+      </c>
+      <c r="S7" s="10">
+        <v>-2.2894475299317971E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8" s="4">
         <v>1950.5</v>
       </c>
@@ -1021,8 +1122,14 @@
       <c r="P8" s="10">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8" s="10">
+        <v>0.43056199934654671</v>
+      </c>
+      <c r="S8" s="10">
+        <v>5.9200624915389521E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9" s="4">
         <v>1950.75</v>
       </c>
@@ -1053,8 +1160,14 @@
       <c r="P9" s="10">
         <v>20.299999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="R9" s="10">
+        <v>0.44106827357391404</v>
+      </c>
+      <c r="S9" s="10">
+        <v>6.3127903890477968E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="B10" s="4">
         <v>1951</v>
       </c>
@@ -1085,8 +1198,14 @@
       <c r="P10" s="10">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10" s="10">
+        <v>0.41779292236516175</v>
+      </c>
+      <c r="S10" s="10">
+        <v>6.8106865509809711E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="B11" s="4">
         <v>1951.25</v>
       </c>
@@ -1117,8 +1236,14 @@
       <c r="P11" s="10">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="R11" s="10">
+        <v>0.42721935113087778</v>
+      </c>
+      <c r="S11" s="10">
+        <v>9.7488465004791219E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="B12" s="4">
         <v>1951.5</v>
       </c>
@@ -1149,8 +1274,14 @@
       <c r="P12" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="R12" s="10">
+        <v>0.50139715259317597</v>
+      </c>
+      <c r="S12" s="10">
+        <v>6.0856412442280378E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="B13" s="4">
         <v>1951.75</v>
       </c>
@@ -1181,8 +1312,14 @@
       <c r="P13" s="10">
         <v>23.400000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="R13" s="10">
+        <v>0.49413727658776063</v>
+      </c>
+      <c r="S13" s="10">
+        <v>6.7322906534108176E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14" s="4">
         <v>1952</v>
       </c>
@@ -1216,8 +1353,14 @@
       <c r="P14" s="10">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="R14" s="10">
+        <v>0.49520076337791635</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.11976733748280652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15" s="4">
         <v>1952.25</v>
       </c>
@@ -1251,8 +1394,14 @@
       <c r="P15" s="10">
         <v>24.400000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="R15" s="10">
+        <v>0.51586636964037835</v>
+      </c>
+      <c r="S15" s="10">
+        <v>5.8630031929538778E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="B16" s="4">
         <v>1952.5</v>
       </c>
@@ -1286,8 +1435,14 @@
       <c r="P16" s="10">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="R16" s="10">
+        <v>0.52514771079537836</v>
+      </c>
+      <c r="S16" s="10">
+        <v>9.6876224119912549E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" s="4">
         <v>1952.75</v>
       </c>
@@ -1321,8 +1476,14 @@
       <c r="P17" s="10">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
+      <c r="R17" s="10">
+        <v>0.5980694000101423</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0.17188637199025875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" s="4">
         <v>1953</v>
       </c>
@@ -1356,8 +1517,14 @@
       <c r="P18" s="10">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="R18" s="10">
+        <v>0.64853967266024548</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0.13352623987310855</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" s="4">
         <v>1953.25</v>
       </c>
@@ -1391,8 +1558,14 @@
       <c r="P19" s="10">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="R19" s="10">
+        <v>0.66300263721702191</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0.10057663511503792</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="4">
         <v>1953.5</v>
       </c>
@@ -1426,8 +1599,14 @@
       <c r="P20" s="10">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
+      <c r="R20" s="10">
+        <v>0.63466446412835387</v>
+      </c>
+      <c r="S20" s="10">
+        <v>1.8029831858980383E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="4">
         <v>1953.75</v>
       </c>
@@ -1461,8 +1640,14 @@
       <c r="P21" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
+      <c r="R21" s="10">
+        <v>0.57445091358799272</v>
+      </c>
+      <c r="S21" s="10">
+        <v>-6.2348933979749652E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="4">
         <v>1954</v>
       </c>
@@ -1496,8 +1681,14 @@
       <c r="P22" s="10">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
+      <c r="R22" s="10">
+        <v>0.56739681388200602</v>
+      </c>
+      <c r="S22" s="10">
+        <v>-0.12012209642471756</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="4">
         <v>1954.25</v>
       </c>
@@ -1531,8 +1722,14 @@
       <c r="P23" s="10">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
+      <c r="R23" s="10">
+        <v>0.5948777542748982</v>
+      </c>
+      <c r="S23" s="10">
+        <v>-0.12434067138761502</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="4">
         <v>1954.5</v>
       </c>
@@ -1569,8 +1766,14 @@
       <c r="P24" s="10">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
+      <c r="R24" s="10">
+        <v>0.63807737826369149</v>
+      </c>
+      <c r="S24" s="10">
+        <v>-0.12031549177222742</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
       <c r="B25" s="4">
         <v>1954.75</v>
       </c>
@@ -1607,8 +1810,14 @@
       <c r="P25" s="10">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
+      <c r="R25" s="10">
+        <v>0.70091590270833326</v>
+      </c>
+      <c r="S25" s="10">
+        <v>-7.8885558912420869E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="4">
         <v>1955</v>
       </c>
@@ -1645,8 +1854,14 @@
       <c r="P26" s="10">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
+      <c r="R26" s="10">
+        <v>0.77249850409901566</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1.1078536585903007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" s="4">
         <v>1955.25</v>
       </c>
@@ -1683,8 +1898,14 @@
       <c r="P27" s="10">
         <v>40.099999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="R27" s="10">
+        <v>0.82088587511178002</v>
+      </c>
+      <c r="S27" s="10">
+        <v>4.7660711165628818E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" s="4">
         <v>1955.5</v>
       </c>
@@ -1721,8 +1942,14 @@
       <c r="P28" s="10">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="29" spans="2:16">
+      <c r="R28" s="10">
+        <v>0.82367013391266808</v>
+      </c>
+      <c r="S28" s="10">
+        <v>3.4274571697712544E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="4">
         <v>1955.75</v>
       </c>
@@ -1759,8 +1986,14 @@
       <c r="P29" s="10">
         <v>44.3</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
+      <c r="R29" s="10">
+        <v>0.80436846972347897</v>
+      </c>
+      <c r="S29" s="10">
+        <v>7.0927088627340429E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="4">
         <v>1956</v>
       </c>
@@ -1797,8 +2030,14 @@
       <c r="P30" s="10">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
+      <c r="R30" s="10">
+        <v>0.78466562110425653</v>
+      </c>
+      <c r="S30" s="10">
+        <v>3.0678640282992033E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31" s="4">
         <v>1956.25</v>
       </c>
@@ -1835,8 +2074,14 @@
       <c r="P31" s="10">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
+      <c r="R31" s="10">
+        <v>0.80171836533613516</v>
+      </c>
+      <c r="S31" s="10">
+        <v>-1.5160167036325251E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
       <c r="B32" s="4">
         <v>1956.5</v>
       </c>
@@ -1873,8 +2118,14 @@
       <c r="P32" s="10">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="R32" s="10">
+        <v>0.78750731162208631</v>
+      </c>
+      <c r="S32" s="10">
+        <v>-8.1167141299843572E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33" s="4">
         <v>1956.75</v>
       </c>
@@ -1911,8 +2162,14 @@
       <c r="P33" s="10">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="R33" s="10">
+        <v>0.85430816474020999</v>
+      </c>
+      <c r="S33" s="10">
+        <v>3.0833846677127231E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34" s="4">
         <v>1957</v>
       </c>
@@ -1949,8 +2206,14 @@
       <c r="P34" s="10">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="R34" s="10">
+        <v>0.85514414239736847</v>
+      </c>
+      <c r="S34" s="10">
+        <v>-5.7196074377090962E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35" s="4">
         <v>1957.25</v>
       </c>
@@ -1987,8 +2250,14 @@
       <c r="P35" s="10">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="R35" s="10">
+        <v>0.84008713762082221</v>
+      </c>
+      <c r="S35" s="10">
+        <v>-8.1547169078575815E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36" s="4">
         <v>1957.5</v>
       </c>
@@ -2025,8 +2294,14 @@
       <c r="P36" s="10">
         <v>44.2</v>
       </c>
-    </row>
-    <row r="37" spans="2:16">
+      <c r="R36" s="10">
+        <v>0.85325421768519183</v>
+      </c>
+      <c r="S36" s="10">
+        <v>-0.11278996872284601</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="4">
         <v>1957.75</v>
       </c>
@@ -2063,8 +2338,14 @@
       <c r="P37" s="10">
         <v>41.099999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="2:16">
+      <c r="R37" s="10">
+        <v>0.84929241585256121</v>
+      </c>
+      <c r="S37" s="10">
+        <v>-0.20580850785103549</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
       <c r="B38" s="4">
         <v>1958</v>
       </c>
@@ -2101,8 +2382,14 @@
       <c r="P38" s="10">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="R38" s="10">
+        <v>0.7844217492927672</v>
+      </c>
+      <c r="S38" s="10">
+        <v>-0.28366895483664478</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39" s="4">
         <v>1958.25</v>
       </c>
@@ -2139,8 +2426,14 @@
       <c r="P39" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="R39" s="10">
+        <v>0.81215160119778773</v>
+      </c>
+      <c r="S39" s="10">
+        <v>-0.26634761620783082</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
       <c r="B40" s="4">
         <v>1958.5</v>
       </c>
@@ -2177,8 +2470,14 @@
       <c r="P40" s="10">
         <v>49.099999999999994</v>
       </c>
-    </row>
-    <row r="41" spans="2:16">
+      <c r="R40" s="10">
+        <v>0.88376434622038424</v>
+      </c>
+      <c r="S40" s="10">
+        <v>-0.19154025681984282</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41" s="4">
         <v>1958.75</v>
       </c>
@@ -2215,8 +2514,14 @@
       <c r="P41" s="10">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="42" spans="2:16">
+      <c r="R41" s="10">
+        <v>0.93729871814475996</v>
+      </c>
+      <c r="S41" s="10">
+        <v>-0.14187872282057556</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42" s="4">
         <v>1959</v>
       </c>
@@ -2256,8 +2561,14 @@
       <c r="P42" s="10">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="2:16">
+      <c r="R42" s="10">
+        <v>0.99039759919248849</v>
+      </c>
+      <c r="S42" s="10">
+        <v>-5.1920519961963923E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43" s="4">
         <v>1959.25</v>
       </c>
@@ -2297,8 +2608,14 @@
       <c r="P43" s="10">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16">
+      <c r="R43" s="10">
+        <v>1.037422329198741</v>
+      </c>
+      <c r="S43" s="10">
+        <v>-8.9935538290975489E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44" s="4">
         <v>1959.5</v>
       </c>
@@ -2338,8 +2655,14 @@
       <c r="P44" s="10">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="45" spans="2:16">
+      <c r="R44" s="10">
+        <v>1.0142254227602143</v>
+      </c>
+      <c r="S44" s="10">
+        <v>-6.1327866335059371E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45" s="4">
         <v>1959.75</v>
       </c>
@@ -2379,8 +2702,14 @@
       <c r="P45" s="10">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16">
+      <c r="R45" s="10">
+        <v>1.0181543805656457</v>
+      </c>
+      <c r="S45" s="10">
+        <v>-9.6121041384898798E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46" s="4">
         <v>1960</v>
       </c>
@@ -2423,8 +2752,14 @@
       <c r="P46" s="10">
         <v>55.4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16">
+      <c r="R46" s="10">
+        <v>1.1091159504850612</v>
+      </c>
+      <c r="S46" s="10">
+        <v>-6.8153302421160661E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47" s="4">
         <v>1960.25</v>
       </c>
@@ -2467,8 +2802,14 @@
       <c r="P47" s="10">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="48" spans="2:16">
+      <c r="R47" s="10">
+        <v>1.0383107196923753</v>
+      </c>
+      <c r="S47" s="10">
+        <v>-0.13504949532331789</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48" s="4">
         <v>1960.5</v>
       </c>
@@ -2511,8 +2852,14 @@
       <c r="P48" s="10">
         <v>54.800000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="2:16">
+      <c r="R48" s="10">
+        <v>1.0263037692456276</v>
+      </c>
+      <c r="S48" s="10">
+        <v>-0.16063489329269484</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49" s="4">
         <v>1960.75</v>
       </c>
@@ -2555,8 +2902,14 @@
       <c r="P49" s="10">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="50" spans="2:16">
+      <c r="R49" s="10">
+        <v>0.9899446179025384</v>
+      </c>
+      <c r="S49" s="10">
+        <v>-0.23110766834519514</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
       <c r="B50" s="4">
         <v>1961</v>
       </c>
@@ -2599,8 +2952,14 @@
       <c r="P50" s="10">
         <v>63.9</v>
       </c>
-    </row>
-    <row r="51" spans="2:16">
+      <c r="R50" s="10">
+        <v>1.0075792055546564</v>
+      </c>
+      <c r="S50" s="10">
+        <v>-0.20781379094878377</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
       <c r="B51" s="4">
         <v>1961.25</v>
       </c>
@@ -2643,8 +3002,14 @@
       <c r="P51" s="10">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="52" spans="2:16">
+      <c r="R51" s="10">
+        <v>1.1129541268709422</v>
+      </c>
+      <c r="S51" s="10">
+        <v>-0.1318934749416964</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
       <c r="B52" s="4">
         <v>1961.5</v>
       </c>
@@ -2687,8 +3052,14 @@
       <c r="P52" s="10">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="53" spans="2:16">
+      <c r="R52" s="10">
+        <v>1.1498109896750184</v>
+      </c>
+      <c r="S52" s="10">
+        <v>-0.11355717976452234</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53" s="4">
         <v>1961.75</v>
       </c>
@@ -2731,8 +3102,14 @@
       <c r="P53" s="10">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="2:16">
+      <c r="R53" s="10">
+        <v>1.1967648547829068</v>
+      </c>
+      <c r="S53" s="10">
+        <v>-3.6500287241036974E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" s="4">
         <v>1962</v>
       </c>
@@ -2775,8 +3152,14 @@
       <c r="P54" s="10">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="55" spans="2:16">
+      <c r="R54" s="10">
+        <v>1.2137739930811102</v>
+      </c>
+      <c r="S54" s="10">
+        <v>-5.5835714273246365E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
       <c r="B55" s="4">
         <v>1962.25</v>
       </c>
@@ -2819,8 +3202,14 @@
       <c r="P55" s="10">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="56" spans="2:16">
+      <c r="R55" s="10">
+        <v>1.2271305743396719</v>
+      </c>
+      <c r="S55" s="10">
+        <v>-3.1795085532034341E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
       <c r="B56" s="4">
         <v>1962.5</v>
       </c>
@@ -2863,8 +3252,14 @@
       <c r="P56" s="10">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="57" spans="2:16">
+      <c r="R56" s="10">
+        <v>1.2649880218431935</v>
+      </c>
+      <c r="S56" s="10">
+        <v>-3.543605355611059E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57" s="4">
         <v>1962.75</v>
       </c>
@@ -2907,8 +3302,14 @@
       <c r="P57" s="10">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="2:16">
+      <c r="R57" s="10">
+        <v>1.3024679049468137</v>
+      </c>
+      <c r="S57" s="10">
+        <v>-4.7217252494481707E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
       <c r="B58" s="4">
         <v>1963</v>
       </c>
@@ -2951,8 +3352,14 @@
       <c r="P58" s="10">
         <v>66.699999999999989</v>
       </c>
-    </row>
-    <row r="59" spans="2:16">
+      <c r="R58" s="10">
+        <v>1.3127087846212673</v>
+      </c>
+      <c r="S58" s="10">
+        <v>-2.935836151071004E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
       <c r="B59" s="4">
         <v>1963.25</v>
       </c>
@@ -2995,8 +3402,14 @@
       <c r="P59" s="10">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="60" spans="2:16">
+      <c r="R59" s="10">
+        <v>1.3445217529079281</v>
+      </c>
+      <c r="S59" s="10">
+        <v>-6.4046877799651507E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60" s="4">
         <v>1963.5</v>
       </c>
@@ -3039,8 +3452,14 @@
       <c r="P60" s="10">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="61" spans="2:16">
+      <c r="R60" s="10">
+        <v>1.4046872636029233</v>
+      </c>
+      <c r="S60" s="10">
+        <v>4.0259160807080974E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
       <c r="B61" s="4">
         <v>1963.75</v>
       </c>
@@ -3083,8 +3502,14 @@
       <c r="P61" s="10">
         <v>74.800000000000011</v>
       </c>
-    </row>
-    <row r="62" spans="2:16">
+      <c r="R61" s="10">
+        <v>1.4105432832413316</v>
+      </c>
+      <c r="S61" s="10">
+        <v>1.2028063697621714E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
       <c r="B62" s="4">
         <v>1964</v>
       </c>
@@ -3127,8 +3552,14 @@
       <c r="P62" s="10">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="63" spans="2:16">
+      <c r="R62" s="10">
+        <v>1.4526090653395916</v>
+      </c>
+      <c r="S62" s="10">
+        <v>-8.5626146620945021E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
       <c r="B63" s="4">
         <v>1964.25</v>
       </c>
@@ -3171,8 +3602,14 @@
       <c r="P63" s="10">
         <v>81.199999999999989</v>
       </c>
-    </row>
-    <row r="64" spans="2:16">
+      <c r="R63" s="10">
+        <v>1.4698640891797465</v>
+      </c>
+      <c r="S63" s="10">
+        <v>3.6433258130176463E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64" s="4">
         <v>1964.5</v>
       </c>
@@ -3215,8 +3652,14 @@
       <c r="P64" s="10">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="65" spans="2:16">
+      <c r="R64" s="10">
+        <v>1.5024163167381637</v>
+      </c>
+      <c r="S64" s="10">
+        <v>3.9213993370909569E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" s="4">
         <v>1964.75</v>
       </c>
@@ -3259,8 +3702,14 @@
       <c r="P65" s="10">
         <v>85.4</v>
       </c>
-    </row>
-    <row r="66" spans="2:16">
+      <c r="R65" s="10">
+        <v>1.4955257847734815</v>
+      </c>
+      <c r="S65" s="10">
+        <v>4.0378913523001526E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
       <c r="B66" s="4">
         <v>1965</v>
       </c>
@@ -3303,8 +3752,14 @@
       <c r="P66" s="10">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="67" spans="2:16">
+      <c r="R66" s="10">
+        <v>1.5632129825568826</v>
+      </c>
+      <c r="S66" s="10">
+        <v>0.11194228559689559</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
       <c r="B67" s="4">
         <v>1965.25</v>
       </c>
@@ -3347,8 +3802,14 @@
       <c r="P67" s="10">
         <v>86.7</v>
       </c>
-    </row>
-    <row r="68" spans="2:16">
+      <c r="R67" s="10">
+        <v>1.5674164995846418</v>
+      </c>
+      <c r="S67" s="10">
+        <v>0.10119244355901347</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
       <c r="B68" s="4">
         <v>1965.5</v>
       </c>
@@ -3391,8 +3852,14 @@
       <c r="P68" s="10">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="69" spans="2:16">
+      <c r="R68" s="10">
+        <v>1.626570824892575</v>
+      </c>
+      <c r="S68" s="10">
+        <v>8.176804778330593E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
       <c r="B69" s="4">
         <v>1965.75</v>
       </c>
@@ -3435,8 +3902,14 @@
       <c r="P69" s="10">
         <v>92.3</v>
       </c>
-    </row>
-    <row r="70" spans="2:16">
+      <c r="R69" s="10">
+        <v>1.6815681289095925</v>
+      </c>
+      <c r="S69" s="10">
+        <v>0.1082453025380387</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
       <c r="B70" s="4">
         <v>1966</v>
       </c>
@@ -3479,8 +3952,14 @@
       <c r="P70" s="10">
         <v>91.1</v>
       </c>
-    </row>
-    <row r="71" spans="2:16">
+      <c r="R70" s="10">
+        <v>1.742976133523801</v>
+      </c>
+      <c r="S70" s="10">
+        <v>0.13682762929939579</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
       <c r="B71" s="4">
         <v>1966.25</v>
       </c>
@@ -3523,8 +4002,14 @@
       <c r="P71" s="10">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="72" spans="2:16">
+      <c r="R71" s="10">
+        <v>1.7178962515292888</v>
+      </c>
+      <c r="S71" s="10">
+        <v>0.1306163562078238</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
       <c r="B72" s="4">
         <v>1966.5</v>
       </c>
@@ -3567,8 +4052,14 @@
       <c r="P72" s="10">
         <v>79.399999999999991</v>
       </c>
-    </row>
-    <row r="73" spans="2:16">
+      <c r="R72" s="10">
+        <v>1.7062332911207105</v>
+      </c>
+      <c r="S72" s="10">
+        <v>0.1138004688230192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19">
       <c r="B73" s="4">
         <v>1966.75</v>
       </c>
@@ -3611,8 +4102,14 @@
       <c r="P73" s="10">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="74" spans="2:16">
+      <c r="R73" s="10">
+        <v>1.717096555727619</v>
+      </c>
+      <c r="S73" s="10">
+        <v>8.616332279898245E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
       <c r="B74" s="4">
         <v>1967</v>
       </c>
@@ -3655,8 +4152,14 @@
       <c r="P74" s="10">
         <v>89.399999999999991</v>
       </c>
-    </row>
-    <row r="75" spans="2:16">
+      <c r="R74" s="10">
+        <v>1.7223055648677457</v>
+      </c>
+      <c r="S74" s="10">
+        <v>1.3214469794313302E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
       <c r="B75" s="4">
         <v>1967.25</v>
       </c>
@@ -3699,8 +4202,14 @@
       <c r="P75" s="10">
         <v>92.1</v>
       </c>
-    </row>
-    <row r="76" spans="2:16">
+      <c r="R75" s="10">
+        <v>1.7382927149384324</v>
+      </c>
+      <c r="S75" s="10">
+        <v>-1.6158644428150078E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
       <c r="B76" s="4">
         <v>1967.5</v>
       </c>
@@ -3743,8 +4252,14 @@
       <c r="P76" s="10">
         <v>94.600000000000009</v>
       </c>
-    </row>
-    <row r="77" spans="2:16">
+      <c r="R76" s="10">
+        <v>1.7402822296205189</v>
+      </c>
+      <c r="S76" s="10">
+        <v>4.3804747454528822E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
       <c r="B77" s="4">
         <v>1967.75</v>
       </c>
@@ -3787,8 +4302,14 @@
       <c r="P77" s="10">
         <v>94</v>
       </c>
-    </row>
-    <row r="78" spans="2:16">
+      <c r="R77" s="10">
+        <v>1.7503755211941863</v>
+      </c>
+      <c r="S77" s="10">
+        <v>-2.2953219186397332E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
       <c r="B78" s="4">
         <v>1968</v>
       </c>
@@ -3831,8 +4352,14 @@
       <c r="P78" s="10">
         <v>92.3</v>
       </c>
-    </row>
-    <row r="79" spans="2:16">
+      <c r="R78" s="10">
+        <v>1.8123929142335817</v>
+      </c>
+      <c r="S78" s="10">
+        <v>-1.95788678979897E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
       <c r="B79" s="4">
         <v>1968.25</v>
       </c>
@@ -3875,8 +4402,14 @@
       <c r="P79" s="10">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="80" spans="2:16">
+      <c r="R79" s="10">
+        <v>1.8458168460394226</v>
+      </c>
+      <c r="S79" s="10">
+        <v>-1.1718298481212143E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
       <c r="B80" s="4">
         <v>1968.5</v>
       </c>
@@ -3919,8 +4452,14 @@
       <c r="P80" s="10">
         <v>100.7</v>
       </c>
-    </row>
-    <row r="81" spans="2:16">
+      <c r="R80" s="10">
+        <v>1.8561798946731318</v>
+      </c>
+      <c r="S80" s="10">
+        <v>7.5941884394785924E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19">
       <c r="B81" s="4">
         <v>1968.75</v>
       </c>
@@ -3963,8 +4502,14 @@
       <c r="P81" s="10">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="82" spans="2:16">
+      <c r="R81" s="10">
+        <v>1.846069040889827</v>
+      </c>
+      <c r="S81" s="10">
+        <v>1.8074262952520008E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="B82" s="4">
         <v>1969</v>
       </c>
@@ -4007,8 +4552,14 @@
       <c r="P82" s="10">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="83" spans="2:16">
+      <c r="R82" s="10">
+        <v>1.8414738283938532</v>
+      </c>
+      <c r="S82" s="10">
+        <v>2.1465920251954162E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83" s="4">
         <v>1969.25</v>
       </c>
@@ -4051,8 +4602,14 @@
       <c r="P83" s="10">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="84" spans="2:16">
+      <c r="R83" s="10">
+        <v>1.8304677514338386</v>
+      </c>
+      <c r="S83" s="10">
+        <v>3.7898399584600534E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19">
       <c r="B84" s="4">
         <v>1969.5</v>
       </c>
@@ -4095,8 +4652,14 @@
       <c r="P84" s="10">
         <v>94.399999999999991</v>
       </c>
-    </row>
-    <row r="85" spans="2:16">
+      <c r="R84" s="10">
+        <v>1.8277050800039267</v>
+      </c>
+      <c r="S84" s="10">
+        <v>4.2630476319331444E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85" s="4">
         <v>1969.75</v>
       </c>
@@ -4139,8 +4702,14 @@
       <c r="P85" s="10">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="2:16">
+      <c r="R85" s="10">
+        <v>1.7983908536788289</v>
+      </c>
+      <c r="S85" s="10">
+        <v>1.8764873814149371E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
       <c r="B86" s="4">
         <v>1970</v>
       </c>
@@ -4183,8 +4752,14 @@
       <c r="P86" s="10">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="87" spans="2:16">
+      <c r="R86" s="10">
+        <v>1.7742999792819447</v>
+      </c>
+      <c r="S86" s="10">
+        <v>-4.7647364878417725E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19">
       <c r="B87" s="4">
         <v>1970.25</v>
       </c>
@@ -4227,8 +4802,14 @@
       <c r="P87" s="10">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="88" spans="2:16">
+      <c r="R87" s="10">
+        <v>1.7885404307431949</v>
+      </c>
+      <c r="S87" s="10">
+        <v>-0.10443017147339317</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19">
       <c r="B88" s="4">
         <v>1970.5</v>
       </c>
@@ -4271,8 +4852,14 @@
       <c r="P88" s="10">
         <v>81.8</v>
       </c>
-    </row>
-    <row r="89" spans="2:16">
+      <c r="R88" s="10">
+        <v>1.8327320891566987</v>
+      </c>
+      <c r="S88" s="10">
+        <v>-0.11518829879806181</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19">
       <c r="B89" s="4">
         <v>1970.75</v>
       </c>
@@ -4315,8 +4902,14 @@
       <c r="P89" s="10">
         <v>89.6</v>
       </c>
-    </row>
-    <row r="90" spans="2:16">
+      <c r="R89" s="10">
+        <v>1.7893225084667232</v>
+      </c>
+      <c r="S89" s="10">
+        <v>-0.1553191808366767</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19">
       <c r="B90" s="4">
         <v>1971</v>
       </c>
@@ -4359,8 +4952,14 @@
       <c r="P90" s="10">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="91" spans="2:16">
+      <c r="R90" s="10">
+        <v>1.8825686365388512</v>
+      </c>
+      <c r="S90" s="10">
+        <v>-0.11119532432471771</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19">
       <c r="B91" s="4">
         <v>1971.25</v>
       </c>
@@ -4403,8 +5002,14 @@
       <c r="P91" s="10">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="92" spans="2:16">
+      <c r="R91" s="10">
+        <v>1.8858338233908492</v>
+      </c>
+      <c r="S91" s="10">
+        <v>-0.11013221227794806</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19">
       <c r="B92" s="4">
         <v>1971.5</v>
       </c>
@@ -4447,8 +5052,14 @@
       <c r="P92" s="10">
         <v>96.8</v>
       </c>
-    </row>
-    <row r="93" spans="2:16">
+      <c r="R92" s="10">
+        <v>1.9192335394012037</v>
+      </c>
+      <c r="S92" s="10">
+        <v>-0.16210705782258866</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19">
       <c r="B93" s="4">
         <v>1971.75</v>
       </c>
@@ -4491,8 +5102,14 @@
       <c r="P93" s="10">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="94" spans="2:16">
+      <c r="R93" s="10">
+        <v>1.9149954644287579</v>
+      </c>
+      <c r="S93" s="10">
+        <v>-0.11215332042491438</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19">
       <c r="B94" s="4">
         <v>1972</v>
       </c>
@@ -4535,8 +5152,14 @@
       <c r="P94" s="10">
         <v>106.30000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="2:16">
+      <c r="R94" s="10">
+        <v>1.948599012669971</v>
+      </c>
+      <c r="S94" s="10">
+        <v>-9.0092827516038795E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19">
       <c r="B95" s="4">
         <v>1972.25</v>
       </c>
@@ -4579,8 +5202,14 @@
       <c r="P95" s="10">
         <v>107.89999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="2:16">
+      <c r="R95" s="10">
+        <v>2.0111800080980466</v>
+      </c>
+      <c r="S95" s="10">
+        <v>-5.4881229772156807E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19">
       <c r="B96" s="4">
         <v>1972.5</v>
       </c>
@@ -4623,8 +5252,14 @@
       <c r="P96" s="10">
         <v>110.2</v>
       </c>
-    </row>
-    <row r="97" spans="2:16">
+      <c r="R96" s="10">
+        <v>2.035706028772438</v>
+      </c>
+      <c r="S96" s="10">
+        <v>-5.660722550710201E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19">
       <c r="B97" s="4">
         <v>1972.75</v>
       </c>
@@ -4667,8 +5302,14 @@
       <c r="P97" s="10">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="98" spans="2:16">
+      <c r="R97" s="10">
+        <v>2.0999428149203339</v>
+      </c>
+      <c r="S97" s="10">
+        <v>-2.5763638653514411E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19">
       <c r="B98" s="4">
         <v>1973</v>
       </c>
@@ -4711,8 +5352,14 @@
       <c r="P98" s="10">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="99" spans="2:16">
+      <c r="R98" s="10">
+        <v>2.159478080003673</v>
+      </c>
+      <c r="S98" s="10">
+        <v>-7.4122569503118629E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19">
       <c r="B99" s="4">
         <v>1973.25</v>
       </c>
@@ -4755,8 +5402,14 @@
       <c r="P99" s="10">
         <v>106.1</v>
       </c>
-    </row>
-    <row r="100" spans="2:16">
+      <c r="R99" s="10">
+        <v>2.1533894130306366</v>
+      </c>
+      <c r="S99" s="10">
+        <v>9.7871232753824026E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19">
       <c r="B100" s="4">
         <v>1973.5</v>
       </c>
@@ -4799,8 +5452,14 @@
       <c r="P100" s="10">
         <v>107.30000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="2:16">
+      <c r="R100" s="10">
+        <v>2.1067510399807809</v>
+      </c>
+      <c r="S100" s="10">
+        <v>5.5998086945495346E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19">
       <c r="B101" s="4">
         <v>1973.75</v>
       </c>
@@ -4843,8 +5502,14 @@
       <c r="P101" s="10">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="102" spans="2:16">
+      <c r="R101" s="10">
+        <v>2.1105968185470299</v>
+      </c>
+      <c r="S101" s="10">
+        <v>-2.7068949156007138E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19">
       <c r="B102" s="4">
         <v>1974</v>
       </c>
@@ -4887,8 +5552,14 @@
       <c r="P102" s="10">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="103" spans="2:16">
+      <c r="R102" s="10">
+        <v>2.0317835662697035</v>
+      </c>
+      <c r="S102" s="10">
+        <v>-4.9644871859767015E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19">
       <c r="B103" s="4">
         <v>1974.25</v>
       </c>
@@ -4931,8 +5602,14 @@
       <c r="P103" s="10">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="104" spans="2:16">
+      <c r="R103" s="10">
+        <v>2.0063425763074858</v>
+      </c>
+      <c r="S103" s="10">
+        <v>-0.10239841857440901</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19">
       <c r="B104" s="4">
         <v>1974.5</v>
       </c>
@@ -4975,8 +5652,14 @@
       <c r="P104" s="10">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="105" spans="2:16">
+      <c r="R104" s="10">
+        <v>1.9589478251954402</v>
+      </c>
+      <c r="S104" s="10">
+        <v>-9.2225542649215148E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19">
       <c r="B105" s="4">
         <v>1974.75</v>
       </c>
@@ -5019,8 +5702,14 @@
       <c r="P105" s="10">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="106" spans="2:16">
+      <c r="R105" s="10">
+        <v>1.935682998891548</v>
+      </c>
+      <c r="S105" s="10">
+        <v>-0.167087191307211</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19">
       <c r="B106" s="4">
         <v>1975</v>
       </c>
@@ -5063,8 +5752,14 @@
       <c r="P106" s="10">
         <v>82.3</v>
       </c>
-    </row>
-    <row r="107" spans="2:16">
+      <c r="R106" s="10">
+        <v>1.9402307677562249</v>
+      </c>
+      <c r="S106" s="10">
+        <v>-0.2594866162519982</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19">
       <c r="B107" s="4">
         <v>1975.25</v>
       </c>
@@ -5107,8 +5802,14 @@
       <c r="P107" s="10">
         <v>90.6</v>
       </c>
-    </row>
-    <row r="108" spans="2:16">
+      <c r="R107" s="10">
+        <v>1.9907579382916585</v>
+      </c>
+      <c r="S107" s="10">
+        <v>-0.26051691293449558</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19">
       <c r="B108" s="4">
         <v>1975.5</v>
       </c>
@@ -5151,8 +5852,14 @@
       <c r="P108" s="10">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="109" spans="2:16">
+      <c r="R108" s="10">
+        <v>2.0470332489954028</v>
+      </c>
+      <c r="S108" s="10">
+        <v>-0.18150310446582071</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19">
       <c r="B109" s="4">
         <v>1975.75</v>
       </c>
@@ -5195,8 +5902,14 @@
       <c r="P109" s="10">
         <v>92.8</v>
       </c>
-    </row>
-    <row r="110" spans="2:16">
+      <c r="R109" s="10">
+        <v>2.0612135901945683</v>
+      </c>
+      <c r="S109" s="10">
+        <v>-0.12575584615062649</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19">
       <c r="B110" s="4">
         <v>1976</v>
       </c>
@@ -5239,8 +5952,14 @@
       <c r="P110" s="10">
         <v>101.2</v>
       </c>
-    </row>
-    <row r="111" spans="2:16">
+      <c r="R110" s="10">
+        <v>2.1260959116537319</v>
+      </c>
+      <c r="S110" s="10">
+        <v>-6.3858030539995808E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19">
       <c r="B111" s="4">
         <v>1976.25</v>
       </c>
@@ -5283,8 +6002,14 @@
       <c r="P111" s="10">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="112" spans="2:16">
+      <c r="R111" s="10">
+        <v>2.1450251907010269</v>
+      </c>
+      <c r="S111" s="10">
+        <v>-7.8731094173233068E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19">
       <c r="B112" s="4">
         <v>1976.5</v>
       </c>
@@ -5327,8 +6052,14 @@
       <c r="P112" s="10">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="113" spans="2:16">
+      <c r="R112" s="10">
+        <v>2.1504216484659358</v>
+      </c>
+      <c r="S112" s="10">
+        <v>-6.635175996901993E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20">
       <c r="B113" s="4">
         <v>1976.75</v>
       </c>
@@ -5371,8 +6102,14 @@
       <c r="P113" s="10">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="114" spans="2:16">
+      <c r="R113" s="10">
+        <v>2.1579259832394611</v>
+      </c>
+      <c r="S113" s="10">
+        <v>-9.7095516177332156E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20">
       <c r="B114" s="4">
         <v>1977</v>
       </c>
@@ -5415,8 +6152,14 @@
       <c r="P114" s="10">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="115" spans="2:16">
+      <c r="R114" s="10">
+        <v>2.175728435859849</v>
+      </c>
+      <c r="S114" s="10">
+        <v>-0.10272148200534538</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20">
       <c r="B115" s="4">
         <v>1977.25</v>
       </c>
@@ -5459,8 +6202,14 @@
       <c r="P115" s="10">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="116" spans="2:16">
+      <c r="R115" s="10">
+        <v>2.2149770173329686</v>
+      </c>
+      <c r="S115" s="10">
+        <v>-4.743018735516067E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20">
       <c r="B116" s="4">
         <v>1977.5</v>
       </c>
@@ -5503,8 +6252,14 @@
       <c r="P116" s="10">
         <v>96.100000000000009</v>
       </c>
-    </row>
-    <row r="117" spans="2:16">
+      <c r="R116" s="10">
+        <v>2.2664540263312913</v>
+      </c>
+      <c r="S116" s="10">
+        <v>-5.6064464299928292E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20">
       <c r="B117" s="4">
         <v>1977.75</v>
       </c>
@@ -5547,8 +6302,15 @@
       <c r="P117" s="10">
         <v>92.899999999999991</v>
       </c>
-    </row>
-    <row r="118" spans="2:16">
+      <c r="R117" s="10">
+        <v>2.2349977079316123</v>
+      </c>
+      <c r="S117" s="10">
+        <v>-4.6119542216401133E-2</v>
+      </c>
+      <c r="T117" s="3"/>
+    </row>
+    <row r="118" spans="2:20">
       <c r="B118" s="4">
         <v>1978</v>
       </c>
@@ -5591,8 +6353,20 @@
       <c r="P118" s="10">
         <v>90.6</v>
       </c>
-    </row>
-    <row r="119" spans="2:16">
+      <c r="Q118" s="3">
+        <v>83</v>
+      </c>
+      <c r="R118" s="10">
+        <v>2.2193139592466098</v>
+      </c>
+      <c r="S118" s="10">
+        <v>-8.8026584951178058E-2</v>
+      </c>
+      <c r="T118" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20">
       <c r="B119" s="4">
         <v>1978.25</v>
       </c>
@@ -5635,8 +6409,20 @@
       <c r="P119" s="10">
         <v>97.600000000000009</v>
       </c>
-    </row>
-    <row r="120" spans="2:16">
+      <c r="Q119" s="12">
+        <v>75</v>
+      </c>
+      <c r="R119" s="10">
+        <v>2.2968413407579282</v>
+      </c>
+      <c r="S119" s="10">
+        <v>-1.2758764141185333E-2</v>
+      </c>
+      <c r="T119" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20">
       <c r="B120" s="4">
         <v>1978.5</v>
       </c>
@@ -5679,8 +6465,20 @@
       <c r="P120" s="10">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="121" spans="2:16">
+      <c r="Q120" s="12">
+        <v>70</v>
+      </c>
+      <c r="R120" s="10">
+        <v>2.2934394483155436</v>
+      </c>
+      <c r="S120" s="10">
+        <v>-1.3442584508551774E-2</v>
+      </c>
+      <c r="T120" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20">
       <c r="B121" s="4">
         <v>1978.75</v>
       </c>
@@ -5723,8 +6521,20 @@
       <c r="P121" s="10">
         <v>96</v>
       </c>
-    </row>
-    <row r="122" spans="2:16">
+      <c r="Q121" s="12">
+        <v>66</v>
+      </c>
+      <c r="R121" s="10">
+        <v>2.2969432071135296</v>
+      </c>
+      <c r="S121" s="10">
+        <v>-1.9016582554673249E-3</v>
+      </c>
+      <c r="T121" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20">
       <c r="B122" s="4">
         <v>1979</v>
       </c>
@@ -5767,8 +6577,20 @@
       <c r="P122" s="10">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="123" spans="2:16">
+      <c r="Q122" s="12">
+        <v>63</v>
+      </c>
+      <c r="R122" s="10">
+        <v>2.2890425723611569</v>
+      </c>
+      <c r="S122" s="10">
+        <v>-1.149288900236522E-2</v>
+      </c>
+      <c r="T122" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20">
       <c r="B123" s="4">
         <v>1979.25</v>
       </c>
@@ -5811,8 +6633,20 @@
       <c r="P123" s="10">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="124" spans="2:16">
+      <c r="Q123" s="12">
+        <v>58</v>
+      </c>
+      <c r="R123" s="10">
+        <v>2.2432589439330348</v>
+      </c>
+      <c r="S123" s="10">
+        <v>-9.7262331329024523E-2</v>
+      </c>
+      <c r="T123" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20">
       <c r="B124" s="4">
         <v>1979.5</v>
       </c>
@@ -5855,8 +6689,20 @@
       <c r="P124" s="10">
         <v>106.1</v>
       </c>
-    </row>
-    <row r="125" spans="2:16">
+      <c r="Q124" s="12">
+        <v>46</v>
+      </c>
+      <c r="R124" s="10">
+        <v>2.2271749831117225</v>
+      </c>
+      <c r="S124" s="10">
+        <v>-5.7485933773955292E-2</v>
+      </c>
+      <c r="T124" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20">
       <c r="B125" s="4">
         <v>1979.75</v>
       </c>
@@ -5899,8 +6745,20 @@
       <c r="P125" s="10">
         <v>107.5</v>
       </c>
-    </row>
-    <row r="126" spans="2:16">
+      <c r="Q125" s="12">
+        <v>51</v>
+      </c>
+      <c r="R125" s="10">
+        <v>2.2121262811233007</v>
+      </c>
+      <c r="S125" s="10">
+        <v>-7.6273398721035154E-2</v>
+      </c>
+      <c r="T125" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20">
       <c r="B126" s="4">
         <v>1980</v>
       </c>
@@ -5943,8 +6801,20 @@
       <c r="P126" s="10">
         <v>109.10000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="2:16">
+      <c r="Q126" s="12">
+        <v>50</v>
+      </c>
+      <c r="R126" s="10">
+        <v>2.2082655535574922</v>
+      </c>
+      <c r="S126" s="10">
+        <v>-0.15848001766302966</v>
+      </c>
+      <c r="T126" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20">
       <c r="B127" s="4">
         <v>1980.25</v>
       </c>
@@ -5987,8 +6857,20 @@
       <c r="P127" s="10">
         <v>113.4</v>
       </c>
-    </row>
-    <row r="128" spans="2:16">
+      <c r="Q127" s="12">
+        <v>51</v>
+      </c>
+      <c r="R127" s="10">
+        <v>2.1231229256070683</v>
+      </c>
+      <c r="S127" s="10">
+        <v>-0.20496193716554559</v>
+      </c>
+      <c r="T127" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20">
       <c r="B128" s="4">
         <v>1980.5</v>
       </c>
@@ -6031,8 +6913,20 @@
       <c r="P128" s="10">
         <v>124.2</v>
       </c>
-    </row>
-    <row r="129" spans="2:16">
+      <c r="Q128" s="12">
+        <v>63</v>
+      </c>
+      <c r="R128" s="10">
+        <v>2.1244317372994432</v>
+      </c>
+      <c r="S128" s="10">
+        <v>-0.18161533952784303</v>
+      </c>
+      <c r="T128" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20">
       <c r="B129" s="4">
         <v>1980.75</v>
       </c>
@@ -6075,8 +6969,20 @@
       <c r="P129" s="10">
         <v>133.30000000000001</v>
       </c>
-    </row>
-    <row r="130" spans="2:16">
+      <c r="Q129" s="12">
+        <v>83</v>
+      </c>
+      <c r="R129" s="10">
+        <v>2.1849774407469313</v>
+      </c>
+      <c r="S129" s="10">
+        <v>-0.1056172130718926</v>
+      </c>
+      <c r="T129" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20">
       <c r="B130" s="4">
         <v>1981</v>
       </c>
@@ -6119,8 +7025,20 @@
       <c r="P130" s="10">
         <v>132.39999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="2:16">
+      <c r="Q130" s="12">
+        <v>76</v>
+      </c>
+      <c r="R130" s="10">
+        <v>2.2278374784006436</v>
+      </c>
+      <c r="S130" s="10">
+        <v>-0.10668914753259673</v>
+      </c>
+      <c r="T130" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20">
       <c r="B131" s="4">
         <v>1981.25</v>
       </c>
@@ -6163,8 +7081,20 @@
       <c r="P131" s="10">
         <v>131.89999999999998</v>
       </c>
-    </row>
-    <row r="132" spans="2:16">
+      <c r="Q131" s="12">
+        <v>79</v>
+      </c>
+      <c r="R131" s="10">
+        <v>2.1947728568194198</v>
+      </c>
+      <c r="S131" s="10">
+        <v>-0.1012139901261354</v>
+      </c>
+      <c r="T131" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20">
       <c r="B132" s="4">
         <v>1981.5</v>
       </c>
@@ -6207,8 +7137,20 @@
       <c r="P132" s="10">
         <v>122.89999999999999</v>
       </c>
-    </row>
-    <row r="133" spans="2:16">
+      <c r="Q132" s="12">
+        <v>74</v>
+      </c>
+      <c r="R132" s="10">
+        <v>2.2365108517129921</v>
+      </c>
+      <c r="S132" s="10">
+        <v>-0.13508123125806609</v>
+      </c>
+      <c r="T132" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20">
       <c r="B133" s="4">
         <v>1981.75</v>
       </c>
@@ -6251,8 +7193,20 @@
       <c r="P133" s="10">
         <v>122.80000000000001</v>
       </c>
-    </row>
-    <row r="134" spans="2:16">
+      <c r="Q133" s="12">
+        <v>62</v>
+      </c>
+      <c r="R133" s="10">
+        <v>2.1577861922168866</v>
+      </c>
+      <c r="S133" s="10">
+        <v>-0.19408595024739836</v>
+      </c>
+      <c r="T133" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20">
       <c r="B134" s="4">
         <v>1982</v>
       </c>
@@ -6295,8 +7249,20 @@
       <c r="P134" s="10">
         <v>115.5</v>
       </c>
-    </row>
-    <row r="135" spans="2:16">
+      <c r="Q134" s="12">
+        <v>65</v>
+      </c>
+      <c r="R134" s="10">
+        <v>2.1053969701769191</v>
+      </c>
+      <c r="S134" s="10">
+        <v>-0.26001604864112537</v>
+      </c>
+      <c r="T134" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20">
       <c r="B135" s="4">
         <v>1982.25</v>
       </c>
@@ -6339,8 +7305,20 @@
       <c r="P135" s="10">
         <v>111.3</v>
       </c>
-    </row>
-    <row r="136" spans="2:16">
+      <c r="Q135" s="12">
+        <v>69</v>
+      </c>
+      <c r="R135" s="10">
+        <v>2.097451711129148</v>
+      </c>
+      <c r="S135" s="10">
+        <v>-0.24363837932361926</v>
+      </c>
+      <c r="T135" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20">
       <c r="B136" s="4">
         <v>1982.5</v>
       </c>
@@ -6383,8 +7361,20 @@
       <c r="P136" s="10">
         <v>120.2</v>
       </c>
-    </row>
-    <row r="137" spans="2:16">
+      <c r="Q136" s="12">
+        <v>69</v>
+      </c>
+      <c r="R136" s="10">
+        <v>2.0727227052248671</v>
+      </c>
+      <c r="S136" s="10">
+        <v>-0.24704878681561104</v>
+      </c>
+      <c r="T136" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20">
       <c r="B137" s="4">
         <v>1982.75</v>
       </c>
@@ -6427,8 +7417,20 @@
       <c r="P137" s="10">
         <v>139.5</v>
       </c>
-    </row>
-    <row r="138" spans="2:16">
+      <c r="Q137" s="12">
+        <v>83</v>
+      </c>
+      <c r="R137" s="10">
+        <v>2.0769852411494583</v>
+      </c>
+      <c r="S137" s="10">
+        <v>-0.25019651456780673</v>
+      </c>
+      <c r="T137" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20">
       <c r="B138" s="4">
         <v>1983</v>
       </c>
@@ -6471,8 +7473,20 @@
       <c r="P138" s="10">
         <v>152.69999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="2:16">
+      <c r="Q138" s="12">
+        <v>78</v>
+      </c>
+      <c r="R138" s="10">
+        <v>2.1011092329578815</v>
+      </c>
+      <c r="S138" s="10">
+        <v>-0.21772889761765984</v>
+      </c>
+      <c r="T138" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20">
       <c r="B139" s="4">
         <v>1983.25</v>
       </c>
@@ -6515,8 +7529,20 @@
       <c r="P139" s="10">
         <v>164.3</v>
       </c>
-    </row>
-    <row r="140" spans="2:16">
+      <c r="Q139" s="12">
+        <v>98</v>
+      </c>
+      <c r="R139" s="10">
+        <v>2.1617313656417911</v>
+      </c>
+      <c r="S139" s="10">
+        <v>-0.14886785753139328</v>
+      </c>
+      <c r="T139" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20">
       <c r="B140" s="4">
         <v>1983.5</v>
       </c>
@@ -6559,8 +7585,20 @@
       <c r="P140" s="10">
         <v>164.1</v>
       </c>
-    </row>
-    <row r="141" spans="2:16">
+      <c r="Q140" s="12">
+        <v>99</v>
+      </c>
+      <c r="R140" s="10">
+        <v>2.1764930128689182</v>
+      </c>
+      <c r="S140" s="10">
+        <v>-8.6823939436775965E-2</v>
+      </c>
+      <c r="T140" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20">
       <c r="B141" s="4">
         <v>1983.75</v>
       </c>
@@ -6603,8 +7641,20 @@
       <c r="P141" s="10">
         <v>164.6</v>
       </c>
-    </row>
-    <row r="142" spans="2:16">
+      <c r="Q141" s="12">
+        <v>99</v>
+      </c>
+      <c r="R141" s="10">
+        <v>2.2235532015017325</v>
+      </c>
+      <c r="S141" s="10">
+        <v>-4.317508758592338E-2</v>
+      </c>
+      <c r="T141" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20">
       <c r="B142" s="4">
         <v>1984</v>
       </c>
@@ -6647,8 +7697,20 @@
       <c r="P142" s="10">
         <v>159.89999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="2:16">
+      <c r="Q142" s="12">
+        <v>109</v>
+      </c>
+      <c r="R142" s="10">
+        <v>2.2760857638203786</v>
+      </c>
+      <c r="S142" s="10">
+        <v>-2.4599590681173053E-2</v>
+      </c>
+      <c r="T142" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20">
       <c r="B143" s="4">
         <v>1984.25</v>
       </c>
@@ -6691,8 +7753,20 @@
       <c r="P143" s="10">
         <v>153.6</v>
       </c>
-    </row>
-    <row r="144" spans="2:16">
+      <c r="Q143" s="12">
+        <v>106</v>
+      </c>
+      <c r="R143" s="10">
+        <v>2.3100758237961374</v>
+      </c>
+      <c r="S143" s="10">
+        <v>-2.0200161623450442E-2</v>
+      </c>
+      <c r="T143" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20">
       <c r="B144" s="4">
         <v>1984.5</v>
       </c>
@@ -6735,8 +7809,20 @@
       <c r="P144" s="10">
         <v>162.39999999999998</v>
       </c>
-    </row>
-    <row r="145" spans="2:16">
+      <c r="Q144" s="12">
+        <v>113</v>
+      </c>
+      <c r="R144" s="10">
+        <v>2.3147351270094476</v>
+      </c>
+      <c r="S144" s="10">
+        <v>-3.5215555108161947E-2</v>
+      </c>
+      <c r="T144" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20">
       <c r="B145" s="4">
         <v>1984.75</v>
       </c>
@@ -6779,8 +7865,20 @@
       <c r="P145" s="10">
         <v>169.1</v>
       </c>
-    </row>
-    <row r="146" spans="2:16">
+      <c r="Q145" s="12">
+        <v>104</v>
+      </c>
+      <c r="R145" s="10">
+        <v>2.3113674171075491</v>
+      </c>
+      <c r="S145" s="10">
+        <v>-4.7631074111640484E-2</v>
+      </c>
+      <c r="T145" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20">
       <c r="B146" s="4">
         <v>1985</v>
       </c>
@@ -6823,8 +7921,20 @@
       <c r="P146" s="10">
         <v>180.29999999999998</v>
       </c>
-    </row>
-    <row r="147" spans="2:16">
+      <c r="Q146" s="12">
+        <v>99</v>
+      </c>
+      <c r="R146" s="10">
+        <v>2.3274791261681957</v>
+      </c>
+      <c r="S146" s="10">
+        <v>-7.5895469839893648E-2</v>
+      </c>
+      <c r="T146" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20">
       <c r="B147" s="4">
         <v>1985.25</v>
       </c>
@@ -6867,8 +7977,20 @@
       <c r="P147" s="10">
         <v>188</v>
       </c>
-    </row>
-    <row r="148" spans="2:16">
+      <c r="Q147" s="12">
+        <v>99</v>
+      </c>
+      <c r="R147" s="10">
+        <v>2.3181816209474846</v>
+      </c>
+      <c r="S147" s="10">
+        <v>-7.708215526706122E-2</v>
+      </c>
+      <c r="T147" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20">
       <c r="B148" s="4">
         <v>1985.5</v>
       </c>
@@ -6911,8 +8033,20 @@
       <c r="P148" s="10">
         <v>187.9</v>
       </c>
-    </row>
-    <row r="149" spans="2:16">
+      <c r="Q148" s="12">
+        <v>98</v>
+      </c>
+      <c r="R148" s="10">
+        <v>2.3599567988632724</v>
+      </c>
+      <c r="S148" s="10">
+        <v>-6.2267317373009411E-2</v>
+      </c>
+      <c r="T148" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20">
       <c r="B149" s="4">
         <v>1985.75</v>
       </c>
@@ -6955,8 +8089,20 @@
       <c r="P149" s="10">
         <v>203.8</v>
       </c>
-    </row>
-    <row r="150" spans="2:16">
+      <c r="Q149" s="12">
+        <v>96</v>
+      </c>
+      <c r="R149" s="10">
+        <v>2.3599849663189194</v>
+      </c>
+      <c r="S149" s="10">
+        <v>-5.2860355482814848E-2</v>
+      </c>
+      <c r="T149" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20">
       <c r="B150" s="4">
         <v>1986</v>
       </c>
@@ -7002,8 +8148,20 @@
       <c r="P150" s="10">
         <v>228.3</v>
       </c>
-    </row>
-    <row r="151" spans="2:16">
+      <c r="Q150" s="12">
+        <v>96</v>
+      </c>
+      <c r="R150" s="10">
+        <v>2.386796216723722</v>
+      </c>
+      <c r="S150" s="10">
+        <v>-6.3475140676535771E-2</v>
+      </c>
+      <c r="T150" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20">
       <c r="B151" s="4">
         <v>1986.25</v>
       </c>
@@ -7049,8 +8207,20 @@
       <c r="P151" s="10">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="152" spans="2:16">
+      <c r="Q151" s="12">
+        <v>95</v>
+      </c>
+      <c r="R151" s="10">
+        <v>2.3872227601744371</v>
+      </c>
+      <c r="S151" s="10">
+        <v>-9.531915045144003E-2</v>
+      </c>
+      <c r="T151" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20">
       <c r="B152" s="4">
         <v>1986.5</v>
       </c>
@@ -7096,8 +8266,20 @@
       <c r="P152" s="10">
         <v>241.10000000000002</v>
       </c>
-    </row>
-    <row r="153" spans="2:16">
+      <c r="Q152" s="12">
+        <v>91</v>
+      </c>
+      <c r="R152" s="10">
+        <v>2.3942231074044815</v>
+      </c>
+      <c r="S152" s="10">
+        <v>-9.2976637331273732E-2</v>
+      </c>
+      <c r="T152" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20">
       <c r="B153" s="4">
         <v>1986.75</v>
       </c>
@@ -7143,8 +8325,20 @@
       <c r="P153" s="10">
         <v>252.4</v>
       </c>
-    </row>
-    <row r="154" spans="2:16">
+      <c r="Q153" s="12">
+        <v>90</v>
+      </c>
+      <c r="R153" s="10">
+        <v>2.382399276446602</v>
+      </c>
+      <c r="S153" s="10">
+        <v>-9.0703110525469061E-2</v>
+      </c>
+      <c r="T153" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20">
       <c r="B154" s="4">
         <v>1987</v>
       </c>
@@ -7190,8 +8384,20 @@
       <c r="P154" s="10">
         <v>284.60000000000002</v>
       </c>
-    </row>
-    <row r="155" spans="2:16">
+      <c r="Q154" s="12">
+        <v>84</v>
+      </c>
+      <c r="R154" s="10">
+        <v>2.3697444945968749</v>
+      </c>
+      <c r="S154" s="10">
+        <v>-6.1671707478792817E-2</v>
+      </c>
+      <c r="T154" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20">
       <c r="B155" s="4">
         <v>1987.25</v>
       </c>
@@ -7237,8 +8443,20 @@
       <c r="P155" s="10">
         <v>300.3</v>
       </c>
-    </row>
-    <row r="156" spans="2:16">
+      <c r="Q155" s="12">
+        <v>92</v>
+      </c>
+      <c r="R155" s="10">
+        <v>2.415593102568383</v>
+      </c>
+      <c r="S155" s="10">
+        <v>-5.866096405489922E-2</v>
+      </c>
+      <c r="T155" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20">
       <c r="B156" s="4">
         <v>1987.5</v>
       </c>
@@ -7284,8 +8502,20 @@
       <c r="P156" s="10">
         <v>305.5</v>
       </c>
-    </row>
-    <row r="157" spans="2:16">
+      <c r="Q156" s="12">
+        <v>93</v>
+      </c>
+      <c r="R156" s="10">
+        <v>2.4301446724749676</v>
+      </c>
+      <c r="S156" s="10">
+        <v>-5.9243990529466155E-2</v>
+      </c>
+      <c r="T156" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20">
       <c r="B157" s="4">
         <v>1987.75</v>
       </c>
@@ -7331,8 +8561,20 @@
       <c r="P157" s="10">
         <v>246.60000000000002</v>
       </c>
-    </row>
-    <row r="158" spans="2:16">
+      <c r="Q157" s="12">
+        <v>86</v>
+      </c>
+      <c r="R157" s="10">
+        <v>2.4455105992462336</v>
+      </c>
+      <c r="S157" s="10">
+        <v>-4.7253827597413811E-2</v>
+      </c>
+      <c r="T157" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20">
       <c r="B158" s="4">
         <v>1988</v>
       </c>
@@ -7378,8 +8620,20 @@
       <c r="P158" s="10">
         <v>261.29999999999995</v>
       </c>
-    </row>
-    <row r="159" spans="2:16">
+      <c r="Q158" s="12">
+        <v>90</v>
+      </c>
+      <c r="R158" s="10">
+        <v>2.4626412057272948</v>
+      </c>
+      <c r="S158" s="10">
+        <v>-8.7680631867784464E-2</v>
+      </c>
+      <c r="T158" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20">
       <c r="B159" s="4">
         <v>1988.25</v>
       </c>
@@ -7425,8 +8679,20 @@
       <c r="P159" s="10">
         <v>267.29999999999995</v>
       </c>
-    </row>
-    <row r="160" spans="2:16">
+      <c r="Q159" s="12">
+        <v>94</v>
+      </c>
+      <c r="R159" s="10">
+        <v>2.4644098596352748</v>
+      </c>
+      <c r="S159" s="10">
+        <v>-9.6386953677631976E-2</v>
+      </c>
+      <c r="T159" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20">
       <c r="B160" s="4">
         <v>1988.5</v>
       </c>
@@ -7472,8 +8738,20 @@
       <c r="P160" s="10">
         <v>271.10000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="2:16">
+      <c r="Q160" s="12">
+        <v>101</v>
+      </c>
+      <c r="R160" s="10">
+        <v>2.474530970000195</v>
+      </c>
+      <c r="S160" s="10">
+        <v>-0.10374823760858329</v>
+      </c>
+      <c r="T160" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="161" spans="2:20">
       <c r="B161" s="4">
         <v>1988.75</v>
       </c>
@@ -7519,8 +8797,20 @@
       <c r="P161" s="10">
         <v>282</v>
       </c>
-    </row>
-    <row r="162" spans="2:16">
+      <c r="Q161" s="12">
+        <v>97</v>
+      </c>
+      <c r="R161" s="10">
+        <v>2.4825607102238556</v>
+      </c>
+      <c r="S161" s="10">
+        <v>-9.549998319517998E-2</v>
+      </c>
+      <c r="T161" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="162" spans="2:20">
       <c r="B162" s="4">
         <v>1989</v>
       </c>
@@ -7566,8 +8856,20 @@
       <c r="P162" s="10">
         <v>297.70000000000005</v>
       </c>
-    </row>
-    <row r="163" spans="2:16">
+      <c r="Q162" s="12">
+        <v>100</v>
+      </c>
+      <c r="R162" s="10">
+        <v>2.4749140320285234</v>
+      </c>
+      <c r="S162" s="10">
+        <v>-9.1183661746973038E-2</v>
+      </c>
+      <c r="T162" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20">
       <c r="B163" s="4">
         <v>1989.25</v>
       </c>
@@ -7613,8 +8915,20 @@
       <c r="P163" s="10">
         <v>323.60000000000002</v>
       </c>
-    </row>
-    <row r="164" spans="2:16">
+      <c r="Q163" s="12">
+        <v>90</v>
+      </c>
+      <c r="R163" s="10">
+        <v>2.4442253238883027</v>
+      </c>
+      <c r="S163" s="10">
+        <v>-0.10356463269855536</v>
+      </c>
+      <c r="T163" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="164" spans="2:20">
       <c r="B164" s="4">
         <v>1989.5</v>
       </c>
@@ -7660,8 +8974,20 @@
       <c r="P164" s="10">
         <v>346.8</v>
       </c>
-    </row>
-    <row r="165" spans="2:16">
+      <c r="Q164" s="12">
+        <v>95</v>
+      </c>
+      <c r="R164" s="10">
+        <v>2.4430799645023562</v>
+      </c>
+      <c r="S164" s="10">
+        <v>-0.12576910166432095</v>
+      </c>
+      <c r="T164" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="2:20">
       <c r="B165" s="4">
         <v>1989.75</v>
       </c>
@@ -7707,8 +9033,20 @@
       <c r="P165" s="10">
         <v>342.2</v>
       </c>
-    </row>
-    <row r="166" spans="2:16">
+      <c r="Q165" s="12">
+        <v>95</v>
+      </c>
+      <c r="R165" s="10">
+        <v>2.429272335595253</v>
+      </c>
+      <c r="S165" s="10">
+        <v>-0.13116726015767163</v>
+      </c>
+      <c r="T165" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="166" spans="2:20">
       <c r="B166" s="4">
         <v>1990</v>
       </c>
@@ -7754,8 +9092,20 @@
       <c r="P166" s="10">
         <v>332.9</v>
       </c>
-    </row>
-    <row r="167" spans="2:16">
+      <c r="Q166" s="12">
+        <v>92</v>
+      </c>
+      <c r="R166" s="10">
+        <v>2.4576469270780721</v>
+      </c>
+      <c r="S166" s="10">
+        <v>-0.1109498993183629</v>
+      </c>
+      <c r="T166" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="2:20">
       <c r="B167" s="4">
         <v>1990.25</v>
       </c>
@@ -7801,8 +9151,20 @@
       <c r="P167" s="10">
         <v>351.5</v>
       </c>
-    </row>
-    <row r="168" spans="2:16">
+      <c r="Q167" s="12">
+        <v>86</v>
+      </c>
+      <c r="R167" s="10">
+        <v>2.4760315440890013</v>
+      </c>
+      <c r="S167" s="10">
+        <v>-9.9337498828565546E-2</v>
+      </c>
+      <c r="T167" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="2:20">
       <c r="B168" s="4">
         <v>1990.5</v>
       </c>
@@ -7848,8 +9210,20 @@
       <c r="P168" s="10">
         <v>322.2</v>
       </c>
-    </row>
-    <row r="169" spans="2:16">
+      <c r="Q168" s="12">
+        <v>74</v>
+      </c>
+      <c r="R168" s="10">
+        <v>2.4602307167858175</v>
+      </c>
+      <c r="S168" s="10">
+        <v>-0.11629355622074447</v>
+      </c>
+      <c r="T168" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="2:20">
       <c r="B169" s="4">
         <v>1990.75</v>
       </c>
@@ -7895,8 +9269,20 @@
       <c r="P169" s="10">
         <v>325.10000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="2:16">
+      <c r="Q169" s="12">
+        <v>58</v>
+      </c>
+      <c r="R169" s="10">
+        <v>2.4175588293403298</v>
+      </c>
+      <c r="S169" s="10">
+        <v>-0.15406631086923944</v>
+      </c>
+      <c r="T169" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="2:20">
       <c r="B170" s="4">
         <v>1991</v>
       </c>
@@ -7942,8 +9328,20 @@
       <c r="P170" s="10">
         <v>365.4</v>
       </c>
-    </row>
-    <row r="171" spans="2:16">
+      <c r="Q170" s="12">
+        <v>75</v>
+      </c>
+      <c r="R170" s="10">
+        <v>2.3982713044862582</v>
+      </c>
+      <c r="S170" s="10">
+        <v>-0.19080862390305409</v>
+      </c>
+      <c r="T170" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="2:20">
       <c r="B171" s="4">
         <v>1991.25</v>
       </c>
@@ -7989,8 +9387,20 @@
       <c r="P171" s="10">
         <v>381</v>
       </c>
-    </row>
-    <row r="172" spans="2:16">
+      <c r="Q171" s="12">
+        <v>79</v>
+      </c>
+      <c r="R171" s="10">
+        <v>2.4315063387715243</v>
+      </c>
+      <c r="S171" s="10">
+        <v>-0.18163676444776486</v>
+      </c>
+      <c r="T171" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="2:20">
       <c r="B172" s="4">
         <v>1991.5</v>
       </c>
@@ -8036,8 +9446,20 @@
       <c r="P172" s="10">
         <v>390.90000000000003</v>
       </c>
-    </row>
-    <row r="173" spans="2:16">
+      <c r="Q172" s="12">
+        <v>83</v>
+      </c>
+      <c r="R172" s="10">
+        <v>2.4438557102904186</v>
+      </c>
+      <c r="S172" s="10">
+        <v>-0.16145407198640613</v>
+      </c>
+      <c r="T172" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="173" spans="2:20">
       <c r="B173" s="4">
         <v>1991.75</v>
       </c>
@@ -8083,8 +9505,20 @@
       <c r="P173" s="10">
         <v>398.4</v>
       </c>
-    </row>
-    <row r="174" spans="2:16">
+      <c r="Q173" s="12">
+        <v>65</v>
+      </c>
+      <c r="R173" s="10">
+        <v>2.4460536512067406</v>
+      </c>
+      <c r="S173" s="10">
+        <v>-0.15147683020597771</v>
+      </c>
+      <c r="T173" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="2:20">
       <c r="B174" s="4">
         <v>1992</v>
       </c>
@@ -8130,8 +9564,20 @@
       <c r="P174" s="10">
         <v>410</v>
       </c>
-    </row>
-    <row r="175" spans="2:16">
+      <c r="Q174" s="12">
+        <v>68</v>
+      </c>
+      <c r="R174" s="10">
+        <v>2.5406104000934353</v>
+      </c>
+      <c r="S174" s="10">
+        <v>-0.15761038255554422</v>
+      </c>
+      <c r="T174" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175" spans="2:20">
       <c r="B175" s="4">
         <v>1992.25</v>
       </c>
@@ -8177,8 +9623,20 @@
       <c r="P175" s="10">
         <v>415.7</v>
       </c>
-    </row>
-    <row r="176" spans="2:16">
+      <c r="Q175" s="12">
+        <v>69</v>
+      </c>
+      <c r="R175" s="10">
+        <v>2.5600229259345024</v>
+      </c>
+      <c r="S175" s="10">
+        <v>-0.124756035430301</v>
+      </c>
+      <c r="T175" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="2:20">
       <c r="B176" s="4">
         <v>1992.5</v>
       </c>
@@ -8224,8 +9682,20 @@
       <c r="P176" s="10">
         <v>418.7</v>
       </c>
-    </row>
-    <row r="177" spans="2:16">
+      <c r="Q176" s="12">
+        <v>70</v>
+      </c>
+      <c r="R176" s="10">
+        <v>2.5657065138155883</v>
+      </c>
+      <c r="S176" s="10">
+        <v>-0.12400433193128368</v>
+      </c>
+      <c r="T176" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="2:20">
       <c r="B177" s="4">
         <v>1992.75</v>
       </c>
@@ -8271,8 +9741,20 @@
       <c r="P177" s="10">
         <v>431.09999999999997</v>
       </c>
-    </row>
-    <row r="178" spans="2:16">
+      <c r="Q177" s="12">
+        <v>87</v>
+      </c>
+      <c r="R177" s="10">
+        <v>2.5744252100916976</v>
+      </c>
+      <c r="S177" s="10">
+        <v>-0.10888653308282659</v>
+      </c>
+      <c r="T177" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="178" spans="2:20">
       <c r="B178" s="4">
         <v>1993</v>
       </c>
@@ -8318,8 +9800,20 @@
       <c r="P178" s="10">
         <v>443.5</v>
       </c>
-    </row>
-    <row r="179" spans="2:16">
+      <c r="Q178" s="12">
+        <v>94</v>
+      </c>
+      <c r="R178" s="10">
+        <v>2.5234162586623601</v>
+      </c>
+      <c r="S178" s="10">
+        <v>-8.7686236599324063E-2</v>
+      </c>
+      <c r="T178" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" spans="2:20">
       <c r="B179" s="4">
         <v>1993.25</v>
       </c>
@@ -8365,8 +9859,20 @@
       <c r="P179" s="10">
         <v>447.29999999999995</v>
       </c>
-    </row>
-    <row r="180" spans="2:16">
+      <c r="Q179" s="12">
+        <v>81</v>
+      </c>
+      <c r="R179" s="10">
+        <v>2.5255886015285389</v>
+      </c>
+      <c r="S179" s="10">
+        <v>-6.5437460839761943E-2</v>
+      </c>
+      <c r="T179" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="180" spans="2:20">
       <c r="B180" s="4">
         <v>1993.5</v>
       </c>
@@ -8412,8 +9918,20 @@
       <c r="P180" s="10">
         <v>459.6</v>
       </c>
-    </row>
-    <row r="181" spans="2:16">
+      <c r="Q180" s="12">
+        <v>72</v>
+      </c>
+      <c r="R180" s="10">
+        <v>2.5038663472517793</v>
+      </c>
+      <c r="S180" s="10">
+        <v>-5.0211222182832013E-2</v>
+      </c>
+      <c r="T180" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="2:20">
       <c r="B181" s="4">
         <v>1993.75</v>
       </c>
@@ -8459,8 +9977,20 @@
       <c r="P181" s="10">
         <v>469.4</v>
       </c>
-    </row>
-    <row r="182" spans="2:16">
+      <c r="Q181" s="12">
+        <v>80</v>
+      </c>
+      <c r="R181" s="10">
+        <v>2.5522021553320031</v>
+      </c>
+      <c r="S181" s="10">
+        <v>-4.0542972724113453E-2</v>
+      </c>
+      <c r="T181" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="2:20">
       <c r="B182" s="4">
         <v>1994</v>
       </c>
@@ -8506,8 +10036,20 @@
       <c r="P182" s="10">
         <v>461.4</v>
       </c>
-    </row>
-    <row r="183" spans="2:16">
+      <c r="Q182" s="12">
+        <v>94</v>
+      </c>
+      <c r="R182" s="10">
+        <v>2.53105513498965</v>
+      </c>
+      <c r="S182" s="10">
+        <v>-2.4867359576052586E-2</v>
+      </c>
+      <c r="T182" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="2:20">
       <c r="B183" s="4">
         <v>1994.25</v>
       </c>
@@ -8553,8 +10095,20 @@
       <c r="P183" s="10">
         <v>452.5</v>
       </c>
-    </row>
-    <row r="184" spans="2:16">
+      <c r="Q183" s="12">
+        <v>93</v>
+      </c>
+      <c r="R183" s="10">
+        <v>2.5423212086945317</v>
+      </c>
+      <c r="S183" s="10">
+        <v>-5.3206660038497659E-3</v>
+      </c>
+      <c r="T183" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="184" spans="2:20">
       <c r="B184" s="4">
         <v>1994.5</v>
       </c>
@@ -8600,8 +10154,20 @@
       <c r="P184" s="10">
         <v>467.2</v>
       </c>
-    </row>
-    <row r="185" spans="2:16">
+      <c r="Q184" s="12">
+        <v>89</v>
+      </c>
+      <c r="R184" s="10">
+        <v>2.5262885614551327</v>
+      </c>
+      <c r="S184" s="10">
+        <v>-1.6594456317452454E-2</v>
+      </c>
+      <c r="T184" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="2:20">
       <c r="B185" s="4">
         <v>1994.75</v>
       </c>
@@ -8647,8 +10213,20 @@
       <c r="P185" s="10">
         <v>463.9</v>
       </c>
-    </row>
-    <row r="186" spans="2:16">
+      <c r="Q185" s="12">
+        <v>99</v>
+      </c>
+      <c r="R185" s="10">
+        <v>2.5700123178827368</v>
+      </c>
+      <c r="S185" s="10">
+        <v>-4.1970733947556439E-3</v>
+      </c>
+      <c r="T185" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="2:20">
       <c r="B186" s="4">
         <v>1995</v>
       </c>
@@ -8694,8 +10272,20 @@
       <c r="P186" s="10">
         <v>493.3</v>
       </c>
-    </row>
-    <row r="187" spans="2:16">
+      <c r="Q186" s="12">
+        <v>98</v>
+      </c>
+      <c r="R186" s="10">
+        <v>2.5534627424668881</v>
+      </c>
+      <c r="S186" s="10">
+        <v>-3.0962439632984971E-2</v>
+      </c>
+      <c r="T186" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="2:20">
       <c r="B187" s="4">
         <v>1995.25</v>
       </c>
@@ -8741,8 +10331,20 @@
       <c r="P187" s="10">
         <v>538.69999999999993</v>
       </c>
-    </row>
-    <row r="188" spans="2:16">
+      <c r="Q187" s="12">
+        <v>92</v>
+      </c>
+      <c r="R187" s="10">
+        <v>2.5506299721861714</v>
+      </c>
+      <c r="S187" s="10">
+        <v>-7.5128718667859778E-2</v>
+      </c>
+      <c r="T187" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="2:20">
       <c r="B188" s="4">
         <v>1995.5</v>
       </c>
@@ -8788,8 +10390,20 @@
       <c r="P188" s="10">
         <v>572.5</v>
       </c>
-    </row>
-    <row r="189" spans="2:16">
+      <c r="Q188" s="12">
+        <v>95</v>
+      </c>
+      <c r="R188" s="10">
+        <v>2.5638796694446166</v>
+      </c>
+      <c r="S188" s="10">
+        <v>-6.8013877901505065E-2</v>
+      </c>
+      <c r="T188" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="189" spans="2:20">
       <c r="B189" s="4">
         <v>1995.75</v>
       </c>
@@ -8835,8 +10449,20 @@
       <c r="P189" s="10">
         <v>609.70000000000005</v>
       </c>
-    </row>
-    <row r="190" spans="2:16">
+      <c r="Q189" s="12">
+        <v>90</v>
+      </c>
+      <c r="R189" s="10">
+        <v>2.5703142505772392</v>
+      </c>
+      <c r="S189" s="10">
+        <v>-7.2154261258369157E-2</v>
+      </c>
+      <c r="T189" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="190" spans="2:20">
       <c r="B190" s="4">
         <v>1996</v>
       </c>
@@ -8882,8 +10508,20 @@
       <c r="P190" s="10">
         <v>644</v>
       </c>
-    </row>
-    <row r="191" spans="2:16">
+      <c r="Q190" s="12">
+        <v>84</v>
+      </c>
+      <c r="R190" s="10">
+        <v>2.5920309860698656</v>
+      </c>
+      <c r="S190" s="10">
+        <v>-0.11310397414151722</v>
+      </c>
+      <c r="T190" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="2:20">
       <c r="B191" s="4">
         <v>1996.25</v>
       </c>
@@ -8929,8 +10567,20 @@
       <c r="P191" s="10">
         <v>658.5</v>
       </c>
-    </row>
-    <row r="192" spans="2:16">
+      <c r="Q191" s="12">
+        <v>89</v>
+      </c>
+      <c r="R191" s="10">
+        <v>2.6270827948393971</v>
+      </c>
+      <c r="S191" s="10">
+        <v>-5.0427876377784411E-2</v>
+      </c>
+      <c r="T191" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192" spans="2:20">
       <c r="B192" s="4">
         <v>1996.5</v>
       </c>
@@ -8976,8 +10626,20 @@
       <c r="P192" s="10">
         <v>671.1</v>
       </c>
-    </row>
-    <row r="193" spans="2:16">
+      <c r="Q192" s="12">
+        <v>101</v>
+      </c>
+      <c r="R192" s="10">
+        <v>2.6422586144754616</v>
+      </c>
+      <c r="S192" s="10">
+        <v>-3.5046269808450409E-2</v>
+      </c>
+      <c r="T192" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="2:20">
       <c r="B193" s="4">
         <v>1996.75</v>
       </c>
@@ -9023,8 +10685,20 @@
       <c r="P193" s="10">
         <v>747.3</v>
       </c>
-    </row>
-    <row r="194" spans="2:16">
+      <c r="Q193" s="12">
+        <v>106</v>
+      </c>
+      <c r="R193" s="10">
+        <v>2.6547740493583634</v>
+      </c>
+      <c r="S193" s="10">
+        <v>-4.1279584134639238E-2</v>
+      </c>
+      <c r="T193" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="2:20">
       <c r="B194" s="4">
         <v>1997</v>
       </c>
@@ -9070,8 +10744,20 @@
       <c r="P194" s="10">
         <v>783.90000000000009</v>
       </c>
-    </row>
-    <row r="195" spans="2:16">
+      <c r="Q194" s="12">
+        <v>107</v>
+      </c>
+      <c r="R194" s="10">
+        <v>2.6494405225580508</v>
+      </c>
+      <c r="S194" s="10">
+        <v>-2.738110043442412E-2</v>
+      </c>
+      <c r="T194" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="2:20">
       <c r="B195" s="4">
         <v>1997.25</v>
       </c>
@@ -9117,8 +10803,20 @@
       <c r="P195" s="10">
         <v>872.3</v>
       </c>
-    </row>
-    <row r="196" spans="2:16">
+      <c r="Q195" s="12">
+        <v>114</v>
+      </c>
+      <c r="R195" s="10">
+        <v>2.6833377656446324</v>
+      </c>
+      <c r="S195" s="10">
+        <v>-2.0297757038154791E-2</v>
+      </c>
+      <c r="T195" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="2:20">
       <c r="B196" s="4">
         <v>1997.5</v>
       </c>
@@ -9164,8 +10862,20 @@
       <c r="P196" s="10">
         <v>928.9</v>
       </c>
-    </row>
-    <row r="197" spans="2:16">
+      <c r="Q196" s="12">
+        <v>122</v>
+      </c>
+      <c r="R196" s="10">
+        <v>2.7208268236040958</v>
+      </c>
+      <c r="S196" s="10">
+        <v>-3.0741195874776504E-2</v>
+      </c>
+      <c r="T196" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="2:20">
       <c r="B197" s="4">
         <v>1997.75</v>
       </c>
@@ -9211,8 +10921,20 @@
       <c r="P197" s="10">
         <v>955.2</v>
       </c>
-    </row>
-    <row r="198" spans="2:16">
+      <c r="Q197" s="12">
+        <v>119</v>
+      </c>
+      <c r="R197" s="10">
+        <v>2.7325841049331823</v>
+      </c>
+      <c r="S197" s="10">
+        <v>-9.6474941904726129E-3</v>
+      </c>
+      <c r="T197" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" spans="2:20">
       <c r="B198" s="4">
         <v>1998</v>
       </c>
@@ -9258,8 +10980,20 @@
       <c r="P198" s="10">
         <v>1060.8</v>
       </c>
-    </row>
-    <row r="199" spans="2:16">
+      <c r="Q198" s="12">
+        <v>121</v>
+      </c>
+      <c r="R198" s="10">
+        <v>2.7494277615011611</v>
+      </c>
+      <c r="S198" s="10">
+        <v>-9.3980373052573452E-3</v>
+      </c>
+      <c r="T198" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="2:20">
       <c r="B199" s="4">
         <v>1998.25</v>
       </c>
@@ -9305,8 +11039,20 @@
       <c r="P199" s="10">
         <v>1114.3000000000002</v>
       </c>
-    </row>
-    <row r="200" spans="2:16">
+      <c r="Q199" s="12">
+        <v>118</v>
+      </c>
+      <c r="R199" s="10">
+        <v>2.7644914850326949</v>
+      </c>
+      <c r="S199" s="10">
+        <v>-4.4108076272044043E-2</v>
+      </c>
+      <c r="T199" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" spans="2:20">
       <c r="B200" s="4">
         <v>1998.5</v>
       </c>
@@ -9352,8 +11098,20 @@
       <c r="P200" s="10">
         <v>1048.4000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="2:16">
+      <c r="Q200" s="12">
+        <v>116</v>
+      </c>
+      <c r="R200" s="10">
+        <v>2.802507979038924</v>
+      </c>
+      <c r="S200" s="10">
+        <v>-4.9783747692856969E-2</v>
+      </c>
+      <c r="T200" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201" spans="2:20">
       <c r="B201" s="4">
         <v>1998.75</v>
       </c>
@@ -9399,8 +11157,20 @@
       <c r="P201" s="10">
         <v>1192.8000000000002</v>
       </c>
-    </row>
-    <row r="202" spans="2:16">
+      <c r="Q201" s="12">
+        <v>107</v>
+      </c>
+      <c r="R201" s="10">
+        <v>2.8072025619849987</v>
+      </c>
+      <c r="S201" s="10">
+        <v>-3.1185109285016586E-2</v>
+      </c>
+      <c r="T201" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="202" spans="2:20">
       <c r="B202" s="4">
         <v>1999</v>
       </c>
@@ -9446,8 +11216,20 @@
       <c r="P202" s="10">
         <v>1284.8999999999999</v>
       </c>
-    </row>
-    <row r="203" spans="2:16">
+      <c r="Q202" s="12">
+        <v>120</v>
+      </c>
+      <c r="R202" s="10">
+        <v>2.8507597394570867</v>
+      </c>
+      <c r="S202" s="10">
+        <v>-4.26635959660491E-2</v>
+      </c>
+      <c r="T202" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="2:20">
       <c r="B203" s="4">
         <v>1999.25</v>
       </c>
@@ -9493,8 +11275,20 @@
       <c r="P203" s="10">
         <v>1334.6</v>
       </c>
-    </row>
-    <row r="204" spans="2:16">
+      <c r="Q203" s="12">
+        <v>117</v>
+      </c>
+      <c r="R203" s="10">
+        <v>2.8367902352507968</v>
+      </c>
+      <c r="S203" s="10">
+        <v>-4.7475174558617494E-2</v>
+      </c>
+      <c r="T203" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="2:20">
       <c r="B204" s="4">
         <v>1999.5</v>
       </c>
@@ -9540,8 +11334,20 @@
       <c r="P204" s="10">
         <v>1323.7</v>
       </c>
-    </row>
-    <row r="205" spans="2:16">
+      <c r="Q204" s="12">
+        <v>120</v>
+      </c>
+      <c r="R204" s="10">
+        <v>2.8479155645932646</v>
+      </c>
+      <c r="S204" s="10">
+        <v>-4.3769761148302964E-2</v>
+      </c>
+      <c r="T204" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="2:20">
       <c r="B205" s="4">
         <v>1999.75</v>
       </c>
@@ -9587,8 +11393,20 @@
       <c r="P205" s="10">
         <v>1403.8999999999999</v>
       </c>
-    </row>
-    <row r="206" spans="2:16">
+      <c r="Q205" s="12">
+        <v>122</v>
+      </c>
+      <c r="R205" s="10">
+        <v>2.8913429161749611</v>
+      </c>
+      <c r="S205" s="10">
+        <v>-6.1496838241048346E-2</v>
+      </c>
+      <c r="T205" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="2:20">
       <c r="B206" s="4">
         <v>2000</v>
       </c>
@@ -9634,8 +11452,20 @@
       <c r="P206" s="10">
         <v>1428</v>
       </c>
-    </row>
-    <row r="207" spans="2:16">
+      <c r="Q206" s="12">
+        <v>132</v>
+      </c>
+      <c r="R206" s="10">
+        <v>2.9022987330093026</v>
+      </c>
+      <c r="S206" s="10">
+        <v>-4.7007884046759055E-2</v>
+      </c>
+      <c r="T206" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" spans="2:20">
       <c r="B207" s="4">
         <v>2000.25</v>
       </c>
@@ -9681,8 +11511,20 @@
       <c r="P207" s="10">
         <v>1439.6</v>
       </c>
-    </row>
-    <row r="208" spans="2:16">
+      <c r="Q207" s="12">
+        <v>129</v>
+      </c>
+      <c r="R207" s="10">
+        <v>2.9366093498516057</v>
+      </c>
+      <c r="S207" s="10">
+        <v>-5.0052973892890124E-2</v>
+      </c>
+      <c r="T207" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="2:20">
       <c r="B208" s="4">
         <v>2000.5</v>
       </c>
@@ -9728,8 +11570,20 @@
       <c r="P208" s="10">
         <v>1453.6</v>
       </c>
-    </row>
-    <row r="209" spans="2:16">
+      <c r="Q208" s="12">
+        <v>134</v>
+      </c>
+      <c r="R208" s="10">
+        <v>2.9200966967258615</v>
+      </c>
+      <c r="S208" s="10">
+        <v>-7.2042848431920284E-2</v>
+      </c>
+      <c r="T208" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="209" spans="2:20">
       <c r="B209" s="4">
         <v>2000.75</v>
       </c>
@@ -9775,8 +11629,20 @@
       <c r="P209" s="10">
         <v>1357.6999999999998</v>
       </c>
-    </row>
-    <row r="210" spans="2:16">
+      <c r="Q209" s="12">
+        <v>125</v>
+      </c>
+      <c r="R209" s="10">
+        <v>2.9314474546044544</v>
+      </c>
+      <c r="S209" s="10">
+        <v>-0.10431135036848507</v>
+      </c>
+      <c r="T209" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="2:20">
       <c r="B210" s="4">
         <v>2001</v>
       </c>
@@ -9822,8 +11688,20 @@
       <c r="P210" s="10">
         <v>1253.9000000000001</v>
       </c>
-    </row>
-    <row r="211" spans="2:16">
+      <c r="Q210" s="12">
+        <v>109</v>
+      </c>
+      <c r="R210" s="10">
+        <v>2.9131960286494611</v>
+      </c>
+      <c r="S210" s="10">
+        <v>-0.12955666636271704</v>
+      </c>
+      <c r="T210" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="2:20">
       <c r="B211" s="4">
         <v>2001.25</v>
       </c>
@@ -9869,8 +11747,20 @@
       <c r="P211" s="10">
         <v>1235.2</v>
       </c>
-    </row>
-    <row r="212" spans="2:16">
+      <c r="Q211" s="12">
+        <v>109</v>
+      </c>
+      <c r="R211" s="10">
+        <v>2.9296387973682254</v>
+      </c>
+      <c r="S211" s="10">
+        <v>-0.15082075813697043</v>
+      </c>
+      <c r="T211" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="2:20">
       <c r="B212" s="4">
         <v>2001.5</v>
       </c>
@@ -9916,8 +11806,20 @@
       <c r="P212" s="10">
         <v>1111.3999999999999</v>
       </c>
-    </row>
-    <row r="213" spans="2:16">
+      <c r="Q212" s="12">
+        <v>105</v>
+      </c>
+      <c r="R212" s="10">
+        <v>2.9112547780998472</v>
+      </c>
+      <c r="S212" s="10">
+        <v>-0.17884299051478866</v>
+      </c>
+      <c r="T212" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="213" spans="2:20">
       <c r="B213" s="4">
         <v>2001.75</v>
       </c>
@@ -9963,8 +11865,20 @@
       <c r="P213" s="10">
         <v>1119.3999999999999</v>
       </c>
-    </row>
-    <row r="214" spans="2:16">
+      <c r="Q213" s="12">
+        <v>100</v>
+      </c>
+      <c r="R213" s="10">
+        <v>2.9217790817219753</v>
+      </c>
+      <c r="S213" s="10">
+        <v>-0.2122576841904264</v>
+      </c>
+      <c r="T213" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="2:20">
       <c r="B214" s="4">
         <v>2002</v>
       </c>
@@ -10010,8 +11924,20 @@
       <c r="P214" s="10">
         <v>1115.3</v>
       </c>
-    </row>
-    <row r="215" spans="2:16">
+      <c r="Q214" s="12">
+        <v>113</v>
+      </c>
+      <c r="R214" s="10">
+        <v>2.9889730051180372</v>
+      </c>
+      <c r="S214" s="10">
+        <v>-0.20098672446639781</v>
+      </c>
+      <c r="T214" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" spans="2:20">
       <c r="B215" s="4">
         <v>2002.25</v>
       </c>
@@ -10057,8 +11983,20 @@
       <c r="P215" s="10">
         <v>1011.4000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="2:16">
+      <c r="Q215" s="12">
+        <v>109</v>
+      </c>
+      <c r="R215" s="10">
+        <v>2.9875835775961606</v>
+      </c>
+      <c r="S215" s="10">
+        <v>-0.18611290503088329</v>
+      </c>
+      <c r="T215" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="2:20">
       <c r="B216" s="4">
         <v>2002.5</v>
       </c>
@@ -10104,8 +12042,20 @@
       <c r="P216" s="10">
         <v>882.19999999999993</v>
       </c>
-    </row>
-    <row r="217" spans="2:16">
+      <c r="Q216" s="12">
+        <v>96</v>
+      </c>
+      <c r="R216" s="10">
+        <v>2.9976058688445275</v>
+      </c>
+      <c r="S216" s="10">
+        <v>-0.19394740724197951</v>
+      </c>
+      <c r="T216" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="217" spans="2:20">
       <c r="B217" s="4">
         <v>2002.75</v>
       </c>
@@ -10151,8 +12101,20 @@
       <c r="P217" s="10">
         <v>889.4</v>
       </c>
-    </row>
-    <row r="218" spans="2:16">
+      <c r="Q217" s="12">
+        <v>92</v>
+      </c>
+      <c r="R217" s="10">
+        <v>2.9988456598308728</v>
+      </c>
+      <c r="S217" s="10">
+        <v>-0.1848283503598897</v>
+      </c>
+      <c r="T217" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="218" spans="2:20">
       <c r="B218" s="4">
         <v>2003</v>
       </c>
@@ -10198,8 +12160,20 @@
       <c r="P218" s="10">
         <v>865.5</v>
       </c>
-    </row>
-    <row r="219" spans="2:16">
+      <c r="Q218" s="12">
+        <v>86</v>
+      </c>
+      <c r="R218" s="10">
+        <v>3.0188171732697615</v>
+      </c>
+      <c r="S218" s="10">
+        <v>-0.17309302286879769</v>
+      </c>
+      <c r="T218" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="219" spans="2:20">
       <c r="B219" s="4">
         <v>2003.25</v>
       </c>
@@ -10245,8 +12219,20 @@
       <c r="P219" s="10">
         <v>961.30000000000007</v>
       </c>
-    </row>
-    <row r="220" spans="2:16">
+      <c r="Q219" s="12">
+        <v>103</v>
+      </c>
+      <c r="R219" s="10">
+        <v>3.0626401786848048</v>
+      </c>
+      <c r="S219" s="10">
+        <v>-0.18297220707952441</v>
+      </c>
+      <c r="T219" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" spans="2:20">
       <c r="B220" s="4">
         <v>2003.5</v>
       </c>
@@ -10292,8 +12278,20 @@
       <c r="P220" s="10">
         <v>1011.2</v>
       </c>
-    </row>
-    <row r="221" spans="2:16">
+      <c r="Q220" s="12">
+        <v>95</v>
+      </c>
+      <c r="R220" s="10">
+        <v>3.1102720782084194</v>
+      </c>
+      <c r="S220" s="10">
+        <v>-0.1801058904545948</v>
+      </c>
+      <c r="T220" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="221" spans="2:20">
       <c r="B221" s="4">
         <v>2003.75</v>
       </c>
@@ -10339,8 +12337,20 @@
       <c r="P221" s="10">
         <v>1088</v>
       </c>
-    </row>
-    <row r="222" spans="2:16">
+      <c r="Q221" s="12">
+        <v>105</v>
+      </c>
+      <c r="R221" s="10">
+        <v>3.1328174526874579</v>
+      </c>
+      <c r="S221" s="10">
+        <v>-0.13908273255135209</v>
+      </c>
+      <c r="T221" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="222" spans="2:20">
       <c r="B222" s="4">
         <v>2004</v>
       </c>
@@ -10386,8 +12396,20 @@
       <c r="P222" s="10">
         <v>1127.3999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="2:16">
+      <c r="Q222" s="12">
+        <v>114</v>
+      </c>
+      <c r="R222" s="10">
+        <v>3.1506442252647098</v>
+      </c>
+      <c r="S222" s="10">
+        <v>-0.1210948081308087</v>
+      </c>
+      <c r="T222" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="223" spans="2:20">
       <c r="B223" s="4">
         <v>2004.25</v>
       </c>
@@ -10433,8 +12455,20 @@
       <c r="P223" s="10">
         <v>1117.5999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="2:16">
+      <c r="Q223" s="12">
+        <v>103</v>
+      </c>
+      <c r="R223" s="10">
+        <v>3.1760548627840608</v>
+      </c>
+      <c r="S223" s="10">
+        <v>-0.13140100882743239</v>
+      </c>
+      <c r="T223" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224" spans="2:20">
       <c r="B224" s="4">
         <v>2004.5</v>
       </c>
@@ -10480,8 +12514,20 @@
       <c r="P224" s="10">
         <v>1112.7</v>
       </c>
-    </row>
-    <row r="225" spans="2:16">
+      <c r="Q224" s="12">
+        <v>109</v>
+      </c>
+      <c r="R224" s="10">
+        <v>3.2064869104378939</v>
+      </c>
+      <c r="S224" s="10">
+        <v>-0.12969526461396003</v>
+      </c>
+      <c r="T224" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="225" spans="2:20">
       <c r="B225" s="4">
         <v>2004.75</v>
       </c>
@@ -10527,8 +12573,20 @@
       <c r="P225" s="10">
         <v>1174.3</v>
       </c>
-    </row>
-    <row r="226" spans="2:16">
+      <c r="Q225" s="12">
+        <v>105</v>
+      </c>
+      <c r="R225" s="10">
+        <v>3.2055966113679006</v>
+      </c>
+      <c r="S225" s="10">
+        <v>-0.15395355391243107</v>
+      </c>
+      <c r="T225" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="226" spans="2:20">
       <c r="B226" s="4">
         <v>2005</v>
       </c>
@@ -10574,8 +12632,20 @@
       <c r="P226" s="10">
         <v>1180.6000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="2:16">
+      <c r="Q226" s="12">
+        <v>97</v>
+      </c>
+      <c r="R226" s="10">
+        <v>3.2251773246594668</v>
+      </c>
+      <c r="S226" s="10">
+        <v>-0.14635509924909731</v>
+      </c>
+      <c r="T226" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="2:20">
       <c r="B227" s="4">
         <v>2005.25</v>
       </c>
@@ -10621,8 +12691,20 @@
       <c r="P227" s="10">
         <v>1193.5</v>
       </c>
-    </row>
-    <row r="228" spans="2:16">
+      <c r="Q227" s="12">
+        <v>93</v>
+      </c>
+      <c r="R227" s="10">
+        <v>3.2253495141821515</v>
+      </c>
+      <c r="S227" s="10">
+        <v>-0.14897578677993173</v>
+      </c>
+      <c r="T227" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="2:20">
       <c r="B228" s="4">
         <v>2005.5</v>
       </c>
@@ -10668,8 +12750,20 @@
       <c r="P228" s="10">
         <v>1222.5999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="2:16">
+      <c r="Q228" s="12">
+        <v>86</v>
+      </c>
+      <c r="R228" s="10">
+        <v>3.2522517808577232</v>
+      </c>
+      <c r="S228" s="10">
+        <v>-0.1315941675579915</v>
+      </c>
+      <c r="T228" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="2:20">
       <c r="B229" s="4">
         <v>2005.75</v>
       </c>
@@ -10715,8 +12809,20 @@
       <c r="P229" s="10">
         <v>1246.2</v>
       </c>
-    </row>
-    <row r="230" spans="2:16">
+      <c r="Q229" s="12">
+        <v>80</v>
+      </c>
+      <c r="R229" s="10">
+        <v>3.2665735180255351</v>
+      </c>
+      <c r="S229" s="10">
+        <v>-9.8629972305902425E-2</v>
+      </c>
+      <c r="T229" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="230" spans="2:20">
       <c r="B230" s="4">
         <v>2006</v>
       </c>
@@ -10762,8 +12868,20 @@
       <c r="P230" s="10">
         <v>1291.6000000000001</v>
       </c>
-    </row>
-    <row r="231" spans="2:16">
+      <c r="Q230" s="12">
+        <v>86</v>
+      </c>
+      <c r="R230" s="10">
+        <v>3.306155138995361</v>
+      </c>
+      <c r="S230" s="10">
+        <v>-8.8816759562645869E-2</v>
+      </c>
+      <c r="T230" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="231" spans="2:20">
       <c r="B231" s="4">
         <v>2006.25</v>
       </c>
@@ -10809,8 +12927,20 @@
       <c r="P231" s="10">
         <v>1281.9000000000001</v>
       </c>
-    </row>
-    <row r="232" spans="2:16">
+      <c r="Q231" s="12">
+        <v>81</v>
+      </c>
+      <c r="R231" s="10">
+        <v>3.290533044913182</v>
+      </c>
+      <c r="S231" s="10">
+        <v>-7.0714081893285485E-2</v>
+      </c>
+      <c r="T231" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="2:20">
       <c r="B232" s="4">
         <v>2006.5</v>
       </c>
@@ -10856,8 +12986,20 @@
       <c r="P232" s="10">
         <v>1323.6000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="2:16">
+      <c r="Q232" s="12">
+        <v>86</v>
+      </c>
+      <c r="R232" s="10">
+        <v>3.2701861675789283</v>
+      </c>
+      <c r="S232" s="10">
+        <v>-6.4089282545508483E-2</v>
+      </c>
+      <c r="T232" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="233" spans="2:20">
       <c r="B233" s="4">
         <v>2006.75</v>
       </c>
@@ -10903,8 +13045,20 @@
       <c r="P233" s="10">
         <v>1408.8</v>
       </c>
-    </row>
-    <row r="234" spans="2:16">
+      <c r="Q233" s="12">
+        <v>97</v>
+      </c>
+      <c r="R233" s="10">
+        <v>3.2818504636464927</v>
+      </c>
+      <c r="S233" s="10">
+        <v>-6.8052876168715568E-2</v>
+      </c>
+      <c r="T233" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="2:20">
       <c r="B234" s="4">
         <v>2007</v>
       </c>
@@ -10950,8 +13104,20 @@
       <c r="P234" s="10">
         <v>1437.1000000000001</v>
       </c>
-    </row>
-    <row r="235" spans="2:16">
+      <c r="Q234" s="12">
+        <v>100</v>
+      </c>
+      <c r="R234" s="10">
+        <v>3.2630636174951122</v>
+      </c>
+      <c r="S234" s="10">
+        <v>-7.0546615341714192E-2</v>
+      </c>
+      <c r="T234" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="2:20">
       <c r="B235" s="4">
         <v>2007.25</v>
       </c>
@@ -10997,8 +13163,20 @@
       <c r="P235" s="10">
         <v>1492.8999999999999</v>
       </c>
-    </row>
-    <row r="236" spans="2:16">
+      <c r="Q235" s="12">
+        <v>89</v>
+      </c>
+      <c r="R235" s="10">
+        <v>3.2624700577877217</v>
+      </c>
+      <c r="S235" s="10">
+        <v>-5.1619105018657047E-2</v>
+      </c>
+      <c r="T235" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="236" spans="2:20">
       <c r="B236" s="4">
         <v>2007.5</v>
       </c>
@@ -11044,8 +13222,20 @@
       <c r="P236" s="10">
         <v>1501.3000000000002</v>
       </c>
-    </row>
-    <row r="237" spans="2:16">
+      <c r="Q236" s="12">
+        <v>93</v>
+      </c>
+      <c r="R236" s="10">
+        <v>3.2504649942978561</v>
+      </c>
+      <c r="S236" s="10">
+        <v>-7.1267848565922678E-2</v>
+      </c>
+      <c r="T236" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="2:20">
       <c r="B237" s="4">
         <v>2007.75</v>
       </c>
@@ -11091,8 +13281,20 @@
       <c r="P237" s="10">
         <v>1469.4</v>
       </c>
-    </row>
-    <row r="238" spans="2:16">
+      <c r="Q237" s="12">
+        <v>80</v>
+      </c>
+      <c r="R237" s="10">
+        <v>3.2464764473955694</v>
+      </c>
+      <c r="S237" s="10">
+        <v>-9.1021414529895567E-2</v>
+      </c>
+      <c r="T237" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="238" spans="2:20">
       <c r="B238" s="4">
         <v>2008</v>
       </c>
@@ -11138,8 +13340,20 @@
       <c r="P238" s="10">
         <v>1354.4</v>
       </c>
-    </row>
-    <row r="239" spans="2:16">
+      <c r="Q238" s="12">
+        <v>84</v>
+      </c>
+      <c r="R238" s="10">
+        <v>3.2021897360706633</v>
+      </c>
+      <c r="S238" s="10">
+        <v>-8.9943906662521556E-2</v>
+      </c>
+      <c r="T238" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="239" spans="2:20">
       <c r="B239" s="4">
         <v>2008.25</v>
       </c>
@@ -11185,8 +13399,20 @@
       <c r="P239" s="10">
         <v>1333.3</v>
       </c>
-    </row>
-    <row r="240" spans="2:16">
+      <c r="Q239" s="12">
+        <v>66</v>
+      </c>
+      <c r="R239" s="10">
+        <v>3.2077359306557609</v>
+      </c>
+      <c r="S239" s="10">
+        <v>-9.5688022353220478E-2</v>
+      </c>
+      <c r="T239" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="240" spans="2:20">
       <c r="B240" s="4">
         <v>2008.5</v>
       </c>
@@ -11232,8 +13458,20 @@
       <c r="P240" s="10">
         <v>1171.3</v>
       </c>
-    </row>
-    <row r="241" spans="2:16">
+      <c r="Q240" s="12">
+        <v>74</v>
+      </c>
+      <c r="R240" s="10">
+        <v>3.1928950603357102</v>
+      </c>
+      <c r="S240" s="10">
+        <v>-0.12693163469416124</v>
+      </c>
+      <c r="T240" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="241" spans="2:20">
       <c r="B241" s="4">
         <v>2008.75</v>
       </c>
@@ -11279,8 +13517,20 @@
       <c r="P241" s="10">
         <v>898.5</v>
       </c>
-    </row>
-    <row r="242" spans="2:16">
+      <c r="Q241" s="12">
+        <v>67</v>
+      </c>
+      <c r="R241" s="10">
+        <v>3.1273238907786789</v>
+      </c>
+      <c r="S241" s="10">
+        <v>-0.19474345564590353</v>
+      </c>
+      <c r="T241" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="2:20">
       <c r="B242" s="4">
         <v>2009</v>
       </c>
@@ -11326,8 +13576,20 @@
       <c r="P242" s="10">
         <v>807.9</v>
       </c>
-    </row>
-    <row r="243" spans="2:16">
+      <c r="Q242" s="12">
+        <v>66</v>
+      </c>
+      <c r="R242" s="10">
+        <v>3.1000303495093062</v>
+      </c>
+      <c r="S242" s="10">
+        <v>-0.26847223520079955</v>
+      </c>
+      <c r="T242" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="243" spans="2:20">
       <c r="B243" s="4">
         <v>2009.25</v>
       </c>
@@ -11373,8 +13635,20 @@
       <c r="P243" s="10">
         <v>924.69999999999993</v>
       </c>
-    </row>
-    <row r="244" spans="2:16">
+      <c r="Q243" s="12">
+        <v>85</v>
+      </c>
+      <c r="R243" s="10">
+        <v>3.1348091866723156</v>
+      </c>
+      <c r="S243" s="10">
+        <v>-0.31599387632997483</v>
+      </c>
+      <c r="T243" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" spans="2:20">
       <c r="B244" s="4">
         <v>2009.5</v>
       </c>
@@ -11420,8 +13694,20 @@
       <c r="P244" s="10">
         <v>1025.3000000000002</v>
       </c>
-    </row>
-    <row r="245" spans="2:16">
+      <c r="Q244" s="12">
+        <v>81</v>
+      </c>
+      <c r="R244" s="10">
+        <v>3.1812983571628166</v>
+      </c>
+      <c r="S244" s="10">
+        <v>-0.27600396888053347</v>
+      </c>
+      <c r="T244" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="2:20">
       <c r="B245" s="4">
         <v>2009.75</v>
       </c>
@@ -11467,8 +13753,20 @@
       <c r="P245" s="10">
         <v>1080.2</v>
       </c>
-    </row>
-    <row r="246" spans="2:16">
+      <c r="Q245" s="12">
+        <v>80</v>
+      </c>
+      <c r="R245" s="10">
+        <v>3.2368539443592756</v>
+      </c>
+      <c r="S245" s="10">
+        <v>-0.2380246776708603</v>
+      </c>
+      <c r="T245" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="246" spans="2:20">
       <c r="B246" s="4">
         <v>2010</v>
       </c>
@@ -11514,8 +13812,20 @@
       <c r="P246" s="10">
         <v>1133.5999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="2:16">
+      <c r="Q246" s="12">
+        <v>84</v>
+      </c>
+      <c r="R246" s="10">
+        <v>3.2393872499013825</v>
+      </c>
+      <c r="S246" s="10">
+        <v>-0.19687426276610492</v>
+      </c>
+      <c r="T246" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="247" spans="2:20">
       <c r="B247" s="4">
         <v>2010.25</v>
       </c>
@@ -11561,8 +13871,20 @@
       <c r="P247" s="10">
         <v>1102.1000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="2:16">
+      <c r="Q247" s="12">
+        <v>81</v>
+      </c>
+      <c r="R247" s="10">
+        <v>3.2667322387839013</v>
+      </c>
+      <c r="S247" s="10">
+        <v>-0.14789951949699068</v>
+      </c>
+      <c r="T247" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="248" spans="2:20">
       <c r="B248" s="4">
         <v>2010.5</v>
       </c>
@@ -11608,8 +13930,20 @@
       <c r="P248" s="10">
         <v>1118.8</v>
       </c>
-    </row>
-    <row r="249" spans="2:16">
+      <c r="Q248" s="12">
+        <v>74</v>
+      </c>
+      <c r="R248" s="10">
+        <v>3.3016914164636968</v>
+      </c>
+      <c r="S248" s="10">
+        <v>-0.13144052371196069</v>
+      </c>
+      <c r="T248" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="2:20">
       <c r="B249" s="4">
         <v>2010.75</v>
       </c>
@@ -11655,8 +13989,20 @@
       <c r="P249" s="10">
         <v>1226.9000000000001</v>
       </c>
-    </row>
-    <row r="250" spans="2:16">
+      <c r="Q249" s="12">
+        <v>75</v>
+      </c>
+      <c r="R249" s="10">
+        <v>3.3063889504681456</v>
+      </c>
+      <c r="S249" s="10">
+        <v>-0.1100328147168288</v>
+      </c>
+      <c r="T249" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="250" spans="2:20">
       <c r="B250" s="4">
         <v>2011</v>
       </c>
@@ -11702,8 +14048,20 @@
       <c r="P250" s="10">
         <v>1325.7</v>
       </c>
-    </row>
-    <row r="251" spans="2:16">
+      <c r="Q250" s="12">
+        <v>78</v>
+      </c>
+      <c r="R250" s="10">
+        <v>3.2906481591772057</v>
+      </c>
+      <c r="S250" s="10">
+        <v>-0.11297657953034534</v>
+      </c>
+      <c r="T250" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="251" spans="2:20">
       <c r="B251" s="4">
         <v>2011.25</v>
       </c>
@@ -11749,8 +14107,20 @@
       <c r="P251" s="10">
         <v>1330.4</v>
       </c>
-    </row>
-    <row r="252" spans="2:16">
+      <c r="Q251" s="12">
+        <v>78</v>
+      </c>
+      <c r="R251" s="10">
+        <v>3.2974753622669026</v>
+      </c>
+      <c r="S251" s="10">
+        <v>-9.3894210051156543E-2</v>
+      </c>
+      <c r="T251" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="252" spans="2:20">
       <c r="B252" s="4">
         <v>2011.5</v>
       </c>
@@ -11796,8 +14166,20 @@
       <c r="P252" s="10">
         <v>1224</v>
       </c>
-    </row>
-    <row r="253" spans="2:16">
+      <c r="Q252" s="12">
+        <v>55</v>
+      </c>
+      <c r="R252" s="10">
+        <v>3.2886153488850129</v>
+      </c>
+      <c r="S252" s="10">
+        <v>-0.10423032066815667</v>
+      </c>
+      <c r="T252" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="253" spans="2:20">
       <c r="B253" s="4">
         <v>2011.75</v>
       </c>
@@ -11843,8 +14225,20 @@
       <c r="P253" s="10">
         <v>1267.6000000000001</v>
       </c>
-    </row>
-    <row r="254" spans="2:16">
+      <c r="Q253" s="12">
+        <v>64</v>
+      </c>
+      <c r="R253" s="10">
+        <v>3.3253292856428294</v>
+      </c>
+      <c r="S253" s="10">
+        <v>-9.2501574506597919E-2</v>
+      </c>
+      <c r="T253" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="254" spans="2:20">
       <c r="B254" s="4">
         <v>2012</v>
       </c>
@@ -11890,8 +14284,20 @@
       <c r="P254" s="10">
         <v>1371.1</v>
       </c>
-    </row>
-    <row r="255" spans="2:16">
+      <c r="Q254" s="12">
+        <v>87</v>
+      </c>
+      <c r="R254" s="10">
+        <v>3.3609965425425279</v>
+      </c>
+      <c r="S254" s="10">
+        <v>-8.6134062478757836E-2</v>
+      </c>
+      <c r="T254" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="255" spans="2:20">
       <c r="B255" s="4">
         <v>2012.25</v>
       </c>
@@ -11937,8 +14343,20 @@
       <c r="P255" s="10">
         <v>1362.4</v>
       </c>
-    </row>
-    <row r="256" spans="2:16">
+      <c r="Q255" s="12">
+        <v>89</v>
+      </c>
+      <c r="R255" s="10">
+        <v>3.3502299976331344</v>
+      </c>
+      <c r="S255" s="10">
+        <v>-9.6748905986729306E-2</v>
+      </c>
+      <c r="T255" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="2:20">
       <c r="B256" s="4">
         <v>2012.5</v>
       </c>
@@ -11984,8 +14402,20 @@
       <c r="P256" s="10">
         <v>1409.7</v>
       </c>
-    </row>
-    <row r="257" spans="2:16">
+      <c r="Q256" s="12">
+        <v>84</v>
+      </c>
+      <c r="R256" s="10">
+        <v>3.3443334100719735</v>
+      </c>
+      <c r="S256" s="10">
+        <v>-9.6151327006229054E-2</v>
+      </c>
+      <c r="T256" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="257" spans="2:20">
       <c r="B257" s="4">
         <v>2012.75</v>
       </c>
@@ -12031,8 +14461,20 @@
       <c r="P257" s="10">
         <v>1438.1999999999998</v>
       </c>
-    </row>
-    <row r="258" spans="2:16">
+      <c r="Q257" s="12">
+        <v>93</v>
+      </c>
+      <c r="R257" s="10">
+        <v>3.3441080464504624</v>
+      </c>
+      <c r="S257" s="10">
+        <v>-8.7259190756859922E-2</v>
+      </c>
+      <c r="T257" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="258" spans="2:20">
       <c r="B258" s="4">
         <v>2013</v>
       </c>
@@ -12078,8 +14520,20 @@
       <c r="P258" s="10">
         <v>1544.8999999999999</v>
       </c>
-    </row>
-    <row r="259" spans="2:16">
+      <c r="Q258" s="12">
+        <v>83</v>
+      </c>
+      <c r="R258" s="10">
+        <v>3.3440854362420196</v>
+      </c>
+      <c r="S258" s="10">
+        <v>-7.9242155664976194E-2</v>
+      </c>
+      <c r="T258" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="259" spans="2:20">
       <c r="B259" s="4">
         <v>2013.25</v>
       </c>
@@ -12125,8 +14579,20 @@
       <c r="P259" s="10">
         <v>1630.1000000000001</v>
       </c>
-    </row>
-    <row r="260" spans="2:16">
+      <c r="Q259" s="12">
+        <v>87</v>
+      </c>
+      <c r="R259" s="10">
+        <v>3.3450914948745725</v>
+      </c>
+      <c r="S259" s="10">
+        <v>-8.1022285990122456E-2</v>
+      </c>
+      <c r="T259" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="260" spans="2:20">
       <c r="B260" s="4">
         <v>2013.5</v>
       </c>
@@ -12172,8 +14638,20 @@
       <c r="P260" s="10">
         <v>1689.2</v>
       </c>
-    </row>
-    <row r="261" spans="2:16">
+      <c r="Q260" s="12">
+        <v>82</v>
+      </c>
+      <c r="R260" s="10">
+        <v>3.3525908213708511</v>
+      </c>
+      <c r="S260" s="10">
+        <v>-9.1234307069706089E-2</v>
+      </c>
+      <c r="T260" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="261" spans="2:20">
       <c r="B261" s="4">
         <v>2013.75</v>
       </c>
@@ -12219,8 +14697,20 @@
       <c r="P261" s="10">
         <v>1798.3</v>
       </c>
-    </row>
-    <row r="262" spans="2:16">
+      <c r="Q261" s="12">
+        <v>81</v>
+      </c>
+      <c r="R261" s="10">
+        <v>3.37652345332818</v>
+      </c>
+      <c r="S261" s="10">
+        <v>-9.809583547482785E-2</v>
+      </c>
+      <c r="T261" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="262" spans="2:20">
       <c r="B262" s="4">
         <v>2014</v>
       </c>
@@ -12266,8 +14756,20 @@
       <c r="P262" s="10">
         <v>1849.6</v>
       </c>
-    </row>
-    <row r="263" spans="2:16">
+      <c r="Q262" s="12">
+        <v>78</v>
+      </c>
+      <c r="R262" s="10">
+        <v>3.3418961856952705</v>
+      </c>
+      <c r="S262" s="10">
+        <v>-0.10765636720951141</v>
+      </c>
+      <c r="T262" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="2:20">
       <c r="B263" s="4">
         <v>2014.25</v>
       </c>
@@ -12313,8 +14815,20 @@
       <c r="P263" s="10">
         <v>1924.6000000000001</v>
       </c>
-    </row>
-    <row r="264" spans="2:16">
+      <c r="Q263" s="12">
+        <v>85</v>
+      </c>
+      <c r="R263" s="10">
+        <v>3.3909485695215049</v>
+      </c>
+      <c r="S263" s="10">
+        <v>-8.2240113158940642E-2</v>
+      </c>
+      <c r="T263" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="264" spans="2:20">
       <c r="B264" s="4">
         <v>2014.5</v>
       </c>
@@ -12360,8 +14874,20 @@
       <c r="P264" s="10">
         <v>1981.1000000000001</v>
       </c>
-    </row>
-    <row r="265" spans="2:16">
+      <c r="Q264" s="12">
+        <v>84</v>
+      </c>
+      <c r="R264" s="10">
+        <v>3.4183796068169969</v>
+      </c>
+      <c r="S264" s="10">
+        <v>-8.489215776719726E-2</v>
+      </c>
+      <c r="T264" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="265" spans="2:20">
       <c r="B265" s="4">
         <v>2014.75</v>
       </c>
@@ -12407,8 +14933,20 @@
       <c r="P265" s="10">
         <v>2034.8999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="2:16">
+      <c r="Q265" s="12">
+        <v>99</v>
+      </c>
+      <c r="R265" s="10">
+        <v>3.4265118052128809</v>
+      </c>
+      <c r="S265" s="10">
+        <v>-7.5061335932567447E-2</v>
+      </c>
+      <c r="T265" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="266" spans="2:20">
       <c r="B266" s="4">
         <v>2015</v>
       </c>
@@ -12454,8 +14992,20 @@
       <c r="P266" s="10">
         <v>2063.2000000000003</v>
       </c>
-    </row>
-    <row r="267" spans="2:16">
+      <c r="Q266" s="12">
+        <v>109</v>
+      </c>
+      <c r="R266" s="10">
+        <v>3.4389214111009623</v>
+      </c>
+      <c r="S266" s="10">
+        <v>-9.1064984301477081E-2</v>
+      </c>
+      <c r="T266" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="267" spans="2:20">
       <c r="B267" s="4">
         <v>2015.25</v>
       </c>
@@ -12501,8 +15051,20 @@
       <c r="P267" s="10">
         <v>2090</v>
       </c>
-    </row>
-    <row r="268" spans="2:16">
+      <c r="Q267" s="12">
+        <v>105</v>
+      </c>
+      <c r="R267" s="10">
+        <v>3.4493488954252647</v>
+      </c>
+      <c r="S267" s="10">
+        <v>-0.10562584143838694</v>
+      </c>
+      <c r="T267" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="268" spans="2:20">
       <c r="B268" s="4">
         <v>2015.5</v>
       </c>
@@ -12548,8 +15110,20 @@
       <c r="P268" s="10">
         <v>2018.8999999999999</v>
       </c>
-    </row>
-    <row r="269" spans="2:16">
+      <c r="Q268" s="12">
+        <v>98</v>
+      </c>
+      <c r="R268" s="10">
+        <v>3.4400248077596642</v>
+      </c>
+      <c r="S268" s="10">
+        <v>-0.10995998655638914</v>
+      </c>
+      <c r="T268" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="269" spans="2:20">
       <c r="B269" s="4">
         <v>2015.75</v>
       </c>
@@ -12595,8 +15169,20 @@
       <c r="P269" s="10">
         <v>2036</v>
       </c>
-    </row>
-    <row r="270" spans="2:16">
+      <c r="Q269" s="12">
+        <v>104</v>
+      </c>
+      <c r="R269" s="10">
+        <v>3.4170612265694191</v>
+      </c>
+      <c r="S269" s="10">
+        <v>-0.10779962833385601</v>
+      </c>
+      <c r="T269" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="270" spans="2:20">
       <c r="B270" s="4">
         <v>2016</v>
       </c>
@@ -12642,8 +15228,20 @@
       <c r="P270" s="10">
         <v>1999.4</v>
       </c>
-    </row>
-    <row r="271" spans="2:16">
+      <c r="Q270" s="12">
+        <v>102</v>
+      </c>
+      <c r="R270" s="10">
+        <v>3.4101513237818191</v>
+      </c>
+      <c r="S270" s="10">
+        <v>-0.11394708720509183</v>
+      </c>
+      <c r="T270" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="271" spans="2:20">
       <c r="B271" s="4">
         <v>2016.25</v>
       </c>
@@ -12689,8 +15287,20 @@
       <c r="P271" s="10">
         <v>2108.6999999999998</v>
       </c>
-    </row>
-    <row r="272" spans="2:16">
+      <c r="Q271" s="12">
+        <v>101</v>
+      </c>
+      <c r="R271" s="10">
+        <v>3.388726444714067</v>
+      </c>
+      <c r="S271" s="10">
+        <v>-0.12377943574659374</v>
+      </c>
+      <c r="T271" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="272" spans="2:20">
       <c r="B272" s="4">
         <v>2016.5</v>
       </c>
@@ -12736,8 +15346,20 @@
       <c r="P272" s="10">
         <v>2159.6999999999998</v>
       </c>
-    </row>
-    <row r="273" spans="2:16">
+      <c r="Q272" s="12">
+        <v>98</v>
+      </c>
+      <c r="R272" s="10">
+        <v>3.4266887561495754</v>
+      </c>
+      <c r="S272" s="10">
+        <v>-0.12569320426779823</v>
+      </c>
+      <c r="T272" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="273" spans="2:20">
       <c r="B273" s="4">
         <v>2016.75</v>
       </c>
@@ -12783,8 +15405,20 @@
       <c r="P273" s="10">
         <v>2210.7000000000003</v>
       </c>
-    </row>
-    <row r="274" spans="2:16">
+      <c r="Q273" s="12">
+        <v>103</v>
+      </c>
+      <c r="R273" s="10">
+        <v>3.4267581099457236</v>
+      </c>
+      <c r="S273" s="10">
+        <v>-0.12893674168815808</v>
+      </c>
+      <c r="T273" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="274" spans="2:20">
       <c r="B274" s="4">
         <v>2017</v>
       </c>
@@ -12830,8 +15464,20 @@
       <c r="P274" s="10">
         <v>2347.4</v>
       </c>
-    </row>
-    <row r="275" spans="2:16">
+      <c r="Q274" s="12">
+        <v>109</v>
+      </c>
+      <c r="R274" s="10">
+        <v>3.4267327640040208</v>
+      </c>
+      <c r="S274" s="10">
+        <v>-0.13979905744601839</v>
+      </c>
+      <c r="T274" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="275" spans="2:20">
       <c r="B275" s="4">
         <v>2017.25</v>
       </c>
@@ -12877,8 +15523,20 @@
       <c r="P275" s="10">
         <v>2422.4</v>
       </c>
-    </row>
-    <row r="276" spans="2:16">
+      <c r="Q275" s="12">
+        <v>102</v>
+      </c>
+      <c r="R275" s="10">
+        <v>3.4403812991075262</v>
+      </c>
+      <c r="S275" s="10">
+        <v>-0.13200149199572236</v>
+      </c>
+      <c r="T275" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="276" spans="2:20">
       <c r="B276" s="4">
         <v>2017.5</v>
       </c>
@@ -12924,8 +15582,20 @@
       <c r="P276" s="10">
         <v>2509.1</v>
       </c>
-    </row>
-    <row r="277" spans="2:16">
+      <c r="Q276" s="3">
+        <v>95</v>
+      </c>
+      <c r="R276" s="10">
+        <v>3.4638601443409027</v>
+      </c>
+      <c r="S276" s="10">
+        <v>-0.13774804647203107</v>
+      </c>
+      <c r="T276" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="277" spans="2:20">
       <c r="B277" s="4">
         <v>2017.75</v>
       </c>
@@ -12971,8 +15641,20 @@
       <c r="P277" s="10">
         <v>2664.4</v>
       </c>
-    </row>
-    <row r="278" spans="2:16">
+      <c r="Q277" s="3">
+        <v>102</v>
+      </c>
+      <c r="R277" s="10">
+        <v>3.4524670193133713</v>
+      </c>
+      <c r="S277" s="10">
+        <v>-0.12972077223782633</v>
+      </c>
+      <c r="T277" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="278" spans="2:20">
       <c r="B278" s="4">
         <v>2018</v>
       </c>
@@ -13018,8 +15700,20 @@
       <c r="P278" s="10">
         <v>2706.6</v>
       </c>
-    </row>
-    <row r="279" spans="2:16">
+      <c r="Q278" s="3">
+        <v>102</v>
+      </c>
+      <c r="R278" s="10">
+        <v>3.4630409826078314</v>
+      </c>
+      <c r="S278" s="10">
+        <v>-0.10529354733711982</v>
+      </c>
+      <c r="T278" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="279" spans="2:20">
       <c r="B279" s="4">
         <v>2018.25</v>
       </c>
@@ -13063,8 +15757,16 @@
       <c r="P279" s="10">
         <v>2722</v>
       </c>
-    </row>
-    <row r="280" spans="2:16">
+      <c r="Q279" s="3">
+        <v>107</v>
+      </c>
+      <c r="R279" s="10"/>
+      <c r="S279" s="10"/>
+      <c r="T279" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="280" spans="2:20">
       <c r="B280" s="4">
         <v>2018.5</v>
       </c>
@@ -13073,8 +15775,11 @@
       </c>
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
-    </row>
-    <row r="281" spans="2:16">
+      <c r="R280" s="10"/>
+      <c r="S280" s="10"/>
+      <c r="T280" s="3"/>
+    </row>
+    <row r="281" spans="2:20">
       <c r="B281" s="4">
         <v>2018.75</v>
       </c>
@@ -13083,32 +15788,34 @@
       </c>
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>
-    </row>
-    <row r="282" spans="2:16">
+      <c r="R281" s="10"/>
+      <c r="S281" s="10"/>
+    </row>
+    <row r="282" spans="2:20">
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="2:16">
+    <row r="283" spans="2:20">
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="2:16">
+    <row r="284" spans="2:20">
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="2:16">
+    <row r="285" spans="2:20">
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="2:16">
+    <row r="286" spans="2:20">
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="2:16">
+    <row r="287" spans="2:20">
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="2:16">
+    <row r="288" spans="2:20">
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
     </row>
@@ -15710,6 +18417,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Data Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -297,6 +296,9 @@
   </si>
   <si>
     <t>SPFHOUSEDispt4</t>
+  </si>
+  <si>
+    <t>GovSpending</t>
   </si>
 </sst>
 </file>
@@ -741,13 +743,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ937"/>
+  <dimension ref="A1:AK937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AA75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AD54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC91" sqref="AC91"/>
+      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -760,11 +762,12 @@
     <col min="16" max="16" width="20.85546875" style="9" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="3" customWidth="1"/>
     <col min="18" max="18" width="21.28515625" style="9" customWidth="1"/>
-    <col min="19" max="36" width="22.140625" style="9" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="9"/>
+    <col min="19" max="35" width="22.140625" style="9" customWidth="1"/>
+    <col min="36" max="37" width="22.42578125" style="9" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,8 +876,11 @@
       <c r="AJ1" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -983,8 +989,11 @@
       <c r="AJ2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1102,11 @@
       <c r="AJ3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1203,8 +1215,11 @@
       <c r="AJ4" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1313,8 +1328,11 @@
       <c r="AJ5" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="B6" s="4">
         <v>1950</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>-0.11431313472008581</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="B7" s="4">
         <v>1950.25</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>-2.2894475299317971E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="B8" s="4">
         <v>1950.5</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>5.9200624915389521E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="B9" s="4">
         <v>1950.75</v>
       </c>
@@ -1466,7 +1484,7 @@
         <v>6.3127903890477968E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="B10" s="4">
         <v>1951</v>
       </c>
@@ -1504,7 +1522,7 @@
         <v>6.8106865509809711E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="B11" s="4">
         <v>1951.25</v>
       </c>
@@ -1542,7 +1560,7 @@
         <v>9.7488465004791219E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="B12" s="4">
         <v>1951.5</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>6.0856412442280378E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="B13" s="4">
         <v>1951.75</v>
       </c>
@@ -1618,7 +1636,7 @@
         <v>6.7322906534108176E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="B14" s="4">
         <v>1952</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>0.11976733748280652</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="B15" s="4">
         <v>1952.25</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>5.8630031929538778E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="B16" s="4">
         <v>1952.5</v>
       </c>
@@ -2424,7 +2442,7 @@
         <v>-8.1167141299843572E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:37">
       <c r="B33" s="4">
         <v>1956.75</v>
       </c>
@@ -2468,7 +2486,7 @@
         <v>3.0833846677127231E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:37">
       <c r="B34" s="4">
         <v>1957</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>-5.7196074377090962E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:37">
       <c r="B35" s="4">
         <v>1957.25</v>
       </c>
@@ -2556,7 +2574,7 @@
         <v>-8.1547169078575815E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:37">
       <c r="B36" s="4">
         <v>1957.5</v>
       </c>
@@ -2600,7 +2618,7 @@
         <v>-0.11278996872284601</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:37">
       <c r="B37" s="4">
         <v>1957.75</v>
       </c>
@@ -2644,7 +2662,7 @@
         <v>-0.20580850785103549</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:37">
       <c r="B38" s="4">
         <v>1958</v>
       </c>
@@ -2688,7 +2706,7 @@
         <v>-0.28366895483664478</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:37">
       <c r="B39" s="4">
         <v>1958.25</v>
       </c>
@@ -2732,7 +2750,7 @@
         <v>-0.26634761620783082</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:37">
       <c r="B40" s="4">
         <v>1958.5</v>
       </c>
@@ -2776,7 +2794,7 @@
         <v>-0.19154025681984282</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:37">
       <c r="B41" s="4">
         <v>1958.75</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>-0.14187872282057556</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:37">
       <c r="B42" s="4">
         <v>1959</v>
       </c>
@@ -2867,7 +2885,7 @@
         <v>-5.1920519961963923E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:37">
       <c r="B43" s="4">
         <v>1959.25</v>
       </c>
@@ -2914,7 +2932,7 @@
         <v>-8.9935538290975489E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:37">
       <c r="B44" s="4">
         <v>1959.5</v>
       </c>
@@ -2960,8 +2978,9 @@
       <c r="S44" s="10">
         <v>-6.1327866335059371E-2</v>
       </c>
-    </row>
-    <row r="45" spans="2:19">
+      <c r="AK44" s="3"/>
+    </row>
+    <row r="45" spans="2:37">
       <c r="B45" s="4">
         <v>1959.75</v>
       </c>
@@ -3007,8 +3026,9 @@
       <c r="S45" s="10">
         <v>-9.6121041384898798E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:19">
+      <c r="AK45" s="3"/>
+    </row>
+    <row r="46" spans="2:37">
       <c r="B46" s="4">
         <v>1960</v>
       </c>
@@ -3057,8 +3077,11 @@
       <c r="S46" s="10">
         <v>-6.8153302421160661E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:19">
+      <c r="AK46" s="3">
+        <v>144.233</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37">
       <c r="B47" s="4">
         <v>1960.25</v>
       </c>
@@ -3107,8 +3130,11 @@
       <c r="S47" s="10">
         <v>-0.13504949532331789</v>
       </c>
-    </row>
-    <row r="48" spans="2:19">
+      <c r="AK47" s="3">
+        <v>147.417</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37">
       <c r="B48" s="4">
         <v>1960.5</v>
       </c>
@@ -3157,8 +3183,11 @@
       <c r="S48" s="10">
         <v>-0.16063489329269484</v>
       </c>
-    </row>
-    <row r="49" spans="2:19">
+      <c r="AK48" s="3">
+        <v>150.459</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37">
       <c r="B49" s="4">
         <v>1960.75</v>
       </c>
@@ -3207,8 +3236,11 @@
       <c r="S49" s="10">
         <v>-0.23110766834519514</v>
       </c>
-    </row>
-    <row r="50" spans="2:19">
+      <c r="AK49" s="3">
+        <v>153.78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37">
       <c r="B50" s="4">
         <v>1961</v>
       </c>
@@ -3257,8 +3289,11 @@
       <c r="S50" s="10">
         <v>-0.20781379094878377</v>
       </c>
-    </row>
-    <row r="51" spans="2:19">
+      <c r="AK50" s="3">
+        <v>157.25399999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37">
       <c r="B51" s="4">
         <v>1961.25</v>
       </c>
@@ -3307,8 +3342,11 @@
       <c r="S51" s="10">
         <v>-0.1318934749416964</v>
       </c>
-    </row>
-    <row r="52" spans="2:19">
+      <c r="AK51" s="3">
+        <v>160.73699999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37">
       <c r="B52" s="4">
         <v>1961.5</v>
       </c>
@@ -3357,8 +3395,11 @@
       <c r="S52" s="10">
         <v>-0.11355717976452234</v>
       </c>
-    </row>
-    <row r="53" spans="2:19">
+      <c r="AK52" s="3">
+        <v>162.661</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37">
       <c r="B53" s="4">
         <v>1961.75</v>
       </c>
@@ -3407,8 +3448,11 @@
       <c r="S53" s="10">
         <v>-3.6500287241036974E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:19">
+      <c r="AK53" s="3">
+        <v>166.34399999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37">
       <c r="B54" s="4">
         <v>1962</v>
       </c>
@@ -3457,8 +3501,11 @@
       <c r="S54" s="10">
         <v>-5.5835714273246365E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:19">
+      <c r="AK54" s="3">
+        <v>170.892</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37">
       <c r="B55" s="4">
         <v>1962.25</v>
       </c>
@@ -3507,8 +3554,11 @@
       <c r="S55" s="10">
         <v>-3.1795085532034341E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:19">
+      <c r="AK55" s="3">
+        <v>173.125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37">
       <c r="B56" s="4">
         <v>1962.5</v>
       </c>
@@ -3557,8 +3607,11 @@
       <c r="S56" s="10">
         <v>-3.543605355611059E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:19">
+      <c r="AK56" s="3">
+        <v>175.59700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37">
       <c r="B57" s="4">
         <v>1962.75</v>
       </c>
@@ -3607,8 +3660,11 @@
       <c r="S57" s="10">
         <v>-4.7217252494481707E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:19">
+      <c r="AK57" s="3">
+        <v>178.20599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37">
       <c r="B58" s="4">
         <v>1963</v>
       </c>
@@ -3657,8 +3713,11 @@
       <c r="S58" s="10">
         <v>-2.935836151071004E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:19">
+      <c r="AK58" s="3">
+        <v>179.393</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37">
       <c r="B59" s="4">
         <v>1963.25</v>
       </c>
@@ -3707,8 +3766,11 @@
       <c r="S59" s="10">
         <v>-6.4046877799651507E-3</v>
       </c>
-    </row>
-    <row r="60" spans="2:19">
+      <c r="AK59" s="3">
+        <v>180.369</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37">
       <c r="B60" s="4">
         <v>1963.5</v>
       </c>
@@ -3757,8 +3819,11 @@
       <c r="S60" s="10">
         <v>4.0259160807080974E-3</v>
       </c>
-    </row>
-    <row r="61" spans="2:19">
+      <c r="AK60" s="3">
+        <v>184.86199999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37">
       <c r="B61" s="4">
         <v>1963.75</v>
       </c>
@@ -3807,8 +3872,11 @@
       <c r="S61" s="10">
         <v>1.2028063697621714E-2</v>
       </c>
-    </row>
-    <row r="62" spans="2:19">
+      <c r="AK61" s="3">
+        <v>186.792</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37">
       <c r="B62" s="4">
         <v>1964</v>
       </c>
@@ -3857,8 +3925,11 @@
       <c r="S62" s="10">
         <v>-8.5626146620945021E-3</v>
       </c>
-    </row>
-    <row r="63" spans="2:19">
+      <c r="AK62" s="3">
+        <v>190.07499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37">
       <c r="B63" s="4">
         <v>1964.25</v>
       </c>
@@ -3907,8 +3978,11 @@
       <c r="S63" s="10">
         <v>3.6433258130176463E-2</v>
       </c>
-    </row>
-    <row r="64" spans="2:19">
+      <c r="AK63" s="3">
+        <v>192.97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37">
       <c r="B64" s="4">
         <v>1964.5</v>
       </c>
@@ -3957,8 +4031,11 @@
       <c r="S64" s="10">
         <v>3.9213993370909569E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:36">
+      <c r="AK64" s="3">
+        <v>193.29499999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:37">
       <c r="B65" s="4">
         <v>1964.75</v>
       </c>
@@ -4007,8 +4084,11 @@
       <c r="S65" s="10">
         <v>4.0378913523001526E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:36">
+      <c r="AK65" s="3">
+        <v>192.97300000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:37">
       <c r="B66" s="4">
         <v>1965</v>
       </c>
@@ -4057,8 +4137,11 @@
       <c r="S66" s="10">
         <v>0.11194228559689559</v>
       </c>
-    </row>
-    <row r="67" spans="2:36">
+      <c r="AK66" s="3">
+        <v>196.19800000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:37">
       <c r="B67" s="4">
         <v>1965.25</v>
       </c>
@@ -4107,8 +4190,11 @@
       <c r="S67" s="10">
         <v>0.10119244355901347</v>
       </c>
-    </row>
-    <row r="68" spans="2:36">
+      <c r="AK67" s="3">
+        <v>200.08799999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:37">
       <c r="B68" s="4">
         <v>1965.5</v>
       </c>
@@ -4157,8 +4243,11 @@
       <c r="S68" s="10">
         <v>8.176804778330593E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:36">
+      <c r="AK68" s="3">
+        <v>208.98</v>
+      </c>
+    </row>
+    <row r="69" spans="2:37">
       <c r="B69" s="4">
         <v>1965.75</v>
       </c>
@@ -4207,8 +4296,11 @@
       <c r="S69" s="10">
         <v>0.1082453025380387</v>
       </c>
-    </row>
-    <row r="70" spans="2:36">
+      <c r="AK69" s="3">
+        <v>214.261</v>
+      </c>
+    </row>
+    <row r="70" spans="2:37">
       <c r="B70" s="4">
         <v>1966</v>
       </c>
@@ -4257,8 +4349,11 @@
       <c r="S70" s="10">
         <v>0.13682762929939579</v>
       </c>
-    </row>
-    <row r="71" spans="2:36">
+      <c r="AK70" s="3">
+        <v>221.114</v>
+      </c>
+    </row>
+    <row r="71" spans="2:37">
       <c r="B71" s="4">
         <v>1966.25</v>
       </c>
@@ -4307,8 +4402,11 @@
       <c r="S71" s="10">
         <v>0.1306163562078238</v>
       </c>
-    </row>
-    <row r="72" spans="2:36">
+      <c r="AK71" s="3">
+        <v>227.47900000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:37">
       <c r="B72" s="4">
         <v>1966.5</v>
       </c>
@@ -4357,8 +4455,11 @@
       <c r="S72" s="10">
         <v>0.1138004688230192</v>
       </c>
-    </row>
-    <row r="73" spans="2:36">
+      <c r="AK72" s="3">
+        <v>235.64400000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:37">
       <c r="B73" s="4">
         <v>1966.75</v>
       </c>
@@ -4407,8 +4508,11 @@
       <c r="S73" s="10">
         <v>8.616332279898245E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:36">
+      <c r="AK73" s="3">
+        <v>243.76300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:37">
       <c r="B74" s="4">
         <v>1967</v>
       </c>
@@ -4457,8 +4561,11 @@
       <c r="S74" s="10">
         <v>1.3214469794313302E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:36">
+      <c r="AK74" s="3">
+        <v>255.41499999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:37">
       <c r="B75" s="4">
         <v>1967.25</v>
       </c>
@@ -4507,8 +4614,11 @@
       <c r="S75" s="10">
         <v>-1.6158644428150078E-2</v>
       </c>
-    </row>
-    <row r="76" spans="2:36">
+      <c r="AK75" s="3">
+        <v>256.92200000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="2:37">
       <c r="B76" s="4">
         <v>1967.5</v>
       </c>
@@ -4557,8 +4667,11 @@
       <c r="S76" s="10">
         <v>4.3804747454528822E-3</v>
       </c>
-    </row>
-    <row r="77" spans="2:36">
+      <c r="AK76" s="3">
+        <v>264.19900000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:37">
       <c r="B77" s="4">
         <v>1967.75</v>
       </c>
@@ -4623,8 +4736,11 @@
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
       <c r="AJ77" s="3"/>
-    </row>
-    <row r="78" spans="2:36">
+      <c r="AK77" s="3">
+        <v>268.38499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:37">
       <c r="B78" s="4">
         <v>1968</v>
       </c>
@@ -4689,8 +4805,11 @@
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
       <c r="AJ78" s="3"/>
-    </row>
-    <row r="79" spans="2:36">
+      <c r="AK78" s="3">
+        <v>277.11099999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:37">
       <c r="B79" s="4">
         <v>1968.25</v>
       </c>
@@ -4755,8 +4874,11 @@
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
       <c r="AJ79" s="3"/>
-    </row>
-    <row r="80" spans="2:36">
+      <c r="AK79" s="3">
+        <v>286.70800000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="2:37">
       <c r="B80" s="4">
         <v>1968.5</v>
       </c>
@@ -4821,8 +4943,11 @@
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
       <c r="AJ80" s="3"/>
-    </row>
-    <row r="81" spans="2:36">
+      <c r="AK80" s="3">
+        <v>292.21499999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="2:37">
       <c r="B81" s="4">
         <v>1968.75</v>
       </c>
@@ -4911,8 +5036,11 @@
         <v>0.1</v>
       </c>
       <c r="AJ81" s="3"/>
-    </row>
-    <row r="82" spans="2:36">
+      <c r="AK81" s="3">
+        <v>298.98200000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="2:37">
       <c r="B82" s="4">
         <v>1969</v>
       </c>
@@ -5001,8 +5129,11 @@
         <v>0.1</v>
       </c>
       <c r="AJ82" s="3"/>
-    </row>
-    <row r="83" spans="2:36">
+      <c r="AK82" s="3">
+        <v>300.56599999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:37">
       <c r="B83" s="4">
         <v>1969.25</v>
       </c>
@@ -5091,8 +5222,11 @@
         <v>0.15</v>
       </c>
       <c r="AJ83" s="3"/>
-    </row>
-    <row r="84" spans="2:36">
+      <c r="AK83" s="3">
+        <v>307.101</v>
+      </c>
+    </row>
+    <row r="84" spans="2:37">
       <c r="B84" s="4">
         <v>1969.5</v>
       </c>
@@ -5181,8 +5315,11 @@
         <v>0.26</v>
       </c>
       <c r="AJ84" s="3"/>
-    </row>
-    <row r="85" spans="2:36">
+      <c r="AK84" s="3">
+        <v>313.91699999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:37">
       <c r="B85" s="4">
         <v>1969.75</v>
       </c>
@@ -5271,8 +5408,11 @@
         <v>0.185</v>
       </c>
       <c r="AJ85" s="3"/>
-    </row>
-    <row r="86" spans="2:36">
+      <c r="AK85" s="3">
+        <v>318.24299999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:37">
       <c r="B86" s="4">
         <v>1970</v>
       </c>
@@ -5361,8 +5501,11 @@
         <v>0.25</v>
       </c>
       <c r="AJ86" s="3"/>
-    </row>
-    <row r="87" spans="2:36">
+      <c r="AK86" s="3">
+        <v>325.87799999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:37">
       <c r="B87" s="4">
         <v>1970.25</v>
       </c>
@@ -5459,8 +5602,11 @@
       <c r="AJ87" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="88" spans="2:36">
+      <c r="AK87" s="3">
+        <v>339.04899999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:37">
       <c r="B88" s="4">
         <v>1970.5</v>
       </c>
@@ -5557,8 +5703,11 @@
       <c r="AJ88" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="89" spans="2:36">
+      <c r="AK88" s="3">
+        <v>346.41199999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:37">
       <c r="B89" s="4">
         <v>1970.75</v>
       </c>
@@ -5655,8 +5804,11 @@
       <c r="AJ89" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="90" spans="2:36">
+      <c r="AK89" s="3">
+        <v>354.25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:37">
       <c r="B90" s="4">
         <v>1971</v>
       </c>
@@ -5753,8 +5905,11 @@
       <c r="AJ90" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="91" spans="2:36">
+      <c r="AK90" s="3">
+        <v>358.56599999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="2:37">
       <c r="B91" s="4">
         <v>1971.25</v>
       </c>
@@ -5851,8 +6006,11 @@
       <c r="AJ91" s="3">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="92" spans="2:36">
+      <c r="AK91" s="3">
+        <v>373.20600000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="2:37">
       <c r="B92" s="4">
         <v>1971.5</v>
       </c>
@@ -5949,8 +6107,11 @@
       <c r="AJ92" s="3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="93" spans="2:36">
+      <c r="AK92" s="3">
+        <v>377.13200000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:37">
       <c r="B93" s="4">
         <v>1971.75</v>
       </c>
@@ -6047,8 +6208,11 @@
       <c r="AJ93" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="94" spans="2:36">
+      <c r="AK93" s="3">
+        <v>383.30599999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:37">
       <c r="B94" s="4">
         <v>1972</v>
       </c>
@@ -6145,8 +6309,11 @@
       <c r="AJ94" s="3">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="2:36">
+      <c r="AK94" s="3">
+        <v>399.428</v>
+      </c>
+    </row>
+    <row r="95" spans="2:37">
       <c r="B95" s="4">
         <v>1972.25</v>
       </c>
@@ -6243,8 +6410,11 @@
       <c r="AJ95" s="3">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="96" spans="2:36">
+      <c r="AK95" s="3">
+        <v>403.92899999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="2:37">
       <c r="B96" s="4">
         <v>1972.5</v>
       </c>
@@ -6341,8 +6511,11 @@
       <c r="AJ96" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="97" spans="2:36">
+      <c r="AK96" s="3">
+        <v>404.90800000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:37">
       <c r="B97" s="4">
         <v>1972.75</v>
       </c>
@@ -6439,8 +6612,11 @@
       <c r="AJ97" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="98" spans="2:36">
+      <c r="AK97" s="3">
+        <v>419.28500000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:37">
       <c r="B98" s="4">
         <v>1973</v>
       </c>
@@ -6537,8 +6713,11 @@
       <c r="AJ98" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="99" spans="2:36">
+      <c r="AK98" s="3">
+        <v>426.92700000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="2:37">
       <c r="B99" s="4">
         <v>1973.25</v>
       </c>
@@ -6635,8 +6814,11 @@
       <c r="AJ99" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="100" spans="2:36">
+      <c r="AK99" s="3">
+        <v>439.10700000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="2:37">
       <c r="B100" s="4">
         <v>1973.5</v>
       </c>
@@ -6733,8 +6915,11 @@
       <c r="AJ100" s="3">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="2:36">
+      <c r="AK100" s="3">
+        <v>437.62900000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:37">
       <c r="B101" s="4">
         <v>1973.75</v>
       </c>
@@ -6831,8 +7016,11 @@
       <c r="AJ101" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="102" spans="2:36">
+      <c r="AK101" s="3">
+        <v>451.01900000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:37">
       <c r="B102" s="4">
         <v>1974</v>
       </c>
@@ -6929,8 +7117,11 @@
       <c r="AJ102" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="103" spans="2:36">
+      <c r="AK102" s="3">
+        <v>465.64299999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="2:37">
       <c r="B103" s="4">
         <v>1974.25</v>
       </c>
@@ -7027,8 +7218,11 @@
       <c r="AJ103" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="104" spans="2:36">
+      <c r="AK103" s="3">
+        <v>477.34800000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:37">
       <c r="B104" s="4">
         <v>1974.5</v>
       </c>
@@ -7125,8 +7319,11 @@
       <c r="AJ104" s="13">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="2:36">
+      <c r="AK104" s="3">
+        <v>507.012</v>
+      </c>
+    </row>
+    <row r="105" spans="2:37">
       <c r="B105" s="4">
         <v>1974.75</v>
       </c>
@@ -7223,8 +7420,11 @@
       <c r="AJ105" s="3">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="106" spans="2:36">
+      <c r="AK105" s="3">
+        <v>521.20899999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="2:37">
       <c r="B106" s="4">
         <v>1975</v>
       </c>
@@ -7321,8 +7521,11 @@
       <c r="AJ106" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="107" spans="2:36">
+      <c r="AK106" s="3">
+        <v>550.06500000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="2:37">
       <c r="B107" s="4">
         <v>1975.25</v>
       </c>
@@ -7419,8 +7622,11 @@
       <c r="AJ107" s="3">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="108" spans="2:36">
+      <c r="AK107" s="3">
+        <v>571.86400000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="2:37">
       <c r="B108" s="4">
         <v>1975.5</v>
       </c>
@@ -7517,8 +7723,11 @@
       <c r="AJ108" s="3">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="2:36">
+      <c r="AK108" s="3">
+        <v>583.50099999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="2:37">
       <c r="B109" s="4">
         <v>1975.75</v>
       </c>
@@ -7615,8 +7824,11 @@
       <c r="AJ109" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="110" spans="2:36">
+      <c r="AK109" s="3">
+        <v>600.04899999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="2:37">
       <c r="B110" s="4">
         <v>1976</v>
       </c>
@@ -7713,8 +7925,11 @@
       <c r="AJ110" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="111" spans="2:36">
+      <c r="AK110" s="3">
+        <v>609.58299999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="2:37">
       <c r="B111" s="4">
         <v>1976.25</v>
       </c>
@@ -7811,8 +8026,11 @@
       <c r="AJ111" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="112" spans="2:36">
+      <c r="AK111" s="3">
+        <v>606.86699999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="2:37">
       <c r="B112" s="4">
         <v>1976.5</v>
       </c>
@@ -7909,8 +8127,11 @@
       <c r="AJ112" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="113" spans="2:36">
+      <c r="AK112" s="3">
+        <v>619.59900000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="2:37">
       <c r="B113" s="4">
         <v>1976.75</v>
       </c>
@@ -8007,8 +8228,11 @@
       <c r="AJ113" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="114" spans="2:36">
+      <c r="AK113" s="3">
+        <v>630.202</v>
+      </c>
+    </row>
+    <row r="114" spans="2:37">
       <c r="B114" s="4">
         <v>1977</v>
       </c>
@@ -8105,8 +8329,11 @@
       <c r="AJ114" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="115" spans="2:36">
+      <c r="AK114" s="3">
+        <v>645.40800000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:37">
       <c r="B115" s="4">
         <v>1977.25</v>
       </c>
@@ -8203,8 +8430,11 @@
       <c r="AJ115" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="2:36">
+      <c r="AK115" s="3">
+        <v>657.41399999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:37">
       <c r="B116" s="4">
         <v>1977.5</v>
       </c>
@@ -8301,8 +8531,11 @@
       <c r="AJ116" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="117" spans="2:36">
+      <c r="AK116" s="3">
+        <v>669.00099999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="2:37">
       <c r="B117" s="4">
         <v>1977.75</v>
       </c>
@@ -8400,8 +8633,11 @@
       <c r="AJ117" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="118" spans="2:36">
+      <c r="AK117" s="3">
+        <v>688.77099999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="2:37">
       <c r="B118" s="4">
         <v>1978</v>
       </c>
@@ -8504,8 +8740,11 @@
       <c r="AJ118" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="119" spans="2:36">
+      <c r="AK118" s="3">
+        <v>702.39099999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="2:37">
       <c r="B119" s="4">
         <v>1978.25</v>
       </c>
@@ -8608,8 +8847,11 @@
       <c r="AJ119" s="3">
         <v>0.14499999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="2:36">
+      <c r="AK119" s="3">
+        <v>721.91099999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="2:37">
       <c r="B120" s="4">
         <v>1978.5</v>
       </c>
@@ -8712,8 +8954,11 @@
       <c r="AJ120" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="121" spans="2:36">
+      <c r="AK120" s="3">
+        <v>749.36099999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:37">
       <c r="B121" s="4">
         <v>1978.75</v>
       </c>
@@ -8816,8 +9061,11 @@
       <c r="AJ121" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="122" spans="2:36">
+      <c r="AK121" s="3">
+        <v>767.10799999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="2:37">
       <c r="B122" s="4">
         <v>1979</v>
       </c>
@@ -8920,8 +9168,11 @@
       <c r="AJ122" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="123" spans="2:36">
+      <c r="AK122" s="3">
+        <v>776.40300000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="2:37">
       <c r="B123" s="4">
         <v>1979.25</v>
       </c>
@@ -9024,8 +9275,11 @@
       <c r="AJ123" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="124" spans="2:36">
+      <c r="AK123" s="3">
+        <v>799.70899999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="2:37">
       <c r="B124" s="4">
         <v>1979.5</v>
       </c>
@@ -9128,8 +9382,11 @@
       <c r="AJ124" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="125" spans="2:36">
+      <c r="AK124" s="3">
+        <v>829.63800000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="2:37">
       <c r="B125" s="4">
         <v>1979.75</v>
       </c>
@@ -9232,8 +9489,11 @@
       <c r="AJ125" s="3">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="126" spans="2:36">
+      <c r="AK125" s="3">
+        <v>851.73599999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:37">
       <c r="B126" s="4">
         <v>1980</v>
       </c>
@@ -9336,8 +9596,11 @@
       <c r="AJ126" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="127" spans="2:36">
+      <c r="AK126" s="3">
+        <v>892.89499999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:37">
       <c r="B127" s="4">
         <v>1980.25</v>
       </c>
@@ -9440,8 +9703,11 @@
       <c r="AJ127" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="128" spans="2:36">
+      <c r="AK127" s="3">
+        <v>922.79700000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="2:37">
       <c r="B128" s="4">
         <v>1980.5</v>
       </c>
@@ -9544,8 +9810,11 @@
       <c r="AJ128" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="129" spans="2:36">
+      <c r="AK128" s="3">
+        <v>956.08</v>
+      </c>
+    </row>
+    <row r="129" spans="2:37">
       <c r="B129" s="4">
         <v>1980.75</v>
       </c>
@@ -9648,8 +9917,11 @@
       <c r="AJ129" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="130" spans="2:36">
+      <c r="AK129" s="3">
+        <v>970.56500000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="2:37">
       <c r="B130" s="4">
         <v>1981</v>
       </c>
@@ -9752,8 +10024,11 @@
       <c r="AJ130" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="131" spans="2:36">
+      <c r="AK130" s="3">
+        <v>1022.5940000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:37">
       <c r="B131" s="4">
         <v>1981.25</v>
       </c>
@@ -9856,8 +10131,11 @@
       <c r="AJ131" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="132" spans="2:36">
+      <c r="AK131" s="3">
+        <v>1037.4059999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:37">
       <c r="B132" s="4">
         <v>1981.5</v>
       </c>
@@ -9960,8 +10238,11 @@
       <c r="AJ132" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="133" spans="2:36">
+      <c r="AK132" s="3">
+        <v>1063.556</v>
+      </c>
+    </row>
+    <row r="133" spans="2:37">
       <c r="B133" s="4">
         <v>1981.75</v>
       </c>
@@ -10064,8 +10345,11 @@
       <c r="AJ133" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="2:36">
+      <c r="AK133" s="3">
+        <v>1102.2429999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:37">
       <c r="B134" s="4">
         <v>1982</v>
       </c>
@@ -10168,8 +10452,11 @@
       <c r="AJ134" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="135" spans="2:36">
+      <c r="AK134" s="3">
+        <v>1122.585</v>
+      </c>
+    </row>
+    <row r="135" spans="2:37">
       <c r="B135" s="4">
         <v>1982.25</v>
       </c>
@@ -10272,8 +10559,11 @@
       <c r="AJ135" s="3">
         <v>0.185</v>
       </c>
-    </row>
-    <row r="136" spans="2:36">
+      <c r="AK135" s="3">
+        <v>1150.144</v>
+      </c>
+    </row>
+    <row r="136" spans="2:37">
       <c r="B136" s="4">
         <v>1982.5</v>
       </c>
@@ -10376,8 +10666,11 @@
       <c r="AJ136" s="3">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="2:36">
+      <c r="AK136" s="3">
+        <v>1185.9459999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="2:37">
       <c r="B137" s="4">
         <v>1982.75</v>
       </c>
@@ -10480,8 +10773,11 @@
       <c r="AJ137" s="3">
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="2:36">
+      <c r="AK137" s="3">
+        <v>1222.288</v>
+      </c>
+    </row>
+    <row r="138" spans="2:37">
       <c r="B138" s="4">
         <v>1983</v>
       </c>
@@ -10584,8 +10880,11 @@
       <c r="AJ138" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="139" spans="2:36">
+      <c r="AK138" s="3">
+        <v>1245.6400000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:37">
       <c r="B139" s="4">
         <v>1983.25</v>
       </c>
@@ -10688,8 +10987,11 @@
       <c r="AJ139" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="140" spans="2:36">
+      <c r="AK139" s="3">
+        <v>1255.644</v>
+      </c>
+    </row>
+    <row r="140" spans="2:37">
       <c r="B140" s="4">
         <v>1983.5</v>
       </c>
@@ -10792,8 +11094,11 @@
       <c r="AJ140" s="3">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="141" spans="2:36">
+      <c r="AK140" s="3">
+        <v>1289.0360000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="2:37">
       <c r="B141" s="4">
         <v>1983.75</v>
       </c>
@@ -10896,8 +11201,11 @@
       <c r="AJ141" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="142" spans="2:36">
+      <c r="AK141" s="3">
+        <v>1299.511</v>
+      </c>
+    </row>
+    <row r="142" spans="2:37">
       <c r="B142" s="4">
         <v>1984</v>
       </c>
@@ -11000,8 +11308,11 @@
       <c r="AJ142" s="3">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="143" spans="2:36">
+      <c r="AK142" s="3">
+        <v>1320.7560000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="2:37">
       <c r="B143" s="4">
         <v>1984.25</v>
       </c>
@@ -11104,8 +11415,11 @@
       <c r="AJ143" s="3">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="144" spans="2:36">
+      <c r="AK143" s="3">
+        <v>1349.9459999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:37">
       <c r="B144" s="4">
         <v>1984.5</v>
       </c>
@@ -11208,8 +11522,11 @@
       <c r="AJ144" s="3">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="145" spans="2:36">
+      <c r="AK144" s="3">
+        <v>1380.136</v>
+      </c>
+    </row>
+    <row r="145" spans="2:37">
       <c r="B145" s="4">
         <v>1984.75</v>
       </c>
@@ -11312,8 +11629,11 @@
       <c r="AJ145" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="146" spans="2:36">
+      <c r="AK145" s="3">
+        <v>1423.837</v>
+      </c>
+    </row>
+    <row r="146" spans="2:37">
       <c r="B146" s="4">
         <v>1985</v>
       </c>
@@ -11416,8 +11736,11 @@
       <c r="AJ146" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="147" spans="2:36">
+      <c r="AK146" s="3">
+        <v>1450.9880000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:37">
       <c r="B147" s="4">
         <v>1985.25</v>
       </c>
@@ -11520,8 +11843,11 @@
       <c r="AJ147" s="3">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="148" spans="2:36">
+      <c r="AK147" s="3">
+        <v>1483.5319999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="2:37">
       <c r="B148" s="4">
         <v>1985.5</v>
       </c>
@@ -11624,8 +11950,11 @@
       <c r="AJ148" s="3">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="149" spans="2:36">
+      <c r="AK148" s="3">
+        <v>1514.894</v>
+      </c>
+    </row>
+    <row r="149" spans="2:37">
       <c r="B149" s="4">
         <v>1985.75</v>
       </c>
@@ -11728,8 +12057,11 @@
       <c r="AJ149" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="150" spans="2:36">
+      <c r="AK149" s="3">
+        <v>1537.9590000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:37">
       <c r="B150" s="4">
         <v>1986</v>
       </c>
@@ -11835,8 +12167,11 @@
       <c r="AJ150" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="151" spans="2:36">
+      <c r="AK150" s="3">
+        <v>1557.8050000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:37">
       <c r="B151" s="4">
         <v>1986.25</v>
       </c>
@@ -11942,8 +12277,11 @@
       <c r="AJ151" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="152" spans="2:36">
+      <c r="AK151" s="3">
+        <v>1583.0150000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="2:37">
       <c r="B152" s="4">
         <v>1986.5</v>
       </c>
@@ -12049,8 +12387,11 @@
       <c r="AJ152" s="3">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="2:36">
+      <c r="AK152" s="3">
+        <v>1625.337</v>
+      </c>
+    </row>
+    <row r="153" spans="2:37">
       <c r="B153" s="4">
         <v>1986.75</v>
       </c>
@@ -12156,8 +12497,11 @@
       <c r="AJ153" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="154" spans="2:36">
+      <c r="AK153" s="3">
+        <v>1625.423</v>
+      </c>
+    </row>
+    <row r="154" spans="2:37">
       <c r="B154" s="4">
         <v>1987</v>
       </c>
@@ -12263,8 +12607,11 @@
       <c r="AJ154" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="155" spans="2:36">
+      <c r="AK154" s="3">
+        <v>1646.039</v>
+      </c>
+    </row>
+    <row r="155" spans="2:37">
       <c r="B155" s="4">
         <v>1987.25</v>
       </c>
@@ -12370,8 +12717,11 @@
       <c r="AJ155" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="156" spans="2:36">
+      <c r="AK155" s="3">
+        <v>1671.575</v>
+      </c>
+    </row>
+    <row r="156" spans="2:37">
       <c r="B156" s="4">
         <v>1987.5</v>
       </c>
@@ -12477,8 +12827,11 @@
       <c r="AJ156" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="157" spans="2:36">
+      <c r="AK156" s="3">
+        <v>1686.721</v>
+      </c>
+    </row>
+    <row r="157" spans="2:37">
       <c r="B157" s="4">
         <v>1987.75</v>
       </c>
@@ -12584,8 +12937,11 @@
       <c r="AJ157" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="158" spans="2:36">
+      <c r="AK157" s="3">
+        <v>1720.3420000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:37">
       <c r="B158" s="4">
         <v>1988</v>
       </c>
@@ -12691,8 +13047,11 @@
       <c r="AJ158" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="159" spans="2:36">
+      <c r="AK158" s="3">
+        <v>1734.528</v>
+      </c>
+    </row>
+    <row r="159" spans="2:37">
       <c r="B159" s="4">
         <v>1988.25</v>
       </c>
@@ -12798,8 +13157,11 @@
       <c r="AJ159" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="160" spans="2:36">
+      <c r="AK159" s="3">
+        <v>1750.068</v>
+      </c>
+    </row>
+    <row r="160" spans="2:37">
       <c r="B160" s="4">
         <v>1988.5</v>
       </c>
@@ -12905,8 +13267,11 @@
       <c r="AJ160" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="161" spans="2:36">
+      <c r="AK160" s="3">
+        <v>1762.318</v>
+      </c>
+    </row>
+    <row r="161" spans="2:37">
       <c r="B161" s="4">
         <v>1988.75</v>
       </c>
@@ -13012,8 +13377,11 @@
       <c r="AJ161" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="162" spans="2:36">
+      <c r="AK161" s="3">
+        <v>1810.922</v>
+      </c>
+    </row>
+    <row r="162" spans="2:37">
       <c r="B162" s="4">
         <v>1989</v>
       </c>
@@ -13119,8 +13487,11 @@
       <c r="AJ162" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="163" spans="2:36">
+      <c r="AK162" s="3">
+        <v>1844.66</v>
+      </c>
+    </row>
+    <row r="163" spans="2:37">
       <c r="B163" s="4">
         <v>1989.25</v>
       </c>
@@ -13226,8 +13597,11 @@
       <c r="AJ163" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="164" spans="2:36">
+      <c r="AK163" s="3">
+        <v>1882.377</v>
+      </c>
+    </row>
+    <row r="164" spans="2:37">
       <c r="B164" s="4">
         <v>1989.5</v>
       </c>
@@ -13333,8 +13707,11 @@
       <c r="AJ164" s="3">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="165" spans="2:36">
+      <c r="AK164" s="3">
+        <v>1914.59</v>
+      </c>
+    </row>
+    <row r="165" spans="2:37">
       <c r="B165" s="4">
         <v>1989.75</v>
       </c>
@@ -13440,8 +13817,11 @@
       <c r="AJ165" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="166" spans="2:36">
+      <c r="AK165" s="3">
+        <v>1946.346</v>
+      </c>
+    </row>
+    <row r="166" spans="2:37">
       <c r="B166" s="4">
         <v>1990</v>
       </c>
@@ -13547,8 +13927,11 @@
       <c r="AJ166" s="3">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="167" spans="2:36">
+      <c r="AK166" s="3">
+        <v>1998.202</v>
+      </c>
+    </row>
+    <row r="167" spans="2:37">
       <c r="B167" s="4">
         <v>1990.25</v>
       </c>
@@ -13654,8 +14037,11 @@
       <c r="AJ167" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="168" spans="2:36">
+      <c r="AK167" s="3">
+        <v>2033.1410000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:37">
       <c r="B168" s="4">
         <v>1990.5</v>
       </c>
@@ -13761,8 +14147,11 @@
       <c r="AJ168" s="3">
         <v>0.1225</v>
       </c>
-    </row>
-    <row r="169" spans="2:36">
+      <c r="AK168" s="3">
+        <v>2059.8829999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="2:37">
       <c r="B169" s="4">
         <v>1990.75</v>
       </c>
@@ -13868,8 +14257,11 @@
       <c r="AJ169" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="170" spans="2:36">
+      <c r="AK169" s="3">
+        <v>2130.4740000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="2:37">
       <c r="B170" s="4">
         <v>1991</v>
       </c>
@@ -13975,8 +14367,11 @@
       <c r="AJ170" s="3">
         <v>0.1535</v>
       </c>
-    </row>
-    <row r="171" spans="2:36">
+      <c r="AK170" s="3">
+        <v>2069.788</v>
+      </c>
+    </row>
+    <row r="171" spans="2:37">
       <c r="B171" s="4">
         <v>1991.25</v>
       </c>
@@ -14082,8 +14477,11 @@
       <c r="AJ171" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="172" spans="2:36">
+      <c r="AK171" s="3">
+        <v>2147.7759999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="2:37">
       <c r="B172" s="4">
         <v>1991.5</v>
       </c>
@@ -14189,8 +14587,11 @@
       <c r="AJ172" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="173" spans="2:36">
+      <c r="AK172" s="3">
+        <v>2209.8029999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:37">
       <c r="B173" s="4">
         <v>1991.75</v>
       </c>
@@ -14296,8 +14697,11 @@
       <c r="AJ173" s="3">
         <v>0.16200000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="2:36">
+      <c r="AK173" s="3">
+        <v>2239.2049999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="2:37">
       <c r="B174" s="4">
         <v>1992</v>
       </c>
@@ -14403,8 +14807,11 @@
       <c r="AJ174" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="175" spans="2:36">
+      <c r="AK174" s="3">
+        <v>2294.8359999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="2:37">
       <c r="B175" s="4">
         <v>1992.25</v>
       </c>
@@ -14510,8 +14917,11 @@
       <c r="AJ175" s="3">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="176" spans="2:36">
+      <c r="AK175" s="3">
+        <v>2326.569</v>
+      </c>
+    </row>
+    <row r="176" spans="2:37">
       <c r="B176" s="4">
         <v>1992.5</v>
       </c>
@@ -14617,8 +15027,11 @@
       <c r="AJ176" s="3">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="2:36">
+      <c r="AK176" s="3">
+        <v>2355.7150000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:37">
       <c r="B177" s="4">
         <v>1992.75</v>
       </c>
@@ -14724,8 +15137,11 @@
       <c r="AJ177" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="178" spans="2:36">
+      <c r="AK177" s="3">
+        <v>2379.8249999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="2:37">
       <c r="B178" s="4">
         <v>1993</v>
       </c>
@@ -14831,8 +15247,11 @@
       <c r="AJ178" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="179" spans="2:36">
+      <c r="AK178" s="3">
+        <v>2383.922</v>
+      </c>
+    </row>
+    <row r="179" spans="2:37">
       <c r="B179" s="4">
         <v>1993.25</v>
       </c>
@@ -14938,8 +15357,11 @@
       <c r="AJ179" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="180" spans="2:36">
+      <c r="AK179" s="3">
+        <v>2398.116</v>
+      </c>
+    </row>
+    <row r="180" spans="2:37">
       <c r="B180" s="4">
         <v>1993.5</v>
       </c>
@@ -15045,8 +15467,11 @@
       <c r="AJ180" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="181" spans="2:36">
+      <c r="AK180" s="3">
+        <v>2423.5149999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="2:37">
       <c r="B181" s="4">
         <v>1993.75</v>
       </c>
@@ -15152,8 +15577,11 @@
       <c r="AJ181" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="182" spans="2:36">
+      <c r="AK181" s="3">
+        <v>2445.4540000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="2:37">
       <c r="B182" s="4">
         <v>1994</v>
       </c>
@@ -15259,8 +15687,11 @@
       <c r="AJ182" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="183" spans="2:36">
+      <c r="AK182" s="3">
+        <v>2429.8609999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="2:37">
       <c r="B183" s="4">
         <v>1994.25</v>
       </c>
@@ -15366,8 +15797,11 @@
       <c r="AJ183" s="3">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="184" spans="2:36">
+      <c r="AK183" s="3">
+        <v>2460.3200000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="2:37">
       <c r="B184" s="4">
         <v>1994.5</v>
       </c>
@@ -15473,8 +15907,11 @@
       <c r="AJ184" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="185" spans="2:36">
+      <c r="AK184" s="3">
+        <v>2508.239</v>
+      </c>
+    </row>
+    <row r="185" spans="2:37">
       <c r="B185" s="4">
         <v>1994.75</v>
       </c>
@@ -15580,8 +16017,11 @@
       <c r="AJ185" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="186" spans="2:36">
+      <c r="AK185" s="3">
+        <v>2544.7040000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="2:37">
       <c r="B186" s="4">
         <v>1995</v>
       </c>
@@ -15687,8 +16127,11 @@
       <c r="AJ186" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="187" spans="2:36">
+      <c r="AK186" s="3">
+        <v>2582.4229999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="2:37">
       <c r="B187" s="4">
         <v>1995.25</v>
       </c>
@@ -15794,8 +16237,11 @@
       <c r="AJ187" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="188" spans="2:36">
+      <c r="AK187" s="3">
+        <v>2610.5210000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:37">
       <c r="B188" s="4">
         <v>1995.5</v>
       </c>
@@ -15901,8 +16347,11 @@
       <c r="AJ188" s="3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="189" spans="2:36">
+      <c r="AK188" s="3">
+        <v>2598.7829999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="2:37">
       <c r="B189" s="4">
         <v>1995.75</v>
       </c>
@@ -16008,8 +16457,11 @@
       <c r="AJ189" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="190" spans="2:36">
+      <c r="AK189" s="3">
+        <v>2615.3960000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="2:37">
       <c r="B190" s="4">
         <v>1996</v>
       </c>
@@ -16115,8 +16567,11 @@
       <c r="AJ190" s="3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="191" spans="2:36">
+      <c r="AK190" s="3">
+        <v>2669.9789999999998</v>
+      </c>
+    </row>
+    <row r="191" spans="2:37">
       <c r="B191" s="4">
         <v>1996.25</v>
       </c>
@@ -16222,8 +16677,11 @@
       <c r="AJ191" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="192" spans="2:36">
+      <c r="AK191" s="3">
+        <v>2695.1970000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:37">
       <c r="B192" s="4">
         <v>1996.5</v>
       </c>
@@ -16329,8 +16787,11 @@
       <c r="AJ192" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="193" spans="2:36">
+      <c r="AK192" s="3">
+        <v>2701.8009999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="2:37">
       <c r="B193" s="4">
         <v>1996.75</v>
       </c>
@@ -16436,8 +16897,11 @@
       <c r="AJ193" s="3">
         <v>7.5499999999999998E-2</v>
       </c>
-    </row>
-    <row r="194" spans="2:36">
+      <c r="AK193" s="3">
+        <v>2720.88</v>
+      </c>
+    </row>
+    <row r="194" spans="2:37">
       <c r="B194" s="4">
         <v>1997</v>
       </c>
@@ -16543,8 +17007,11 @@
       <c r="AJ194" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="195" spans="2:36">
+      <c r="AK194" s="3">
+        <v>2740.5309999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="2:37">
       <c r="B195" s="4">
         <v>1997.25</v>
       </c>
@@ -16650,8 +17117,11 @@
       <c r="AJ195" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="196" spans="2:36">
+      <c r="AK195" s="3">
+        <v>2741.5520000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:37">
       <c r="B196" s="4">
         <v>1997.5</v>
       </c>
@@ -16757,8 +17227,11 @@
       <c r="AJ196" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="197" spans="2:36">
+      <c r="AK196" s="3">
+        <v>2784.9659999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="2:37">
       <c r="B197" s="4">
         <v>1997.75</v>
       </c>
@@ -16864,8 +17337,11 @@
       <c r="AJ197" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="198" spans="2:36">
+      <c r="AK197" s="3">
+        <v>2822.3620000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:37">
       <c r="B198" s="4">
         <v>1998</v>
       </c>
@@ -16971,8 +17447,11 @@
       <c r="AJ198" s="3">
         <v>0.11600000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="2:36">
+      <c r="AK198" s="3">
+        <v>2809.4340000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="2:37">
       <c r="B199" s="4">
         <v>1998.25</v>
       </c>
@@ -17078,8 +17557,11 @@
       <c r="AJ199" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="200" spans="2:36">
+      <c r="AK199" s="3">
+        <v>2837.5010000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="2:37">
       <c r="B200" s="4">
         <v>1998.5</v>
       </c>
@@ -17185,8 +17667,11 @@
       <c r="AJ200" s="3">
         <v>0.1265</v>
       </c>
-    </row>
-    <row r="201" spans="2:36">
+      <c r="AK200" s="3">
+        <v>2866.201</v>
+      </c>
+    </row>
+    <row r="201" spans="2:37">
       <c r="B201" s="4">
         <v>1998.75</v>
       </c>
@@ -17292,8 +17777,11 @@
       <c r="AJ201" s="3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="202" spans="2:36">
+      <c r="AK201" s="3">
+        <v>2909.2220000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:37">
       <c r="B202" s="4">
         <v>1999</v>
       </c>
@@ -17399,8 +17887,11 @@
       <c r="AJ202" s="3">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="203" spans="2:36">
+      <c r="AK202" s="3">
+        <v>2931.922</v>
+      </c>
+    </row>
+    <row r="203" spans="2:37">
       <c r="B203" s="4">
         <v>1999.25</v>
       </c>
@@ -17506,8 +17997,11 @@
       <c r="AJ203" s="3">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="204" spans="2:36">
+      <c r="AK203" s="3">
+        <v>2960.587</v>
+      </c>
+    </row>
+    <row r="204" spans="2:37">
       <c r="B204" s="4">
         <v>1999.5</v>
       </c>
@@ -17613,8 +18107,11 @@
       <c r="AJ204" s="3">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="205" spans="2:36">
+      <c r="AK204" s="3">
+        <v>3003.4059999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="2:37">
       <c r="B205" s="4">
         <v>1999.75</v>
       </c>
@@ -17720,8 +18217,11 @@
       <c r="AJ205" s="3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="206" spans="2:36">
+      <c r="AK205" s="3">
+        <v>3087.3989999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="2:37">
       <c r="B206" s="4">
         <v>2000</v>
       </c>
@@ -17827,8 +18327,11 @@
       <c r="AJ206" s="3">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="207" spans="2:36">
+      <c r="AK206" s="3">
+        <v>3075.69</v>
+      </c>
+    </row>
+    <row r="207" spans="2:37">
       <c r="B207" s="4">
         <v>2000.25</v>
       </c>
@@ -17934,8 +18437,11 @@
       <c r="AJ207" s="3">
         <v>0.11749999999999999</v>
       </c>
-    </row>
-    <row r="208" spans="2:36">
+      <c r="AK207" s="3">
+        <v>3132.4560000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:37">
       <c r="B208" s="4">
         <v>2000.5</v>
       </c>
@@ -18041,8 +18547,11 @@
       <c r="AJ208" s="3">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="209" spans="2:36">
+      <c r="AK208" s="3">
+        <v>3152.7979999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="2:37">
       <c r="B209" s="4">
         <v>2000.75</v>
       </c>
@@ -18148,8 +18657,11 @@
       <c r="AJ209" s="3">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="2:36">
+      <c r="AK209" s="3">
+        <v>3207.261</v>
+      </c>
+    </row>
+    <row r="210" spans="2:37">
       <c r="B210" s="4">
         <v>2001</v>
       </c>
@@ -18255,8 +18767,11 @@
       <c r="AJ210" s="3">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="211" spans="2:36">
+      <c r="AK210" s="3">
+        <v>3280.6959999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="2:37">
       <c r="B211" s="4">
         <v>2001.25</v>
       </c>
@@ -18362,8 +18877,11 @@
       <c r="AJ211" s="3">
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="212" spans="2:36">
+      <c r="AK211" s="3">
+        <v>3358.6410000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:37">
       <c r="B212" s="4">
         <v>2001.5</v>
       </c>
@@ -18469,8 +18987,11 @@
       <c r="AJ212" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="213" spans="2:36">
+      <c r="AK212" s="3">
+        <v>3375.623</v>
+      </c>
+    </row>
+    <row r="213" spans="2:37">
       <c r="B213" s="4">
         <v>2001.75</v>
       </c>
@@ -18576,8 +19097,11 @@
       <c r="AJ213" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="214" spans="2:36">
+      <c r="AK213" s="3">
+        <v>3434.6640000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="2:37">
       <c r="B214" s="4">
         <v>2002</v>
       </c>
@@ -18683,8 +19207,11 @@
       <c r="AJ214" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="215" spans="2:36">
+      <c r="AK214" s="3">
+        <v>3506.482</v>
+      </c>
+    </row>
+    <row r="215" spans="2:37">
       <c r="B215" s="4">
         <v>2002.25</v>
       </c>
@@ -18790,8 +19317,11 @@
       <c r="AJ215" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="216" spans="2:36">
+      <c r="AK215" s="3">
+        <v>3554.2069999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="2:37">
       <c r="B216" s="4">
         <v>2002.5</v>
       </c>
@@ -18897,8 +19427,11 @@
       <c r="AJ216" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="217" spans="2:36">
+      <c r="AK216" s="3">
+        <v>3596.9650000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:37">
       <c r="B217" s="4">
         <v>2002.75</v>
       </c>
@@ -19004,8 +19537,11 @@
       <c r="AJ217" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="218" spans="2:36">
+      <c r="AK217" s="3">
+        <v>3683.1709999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="2:37">
       <c r="B218" s="4">
         <v>2003</v>
       </c>
@@ -19111,8 +19647,11 @@
       <c r="AJ218" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="219" spans="2:36">
+      <c r="AK218" s="3">
+        <v>3747.962</v>
+      </c>
+    </row>
+    <row r="219" spans="2:37">
       <c r="B219" s="4">
         <v>2003.25</v>
       </c>
@@ -19218,8 +19757,11 @@
       <c r="AJ219" s="3">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="220" spans="2:36">
+      <c r="AK219" s="3">
+        <v>3806.8409999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="2:37">
       <c r="B220" s="4">
         <v>2003.5</v>
       </c>
@@ -19325,8 +19867,11 @@
       <c r="AJ220" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="221" spans="2:36">
+      <c r="AK220" s="3">
+        <v>3837.3429999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="2:37">
       <c r="B221" s="4">
         <v>2003.75</v>
       </c>
@@ -19432,8 +19977,11 @@
       <c r="AJ221" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="222" spans="2:36">
+      <c r="AK221" s="3">
+        <v>3872.2370000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="2:37">
       <c r="B222" s="4">
         <v>2004</v>
       </c>
@@ -19539,8 +20087,11 @@
       <c r="AJ222" s="3">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="2:36">
+      <c r="AK222" s="3">
+        <v>3951.5810000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="2:37">
       <c r="B223" s="4">
         <v>2004.25</v>
       </c>
@@ -19646,8 +20197,11 @@
       <c r="AJ223" s="3">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="224" spans="2:36">
+      <c r="AK223" s="3">
+        <v>3981.4940000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="2:37">
       <c r="B224" s="4">
         <v>2004.5</v>
       </c>
@@ -19753,8 +20307,11 @@
       <c r="AJ224" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="225" spans="2:36">
+      <c r="AK224" s="3">
+        <v>4049.4580000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="2:37">
       <c r="B225" s="4">
         <v>2004.75</v>
       </c>
@@ -19860,8 +20417,11 @@
       <c r="AJ225" s="3">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="226" spans="2:36">
+      <c r="AK225" s="3">
+        <v>4095.1129999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="2:37">
       <c r="B226" s="4">
         <v>2005</v>
       </c>
@@ -19967,8 +20527,11 @@
       <c r="AJ226" s="3">
         <v>0.13300000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="2:36">
+      <c r="AK226" s="3">
+        <v>4195.5519999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="2:37">
       <c r="B227" s="4">
         <v>2005.25</v>
       </c>
@@ -20074,8 +20637,11 @@
       <c r="AJ227" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="228" spans="2:36">
+      <c r="AK227" s="3">
+        <v>4239.652</v>
+      </c>
+    </row>
+    <row r="228" spans="2:37">
       <c r="B228" s="4">
         <v>2005.5</v>
       </c>
@@ -20181,8 +20747,11 @@
       <c r="AJ228" s="3">
         <v>0.1555</v>
       </c>
-    </row>
-    <row r="229" spans="2:36">
+      <c r="AK228" s="3">
+        <v>4364.34</v>
+      </c>
+    </row>
+    <row r="229" spans="2:37">
       <c r="B229" s="4">
         <v>2005.75</v>
       </c>
@@ -20288,8 +20857,11 @@
       <c r="AJ229" s="3">
         <v>0.14699999999999999</v>
       </c>
-    </row>
-    <row r="230" spans="2:36">
+      <c r="AK229" s="3">
+        <v>4414.4449999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="2:37">
       <c r="B230" s="4">
         <v>2006</v>
       </c>
@@ -20395,8 +20967,11 @@
       <c r="AJ230" s="3">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="231" spans="2:36">
+      <c r="AK230" s="3">
+        <v>4453.6220000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="2:37">
       <c r="B231" s="4">
         <v>2006.25</v>
       </c>
@@ -20502,8 +21077,11 @@
       <c r="AJ231" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="232" spans="2:36">
+      <c r="AK231" s="3">
+        <v>4516.5510000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="2:37">
       <c r="B232" s="4">
         <v>2006.5</v>
       </c>
@@ -20609,8 +21187,11 @@
       <c r="AJ232" s="3">
         <v>0.14099999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="2:36">
+      <c r="AK232" s="3">
+        <v>4563.9780000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:37">
       <c r="B233" s="4">
         <v>2006.75</v>
       </c>
@@ -20716,8 +21297,11 @@
       <c r="AJ233" s="3">
         <v>0.13880000000000001</v>
       </c>
-    </row>
-    <row r="234" spans="2:36">
+      <c r="AK233" s="3">
+        <v>4545.7259999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="2:37">
       <c r="B234" s="4">
         <v>2007</v>
       </c>
@@ -20823,8 +21407,11 @@
       <c r="AJ234" s="3">
         <v>0.1232</v>
       </c>
-    </row>
-    <row r="235" spans="2:36">
+      <c r="AK234" s="3">
+        <v>4752.1880000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="2:37">
       <c r="B235" s="4">
         <v>2007.25</v>
       </c>
@@ -20930,8 +21517,11 @@
       <c r="AJ235" s="3">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="236" spans="2:36">
+      <c r="AK235" s="3">
+        <v>4801.8549999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="2:37">
       <c r="B236" s="4">
         <v>2007.5</v>
       </c>
@@ -21037,8 +21627,11 @@
       <c r="AJ236" s="3">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="2:36">
+      <c r="AK236" s="3">
+        <v>4849.2650000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="2:37">
       <c r="B237" s="4">
         <v>2007.75</v>
       </c>
@@ -21144,8 +21737,11 @@
       <c r="AJ237" s="3">
         <v>0.1971</v>
       </c>
-    </row>
-    <row r="238" spans="2:36">
+      <c r="AK237" s="3">
+        <v>4931.232</v>
+      </c>
+    </row>
+    <row r="238" spans="2:37">
       <c r="B238" s="4">
         <v>2008</v>
       </c>
@@ -21251,8 +21847,11 @@
       <c r="AJ238" s="3">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="239" spans="2:36">
+      <c r="AK238" s="3">
+        <v>5000.1760000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="2:37">
       <c r="B239" s="4">
         <v>2008.25</v>
       </c>
@@ -21358,8 +21957,11 @@
       <c r="AJ239" s="3">
         <v>0.1076</v>
       </c>
-    </row>
-    <row r="240" spans="2:36">
+      <c r="AK239" s="3">
+        <v>5365.0709999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="2:37">
       <c r="B240" s="4">
         <v>2008.5</v>
       </c>
@@ -21465,8 +22067,11 @@
       <c r="AJ240" s="3">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="241" spans="2:36">
+      <c r="AK240" s="3">
+        <v>5258.6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:37">
       <c r="B241" s="4">
         <v>2008.75</v>
       </c>
@@ -21572,8 +22177,11 @@
       <c r="AJ241" s="3">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="242" spans="2:36">
+      <c r="AK241" s="3">
+        <v>5419.0320000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="2:37">
       <c r="B242" s="4">
         <v>2009</v>
       </c>
@@ -21679,8 +22287,11 @@
       <c r="AJ242" s="3">
         <v>0.16830000000000001</v>
       </c>
-    </row>
-    <row r="243" spans="2:36">
+      <c r="AK242" s="3">
+        <v>5486.3149999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="2:37">
       <c r="B243" s="4">
         <v>2009.25</v>
       </c>
@@ -21786,8 +22397,11 @@
       <c r="AJ243" s="3">
         <v>0.22670000000000001</v>
       </c>
-    </row>
-    <row r="244" spans="2:36">
+      <c r="AK243" s="3">
+        <v>5682.232</v>
+      </c>
+    </row>
+    <row r="244" spans="2:37">
       <c r="B244" s="4">
         <v>2009.5</v>
       </c>
@@ -21893,8 +22507,11 @@
       <c r="AJ244" s="3">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="2:36">
+      <c r="AK244" s="3">
+        <v>5655.2539999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="2:37">
       <c r="B245" s="4">
         <v>2009.75</v>
       </c>
@@ -22000,8 +22617,11 @@
       <c r="AJ245" s="3">
         <v>0.13350000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="2:36">
+      <c r="AK245" s="3">
+        <v>5713.1570000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="2:37">
       <c r="B246" s="4">
         <v>2010</v>
       </c>
@@ -22107,8 +22727,11 @@
       <c r="AJ246" s="3">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="247" spans="2:36">
+      <c r="AK246" s="3">
+        <v>5820.3990000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="2:37">
       <c r="B247" s="4">
         <v>2010.25</v>
       </c>
@@ -22214,8 +22837,11 @@
       <c r="AJ247" s="3">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="2:36">
+      <c r="AK247" s="3">
+        <v>5862.866</v>
+      </c>
+    </row>
+    <row r="248" spans="2:37">
       <c r="B248" s="4">
         <v>2010.5</v>
       </c>
@@ -22321,8 +22947,11 @@
       <c r="AJ248" s="3">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="2:36">
+      <c r="AK248" s="3">
+        <v>5811.1440000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="2:37">
       <c r="B249" s="4">
         <v>2010.75</v>
       </c>
@@ -22428,8 +23057,11 @@
       <c r="AJ249" s="3">
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="250" spans="2:36">
+      <c r="AK249" s="3">
+        <v>5839.37</v>
+      </c>
+    </row>
+    <row r="250" spans="2:37">
       <c r="B250" s="4">
         <v>2011</v>
       </c>
@@ -22535,8 +23167,11 @@
       <c r="AJ250" s="3">
         <v>0.19500000000000001</v>
       </c>
-    </row>
-    <row r="251" spans="2:36">
+      <c r="AK250" s="3">
+        <v>5859.5</v>
+      </c>
+    </row>
+    <row r="251" spans="2:37">
       <c r="B251" s="4">
         <v>2011.25</v>
       </c>
@@ -22642,8 +23277,11 @@
       <c r="AJ251" s="3">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="252" spans="2:36">
+      <c r="AK251" s="3">
+        <v>5918.37</v>
+      </c>
+    </row>
+    <row r="252" spans="2:37">
       <c r="B252" s="4">
         <v>2011.5</v>
       </c>
@@ -22749,8 +23387,11 @@
       <c r="AJ252" s="3">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="253" spans="2:36">
+      <c r="AK252" s="3">
+        <v>5837.9179999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="2:37">
       <c r="B253" s="4">
         <v>2011.75</v>
       </c>
@@ -22856,8 +23497,11 @@
       <c r="AJ253" s="3">
         <v>8.9499999999999996E-2</v>
       </c>
-    </row>
-    <row r="254" spans="2:36">
+      <c r="AK253" s="3">
+        <v>5872.701</v>
+      </c>
+    </row>
+    <row r="254" spans="2:37">
       <c r="B254" s="4">
         <v>2012</v>
       </c>
@@ -22963,8 +23607,11 @@
       <c r="AJ254" s="3">
         <v>0.1132</v>
       </c>
-    </row>
-    <row r="255" spans="2:36">
+      <c r="AK254" s="3">
+        <v>5834.96</v>
+      </c>
+    </row>
+    <row r="255" spans="2:37">
       <c r="B255" s="4">
         <v>2012.25</v>
       </c>
@@ -23070,8 +23717,11 @@
       <c r="AJ255" s="3">
         <v>0.12870000000000001</v>
       </c>
-    </row>
-    <row r="256" spans="2:36">
+      <c r="AK255" s="3">
+        <v>5831.6850000000004</v>
+      </c>
+    </row>
+    <row r="256" spans="2:37">
       <c r="B256" s="4">
         <v>2012.5</v>
       </c>
@@ -23177,8 +23827,11 @@
       <c r="AJ256" s="3">
         <v>0.1411</v>
       </c>
-    </row>
-    <row r="257" spans="2:36">
+      <c r="AK256" s="3">
+        <v>5801.4059999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="2:37">
       <c r="B257" s="4">
         <v>2012.75</v>
       </c>
@@ -23284,8 +23937,11 @@
       <c r="AJ257" s="3">
         <v>0.12429999999999999</v>
       </c>
-    </row>
-    <row r="258" spans="2:36">
+      <c r="AK257" s="3">
+        <v>5901.7049999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="2:37">
       <c r="B258" s="4">
         <v>2013</v>
       </c>
@@ -23391,8 +24047,11 @@
       <c r="AJ258" s="3">
         <v>0.1489</v>
       </c>
-    </row>
-    <row r="259" spans="2:36">
+      <c r="AK258" s="3">
+        <v>5832.0619999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="2:37">
       <c r="B259" s="4">
         <v>2013.25</v>
       </c>
@@ -23498,8 +24157,11 @@
       <c r="AJ259" s="3">
         <v>0.14580000000000001</v>
       </c>
-    </row>
-    <row r="260" spans="2:36">
+      <c r="AK259" s="3">
+        <v>5848.9759999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="2:37">
       <c r="B260" s="4">
         <v>2013.5</v>
       </c>
@@ -23605,8 +24267,11 @@
       <c r="AJ260" s="3">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="261" spans="2:36">
+      <c r="AK260" s="3">
+        <v>5867.3109999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="2:37">
       <c r="B261" s="4">
         <v>2013.75</v>
       </c>
@@ -23712,8 +24377,11 @@
       <c r="AJ261" s="3">
         <v>0.22819999999999999</v>
       </c>
-    </row>
-    <row r="262" spans="2:36">
+      <c r="AK261" s="3">
+        <v>5868.1459999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="2:37">
       <c r="B262" s="4">
         <v>2014</v>
       </c>
@@ -23819,8 +24487,11 @@
       <c r="AJ262" s="3">
         <v>0.1656</v>
       </c>
-    </row>
-    <row r="263" spans="2:36">
+      <c r="AK262" s="3">
+        <v>5917.5379999999996</v>
+      </c>
+    </row>
+    <row r="263" spans="2:37">
       <c r="B263" s="4">
         <v>2014.25</v>
       </c>
@@ -23926,8 +24597,11 @@
       <c r="AJ263" s="3">
         <v>0.18690000000000001</v>
       </c>
-    </row>
-    <row r="264" spans="2:36">
+      <c r="AK263" s="3">
+        <v>5978.7539999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="2:37">
       <c r="B264" s="4">
         <v>2014.5</v>
       </c>
@@ -24033,8 +24707,11 @@
       <c r="AJ264" s="3">
         <v>0.1744</v>
       </c>
-    </row>
-    <row r="265" spans="2:36">
+      <c r="AK264" s="3">
+        <v>6040.7809999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="2:37">
       <c r="B265" s="4">
         <v>2014.75</v>
       </c>
@@ -24140,8 +24817,11 @@
       <c r="AJ265" s="3">
         <v>0.16969999999999999</v>
       </c>
-    </row>
-    <row r="266" spans="2:36">
+      <c r="AK265" s="3">
+        <v>6063.4409999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="2:37">
       <c r="B266" s="4">
         <v>2015</v>
       </c>
@@ -24247,8 +24927,11 @@
       <c r="AJ266" s="3">
         <v>0.1177</v>
       </c>
-    </row>
-    <row r="267" spans="2:36">
+      <c r="AK266" s="3">
+        <v>6066.7039999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="2:37">
       <c r="B267" s="4">
         <v>2015.25</v>
       </c>
@@ -24354,8 +25037,11 @@
       <c r="AJ267" s="3">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="268" spans="2:36">
+      <c r="AK267" s="3">
+        <v>6083.6419999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="2:37">
       <c r="B268" s="4">
         <v>2015.5</v>
       </c>
@@ -24461,8 +25147,11 @@
       <c r="AJ268" s="3">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="269" spans="2:36">
+      <c r="AK268" s="3">
+        <v>6263.4809999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="2:37">
       <c r="B269" s="4">
         <v>2015.75</v>
       </c>
@@ -24568,8 +25257,11 @@
       <c r="AJ269" s="3">
         <v>9.5200000000000007E-2</v>
       </c>
-    </row>
-    <row r="270" spans="2:36">
+      <c r="AK269" s="3">
+        <v>6235.098</v>
+      </c>
+    </row>
+    <row r="270" spans="2:37">
       <c r="B270" s="4">
         <v>2016</v>
       </c>
@@ -24675,8 +25367,11 @@
       <c r="AJ270" s="3">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="271" spans="2:36">
+      <c r="AK270" s="3">
+        <v>6305.14</v>
+      </c>
+    </row>
+    <row r="271" spans="2:37">
       <c r="B271" s="4">
         <v>2016.25</v>
       </c>
@@ -24782,8 +25477,11 @@
       <c r="AJ271" s="3">
         <v>0.14080000000000001</v>
       </c>
-    </row>
-    <row r="272" spans="2:36">
+      <c r="AK271" s="3">
+        <v>6309.7030000000004</v>
+      </c>
+    </row>
+    <row r="272" spans="2:37">
       <c r="B272" s="4">
         <v>2016.5</v>
       </c>
@@ -24889,8 +25587,11 @@
       <c r="AJ272" s="3">
         <v>0.16089999999999999</v>
       </c>
-    </row>
-    <row r="273" spans="2:36">
+      <c r="AK272" s="3">
+        <v>6400.8850000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="2:37">
       <c r="B273" s="4">
         <v>2016.75</v>
       </c>
@@ -24996,8 +25697,11 @@
       <c r="AJ273" s="3">
         <v>0.12520000000000001</v>
       </c>
-    </row>
-    <row r="274" spans="2:36">
+      <c r="AK273" s="3">
+        <v>6451.5810000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:37">
       <c r="B274" s="4">
         <v>2017</v>
       </c>
@@ -25103,8 +25807,11 @@
       <c r="AJ274" s="3">
         <v>0.1212</v>
       </c>
-    </row>
-    <row r="275" spans="2:36">
+      <c r="AK274" s="3">
+        <v>6510.5370000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="2:37">
       <c r="B275" s="4">
         <v>2017.25</v>
       </c>
@@ -25210,8 +25917,11 @@
       <c r="AJ275" s="3">
         <v>0.15529999999999999</v>
       </c>
-    </row>
-    <row r="276" spans="2:36">
+      <c r="AK275" s="3">
+        <v>6500.1409999999996</v>
+      </c>
+    </row>
+    <row r="276" spans="2:37">
       <c r="B276" s="4">
         <v>2017.5</v>
       </c>
@@ -25317,8 +26027,11 @@
       <c r="AJ276" s="3">
         <v>9.8599999999999993E-2</v>
       </c>
-    </row>
-    <row r="277" spans="2:36">
+      <c r="AK276" s="3">
+        <v>6631.2030000000004</v>
+      </c>
+    </row>
+    <row r="277" spans="2:37">
       <c r="B277" s="4">
         <v>2017.75</v>
       </c>
@@ -25424,8 +26137,11 @@
       <c r="AJ277" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="278" spans="2:36">
+      <c r="AK277" s="3">
+        <v>6677.11</v>
+      </c>
+    </row>
+    <row r="278" spans="2:37">
       <c r="B278" s="4">
         <v>2018</v>
       </c>
@@ -25531,8 +26247,11 @@
       <c r="AJ278" s="3">
         <v>0.1116</v>
       </c>
-    </row>
-    <row r="279" spans="2:36">
+      <c r="AK278" s="3">
+        <v>6742.7</v>
+      </c>
+    </row>
+    <row r="279" spans="2:37">
       <c r="B279" s="4">
         <v>2018.25</v>
       </c>
@@ -25632,8 +26351,11 @@
       <c r="AJ279" s="3">
         <v>0.12230000000000001</v>
       </c>
-    </row>
-    <row r="280" spans="2:36">
+      <c r="AK279" s="3">
+        <v>6830.1419999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="2:37">
       <c r="B280" s="4">
         <v>2018.5</v>
       </c>
@@ -25661,8 +26383,9 @@
       <c r="AH280" s="3"/>
       <c r="AI280" s="3"/>
       <c r="AJ280" s="3"/>
-    </row>
-    <row r="281" spans="2:36">
+      <c r="AK280" s="3"/>
+    </row>
+    <row r="281" spans="2:37">
       <c r="B281" s="4">
         <v>2018.75</v>
       </c>
@@ -25689,8 +26412,9 @@
       <c r="AH281" s="3"/>
       <c r="AI281" s="3"/>
       <c r="AJ281" s="3"/>
-    </row>
-    <row r="282" spans="2:36">
+      <c r="AK281" s="3"/>
+    </row>
+    <row r="282" spans="2:37">
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
       <c r="U282" s="3"/>
@@ -25709,8 +26433,9 @@
       <c r="AH282" s="3"/>
       <c r="AI282" s="3"/>
       <c r="AJ282" s="3"/>
-    </row>
-    <row r="283" spans="2:36">
+      <c r="AK282" s="3"/>
+    </row>
+    <row r="283" spans="2:37">
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
       <c r="U283" s="3"/>
@@ -25729,8 +26454,9 @@
       <c r="AH283" s="3"/>
       <c r="AI283" s="3"/>
       <c r="AJ283" s="3"/>
-    </row>
-    <row r="284" spans="2:36">
+      <c r="AK283" s="3"/>
+    </row>
+    <row r="284" spans="2:37">
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
       <c r="U284" s="3"/>
@@ -25749,8 +26475,9 @@
       <c r="AH284" s="3"/>
       <c r="AI284" s="3"/>
       <c r="AJ284" s="3"/>
-    </row>
-    <row r="285" spans="2:36">
+      <c r="AK284" s="3"/>
+    </row>
+    <row r="285" spans="2:37">
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
       <c r="U285" s="3"/>
@@ -25769,8 +26496,9 @@
       <c r="AH285" s="3"/>
       <c r="AI285" s="3"/>
       <c r="AJ285" s="3"/>
-    </row>
-    <row r="286" spans="2:36">
+      <c r="AK285" s="3"/>
+    </row>
+    <row r="286" spans="2:37">
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
       <c r="U286" s="3"/>
@@ -25789,8 +26517,9 @@
       <c r="AH286" s="3"/>
       <c r="AI286" s="3"/>
       <c r="AJ286" s="3"/>
-    </row>
-    <row r="287" spans="2:36">
+      <c r="AK286" s="3"/>
+    </row>
+    <row r="287" spans="2:37">
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
       <c r="U287" s="3"/>
@@ -25809,8 +26538,9 @@
       <c r="AH287" s="3"/>
       <c r="AI287" s="3"/>
       <c r="AJ287" s="3"/>
-    </row>
-    <row r="288" spans="2:36">
+      <c r="AK287" s="3"/>
+    </row>
+    <row r="288" spans="2:37">
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
       <c r="U288" s="3"/>
@@ -25829,8 +26559,9 @@
       <c r="AH288" s="3"/>
       <c r="AI288" s="3"/>
       <c r="AJ288" s="3"/>
-    </row>
-    <row r="289" spans="14:36">
+      <c r="AK288" s="3"/>
+    </row>
+    <row r="289" spans="14:37">
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
       <c r="U289" s="3"/>
@@ -25849,8 +26580,9 @@
       <c r="AH289" s="3"/>
       <c r="AI289" s="3"/>
       <c r="AJ289" s="3"/>
-    </row>
-    <row r="290" spans="14:36">
+      <c r="AK289" s="3"/>
+    </row>
+    <row r="290" spans="14:37">
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
       <c r="U290" s="3"/>
@@ -25869,8 +26601,9 @@
       <c r="AH290" s="3"/>
       <c r="AI290" s="3"/>
       <c r="AJ290" s="3"/>
-    </row>
-    <row r="291" spans="14:36">
+      <c r="AK290" s="3"/>
+    </row>
+    <row r="291" spans="14:37">
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
       <c r="U291" s="3"/>
@@ -25889,8 +26622,9 @@
       <c r="AH291" s="3"/>
       <c r="AI291" s="3"/>
       <c r="AJ291" s="3"/>
-    </row>
-    <row r="292" spans="14:36">
+      <c r="AK291" s="3"/>
+    </row>
+    <row r="292" spans="14:37">
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
       <c r="U292" s="3"/>
@@ -25909,8 +26643,9 @@
       <c r="AH292" s="3"/>
       <c r="AI292" s="3"/>
       <c r="AJ292" s="3"/>
-    </row>
-    <row r="293" spans="14:36">
+      <c r="AK292" s="3"/>
+    </row>
+    <row r="293" spans="14:37">
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
       <c r="U293" s="3"/>
@@ -25929,8 +26664,9 @@
       <c r="AH293" s="3"/>
       <c r="AI293" s="3"/>
       <c r="AJ293" s="3"/>
-    </row>
-    <row r="294" spans="14:36">
+      <c r="AK293" s="3"/>
+    </row>
+    <row r="294" spans="14:37">
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
       <c r="U294" s="3"/>
@@ -25949,8 +26685,9 @@
       <c r="AH294" s="3"/>
       <c r="AI294" s="3"/>
       <c r="AJ294" s="3"/>
-    </row>
-    <row r="295" spans="14:36">
+      <c r="AK294" s="3"/>
+    </row>
+    <row r="295" spans="14:37">
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
       <c r="U295" s="3"/>
@@ -25969,8 +26706,9 @@
       <c r="AH295" s="3"/>
       <c r="AI295" s="3"/>
       <c r="AJ295" s="3"/>
-    </row>
-    <row r="296" spans="14:36">
+      <c r="AK295" s="3"/>
+    </row>
+    <row r="296" spans="14:37">
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
       <c r="U296" s="3"/>
@@ -25989,8 +26727,9 @@
       <c r="AH296" s="3"/>
       <c r="AI296" s="3"/>
       <c r="AJ296" s="3"/>
-    </row>
-    <row r="297" spans="14:36">
+      <c r="AK296" s="3"/>
+    </row>
+    <row r="297" spans="14:37">
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
       <c r="U297" s="3"/>
@@ -26009,8 +26748,9 @@
       <c r="AH297" s="3"/>
       <c r="AI297" s="3"/>
       <c r="AJ297" s="3"/>
-    </row>
-    <row r="298" spans="14:36">
+      <c r="AK297" s="3"/>
+    </row>
+    <row r="298" spans="14:37">
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
       <c r="U298" s="3"/>
@@ -26029,8 +26769,9 @@
       <c r="AH298" s="3"/>
       <c r="AI298" s="3"/>
       <c r="AJ298" s="3"/>
-    </row>
-    <row r="299" spans="14:36">
+      <c r="AK298" s="3"/>
+    </row>
+    <row r="299" spans="14:37">
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
       <c r="U299" s="3"/>
@@ -26049,8 +26790,9 @@
       <c r="AH299" s="3"/>
       <c r="AI299" s="3"/>
       <c r="AJ299" s="3"/>
-    </row>
-    <row r="300" spans="14:36">
+      <c r="AK299" s="3"/>
+    </row>
+    <row r="300" spans="14:37">
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>
       <c r="U300" s="3"/>
@@ -26069,8 +26811,9 @@
       <c r="AH300" s="3"/>
       <c r="AI300" s="3"/>
       <c r="AJ300" s="3"/>
-    </row>
-    <row r="301" spans="14:36">
+      <c r="AK300" s="3"/>
+    </row>
+    <row r="301" spans="14:37">
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
       <c r="U301" s="3"/>
@@ -26089,8 +26832,9 @@
       <c r="AH301" s="3"/>
       <c r="AI301" s="3"/>
       <c r="AJ301" s="3"/>
-    </row>
-    <row r="302" spans="14:36">
+      <c r="AK301" s="3"/>
+    </row>
+    <row r="302" spans="14:37">
       <c r="N302" s="3"/>
       <c r="O302" s="3"/>
       <c r="U302" s="3"/>
@@ -26109,8 +26853,9 @@
       <c r="AH302" s="3"/>
       <c r="AI302" s="3"/>
       <c r="AJ302" s="3"/>
-    </row>
-    <row r="303" spans="14:36">
+      <c r="AK302" s="3"/>
+    </row>
+    <row r="303" spans="14:37">
       <c r="N303" s="3"/>
       <c r="O303" s="3"/>
       <c r="U303" s="3"/>
@@ -26129,8 +26874,9 @@
       <c r="AH303" s="3"/>
       <c r="AI303" s="3"/>
       <c r="AJ303" s="3"/>
-    </row>
-    <row r="304" spans="14:36">
+      <c r="AK303" s="3"/>
+    </row>
+    <row r="304" spans="14:37">
       <c r="N304" s="3"/>
       <c r="O304" s="3"/>
       <c r="U304" s="3"/>
@@ -26149,8 +26895,9 @@
       <c r="AH304" s="3"/>
       <c r="AI304" s="3"/>
       <c r="AJ304" s="3"/>
-    </row>
-    <row r="305" spans="14:36">
+      <c r="AK304" s="3"/>
+    </row>
+    <row r="305" spans="14:37">
       <c r="N305" s="3"/>
       <c r="O305" s="3"/>
       <c r="U305" s="3"/>
@@ -26169,8 +26916,9 @@
       <c r="AH305" s="3"/>
       <c r="AI305" s="3"/>
       <c r="AJ305" s="3"/>
-    </row>
-    <row r="306" spans="14:36">
+      <c r="AK305" s="3"/>
+    </row>
+    <row r="306" spans="14:37">
       <c r="N306" s="3"/>
       <c r="O306" s="3"/>
       <c r="U306" s="3"/>
@@ -26189,8 +26937,9 @@
       <c r="AH306" s="3"/>
       <c r="AI306" s="3"/>
       <c r="AJ306" s="3"/>
-    </row>
-    <row r="307" spans="14:36">
+      <c r="AK306" s="3"/>
+    </row>
+    <row r="307" spans="14:37">
       <c r="N307" s="3"/>
       <c r="O307" s="3"/>
       <c r="U307" s="3"/>
@@ -26209,8 +26958,9 @@
       <c r="AH307" s="3"/>
       <c r="AI307" s="3"/>
       <c r="AJ307" s="3"/>
-    </row>
-    <row r="308" spans="14:36">
+      <c r="AK307" s="3"/>
+    </row>
+    <row r="308" spans="14:37">
       <c r="N308" s="3"/>
       <c r="O308" s="3"/>
       <c r="U308" s="3"/>
@@ -26229,8 +26979,9 @@
       <c r="AH308" s="3"/>
       <c r="AI308" s="3"/>
       <c r="AJ308" s="3"/>
-    </row>
-    <row r="309" spans="14:36">
+      <c r="AK308" s="3"/>
+    </row>
+    <row r="309" spans="14:37">
       <c r="N309" s="3"/>
       <c r="O309" s="3"/>
       <c r="U309" s="3"/>
@@ -26249,8 +27000,9 @@
       <c r="AH309" s="3"/>
       <c r="AI309" s="3"/>
       <c r="AJ309" s="3"/>
-    </row>
-    <row r="310" spans="14:36">
+      <c r="AK309" s="3"/>
+    </row>
+    <row r="310" spans="14:37">
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
       <c r="U310" s="3"/>
@@ -26269,8 +27021,9 @@
       <c r="AH310" s="3"/>
       <c r="AI310" s="3"/>
       <c r="AJ310" s="3"/>
-    </row>
-    <row r="311" spans="14:36">
+      <c r="AK310" s="3"/>
+    </row>
+    <row r="311" spans="14:37">
       <c r="N311" s="3"/>
       <c r="O311" s="3"/>
       <c r="U311" s="3"/>
@@ -26289,8 +27042,9 @@
       <c r="AH311" s="3"/>
       <c r="AI311" s="3"/>
       <c r="AJ311" s="3"/>
-    </row>
-    <row r="312" spans="14:36">
+      <c r="AK311" s="3"/>
+    </row>
+    <row r="312" spans="14:37">
       <c r="N312" s="3"/>
       <c r="O312" s="3"/>
       <c r="U312" s="3"/>
@@ -26309,8 +27063,9 @@
       <c r="AH312" s="3"/>
       <c r="AI312" s="3"/>
       <c r="AJ312" s="3"/>
-    </row>
-    <row r="313" spans="14:36">
+      <c r="AK312" s="3"/>
+    </row>
+    <row r="313" spans="14:37">
       <c r="N313" s="3"/>
       <c r="O313" s="3"/>
       <c r="U313" s="3"/>
@@ -26329,8 +27084,9 @@
       <c r="AH313" s="3"/>
       <c r="AI313" s="3"/>
       <c r="AJ313" s="3"/>
-    </row>
-    <row r="314" spans="14:36">
+      <c r="AK313" s="3"/>
+    </row>
+    <row r="314" spans="14:37">
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>
       <c r="U314" s="3"/>
@@ -26349,8 +27105,9 @@
       <c r="AH314" s="3"/>
       <c r="AI314" s="3"/>
       <c r="AJ314" s="3"/>
-    </row>
-    <row r="315" spans="14:36">
+      <c r="AK314" s="3"/>
+    </row>
+    <row r="315" spans="14:37">
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
       <c r="U315" s="3"/>
@@ -26369,8 +27126,9 @@
       <c r="AH315" s="3"/>
       <c r="AI315" s="3"/>
       <c r="AJ315" s="3"/>
-    </row>
-    <row r="316" spans="14:36">
+      <c r="AK315" s="3"/>
+    </row>
+    <row r="316" spans="14:37">
       <c r="N316" s="3"/>
       <c r="O316" s="3"/>
       <c r="U316" s="3"/>
@@ -26389,8 +27147,9 @@
       <c r="AH316" s="3"/>
       <c r="AI316" s="3"/>
       <c r="AJ316" s="3"/>
-    </row>
-    <row r="317" spans="14:36">
+      <c r="AK316" s="3"/>
+    </row>
+    <row r="317" spans="14:37">
       <c r="N317" s="3"/>
       <c r="O317" s="3"/>
       <c r="U317" s="3"/>
@@ -26409,8 +27168,9 @@
       <c r="AH317" s="3"/>
       <c r="AI317" s="3"/>
       <c r="AJ317" s="3"/>
-    </row>
-    <row r="318" spans="14:36">
+      <c r="AK317" s="3"/>
+    </row>
+    <row r="318" spans="14:37">
       <c r="N318" s="3"/>
       <c r="O318" s="3"/>
       <c r="U318" s="3"/>
@@ -26429,8 +27189,9 @@
       <c r="AH318" s="3"/>
       <c r="AI318" s="3"/>
       <c r="AJ318" s="3"/>
-    </row>
-    <row r="319" spans="14:36">
+      <c r="AK318" s="3"/>
+    </row>
+    <row r="319" spans="14:37">
       <c r="N319" s="3"/>
       <c r="O319" s="3"/>
       <c r="U319" s="3"/>
@@ -26449,8 +27210,9 @@
       <c r="AH319" s="3"/>
       <c r="AI319" s="3"/>
       <c r="AJ319" s="3"/>
-    </row>
-    <row r="320" spans="14:36">
+      <c r="AK319" s="3"/>
+    </row>
+    <row r="320" spans="14:37">
       <c r="N320" s="3"/>
       <c r="O320" s="3"/>
       <c r="U320" s="3"/>
@@ -26469,8 +27231,9 @@
       <c r="AH320" s="3"/>
       <c r="AI320" s="3"/>
       <c r="AJ320" s="3"/>
-    </row>
-    <row r="321" spans="14:36">
+      <c r="AK320" s="3"/>
+    </row>
+    <row r="321" spans="14:37">
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
       <c r="U321" s="3"/>
@@ -26489,8 +27252,9 @@
       <c r="AH321" s="3"/>
       <c r="AI321" s="3"/>
       <c r="AJ321" s="3"/>
-    </row>
-    <row r="322" spans="14:36">
+      <c r="AK321" s="3"/>
+    </row>
+    <row r="322" spans="14:37">
       <c r="N322" s="3"/>
       <c r="O322" s="3"/>
       <c r="U322" s="3"/>
@@ -26509,8 +27273,9 @@
       <c r="AH322" s="3"/>
       <c r="AI322" s="3"/>
       <c r="AJ322" s="3"/>
-    </row>
-    <row r="323" spans="14:36">
+      <c r="AK322" s="3"/>
+    </row>
+    <row r="323" spans="14:37">
       <c r="N323" s="3"/>
       <c r="O323" s="3"/>
       <c r="U323" s="3"/>
@@ -26529,8 +27294,9 @@
       <c r="AH323" s="3"/>
       <c r="AI323" s="3"/>
       <c r="AJ323" s="3"/>
-    </row>
-    <row r="324" spans="14:36">
+      <c r="AK323" s="3"/>
+    </row>
+    <row r="324" spans="14:37">
       <c r="N324" s="3"/>
       <c r="O324" s="3"/>
       <c r="U324" s="3"/>
@@ -26549,8 +27315,9 @@
       <c r="AH324" s="3"/>
       <c r="AI324" s="3"/>
       <c r="AJ324" s="3"/>
-    </row>
-    <row r="325" spans="14:36">
+      <c r="AK324" s="3"/>
+    </row>
+    <row r="325" spans="14:37">
       <c r="N325" s="3"/>
       <c r="O325" s="3"/>
       <c r="U325" s="3"/>
@@ -26569,8 +27336,9 @@
       <c r="AH325" s="3"/>
       <c r="AI325" s="3"/>
       <c r="AJ325" s="3"/>
-    </row>
-    <row r="326" spans="14:36">
+      <c r="AK325" s="3"/>
+    </row>
+    <row r="326" spans="14:37">
       <c r="N326" s="3"/>
       <c r="O326" s="3"/>
       <c r="U326" s="3"/>
@@ -26589,8 +27357,9 @@
       <c r="AH326" s="3"/>
       <c r="AI326" s="3"/>
       <c r="AJ326" s="3"/>
-    </row>
-    <row r="327" spans="14:36">
+      <c r="AK326" s="3"/>
+    </row>
+    <row r="327" spans="14:37">
       <c r="N327" s="3"/>
       <c r="O327" s="3"/>
       <c r="U327" s="3"/>
@@ -26609,8 +27378,9 @@
       <c r="AH327" s="3"/>
       <c r="AI327" s="3"/>
       <c r="AJ327" s="3"/>
-    </row>
-    <row r="328" spans="14:36">
+      <c r="AK327" s="3"/>
+    </row>
+    <row r="328" spans="14:37">
       <c r="N328" s="3"/>
       <c r="O328" s="3"/>
       <c r="U328" s="3"/>
@@ -26629,8 +27399,9 @@
       <c r="AH328" s="3"/>
       <c r="AI328" s="3"/>
       <c r="AJ328" s="3"/>
-    </row>
-    <row r="329" spans="14:36">
+      <c r="AK328" s="3"/>
+    </row>
+    <row r="329" spans="14:37">
       <c r="N329" s="3"/>
       <c r="O329" s="3"/>
       <c r="U329" s="3"/>
@@ -26649,8 +27420,9 @@
       <c r="AH329" s="3"/>
       <c r="AI329" s="3"/>
       <c r="AJ329" s="3"/>
-    </row>
-    <row r="330" spans="14:36">
+      <c r="AK329" s="3"/>
+    </row>
+    <row r="330" spans="14:37">
       <c r="N330" s="3"/>
       <c r="O330" s="3"/>
       <c r="U330" s="3"/>
@@ -26669,8 +27441,9 @@
       <c r="AH330" s="3"/>
       <c r="AI330" s="3"/>
       <c r="AJ330" s="3"/>
-    </row>
-    <row r="331" spans="14:36">
+      <c r="AK330" s="3"/>
+    </row>
+    <row r="331" spans="14:37">
       <c r="N331" s="3"/>
       <c r="O331" s="3"/>
       <c r="U331" s="3"/>
@@ -26689,8 +27462,9 @@
       <c r="AH331" s="3"/>
       <c r="AI331" s="3"/>
       <c r="AJ331" s="3"/>
-    </row>
-    <row r="332" spans="14:36">
+      <c r="AK331" s="3"/>
+    </row>
+    <row r="332" spans="14:37">
       <c r="N332" s="3"/>
       <c r="O332" s="3"/>
       <c r="U332" s="3"/>
@@ -26709,8 +27483,9 @@
       <c r="AH332" s="3"/>
       <c r="AI332" s="3"/>
       <c r="AJ332" s="3"/>
-    </row>
-    <row r="333" spans="14:36">
+      <c r="AK332" s="3"/>
+    </row>
+    <row r="333" spans="14:37">
       <c r="N333" s="3"/>
       <c r="O333" s="3"/>
       <c r="U333" s="3"/>
@@ -26729,8 +27504,9 @@
       <c r="AH333" s="3"/>
       <c r="AI333" s="3"/>
       <c r="AJ333" s="3"/>
-    </row>
-    <row r="334" spans="14:36">
+      <c r="AK333" s="3"/>
+    </row>
+    <row r="334" spans="14:37">
       <c r="N334" s="3"/>
       <c r="O334" s="3"/>
       <c r="U334" s="3"/>
@@ -26749,8 +27525,9 @@
       <c r="AH334" s="3"/>
       <c r="AI334" s="3"/>
       <c r="AJ334" s="3"/>
-    </row>
-    <row r="335" spans="14:36">
+      <c r="AK334" s="3"/>
+    </row>
+    <row r="335" spans="14:37">
       <c r="N335" s="3"/>
       <c r="O335" s="3"/>
       <c r="U335" s="3"/>
@@ -26769,8 +27546,9 @@
       <c r="AH335" s="3"/>
       <c r="AI335" s="3"/>
       <c r="AJ335" s="3"/>
-    </row>
-    <row r="336" spans="14:36">
+      <c r="AK335" s="3"/>
+    </row>
+    <row r="336" spans="14:37">
       <c r="N336" s="3"/>
       <c r="O336" s="3"/>
       <c r="U336" s="3"/>
@@ -26789,8 +27567,9 @@
       <c r="AH336" s="3"/>
       <c r="AI336" s="3"/>
       <c r="AJ336" s="3"/>
-    </row>
-    <row r="337" spans="14:36">
+      <c r="AK336" s="3"/>
+    </row>
+    <row r="337" spans="14:37">
       <c r="N337" s="3"/>
       <c r="O337" s="3"/>
       <c r="U337" s="3"/>
@@ -26809,8 +27588,9 @@
       <c r="AH337" s="3"/>
       <c r="AI337" s="3"/>
       <c r="AJ337" s="3"/>
-    </row>
-    <row r="338" spans="14:36">
+      <c r="AK337" s="3"/>
+    </row>
+    <row r="338" spans="14:37">
       <c r="N338" s="3"/>
       <c r="O338" s="3"/>
       <c r="U338" s="3"/>
@@ -26829,8 +27609,9 @@
       <c r="AH338" s="3"/>
       <c r="AI338" s="3"/>
       <c r="AJ338" s="3"/>
-    </row>
-    <row r="339" spans="14:36">
+      <c r="AK338" s="3"/>
+    </row>
+    <row r="339" spans="14:37">
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
       <c r="U339" s="3"/>
@@ -26849,8 +27630,9 @@
       <c r="AH339" s="3"/>
       <c r="AI339" s="3"/>
       <c r="AJ339" s="3"/>
-    </row>
-    <row r="340" spans="14:36">
+      <c r="AK339" s="3"/>
+    </row>
+    <row r="340" spans="14:37">
       <c r="N340" s="3"/>
       <c r="O340" s="3"/>
       <c r="U340" s="3"/>
@@ -26869,8 +27651,9 @@
       <c r="AH340" s="3"/>
       <c r="AI340" s="3"/>
       <c r="AJ340" s="3"/>
-    </row>
-    <row r="341" spans="14:36">
+      <c r="AK340" s="3"/>
+    </row>
+    <row r="341" spans="14:37">
       <c r="N341" s="3"/>
       <c r="O341" s="3"/>
       <c r="U341" s="3"/>
@@ -26889,8 +27672,9 @@
       <c r="AH341" s="3"/>
       <c r="AI341" s="3"/>
       <c r="AJ341" s="3"/>
-    </row>
-    <row r="342" spans="14:36">
+      <c r="AK341" s="3"/>
+    </row>
+    <row r="342" spans="14:37">
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
       <c r="U342" s="3"/>
@@ -26909,8 +27693,9 @@
       <c r="AH342" s="3"/>
       <c r="AI342" s="3"/>
       <c r="AJ342" s="3"/>
-    </row>
-    <row r="343" spans="14:36">
+      <c r="AK342" s="3"/>
+    </row>
+    <row r="343" spans="14:37">
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
       <c r="U343" s="3"/>
@@ -26929,8 +27714,9 @@
       <c r="AH343" s="3"/>
       <c r="AI343" s="3"/>
       <c r="AJ343" s="3"/>
-    </row>
-    <row r="344" spans="14:36">
+      <c r="AK343" s="3"/>
+    </row>
+    <row r="344" spans="14:37">
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
       <c r="U344" s="3"/>
@@ -26949,8 +27735,9 @@
       <c r="AH344" s="3"/>
       <c r="AI344" s="3"/>
       <c r="AJ344" s="3"/>
-    </row>
-    <row r="345" spans="14:36">
+      <c r="AK344" s="3"/>
+    </row>
+    <row r="345" spans="14:37">
       <c r="N345" s="3"/>
       <c r="O345" s="3"/>
       <c r="U345" s="3"/>
@@ -26969,8 +27756,9 @@
       <c r="AH345" s="3"/>
       <c r="AI345" s="3"/>
       <c r="AJ345" s="3"/>
-    </row>
-    <row r="346" spans="14:36">
+      <c r="AK345" s="3"/>
+    </row>
+    <row r="346" spans="14:37">
       <c r="N346" s="3"/>
       <c r="O346" s="3"/>
       <c r="U346" s="3"/>
@@ -26989,8 +27777,9 @@
       <c r="AH346" s="3"/>
       <c r="AI346" s="3"/>
       <c r="AJ346" s="3"/>
-    </row>
-    <row r="347" spans="14:36">
+      <c r="AK346" s="3"/>
+    </row>
+    <row r="347" spans="14:37">
       <c r="N347" s="3"/>
       <c r="O347" s="3"/>
       <c r="U347" s="3"/>
@@ -27009,8 +27798,9 @@
       <c r="AH347" s="3"/>
       <c r="AI347" s="3"/>
       <c r="AJ347" s="3"/>
-    </row>
-    <row r="348" spans="14:36">
+      <c r="AK347" s="3"/>
+    </row>
+    <row r="348" spans="14:37">
       <c r="N348" s="3"/>
       <c r="O348" s="3"/>
       <c r="U348" s="3"/>
@@ -27029,8 +27819,9 @@
       <c r="AH348" s="3"/>
       <c r="AI348" s="3"/>
       <c r="AJ348" s="3"/>
-    </row>
-    <row r="349" spans="14:36">
+      <c r="AK348" s="3"/>
+    </row>
+    <row r="349" spans="14:37">
       <c r="N349" s="3"/>
       <c r="O349" s="3"/>
       <c r="U349" s="3"/>
@@ -27049,8 +27840,9 @@
       <c r="AH349" s="3"/>
       <c r="AI349" s="3"/>
       <c r="AJ349" s="3"/>
-    </row>
-    <row r="350" spans="14:36">
+      <c r="AK349" s="3"/>
+    </row>
+    <row r="350" spans="14:37">
       <c r="N350" s="3"/>
       <c r="O350" s="3"/>
       <c r="U350" s="3"/>
@@ -27069,8 +27861,9 @@
       <c r="AH350" s="3"/>
       <c r="AI350" s="3"/>
       <c r="AJ350" s="3"/>
-    </row>
-    <row r="351" spans="14:36">
+      <c r="AK350" s="3"/>
+    </row>
+    <row r="351" spans="14:37">
       <c r="N351" s="3"/>
       <c r="O351" s="3"/>
       <c r="U351" s="3"/>
@@ -27089,8 +27882,9 @@
       <c r="AH351" s="3"/>
       <c r="AI351" s="3"/>
       <c r="AJ351" s="3"/>
-    </row>
-    <row r="352" spans="14:36">
+      <c r="AK351" s="3"/>
+    </row>
+    <row r="352" spans="14:37">
       <c r="N352" s="3"/>
       <c r="O352" s="3"/>
       <c r="U352" s="3"/>
@@ -27109,8 +27903,9 @@
       <c r="AH352" s="3"/>
       <c r="AI352" s="3"/>
       <c r="AJ352" s="3"/>
-    </row>
-    <row r="353" spans="14:36">
+      <c r="AK352" s="3"/>
+    </row>
+    <row r="353" spans="14:37">
       <c r="N353" s="3"/>
       <c r="O353" s="3"/>
       <c r="U353" s="3"/>
@@ -27129,8 +27924,9 @@
       <c r="AH353" s="3"/>
       <c r="AI353" s="3"/>
       <c r="AJ353" s="3"/>
-    </row>
-    <row r="354" spans="14:36">
+      <c r="AK353" s="3"/>
+    </row>
+    <row r="354" spans="14:37">
       <c r="N354" s="3"/>
       <c r="O354" s="3"/>
       <c r="U354" s="3"/>
@@ -27149,8 +27945,9 @@
       <c r="AH354" s="3"/>
       <c r="AI354" s="3"/>
       <c r="AJ354" s="3"/>
-    </row>
-    <row r="355" spans="14:36">
+      <c r="AK354" s="3"/>
+    </row>
+    <row r="355" spans="14:37">
       <c r="N355" s="3"/>
       <c r="O355" s="3"/>
       <c r="U355" s="3"/>
@@ -27169,8 +27966,9 @@
       <c r="AH355" s="3"/>
       <c r="AI355" s="3"/>
       <c r="AJ355" s="3"/>
-    </row>
-    <row r="356" spans="14:36">
+      <c r="AK355" s="3"/>
+    </row>
+    <row r="356" spans="14:37">
       <c r="N356" s="3"/>
       <c r="O356" s="3"/>
       <c r="U356" s="3"/>
@@ -27189,8 +27987,9 @@
       <c r="AH356" s="3"/>
       <c r="AI356" s="3"/>
       <c r="AJ356" s="3"/>
-    </row>
-    <row r="357" spans="14:36">
+      <c r="AK356" s="3"/>
+    </row>
+    <row r="357" spans="14:37">
       <c r="N357" s="3"/>
       <c r="O357" s="3"/>
       <c r="U357" s="3"/>
@@ -27209,8 +28008,9 @@
       <c r="AH357" s="3"/>
       <c r="AI357" s="3"/>
       <c r="AJ357" s="3"/>
-    </row>
-    <row r="358" spans="14:36">
+      <c r="AK357" s="3"/>
+    </row>
+    <row r="358" spans="14:37">
       <c r="N358" s="3"/>
       <c r="O358" s="3"/>
       <c r="U358" s="3"/>
@@ -27229,8 +28029,9 @@
       <c r="AH358" s="3"/>
       <c r="AI358" s="3"/>
       <c r="AJ358" s="3"/>
-    </row>
-    <row r="359" spans="14:36">
+      <c r="AK358" s="3"/>
+    </row>
+    <row r="359" spans="14:37">
       <c r="N359" s="3"/>
       <c r="O359" s="3"/>
       <c r="U359" s="3"/>
@@ -27249,8 +28050,9 @@
       <c r="AH359" s="3"/>
       <c r="AI359" s="3"/>
       <c r="AJ359" s="3"/>
-    </row>
-    <row r="360" spans="14:36">
+      <c r="AK359" s="3"/>
+    </row>
+    <row r="360" spans="14:37">
       <c r="N360" s="3"/>
       <c r="O360" s="3"/>
       <c r="U360" s="3"/>
@@ -27269,8 +28071,9 @@
       <c r="AH360" s="3"/>
       <c r="AI360" s="3"/>
       <c r="AJ360" s="3"/>
-    </row>
-    <row r="361" spans="14:36">
+      <c r="AK360" s="3"/>
+    </row>
+    <row r="361" spans="14:37">
       <c r="N361" s="3"/>
       <c r="O361" s="3"/>
       <c r="U361" s="3"/>
@@ -27289,8 +28092,9 @@
       <c r="AH361" s="3"/>
       <c r="AI361" s="3"/>
       <c r="AJ361" s="3"/>
-    </row>
-    <row r="362" spans="14:36">
+      <c r="AK361" s="3"/>
+    </row>
+    <row r="362" spans="14:37">
       <c r="N362" s="3"/>
       <c r="O362" s="3"/>
       <c r="U362" s="3"/>
@@ -27309,8 +28113,9 @@
       <c r="AH362" s="3"/>
       <c r="AI362" s="3"/>
       <c r="AJ362" s="3"/>
-    </row>
-    <row r="363" spans="14:36">
+      <c r="AK362" s="3"/>
+    </row>
+    <row r="363" spans="14:37">
       <c r="N363" s="3"/>
       <c r="O363" s="3"/>
       <c r="U363" s="3"/>
@@ -27329,8 +28134,9 @@
       <c r="AH363" s="3"/>
       <c r="AI363" s="3"/>
       <c r="AJ363" s="3"/>
-    </row>
-    <row r="364" spans="14:36">
+      <c r="AK363" s="3"/>
+    </row>
+    <row r="364" spans="14:37">
       <c r="N364" s="3"/>
       <c r="O364" s="3"/>
       <c r="U364" s="3"/>
@@ -27349,8 +28155,9 @@
       <c r="AH364" s="3"/>
       <c r="AI364" s="3"/>
       <c r="AJ364" s="3"/>
-    </row>
-    <row r="365" spans="14:36">
+      <c r="AK364" s="3"/>
+    </row>
+    <row r="365" spans="14:37">
       <c r="N365" s="3"/>
       <c r="O365" s="3"/>
       <c r="U365" s="3"/>
@@ -27369,8 +28176,9 @@
       <c r="AH365" s="3"/>
       <c r="AI365" s="3"/>
       <c r="AJ365" s="3"/>
-    </row>
-    <row r="366" spans="14:36">
+      <c r="AK365" s="3"/>
+    </row>
+    <row r="366" spans="14:37">
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
       <c r="U366" s="3"/>
@@ -27389,8 +28197,9 @@
       <c r="AH366" s="3"/>
       <c r="AI366" s="3"/>
       <c r="AJ366" s="3"/>
-    </row>
-    <row r="367" spans="14:36">
+      <c r="AK366" s="3"/>
+    </row>
+    <row r="367" spans="14:37">
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>
       <c r="U367" s="3"/>
@@ -27409,8 +28218,9 @@
       <c r="AH367" s="3"/>
       <c r="AI367" s="3"/>
       <c r="AJ367" s="3"/>
-    </row>
-    <row r="368" spans="14:36">
+      <c r="AK367" s="3"/>
+    </row>
+    <row r="368" spans="14:37">
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
       <c r="U368" s="3"/>
@@ -27429,8 +28239,9 @@
       <c r="AH368" s="3"/>
       <c r="AI368" s="3"/>
       <c r="AJ368" s="3"/>
-    </row>
-    <row r="369" spans="14:36">
+      <c r="AK368" s="3"/>
+    </row>
+    <row r="369" spans="14:37">
       <c r="N369" s="3"/>
       <c r="O369" s="3"/>
       <c r="U369" s="3"/>
@@ -27449,8 +28260,9 @@
       <c r="AH369" s="3"/>
       <c r="AI369" s="3"/>
       <c r="AJ369" s="3"/>
-    </row>
-    <row r="370" spans="14:36">
+      <c r="AK369" s="3"/>
+    </row>
+    <row r="370" spans="14:37">
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
       <c r="U370" s="3"/>
@@ -27469,8 +28281,9 @@
       <c r="AH370" s="3"/>
       <c r="AI370" s="3"/>
       <c r="AJ370" s="3"/>
-    </row>
-    <row r="371" spans="14:36">
+      <c r="AK370" s="3"/>
+    </row>
+    <row r="371" spans="14:37">
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>
       <c r="U371" s="3"/>
@@ -27489,8 +28302,9 @@
       <c r="AH371" s="3"/>
       <c r="AI371" s="3"/>
       <c r="AJ371" s="3"/>
-    </row>
-    <row r="372" spans="14:36">
+      <c r="AK371" s="3"/>
+    </row>
+    <row r="372" spans="14:37">
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>
       <c r="U372" s="3"/>
@@ -27509,8 +28323,9 @@
       <c r="AH372" s="3"/>
       <c r="AI372" s="3"/>
       <c r="AJ372" s="3"/>
-    </row>
-    <row r="373" spans="14:36">
+      <c r="AK372" s="3"/>
+    </row>
+    <row r="373" spans="14:37">
       <c r="N373" s="3"/>
       <c r="O373" s="3"/>
       <c r="U373" s="3"/>
@@ -27529,8 +28344,9 @@
       <c r="AH373" s="3"/>
       <c r="AI373" s="3"/>
       <c r="AJ373" s="3"/>
-    </row>
-    <row r="374" spans="14:36">
+      <c r="AK373" s="3"/>
+    </row>
+    <row r="374" spans="14:37">
       <c r="N374" s="3"/>
       <c r="O374" s="3"/>
       <c r="U374" s="3"/>
@@ -27549,8 +28365,9 @@
       <c r="AH374" s="3"/>
       <c r="AI374" s="3"/>
       <c r="AJ374" s="3"/>
-    </row>
-    <row r="375" spans="14:36">
+      <c r="AK374" s="3"/>
+    </row>
+    <row r="375" spans="14:37">
       <c r="N375" s="3"/>
       <c r="O375" s="3"/>
       <c r="U375" s="3"/>
@@ -27569,8 +28386,9 @@
       <c r="AH375" s="3"/>
       <c r="AI375" s="3"/>
       <c r="AJ375" s="3"/>
-    </row>
-    <row r="376" spans="14:36">
+      <c r="AK375" s="3"/>
+    </row>
+    <row r="376" spans="14:37">
       <c r="N376" s="3"/>
       <c r="O376" s="3"/>
       <c r="U376" s="3"/>
@@ -27589,8 +28407,9 @@
       <c r="AH376" s="3"/>
       <c r="AI376" s="3"/>
       <c r="AJ376" s="3"/>
-    </row>
-    <row r="377" spans="14:36">
+      <c r="AK376" s="3"/>
+    </row>
+    <row r="377" spans="14:37">
       <c r="N377" s="3"/>
       <c r="O377" s="3"/>
       <c r="U377" s="3"/>
@@ -27609,8 +28428,9 @@
       <c r="AH377" s="3"/>
       <c r="AI377" s="3"/>
       <c r="AJ377" s="3"/>
-    </row>
-    <row r="378" spans="14:36">
+      <c r="AK377" s="3"/>
+    </row>
+    <row r="378" spans="14:37">
       <c r="N378" s="3"/>
       <c r="O378" s="3"/>
       <c r="U378" s="3"/>
@@ -27629,8 +28449,9 @@
       <c r="AH378" s="3"/>
       <c r="AI378" s="3"/>
       <c r="AJ378" s="3"/>
-    </row>
-    <row r="379" spans="14:36">
+      <c r="AK378" s="3"/>
+    </row>
+    <row r="379" spans="14:37">
       <c r="N379" s="3"/>
       <c r="O379" s="3"/>
       <c r="U379" s="3"/>
@@ -27649,8 +28470,9 @@
       <c r="AH379" s="3"/>
       <c r="AI379" s="3"/>
       <c r="AJ379" s="3"/>
-    </row>
-    <row r="380" spans="14:36">
+      <c r="AK379" s="3"/>
+    </row>
+    <row r="380" spans="14:37">
       <c r="N380" s="3"/>
       <c r="O380" s="3"/>
       <c r="U380" s="3"/>
@@ -27669,8 +28491,9 @@
       <c r="AH380" s="3"/>
       <c r="AI380" s="3"/>
       <c r="AJ380" s="3"/>
-    </row>
-    <row r="381" spans="14:36">
+      <c r="AK380" s="3"/>
+    </row>
+    <row r="381" spans="14:37">
       <c r="N381" s="3"/>
       <c r="O381" s="3"/>
       <c r="U381" s="3"/>
@@ -27690,7 +28513,7 @@
       <c r="AI381" s="3"/>
       <c r="AJ381" s="3"/>
     </row>
-    <row r="382" spans="14:36">
+    <row r="382" spans="14:37">
       <c r="N382" s="3"/>
       <c r="O382" s="3"/>
       <c r="U382" s="3"/>
@@ -27710,7 +28533,7 @@
       <c r="AI382" s="3"/>
       <c r="AJ382" s="3"/>
     </row>
-    <row r="383" spans="14:36">
+    <row r="383" spans="14:37">
       <c r="N383" s="3"/>
       <c r="O383" s="3"/>
       <c r="U383" s="3"/>
@@ -27730,7 +28553,7 @@
       <c r="AI383" s="3"/>
       <c r="AJ383" s="3"/>
     </row>
-    <row r="384" spans="14:36">
+    <row r="384" spans="14:37">
       <c r="N384" s="3"/>
       <c r="O384" s="3"/>
       <c r="U384" s="3"/>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -300,12 +300,18 @@
   <si>
     <t>GovSpending</t>
   </si>
+  <si>
+    <t>GZSpread</t>
+  </si>
+  <si>
+    <t>NBERDates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +381,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +430,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,11 +477,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normale 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -743,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK937"/>
+  <dimension ref="A1:AM937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AD54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AF232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI20" sqref="AI20"/>
+      <selection pane="bottomRight" activeCell="AL280" sqref="AL280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -764,10 +785,12 @@
     <col min="18" max="18" width="21.28515625" style="9" customWidth="1"/>
     <col min="19" max="35" width="22.140625" style="9" customWidth="1"/>
     <col min="36" max="37" width="22.42578125" style="9" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="9"/>
+    <col min="38" max="38" width="22" style="3"/>
+    <col min="39" max="39" width="22" style="14"/>
+    <col min="40" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +902,14 @@
       <c r="AK1" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -992,8 +1021,14 @@
       <c r="AK2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1140,14 @@
       <c r="AK3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,8 +1259,14 @@
       <c r="AK4" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" s="11">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1331,8 +1378,14 @@
       <c r="AK5" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" s="11">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="B6" s="4">
         <v>1950</v>
       </c>
@@ -1369,8 +1422,11 @@
       <c r="S6" s="10">
         <v>-0.11431313472008581</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="B7" s="4">
         <v>1950.25</v>
       </c>
@@ -1407,8 +1463,11 @@
       <c r="S7" s="10">
         <v>-2.2894475299317971E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:37">
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="B8" s="4">
         <v>1950.5</v>
       </c>
@@ -1445,8 +1504,11 @@
       <c r="S8" s="10">
         <v>5.9200624915389521E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="B9" s="4">
         <v>1950.75</v>
       </c>
@@ -1483,8 +1545,11 @@
       <c r="S9" s="10">
         <v>6.3127903890477968E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="B10" s="4">
         <v>1951</v>
       </c>
@@ -1521,8 +1586,11 @@
       <c r="S10" s="10">
         <v>6.8106865509809711E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
       <c r="B11" s="4">
         <v>1951.25</v>
       </c>
@@ -1559,8 +1627,11 @@
       <c r="S11" s="10">
         <v>9.7488465004791219E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="B12" s="4">
         <v>1951.5</v>
       </c>
@@ -1597,8 +1668,11 @@
       <c r="S12" s="10">
         <v>6.0856412442280378E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="B13" s="4">
         <v>1951.75</v>
       </c>
@@ -1635,8 +1709,11 @@
       <c r="S13" s="10">
         <v>6.7322906534108176E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="B14" s="4">
         <v>1952</v>
       </c>
@@ -1676,8 +1753,11 @@
       <c r="S14" s="10">
         <v>0.11976733748280652</v>
       </c>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
       <c r="B15" s="4">
         <v>1952.25</v>
       </c>
@@ -1717,8 +1797,11 @@
       <c r="S15" s="10">
         <v>5.8630031929538778E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="B16" s="4">
         <v>1952.5</v>
       </c>
@@ -1758,8 +1841,11 @@
       <c r="S16" s="10">
         <v>9.6876224119912549E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:19">
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39">
       <c r="B17" s="4">
         <v>1952.75</v>
       </c>
@@ -1799,8 +1885,11 @@
       <c r="S17" s="10">
         <v>0.17188637199025875</v>
       </c>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39">
       <c r="B18" s="4">
         <v>1953</v>
       </c>
@@ -1840,8 +1929,11 @@
       <c r="S18" s="10">
         <v>0.13352623987310855</v>
       </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39">
       <c r="B19" s="4">
         <v>1953.25</v>
       </c>
@@ -1881,8 +1973,11 @@
       <c r="S19" s="10">
         <v>0.10057663511503792</v>
       </c>
-    </row>
-    <row r="20" spans="2:19">
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39">
       <c r="B20" s="4">
         <v>1953.5</v>
       </c>
@@ -1922,8 +2017,11 @@
       <c r="S20" s="10">
         <v>1.8029831858980383E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="AM20" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39">
       <c r="B21" s="4">
         <v>1953.75</v>
       </c>
@@ -1963,8 +2061,11 @@
       <c r="S21" s="10">
         <v>-6.2348933979749652E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="AM21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39">
       <c r="B22" s="4">
         <v>1954</v>
       </c>
@@ -2004,8 +2105,11 @@
       <c r="S22" s="10">
         <v>-0.12012209642471756</v>
       </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="AM22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39">
       <c r="B23" s="4">
         <v>1954.25</v>
       </c>
@@ -2045,8 +2149,11 @@
       <c r="S23" s="10">
         <v>-0.12434067138761502</v>
       </c>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="AM23" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39">
       <c r="B24" s="4">
         <v>1954.5</v>
       </c>
@@ -2089,8 +2196,11 @@
       <c r="S24" s="10">
         <v>-0.12031549177222742</v>
       </c>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="AM24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39">
       <c r="B25" s="4">
         <v>1954.75</v>
       </c>
@@ -2133,8 +2243,11 @@
       <c r="S25" s="10">
         <v>-7.8885558912420869E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="AM25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39">
       <c r="B26" s="4">
         <v>1955</v>
       </c>
@@ -2177,8 +2290,11 @@
       <c r="S26" s="10">
         <v>1.1078536585903007E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="AM26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39">
       <c r="B27" s="4">
         <v>1955.25</v>
       </c>
@@ -2221,8 +2337,11 @@
       <c r="S27" s="10">
         <v>4.7660711165628818E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:19">
+      <c r="AM27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39">
       <c r="B28" s="4">
         <v>1955.5</v>
       </c>
@@ -2265,8 +2384,11 @@
       <c r="S28" s="10">
         <v>3.4274571697712544E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:19">
+      <c r="AM28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39">
       <c r="B29" s="4">
         <v>1955.75</v>
       </c>
@@ -2309,8 +2431,11 @@
       <c r="S29" s="10">
         <v>7.0927088627340429E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:19">
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39">
       <c r="B30" s="4">
         <v>1956</v>
       </c>
@@ -2353,8 +2478,11 @@
       <c r="S30" s="10">
         <v>3.0678640282992033E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39">
       <c r="B31" s="4">
         <v>1956.25</v>
       </c>
@@ -2397,8 +2525,11 @@
       <c r="S31" s="10">
         <v>-1.5160167036325251E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:19">
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39">
       <c r="B32" s="4">
         <v>1956.5</v>
       </c>
@@ -2441,8 +2572,11 @@
       <c r="S32" s="10">
         <v>-8.1167141299843572E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:37">
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39">
       <c r="B33" s="4">
         <v>1956.75</v>
       </c>
@@ -2485,8 +2619,11 @@
       <c r="S33" s="10">
         <v>3.0833846677127231E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:37">
+      <c r="AM33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39">
       <c r="B34" s="4">
         <v>1957</v>
       </c>
@@ -2529,8 +2666,11 @@
       <c r="S34" s="10">
         <v>-5.7196074377090962E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:37">
+      <c r="AM34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39">
       <c r="B35" s="4">
         <v>1957.25</v>
       </c>
@@ -2573,8 +2713,11 @@
       <c r="S35" s="10">
         <v>-8.1547169078575815E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:37">
+      <c r="AM35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:39">
       <c r="B36" s="4">
         <v>1957.5</v>
       </c>
@@ -2617,8 +2760,11 @@
       <c r="S36" s="10">
         <v>-0.11278996872284601</v>
       </c>
-    </row>
-    <row r="37" spans="2:37">
+      <c r="AM36" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:39">
       <c r="B37" s="4">
         <v>1957.75</v>
       </c>
@@ -2661,8 +2807,11 @@
       <c r="S37" s="10">
         <v>-0.20580850785103549</v>
       </c>
-    </row>
-    <row r="38" spans="2:37">
+      <c r="AM37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:39">
       <c r="B38" s="4">
         <v>1958</v>
       </c>
@@ -2705,8 +2854,11 @@
       <c r="S38" s="10">
         <v>-0.28366895483664478</v>
       </c>
-    </row>
-    <row r="39" spans="2:37">
+      <c r="AM38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:39">
       <c r="B39" s="4">
         <v>1958.25</v>
       </c>
@@ -2749,8 +2901,11 @@
       <c r="S39" s="10">
         <v>-0.26634761620783082</v>
       </c>
-    </row>
-    <row r="40" spans="2:37">
+      <c r="AM39" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="2:39">
       <c r="B40" s="4">
         <v>1958.5</v>
       </c>
@@ -2793,8 +2948,11 @@
       <c r="S40" s="10">
         <v>-0.19154025681984282</v>
       </c>
-    </row>
-    <row r="41" spans="2:37">
+      <c r="AM40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:39">
       <c r="B41" s="4">
         <v>1958.75</v>
       </c>
@@ -2837,8 +2995,11 @@
       <c r="S41" s="10">
         <v>-0.14187872282057556</v>
       </c>
-    </row>
-    <row r="42" spans="2:37">
+      <c r="AM41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:39">
       <c r="B42" s="4">
         <v>1959</v>
       </c>
@@ -2884,8 +3045,11 @@
       <c r="S42" s="10">
         <v>-5.1920519961963923E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:37">
+      <c r="AM42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:39">
       <c r="B43" s="4">
         <v>1959.25</v>
       </c>
@@ -2931,8 +3095,11 @@
       <c r="S43" s="10">
         <v>-8.9935538290975489E-3</v>
       </c>
-    </row>
-    <row r="44" spans="2:37">
+      <c r="AM43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:39">
       <c r="B44" s="4">
         <v>1959.5</v>
       </c>
@@ -2979,8 +3146,11 @@
         <v>-6.1327866335059371E-2</v>
       </c>
       <c r="AK44" s="3"/>
-    </row>
-    <row r="45" spans="2:37">
+      <c r="AM44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:39">
       <c r="B45" s="4">
         <v>1959.75</v>
       </c>
@@ -3027,8 +3197,11 @@
         <v>-9.6121041384898798E-2</v>
       </c>
       <c r="AK45" s="3"/>
-    </row>
-    <row r="46" spans="2:37">
+      <c r="AM45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39">
       <c r="B46" s="4">
         <v>1960</v>
       </c>
@@ -3080,8 +3253,11 @@
       <c r="AK46" s="3">
         <v>144.233</v>
       </c>
-    </row>
-    <row r="47" spans="2:37">
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:39">
       <c r="B47" s="4">
         <v>1960.25</v>
       </c>
@@ -3133,8 +3309,11 @@
       <c r="AK47" s="3">
         <v>147.417</v>
       </c>
-    </row>
-    <row r="48" spans="2:37">
+      <c r="AM47" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39">
       <c r="B48" s="4">
         <v>1960.5</v>
       </c>
@@ -3186,8 +3365,11 @@
       <c r="AK48" s="3">
         <v>150.459</v>
       </c>
-    </row>
-    <row r="49" spans="2:37">
+      <c r="AM48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:39">
       <c r="B49" s="4">
         <v>1960.75</v>
       </c>
@@ -3239,8 +3421,11 @@
       <c r="AK49" s="3">
         <v>153.78</v>
       </c>
-    </row>
-    <row r="50" spans="2:37">
+      <c r="AM49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39">
       <c r="B50" s="4">
         <v>1961</v>
       </c>
@@ -3292,8 +3477,11 @@
       <c r="AK50" s="3">
         <v>157.25399999999999</v>
       </c>
-    </row>
-    <row r="51" spans="2:37">
+      <c r="AM50" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="2:39">
       <c r="B51" s="4">
         <v>1961.25</v>
       </c>
@@ -3345,8 +3533,11 @@
       <c r="AK51" s="3">
         <v>160.73699999999999</v>
       </c>
-    </row>
-    <row r="52" spans="2:37">
+      <c r="AM51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39">
       <c r="B52" s="4">
         <v>1961.5</v>
       </c>
@@ -3398,8 +3589,11 @@
       <c r="AK52" s="3">
         <v>162.661</v>
       </c>
-    </row>
-    <row r="53" spans="2:37">
+      <c r="AM52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39">
       <c r="B53" s="4">
         <v>1961.75</v>
       </c>
@@ -3451,8 +3645,11 @@
       <c r="AK53" s="3">
         <v>166.34399999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:37">
+      <c r="AM53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39">
       <c r="B54" s="4">
         <v>1962</v>
       </c>
@@ -3504,8 +3701,11 @@
       <c r="AK54" s="3">
         <v>170.892</v>
       </c>
-    </row>
-    <row r="55" spans="2:37">
+      <c r="AM54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39">
       <c r="B55" s="4">
         <v>1962.25</v>
       </c>
@@ -3557,8 +3757,11 @@
       <c r="AK55" s="3">
         <v>173.125</v>
       </c>
-    </row>
-    <row r="56" spans="2:37">
+      <c r="AM55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39">
       <c r="B56" s="4">
         <v>1962.5</v>
       </c>
@@ -3610,8 +3813,11 @@
       <c r="AK56" s="3">
         <v>175.59700000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:37">
+      <c r="AM56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:39">
       <c r="B57" s="4">
         <v>1962.75</v>
       </c>
@@ -3663,8 +3869,11 @@
       <c r="AK57" s="3">
         <v>178.20599999999999</v>
       </c>
-    </row>
-    <row r="58" spans="2:37">
+      <c r="AM57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39">
       <c r="B58" s="4">
         <v>1963</v>
       </c>
@@ -3716,8 +3925,11 @@
       <c r="AK58" s="3">
         <v>179.393</v>
       </c>
-    </row>
-    <row r="59" spans="2:37">
+      <c r="AM58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:39">
       <c r="B59" s="4">
         <v>1963.25</v>
       </c>
@@ -3769,8 +3981,11 @@
       <c r="AK59" s="3">
         <v>180.369</v>
       </c>
-    </row>
-    <row r="60" spans="2:37">
+      <c r="AM59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:39">
       <c r="B60" s="4">
         <v>1963.5</v>
       </c>
@@ -3822,8 +4037,11 @@
       <c r="AK60" s="3">
         <v>184.86199999999999</v>
       </c>
-    </row>
-    <row r="61" spans="2:37">
+      <c r="AM60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39">
       <c r="B61" s="4">
         <v>1963.75</v>
       </c>
@@ -3875,8 +4093,11 @@
       <c r="AK61" s="3">
         <v>186.792</v>
       </c>
-    </row>
-    <row r="62" spans="2:37">
+      <c r="AM61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:39">
       <c r="B62" s="4">
         <v>1964</v>
       </c>
@@ -3928,8 +4149,11 @@
       <c r="AK62" s="3">
         <v>190.07499999999999</v>
       </c>
-    </row>
-    <row r="63" spans="2:37">
+      <c r="AM62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:39">
       <c r="B63" s="4">
         <v>1964.25</v>
       </c>
@@ -3981,8 +4205,11 @@
       <c r="AK63" s="3">
         <v>192.97</v>
       </c>
-    </row>
-    <row r="64" spans="2:37">
+      <c r="AM63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:39">
       <c r="B64" s="4">
         <v>1964.5</v>
       </c>
@@ -4034,8 +4261,11 @@
       <c r="AK64" s="3">
         <v>193.29499999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:37">
+      <c r="AM64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:39">
       <c r="B65" s="4">
         <v>1964.75</v>
       </c>
@@ -4087,8 +4317,11 @@
       <c r="AK65" s="3">
         <v>192.97300000000001</v>
       </c>
-    </row>
-    <row r="66" spans="2:37">
+      <c r="AM65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:39">
       <c r="B66" s="4">
         <v>1965</v>
       </c>
@@ -4140,8 +4373,11 @@
       <c r="AK66" s="3">
         <v>196.19800000000001</v>
       </c>
-    </row>
-    <row r="67" spans="2:37">
+      <c r="AM66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:39">
       <c r="B67" s="4">
         <v>1965.25</v>
       </c>
@@ -4193,8 +4429,11 @@
       <c r="AK67" s="3">
         <v>200.08799999999999</v>
       </c>
-    </row>
-    <row r="68" spans="2:37">
+      <c r="AM67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:39">
       <c r="B68" s="4">
         <v>1965.5</v>
       </c>
@@ -4246,8 +4485,11 @@
       <c r="AK68" s="3">
         <v>208.98</v>
       </c>
-    </row>
-    <row r="69" spans="2:37">
+      <c r="AM68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:39">
       <c r="B69" s="4">
         <v>1965.75</v>
       </c>
@@ -4299,8 +4541,11 @@
       <c r="AK69" s="3">
         <v>214.261</v>
       </c>
-    </row>
-    <row r="70" spans="2:37">
+      <c r="AM69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:39">
       <c r="B70" s="4">
         <v>1966</v>
       </c>
@@ -4352,8 +4597,11 @@
       <c r="AK70" s="3">
         <v>221.114</v>
       </c>
-    </row>
-    <row r="71" spans="2:37">
+      <c r="AM70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:39">
       <c r="B71" s="4">
         <v>1966.25</v>
       </c>
@@ -4405,8 +4653,11 @@
       <c r="AK71" s="3">
         <v>227.47900000000001</v>
       </c>
-    </row>
-    <row r="72" spans="2:37">
+      <c r="AM71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:39">
       <c r="B72" s="4">
         <v>1966.5</v>
       </c>
@@ -4458,8 +4709,11 @@
       <c r="AK72" s="3">
         <v>235.64400000000001</v>
       </c>
-    </row>
-    <row r="73" spans="2:37">
+      <c r="AM72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:39">
       <c r="B73" s="4">
         <v>1966.75</v>
       </c>
@@ -4511,8 +4765,11 @@
       <c r="AK73" s="3">
         <v>243.76300000000001</v>
       </c>
-    </row>
-    <row r="74" spans="2:37">
+      <c r="AM73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:39">
       <c r="B74" s="4">
         <v>1967</v>
       </c>
@@ -4564,8 +4821,11 @@
       <c r="AK74" s="3">
         <v>255.41499999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:37">
+      <c r="AM74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:39">
       <c r="B75" s="4">
         <v>1967.25</v>
       </c>
@@ -4617,8 +4877,11 @@
       <c r="AK75" s="3">
         <v>256.92200000000003</v>
       </c>
-    </row>
-    <row r="76" spans="2:37">
+      <c r="AM75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:39">
       <c r="B76" s="4">
         <v>1967.5</v>
       </c>
@@ -4670,8 +4933,11 @@
       <c r="AK76" s="3">
         <v>264.19900000000001</v>
       </c>
-    </row>
-    <row r="77" spans="2:37">
+      <c r="AM76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:39">
       <c r="B77" s="4">
         <v>1967.75</v>
       </c>
@@ -4739,8 +5005,11 @@
       <c r="AK77" s="3">
         <v>268.38499999999999</v>
       </c>
-    </row>
-    <row r="78" spans="2:37">
+      <c r="AM77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:39">
       <c r="B78" s="4">
         <v>1968</v>
       </c>
@@ -4808,8 +5077,11 @@
       <c r="AK78" s="3">
         <v>277.11099999999999</v>
       </c>
-    </row>
-    <row r="79" spans="2:37">
+      <c r="AM78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:39">
       <c r="B79" s="4">
         <v>1968.25</v>
       </c>
@@ -4877,8 +5149,11 @@
       <c r="AK79" s="3">
         <v>286.70800000000003</v>
       </c>
-    </row>
-    <row r="80" spans="2:37">
+      <c r="AM79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:39">
       <c r="B80" s="4">
         <v>1968.5</v>
       </c>
@@ -4946,8 +5221,11 @@
       <c r="AK80" s="3">
         <v>292.21499999999997</v>
       </c>
-    </row>
-    <row r="81" spans="2:37">
+      <c r="AM80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:39">
       <c r="B81" s="4">
         <v>1968.75</v>
       </c>
@@ -5039,8 +5317,11 @@
       <c r="AK81" s="3">
         <v>298.98200000000003</v>
       </c>
-    </row>
-    <row r="82" spans="2:37">
+      <c r="AM81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:39">
       <c r="B82" s="4">
         <v>1969</v>
       </c>
@@ -5132,8 +5413,11 @@
       <c r="AK82" s="3">
         <v>300.56599999999997</v>
       </c>
-    </row>
-    <row r="83" spans="2:37">
+      <c r="AM82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:39">
       <c r="B83" s="4">
         <v>1969.25</v>
       </c>
@@ -5225,8 +5509,11 @@
       <c r="AK83" s="3">
         <v>307.101</v>
       </c>
-    </row>
-    <row r="84" spans="2:37">
+      <c r="AM83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:39">
       <c r="B84" s="4">
         <v>1969.5</v>
       </c>
@@ -5318,8 +5605,11 @@
       <c r="AK84" s="3">
         <v>313.91699999999997</v>
       </c>
-    </row>
-    <row r="85" spans="2:37">
+      <c r="AM84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:39">
       <c r="B85" s="4">
         <v>1969.75</v>
       </c>
@@ -5411,8 +5701,11 @@
       <c r="AK85" s="3">
         <v>318.24299999999999</v>
       </c>
-    </row>
-    <row r="86" spans="2:37">
+      <c r="AM85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:39">
       <c r="B86" s="4">
         <v>1970</v>
       </c>
@@ -5504,8 +5797,11 @@
       <c r="AK86" s="3">
         <v>325.87799999999999</v>
       </c>
-    </row>
-    <row r="87" spans="2:37">
+      <c r="AM86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:39">
       <c r="B87" s="4">
         <v>1970.25</v>
       </c>
@@ -5605,8 +5901,11 @@
       <c r="AK87" s="3">
         <v>339.04899999999998</v>
       </c>
-    </row>
-    <row r="88" spans="2:37">
+      <c r="AM87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:39">
       <c r="B88" s="4">
         <v>1970.5</v>
       </c>
@@ -5706,8 +6005,11 @@
       <c r="AK88" s="3">
         <v>346.41199999999998</v>
       </c>
-    </row>
-    <row r="89" spans="2:37">
+      <c r="AM88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:39">
       <c r="B89" s="4">
         <v>1970.75</v>
       </c>
@@ -5807,8 +6109,11 @@
       <c r="AK89" s="3">
         <v>354.25</v>
       </c>
-    </row>
-    <row r="90" spans="2:37">
+      <c r="AM89" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="90" spans="2:39">
       <c r="B90" s="4">
         <v>1971</v>
       </c>
@@ -5908,8 +6213,11 @@
       <c r="AK90" s="3">
         <v>358.56599999999997</v>
       </c>
-    </row>
-    <row r="91" spans="2:37">
+      <c r="AM90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:39">
       <c r="B91" s="4">
         <v>1971.25</v>
       </c>
@@ -6009,8 +6317,11 @@
       <c r="AK91" s="3">
         <v>373.20600000000002</v>
       </c>
-    </row>
-    <row r="92" spans="2:37">
+      <c r="AM91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:39">
       <c r="B92" s="4">
         <v>1971.5</v>
       </c>
@@ -6110,8 +6421,11 @@
       <c r="AK92" s="3">
         <v>377.13200000000001</v>
       </c>
-    </row>
-    <row r="93" spans="2:37">
+      <c r="AM92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:39">
       <c r="B93" s="4">
         <v>1971.75</v>
       </c>
@@ -6211,8 +6525,11 @@
       <c r="AK93" s="3">
         <v>383.30599999999998</v>
       </c>
-    </row>
-    <row r="94" spans="2:37">
+      <c r="AM93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:39">
       <c r="B94" s="4">
         <v>1972</v>
       </c>
@@ -6312,8 +6629,11 @@
       <c r="AK94" s="3">
         <v>399.428</v>
       </c>
-    </row>
-    <row r="95" spans="2:37">
+      <c r="AM94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:39">
       <c r="B95" s="4">
         <v>1972.25</v>
       </c>
@@ -6413,8 +6733,11 @@
       <c r="AK95" s="3">
         <v>403.92899999999997</v>
       </c>
-    </row>
-    <row r="96" spans="2:37">
+      <c r="AM95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:39">
       <c r="B96" s="4">
         <v>1972.5</v>
       </c>
@@ -6514,8 +6837,11 @@
       <c r="AK96" s="3">
         <v>404.90800000000002</v>
       </c>
-    </row>
-    <row r="97" spans="2:37">
+      <c r="AM96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:39">
       <c r="B97" s="4">
         <v>1972.75</v>
       </c>
@@ -6615,8 +6941,11 @@
       <c r="AK97" s="3">
         <v>419.28500000000003</v>
       </c>
-    </row>
-    <row r="98" spans="2:37">
+      <c r="AM97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:39">
       <c r="B98" s="4">
         <v>1973</v>
       </c>
@@ -6716,8 +7045,14 @@
       <c r="AK98" s="3">
         <v>426.92700000000002</v>
       </c>
-    </row>
-    <row r="99" spans="2:37">
+      <c r="AL98" s="3">
+        <v>1.026</v>
+      </c>
+      <c r="AM98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:39">
       <c r="B99" s="4">
         <v>1973.25</v>
       </c>
@@ -6817,8 +7152,14 @@
       <c r="AK99" s="3">
         <v>439.10700000000003</v>
       </c>
-    </row>
-    <row r="100" spans="2:37">
+      <c r="AL99" s="3">
+        <v>1.0113000000000001</v>
+      </c>
+      <c r="AM99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:39">
       <c r="B100" s="4">
         <v>1973.5</v>
       </c>
@@ -6918,8 +7259,14 @@
       <c r="AK100" s="3">
         <v>437.62900000000002</v>
       </c>
-    </row>
-    <row r="101" spans="2:37">
+      <c r="AL100" s="3">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="AM100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:39">
       <c r="B101" s="4">
         <v>1973.75</v>
       </c>
@@ -7019,8 +7366,14 @@
       <c r="AK101" s="3">
         <v>451.01900000000001</v>
       </c>
-    </row>
-    <row r="102" spans="2:37">
+      <c r="AL101" s="3">
+        <v>1.2197</v>
+      </c>
+      <c r="AM101" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="102" spans="2:39">
       <c r="B102" s="4">
         <v>1974</v>
       </c>
@@ -7120,8 +7473,14 @@
       <c r="AK102" s="3">
         <v>465.64299999999997</v>
       </c>
-    </row>
-    <row r="103" spans="2:37">
+      <c r="AL102" s="3">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="AM102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:39">
       <c r="B103" s="4">
         <v>1974.25</v>
       </c>
@@ -7221,8 +7580,14 @@
       <c r="AK103" s="3">
         <v>477.34800000000001</v>
       </c>
-    </row>
-    <row r="104" spans="2:37">
+      <c r="AL103" s="3">
+        <v>1.6315</v>
+      </c>
+      <c r="AM103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:39">
       <c r="B104" s="4">
         <v>1974.5</v>
       </c>
@@ -7322,8 +7687,14 @@
       <c r="AK104" s="3">
         <v>507.012</v>
       </c>
-    </row>
-    <row r="105" spans="2:37">
+      <c r="AL104" s="3">
+        <v>2.1772</v>
+      </c>
+      <c r="AM104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:39">
       <c r="B105" s="4">
         <v>1974.75</v>
       </c>
@@ -7423,8 +7794,14 @@
       <c r="AK105" s="3">
         <v>521.20899999999995</v>
       </c>
-    </row>
-    <row r="106" spans="2:37">
+      <c r="AL105" s="3">
+        <v>2.1158999999999999</v>
+      </c>
+      <c r="AM105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:39">
       <c r="B106" s="4">
         <v>1975</v>
       </c>
@@ -7524,8 +7901,14 @@
       <c r="AK106" s="3">
         <v>550.06500000000005</v>
       </c>
-    </row>
-    <row r="107" spans="2:37">
+      <c r="AL106" s="3">
+        <v>1.5933999999999999</v>
+      </c>
+      <c r="AM106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:39">
       <c r="B107" s="4">
         <v>1975.25</v>
       </c>
@@ -7625,8 +8008,14 @@
       <c r="AK107" s="3">
         <v>571.86400000000003</v>
       </c>
-    </row>
-    <row r="108" spans="2:37">
+      <c r="AL107" s="3">
+        <v>1.4368000000000001</v>
+      </c>
+      <c r="AM107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:39">
       <c r="B108" s="4">
         <v>1975.5</v>
       </c>
@@ -7726,8 +8115,14 @@
       <c r="AK108" s="3">
         <v>583.50099999999998</v>
       </c>
-    </row>
-    <row r="109" spans="2:37">
+      <c r="AL108" s="3">
+        <v>1.3525</v>
+      </c>
+      <c r="AM108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:39">
       <c r="B109" s="4">
         <v>1975.75</v>
       </c>
@@ -7827,8 +8222,14 @@
       <c r="AK109" s="3">
         <v>600.04899999999998</v>
       </c>
-    </row>
-    <row r="110" spans="2:37">
+      <c r="AL109" s="3">
+        <v>1.1652</v>
+      </c>
+      <c r="AM109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:39">
       <c r="B110" s="4">
         <v>1976</v>
       </c>
@@ -7928,8 +8329,14 @@
       <c r="AK110" s="3">
         <v>609.58299999999997</v>
       </c>
-    </row>
-    <row r="111" spans="2:37">
+      <c r="AL110" s="3">
+        <v>1.0137</v>
+      </c>
+      <c r="AM110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:39">
       <c r="B111" s="4">
         <v>1976.25</v>
       </c>
@@ -8029,8 +8436,14 @@
       <c r="AK111" s="3">
         <v>606.86699999999996</v>
       </c>
-    </row>
-    <row r="112" spans="2:37">
+      <c r="AL111" s="3">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="AM111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:39">
       <c r="B112" s="4">
         <v>1976.5</v>
       </c>
@@ -8130,8 +8543,14 @@
       <c r="AK112" s="3">
         <v>619.59900000000005</v>
       </c>
-    </row>
-    <row r="113" spans="2:37">
+      <c r="AL112" s="3">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="AM112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:39">
       <c r="B113" s="4">
         <v>1976.75</v>
       </c>
@@ -8231,8 +8650,14 @@
       <c r="AK113" s="3">
         <v>630.202</v>
       </c>
-    </row>
-    <row r="114" spans="2:37">
+      <c r="AL113" s="3">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="AM113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:39">
       <c r="B114" s="4">
         <v>1977</v>
       </c>
@@ -8332,8 +8757,14 @@
       <c r="AK114" s="3">
         <v>645.40800000000002</v>
       </c>
-    </row>
-    <row r="115" spans="2:37">
+      <c r="AL114" s="3">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="AM114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:39">
       <c r="B115" s="4">
         <v>1977.25</v>
       </c>
@@ -8433,8 +8864,14 @@
       <c r="AK115" s="3">
         <v>657.41399999999999</v>
       </c>
-    </row>
-    <row r="116" spans="2:37">
+      <c r="AL115" s="3">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AM115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:39">
       <c r="B116" s="4">
         <v>1977.5</v>
       </c>
@@ -8534,8 +8971,14 @@
       <c r="AK116" s="3">
         <v>669.00099999999998</v>
       </c>
-    </row>
-    <row r="117" spans="2:37">
+      <c r="AL116" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AM116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:39">
       <c r="B117" s="4">
         <v>1977.75</v>
       </c>
@@ -8636,8 +9079,14 @@
       <c r="AK117" s="3">
         <v>688.77099999999996</v>
       </c>
-    </row>
-    <row r="118" spans="2:37">
+      <c r="AL117" s="3">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="AM117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:39">
       <c r="B118" s="4">
         <v>1978</v>
       </c>
@@ -8743,8 +9192,14 @@
       <c r="AK118" s="3">
         <v>702.39099999999996</v>
       </c>
-    </row>
-    <row r="119" spans="2:37">
+      <c r="AL118" s="3">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="AM118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:39">
       <c r="B119" s="4">
         <v>1978.25</v>
       </c>
@@ -8850,8 +9305,14 @@
       <c r="AK119" s="3">
         <v>721.91099999999994</v>
       </c>
-    </row>
-    <row r="120" spans="2:37">
+      <c r="AL119" s="3">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="AM119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:39">
       <c r="B120" s="4">
         <v>1978.5</v>
       </c>
@@ -8957,8 +9418,14 @@
       <c r="AK120" s="3">
         <v>749.36099999999999</v>
       </c>
-    </row>
-    <row r="121" spans="2:37">
+      <c r="AL120" s="3">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="AM120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:39">
       <c r="B121" s="4">
         <v>1978.75</v>
       </c>
@@ -9064,8 +9531,14 @@
       <c r="AK121" s="3">
         <v>767.10799999999995</v>
       </c>
-    </row>
-    <row r="122" spans="2:37">
+      <c r="AL121" s="3">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="AM121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:39">
       <c r="B122" s="4">
         <v>1979</v>
       </c>
@@ -9171,8 +9644,14 @@
       <c r="AK122" s="3">
         <v>776.40300000000002</v>
       </c>
-    </row>
-    <row r="123" spans="2:37">
+      <c r="AL122" s="3">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="AM122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:39">
       <c r="B123" s="4">
         <v>1979.25</v>
       </c>
@@ -9278,8 +9757,14 @@
       <c r="AK123" s="3">
         <v>799.70899999999995</v>
       </c>
-    </row>
-    <row r="124" spans="2:37">
+      <c r="AL123" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="AM123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:39">
       <c r="B124" s="4">
         <v>1979.5</v>
       </c>
@@ -9385,8 +9870,14 @@
       <c r="AK124" s="3">
         <v>829.63800000000003</v>
       </c>
-    </row>
-    <row r="125" spans="2:37">
+      <c r="AL124" s="3">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="AM124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:39">
       <c r="B125" s="4">
         <v>1979.75</v>
       </c>
@@ -9492,8 +9983,14 @@
       <c r="AK125" s="3">
         <v>851.73599999999999</v>
       </c>
-    </row>
-    <row r="126" spans="2:37">
+      <c r="AL125" s="3">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="AM125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:39">
       <c r="B126" s="4">
         <v>1980</v>
       </c>
@@ -9599,8 +10096,14 @@
       <c r="AK126" s="3">
         <v>892.89499999999998</v>
       </c>
-    </row>
-    <row r="127" spans="2:37">
+      <c r="AL126" s="3">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="AM126" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="127" spans="2:39">
       <c r="B127" s="4">
         <v>1980.25</v>
       </c>
@@ -9706,8 +10209,14 @@
       <c r="AK127" s="3">
         <v>922.79700000000003</v>
       </c>
-    </row>
-    <row r="128" spans="2:37">
+      <c r="AL127" s="3">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AM127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:39">
       <c r="B128" s="4">
         <v>1980.5</v>
       </c>
@@ -9813,8 +10322,14 @@
       <c r="AK128" s="3">
         <v>956.08</v>
       </c>
-    </row>
-    <row r="129" spans="2:37">
+      <c r="AL128" s="3">
+        <v>0.8629</v>
+      </c>
+      <c r="AM128" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="129" spans="2:39">
       <c r="B129" s="4">
         <v>1980.75</v>
       </c>
@@ -9920,8 +10435,14 @@
       <c r="AK129" s="3">
         <v>970.56500000000005</v>
       </c>
-    </row>
-    <row r="130" spans="2:37">
+      <c r="AL129" s="3">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="AM129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:39">
       <c r="B130" s="4">
         <v>1981</v>
       </c>
@@ -10027,8 +10548,14 @@
       <c r="AK130" s="3">
         <v>1022.5940000000001</v>
       </c>
-    </row>
-    <row r="131" spans="2:37">
+      <c r="AL130" s="3">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="AM130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:39">
       <c r="B131" s="4">
         <v>1981.25</v>
       </c>
@@ -10134,8 +10661,14 @@
       <c r="AK131" s="3">
         <v>1037.4059999999999</v>
       </c>
-    </row>
-    <row r="132" spans="2:37">
+      <c r="AL131" s="3">
+        <v>1.1214999999999999</v>
+      </c>
+      <c r="AM131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:39">
       <c r="B132" s="4">
         <v>1981.5</v>
       </c>
@@ -10241,8 +10774,14 @@
       <c r="AK132" s="3">
         <v>1063.556</v>
       </c>
-    </row>
-    <row r="133" spans="2:37">
+      <c r="AL132" s="3">
+        <v>1.1418999999999999</v>
+      </c>
+      <c r="AM132" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="133" spans="2:39">
       <c r="B133" s="4">
         <v>1981.75</v>
       </c>
@@ -10348,8 +10887,14 @@
       <c r="AK133" s="3">
         <v>1102.2429999999999</v>
       </c>
-    </row>
-    <row r="134" spans="2:37">
+      <c r="AL133" s="3">
+        <v>1.4448000000000001</v>
+      </c>
+      <c r="AM133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:39">
       <c r="B134" s="4">
         <v>1982</v>
       </c>
@@ -10455,8 +11000,14 @@
       <c r="AK134" s="3">
         <v>1122.585</v>
       </c>
-    </row>
-    <row r="135" spans="2:37">
+      <c r="AL134" s="3">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="AM134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:39">
       <c r="B135" s="4">
         <v>1982.25</v>
       </c>
@@ -10562,8 +11113,14 @@
       <c r="AK135" s="3">
         <v>1150.144</v>
       </c>
-    </row>
-    <row r="136" spans="2:37">
+      <c r="AL135" s="3">
+        <v>1.5548999999999999</v>
+      </c>
+      <c r="AM135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:39">
       <c r="B136" s="4">
         <v>1982.5</v>
       </c>
@@ -10669,8 +11226,14 @@
       <c r="AK136" s="3">
         <v>1185.9459999999999</v>
       </c>
-    </row>
-    <row r="137" spans="2:37">
+      <c r="AL136" s="3">
+        <v>1.6774</v>
+      </c>
+      <c r="AM136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:39">
       <c r="B137" s="4">
         <v>1982.75</v>
       </c>
@@ -10776,8 +11339,14 @@
       <c r="AK137" s="3">
         <v>1222.288</v>
       </c>
-    </row>
-    <row r="138" spans="2:37">
+      <c r="AL137" s="3">
+        <v>1.5542</v>
+      </c>
+      <c r="AM137" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="138" spans="2:39">
       <c r="B138" s="4">
         <v>1983</v>
       </c>
@@ -10883,8 +11452,14 @@
       <c r="AK138" s="3">
         <v>1245.6400000000001</v>
       </c>
-    </row>
-    <row r="139" spans="2:37">
+      <c r="AL138" s="3">
+        <v>1.1416999999999999</v>
+      </c>
+      <c r="AM138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:39">
       <c r="B139" s="4">
         <v>1983.25</v>
       </c>
@@ -10990,8 +11565,14 @@
       <c r="AK139" s="3">
         <v>1255.644</v>
       </c>
-    </row>
-    <row r="140" spans="2:37">
+      <c r="AL139" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="AM139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:39">
       <c r="B140" s="4">
         <v>1983.5</v>
       </c>
@@ -11097,8 +11678,14 @@
       <c r="AK140" s="3">
         <v>1289.0360000000001</v>
       </c>
-    </row>
-    <row r="141" spans="2:37">
+      <c r="AL140" s="3">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="AM140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:39">
       <c r="B141" s="4">
         <v>1983.75</v>
       </c>
@@ -11204,8 +11791,14 @@
       <c r="AK141" s="3">
         <v>1299.511</v>
       </c>
-    </row>
-    <row r="142" spans="2:37">
+      <c r="AL141" s="3">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="AM141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:39">
       <c r="B142" s="4">
         <v>1984</v>
       </c>
@@ -11311,8 +11904,14 @@
       <c r="AK142" s="3">
         <v>1320.7560000000001</v>
       </c>
-    </row>
-    <row r="143" spans="2:37">
+      <c r="AL142" s="3">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="AM142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:39">
       <c r="B143" s="4">
         <v>1984.25</v>
       </c>
@@ -11418,8 +12017,14 @@
       <c r="AK143" s="3">
         <v>1349.9459999999999</v>
       </c>
-    </row>
-    <row r="144" spans="2:37">
+      <c r="AL143" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="AM143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:39">
       <c r="B144" s="4">
         <v>1984.5</v>
       </c>
@@ -11525,8 +12130,14 @@
       <c r="AK144" s="3">
         <v>1380.136</v>
       </c>
-    </row>
-    <row r="145" spans="2:37">
+      <c r="AL144" s="3">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="AM144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:39">
       <c r="B145" s="4">
         <v>1984.75</v>
       </c>
@@ -11632,8 +12243,14 @@
       <c r="AK145" s="3">
         <v>1423.837</v>
       </c>
-    </row>
-    <row r="146" spans="2:37">
+      <c r="AL145" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="AM145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:39">
       <c r="B146" s="4">
         <v>1985</v>
       </c>
@@ -11739,8 +12356,14 @@
       <c r="AK146" s="3">
         <v>1450.9880000000001</v>
       </c>
-    </row>
-    <row r="147" spans="2:37">
+      <c r="AL146" s="3">
+        <v>1.0276000000000001</v>
+      </c>
+      <c r="AM146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:39">
       <c r="B147" s="4">
         <v>1985.25</v>
       </c>
@@ -11846,8 +12469,14 @@
       <c r="AK147" s="3">
         <v>1483.5319999999999</v>
       </c>
-    </row>
-    <row r="148" spans="2:37">
+      <c r="AL147" s="3">
+        <v>1.1998</v>
+      </c>
+      <c r="AM147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:39">
       <c r="B148" s="4">
         <v>1985.5</v>
       </c>
@@ -11953,8 +12582,14 @@
       <c r="AK148" s="3">
         <v>1514.894</v>
       </c>
-    </row>
-    <row r="149" spans="2:37">
+      <c r="AL148" s="3">
+        <v>1.2437</v>
+      </c>
+      <c r="AM148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:39">
       <c r="B149" s="4">
         <v>1985.75</v>
       </c>
@@ -12060,8 +12695,14 @@
       <c r="AK149" s="3">
         <v>1537.9590000000001</v>
       </c>
-    </row>
-    <row r="150" spans="2:37">
+      <c r="AL149" s="3">
+        <v>1.4291</v>
+      </c>
+      <c r="AM149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:39">
       <c r="B150" s="4">
         <v>1986</v>
       </c>
@@ -12170,8 +12811,14 @@
       <c r="AK150" s="3">
         <v>1557.8050000000001</v>
       </c>
-    </row>
-    <row r="151" spans="2:37">
+      <c r="AL150" s="3">
+        <v>1.8412999999999999</v>
+      </c>
+      <c r="AM150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:39">
       <c r="B151" s="4">
         <v>1986.25</v>
       </c>
@@ -12280,8 +12927,14 @@
       <c r="AK151" s="3">
         <v>1583.0150000000001</v>
       </c>
-    </row>
-    <row r="152" spans="2:37">
+      <c r="AL151" s="3">
+        <v>1.972</v>
+      </c>
+      <c r="AM151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:39">
       <c r="B152" s="4">
         <v>1986.5</v>
       </c>
@@ -12390,8 +13043,14 @@
       <c r="AK152" s="3">
         <v>1625.337</v>
       </c>
-    </row>
-    <row r="153" spans="2:37">
+      <c r="AL152" s="3">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="AM152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:39">
       <c r="B153" s="4">
         <v>1986.75</v>
       </c>
@@ -12500,8 +13159,14 @@
       <c r="AK153" s="3">
         <v>1625.423</v>
       </c>
-    </row>
-    <row r="154" spans="2:37">
+      <c r="AL153" s="3">
+        <v>1.9807999999999999</v>
+      </c>
+      <c r="AM153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:39">
       <c r="B154" s="4">
         <v>1987</v>
       </c>
@@ -12610,8 +13275,14 @@
       <c r="AK154" s="3">
         <v>1646.039</v>
       </c>
-    </row>
-    <row r="155" spans="2:37">
+      <c r="AL154" s="3">
+        <v>1.8228</v>
+      </c>
+      <c r="AM154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:39">
       <c r="B155" s="4">
         <v>1987.25</v>
       </c>
@@ -12720,8 +13391,14 @@
       <c r="AK155" s="3">
         <v>1671.575</v>
       </c>
-    </row>
-    <row r="156" spans="2:37">
+      <c r="AL155" s="3">
+        <v>1.6871</v>
+      </c>
+      <c r="AM155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:39">
       <c r="B156" s="4">
         <v>1987.5</v>
       </c>
@@ -12830,8 +13507,14 @@
       <c r="AK156" s="3">
         <v>1686.721</v>
       </c>
-    </row>
-    <row r="157" spans="2:37">
+      <c r="AL156" s="3">
+        <v>1.6107</v>
+      </c>
+      <c r="AM156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:39">
       <c r="B157" s="4">
         <v>1987.75</v>
       </c>
@@ -12940,8 +13623,14 @@
       <c r="AK157" s="3">
         <v>1720.3420000000001</v>
       </c>
-    </row>
-    <row r="158" spans="2:37">
+      <c r="AL157" s="3">
+        <v>1.5905</v>
+      </c>
+      <c r="AM157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:39">
       <c r="B158" s="4">
         <v>1988</v>
       </c>
@@ -13050,8 +13739,14 @@
       <c r="AK158" s="3">
         <v>1734.528</v>
       </c>
-    </row>
-    <row r="159" spans="2:37">
+      <c r="AL158" s="3">
+        <v>1.593</v>
+      </c>
+      <c r="AM158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:39">
       <c r="B159" s="4">
         <v>1988.25</v>
       </c>
@@ -13160,8 +13855,14 @@
       <c r="AK159" s="3">
         <v>1750.068</v>
       </c>
-    </row>
-    <row r="160" spans="2:37">
+      <c r="AL159" s="3">
+        <v>1.4676</v>
+      </c>
+      <c r="AM159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:39">
       <c r="B160" s="4">
         <v>1988.5</v>
       </c>
@@ -13270,8 +13971,14 @@
       <c r="AK160" s="3">
         <v>1762.318</v>
       </c>
-    </row>
-    <row r="161" spans="2:37">
+      <c r="AL160" s="3">
+        <v>1.4797</v>
+      </c>
+      <c r="AM160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:39">
       <c r="B161" s="4">
         <v>1988.75</v>
       </c>
@@ -13380,8 +14087,14 @@
       <c r="AK161" s="3">
         <v>1810.922</v>
       </c>
-    </row>
-    <row r="162" spans="2:37">
+      <c r="AL161" s="3">
+        <v>1.524</v>
+      </c>
+      <c r="AM161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:39">
       <c r="B162" s="4">
         <v>1989</v>
       </c>
@@ -13490,8 +14203,14 @@
       <c r="AK162" s="3">
         <v>1844.66</v>
       </c>
-    </row>
-    <row r="163" spans="2:37">
+      <c r="AL162" s="3">
+        <v>1.5034000000000001</v>
+      </c>
+      <c r="AM162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:39">
       <c r="B163" s="4">
         <v>1989.25</v>
       </c>
@@ -13600,8 +14319,14 @@
       <c r="AK163" s="3">
         <v>1882.377</v>
       </c>
-    </row>
-    <row r="164" spans="2:37">
+      <c r="AL163" s="3">
+        <v>1.7632000000000001</v>
+      </c>
+      <c r="AM163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:39">
       <c r="B164" s="4">
         <v>1989.5</v>
       </c>
@@ -13710,8 +14435,14 @@
       <c r="AK164" s="3">
         <v>1914.59</v>
       </c>
-    </row>
-    <row r="165" spans="2:37">
+      <c r="AL164" s="3">
+        <v>1.7269000000000001</v>
+      </c>
+      <c r="AM164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:39">
       <c r="B165" s="4">
         <v>1989.75</v>
       </c>
@@ -13820,8 +14551,14 @@
       <c r="AK165" s="3">
         <v>1946.346</v>
       </c>
-    </row>
-    <row r="166" spans="2:37">
+      <c r="AL165" s="3">
+        <v>1.6442000000000001</v>
+      </c>
+      <c r="AM165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:39">
       <c r="B166" s="4">
         <v>1990</v>
       </c>
@@ -13930,8 +14667,14 @@
       <c r="AK166" s="3">
         <v>1998.202</v>
       </c>
-    </row>
-    <row r="167" spans="2:37">
+      <c r="AL166" s="3">
+        <v>1.4482999999999999</v>
+      </c>
+      <c r="AM166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:39">
       <c r="B167" s="4">
         <v>1990.25</v>
       </c>
@@ -14040,8 +14783,14 @@
       <c r="AK167" s="3">
         <v>2033.1410000000001</v>
       </c>
-    </row>
-    <row r="168" spans="2:37">
+      <c r="AL167" s="3">
+        <v>1.2152000000000001</v>
+      </c>
+      <c r="AM167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:39">
       <c r="B168" s="4">
         <v>1990.5</v>
       </c>
@@ -14150,8 +14899,14 @@
       <c r="AK168" s="3">
         <v>2059.8829999999998</v>
       </c>
-    </row>
-    <row r="169" spans="2:37">
+      <c r="AL168" s="3">
+        <v>1.2535000000000001</v>
+      </c>
+      <c r="AM168" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="169" spans="2:39">
       <c r="B169" s="4">
         <v>1990.75</v>
       </c>
@@ -14260,8 +15015,14 @@
       <c r="AK169" s="3">
         <v>2130.4740000000002</v>
       </c>
-    </row>
-    <row r="170" spans="2:37">
+      <c r="AL169" s="3">
+        <v>1.6213</v>
+      </c>
+      <c r="AM169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:39">
       <c r="B170" s="4">
         <v>1991</v>
       </c>
@@ -14370,8 +15131,14 @@
       <c r="AK170" s="3">
         <v>2069.788</v>
       </c>
-    </row>
-    <row r="171" spans="2:37">
+      <c r="AL170" s="3">
+        <v>1.5216000000000001</v>
+      </c>
+      <c r="AM170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:39">
       <c r="B171" s="4">
         <v>1991.25</v>
       </c>
@@ -14480,8 +15247,14 @@
       <c r="AK171" s="3">
         <v>2147.7759999999998</v>
       </c>
-    </row>
-    <row r="172" spans="2:37">
+      <c r="AL171" s="3">
+        <v>1.4752000000000001</v>
+      </c>
+      <c r="AM171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:39">
       <c r="B172" s="4">
         <v>1991.5</v>
       </c>
@@ -14590,8 +15363,14 @@
       <c r="AK172" s="3">
         <v>2209.8029999999999</v>
       </c>
-    </row>
-    <row r="173" spans="2:37">
+      <c r="AL172" s="3">
+        <v>1.4875</v>
+      </c>
+      <c r="AM172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:39">
       <c r="B173" s="4">
         <v>1991.75</v>
       </c>
@@ -14700,8 +15479,14 @@
       <c r="AK173" s="3">
         <v>2239.2049999999999</v>
       </c>
-    </row>
-    <row r="174" spans="2:37">
+      <c r="AL173" s="3">
+        <v>1.5107999999999999</v>
+      </c>
+      <c r="AM173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:39">
       <c r="B174" s="4">
         <v>1992</v>
       </c>
@@ -14810,8 +15595,14 @@
       <c r="AK174" s="3">
         <v>2294.8359999999998</v>
       </c>
-    </row>
-    <row r="175" spans="2:37">
+      <c r="AL174" s="3">
+        <v>1.3742000000000001</v>
+      </c>
+      <c r="AM174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:39">
       <c r="B175" s="4">
         <v>1992.25</v>
       </c>
@@ -14920,8 +15711,14 @@
       <c r="AK175" s="3">
         <v>2326.569</v>
       </c>
-    </row>
-    <row r="176" spans="2:37">
+      <c r="AL175" s="3">
+        <v>1.3351999999999999</v>
+      </c>
+      <c r="AM175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:39">
       <c r="B176" s="4">
         <v>1992.5</v>
       </c>
@@ -15030,8 +15827,14 @@
       <c r="AK176" s="3">
         <v>2355.7150000000001</v>
       </c>
-    </row>
-    <row r="177" spans="2:37">
+      <c r="AL176" s="3">
+        <v>1.5062</v>
+      </c>
+      <c r="AM176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:39">
       <c r="B177" s="4">
         <v>1992.75</v>
       </c>
@@ -15140,8 +15943,14 @@
       <c r="AK177" s="3">
         <v>2379.8249999999998</v>
       </c>
-    </row>
-    <row r="178" spans="2:37">
+      <c r="AL177" s="3">
+        <v>1.4388000000000001</v>
+      </c>
+      <c r="AM177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:39">
       <c r="B178" s="4">
         <v>1993</v>
       </c>
@@ -15250,8 +16059,14 @@
       <c r="AK178" s="3">
         <v>2383.922</v>
       </c>
-    </row>
-    <row r="179" spans="2:37">
+      <c r="AL178" s="3">
+        <v>1.4533</v>
+      </c>
+      <c r="AM178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:39">
       <c r="B179" s="4">
         <v>1993.25</v>
       </c>
@@ -15360,8 +16175,14 @@
       <c r="AK179" s="3">
         <v>2398.116</v>
       </c>
-    </row>
-    <row r="180" spans="2:37">
+      <c r="AL179" s="3">
+        <v>1.4012</v>
+      </c>
+      <c r="AM179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:39">
       <c r="B180" s="4">
         <v>1993.5</v>
       </c>
@@ -15470,8 +16291,14 @@
       <c r="AK180" s="3">
         <v>2423.5149999999999</v>
       </c>
-    </row>
-    <row r="181" spans="2:37">
+      <c r="AL180" s="3">
+        <v>1.4315</v>
+      </c>
+      <c r="AM180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:39">
       <c r="B181" s="4">
         <v>1993.75</v>
       </c>
@@ -15580,8 +16407,14 @@
       <c r="AK181" s="3">
         <v>2445.4540000000002</v>
       </c>
-    </row>
-    <row r="182" spans="2:37">
+      <c r="AL181" s="3">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="AM181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:39">
       <c r="B182" s="4">
         <v>1994</v>
       </c>
@@ -15690,8 +16523,14 @@
       <c r="AK182" s="3">
         <v>2429.8609999999999</v>
       </c>
-    </row>
-    <row r="183" spans="2:37">
+      <c r="AL182" s="3">
+        <v>1.2428999999999999</v>
+      </c>
+      <c r="AM182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:39">
       <c r="B183" s="4">
         <v>1994.25</v>
       </c>
@@ -15800,8 +16639,14 @@
       <c r="AK183" s="3">
         <v>2460.3200000000002</v>
       </c>
-    </row>
-    <row r="184" spans="2:37">
+      <c r="AL183" s="3">
+        <v>1.2508999999999999</v>
+      </c>
+      <c r="AM183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:39">
       <c r="B184" s="4">
         <v>1994.5</v>
       </c>
@@ -15910,8 +16755,14 @@
       <c r="AK184" s="3">
         <v>2508.239</v>
       </c>
-    </row>
-    <row r="185" spans="2:37">
+      <c r="AL184" s="3">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="AM184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:39">
       <c r="B185" s="4">
         <v>1994.75</v>
       </c>
@@ -16020,8 +16871,14 @@
       <c r="AK185" s="3">
         <v>2544.7040000000002</v>
       </c>
-    </row>
-    <row r="186" spans="2:37">
+      <c r="AL185" s="3">
+        <v>1.2815000000000001</v>
+      </c>
+      <c r="AM185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:39">
       <c r="B186" s="4">
         <v>1995</v>
       </c>
@@ -16130,8 +16987,14 @@
       <c r="AK186" s="3">
         <v>2582.4229999999998</v>
       </c>
-    </row>
-    <row r="187" spans="2:37">
+      <c r="AL186" s="3">
+        <v>1.2770999999999999</v>
+      </c>
+      <c r="AM186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:39">
       <c r="B187" s="4">
         <v>1995.25</v>
       </c>
@@ -16240,8 +17103,14 @@
       <c r="AK187" s="3">
         <v>2610.5210000000002</v>
       </c>
-    </row>
-    <row r="188" spans="2:37">
+      <c r="AL187" s="3">
+        <v>1.3073999999999999</v>
+      </c>
+      <c r="AM187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:39">
       <c r="B188" s="4">
         <v>1995.5</v>
       </c>
@@ -16350,8 +17219,14 @@
       <c r="AK188" s="3">
         <v>2598.7829999999999</v>
       </c>
-    </row>
-    <row r="189" spans="2:37">
+      <c r="AL188" s="3">
+        <v>1.3132999999999999</v>
+      </c>
+      <c r="AM188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:39">
       <c r="B189" s="4">
         <v>1995.75</v>
       </c>
@@ -16460,8 +17335,14 @@
       <c r="AK189" s="3">
         <v>2615.3960000000002</v>
       </c>
-    </row>
-    <row r="190" spans="2:37">
+      <c r="AL189" s="3">
+        <v>1.4167000000000001</v>
+      </c>
+      <c r="AM189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:39">
       <c r="B190" s="4">
         <v>1996</v>
       </c>
@@ -16570,8 +17451,14 @@
       <c r="AK190" s="3">
         <v>2669.9789999999998</v>
       </c>
-    </row>
-    <row r="191" spans="2:37">
+      <c r="AL190" s="3">
+        <v>1.3314999999999999</v>
+      </c>
+      <c r="AM190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:39">
       <c r="B191" s="4">
         <v>1996.25</v>
       </c>
@@ -16680,8 +17567,14 @@
       <c r="AK191" s="3">
         <v>2695.1970000000001</v>
       </c>
-    </row>
-    <row r="192" spans="2:37">
+      <c r="AL191" s="3">
+        <v>1.2784</v>
+      </c>
+      <c r="AM191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:39">
       <c r="B192" s="4">
         <v>1996.5</v>
       </c>
@@ -16790,8 +17683,14 @@
       <c r="AK192" s="3">
         <v>2701.8009999999999</v>
       </c>
-    </row>
-    <row r="193" spans="2:37">
+      <c r="AL192" s="3">
+        <v>1.2848999999999999</v>
+      </c>
+      <c r="AM192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:39">
       <c r="B193" s="4">
         <v>1996.75</v>
       </c>
@@ -16900,8 +17799,14 @@
       <c r="AK193" s="3">
         <v>2720.88</v>
       </c>
-    </row>
-    <row r="194" spans="2:37">
+      <c r="AL193" s="3">
+        <v>1.3058000000000001</v>
+      </c>
+      <c r="AM193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:39">
       <c r="B194" s="4">
         <v>1997</v>
       </c>
@@ -17010,8 +17915,14 @@
       <c r="AK194" s="3">
         <v>2740.5309999999999</v>
       </c>
-    </row>
-    <row r="195" spans="2:37">
+      <c r="AL194" s="3">
+        <v>1.2424999999999999</v>
+      </c>
+      <c r="AM194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:39">
       <c r="B195" s="4">
         <v>1997.25</v>
       </c>
@@ -17120,8 +18031,14 @@
       <c r="AK195" s="3">
         <v>2741.5520000000001</v>
       </c>
-    </row>
-    <row r="196" spans="2:37">
+      <c r="AL195" s="3">
+        <v>1.1975</v>
+      </c>
+      <c r="AM195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:39">
       <c r="B196" s="4">
         <v>1997.5</v>
       </c>
@@ -17230,8 +18147,14 @@
       <c r="AK196" s="3">
         <v>2784.9659999999999</v>
       </c>
-    </row>
-    <row r="197" spans="2:37">
+      <c r="AL196" s="3">
+        <v>1.2225999999999999</v>
+      </c>
+      <c r="AM196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:39">
       <c r="B197" s="4">
         <v>1997.75</v>
       </c>
@@ -17340,8 +18263,14 @@
       <c r="AK197" s="3">
         <v>2822.3620000000001</v>
       </c>
-    </row>
-    <row r="198" spans="2:37">
+      <c r="AL197" s="3">
+        <v>1.3562000000000001</v>
+      </c>
+      <c r="AM197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:39">
       <c r="B198" s="4">
         <v>1998</v>
       </c>
@@ -17450,8 +18379,14 @@
       <c r="AK198" s="3">
         <v>2809.4340000000002</v>
       </c>
-    </row>
-    <row r="199" spans="2:37">
+      <c r="AL198" s="3">
+        <v>1.3443000000000001</v>
+      </c>
+      <c r="AM198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:39">
       <c r="B199" s="4">
         <v>1998.25</v>
       </c>
@@ -17560,8 +18495,14 @@
       <c r="AK199" s="3">
         <v>2837.5010000000002</v>
       </c>
-    </row>
-    <row r="200" spans="2:37">
+      <c r="AL199" s="3">
+        <v>1.3249</v>
+      </c>
+      <c r="AM199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:39">
       <c r="B200" s="4">
         <v>1998.5</v>
       </c>
@@ -17670,8 +18611,14 @@
       <c r="AK200" s="3">
         <v>2866.201</v>
       </c>
-    </row>
-    <row r="201" spans="2:37">
+      <c r="AL200" s="3">
+        <v>2.0169000000000001</v>
+      </c>
+      <c r="AM200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:39">
       <c r="B201" s="4">
         <v>1998.75</v>
       </c>
@@ -17780,8 +18727,14 @@
       <c r="AK201" s="3">
         <v>2909.2220000000002</v>
       </c>
-    </row>
-    <row r="202" spans="2:37">
+      <c r="AL201" s="3">
+        <v>2.1269</v>
+      </c>
+      <c r="AM201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:39">
       <c r="B202" s="4">
         <v>1999</v>
       </c>
@@ -17890,8 +18843,14 @@
       <c r="AK202" s="3">
         <v>2931.922</v>
       </c>
-    </row>
-    <row r="203" spans="2:37">
+      <c r="AL202" s="3">
+        <v>1.833</v>
+      </c>
+      <c r="AM202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:39">
       <c r="B203" s="4">
         <v>1999.25</v>
       </c>
@@ -18000,8 +18959,14 @@
       <c r="AK203" s="3">
         <v>2960.587</v>
       </c>
-    </row>
-    <row r="204" spans="2:37">
+      <c r="AL203" s="3">
+        <v>1.7621</v>
+      </c>
+      <c r="AM203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:39">
       <c r="B204" s="4">
         <v>1999.5</v>
       </c>
@@ -18110,8 +19075,14 @@
       <c r="AK204" s="3">
         <v>3003.4059999999999</v>
       </c>
-    </row>
-    <row r="205" spans="2:37">
+      <c r="AL204" s="3">
+        <v>2.0268999999999999</v>
+      </c>
+      <c r="AM204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:39">
       <c r="B205" s="4">
         <v>1999.75</v>
       </c>
@@ -18220,8 +19191,14 @@
       <c r="AK205" s="3">
         <v>3087.3989999999999</v>
       </c>
-    </row>
-    <row r="206" spans="2:37">
+      <c r="AL205" s="3">
+        <v>2.0446</v>
+      </c>
+      <c r="AM205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:39">
       <c r="B206" s="4">
         <v>2000</v>
       </c>
@@ -18330,8 +19307,14 @@
       <c r="AK206" s="3">
         <v>3075.69</v>
       </c>
-    </row>
-    <row r="207" spans="2:37">
+      <c r="AL206" s="3">
+        <v>2.3315999999999999</v>
+      </c>
+      <c r="AM206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:39">
       <c r="B207" s="4">
         <v>2000.25</v>
       </c>
@@ -18440,8 +19423,14 @@
       <c r="AK207" s="3">
         <v>3132.4560000000001</v>
       </c>
-    </row>
-    <row r="208" spans="2:37">
+      <c r="AL207" s="3">
+        <v>2.835</v>
+      </c>
+      <c r="AM207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:39">
       <c r="B208" s="4">
         <v>2000.5</v>
       </c>
@@ -18550,8 +19539,14 @@
       <c r="AK208" s="3">
         <v>3152.7979999999998</v>
       </c>
-    </row>
-    <row r="209" spans="2:37">
+      <c r="AL208" s="3">
+        <v>3.2391999999999999</v>
+      </c>
+      <c r="AM208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:39">
       <c r="B209" s="4">
         <v>2000.75</v>
       </c>
@@ -18660,8 +19655,14 @@
       <c r="AK209" s="3">
         <v>3207.261</v>
       </c>
-    </row>
-    <row r="210" spans="2:37">
+      <c r="AL209" s="3">
+        <v>3.6334</v>
+      </c>
+      <c r="AM209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:39">
       <c r="B210" s="4">
         <v>2001</v>
       </c>
@@ -18770,8 +19771,14 @@
       <c r="AK210" s="3">
         <v>3280.6959999999999</v>
       </c>
-    </row>
-    <row r="211" spans="2:37">
+      <c r="AL210" s="3">
+        <v>3.2886000000000002</v>
+      </c>
+      <c r="AM210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:39">
       <c r="B211" s="4">
         <v>2001.25</v>
       </c>
@@ -18880,8 +19887,14 @@
       <c r="AK211" s="3">
         <v>3358.6410000000001</v>
       </c>
-    </row>
-    <row r="212" spans="2:37">
+      <c r="AL211" s="3">
+        <v>3.1236000000000002</v>
+      </c>
+      <c r="AM211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:39">
       <c r="B212" s="4">
         <v>2001.5</v>
       </c>
@@ -18990,8 +20003,14 @@
       <c r="AK212" s="3">
         <v>3375.623</v>
       </c>
-    </row>
-    <row r="213" spans="2:37">
+      <c r="AL212" s="3">
+        <v>3.3347000000000002</v>
+      </c>
+      <c r="AM212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:39">
       <c r="B213" s="4">
         <v>2001.75</v>
       </c>
@@ -19100,8 +20119,14 @@
       <c r="AK213" s="3">
         <v>3434.6640000000002</v>
       </c>
-    </row>
-    <row r="214" spans="2:37">
+      <c r="AL213" s="3">
+        <v>3.0945</v>
+      </c>
+      <c r="AM213" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="214" spans="2:39">
       <c r="B214" s="4">
         <v>2002</v>
       </c>
@@ -19210,8 +20235,14 @@
       <c r="AK214" s="3">
         <v>3506.482</v>
       </c>
-    </row>
-    <row r="215" spans="2:37">
+      <c r="AL214" s="3">
+        <v>2.7568000000000001</v>
+      </c>
+      <c r="AM214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:39">
       <c r="B215" s="4">
         <v>2002.25</v>
       </c>
@@ -19320,8 +20351,14 @@
       <c r="AK215" s="3">
         <v>3554.2069999999999</v>
       </c>
-    </row>
-    <row r="216" spans="2:37">
+      <c r="AL215" s="3">
+        <v>3.1526999999999998</v>
+      </c>
+      <c r="AM215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:39">
       <c r="B216" s="4">
         <v>2002.5</v>
       </c>
@@ -19430,8 +20467,14 @@
       <c r="AK216" s="3">
         <v>3596.9650000000001</v>
       </c>
-    </row>
-    <row r="217" spans="2:37">
+      <c r="AL216" s="3">
+        <v>4.1440999999999999</v>
+      </c>
+      <c r="AM216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:39">
       <c r="B217" s="4">
         <v>2002.75</v>
       </c>
@@ -19540,8 +20583,14 @@
       <c r="AK217" s="3">
         <v>3683.1709999999998</v>
       </c>
-    </row>
-    <row r="218" spans="2:37">
+      <c r="AL217" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="AM217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:39">
       <c r="B218" s="4">
         <v>2003</v>
       </c>
@@ -19650,8 +20699,14 @@
       <c r="AK218" s="3">
         <v>3747.962</v>
       </c>
-    </row>
-    <row r="219" spans="2:37">
+      <c r="AL218" s="3">
+        <v>3.2366999999999999</v>
+      </c>
+      <c r="AM218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:39">
       <c r="B219" s="4">
         <v>2003.25</v>
       </c>
@@ -19760,8 +20815,14 @@
       <c r="AK219" s="3">
         <v>3806.8409999999999</v>
       </c>
-    </row>
-    <row r="220" spans="2:37">
+      <c r="AL219" s="3">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="AM219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:39">
       <c r="B220" s="4">
         <v>2003.5</v>
       </c>
@@ -19870,8 +20931,14 @@
       <c r="AK220" s="3">
         <v>3837.3429999999998</v>
       </c>
-    </row>
-    <row r="221" spans="2:37">
+      <c r="AL220" s="3">
+        <v>2.359</v>
+      </c>
+      <c r="AM220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:39">
       <c r="B221" s="4">
         <v>2003.75</v>
       </c>
@@ -19980,8 +21047,14 @@
       <c r="AK221" s="3">
         <v>3872.2370000000001</v>
       </c>
-    </row>
-    <row r="222" spans="2:37">
+      <c r="AL221" s="3">
+        <v>1.982</v>
+      </c>
+      <c r="AM221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:39">
       <c r="B222" s="4">
         <v>2004</v>
       </c>
@@ -20090,8 +21163,14 @@
       <c r="AK222" s="3">
         <v>3951.5810000000001</v>
       </c>
-    </row>
-    <row r="223" spans="2:37">
+      <c r="AL222" s="3">
+        <v>1.8884000000000001</v>
+      </c>
+      <c r="AM222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:39">
       <c r="B223" s="4">
         <v>2004.25</v>
       </c>
@@ -20200,8 +21279,14 @@
       <c r="AK223" s="3">
         <v>3981.4940000000001</v>
       </c>
-    </row>
-    <row r="224" spans="2:37">
+      <c r="AL223" s="3">
+        <v>1.8445</v>
+      </c>
+      <c r="AM223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:39">
       <c r="B224" s="4">
         <v>2004.5</v>
       </c>
@@ -20310,8 +21395,14 @@
       <c r="AK224" s="3">
         <v>4049.4580000000001</v>
       </c>
-    </row>
-    <row r="225" spans="2:37">
+      <c r="AL224" s="3">
+        <v>1.8208</v>
+      </c>
+      <c r="AM224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:39">
       <c r="B225" s="4">
         <v>2004.75</v>
       </c>
@@ -20420,8 +21511,14 @@
       <c r="AK225" s="3">
         <v>4095.1129999999998</v>
       </c>
-    </row>
-    <row r="226" spans="2:37">
+      <c r="AL225" s="3">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="AM225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:39">
       <c r="B226" s="4">
         <v>2005</v>
       </c>
@@ -20530,8 +21627,14 @@
       <c r="AK226" s="3">
         <v>4195.5519999999997</v>
       </c>
-    </row>
-    <row r="227" spans="2:37">
+      <c r="AL226" s="3">
+        <v>1.8519000000000001</v>
+      </c>
+      <c r="AM226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:39">
       <c r="B227" s="4">
         <v>2005.25</v>
       </c>
@@ -20640,8 +21743,14 @@
       <c r="AK227" s="3">
         <v>4239.652</v>
       </c>
-    </row>
-    <row r="228" spans="2:37">
+      <c r="AL227" s="3">
+        <v>1.9699</v>
+      </c>
+      <c r="AM227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:39">
       <c r="B228" s="4">
         <v>2005.5</v>
       </c>
@@ -20750,8 +21859,14 @@
       <c r="AK228" s="3">
         <v>4364.34</v>
       </c>
-    </row>
-    <row r="229" spans="2:37">
+      <c r="AL228" s="3">
+        <v>1.7806999999999999</v>
+      </c>
+      <c r="AM228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:39">
       <c r="B229" s="4">
         <v>2005.75</v>
       </c>
@@ -20860,8 +21975,14 @@
       <c r="AK229" s="3">
         <v>4414.4449999999997</v>
       </c>
-    </row>
-    <row r="230" spans="2:37">
+      <c r="AL229" s="3">
+        <v>1.8502000000000001</v>
+      </c>
+      <c r="AM229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:39">
       <c r="B230" s="4">
         <v>2006</v>
       </c>
@@ -20970,8 +22091,14 @@
       <c r="AK230" s="3">
         <v>4453.6220000000003</v>
       </c>
-    </row>
-    <row r="231" spans="2:37">
+      <c r="AL230" s="3">
+        <v>1.6903999999999999</v>
+      </c>
+      <c r="AM230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:39">
       <c r="B231" s="4">
         <v>2006.25</v>
       </c>
@@ -21080,8 +22207,14 @@
       <c r="AK231" s="3">
         <v>4516.5510000000004</v>
       </c>
-    </row>
-    <row r="232" spans="2:37">
+      <c r="AL231" s="3">
+        <v>1.6846000000000001</v>
+      </c>
+      <c r="AM231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:39">
       <c r="B232" s="4">
         <v>2006.5</v>
       </c>
@@ -21190,8 +22323,14 @@
       <c r="AK232" s="3">
         <v>4563.9780000000001</v>
       </c>
-    </row>
-    <row r="233" spans="2:37">
+      <c r="AL232" s="3">
+        <v>1.772</v>
+      </c>
+      <c r="AM232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:39">
       <c r="B233" s="4">
         <v>2006.75</v>
       </c>
@@ -21300,8 +22439,14 @@
       <c r="AK233" s="3">
         <v>4545.7259999999997</v>
       </c>
-    </row>
-    <row r="234" spans="2:37">
+      <c r="AL233" s="3">
+        <v>1.6173999999999999</v>
+      </c>
+      <c r="AM233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:39">
       <c r="B234" s="4">
         <v>2007</v>
       </c>
@@ -21410,8 +22555,14 @@
       <c r="AK234" s="3">
         <v>4752.1880000000001</v>
       </c>
-    </row>
-    <row r="235" spans="2:37">
+      <c r="AL234" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="AM234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:39">
       <c r="B235" s="4">
         <v>2007.25</v>
       </c>
@@ -21520,8 +22671,14 @@
       <c r="AK235" s="3">
         <v>4801.8549999999996</v>
       </c>
-    </row>
-    <row r="236" spans="2:37">
+      <c r="AL235" s="3">
+        <v>1.6978</v>
+      </c>
+      <c r="AM235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:39">
       <c r="B236" s="4">
         <v>2007.5</v>
       </c>
@@ -21630,8 +22787,14 @@
       <c r="AK236" s="3">
         <v>4849.2650000000003</v>
       </c>
-    </row>
-    <row r="237" spans="2:37">
+      <c r="AL236" s="3">
+        <v>2.2343999999999999</v>
+      </c>
+      <c r="AM236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:39">
       <c r="B237" s="4">
         <v>2007.75</v>
       </c>
@@ -21740,8 +22903,14 @@
       <c r="AK237" s="3">
         <v>4931.232</v>
       </c>
-    </row>
-    <row r="238" spans="2:37">
+      <c r="AL237" s="3">
+        <v>2.7972999999999999</v>
+      </c>
+      <c r="AM237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:39">
       <c r="B238" s="4">
         <v>2008</v>
       </c>
@@ -21850,8 +23019,14 @@
       <c r="AK238" s="3">
         <v>5000.1760000000004</v>
       </c>
-    </row>
-    <row r="239" spans="2:37">
+      <c r="AL238" s="3">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="AM238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="2:39">
       <c r="B239" s="4">
         <v>2008.25</v>
       </c>
@@ -21960,8 +23135,14 @@
       <c r="AK239" s="3">
         <v>5365.0709999999999</v>
       </c>
-    </row>
-    <row r="240" spans="2:37">
+      <c r="AL239" s="3">
+        <v>3.4013</v>
+      </c>
+      <c r="AM239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:39">
       <c r="B240" s="4">
         <v>2008.5</v>
       </c>
@@ -22070,8 +23251,14 @@
       <c r="AK240" s="3">
         <v>5258.6</v>
       </c>
-    </row>
-    <row r="241" spans="2:37">
+      <c r="AL240" s="3">
+        <v>4.8465999999999996</v>
+      </c>
+      <c r="AM240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:39">
       <c r="B241" s="4">
         <v>2008.75</v>
       </c>
@@ -22180,8 +23367,14 @@
       <c r="AK241" s="3">
         <v>5419.0320000000002</v>
       </c>
-    </row>
-    <row r="242" spans="2:37">
+      <c r="AL241" s="3">
+        <v>7.2518000000000002</v>
+      </c>
+      <c r="AM241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="2:39">
       <c r="B242" s="4">
         <v>2009</v>
       </c>
@@ -22290,8 +23483,14 @@
       <c r="AK242" s="3">
         <v>5486.3149999999996</v>
       </c>
-    </row>
-    <row r="243" spans="2:37">
+      <c r="AL242" s="3">
+        <v>6.0926</v>
+      </c>
+      <c r="AM242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="2:39">
       <c r="B243" s="4">
         <v>2009.25</v>
       </c>
@@ -22400,8 +23599,14 @@
       <c r="AK243" s="3">
         <v>5682.232</v>
       </c>
-    </row>
-    <row r="244" spans="2:37">
+      <c r="AL243" s="3">
+        <v>4.5029000000000003</v>
+      </c>
+      <c r="AM243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:39">
       <c r="B244" s="4">
         <v>2009.5</v>
       </c>
@@ -22510,8 +23715,14 @@
       <c r="AK244" s="3">
         <v>5655.2539999999999</v>
       </c>
-    </row>
-    <row r="245" spans="2:37">
+      <c r="AL244" s="3">
+        <v>3.1901999999999999</v>
+      </c>
+      <c r="AM244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:39">
       <c r="B245" s="4">
         <v>2009.75</v>
       </c>
@@ -22620,8 +23831,14 @@
       <c r="AK245" s="3">
         <v>5713.1570000000002</v>
       </c>
-    </row>
-    <row r="246" spans="2:37">
+      <c r="AL245" s="3">
+        <v>2.6547999999999998</v>
+      </c>
+      <c r="AM245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:39">
       <c r="B246" s="4">
         <v>2010</v>
       </c>
@@ -22730,8 +23947,14 @@
       <c r="AK246" s="3">
         <v>5820.3990000000003</v>
       </c>
-    </row>
-    <row r="247" spans="2:37">
+      <c r="AL246" s="3">
+        <v>2.3338000000000001</v>
+      </c>
+      <c r="AM246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:39">
       <c r="B247" s="4">
         <v>2010.25</v>
       </c>
@@ -22840,8 +24063,14 @@
       <c r="AK247" s="3">
         <v>5862.866</v>
       </c>
-    </row>
-    <row r="248" spans="2:37">
+      <c r="AL247" s="3">
+        <v>2.5171999999999999</v>
+      </c>
+      <c r="AM247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:39">
       <c r="B248" s="4">
         <v>2010.5</v>
       </c>
@@ -22950,8 +24179,14 @@
       <c r="AK248" s="3">
         <v>5811.1440000000002</v>
       </c>
-    </row>
-    <row r="249" spans="2:37">
+      <c r="AL248" s="3">
+        <v>2.5743</v>
+      </c>
+      <c r="AM248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:39">
       <c r="B249" s="4">
         <v>2010.75</v>
       </c>
@@ -23060,8 +24295,14 @@
       <c r="AK249" s="3">
         <v>5839.37</v>
       </c>
-    </row>
-    <row r="250" spans="2:37">
+      <c r="AL249" s="3">
+        <v>2.3157999999999999</v>
+      </c>
+      <c r="AM249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:39">
       <c r="B250" s="4">
         <v>2011</v>
       </c>
@@ -23170,8 +24411,14 @@
       <c r="AK250" s="3">
         <v>5859.5</v>
       </c>
-    </row>
-    <row r="251" spans="2:37">
+      <c r="AL250" s="3">
+        <v>2.0299</v>
+      </c>
+      <c r="AM250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:39">
       <c r="B251" s="4">
         <v>2011.25</v>
       </c>
@@ -23280,8 +24527,14 @@
       <c r="AK251" s="3">
         <v>5918.37</v>
       </c>
-    </row>
-    <row r="252" spans="2:37">
+      <c r="AL251" s="3">
+        <v>2.1107</v>
+      </c>
+      <c r="AM251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:39">
       <c r="B252" s="4">
         <v>2011.5</v>
       </c>
@@ -23390,8 +24643,14 @@
       <c r="AK252" s="3">
         <v>5837.9179999999997</v>
       </c>
-    </row>
-    <row r="253" spans="2:37">
+      <c r="AL252" s="3">
+        <v>2.7482000000000002</v>
+      </c>
+      <c r="AM252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:39">
       <c r="B253" s="4">
         <v>2011.75</v>
       </c>
@@ -23500,8 +24759,14 @@
       <c r="AK253" s="3">
         <v>5872.701</v>
       </c>
-    </row>
-    <row r="254" spans="2:37">
+      <c r="AL253" s="3">
+        <v>2.8654000000000002</v>
+      </c>
+      <c r="AM253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:39">
       <c r="B254" s="4">
         <v>2012</v>
       </c>
@@ -23610,8 +24875,14 @@
       <c r="AK254" s="3">
         <v>5834.96</v>
       </c>
-    </row>
-    <row r="255" spans="2:37">
+      <c r="AL254" s="3">
+        <v>2.5446</v>
+      </c>
+      <c r="AM254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:39">
       <c r="B255" s="4">
         <v>2012.25</v>
       </c>
@@ -23720,8 +24991,14 @@
       <c r="AK255" s="3">
         <v>5831.6850000000004</v>
       </c>
-    </row>
-    <row r="256" spans="2:37">
+      <c r="AL255" s="3">
+        <v>2.6608999999999998</v>
+      </c>
+      <c r="AM255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:39">
       <c r="B256" s="4">
         <v>2012.5</v>
       </c>
@@ -23830,8 +25107,14 @@
       <c r="AK256" s="3">
         <v>5801.4059999999999</v>
       </c>
-    </row>
-    <row r="257" spans="2:37">
+      <c r="AL256" s="3">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="AM256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:39">
       <c r="B257" s="4">
         <v>2012.75</v>
       </c>
@@ -23940,8 +25223,14 @@
       <c r="AK257" s="3">
         <v>5901.7049999999999</v>
       </c>
-    </row>
-    <row r="258" spans="2:37">
+      <c r="AL257" s="3">
+        <v>2.2204999999999999</v>
+      </c>
+      <c r="AM257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:39">
       <c r="B258" s="4">
         <v>2013</v>
       </c>
@@ -24050,8 +25339,14 @@
       <c r="AK258" s="3">
         <v>5832.0619999999999</v>
       </c>
-    </row>
-    <row r="259" spans="2:37">
+      <c r="AL258" s="3">
+        <v>2.1053999999999999</v>
+      </c>
+      <c r="AM258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:39">
       <c r="B259" s="4">
         <v>2013.25</v>
       </c>
@@ -24160,8 +25455,14 @@
       <c r="AK259" s="3">
         <v>5848.9759999999997</v>
       </c>
-    </row>
-    <row r="260" spans="2:37">
+      <c r="AL259" s="3">
+        <v>2.0493000000000001</v>
+      </c>
+      <c r="AM259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:39">
       <c r="B260" s="4">
         <v>2013.5</v>
       </c>
@@ -24270,8 +25571,14 @@
       <c r="AK260" s="3">
         <v>5867.3109999999997</v>
       </c>
-    </row>
-    <row r="261" spans="2:37">
+      <c r="AL260" s="3">
+        <v>2.0004</v>
+      </c>
+      <c r="AM260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:39">
       <c r="B261" s="4">
         <v>2013.75</v>
       </c>
@@ -24380,8 +25687,14 @@
       <c r="AK261" s="3">
         <v>5868.1459999999997</v>
       </c>
-    </row>
-    <row r="262" spans="2:37">
+      <c r="AL261" s="3">
+        <v>1.8586</v>
+      </c>
+      <c r="AM261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:39">
       <c r="B262" s="4">
         <v>2014</v>
       </c>
@@ -24490,8 +25803,14 @@
       <c r="AK262" s="3">
         <v>5917.5379999999996</v>
       </c>
-    </row>
-    <row r="263" spans="2:37">
+      <c r="AL262" s="3">
+        <v>1.6918</v>
+      </c>
+      <c r="AM262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:39">
       <c r="B263" s="4">
         <v>2014.25</v>
       </c>
@@ -24600,8 +25919,14 @@
       <c r="AK263" s="3">
         <v>5978.7539999999999</v>
       </c>
-    </row>
-    <row r="264" spans="2:37">
+      <c r="AL263" s="3">
+        <v>1.5889</v>
+      </c>
+      <c r="AM263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:39">
       <c r="B264" s="4">
         <v>2014.5</v>
       </c>
@@ -24710,8 +26035,14 @@
       <c r="AK264" s="3">
         <v>6040.7809999999999</v>
       </c>
-    </row>
-    <row r="265" spans="2:37">
+      <c r="AL264" s="3">
+        <v>1.6941999999999999</v>
+      </c>
+      <c r="AM264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:39">
       <c r="B265" s="4">
         <v>2014.75</v>
       </c>
@@ -24820,8 +26151,14 @@
       <c r="AK265" s="3">
         <v>6063.4409999999998</v>
       </c>
-    </row>
-    <row r="266" spans="2:37">
+      <c r="AL265" s="3">
+        <v>1.9925999999999999</v>
+      </c>
+      <c r="AM265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:39">
       <c r="B266" s="4">
         <v>2015</v>
       </c>
@@ -24930,8 +26267,14 @@
       <c r="AK266" s="3">
         <v>6066.7039999999997</v>
       </c>
-    </row>
-    <row r="267" spans="2:37">
+      <c r="AL266" s="3">
+        <v>2.0068999999999999</v>
+      </c>
+      <c r="AM266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:39">
       <c r="B267" s="4">
         <v>2015.25</v>
       </c>
@@ -25040,8 +26383,14 @@
       <c r="AK267" s="3">
         <v>6083.6419999999998</v>
       </c>
-    </row>
-    <row r="268" spans="2:37">
+      <c r="AL267" s="3">
+        <v>2.0863999999999998</v>
+      </c>
+      <c r="AM267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:39">
       <c r="B268" s="4">
         <v>2015.5</v>
       </c>
@@ -25150,8 +26499,14 @@
       <c r="AK268" s="3">
         <v>6263.4809999999998</v>
       </c>
-    </row>
-    <row r="269" spans="2:37">
+      <c r="AL268" s="3">
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="AM268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:39">
       <c r="B269" s="4">
         <v>2015.75</v>
       </c>
@@ -25260,8 +26615,14 @@
       <c r="AK269" s="3">
         <v>6235.098</v>
       </c>
-    </row>
-    <row r="270" spans="2:37">
+      <c r="AL269" s="3">
+        <v>2.6116000000000001</v>
+      </c>
+      <c r="AM269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:39">
       <c r="B270" s="4">
         <v>2016</v>
       </c>
@@ -25370,8 +26731,14 @@
       <c r="AK270" s="3">
         <v>6305.14</v>
       </c>
-    </row>
-    <row r="271" spans="2:37">
+      <c r="AL270" s="3">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="AM270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:39">
       <c r="B271" s="4">
         <v>2016.25</v>
       </c>
@@ -25480,8 +26847,14 @@
       <c r="AK271" s="3">
         <v>6309.7030000000004</v>
       </c>
-    </row>
-    <row r="272" spans="2:37">
+      <c r="AL271" s="3">
+        <v>2.0855000000000001</v>
+      </c>
+      <c r="AM271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:39">
       <c r="B272" s="4">
         <v>2016.5</v>
       </c>
@@ -25590,8 +26963,11 @@
       <c r="AK272" s="3">
         <v>6400.8850000000002</v>
       </c>
-    </row>
-    <row r="273" spans="2:37">
+      <c r="AM272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:39">
       <c r="B273" s="4">
         <v>2016.75</v>
       </c>
@@ -25700,8 +27076,11 @@
       <c r="AK273" s="3">
         <v>6451.5810000000001</v>
       </c>
-    </row>
-    <row r="274" spans="2:37">
+      <c r="AM273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:39">
       <c r="B274" s="4">
         <v>2017</v>
       </c>
@@ -25810,8 +27189,11 @@
       <c r="AK274" s="3">
         <v>6510.5370000000003</v>
       </c>
-    </row>
-    <row r="275" spans="2:37">
+      <c r="AM274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:39">
       <c r="B275" s="4">
         <v>2017.25</v>
       </c>
@@ -25920,8 +27302,11 @@
       <c r="AK275" s="3">
         <v>6500.1409999999996</v>
       </c>
-    </row>
-    <row r="276" spans="2:37">
+      <c r="AM275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:39">
       <c r="B276" s="4">
         <v>2017.5</v>
       </c>
@@ -26030,8 +27415,11 @@
       <c r="AK276" s="3">
         <v>6631.2030000000004</v>
       </c>
-    </row>
-    <row r="277" spans="2:37">
+      <c r="AM276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:39">
       <c r="B277" s="4">
         <v>2017.75</v>
       </c>
@@ -26140,8 +27528,11 @@
       <c r="AK277" s="3">
         <v>6677.11</v>
       </c>
-    </row>
-    <row r="278" spans="2:37">
+      <c r="AM277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:39">
       <c r="B278" s="4">
         <v>2018</v>
       </c>
@@ -26250,8 +27641,11 @@
       <c r="AK278" s="3">
         <v>6742.7</v>
       </c>
-    </row>
-    <row r="279" spans="2:37">
+      <c r="AM278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:39">
       <c r="B279" s="4">
         <v>2018.25</v>
       </c>
@@ -26354,8 +27748,11 @@
       <c r="AK279" s="3">
         <v>6830.1419999999998</v>
       </c>
-    </row>
-    <row r="280" spans="2:37">
+      <c r="AM279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:39">
       <c r="B280" s="4">
         <v>2018.5</v>
       </c>
@@ -26384,8 +27781,9 @@
       <c r="AI280" s="3"/>
       <c r="AJ280" s="3"/>
       <c r="AK280" s="3"/>
-    </row>
-    <row r="281" spans="2:37">
+      <c r="AM280" s="3"/>
+    </row>
+    <row r="281" spans="2:39">
       <c r="B281" s="4">
         <v>2018.75</v>
       </c>
@@ -26413,8 +27811,9 @@
       <c r="AI281" s="3"/>
       <c r="AJ281" s="3"/>
       <c r="AK281" s="3"/>
-    </row>
-    <row r="282" spans="2:37">
+      <c r="AM281" s="3"/>
+    </row>
+    <row r="282" spans="2:39">
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
       <c r="U282" s="3"/>
@@ -26434,8 +27833,9 @@
       <c r="AI282" s="3"/>
       <c r="AJ282" s="3"/>
       <c r="AK282" s="3"/>
-    </row>
-    <row r="283" spans="2:37">
+      <c r="AM282" s="3"/>
+    </row>
+    <row r="283" spans="2:39">
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
       <c r="U283" s="3"/>
@@ -26455,8 +27855,9 @@
       <c r="AI283" s="3"/>
       <c r="AJ283" s="3"/>
       <c r="AK283" s="3"/>
-    </row>
-    <row r="284" spans="2:37">
+      <c r="AM283" s="3"/>
+    </row>
+    <row r="284" spans="2:39">
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
       <c r="U284" s="3"/>
@@ -26476,8 +27877,9 @@
       <c r="AI284" s="3"/>
       <c r="AJ284" s="3"/>
       <c r="AK284" s="3"/>
-    </row>
-    <row r="285" spans="2:37">
+      <c r="AM284" s="3"/>
+    </row>
+    <row r="285" spans="2:39">
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
       <c r="U285" s="3"/>
@@ -26497,8 +27899,9 @@
       <c r="AI285" s="3"/>
       <c r="AJ285" s="3"/>
       <c r="AK285" s="3"/>
-    </row>
-    <row r="286" spans="2:37">
+      <c r="AM285" s="3"/>
+    </row>
+    <row r="286" spans="2:39">
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
       <c r="U286" s="3"/>
@@ -26518,8 +27921,9 @@
       <c r="AI286" s="3"/>
       <c r="AJ286" s="3"/>
       <c r="AK286" s="3"/>
-    </row>
-    <row r="287" spans="2:37">
+      <c r="AM286" s="3"/>
+    </row>
+    <row r="287" spans="2:39">
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
       <c r="U287" s="3"/>
@@ -26539,8 +27943,9 @@
       <c r="AI287" s="3"/>
       <c r="AJ287" s="3"/>
       <c r="AK287" s="3"/>
-    </row>
-    <row r="288" spans="2:37">
+      <c r="AM287" s="3"/>
+    </row>
+    <row r="288" spans="2:39">
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
       <c r="U288" s="3"/>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Closing Price - Nominal</t>
-  </si>
-  <si>
-    <t>Mich5Y</t>
   </si>
   <si>
     <t>TFPUtil</t>
@@ -494,7 +491,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,9 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,10 +822,10 @@
   <dimension ref="A1:BF937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AH81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AL76" sqref="AL76"/>
+      <selection pane="bottomRight" activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -845,20 +839,19 @@
     <col min="16" max="16" width="21.28515625" style="9" customWidth="1"/>
     <col min="17" max="18" width="22.140625" style="9" customWidth="1"/>
     <col min="19" max="19" width="22.42578125" style="9" customWidth="1"/>
-    <col min="20" max="21" width="22.42578125" style="14" customWidth="1"/>
+    <col min="20" max="21" width="22.42578125" style="13" customWidth="1"/>
     <col min="22" max="30" width="23.85546875" style="9" customWidth="1"/>
     <col min="31" max="35" width="24.28515625" style="9" customWidth="1"/>
     <col min="36" max="38" width="22.140625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="21.28515625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="23.140625" style="3" customWidth="1"/>
     <col min="40" max="40" width="22.140625" style="9" customWidth="1"/>
     <col min="41" max="41" width="22" style="3" customWidth="1"/>
     <col min="42" max="56" width="22.140625" style="9" customWidth="1"/>
     <col min="57" max="57" width="23.140625" style="9" customWidth="1"/>
-    <col min="58" max="58" width="23.140625" style="3" customWidth="1"/>
     <col min="59" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>63</v>
@@ -908,133 +901,130 @@
         <v>57</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AP1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BE1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF1" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58">
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1206,11 +1196,8 @@
       <c r="BE2" s="2">
         <v>3</v>
       </c>
-      <c r="BF2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
+    </row>
+    <row r="3" spans="1:57">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1382,11 +1369,8 @@
       <c r="BE3" s="2">
         <v>1</v>
       </c>
-      <c r="BF3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1558,11 +1542,8 @@
       <c r="BE4" s="2">
         <v>56</v>
       </c>
-      <c r="BF4" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
+    </row>
+    <row r="5" spans="1:57">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1734,11 +1715,8 @@
       <c r="BE5" s="2">
         <v>56</v>
       </c>
-      <c r="BF5" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
+    </row>
+    <row r="6" spans="1:57">
       <c r="B6" s="4">
         <v>1950</v>
       </c>
@@ -1798,7 +1776,7 @@
       </c>
       <c r="AL6" s="10"/>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:57">
       <c r="B7" s="4">
         <v>1950.25</v>
       </c>
@@ -1858,7 +1836,7 @@
       </c>
       <c r="AL7" s="10"/>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:57">
       <c r="B8" s="4">
         <v>1950.5</v>
       </c>
@@ -1918,7 +1896,7 @@
       </c>
       <c r="AL8" s="10"/>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:57">
       <c r="B9" s="4">
         <v>1950.75</v>
       </c>
@@ -1978,7 +1956,7 @@
       </c>
       <c r="AL9" s="10"/>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:57">
       <c r="B10" s="4">
         <v>1951</v>
       </c>
@@ -2038,7 +2016,7 @@
       </c>
       <c r="AL10" s="10"/>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:57">
       <c r="B11" s="4">
         <v>1951.25</v>
       </c>
@@ -2098,7 +2076,7 @@
       </c>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:57">
       <c r="B12" s="4">
         <v>1951.5</v>
       </c>
@@ -2158,7 +2136,7 @@
       </c>
       <c r="AL12" s="10"/>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:57">
       <c r="B13" s="4">
         <v>1951.75</v>
       </c>
@@ -2218,7 +2196,7 @@
       </c>
       <c r="AL13" s="10"/>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:57">
       <c r="B14" s="4">
         <v>1952</v>
       </c>
@@ -2281,7 +2259,7 @@
       </c>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:57">
       <c r="B15" s="4">
         <v>1952.25</v>
       </c>
@@ -2344,7 +2322,7 @@
       </c>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:57">
       <c r="B16" s="4">
         <v>1952.5</v>
       </c>
@@ -8489,7 +8467,7 @@
       <c r="AK82" s="10">
         <v>6.7428267983028159E-4</v>
       </c>
-      <c r="AL82" s="15">
+      <c r="AL82" s="14">
         <f>(AL81*3+AL85)/4</f>
         <v>741.30377499999997</v>
       </c>
@@ -8643,7 +8621,7 @@
       <c r="AK83" s="10">
         <v>1.4431821031760845E-3</v>
       </c>
-      <c r="AL83" s="15">
+      <c r="AL83" s="14">
         <f>(AL81*2+AL85*2)/4</f>
         <v>741.78224999999998</v>
       </c>
@@ -8797,7 +8775,7 @@
       <c r="AK84" s="10">
         <v>9.4843014424602788E-4</v>
       </c>
-      <c r="AL84" s="15">
+      <c r="AL84" s="14">
         <f>(AL81+AL85*3)/4</f>
         <v>742.26072499999998</v>
       </c>
@@ -9104,7 +9082,7 @@
       <c r="AK86" s="10">
         <v>4.2023128324493843E-3</v>
       </c>
-      <c r="AL86" s="15">
+      <c r="AL86" s="14">
         <f>(AL85+AL87)/2</f>
         <v>744.29759999999999</v>
       </c>
@@ -10759,7 +10737,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="2:58">
+    <row r="97" spans="2:57">
       <c r="B97" s="4">
         <v>1972.75</v>
       </c>
@@ -10920,7 +10898,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="98" spans="2:58">
+    <row r="98" spans="2:57">
       <c r="B98" s="4">
         <v>1973</v>
       </c>
@@ -11032,6 +11010,9 @@
       <c r="AL98" s="10">
         <v>858.59870000000001</v>
       </c>
+      <c r="AM98" s="3">
+        <v>1.026</v>
+      </c>
       <c r="AP98" s="3">
         <v>0.1</v>
       </c>
@@ -11080,11 +11061,8 @@
       <c r="BE98" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF98" s="3">
-        <v>1.026</v>
-      </c>
-    </row>
-    <row r="99" spans="2:58">
+    </row>
+    <row r="99" spans="2:57">
       <c r="B99" s="4">
         <v>1973.25</v>
       </c>
@@ -11196,6 +11174,9 @@
       <c r="AL99" s="10">
         <v>865.9674</v>
       </c>
+      <c r="AM99" s="3">
+        <v>1.0113000000000001</v>
+      </c>
       <c r="AP99" s="3">
         <v>0.2</v>
       </c>
@@ -11244,11 +11225,8 @@
       <c r="BE99" s="3">
         <v>0.11</v>
       </c>
-      <c r="BF99" s="3">
-        <v>1.0113000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="2:58">
+    </row>
+    <row r="100" spans="2:57">
       <c r="B100" s="4">
         <v>1973.5</v>
       </c>
@@ -11360,6 +11338,9 @@
       <c r="AL100" s="10">
         <v>862.89750000000004</v>
       </c>
+      <c r="AM100" s="3">
+        <v>0.97560000000000002</v>
+      </c>
       <c r="AP100" s="3">
         <v>0.2</v>
       </c>
@@ -11408,11 +11389,8 @@
       <c r="BE100" s="3">
         <v>0.20499999999999999</v>
       </c>
-      <c r="BF100" s="3">
-        <v>0.97560000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="2:58">
+    </row>
+    <row r="101" spans="2:57">
       <c r="B101" s="4">
         <v>1973.75</v>
       </c>
@@ -11524,6 +11502,9 @@
       <c r="AL101" s="10">
         <v>851.58979999999997</v>
       </c>
+      <c r="AM101" s="3">
+        <v>1.2197</v>
+      </c>
       <c r="AP101" s="3">
         <v>0.3</v>
       </c>
@@ -11572,11 +11553,8 @@
       <c r="BE101" s="3">
         <v>0.21</v>
       </c>
-      <c r="BF101" s="3">
-        <v>1.2197</v>
-      </c>
-    </row>
-    <row r="102" spans="2:58">
+    </row>
+    <row r="102" spans="2:57">
       <c r="B102" s="4">
         <v>1974</v>
       </c>
@@ -11688,6 +11666,9 @@
       <c r="AL102" s="10">
         <v>858.52030000000002</v>
       </c>
+      <c r="AM102" s="3">
+        <v>1.1686000000000001</v>
+      </c>
       <c r="AP102" s="3">
         <v>0.3</v>
       </c>
@@ -11736,11 +11717,8 @@
       <c r="BE102" s="3">
         <v>0.25</v>
       </c>
-      <c r="BF102" s="3">
-        <v>1.1686000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="2:58">
+    </row>
+    <row r="103" spans="2:57">
       <c r="B103" s="4">
         <v>1974.25</v>
       </c>
@@ -11852,6 +11830,9 @@
       <c r="AL103" s="10">
         <v>857.05460000000005</v>
       </c>
+      <c r="AM103" s="3">
+        <v>1.6315</v>
+      </c>
       <c r="AP103" s="3">
         <v>0.4</v>
       </c>
@@ -11900,11 +11881,8 @@
       <c r="BE103" s="3">
         <v>0.25</v>
       </c>
-      <c r="BF103" s="3">
-        <v>1.6315</v>
-      </c>
-    </row>
-    <row r="104" spans="2:58">
+    </row>
+    <row r="104" spans="2:57">
       <c r="B104" s="4">
         <v>1974.5</v>
       </c>
@@ -12013,10 +11991,13 @@
       <c r="AK104" s="10">
         <v>7.7490711264074598E-3</v>
       </c>
-      <c r="AL104" s="15">
+      <c r="AL104" s="14">
         <f>(AL103+AL105)/2</f>
         <v>841.99215000000004</v>
       </c>
+      <c r="AM104" s="3">
+        <v>2.1772</v>
+      </c>
       <c r="AP104" s="3">
         <v>0.2</v>
       </c>
@@ -12026,7 +12007,7 @@
       <c r="AR104" s="3">
         <v>0.5</v>
       </c>
-      <c r="AS104" s="13">
+      <c r="AS104" s="12">
         <v>0.8</v>
       </c>
       <c r="AT104" s="3">
@@ -12038,7 +12019,7 @@
       <c r="AV104" s="3">
         <v>10.6</v>
       </c>
-      <c r="AW104" s="13">
+      <c r="AW104" s="12">
         <v>9.6999999999999993</v>
       </c>
       <c r="AX104" s="3">
@@ -12050,7 +12031,7 @@
       <c r="AZ104" s="3">
         <v>38</v>
       </c>
-      <c r="BA104" s="13">
+      <c r="BA104" s="12">
         <v>31</v>
       </c>
       <c r="BB104" s="3">
@@ -12062,14 +12043,11 @@
       <c r="BD104" s="3">
         <v>0.22</v>
       </c>
-      <c r="BE104" s="13">
+      <c r="BE104" s="12">
         <v>0.29499999999999998</v>
       </c>
-      <c r="BF104" s="3">
-        <v>2.1772</v>
-      </c>
-    </row>
-    <row r="105" spans="2:58">
+    </row>
+    <row r="105" spans="2:57">
       <c r="B105" s="4">
         <v>1974.75</v>
       </c>
@@ -12181,6 +12159,9 @@
       <c r="AL105" s="10">
         <v>826.92970000000003</v>
       </c>
+      <c r="AM105" s="3">
+        <v>2.1158999999999999</v>
+      </c>
       <c r="AP105" s="3">
         <v>0.5</v>
       </c>
@@ -12229,11 +12210,8 @@
       <c r="BE105" s="3">
         <v>0.34</v>
       </c>
-      <c r="BF105" s="3">
-        <v>2.1158999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="2:58">
+    </row>
+    <row r="106" spans="2:57">
       <c r="B106" s="4">
         <v>1975</v>
       </c>
@@ -12345,6 +12323,9 @@
       <c r="AL106" s="10">
         <v>811.7654</v>
       </c>
+      <c r="AM106" s="3">
+        <v>1.5933999999999999</v>
+      </c>
       <c r="AP106" s="3">
         <v>0.6</v>
       </c>
@@ -12393,11 +12374,8 @@
       <c r="BE106" s="3">
         <v>0.4</v>
       </c>
-      <c r="BF106" s="3">
-        <v>1.5933999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="2:58">
+    </row>
+    <row r="107" spans="2:57">
       <c r="B107" s="4">
         <v>1975.25</v>
       </c>
@@ -12509,6 +12487,9 @@
       <c r="AL107" s="10">
         <v>817.0616</v>
       </c>
+      <c r="AM107" s="3">
+        <v>1.4368000000000001</v>
+      </c>
       <c r="AP107" s="3">
         <v>0.4</v>
       </c>
@@ -12557,11 +12538,8 @@
       <c r="BE107" s="3">
         <v>0.39</v>
       </c>
-      <c r="BF107" s="3">
-        <v>1.4368000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="2:58">
+    </row>
+    <row r="108" spans="2:57">
       <c r="B108" s="4">
         <v>1975.5</v>
       </c>
@@ -12673,6 +12651,9 @@
       <c r="AL108" s="10">
         <v>834.70159999999998</v>
       </c>
+      <c r="AM108" s="3">
+        <v>1.3525</v>
+      </c>
       <c r="AP108" s="3">
         <v>0.4</v>
       </c>
@@ -12721,11 +12702,8 @@
       <c r="BE108" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="BF108" s="3">
-        <v>1.3525</v>
-      </c>
-    </row>
-    <row r="109" spans="2:58">
+    </row>
+    <row r="109" spans="2:57">
       <c r="B109" s="4">
         <v>1975.75</v>
       </c>
@@ -12837,6 +12815,9 @@
       <c r="AL109" s="10">
         <v>854.5942</v>
       </c>
+      <c r="AM109" s="3">
+        <v>1.1652</v>
+      </c>
       <c r="AP109" s="3">
         <v>0.2</v>
       </c>
@@ -12885,11 +12866,8 @@
       <c r="BE109" s="3">
         <v>0.15</v>
       </c>
-      <c r="BF109" s="3">
-        <v>1.1652</v>
-      </c>
-    </row>
-    <row r="110" spans="2:58">
+    </row>
+    <row r="110" spans="2:57">
       <c r="B110" s="4">
         <v>1976</v>
       </c>
@@ -13001,6 +12979,9 @@
       <c r="AL110" s="10">
         <v>1294.8580999999999</v>
       </c>
+      <c r="AM110" s="3">
+        <v>1.0137</v>
+      </c>
       <c r="AP110" s="3">
         <v>0.3</v>
       </c>
@@ -13049,11 +13030,8 @@
       <c r="BE110" s="3">
         <v>0.18</v>
       </c>
-      <c r="BF110" s="3">
-        <v>1.0137</v>
-      </c>
-    </row>
-    <row r="111" spans="2:58">
+    </row>
+    <row r="111" spans="2:57">
       <c r="B111" s="4">
         <v>1976.25</v>
       </c>
@@ -13165,6 +13143,9 @@
       <c r="AL111" s="10">
         <v>1312.4110000000001</v>
       </c>
+      <c r="AM111" s="3">
+        <v>0.99609999999999999</v>
+      </c>
       <c r="AP111" s="3">
         <v>0.1</v>
       </c>
@@ -13213,11 +13194,8 @@
       <c r="BE111" s="3">
         <v>0.15</v>
       </c>
-      <c r="BF111" s="3">
-        <v>0.99609999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="2:58">
+    </row>
+    <row r="112" spans="2:57">
       <c r="B112" s="4">
         <v>1976.5</v>
       </c>
@@ -13329,6 +13307,9 @@
       <c r="AL112" s="10">
         <v>1339.1117999999999</v>
       </c>
+      <c r="AM112" s="3">
+        <v>0.89380000000000004</v>
+      </c>
       <c r="AP112" s="3">
         <v>0.2</v>
       </c>
@@ -13377,11 +13358,8 @@
       <c r="BE112" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF112" s="3">
-        <v>0.89380000000000004</v>
-      </c>
-    </row>
-    <row r="113" spans="2:58">
+    </row>
+    <row r="113" spans="2:57">
       <c r="B113" s="4">
         <v>1976.75</v>
       </c>
@@ -13493,6 +13471,9 @@
       <c r="AL113" s="10">
         <v>1352.2916</v>
       </c>
+      <c r="AM113" s="3">
+        <v>0.95240000000000002</v>
+      </c>
       <c r="AP113" s="3">
         <v>0.3</v>
       </c>
@@ -13541,11 +13522,8 @@
       <c r="BE113" s="3">
         <v>0.18</v>
       </c>
-      <c r="BF113" s="3">
-        <v>0.95240000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="2:58">
+    </row>
+    <row r="114" spans="2:57">
       <c r="B114" s="4">
         <v>1977</v>
       </c>
@@ -13657,6 +13635,9 @@
       <c r="AL114" s="10">
         <v>1360.3936000000001</v>
       </c>
+      <c r="AM114" s="3">
+        <v>0.90690000000000004</v>
+      </c>
       <c r="AP114" s="3">
         <v>0.3</v>
       </c>
@@ -13705,11 +13686,8 @@
       <c r="BE114" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF114" s="3">
-        <v>0.90690000000000004</v>
-      </c>
-    </row>
-    <row r="115" spans="2:58">
+    </row>
+    <row r="115" spans="2:57">
       <c r="B115" s="4">
         <v>1977.25</v>
       </c>
@@ -13821,6 +13799,9 @@
       <c r="AL115" s="10">
         <v>1379.1165000000001</v>
       </c>
+      <c r="AM115" s="3">
+        <v>0.84830000000000005</v>
+      </c>
       <c r="AP115" s="3">
         <v>0.2</v>
       </c>
@@ -13869,11 +13850,8 @@
       <c r="BE115" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BF115" s="3">
-        <v>0.84830000000000005</v>
-      </c>
-    </row>
-    <row r="116" spans="2:58">
+    </row>
+    <row r="116" spans="2:57">
       <c r="B116" s="4">
         <v>1977.5</v>
       </c>
@@ -13985,6 +13963,9 @@
       <c r="AL116" s="10">
         <v>1401.3976</v>
       </c>
+      <c r="AM116" s="3">
+        <v>0.96399999999999997</v>
+      </c>
       <c r="AP116" s="3">
         <v>0.2</v>
       </c>
@@ -14033,11 +14014,8 @@
       <c r="BE116" s="3">
         <v>0.25</v>
       </c>
-      <c r="BF116" s="3">
-        <v>0.96399999999999997</v>
-      </c>
-    </row>
-    <row r="117" spans="2:58">
+    </row>
+    <row r="117" spans="2:57">
       <c r="B117" s="4">
         <v>1977.75</v>
       </c>
@@ -14148,6 +14126,9 @@
       </c>
       <c r="AL117" s="10">
         <v>1411.8925999999999</v>
+      </c>
+      <c r="AM117" s="3">
+        <v>0.88529999999999998</v>
       </c>
       <c r="AN117" s="3"/>
       <c r="AP117" s="3">
@@ -14198,11 +14179,8 @@
       <c r="BE117" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF117" s="3">
-        <v>0.88529999999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="2:58">
+    </row>
+    <row r="118" spans="2:57">
       <c r="B118" s="4">
         <v>1978</v>
       </c>
@@ -14315,7 +14293,7 @@
         <v>1426.7755999999999</v>
       </c>
       <c r="AM118" s="3">
-        <v>83</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="AN118" s="3">
         <v>106</v>
@@ -14368,11 +14346,8 @@
       <c r="BE118" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF118" s="3">
-        <v>0.74839999999999995</v>
-      </c>
-    </row>
-    <row r="119" spans="2:58">
+    </row>
+    <row r="119" spans="2:57">
       <c r="B119" s="4">
         <v>1978.25</v>
       </c>
@@ -14484,8 +14459,8 @@
       <c r="AL119" s="10">
         <v>1420.069</v>
       </c>
-      <c r="AM119" s="12">
-        <v>75</v>
+      <c r="AM119" s="3">
+        <v>0.69720000000000004</v>
       </c>
       <c r="AN119" s="3">
         <v>99</v>
@@ -14538,11 +14513,8 @@
       <c r="BE119" s="3">
         <v>0.14499999999999999</v>
       </c>
-      <c r="BF119" s="3">
-        <v>0.69720000000000004</v>
-      </c>
-    </row>
-    <row r="120" spans="2:58">
+    </row>
+    <row r="120" spans="2:57">
       <c r="B120" s="4">
         <v>1978.5</v>
       </c>
@@ -14654,8 +14626,8 @@
       <c r="AL120" s="10">
         <v>1407.5423000000001</v>
       </c>
-      <c r="AM120" s="12">
-        <v>70</v>
+      <c r="AM120" s="3">
+        <v>0.61029999999999995</v>
       </c>
       <c r="AN120" s="3">
         <v>95</v>
@@ -14708,11 +14680,8 @@
       <c r="BE120" s="3">
         <v>0.12</v>
       </c>
-      <c r="BF120" s="3">
-        <v>0.61029999999999995</v>
-      </c>
-    </row>
-    <row r="121" spans="2:58">
+    </row>
+    <row r="121" spans="2:57">
       <c r="B121" s="4">
         <v>1978.75</v>
       </c>
@@ -14824,8 +14793,8 @@
       <c r="AL121" s="10">
         <v>1421.3958</v>
       </c>
-      <c r="AM121" s="12">
-        <v>66</v>
+      <c r="AM121" s="3">
+        <v>0.63759999999999994</v>
       </c>
       <c r="AN121" s="3">
         <v>87</v>
@@ -14878,11 +14847,8 @@
       <c r="BE121" s="3">
         <v>0.18</v>
       </c>
-      <c r="BF121" s="3">
-        <v>0.63759999999999994</v>
-      </c>
-    </row>
-    <row r="122" spans="2:58">
+    </row>
+    <row r="122" spans="2:57">
       <c r="B122" s="4">
         <v>1979</v>
       </c>
@@ -14994,8 +14960,8 @@
       <c r="AL122" s="10">
         <v>1428.5038999999999</v>
       </c>
-      <c r="AM122" s="12">
-        <v>63</v>
+      <c r="AM122" s="3">
+        <v>0.66539999999999999</v>
       </c>
       <c r="AN122" s="3">
         <v>81</v>
@@ -15048,11 +15014,8 @@
       <c r="BE122" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF122" s="3">
-        <v>0.66539999999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="2:58">
+    </row>
+    <row r="123" spans="2:57">
       <c r="B123" s="4">
         <v>1979.25</v>
       </c>
@@ -15164,8 +15127,8 @@
       <c r="AL123" s="10">
         <v>1426.0064</v>
       </c>
-      <c r="AM123" s="12">
-        <v>58</v>
+      <c r="AM123" s="3">
+        <v>0.69</v>
       </c>
       <c r="AN123" s="3">
         <v>73</v>
@@ -15218,11 +15181,8 @@
       <c r="BE123" s="3">
         <v>0.25</v>
       </c>
-      <c r="BF123" s="3">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="124" spans="2:58">
+    </row>
+    <row r="124" spans="2:57">
       <c r="B124" s="4">
         <v>1979.5</v>
       </c>
@@ -15334,8 +15294,8 @@
       <c r="AL124" s="10">
         <v>1415.1719000000001</v>
       </c>
-      <c r="AM124" s="12">
-        <v>46</v>
+      <c r="AM124" s="3">
+        <v>0.65900000000000003</v>
       </c>
       <c r="AN124" s="3">
         <v>74</v>
@@ -15388,11 +15348,8 @@
       <c r="BE124" s="3">
         <v>0.15</v>
       </c>
-      <c r="BF124" s="3">
-        <v>0.65900000000000003</v>
-      </c>
-    </row>
-    <row r="125" spans="2:58">
+    </row>
+    <row r="125" spans="2:57">
       <c r="B125" s="4">
         <v>1979.75</v>
       </c>
@@ -15504,8 +15461,8 @@
       <c r="AL125" s="10">
         <v>1421.5597</v>
       </c>
-      <c r="AM125" s="12">
-        <v>51</v>
+      <c r="AM125" s="3">
+        <v>0.77180000000000004</v>
       </c>
       <c r="AN125" s="3">
         <v>80</v>
@@ -15558,11 +15515,8 @@
       <c r="BE125" s="3">
         <v>0.23</v>
       </c>
-      <c r="BF125" s="3">
-        <v>0.77180000000000004</v>
-      </c>
-    </row>
-    <row r="126" spans="2:58">
+    </row>
+    <row r="126" spans="2:57">
       <c r="B126" s="4">
         <v>1980</v>
       </c>
@@ -15674,8 +15628,8 @@
       <c r="AL126" s="10">
         <v>1434.5125</v>
       </c>
-      <c r="AM126" s="12">
-        <v>50</v>
+      <c r="AM126" s="3">
+        <v>0.92379999999999995</v>
       </c>
       <c r="AN126" s="3">
         <v>84</v>
@@ -15728,11 +15682,8 @@
       <c r="BE126" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF126" s="3">
-        <v>0.92379999999999995</v>
-      </c>
-    </row>
-    <row r="127" spans="2:58">
+    </row>
+    <row r="127" spans="2:57">
       <c r="B127" s="4">
         <v>1980.25</v>
       </c>
@@ -15844,8 +15795,8 @@
       <c r="AL127" s="10">
         <v>1426.6566</v>
       </c>
-      <c r="AM127" s="12">
-        <v>51</v>
+      <c r="AM127" s="3">
+        <v>0.93500000000000005</v>
       </c>
       <c r="AN127" s="3">
         <v>81</v>
@@ -15898,11 +15849,8 @@
       <c r="BE127" s="3">
         <v>0.3</v>
       </c>
-      <c r="BF127" s="3">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="128" spans="2:58">
+    </row>
+    <row r="128" spans="2:57">
       <c r="B128" s="4">
         <v>1980.5</v>
       </c>
@@ -16014,8 +15962,8 @@
       <c r="AL128" s="10">
         <v>1428.7605000000001</v>
       </c>
-      <c r="AM128" s="12">
-        <v>63</v>
+      <c r="AM128" s="3">
+        <v>0.8629</v>
       </c>
       <c r="AN128" s="3">
         <v>108</v>
@@ -16068,11 +16016,8 @@
       <c r="BE128" s="3">
         <v>0.3</v>
       </c>
-      <c r="BF128" s="3">
-        <v>0.8629</v>
-      </c>
-    </row>
-    <row r="129" spans="2:58">
+    </row>
+    <row r="129" spans="2:57">
       <c r="B129" s="4">
         <v>1980.75</v>
       </c>
@@ -16184,8 +16129,8 @@
       <c r="AL129" s="10">
         <v>1458.0844</v>
       </c>
-      <c r="AM129" s="12">
-        <v>83</v>
+      <c r="AM129" s="3">
+        <v>0.98980000000000001</v>
       </c>
       <c r="AN129" s="3">
         <v>117</v>
@@ -16238,11 +16183,8 @@
       <c r="BE129" s="3">
         <v>0.2</v>
       </c>
-      <c r="BF129" s="3">
-        <v>0.98980000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="2:58">
+    </row>
+    <row r="130" spans="2:57">
       <c r="B130" s="4">
         <v>1981</v>
       </c>
@@ -16354,8 +16296,8 @@
       <c r="AL130" s="10">
         <v>1534.4213</v>
       </c>
-      <c r="AM130" s="12">
-        <v>76</v>
+      <c r="AM130" s="3">
+        <v>0.96340000000000003</v>
       </c>
       <c r="AN130" s="3">
         <v>119</v>
@@ -16408,11 +16350,8 @@
       <c r="BE130" s="3">
         <v>0.3</v>
       </c>
-      <c r="BF130" s="3">
-        <v>0.96340000000000003</v>
-      </c>
-    </row>
-    <row r="131" spans="2:58">
+    </row>
+    <row r="131" spans="2:57">
       <c r="B131" s="4">
         <v>1981.25</v>
       </c>
@@ -16524,8 +16463,8 @@
       <c r="AL131" s="10">
         <v>1559.7711999999999</v>
       </c>
-      <c r="AM131" s="12">
-        <v>79</v>
+      <c r="AM131" s="3">
+        <v>1.1214999999999999</v>
       </c>
       <c r="AN131" s="3">
         <v>116</v>
@@ -16578,11 +16517,8 @@
       <c r="BE131" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BF131" s="3">
-        <v>1.1214999999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="2:58">
+    </row>
+    <row r="132" spans="2:57">
       <c r="B132" s="4">
         <v>1981.5</v>
       </c>
@@ -16694,8 +16630,8 @@
       <c r="AL132" s="10">
         <v>1555.2666999999999</v>
       </c>
-      <c r="AM132" s="12">
-        <v>74</v>
+      <c r="AM132" s="3">
+        <v>1.1418999999999999</v>
       </c>
       <c r="AN132" s="3">
         <v>116</v>
@@ -16748,11 +16684,8 @@
       <c r="BE132" s="3">
         <v>0.21</v>
       </c>
-      <c r="BF132" s="3">
-        <v>1.1418999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="2:58">
+    </row>
+    <row r="133" spans="2:57">
       <c r="B133" s="4">
         <v>1981.75</v>
       </c>
@@ -16864,8 +16797,8 @@
       <c r="AL133" s="10">
         <v>1537.3171</v>
       </c>
-      <c r="AM133" s="12">
-        <v>62</v>
+      <c r="AM133" s="3">
+        <v>1.4448000000000001</v>
       </c>
       <c r="AN133" s="3">
         <v>103</v>
@@ -16918,11 +16851,8 @@
       <c r="BE133" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BF133" s="3">
-        <v>1.4448000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="2:58">
+    </row>
+    <row r="134" spans="2:57">
       <c r="B134" s="4">
         <v>1982</v>
       </c>
@@ -17034,8 +16964,8 @@
       <c r="AL134" s="10">
         <v>1542.5172</v>
       </c>
-      <c r="AM134" s="12">
-        <v>65</v>
+      <c r="AM134" s="3">
+        <v>1.5509999999999999</v>
       </c>
       <c r="AN134" s="3">
         <v>107</v>
@@ -17088,11 +17018,8 @@
       <c r="BE134" s="3">
         <v>0.16</v>
       </c>
-      <c r="BF134" s="3">
-        <v>1.5509999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="2:58">
+    </row>
+    <row r="135" spans="2:57">
       <c r="B135" s="4">
         <v>1982.25</v>
       </c>
@@ -17204,8 +17131,8 @@
       <c r="AL135" s="10">
         <v>1528.325</v>
       </c>
-      <c r="AM135" s="12">
-        <v>69</v>
+      <c r="AM135" s="3">
+        <v>1.5548999999999999</v>
       </c>
       <c r="AN135" s="3">
         <v>111</v>
@@ -17258,11 +17185,8 @@
       <c r="BE135" s="3">
         <v>0.185</v>
       </c>
-      <c r="BF135" s="3">
-        <v>1.5548999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="2:58">
+    </row>
+    <row r="136" spans="2:57">
       <c r="B136" s="4">
         <v>1982.5</v>
       </c>
@@ -17374,8 +17298,8 @@
       <c r="AL136" s="10">
         <v>1524.8947000000001</v>
       </c>
-      <c r="AM136" s="12">
-        <v>69</v>
+      <c r="AM136" s="3">
+        <v>1.6774</v>
       </c>
       <c r="AN136" s="3">
         <v>111</v>
@@ -17428,11 +17352,8 @@
       <c r="BE136" s="3">
         <v>0.20499999999999999</v>
       </c>
-      <c r="BF136" s="3">
-        <v>1.6774</v>
-      </c>
-    </row>
-    <row r="137" spans="2:58">
+    </row>
+    <row r="137" spans="2:57">
       <c r="B137" s="4">
         <v>1982.75</v>
       </c>
@@ -17544,8 +17465,8 @@
       <c r="AL137" s="10">
         <v>1534.0571</v>
       </c>
-      <c r="AM137" s="12">
-        <v>83</v>
+      <c r="AM137" s="3">
+        <v>1.5542</v>
       </c>
       <c r="AN137" s="3">
         <v>119</v>
@@ -17598,11 +17519,8 @@
       <c r="BE137" s="3">
         <v>0.27500000000000002</v>
       </c>
-      <c r="BF137" s="3">
-        <v>1.5542</v>
-      </c>
-    </row>
-    <row r="138" spans="2:58">
+    </row>
+    <row r="138" spans="2:57">
       <c r="B138" s="4">
         <v>1983</v>
       </c>
@@ -17714,8 +17632,8 @@
       <c r="AL138" s="10">
         <v>1541.3214</v>
       </c>
-      <c r="AM138" s="12">
-        <v>78</v>
+      <c r="AM138" s="3">
+        <v>1.1416999999999999</v>
       </c>
       <c r="AN138" s="3">
         <v>131</v>
@@ -17768,11 +17686,8 @@
       <c r="BE138" s="3">
         <v>0.16</v>
       </c>
-      <c r="BF138" s="3">
-        <v>1.1416999999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="2:58">
+    </row>
+    <row r="139" spans="2:57">
       <c r="B139" s="4">
         <v>1983.25</v>
       </c>
@@ -17884,8 +17799,8 @@
       <c r="AL139" s="10">
         <v>1575.0555999999999</v>
       </c>
-      <c r="AM139" s="12">
-        <v>98</v>
+      <c r="AM139" s="3">
+        <v>0.89</v>
       </c>
       <c r="AN139" s="3">
         <v>146</v>
@@ -17938,11 +17853,8 @@
       <c r="BE139" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF139" s="3">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="140" spans="2:58">
+    </row>
+    <row r="140" spans="2:57">
       <c r="B140" s="4">
         <v>1983.5</v>
       </c>
@@ -18054,8 +17966,8 @@
       <c r="AL140" s="10">
         <v>1606.3333</v>
       </c>
-      <c r="AM140" s="12">
-        <v>99</v>
+      <c r="AM140" s="3">
+        <v>0.88780000000000003</v>
       </c>
       <c r="AN140" s="3">
         <v>138</v>
@@ -18108,11 +18020,8 @@
       <c r="BE140" s="3">
         <v>0.13</v>
       </c>
-      <c r="BF140" s="3">
-        <v>0.88780000000000003</v>
-      </c>
-    </row>
-    <row r="141" spans="2:58">
+    </row>
+    <row r="141" spans="2:57">
       <c r="B141" s="4">
         <v>1983.75</v>
       </c>
@@ -18224,8 +18133,8 @@
       <c r="AL141" s="10">
         <v>1638.9118000000001</v>
       </c>
-      <c r="AM141" s="12">
-        <v>99</v>
+      <c r="AM141" s="3">
+        <v>0.94359999999999999</v>
       </c>
       <c r="AN141" s="3">
         <v>136</v>
@@ -18278,11 +18187,8 @@
       <c r="BE141" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF141" s="3">
-        <v>0.94359999999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="2:58">
+    </row>
+    <row r="142" spans="2:57">
       <c r="B142" s="4">
         <v>1984</v>
       </c>
@@ -18394,8 +18300,8 @@
       <c r="AL142" s="10">
         <v>1650.3333</v>
       </c>
-      <c r="AM142" s="12">
-        <v>109</v>
+      <c r="AM142" s="3">
+        <v>0.95289999999999997</v>
       </c>
       <c r="AN142" s="3">
         <v>130</v>
@@ -18448,11 +18354,8 @@
       <c r="BE142" s="3">
         <v>0.155</v>
       </c>
-      <c r="BF142" s="3">
-        <v>0.95289999999999997</v>
-      </c>
-    </row>
-    <row r="143" spans="2:58">
+    </row>
+    <row r="143" spans="2:57">
       <c r="B143" s="4">
         <v>1984.25</v>
       </c>
@@ -18564,8 +18467,8 @@
       <c r="AL143" s="10">
         <v>1673.9375</v>
       </c>
-      <c r="AM143" s="12">
-        <v>106</v>
+      <c r="AM143" s="3">
+        <v>0.877</v>
       </c>
       <c r="AN143" s="3">
         <v>117</v>
@@ -18618,11 +18521,8 @@
       <c r="BE143" s="3">
         <v>0.13</v>
       </c>
-      <c r="BF143" s="3">
-        <v>0.877</v>
-      </c>
-    </row>
-    <row r="144" spans="2:58">
+    </row>
+    <row r="144" spans="2:57">
       <c r="B144" s="4">
         <v>1984.5</v>
       </c>
@@ -18734,8 +18634,8 @@
       <c r="AL144" s="10">
         <v>1710.4167</v>
       </c>
-      <c r="AM144" s="12">
-        <v>113</v>
+      <c r="AM144" s="3">
+        <v>0.95779999999999998</v>
       </c>
       <c r="AN144" s="3">
         <v>119</v>
@@ -18788,11 +18688,8 @@
       <c r="BE144" s="3">
         <v>0.23</v>
       </c>
-      <c r="BF144" s="3">
-        <v>0.95779999999999998</v>
-      </c>
-    </row>
-    <row r="145" spans="2:58">
+    </row>
+    <row r="145" spans="2:57">
       <c r="B145" s="4">
         <v>1984.75</v>
       </c>
@@ -18904,8 +18801,8 @@
       <c r="AL145" s="10">
         <v>1710.7143000000001</v>
       </c>
-      <c r="AM145" s="12">
-        <v>104</v>
+      <c r="AM145" s="3">
+        <v>0.99639999999999995</v>
       </c>
       <c r="AN145" s="3">
         <v>118</v>
@@ -18958,11 +18855,8 @@
       <c r="BE145" s="3">
         <v>0.3</v>
       </c>
-      <c r="BF145" s="3">
-        <v>0.99639999999999995</v>
-      </c>
-    </row>
-    <row r="146" spans="2:58">
+    </row>
+    <row r="146" spans="2:57">
       <c r="B146" s="4">
         <v>1985</v>
       </c>
@@ -19074,8 +18968,8 @@
       <c r="AL146" s="10">
         <v>1739.25</v>
       </c>
-      <c r="AM146" s="12">
-        <v>99</v>
+      <c r="AM146" s="3">
+        <v>1.0276000000000001</v>
       </c>
       <c r="AN146" s="3">
         <v>115</v>
@@ -19128,11 +19022,8 @@
       <c r="BE146" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="BF146" s="3">
-        <v>1.0276000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="2:58">
+    </row>
+    <row r="147" spans="2:57">
       <c r="B147" s="4">
         <v>1985.25</v>
       </c>
@@ -19244,8 +19135,8 @@
       <c r="AL147" s="10">
         <v>1736.9231</v>
       </c>
-      <c r="AM147" s="12">
-        <v>99</v>
+      <c r="AM147" s="3">
+        <v>1.1998</v>
       </c>
       <c r="AN147" s="3">
         <v>114</v>
@@ -19298,11 +19189,8 @@
       <c r="BE147" s="3">
         <v>0.23499999999999999</v>
       </c>
-      <c r="BF147" s="3">
-        <v>1.1998</v>
-      </c>
-    </row>
-    <row r="148" spans="2:58">
+    </row>
+    <row r="148" spans="2:57">
       <c r="B148" s="4">
         <v>1985.5</v>
       </c>
@@ -19414,8 +19302,8 @@
       <c r="AL148" s="10">
         <v>1730.2592999999999</v>
       </c>
-      <c r="AM148" s="12">
-        <v>98</v>
+      <c r="AM148" s="3">
+        <v>1.2437</v>
       </c>
       <c r="AN148" s="3">
         <v>110</v>
@@ -19468,11 +19356,8 @@
       <c r="BE148" s="3">
         <v>0.22</v>
       </c>
-      <c r="BF148" s="3">
-        <v>1.2437</v>
-      </c>
-    </row>
-    <row r="149" spans="2:58">
+    </row>
+    <row r="149" spans="2:57">
       <c r="B149" s="4">
         <v>1985.75</v>
       </c>
@@ -19584,8 +19469,8 @@
       <c r="AL149" s="10">
         <v>1744.875</v>
       </c>
-      <c r="AM149" s="12">
-        <v>96</v>
+      <c r="AM149" s="3">
+        <v>1.4291</v>
       </c>
       <c r="AN149" s="3">
         <v>106</v>
@@ -19638,11 +19523,8 @@
       <c r="BE149" s="3">
         <v>0.17</v>
       </c>
-      <c r="BF149" s="3">
-        <v>1.4291</v>
-      </c>
-    </row>
-    <row r="150" spans="2:58">
+    </row>
+    <row r="150" spans="2:57">
       <c r="B150" s="4">
         <v>1986</v>
       </c>
@@ -19754,8 +19636,8 @@
       <c r="AL150" s="10">
         <v>3728.8182000000002</v>
       </c>
-      <c r="AM150" s="12">
-        <v>96</v>
+      <c r="AM150" s="3">
+        <v>1.8412999999999999</v>
       </c>
       <c r="AN150" s="3">
         <v>112</v>
@@ -19811,11 +19693,8 @@
       <c r="BE150" s="3">
         <v>0.11</v>
       </c>
-      <c r="BF150" s="3">
-        <v>1.8412999999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="2:58">
+    </row>
+    <row r="151" spans="2:57">
       <c r="B151" s="4">
         <v>1986.25</v>
       </c>
@@ -19927,8 +19806,8 @@
       <c r="AL151" s="10">
         <v>3755.96</v>
       </c>
-      <c r="AM151" s="12">
-        <v>95</v>
+      <c r="AM151" s="3">
+        <v>1.972</v>
       </c>
       <c r="AN151" s="3">
         <v>112</v>
@@ -19984,11 +19863,8 @@
       <c r="BE151" s="3">
         <v>0.18</v>
       </c>
-      <c r="BF151" s="3">
-        <v>1.972</v>
-      </c>
-    </row>
-    <row r="152" spans="2:58">
+    </row>
+    <row r="152" spans="2:57">
       <c r="B152" s="4">
         <v>1986.5</v>
       </c>
@@ -20100,8 +19976,8 @@
       <c r="AL152" s="10">
         <v>3798.6522</v>
       </c>
-      <c r="AM152" s="12">
-        <v>91</v>
+      <c r="AM152" s="3">
+        <v>2.0950000000000002</v>
       </c>
       <c r="AN152" s="3">
         <v>108</v>
@@ -20157,11 +20033,8 @@
       <c r="BE152" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="BF152" s="3">
-        <v>2.0950000000000002</v>
-      </c>
-    </row>
-    <row r="153" spans="2:58">
+    </row>
+    <row r="153" spans="2:57">
       <c r="B153" s="4">
         <v>1986.75</v>
       </c>
@@ -20273,8 +20146,8 @@
       <c r="AL153" s="10">
         <v>3811.0455000000002</v>
       </c>
-      <c r="AM153" s="12">
-        <v>90</v>
+      <c r="AM153" s="3">
+        <v>1.9807999999999999</v>
       </c>
       <c r="AN153" s="3">
         <v>101</v>
@@ -20330,11 +20203,8 @@
       <c r="BE153" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BF153" s="3">
-        <v>1.9807999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="2:58">
+    </row>
+    <row r="154" spans="2:57">
       <c r="B154" s="4">
         <v>1987</v>
       </c>
@@ -20446,8 +20316,8 @@
       <c r="AL154" s="10">
         <v>3823.4211</v>
       </c>
-      <c r="AM154" s="12">
-        <v>84</v>
+      <c r="AM154" s="3">
+        <v>1.8228</v>
       </c>
       <c r="AN154" s="3">
         <v>105</v>
@@ -20503,11 +20373,8 @@
       <c r="BE154" s="3">
         <v>0.11</v>
       </c>
-      <c r="BF154" s="3">
-        <v>1.8228</v>
-      </c>
-    </row>
-    <row r="155" spans="2:58">
+    </row>
+    <row r="155" spans="2:57">
       <c r="B155" s="4">
         <v>1987.25</v>
       </c>
@@ -20619,8 +20486,8 @@
       <c r="AL155" s="10">
         <v>3854.6154000000001</v>
       </c>
-      <c r="AM155" s="12">
-        <v>92</v>
+      <c r="AM155" s="3">
+        <v>1.6871</v>
       </c>
       <c r="AN155" s="3">
         <v>103</v>
@@ -20676,11 +20543,8 @@
       <c r="BE155" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="BF155" s="3">
-        <v>1.6871</v>
-      </c>
-    </row>
-    <row r="156" spans="2:58">
+    </row>
+    <row r="156" spans="2:57">
       <c r="B156" s="4">
         <v>1987.5</v>
       </c>
@@ -20792,8 +20656,8 @@
       <c r="AL156" s="10">
         <v>3924.8420999999998</v>
       </c>
-      <c r="AM156" s="12">
-        <v>93</v>
+      <c r="AM156" s="3">
+        <v>1.6107</v>
       </c>
       <c r="AN156" s="3">
         <v>109</v>
@@ -20849,11 +20713,8 @@
       <c r="BE156" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF156" s="3">
-        <v>1.6107</v>
-      </c>
-    </row>
-    <row r="157" spans="2:58">
+    </row>
+    <row r="157" spans="2:57">
       <c r="B157" s="4">
         <v>1987.75</v>
       </c>
@@ -20965,8 +20826,8 @@
       <c r="AL157" s="10">
         <v>3930.3683999999998</v>
       </c>
-      <c r="AM157" s="12">
-        <v>86</v>
+      <c r="AM157" s="3">
+        <v>1.5905</v>
       </c>
       <c r="AN157" s="3">
         <v>101</v>
@@ -21022,11 +20883,8 @@
       <c r="BE157" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF157" s="3">
-        <v>1.5905</v>
-      </c>
-    </row>
-    <row r="158" spans="2:58">
+    </row>
+    <row r="158" spans="2:57">
       <c r="B158" s="4">
         <v>1988</v>
       </c>
@@ -21138,8 +20996,8 @@
       <c r="AL158" s="10">
         <v>3959.4117999999999</v>
       </c>
-      <c r="AM158" s="12">
-        <v>90</v>
+      <c r="AM158" s="3">
+        <v>1.593</v>
       </c>
       <c r="AN158" s="3">
         <v>104</v>
@@ -21195,11 +21053,8 @@
       <c r="BE158" s="3">
         <v>0.15</v>
       </c>
-      <c r="BF158" s="3">
-        <v>1.593</v>
-      </c>
-    </row>
-    <row r="159" spans="2:58">
+    </row>
+    <row r="159" spans="2:57">
       <c r="B159" s="4">
         <v>1988.25</v>
       </c>
@@ -21311,8 +21166,8 @@
       <c r="AL159" s="10">
         <v>4018.6471000000001</v>
       </c>
-      <c r="AM159" s="12">
-        <v>94</v>
+      <c r="AM159" s="3">
+        <v>1.4676</v>
       </c>
       <c r="AN159" s="3">
         <v>106</v>
@@ -21368,11 +21223,8 @@
       <c r="BE159" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF159" s="3">
-        <v>1.4676</v>
-      </c>
-    </row>
-    <row r="160" spans="2:58">
+    </row>
+    <row r="160" spans="2:57">
       <c r="B160" s="4">
         <v>1988.5</v>
       </c>
@@ -21484,8 +21336,8 @@
       <c r="AL160" s="10">
         <v>4125.125</v>
       </c>
-      <c r="AM160" s="12">
-        <v>101</v>
+      <c r="AM160" s="3">
+        <v>1.4797</v>
       </c>
       <c r="AN160" s="3">
         <v>109</v>
@@ -21541,11 +21393,8 @@
       <c r="BE160" s="3">
         <v>0.11</v>
       </c>
-      <c r="BF160" s="3">
-        <v>1.4797</v>
-      </c>
-    </row>
-    <row r="161" spans="2:58">
+    </row>
+    <row r="161" spans="2:57">
       <c r="B161" s="4">
         <v>1988.75</v>
       </c>
@@ -21657,8 +21506,8 @@
       <c r="AL161" s="10">
         <v>4136.3571000000002</v>
       </c>
-      <c r="AM161" s="12">
-        <v>97</v>
+      <c r="AM161" s="3">
+        <v>1.524</v>
       </c>
       <c r="AN161" s="3">
         <v>103</v>
@@ -21714,11 +21563,8 @@
       <c r="BE161" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BF161" s="3">
-        <v>1.524</v>
-      </c>
-    </row>
-    <row r="162" spans="2:58">
+    </row>
+    <row r="162" spans="2:57">
       <c r="B162" s="4">
         <v>1989</v>
       </c>
@@ -21830,8 +21676,8 @@
       <c r="AL162" s="10">
         <v>4138</v>
       </c>
-      <c r="AM162" s="12">
-        <v>100</v>
+      <c r="AM162" s="3">
+        <v>1.5034000000000001</v>
       </c>
       <c r="AN162" s="3">
         <v>106</v>
@@ -21887,11 +21733,8 @@
       <c r="BE162" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BF162" s="3">
-        <v>1.5034000000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="2:58">
+    </row>
+    <row r="163" spans="2:57">
       <c r="B163" s="4">
         <v>1989.25</v>
       </c>
@@ -22003,8 +21846,8 @@
       <c r="AL163" s="10">
         <v>4177.25</v>
       </c>
-      <c r="AM163" s="12">
-        <v>90</v>
+      <c r="AM163" s="3">
+        <v>1.7632000000000001</v>
       </c>
       <c r="AN163" s="3">
         <v>101</v>
@@ -22060,11 +21903,8 @@
       <c r="BE163" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF163" s="3">
-        <v>1.7632000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="2:58">
+    </row>
+    <row r="164" spans="2:57">
       <c r="B164" s="4">
         <v>1989.5</v>
       </c>
@@ -22176,8 +22016,8 @@
       <c r="AL164" s="10">
         <v>4231.0267000000003</v>
       </c>
-      <c r="AM164" s="12">
-        <v>95</v>
+      <c r="AM164" s="3">
+        <v>1.7269000000000001</v>
       </c>
       <c r="AN164" s="3">
         <v>103</v>
@@ -22233,11 +22073,8 @@
       <c r="BE164" s="3">
         <v>0.22</v>
       </c>
-      <c r="BF164" s="3">
-        <v>1.7269000000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="2:58">
+    </row>
+    <row r="165" spans="2:57">
       <c r="B165" s="4">
         <v>1989.75</v>
       </c>
@@ -22349,8 +22186,8 @@
       <c r="AL165" s="10">
         <v>4258.0625</v>
       </c>
-      <c r="AM165" s="12">
-        <v>95</v>
+      <c r="AM165" s="3">
+        <v>1.6442000000000001</v>
       </c>
       <c r="AN165" s="3">
         <v>104</v>
@@ -22406,11 +22243,8 @@
       <c r="BE165" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF165" s="3">
-        <v>1.6442000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="2:58">
+    </row>
+    <row r="166" spans="2:57">
       <c r="B166" s="4">
         <v>1990</v>
       </c>
@@ -22522,8 +22356,8 @@
       <c r="AL166" s="10">
         <v>4278</v>
       </c>
-      <c r="AM166" s="12">
-        <v>92</v>
+      <c r="AM166" s="3">
+        <v>1.4482999999999999</v>
       </c>
       <c r="AN166" s="3">
         <v>102</v>
@@ -22579,11 +22413,8 @@
       <c r="BE166" s="3">
         <v>0.13</v>
       </c>
-      <c r="BF166" s="3">
-        <v>1.4482999999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="2:58">
+    </row>
+    <row r="167" spans="2:57">
       <c r="B167" s="4">
         <v>1990.25</v>
       </c>
@@ -22695,8 +22526,8 @@
       <c r="AL167" s="10">
         <v>4304.6778000000004</v>
       </c>
-      <c r="AM167" s="12">
-        <v>86</v>
+      <c r="AM167" s="3">
+        <v>1.2152000000000001</v>
       </c>
       <c r="AN167" s="3">
         <v>102</v>
@@ -22752,11 +22583,8 @@
       <c r="BE167" s="3">
         <v>0.25</v>
       </c>
-      <c r="BF167" s="3">
-        <v>1.2152000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="2:58">
+    </row>
+    <row r="168" spans="2:57">
       <c r="B168" s="4">
         <v>1990.5</v>
       </c>
@@ -22868,8 +22696,8 @@
       <c r="AL168" s="10">
         <v>4243.4083000000001</v>
       </c>
-      <c r="AM168" s="12">
-        <v>74</v>
+      <c r="AM168" s="3">
+        <v>1.2535000000000001</v>
       </c>
       <c r="AN168" s="3">
         <v>83</v>
@@ -22925,11 +22753,8 @@
       <c r="BE168" s="3">
         <v>0.1225</v>
       </c>
-      <c r="BF168" s="3">
-        <v>1.2535000000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="2:58">
+    </row>
+    <row r="169" spans="2:57">
       <c r="B169" s="4">
         <v>1990.75</v>
       </c>
@@ -23041,8 +22866,8 @@
       <c r="AL169" s="10">
         <v>4193.8633</v>
       </c>
-      <c r="AM169" s="12">
-        <v>58</v>
+      <c r="AM169" s="3">
+        <v>1.6213</v>
       </c>
       <c r="AN169" s="3">
         <v>75</v>
@@ -23098,11 +22923,8 @@
       <c r="BE169" s="3">
         <v>0.15</v>
       </c>
-      <c r="BF169" s="3">
-        <v>1.6213</v>
-      </c>
-    </row>
-    <row r="170" spans="2:58">
+    </row>
+    <row r="170" spans="2:57">
       <c r="B170" s="4">
         <v>1991</v>
       </c>
@@ -23214,8 +23036,8 @@
       <c r="AL170" s="10">
         <v>4205.16</v>
       </c>
-      <c r="AM170" s="12">
-        <v>75</v>
+      <c r="AM170" s="3">
+        <v>1.5216000000000001</v>
       </c>
       <c r="AN170" s="3">
         <v>107</v>
@@ -23271,11 +23093,8 @@
       <c r="BE170" s="3">
         <v>0.1535</v>
       </c>
-      <c r="BF170" s="3">
-        <v>1.5216000000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="2:58">
+    </row>
+    <row r="171" spans="2:57">
       <c r="B171" s="4">
         <v>1991.25</v>
       </c>
@@ -23387,8 +23206,8 @@
       <c r="AL171" s="10">
         <v>4231.3615</v>
       </c>
-      <c r="AM171" s="12">
-        <v>79</v>
+      <c r="AM171" s="3">
+        <v>1.4752000000000001</v>
       </c>
       <c r="AN171" s="3">
         <v>118</v>
@@ -23444,11 +23263,8 @@
       <c r="BE171" s="3">
         <v>0.12</v>
       </c>
-      <c r="BF171" s="3">
-        <v>1.4752000000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="2:58">
+    </row>
+    <row r="172" spans="2:57">
       <c r="B172" s="4">
         <v>1991.5</v>
       </c>
@@ -23560,8 +23376,8 @@
       <c r="AL172" s="10">
         <v>4274.6832999999997</v>
       </c>
-      <c r="AM172" s="12">
-        <v>83</v>
+      <c r="AM172" s="3">
+        <v>1.4875</v>
       </c>
       <c r="AN172" s="3">
         <v>117</v>
@@ -23617,11 +23433,8 @@
       <c r="BE172" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF172" s="3">
-        <v>1.4875</v>
-      </c>
-    </row>
-    <row r="173" spans="2:58">
+    </row>
+    <row r="173" spans="2:57">
       <c r="B173" s="4">
         <v>1991.75</v>
       </c>
@@ -23733,8 +23546,8 @@
       <c r="AL173" s="10">
         <v>4270.5102999999999</v>
       </c>
-      <c r="AM173" s="12">
-        <v>65</v>
+      <c r="AM173" s="3">
+        <v>1.5107999999999999</v>
       </c>
       <c r="AN173" s="3">
         <v>100</v>
@@ -23790,11 +23603,8 @@
       <c r="BE173" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="BF173" s="3">
-        <v>1.5107999999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="2:58">
+    </row>
+    <row r="174" spans="2:57">
       <c r="B174" s="4">
         <v>1992</v>
       </c>
@@ -23906,8 +23716,8 @@
       <c r="AL174" s="10">
         <v>5015.8607000000002</v>
       </c>
-      <c r="AM174" s="12">
-        <v>68</v>
+      <c r="AM174" s="3">
+        <v>1.3742000000000001</v>
       </c>
       <c r="AN174" s="3">
         <v>107</v>
@@ -23963,11 +23773,8 @@
       <c r="BE174" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="BF174" s="3">
-        <v>1.3742000000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="2:58">
+    </row>
+    <row r="175" spans="2:57">
       <c r="B175" s="4">
         <v>1992.25</v>
       </c>
@@ -24079,8 +23886,8 @@
       <c r="AL175" s="10">
         <v>5081.5339000000004</v>
       </c>
-      <c r="AM175" s="12">
-        <v>69</v>
+      <c r="AM175" s="3">
+        <v>1.3351999999999999</v>
       </c>
       <c r="AN175" s="3">
         <v>116</v>
@@ -24136,11 +23943,8 @@
       <c r="BE175" s="3">
         <v>0.111</v>
       </c>
-      <c r="BF175" s="3">
-        <v>1.3351999999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="2:58">
+    </row>
+    <row r="176" spans="2:57">
       <c r="B176" s="4">
         <v>1992.5</v>
       </c>
@@ -24252,8 +24056,8 @@
       <c r="AL176" s="10">
         <v>5054.8796000000002</v>
       </c>
-      <c r="AM176" s="12">
-        <v>70</v>
+      <c r="AM176" s="3">
+        <v>1.5062</v>
       </c>
       <c r="AN176" s="3">
         <v>112</v>
@@ -24309,11 +24113,8 @@
       <c r="BE176" s="3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="BF176" s="3">
-        <v>1.5062</v>
-      </c>
-    </row>
-    <row r="177" spans="2:58">
+    </row>
+    <row r="177" spans="2:57">
       <c r="B177" s="4">
         <v>1992.75</v>
       </c>
@@ -24425,8 +24226,8 @@
       <c r="AL177" s="10">
         <v>5096.3906999999999</v>
       </c>
-      <c r="AM177" s="12">
-        <v>87</v>
+      <c r="AM177" s="3">
+        <v>1.4388000000000001</v>
       </c>
       <c r="AN177" s="3">
         <v>122</v>
@@ -24482,11 +24283,8 @@
       <c r="BE177" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="BF177" s="3">
-        <v>1.4388000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="2:58">
+    </row>
+    <row r="178" spans="2:57">
       <c r="B178" s="4">
         <v>1993</v>
       </c>
@@ -24598,8 +24396,8 @@
       <c r="AL178" s="10">
         <v>5170.8735999999999</v>
       </c>
-      <c r="AM178" s="12">
-        <v>94</v>
+      <c r="AM178" s="3">
+        <v>1.4533</v>
       </c>
       <c r="AN178" s="3">
         <v>122</v>
@@ -24655,11 +24453,8 @@
       <c r="BE178" s="3">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="BF178" s="3">
-        <v>1.4533</v>
-      </c>
-    </row>
-    <row r="179" spans="2:58">
+    </row>
+    <row r="179" spans="2:57">
       <c r="B179" s="4">
         <v>1993.25</v>
       </c>
@@ -24771,8 +24566,8 @@
       <c r="AL179" s="10">
         <v>5204.3662000000004</v>
       </c>
-      <c r="AM179" s="12">
-        <v>81</v>
+      <c r="AM179" s="3">
+        <v>1.4012</v>
       </c>
       <c r="AN179" s="3">
         <v>107</v>
@@ -24828,11 +24623,8 @@
       <c r="BE179" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="BF179" s="3">
-        <v>1.4012</v>
-      </c>
-    </row>
-    <row r="180" spans="2:58">
+    </row>
+    <row r="180" spans="2:57">
       <c r="B180" s="4">
         <v>1993.5</v>
       </c>
@@ -24944,8 +24736,8 @@
       <c r="AL180" s="10">
         <v>5196.6360999999997</v>
       </c>
-      <c r="AM180" s="12">
-        <v>72</v>
+      <c r="AM180" s="3">
+        <v>1.4315</v>
       </c>
       <c r="AN180" s="3">
         <v>98</v>
@@ -25001,11 +24793,8 @@
       <c r="BE180" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF180" s="3">
-        <v>1.4315</v>
-      </c>
-    </row>
-    <row r="181" spans="2:58">
+    </row>
+    <row r="181" spans="2:57">
       <c r="B181" s="4">
         <v>1993.75</v>
       </c>
@@ -25117,8 +24906,8 @@
       <c r="AL181" s="10">
         <v>5329.4335000000001</v>
       </c>
-      <c r="AM181" s="12">
-        <v>80</v>
+      <c r="AM181" s="3">
+        <v>1.3460000000000001</v>
       </c>
       <c r="AN181" s="3">
         <v>103</v>
@@ -25174,11 +24963,8 @@
       <c r="BE181" s="3">
         <v>0.06</v>
       </c>
-      <c r="BF181" s="3">
-        <v>1.3460000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="2:58">
+    </row>
+    <row r="182" spans="2:57">
       <c r="B182" s="4">
         <v>1994</v>
       </c>
@@ -25290,8 +25076,8 @@
       <c r="AL182" s="10">
         <v>5407.4053000000004</v>
       </c>
-      <c r="AM182" s="12">
-        <v>94</v>
+      <c r="AM182" s="3">
+        <v>1.2428999999999999</v>
       </c>
       <c r="AN182" s="3">
         <v>117</v>
@@ -25347,11 +25133,8 @@
       <c r="BE182" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="BF182" s="3">
-        <v>1.2428999999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="2:58">
+    </row>
+    <row r="183" spans="2:57">
       <c r="B183" s="4">
         <v>1994.25</v>
       </c>
@@ -25463,8 +25246,8 @@
       <c r="AL183" s="10">
         <v>5460.2984999999999</v>
       </c>
-      <c r="AM183" s="12">
-        <v>93</v>
+      <c r="AM183" s="3">
+        <v>1.2508999999999999</v>
       </c>
       <c r="AN183" s="3">
         <v>109</v>
@@ -25520,11 +25303,8 @@
       <c r="BE183" s="3">
         <v>0.115</v>
       </c>
-      <c r="BF183" s="3">
-        <v>1.2508999999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="2:58">
+    </row>
+    <row r="184" spans="2:57">
       <c r="B184" s="4">
         <v>1994.5</v>
       </c>
@@ -25636,8 +25416,8 @@
       <c r="AL184" s="10">
         <v>5481.3909999999996</v>
       </c>
-      <c r="AM184" s="12">
-        <v>89</v>
+      <c r="AM184" s="3">
+        <v>1.2150000000000001</v>
       </c>
       <c r="AN184" s="3">
         <v>107</v>
@@ -25693,11 +25473,8 @@
       <c r="BE184" s="3">
         <v>0.08</v>
       </c>
-      <c r="BF184" s="3">
-        <v>1.2150000000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="2:58">
+    </row>
+    <row r="185" spans="2:57">
       <c r="B185" s="4">
         <v>1994.75</v>
       </c>
@@ -25809,8 +25586,8 @@
       <c r="AL185" s="10">
         <v>5550.6143000000002</v>
       </c>
-      <c r="AM185" s="12">
-        <v>99</v>
+      <c r="AM185" s="3">
+        <v>1.2815000000000001</v>
       </c>
       <c r="AN185" s="3">
         <v>112</v>
@@ -25866,11 +25643,8 @@
       <c r="BE185" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="BF185" s="3">
-        <v>1.2815000000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="2:58">
+    </row>
+    <row r="186" spans="2:57">
       <c r="B186" s="4">
         <v>1995</v>
       </c>
@@ -25982,8 +25756,8 @@
       <c r="AL186" s="10">
         <v>5602.8140999999996</v>
       </c>
-      <c r="AM186" s="12">
-        <v>98</v>
+      <c r="AM186" s="3">
+        <v>1.2770999999999999</v>
       </c>
       <c r="AN186" s="3">
         <v>112</v>
@@ -26039,11 +25813,8 @@
       <c r="BE186" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="BF186" s="3">
-        <v>1.2770999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="2:58">
+    </row>
+    <row r="187" spans="2:57">
       <c r="B187" s="4">
         <v>1995.25</v>
       </c>
@@ -26155,8 +25926,8 @@
       <c r="AL187" s="10">
         <v>5633.4938000000002</v>
       </c>
-      <c r="AM187" s="12">
-        <v>92</v>
+      <c r="AM187" s="3">
+        <v>1.3073999999999999</v>
       </c>
       <c r="AN187" s="3">
         <v>103</v>
@@ -26212,11 +25983,8 @@
       <c r="BE187" s="3">
         <v>0.12</v>
       </c>
-      <c r="BF187" s="3">
-        <v>1.3073999999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="2:58">
+    </row>
+    <row r="188" spans="2:57">
       <c r="B188" s="4">
         <v>1995.5</v>
       </c>
@@ -26328,8 +26096,8 @@
       <c r="AL188" s="10">
         <v>5658.4949999999999</v>
       </c>
-      <c r="AM188" s="12">
-        <v>95</v>
+      <c r="AM188" s="3">
+        <v>1.3132999999999999</v>
       </c>
       <c r="AN188" s="3">
         <v>108</v>
@@ -26385,11 +26153,8 @@
       <c r="BE188" s="3">
         <v>0.09</v>
       </c>
-      <c r="BF188" s="3">
-        <v>1.3132999999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="2:58">
+    </row>
+    <row r="189" spans="2:57">
       <c r="B189" s="4">
         <v>1995.75</v>
       </c>
@@ -26501,8 +26266,8 @@
       <c r="AL189" s="10">
         <v>5719.8359</v>
       </c>
-      <c r="AM189" s="12">
-        <v>90</v>
+      <c r="AM189" s="3">
+        <v>1.4167000000000001</v>
       </c>
       <c r="AN189" s="3">
         <v>104</v>
@@ -26558,11 +26323,8 @@
       <c r="BE189" s="3">
         <v>0.08</v>
       </c>
-      <c r="BF189" s="3">
-        <v>1.4167000000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="2:58">
+    </row>
+    <row r="190" spans="2:57">
       <c r="B190" s="4">
         <v>1996</v>
       </c>
@@ -26674,8 +26436,8 @@
       <c r="AL190" s="10">
         <v>6972.8486999999996</v>
       </c>
-      <c r="AM190" s="12">
-        <v>84</v>
+      <c r="AM190" s="3">
+        <v>1.3314999999999999</v>
       </c>
       <c r="AN190" s="3">
         <v>103</v>
@@ -26731,11 +26493,8 @@
       <c r="BE190" s="3">
         <v>0.09</v>
       </c>
-      <c r="BF190" s="3">
-        <v>1.3314999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="2:58">
+    </row>
+    <row r="191" spans="2:57">
       <c r="B191" s="4">
         <v>1996.25</v>
       </c>
@@ -26847,8 +26606,8 @@
       <c r="AL191" s="10">
         <v>7015.8933999999999</v>
       </c>
-      <c r="AM191" s="12">
-        <v>89</v>
+      <c r="AM191" s="3">
+        <v>1.2784</v>
       </c>
       <c r="AN191" s="3">
         <v>104</v>
@@ -26904,11 +26663,8 @@
       <c r="BE191" s="3">
         <v>0.11</v>
       </c>
-      <c r="BF191" s="3">
-        <v>1.2784</v>
-      </c>
-    </row>
-    <row r="192" spans="2:58">
+    </row>
+    <row r="192" spans="2:57">
       <c r="B192" s="4">
         <v>1996.5</v>
       </c>
@@ -27020,8 +26776,8 @@
       <c r="AL192" s="10">
         <v>7072.2407999999996</v>
       </c>
-      <c r="AM192" s="12">
-        <v>101</v>
+      <c r="AM192" s="3">
+        <v>1.2848999999999999</v>
       </c>
       <c r="AN192" s="3">
         <v>108</v>
@@ -27077,11 +26833,8 @@
       <c r="BE192" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF192" s="3">
-        <v>1.2848999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="2:58">
+    </row>
+    <row r="193" spans="2:57">
       <c r="B193" s="4">
         <v>1996.75</v>
       </c>
@@ -27193,8 +26946,8 @@
       <c r="AL193" s="10">
         <v>7114.8063000000002</v>
       </c>
-      <c r="AM193" s="12">
-        <v>106</v>
+      <c r="AM193" s="3">
+        <v>1.3058000000000001</v>
       </c>
       <c r="AN193" s="3">
         <v>112</v>
@@ -27250,11 +27003,8 @@
       <c r="BE193" s="3">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="BF193" s="3">
-        <v>1.3058000000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="2:58">
+    </row>
+    <row r="194" spans="2:57">
       <c r="B194" s="4">
         <v>1997</v>
       </c>
@@ -27366,8 +27116,8 @@
       <c r="AL194" s="10">
         <v>7204.6731</v>
       </c>
-      <c r="AM194" s="12">
-        <v>107</v>
+      <c r="AM194" s="3">
+        <v>1.2424999999999999</v>
       </c>
       <c r="AN194" s="3">
         <v>112</v>
@@ -27423,11 +27173,8 @@
       <c r="BE194" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="BF194" s="3">
-        <v>1.2424999999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="2:58">
+    </row>
+    <row r="195" spans="2:57">
       <c r="B195" s="4">
         <v>1997.25</v>
       </c>
@@ -27539,8 +27286,8 @@
       <c r="AL195" s="10">
         <v>7293.8343999999997</v>
       </c>
-      <c r="AM195" s="12">
-        <v>114</v>
+      <c r="AM195" s="3">
+        <v>1.1975</v>
       </c>
       <c r="AN195" s="3">
         <v>109</v>
@@ -27596,11 +27343,8 @@
       <c r="BE195" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="BF195" s="3">
-        <v>1.1975</v>
-      </c>
-    </row>
-    <row r="196" spans="2:58">
+    </row>
+    <row r="196" spans="2:57">
       <c r="B196" s="4">
         <v>1997.5</v>
       </c>
@@ -27712,8 +27456,8 @@
       <c r="AL196" s="10">
         <v>7361.4951000000001</v>
       </c>
-      <c r="AM196" s="12">
-        <v>122</v>
+      <c r="AM196" s="3">
+        <v>1.2225999999999999</v>
       </c>
       <c r="AN196" s="3">
         <v>118</v>
@@ -27769,11 +27513,8 @@
       <c r="BE196" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF196" s="3">
-        <v>1.2225999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="2:58">
+    </row>
+    <row r="197" spans="2:57">
       <c r="B197" s="4">
         <v>1997.75</v>
       </c>
@@ -27885,8 +27626,8 @@
       <c r="AL197" s="10">
         <v>7441.924</v>
       </c>
-      <c r="AM197" s="12">
-        <v>119</v>
+      <c r="AM197" s="3">
+        <v>1.3562000000000001</v>
       </c>
       <c r="AN197" s="3">
         <v>114</v>
@@ -27942,11 +27683,8 @@
       <c r="BE197" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="BF197" s="3">
-        <v>1.3562000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="2:58">
+    </row>
+    <row r="198" spans="2:57">
       <c r="B198" s="4">
         <v>1998</v>
       </c>
@@ -28058,8 +27796,8 @@
       <c r="AL198" s="10">
         <v>7509.5862999999999</v>
       </c>
-      <c r="AM198" s="12">
-        <v>121</v>
+      <c r="AM198" s="3">
+        <v>1.3443000000000001</v>
       </c>
       <c r="AN198" s="3">
         <v>117</v>
@@ -28115,11 +27853,8 @@
       <c r="BE198" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="BF198" s="3">
-        <v>1.3443000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="2:58">
+    </row>
+    <row r="199" spans="2:57">
       <c r="B199" s="4">
         <v>1998.25</v>
       </c>
@@ -28231,8 +27966,8 @@
       <c r="AL199" s="10">
         <v>7582.7902000000004</v>
       </c>
-      <c r="AM199" s="12">
-        <v>118</v>
+      <c r="AM199" s="3">
+        <v>1.3249</v>
       </c>
       <c r="AN199" s="3">
         <v>114</v>
@@ -28288,11 +28023,8 @@
       <c r="BE199" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="BF199" s="3">
-        <v>1.3249</v>
-      </c>
-    </row>
-    <row r="200" spans="2:58">
+    </row>
+    <row r="200" spans="2:57">
       <c r="B200" s="4">
         <v>1998.5</v>
       </c>
@@ -28404,8 +28136,8 @@
       <c r="AL200" s="10">
         <v>7725.884</v>
       </c>
-      <c r="AM200" s="12">
-        <v>116</v>
+      <c r="AM200" s="3">
+        <v>2.0169000000000001</v>
       </c>
       <c r="AN200" s="3">
         <v>110</v>
@@ -28461,11 +28193,8 @@
       <c r="BE200" s="3">
         <v>0.1265</v>
       </c>
-      <c r="BF200" s="3">
-        <v>2.0169000000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="2:58">
+    </row>
+    <row r="201" spans="2:57">
       <c r="B201" s="4">
         <v>1998.75</v>
       </c>
@@ -28577,8 +28306,8 @@
       <c r="AL201" s="10">
         <v>7756.8599000000004</v>
       </c>
-      <c r="AM201" s="12">
-        <v>107</v>
+      <c r="AM201" s="3">
+        <v>2.1269</v>
       </c>
       <c r="AN201" s="3">
         <v>103</v>
@@ -28634,11 +28363,8 @@
       <c r="BE201" s="3">
         <v>0.09</v>
       </c>
-      <c r="BF201" s="3">
-        <v>2.1269</v>
-      </c>
-    </row>
-    <row r="202" spans="2:58">
+    </row>
+    <row r="202" spans="2:57">
       <c r="B202" s="4">
         <v>1999</v>
       </c>
@@ -28750,8 +28476,8 @@
       <c r="AL202" s="10">
         <v>7904.7511000000004</v>
       </c>
-      <c r="AM202" s="12">
-        <v>120</v>
+      <c r="AM202" s="3">
+        <v>1.833</v>
       </c>
       <c r="AN202" s="3">
         <v>107</v>
@@ -28807,11 +28533,8 @@
       <c r="BE202" s="3">
         <v>0.113</v>
       </c>
-      <c r="BF202" s="3">
-        <v>1.833</v>
-      </c>
-    </row>
-    <row r="203" spans="2:58">
+    </row>
+    <row r="203" spans="2:57">
       <c r="B203" s="4">
         <v>1999.25</v>
       </c>
@@ -28923,8 +28646,8 @@
       <c r="AL203" s="10">
         <v>8020.2395999999999</v>
       </c>
-      <c r="AM203" s="12">
-        <v>117</v>
+      <c r="AM203" s="3">
+        <v>1.7621</v>
       </c>
       <c r="AN203" s="3">
         <v>110</v>
@@ -28980,11 +28703,8 @@
       <c r="BE203" s="3">
         <v>0.152</v>
       </c>
-      <c r="BF203" s="3">
-        <v>1.7621</v>
-      </c>
-    </row>
-    <row r="204" spans="2:58">
+    </row>
+    <row r="204" spans="2:57">
       <c r="B204" s="4">
         <v>1999.5</v>
       </c>
@@ -29096,8 +28816,8 @@
       <c r="AL204" s="10">
         <v>8075.5977000000003</v>
       </c>
-      <c r="AM204" s="12">
-        <v>120</v>
+      <c r="AM204" s="3">
+        <v>2.0268999999999999</v>
       </c>
       <c r="AN204" s="3">
         <v>108</v>
@@ -29153,11 +28873,8 @@
       <c r="BE204" s="3">
         <v>0.105</v>
       </c>
-      <c r="BF204" s="3">
-        <v>2.0268999999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="2:58">
+    </row>
+    <row r="205" spans="2:57">
       <c r="B205" s="4">
         <v>1999.75</v>
       </c>
@@ -29269,8 +28986,8 @@
       <c r="AL205" s="10">
         <v>9227.3778000000002</v>
       </c>
-      <c r="AM205" s="12">
-        <v>122</v>
+      <c r="AM205" s="3">
+        <v>2.0446</v>
       </c>
       <c r="AN205" s="3">
         <v>110</v>
@@ -29326,11 +29043,8 @@
       <c r="BE205" s="3">
         <v>0.09</v>
       </c>
-      <c r="BF205" s="3">
-        <v>2.0446</v>
-      </c>
-    </row>
-    <row r="206" spans="2:58">
+    </row>
+    <row r="206" spans="2:57">
       <c r="B206" s="4">
         <v>2000</v>
       </c>
@@ -29442,8 +29156,8 @@
       <c r="AL206" s="10">
         <v>9367.4786999999997</v>
       </c>
-      <c r="AM206" s="12">
-        <v>132</v>
+      <c r="AM206" s="3">
+        <v>2.3315999999999999</v>
       </c>
       <c r="AN206" s="3">
         <v>117</v>
@@ -29499,11 +29213,8 @@
       <c r="BE206" s="3">
         <v>0.112</v>
       </c>
-      <c r="BF206" s="3">
-        <v>2.3315999999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="2:58">
+    </row>
+    <row r="207" spans="2:57">
       <c r="B207" s="4">
         <v>2000.25</v>
       </c>
@@ -29615,8 +29326,8 @@
       <c r="AL207" s="10">
         <v>9559.0841999999993</v>
       </c>
-      <c r="AM207" s="12">
-        <v>129</v>
+      <c r="AM207" s="3">
+        <v>2.835</v>
       </c>
       <c r="AN207" s="3">
         <v>113</v>
@@ -29672,11 +29383,8 @@
       <c r="BE207" s="3">
         <v>0.11749999999999999</v>
       </c>
-      <c r="BF207" s="3">
-        <v>2.835</v>
-      </c>
-    </row>
-    <row r="208" spans="2:58">
+    </row>
+    <row r="208" spans="2:57">
       <c r="B208" s="4">
         <v>2000.5</v>
       </c>
@@ -29788,8 +29496,8 @@
       <c r="AL208" s="10">
         <v>9679.2191999999995</v>
       </c>
-      <c r="AM208" s="12">
-        <v>134</v>
+      <c r="AM208" s="3">
+        <v>3.2391999999999999</v>
       </c>
       <c r="AN208" s="3">
         <v>112</v>
@@ -29845,11 +29553,8 @@
       <c r="BE208" s="3">
         <v>0.113</v>
       </c>
-      <c r="BF208" s="3">
-        <v>3.2391999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="2:58">
+    </row>
+    <row r="209" spans="2:57">
       <c r="B209" s="4">
         <v>2000.75</v>
       </c>
@@ -29961,8 +29666,8 @@
       <c r="AL209" s="10">
         <v>9763.1823999999997</v>
       </c>
-      <c r="AM209" s="12">
-        <v>125</v>
+      <c r="AM209" s="3">
+        <v>3.6334</v>
       </c>
       <c r="AN209" s="3">
         <v>109</v>
@@ -30018,11 +29723,8 @@
       <c r="BE209" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="BF209" s="3">
-        <v>3.6334</v>
-      </c>
-    </row>
-    <row r="210" spans="2:58">
+    </row>
+    <row r="210" spans="2:57">
       <c r="B210" s="4">
         <v>2001</v>
       </c>
@@ -30134,8 +29836,8 @@
       <c r="AL210" s="10">
         <v>9712.6553000000004</v>
       </c>
-      <c r="AM210" s="12">
-        <v>109</v>
+      <c r="AM210" s="3">
+        <v>3.2886000000000002</v>
       </c>
       <c r="AN210" s="3">
         <v>102</v>
@@ -30191,11 +29893,8 @@
       <c r="BE210" s="3">
         <v>0.09</v>
       </c>
-      <c r="BF210" s="3">
-        <v>3.2886000000000002</v>
-      </c>
-    </row>
-    <row r="211" spans="2:58">
+    </row>
+    <row r="211" spans="2:57">
       <c r="B211" s="4">
         <v>2001.25</v>
       </c>
@@ -30307,8 +30006,8 @@
       <c r="AL211" s="10">
         <v>9738.5184000000008</v>
       </c>
-      <c r="AM211" s="12">
-        <v>109</v>
+      <c r="AM211" s="3">
+        <v>3.1236000000000002</v>
       </c>
       <c r="AN211" s="3">
         <v>107</v>
@@ -30364,11 +30063,8 @@
       <c r="BE211" s="3">
         <v>0.10299999999999999</v>
       </c>
-      <c r="BF211" s="3">
-        <v>3.1236000000000002</v>
-      </c>
-    </row>
-    <row r="212" spans="2:58">
+    </row>
+    <row r="212" spans="2:57">
       <c r="B212" s="4">
         <v>2001.5</v>
       </c>
@@ -30480,8 +30176,8 @@
       <c r="AL212" s="10">
         <v>9654.2819999999992</v>
       </c>
-      <c r="AM212" s="12">
-        <v>105</v>
+      <c r="AM212" s="3">
+        <v>3.3347000000000002</v>
       </c>
       <c r="AN212" s="3">
         <v>108</v>
@@ -30537,11 +30233,8 @@
       <c r="BE212" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="BF212" s="3">
-        <v>3.3347000000000002</v>
-      </c>
-    </row>
-    <row r="213" spans="2:58">
+    </row>
+    <row r="213" spans="2:57">
       <c r="B213" s="4">
         <v>2001.75</v>
       </c>
@@ -30653,8 +30346,8 @@
       <c r="AL213" s="10">
         <v>9517.2214000000004</v>
       </c>
-      <c r="AM213" s="12">
-        <v>100</v>
+      <c r="AM213" s="3">
+        <v>3.0945</v>
       </c>
       <c r="AN213" s="3">
         <v>124</v>
@@ -30710,11 +30403,8 @@
       <c r="BE213" s="3">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="BF213" s="3">
-        <v>3.0945</v>
-      </c>
-    </row>
-    <row r="214" spans="2:58">
+    </row>
+    <row r="214" spans="2:57">
       <c r="B214" s="4">
         <v>2002</v>
       </c>
@@ -30826,8 +30516,8 @@
       <c r="AL214" s="10">
         <v>9644.9868000000006</v>
       </c>
-      <c r="AM214" s="12">
-        <v>113</v>
+      <c r="AM214" s="3">
+        <v>2.7568000000000001</v>
       </c>
       <c r="AN214" s="3">
         <v>140</v>
@@ -30883,11 +30573,8 @@
       <c r="BE214" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="BF214" s="3">
-        <v>2.7568000000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="2:58">
+    </row>
+    <row r="215" spans="2:57">
       <c r="B215" s="4">
         <v>2002.25</v>
       </c>
@@ -30999,8 +30686,8 @@
       <c r="AL215" s="10">
         <v>9858.2685999999994</v>
       </c>
-      <c r="AM215" s="12">
-        <v>109</v>
+      <c r="AM215" s="3">
+        <v>3.1526999999999998</v>
       </c>
       <c r="AN215" s="3">
         <v>130</v>
@@ -31056,11 +30743,8 @@
       <c r="BE215" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="BF215" s="3">
-        <v>3.1526999999999998</v>
-      </c>
-    </row>
-    <row r="216" spans="2:58">
+    </row>
+    <row r="216" spans="2:57">
       <c r="B216" s="4">
         <v>2002.5</v>
       </c>
@@ -31172,8 +30856,8 @@
       <c r="AL216" s="10">
         <v>9757.9624999999996</v>
       </c>
-      <c r="AM216" s="12">
-        <v>96</v>
+      <c r="AM216" s="3">
+        <v>4.1440999999999999</v>
       </c>
       <c r="AN216" s="3">
         <v>121</v>
@@ -31229,11 +30913,8 @@
       <c r="BE216" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="BF216" s="3">
-        <v>4.1440999999999999</v>
-      </c>
-    </row>
-    <row r="217" spans="2:58">
+    </row>
+    <row r="217" spans="2:57">
       <c r="B217" s="4">
         <v>2002.75</v>
       </c>
@@ -31345,8 +31026,8 @@
       <c r="AL217" s="10">
         <v>9805.7348999999995</v>
       </c>
-      <c r="AM217" s="12">
-        <v>92</v>
+      <c r="AM217" s="3">
+        <v>3.87</v>
       </c>
       <c r="AN217" s="3">
         <v>115</v>
@@ -31402,11 +31083,8 @@
       <c r="BE217" s="3">
         <v>0.1</v>
       </c>
-      <c r="BF217" s="3">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="218" spans="2:58">
+    </row>
+    <row r="218" spans="2:57">
       <c r="B218" s="4">
         <v>2003</v>
       </c>
@@ -31518,8 +31196,8 @@
       <c r="AL218" s="10">
         <v>9876.2742999999991</v>
       </c>
-      <c r="AM218" s="12">
-        <v>86</v>
+      <c r="AM218" s="3">
+        <v>3.2366999999999999</v>
       </c>
       <c r="AN218" s="3">
         <v>103</v>
@@ -31575,11 +31253,8 @@
       <c r="BE218" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="BF218" s="3">
-        <v>3.2366999999999999</v>
-      </c>
-    </row>
-    <row r="219" spans="2:58">
+    </row>
+    <row r="219" spans="2:57">
       <c r="B219" s="4">
         <v>2003.25</v>
       </c>
@@ -31691,8 +31366,8 @@
       <c r="AL219" s="10">
         <v>9931.6479999999992</v>
       </c>
-      <c r="AM219" s="12">
-        <v>103</v>
+      <c r="AM219" s="3">
+        <v>2.6349999999999998</v>
       </c>
       <c r="AN219" s="3">
         <v>126</v>
@@ -31748,11 +31423,8 @@
       <c r="BE219" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="BF219" s="3">
-        <v>2.6349999999999998</v>
-      </c>
-    </row>
-    <row r="220" spans="2:58">
+    </row>
+    <row r="220" spans="2:57">
       <c r="B220" s="4">
         <v>2003.5</v>
       </c>
@@ -31864,8 +31536,8 @@
       <c r="AL220" s="10">
         <v>10058.7102</v>
       </c>
-      <c r="AM220" s="12">
-        <v>95</v>
+      <c r="AM220" s="3">
+        <v>2.359</v>
       </c>
       <c r="AN220" s="3">
         <v>120</v>
@@ -31921,11 +31593,8 @@
       <c r="BE220" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BF220" s="3">
-        <v>2.359</v>
-      </c>
-    </row>
-    <row r="221" spans="2:58">
+    </row>
+    <row r="221" spans="2:57">
       <c r="B221" s="4">
         <v>2003.75</v>
       </c>
@@ -32037,8 +31706,8 @@
       <c r="AL221" s="10">
         <v>10284.9851</v>
       </c>
-      <c r="AM221" s="12">
-        <v>105</v>
+      <c r="AM221" s="3">
+        <v>1.982</v>
       </c>
       <c r="AN221" s="3">
         <v>124</v>
@@ -32094,11 +31763,8 @@
       <c r="BE221" s="3">
         <v>0.12</v>
       </c>
-      <c r="BF221" s="3">
-        <v>1.982</v>
-      </c>
-    </row>
-    <row r="222" spans="2:58">
+    </row>
+    <row r="222" spans="2:57">
       <c r="B222" s="4">
         <v>2004</v>
       </c>
@@ -32210,8 +31876,8 @@
       <c r="AL222" s="10">
         <v>11141.102999999999</v>
       </c>
-      <c r="AM222" s="12">
-        <v>114</v>
+      <c r="AM222" s="3">
+        <v>1.8884000000000001</v>
       </c>
       <c r="AN222" s="3">
         <v>127</v>
@@ -32267,11 +31933,8 @@
       <c r="BE222" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="BF222" s="3">
-        <v>1.8884000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="2:58">
+    </row>
+    <row r="223" spans="2:57">
       <c r="B223" s="4">
         <v>2004.25</v>
       </c>
@@ -32383,8 +32046,8 @@
       <c r="AL223" s="10">
         <v>11245.808000000001</v>
       </c>
-      <c r="AM223" s="12">
-        <v>103</v>
+      <c r="AM223" s="3">
+        <v>1.8445</v>
       </c>
       <c r="AN223" s="3">
         <v>119</v>
@@ -32440,11 +32103,8 @@
       <c r="BE223" s="3">
         <v>0.115</v>
       </c>
-      <c r="BF223" s="3">
-        <v>1.8445</v>
-      </c>
-    </row>
-    <row r="224" spans="2:58">
+    </row>
+    <row r="224" spans="2:57">
       <c r="B224" s="4">
         <v>2004.5</v>
       </c>
@@ -32556,8 +32216,8 @@
       <c r="AL224" s="10">
         <v>11267.0409</v>
       </c>
-      <c r="AM224" s="12">
-        <v>109</v>
+      <c r="AM224" s="3">
+        <v>1.8208</v>
       </c>
       <c r="AN224" s="3">
         <v>124</v>
@@ -32613,11 +32273,8 @@
       <c r="BE224" s="3">
         <v>0.11</v>
       </c>
-      <c r="BF224" s="3">
-        <v>1.8208</v>
-      </c>
-    </row>
-    <row r="225" spans="2:58">
+    </row>
+    <row r="225" spans="2:57">
       <c r="B225" s="4">
         <v>2004.75</v>
       </c>
@@ -32729,8 +32386,8 @@
       <c r="AL225" s="10">
         <v>11366.8073</v>
       </c>
-      <c r="AM225" s="12">
-        <v>105</v>
+      <c r="AM225" s="3">
+        <v>1.6519999999999999</v>
       </c>
       <c r="AN225" s="3">
         <v>119</v>
@@ -32786,11 +32443,8 @@
       <c r="BE225" s="3">
         <v>0.13600000000000001</v>
       </c>
-      <c r="BF225" s="3">
-        <v>1.6519999999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="2:58">
+    </row>
+    <row r="226" spans="2:57">
       <c r="B226" s="4">
         <v>2005</v>
       </c>
@@ -32902,8 +32556,8 @@
       <c r="AL226" s="10">
         <v>11473.721299999999</v>
       </c>
-      <c r="AM226" s="12">
-        <v>97</v>
+      <c r="AM226" s="3">
+        <v>1.8519000000000001</v>
       </c>
       <c r="AN226" s="3">
         <v>110</v>
@@ -32959,11 +32613,8 @@
       <c r="BE226" s="3">
         <v>0.13300000000000001</v>
       </c>
-      <c r="BF226" s="3">
-        <v>1.8519000000000001</v>
-      </c>
-    </row>
-    <row r="227" spans="2:58">
+    </row>
+    <row r="227" spans="2:57">
       <c r="B227" s="4">
         <v>2005.25</v>
       </c>
@@ -33075,8 +32726,8 @@
       <c r="AL227" s="10">
         <v>11533.703299999999</v>
       </c>
-      <c r="AM227" s="12">
-        <v>93</v>
+      <c r="AM227" s="3">
+        <v>1.9699</v>
       </c>
       <c r="AN227" s="3">
         <v>100</v>
@@ -33132,11 +32783,8 @@
       <c r="BE227" s="3">
         <v>0.15</v>
       </c>
-      <c r="BF227" s="3">
-        <v>1.9699</v>
-      </c>
-    </row>
-    <row r="228" spans="2:58">
+    </row>
+    <row r="228" spans="2:57">
       <c r="B228" s="4">
         <v>2005.5</v>
       </c>
@@ -33248,8 +32896,8 @@
       <c r="AL228" s="10">
         <v>11573.257100000001</v>
       </c>
-      <c r="AM228" s="12">
-        <v>86</v>
+      <c r="AM228" s="3">
+        <v>1.7806999999999999</v>
       </c>
       <c r="AN228" s="3">
         <v>94</v>
@@ -33305,11 +32953,8 @@
       <c r="BE228" s="3">
         <v>0.1555</v>
       </c>
-      <c r="BF228" s="3">
-        <v>1.7806999999999999</v>
-      </c>
-    </row>
-    <row r="229" spans="2:58">
+    </row>
+    <row r="229" spans="2:57">
       <c r="B229" s="4">
         <v>2005.75</v>
       </c>
@@ -33421,8 +33066,8 @@
       <c r="AL229" s="10">
         <v>11652.688599999999</v>
       </c>
-      <c r="AM229" s="12">
-        <v>80</v>
+      <c r="AM229" s="3">
+        <v>1.8502000000000001</v>
       </c>
       <c r="AN229" s="3">
         <v>96</v>
@@ -33478,11 +33123,8 @@
       <c r="BE229" s="3">
         <v>0.14699999999999999</v>
       </c>
-      <c r="BF229" s="3">
-        <v>1.8502000000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="2:58">
+    </row>
+    <row r="230" spans="2:57">
       <c r="B230" s="4">
         <v>2006</v>
       </c>
@@ -33594,8 +33236,8 @@
       <c r="AL230" s="10">
         <v>11703.1333</v>
       </c>
-      <c r="AM230" s="12">
-        <v>86</v>
+      <c r="AM230" s="3">
+        <v>1.6903999999999999</v>
       </c>
       <c r="AN230" s="3">
         <v>98</v>
@@ -33651,11 +33293,8 @@
       <c r="BE230" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="BF230" s="3">
-        <v>1.6903999999999999</v>
-      </c>
-    </row>
-    <row r="231" spans="2:58">
+    </row>
+    <row r="231" spans="2:57">
       <c r="B231" s="4">
         <v>2006.25</v>
       </c>
@@ -33767,8 +33406,8 @@
       <c r="AL231" s="10">
         <v>11813.453100000001</v>
       </c>
-      <c r="AM231" s="12">
-        <v>81</v>
+      <c r="AM231" s="3">
+        <v>1.6846000000000001</v>
       </c>
       <c r="AN231" s="3">
         <v>86</v>
@@ -33824,11 +33463,8 @@
       <c r="BE231" s="3">
         <v>0.18</v>
       </c>
-      <c r="BF231" s="3">
-        <v>1.6846000000000001</v>
-      </c>
-    </row>
-    <row r="232" spans="2:58">
+    </row>
+    <row r="232" spans="2:57">
       <c r="B232" s="4">
         <v>2006.5</v>
       </c>
@@ -33940,8 +33576,8 @@
       <c r="AL232" s="10">
         <v>11781.614</v>
       </c>
-      <c r="AM232" s="12">
-        <v>86</v>
+      <c r="AM232" s="3">
+        <v>1.772</v>
       </c>
       <c r="AN232" s="3">
         <v>89</v>
@@ -33997,11 +33633,8 @@
       <c r="BE232" s="3">
         <v>0.14099999999999999</v>
       </c>
-      <c r="BF232" s="3">
-        <v>1.772</v>
-      </c>
-    </row>
-    <row r="233" spans="2:58">
+    </row>
+    <row r="233" spans="2:57">
       <c r="B233" s="4">
         <v>2006.75</v>
       </c>
@@ -34113,8 +33746,8 @@
       <c r="AL233" s="10">
         <v>11818.911</v>
       </c>
-      <c r="AM233" s="12">
-        <v>97</v>
+      <c r="AM233" s="3">
+        <v>1.6173999999999999</v>
       </c>
       <c r="AN233" s="3">
         <v>102</v>
@@ -34170,11 +33803,8 @@
       <c r="BE233" s="3">
         <v>0.13880000000000001</v>
       </c>
-      <c r="BF233" s="3">
-        <v>1.6173999999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="2:58">
+    </row>
+    <row r="234" spans="2:57">
       <c r="B234" s="4">
         <v>2007</v>
       </c>
@@ -34286,8 +33916,8 @@
       <c r="AL234" s="10">
         <v>11951.517400000001</v>
       </c>
-      <c r="AM234" s="12">
-        <v>100</v>
+      <c r="AM234" s="3">
+        <v>1.5329999999999999</v>
       </c>
       <c r="AN234" s="3">
         <v>101</v>
@@ -34343,11 +33973,8 @@
       <c r="BE234" s="3">
         <v>0.1232</v>
       </c>
-      <c r="BF234" s="3">
-        <v>1.5329999999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="2:58">
+    </row>
+    <row r="235" spans="2:57">
       <c r="B235" s="4">
         <v>2007.25</v>
       </c>
@@ -34459,8 +34086,8 @@
       <c r="AL235" s="10">
         <v>11945.093000000001</v>
       </c>
-      <c r="AM235" s="12">
-        <v>89</v>
+      <c r="AM235" s="3">
+        <v>1.6978</v>
       </c>
       <c r="AN235" s="3">
         <v>93</v>
@@ -34516,11 +34143,8 @@
       <c r="BE235" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="BF235" s="3">
-        <v>1.6978</v>
-      </c>
-    </row>
-    <row r="236" spans="2:58">
+    </row>
+    <row r="236" spans="2:57">
       <c r="B236" s="4">
         <v>2007.5</v>
       </c>
@@ -34632,8 +34256,8 @@
       <c r="AL236" s="10">
         <v>11888.040800000001</v>
       </c>
-      <c r="AM236" s="12">
-        <v>93</v>
+      <c r="AM236" s="3">
+        <v>2.2343999999999999</v>
       </c>
       <c r="AN236" s="3">
         <v>93</v>
@@ -34689,11 +34313,8 @@
       <c r="BE236" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="BF236" s="3">
-        <v>2.2343999999999999</v>
-      </c>
-    </row>
-    <row r="237" spans="2:58">
+    </row>
+    <row r="237" spans="2:57">
       <c r="B237" s="4">
         <v>2007.75</v>
       </c>
@@ -34805,8 +34426,8 @@
       <c r="AL237" s="10">
         <v>11965.8781</v>
       </c>
-      <c r="AM237" s="12">
-        <v>80</v>
+      <c r="AM237" s="3">
+        <v>2.7972999999999999</v>
       </c>
       <c r="AN237" s="3">
         <v>87</v>
@@ -34862,11 +34483,8 @@
       <c r="BE237" s="3">
         <v>0.1971</v>
       </c>
-      <c r="BF237" s="3">
-        <v>2.7972999999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="2:58">
+    </row>
+    <row r="238" spans="2:57">
       <c r="B238" s="4">
         <v>2008</v>
       </c>
@@ -34978,8 +34596,8 @@
       <c r="AL238" s="10">
         <v>11979.1163</v>
       </c>
-      <c r="AM238" s="12">
-        <v>84</v>
+      <c r="AM238" s="3">
+        <v>3.5019999999999998</v>
       </c>
       <c r="AN238" s="3">
         <v>92</v>
@@ -35035,11 +34653,8 @@
       <c r="BE238" s="3">
         <v>0.20100000000000001</v>
       </c>
-      <c r="BF238" s="3">
-        <v>3.5019999999999998</v>
-      </c>
-    </row>
-    <row r="239" spans="2:58">
+    </row>
+    <row r="239" spans="2:57">
       <c r="B239" s="4">
         <v>2008.25</v>
       </c>
@@ -35151,8 +34766,8 @@
       <c r="AL239" s="10">
         <v>11936.965700000001</v>
       </c>
-      <c r="AM239" s="12">
-        <v>66</v>
+      <c r="AM239" s="3">
+        <v>3.4013</v>
       </c>
       <c r="AN239" s="3">
         <v>78</v>
@@ -35208,11 +34823,8 @@
       <c r="BE239" s="3">
         <v>0.1076</v>
       </c>
-      <c r="BF239" s="3">
-        <v>3.4013</v>
-      </c>
-    </row>
-    <row r="240" spans="2:58">
+    </row>
+    <row r="240" spans="2:57">
       <c r="B240" s="4">
         <v>2008.5</v>
       </c>
@@ -35324,8 +34936,8 @@
       <c r="AL240" s="10">
         <v>11931.8172</v>
       </c>
-      <c r="AM240" s="12">
-        <v>74</v>
+      <c r="AM240" s="3">
+        <v>4.8465999999999996</v>
       </c>
       <c r="AN240" s="3">
         <v>93</v>
@@ -35381,11 +34993,8 @@
       <c r="BE240" s="3">
         <v>0.22</v>
       </c>
-      <c r="BF240" s="3">
-        <v>4.8465999999999996</v>
-      </c>
-    </row>
-    <row r="241" spans="2:58">
+    </row>
+    <row r="241" spans="2:57">
       <c r="B241" s="4">
         <v>2008.75</v>
       </c>
@@ -35497,8 +35106,8 @@
       <c r="AL241" s="10">
         <v>11735.748600000001</v>
       </c>
-      <c r="AM241" s="12">
-        <v>67</v>
+      <c r="AM241" s="3">
+        <v>7.2518000000000002</v>
       </c>
       <c r="AN241" s="3">
         <v>100</v>
@@ -35554,11 +35163,8 @@
       <c r="BE241" s="3">
         <v>0.17</v>
       </c>
-      <c r="BF241" s="3">
-        <v>7.2518000000000002</v>
-      </c>
-    </row>
-    <row r="242" spans="2:58">
+    </row>
+    <row r="242" spans="2:57">
       <c r="B242" s="4">
         <v>2009</v>
       </c>
@@ -35670,8 +35276,8 @@
       <c r="AL242" s="10">
         <v>11550.893599999999</v>
       </c>
-      <c r="AM242" s="12">
-        <v>66</v>
+      <c r="AM242" s="3">
+        <v>6.0926</v>
       </c>
       <c r="AN242" s="3">
         <v>102</v>
@@ -35727,11 +35333,8 @@
       <c r="BE242" s="3">
         <v>0.16830000000000001</v>
       </c>
-      <c r="BF242" s="3">
-        <v>6.0926</v>
-      </c>
-    </row>
-    <row r="243" spans="2:58">
+    </row>
+    <row r="243" spans="2:57">
       <c r="B243" s="4">
         <v>2009.25</v>
       </c>
@@ -35843,8 +35446,8 @@
       <c r="AL243" s="10">
         <v>11502.073399999999</v>
       </c>
-      <c r="AM243" s="12">
-        <v>85</v>
+      <c r="AM243" s="3">
+        <v>4.5029000000000003</v>
       </c>
       <c r="AN243" s="3">
         <v>119</v>
@@ -35900,11 +35503,8 @@
       <c r="BE243" s="3">
         <v>0.22670000000000001</v>
       </c>
-      <c r="BF243" s="3">
-        <v>4.5029000000000003</v>
-      </c>
-    </row>
-    <row r="244" spans="2:58">
+    </row>
+    <row r="244" spans="2:57">
       <c r="B244" s="4">
         <v>2009.5</v>
       </c>
@@ -36016,8 +35616,8 @@
       <c r="AL244" s="10">
         <v>13302.1441</v>
       </c>
-      <c r="AM244" s="12">
-        <v>81</v>
+      <c r="AM244" s="3">
+        <v>3.1901999999999999</v>
       </c>
       <c r="AN244" s="3">
         <v>119</v>
@@ -36073,11 +35673,8 @@
       <c r="BE244" s="3">
         <v>0.19900000000000001</v>
       </c>
-      <c r="BF244" s="3">
-        <v>3.1901999999999999</v>
-      </c>
-    </row>
-    <row r="245" spans="2:58">
+    </row>
+    <row r="245" spans="2:57">
       <c r="B245" s="4">
         <v>2009.75</v>
       </c>
@@ -36189,8 +35786,8 @@
       <c r="AL245" s="10">
         <v>13464.8354</v>
       </c>
-      <c r="AM245" s="12">
-        <v>80</v>
+      <c r="AM245" s="3">
+        <v>2.6547999999999998</v>
       </c>
       <c r="AN245" s="3">
         <v>116</v>
@@ -36246,11 +35843,8 @@
       <c r="BE245" s="3">
         <v>0.13350000000000001</v>
       </c>
-      <c r="BF245" s="3">
-        <v>2.6547999999999998</v>
-      </c>
-    </row>
-    <row r="246" spans="2:58">
+    </row>
+    <row r="246" spans="2:57">
       <c r="B246" s="4">
         <v>2010</v>
       </c>
@@ -36362,8 +35956,8 @@
       <c r="AL246" s="10">
         <v>13624.8172</v>
       </c>
-      <c r="AM246" s="12">
-        <v>84</v>
+      <c r="AM246" s="3">
+        <v>2.3338000000000001</v>
       </c>
       <c r="AN246" s="3">
         <v>120</v>
@@ -36419,11 +36013,8 @@
       <c r="BE246" s="3">
         <v>0.24</v>
       </c>
-      <c r="BF246" s="3">
-        <v>2.3338000000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="2:58">
+    </row>
+    <row r="247" spans="2:57">
       <c r="B247" s="4">
         <v>2010.25</v>
       </c>
@@ -36535,8 +36126,8 @@
       <c r="AL247" s="10">
         <v>13770.6744</v>
       </c>
-      <c r="AM247" s="12">
-        <v>81</v>
+      <c r="AM247" s="3">
+        <v>2.5171999999999999</v>
       </c>
       <c r="AN247" s="3">
         <v>114</v>
@@ -36592,11 +36183,8 @@
       <c r="BE247" s="3">
         <v>0.22800000000000001</v>
       </c>
-      <c r="BF247" s="3">
-        <v>2.5171999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="2:58">
+    </row>
+    <row r="248" spans="2:57">
       <c r="B248" s="4">
         <v>2010.5</v>
       </c>
@@ -36708,8 +36296,8 @@
       <c r="AL248" s="10">
         <v>13676.7464</v>
       </c>
-      <c r="AM248" s="12">
-        <v>74</v>
+      <c r="AM248" s="3">
+        <v>2.5743</v>
       </c>
       <c r="AN248" s="3">
         <v>103</v>
@@ -36765,11 +36353,8 @@
       <c r="BE248" s="3">
         <v>0.19700000000000001</v>
       </c>
-      <c r="BF248" s="3">
-        <v>2.5743</v>
-      </c>
-    </row>
-    <row r="249" spans="2:58">
+    </row>
+    <row r="249" spans="2:57">
       <c r="B249" s="4">
         <v>2010.75</v>
       </c>
@@ -36881,8 +36466,8 @@
       <c r="AL249" s="10">
         <v>13715.589099999999</v>
       </c>
-      <c r="AM249" s="12">
-        <v>75</v>
+      <c r="AM249" s="3">
+        <v>2.3157999999999999</v>
       </c>
       <c r="AN249" s="3">
         <v>114</v>
@@ -36938,11 +36523,8 @@
       <c r="BE249" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="BF249" s="3">
-        <v>2.3157999999999999</v>
-      </c>
-    </row>
-    <row r="250" spans="2:58">
+    </row>
+    <row r="250" spans="2:57">
       <c r="B250" s="4">
         <v>2011</v>
       </c>
@@ -37054,8 +36636,8 @@
       <c r="AL250" s="10">
         <v>13951.4679</v>
       </c>
-      <c r="AM250" s="12">
-        <v>78</v>
+      <c r="AM250" s="3">
+        <v>2.0299</v>
       </c>
       <c r="AN250" s="3">
         <v>112</v>
@@ -37111,11 +36693,8 @@
       <c r="BE250" s="3">
         <v>0.19500000000000001</v>
       </c>
-      <c r="BF250" s="3">
-        <v>2.0299</v>
-      </c>
-    </row>
-    <row r="251" spans="2:58">
+    </row>
+    <row r="251" spans="2:57">
       <c r="B251" s="4">
         <v>2011.25</v>
       </c>
@@ -37227,8 +36806,8 @@
       <c r="AL251" s="10">
         <v>13980.0453</v>
       </c>
-      <c r="AM251" s="12">
-        <v>78</v>
+      <c r="AM251" s="3">
+        <v>2.1107</v>
       </c>
       <c r="AN251" s="3">
         <v>108</v>
@@ -37284,11 +36863,8 @@
       <c r="BE251" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="BF251" s="3">
-        <v>2.1107</v>
-      </c>
-    </row>
-    <row r="252" spans="2:58">
+    </row>
+    <row r="252" spans="2:57">
       <c r="B252" s="4">
         <v>2011.5</v>
       </c>
@@ -37400,8 +36976,8 @@
       <c r="AL252" s="10">
         <v>13685.0682</v>
       </c>
-      <c r="AM252" s="12">
-        <v>55</v>
+      <c r="AM252" s="3">
+        <v>2.7482000000000002</v>
       </c>
       <c r="AN252" s="3">
         <v>91</v>
@@ -37457,11 +37033,8 @@
       <c r="BE252" s="3">
         <v>0.123</v>
       </c>
-      <c r="BF252" s="3">
-        <v>2.7482000000000002</v>
-      </c>
-    </row>
-    <row r="253" spans="2:58">
+    </row>
+    <row r="253" spans="2:57">
       <c r="B253" s="4">
         <v>2011.75</v>
       </c>
@@ -37549,8 +37122,8 @@
       <c r="AL253" s="10">
         <v>13770.545700000001</v>
       </c>
-      <c r="AM253" s="12">
-        <v>64</v>
+      <c r="AM253" s="3">
+        <v>2.8654000000000002</v>
       </c>
       <c r="AN253" s="3">
         <v>98</v>
@@ -37606,11 +37179,8 @@
       <c r="BE253" s="3">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="BF253" s="3">
-        <v>2.8654000000000002</v>
-      </c>
-    </row>
-    <row r="254" spans="2:58">
+    </row>
+    <row r="254" spans="2:57">
       <c r="B254" s="4">
         <v>2012</v>
       </c>
@@ -37698,8 +37268,8 @@
       <c r="AL254" s="10">
         <v>13850.800800000001</v>
       </c>
-      <c r="AM254" s="12">
-        <v>87</v>
+      <c r="AM254" s="3">
+        <v>2.5446</v>
       </c>
       <c r="AN254" s="3">
         <v>116</v>
@@ -37755,11 +37325,8 @@
       <c r="BE254" s="3">
         <v>0.1132</v>
       </c>
-      <c r="BF254" s="3">
-        <v>2.5446</v>
-      </c>
-    </row>
-    <row r="255" spans="2:58">
+    </row>
+    <row r="255" spans="2:57">
       <c r="B255" s="4">
         <v>2012.25</v>
       </c>
@@ -37847,8 +37414,8 @@
       <c r="AL255" s="10">
         <v>13935.9372</v>
       </c>
-      <c r="AM255" s="12">
-        <v>89</v>
+      <c r="AM255" s="3">
+        <v>2.6608999999999998</v>
       </c>
       <c r="AN255" s="3">
         <v>116</v>
@@ -37904,11 +37471,8 @@
       <c r="BE255" s="3">
         <v>0.12870000000000001</v>
       </c>
-      <c r="BF255" s="3">
-        <v>2.6608999999999998</v>
-      </c>
-    </row>
-    <row r="256" spans="2:58">
+    </row>
+    <row r="256" spans="2:57">
       <c r="B256" s="4">
         <v>2012.5</v>
       </c>
@@ -37996,8 +37560,8 @@
       <c r="AL256" s="10">
         <v>13891.9807</v>
       </c>
-      <c r="AM256" s="12">
-        <v>84</v>
+      <c r="AM256" s="3">
+        <v>2.4359999999999999</v>
       </c>
       <c r="AN256" s="3">
         <v>114</v>
@@ -38053,11 +37617,8 @@
       <c r="BE256" s="3">
         <v>0.1411</v>
       </c>
-      <c r="BF256" s="3">
-        <v>2.4359999999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="2:58">
+    </row>
+    <row r="257" spans="2:57">
       <c r="B257" s="4">
         <v>2012.75</v>
       </c>
@@ -38145,8 +37706,8 @@
       <c r="AL257" s="10">
         <v>13997.2996</v>
       </c>
-      <c r="AM257" s="12">
-        <v>93</v>
+      <c r="AM257" s="3">
+        <v>2.2204999999999999</v>
       </c>
       <c r="AN257" s="3">
         <v>115</v>
@@ -38202,11 +37763,8 @@
       <c r="BE257" s="3">
         <v>0.12429999999999999</v>
       </c>
-      <c r="BF257" s="3">
-        <v>2.2204999999999999</v>
-      </c>
-    </row>
-    <row r="258" spans="2:58">
+    </row>
+    <row r="258" spans="2:57">
       <c r="B258" s="4">
         <v>2013</v>
       </c>
@@ -38294,8 +37852,8 @@
       <c r="AL258" s="10">
         <v>14083.2801</v>
       </c>
-      <c r="AM258" s="12">
-        <v>83</v>
+      <c r="AM258" s="3">
+        <v>2.1053999999999999</v>
       </c>
       <c r="AN258" s="3">
         <v>107</v>
@@ -38351,11 +37909,8 @@
       <c r="BE258" s="3">
         <v>0.1489</v>
       </c>
-      <c r="BF258" s="3">
-        <v>2.1053999999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="2:58">
+    </row>
+    <row r="259" spans="2:57">
       <c r="B259" s="4">
         <v>2013.25</v>
       </c>
@@ -38443,8 +37998,8 @@
       <c r="AL259" s="10">
         <v>14191.8524</v>
       </c>
-      <c r="AM259" s="12">
-        <v>87</v>
+      <c r="AM259" s="3">
+        <v>2.0493000000000001</v>
       </c>
       <c r="AN259" s="3">
         <v>110</v>
@@ -38500,11 +38055,8 @@
       <c r="BE259" s="3">
         <v>0.14580000000000001</v>
       </c>
-      <c r="BF259" s="3">
-        <v>2.0493000000000001</v>
-      </c>
-    </row>
-    <row r="260" spans="2:58">
+    </row>
+    <row r="260" spans="2:57">
       <c r="B260" s="4">
         <v>2013.5</v>
       </c>
@@ -38592,8 +38144,8 @@
       <c r="AL260" s="10">
         <v>16168.933000000001</v>
       </c>
-      <c r="AM260" s="12">
-        <v>82</v>
+      <c r="AM260" s="3">
+        <v>2.0004</v>
       </c>
       <c r="AN260" s="3">
         <v>101</v>
@@ -38649,11 +38201,8 @@
       <c r="BE260" s="3">
         <v>0.192</v>
       </c>
-      <c r="BF260" s="3">
-        <v>2.0004</v>
-      </c>
-    </row>
-    <row r="261" spans="2:58">
+    </row>
+    <row r="261" spans="2:57">
       <c r="B261" s="4">
         <v>2013.75</v>
       </c>
@@ -38741,8 +38290,8 @@
       <c r="AL261" s="10">
         <v>16298.6389</v>
       </c>
-      <c r="AM261" s="12">
-        <v>81</v>
+      <c r="AM261" s="3">
+        <v>1.8586</v>
       </c>
       <c r="AN261" s="3">
         <v>96</v>
@@ -38798,11 +38347,8 @@
       <c r="BE261" s="3">
         <v>0.22819999999999999</v>
       </c>
-      <c r="BF261" s="3">
-        <v>1.8586</v>
-      </c>
-    </row>
-    <row r="262" spans="2:58">
+    </row>
+    <row r="262" spans="2:57">
       <c r="B262" s="4">
         <v>2014</v>
       </c>
@@ -38890,8 +38436,8 @@
       <c r="AL262" s="10">
         <v>16517.545999999998</v>
       </c>
-      <c r="AM262" s="12">
-        <v>78</v>
+      <c r="AM262" s="3">
+        <v>1.6918</v>
       </c>
       <c r="AN262" s="3">
         <v>100</v>
@@ -38947,11 +38493,8 @@
       <c r="BE262" s="3">
         <v>0.1656</v>
       </c>
-      <c r="BF262" s="3">
-        <v>1.6918</v>
-      </c>
-    </row>
-    <row r="263" spans="2:58">
+    </row>
+    <row r="263" spans="2:57">
       <c r="B263" s="4">
         <v>2014.25</v>
       </c>
@@ -39039,8 +38582,8 @@
       <c r="AL263" s="10">
         <v>16556.617200000001</v>
       </c>
-      <c r="AM263" s="12">
-        <v>85</v>
+      <c r="AM263" s="3">
+        <v>1.5889</v>
       </c>
       <c r="AN263" s="3">
         <v>103</v>
@@ -39096,11 +38639,8 @@
       <c r="BE263" s="3">
         <v>0.18690000000000001</v>
       </c>
-      <c r="BF263" s="3">
-        <v>1.5889</v>
-      </c>
-    </row>
-    <row r="264" spans="2:58">
+    </row>
+    <row r="264" spans="2:57">
       <c r="B264" s="4">
         <v>2014.5</v>
       </c>
@@ -39188,8 +38728,8 @@
       <c r="AL264" s="10">
         <v>16588.095700000002</v>
       </c>
-      <c r="AM264" s="12">
-        <v>84</v>
+      <c r="AM264" s="3">
+        <v>1.6941999999999999</v>
       </c>
       <c r="AN264" s="3">
         <v>97</v>
@@ -39245,11 +38785,8 @@
       <c r="BE264" s="3">
         <v>0.1744</v>
       </c>
-      <c r="BF264" s="3">
-        <v>1.6941999999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="2:58">
+    </row>
+    <row r="265" spans="2:57">
       <c r="B265" s="4">
         <v>2014.75</v>
       </c>
@@ -39337,8 +38874,8 @@
       <c r="AL265" s="10">
         <v>16735.5494</v>
       </c>
-      <c r="AM265" s="12">
-        <v>99</v>
+      <c r="AM265" s="3">
+        <v>1.9925999999999999</v>
       </c>
       <c r="AN265" s="3">
         <v>110</v>
@@ -39394,11 +38931,8 @@
       <c r="BE265" s="3">
         <v>0.16969999999999999</v>
       </c>
-      <c r="BF265" s="3">
-        <v>1.9925999999999999</v>
-      </c>
-    </row>
-    <row r="266" spans="2:58">
+    </row>
+    <row r="266" spans="2:57">
       <c r="B266" s="4">
         <v>2015</v>
       </c>
@@ -39486,8 +39020,8 @@
       <c r="AL266" s="10">
         <v>16894.113000000001</v>
       </c>
-      <c r="AM266" s="12">
-        <v>109</v>
+      <c r="AM266" s="3">
+        <v>2.0068999999999999</v>
       </c>
       <c r="AN266" s="3">
         <v>115</v>
@@ -39543,11 +39077,8 @@
       <c r="BE266" s="3">
         <v>0.1177</v>
       </c>
-      <c r="BF266" s="3">
-        <v>2.0068999999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="2:58">
+    </row>
+    <row r="267" spans="2:57">
       <c r="B267" s="4">
         <v>2015.25</v>
       </c>
@@ -39635,8 +39166,8 @@
       <c r="AL267" s="10">
         <v>16872.451700000001</v>
       </c>
-      <c r="AM267" s="12">
-        <v>105</v>
+      <c r="AM267" s="3">
+        <v>2.0863999999999998</v>
       </c>
       <c r="AN267" s="3">
         <v>113</v>
@@ -39692,11 +39223,8 @@
       <c r="BE267" s="3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="BF267" s="3">
-        <v>2.0863999999999998</v>
-      </c>
-    </row>
-    <row r="268" spans="2:58">
+    </row>
+    <row r="268" spans="2:57">
       <c r="B268" s="4">
         <v>2015.5</v>
       </c>
@@ -39784,8 +39312,8 @@
       <c r="AL268" s="10">
         <v>16843.275699999998</v>
       </c>
-      <c r="AM268" s="12">
-        <v>98</v>
+      <c r="AM268" s="3">
+        <v>2.3969999999999998</v>
       </c>
       <c r="AN268" s="3">
         <v>102</v>
@@ -39841,11 +39369,8 @@
       <c r="BE268" s="3">
         <v>0.121</v>
       </c>
-      <c r="BF268" s="3">
-        <v>2.3969999999999998</v>
-      </c>
-    </row>
-    <row r="269" spans="2:58">
+    </row>
+    <row r="269" spans="2:57">
       <c r="B269" s="4">
         <v>2015.75</v>
       </c>
@@ -39933,8 +39458,8 @@
       <c r="AL269" s="10">
         <v>16943.550200000001</v>
       </c>
-      <c r="AM269" s="12">
-        <v>104</v>
+      <c r="AM269" s="3">
+        <v>2.6116000000000001</v>
       </c>
       <c r="AN269" s="3">
         <v>102</v>
@@ -39990,11 +39515,8 @@
       <c r="BE269" s="3">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="BF269" s="3">
-        <v>2.6116000000000001</v>
-      </c>
-    </row>
-    <row r="270" spans="2:58">
+    </row>
+    <row r="270" spans="2:57">
       <c r="B270" s="4">
         <v>2016</v>
       </c>
@@ -40082,8 +39604,8 @@
       <c r="AL270" s="10">
         <v>16928.802299999999</v>
       </c>
-      <c r="AM270" s="12">
-        <v>102</v>
+      <c r="AM270" s="3">
+        <v>2.6930000000000001</v>
       </c>
       <c r="AN270" s="3">
         <v>104</v>
@@ -40139,11 +39661,8 @@
       <c r="BE270" s="3">
         <v>0.13</v>
       </c>
-      <c r="BF270" s="3">
-        <v>2.6930000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="2:58">
+    </row>
+    <row r="271" spans="2:57">
       <c r="B271" s="4">
         <v>2016.25</v>
       </c>
@@ -40231,8 +39750,8 @@
       <c r="AL271" s="10">
         <v>16973.336599999999</v>
       </c>
-      <c r="AM271" s="12">
-        <v>101</v>
+      <c r="AM271" s="3">
+        <v>2.0855000000000001</v>
       </c>
       <c r="AN271" s="3">
         <v>102</v>
@@ -40288,11 +39807,8 @@
       <c r="BE271" s="3">
         <v>0.14080000000000001</v>
       </c>
-      <c r="BF271" s="3">
-        <v>2.0855000000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="2:58">
+    </row>
+    <row r="272" spans="2:57">
       <c r="B272" s="4">
         <v>2016.5</v>
       </c>
@@ -40380,9 +39896,6 @@
       <c r="AL272" s="10">
         <v>17066.220099999999</v>
       </c>
-      <c r="AM272" s="12">
-        <v>98</v>
-      </c>
       <c r="AN272" s="3">
         <v>104</v>
       </c>
@@ -40526,9 +40039,6 @@
       <c r="AL273" s="10">
         <v>17176.599699999999</v>
       </c>
-      <c r="AM273" s="12">
-        <v>103</v>
-      </c>
       <c r="AN273" s="3">
         <v>110</v>
       </c>
@@ -40672,9 +40182,6 @@
       <c r="AL274" s="10">
         <v>17305.7156</v>
       </c>
-      <c r="AM274" s="12">
-        <v>109</v>
-      </c>
       <c r="AN274" s="3">
         <v>117</v>
       </c>
@@ -40818,9 +40325,6 @@
       <c r="AL275" s="10">
         <v>17398.7997</v>
       </c>
-      <c r="AM275" s="12">
-        <v>102</v>
-      </c>
       <c r="AN275" s="3">
         <v>114</v>
       </c>
@@ -40964,9 +40468,6 @@
       <c r="AL276" s="10">
         <v>17536.6898</v>
       </c>
-      <c r="AM276" s="3">
-        <v>95</v>
-      </c>
       <c r="AN276" s="3">
         <v>106</v>
       </c>
@@ -41107,9 +40608,6 @@
       <c r="AL277" s="10">
         <v>17684.021700000001</v>
       </c>
-      <c r="AM277" s="3">
-        <v>102</v>
-      </c>
       <c r="AN277" s="3">
         <v>111</v>
       </c>
@@ -41250,9 +40748,6 @@
       <c r="AL278" s="10">
         <v>17865.490399999999</v>
       </c>
-      <c r="AM278" s="3">
-        <v>102</v>
-      </c>
       <c r="AN278" s="3">
         <v>113</v>
       </c>
@@ -41386,9 +40881,6 @@
       </c>
       <c r="AL279" s="10">
         <v>17994.831900000001</v>
-      </c>
-      <c r="AM279" s="3">
-        <v>107</v>
       </c>
       <c r="AN279" s="3">
         <v>107</v>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -971,7 +971,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="AN75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AQ80" sqref="AQ80"/>
+      <selection pane="bottomRight" activeCell="AU89" sqref="AU89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -968,10 +968,10 @@
   <dimension ref="A1:BK937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AN75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AU89" sqref="AU89"/>
+      <selection pane="bottomRight" activeCell="AL279" sqref="AL279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1990,7 +1990,7 @@
         <v>8.077</v>
       </c>
       <c r="AM6" s="10">
-        <v>1315.3637977300109</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="10">
@@ -2052,7 +2052,7 @@
         <v>11.791</v>
       </c>
       <c r="AM7" s="10">
-        <v>1375.5980020250099</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="10"/>
       <c r="AO7" s="10">
@@ -2114,7 +2114,7 @@
         <v>15.481999999999999</v>
       </c>
       <c r="AM8" s="10">
-        <v>1425.014641360011</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="10"/>
       <c r="AO8" s="10">
@@ -2176,7 +2176,7 @@
         <v>49.588000000000001</v>
       </c>
       <c r="AM9" s="10">
-        <v>1619.9198181250101</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10">
@@ -2238,7 +2238,7 @@
         <v>30.81</v>
       </c>
       <c r="AM10" s="10">
-        <v>1926.8377365500105</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="10">
@@ -2300,7 +2300,7 @@
         <v>44.798999999999999</v>
       </c>
       <c r="AM11" s="10">
-        <v>1986.3859474900109</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10">
@@ -2362,7 +2362,7 @@
         <v>29.54</v>
       </c>
       <c r="AM12" s="10">
-        <v>2196.1023644100101</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10">
@@ -2424,7 +2424,7 @@
         <v>12.695</v>
       </c>
       <c r="AM13" s="10">
-        <v>2312.9808071350089</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="10">
@@ -2489,7 +2489,7 @@
         <v>15.929</v>
       </c>
       <c r="AM14" s="10">
-        <v>2405.5867691550088</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="10"/>
       <c r="AO14" s="10">
@@ -2554,7 +2554,7 @@
         <v>-3.8740000000000001</v>
       </c>
       <c r="AM15" s="10">
-        <v>2665.6901069500104</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="10"/>
       <c r="AO15" s="10">
@@ -2619,7 +2619,7 @@
         <v>17.649000000000001</v>
       </c>
       <c r="AM16" s="10">
-        <v>2819.7811472300114</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="10"/>
       <c r="AO16" s="10">
@@ -2684,7 +2684,7 @@
         <v>17.698</v>
       </c>
       <c r="AM17" s="10">
-        <v>2805.8586859450079</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="10"/>
       <c r="AO17" s="10">
@@ -2749,7 +2749,7 @@
         <v>14.301</v>
       </c>
       <c r="AM18" s="10">
-        <v>2964.8979311550083</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="10"/>
       <c r="AO18" s="10">
@@ -2814,7 +2814,7 @@
         <v>14.031000000000001</v>
       </c>
       <c r="AM19" s="10">
-        <v>2777.0499242100091</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="10"/>
       <c r="AO19" s="10">
@@ -2879,7 +2879,7 @@
         <v>8.5109999999999992</v>
       </c>
       <c r="AM20" s="10">
-        <v>2548.0467754350093</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="10"/>
       <c r="AO20" s="10">
@@ -2944,7 +2944,7 @@
         <v>-7.2960000000000003</v>
       </c>
       <c r="AM21" s="10">
-        <v>2503.5206714350097</v>
+        <v>1</v>
       </c>
       <c r="AN21" s="10"/>
       <c r="AO21" s="10">
@@ -3009,7 +3009,7 @@
         <v>-6.484</v>
       </c>
       <c r="AM22" s="10">
-        <v>3468.1269511050091</v>
+        <v>1</v>
       </c>
       <c r="AN22" s="10"/>
       <c r="AO22" s="10">
@@ -3074,7 +3074,7 @@
         <v>-10.44</v>
       </c>
       <c r="AM23" s="10">
-        <v>4339.4259869300095</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="10"/>
       <c r="AO23" s="10">
@@ -3142,7 +3142,7 @@
         <v>-8.3170000000000002</v>
       </c>
       <c r="AM24" s="10">
-        <v>5499.5259629100137</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="10"/>
       <c r="AO24" s="10">
@@ -3210,7 +3210,7 @@
         <v>-3.0720000000000001</v>
       </c>
       <c r="AM25" s="10">
-        <v>7528.0312828800306</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10">
@@ -3278,7 +3278,7 @@
         <v>12.381</v>
       </c>
       <c r="AM26" s="10">
-        <v>9570.5049093400303</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="10"/>
       <c r="AO26" s="10">
@@ -3346,7 +3346,7 @@
         <v>18.268999999999998</v>
       </c>
       <c r="AM27" s="10">
-        <v>11614.588891255029</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="10"/>
       <c r="AO27" s="10">
@@ -3414,7 +3414,7 @@
         <v>16.672000000000001</v>
       </c>
       <c r="AM28" s="10">
-        <v>15025.270876400029</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10">
@@ -3482,7 +3482,7 @@
         <v>22.963000000000001</v>
       </c>
       <c r="AM29" s="10">
-        <v>16377.291042065028</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="10"/>
       <c r="AO29" s="10">
@@ -3550,7 +3550,7 @@
         <v>19.367999999999999</v>
       </c>
       <c r="AM30" s="10">
-        <v>19006.109485130029</v>
+        <v>1</v>
       </c>
       <c r="AN30" s="10"/>
       <c r="AO30" s="10">
@@ -3618,7 +3618,7 @@
         <v>13.456</v>
       </c>
       <c r="AM31" s="10">
-        <v>20914.083867520036</v>
+        <v>1</v>
       </c>
       <c r="AN31" s="10"/>
       <c r="AO31" s="10">
@@ -3686,7 +3686,7 @@
         <v>10.441000000000001</v>
       </c>
       <c r="AM32" s="10">
-        <v>20924.033470100028</v>
+        <v>1</v>
       </c>
       <c r="AN32" s="10"/>
       <c r="AO32" s="10">
@@ -3754,7 +3754,7 @@
         <v>9.2420000000000009</v>
       </c>
       <c r="AM33" s="10">
-        <v>18734.253656015022</v>
+        <v>1</v>
       </c>
       <c r="AN33" s="10"/>
       <c r="AO33" s="10">
@@ -3822,7 +3822,7 @@
         <v>4.9980000000000002</v>
       </c>
       <c r="AM34" s="10">
-        <v>17184.788341090021</v>
+        <v>1</v>
       </c>
       <c r="AN34" s="10"/>
       <c r="AO34" s="10">
@@ -3890,7 +3890,7 @@
         <v>7.1890000000000001</v>
       </c>
       <c r="AM35" s="10">
-        <v>20610.877589360032</v>
+        <v>1</v>
       </c>
       <c r="AN35" s="10"/>
       <c r="AO35" s="10">
@@ -3958,7 +3958,7 @@
         <v>10.504</v>
       </c>
       <c r="AM36" s="10">
-        <v>18266.72881409504</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="10"/>
       <c r="AO36" s="10">
@@ -4026,7 +4026,7 @@
         <v>-9.7889999999999997</v>
       </c>
       <c r="AM37" s="10">
-        <v>13139.173335015033</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="10"/>
       <c r="AO37" s="10">
@@ -4094,7 +4094,7 @@
         <v>-12.253</v>
       </c>
       <c r="AM38" s="10">
-        <v>13626.299231475032</v>
+        <v>1</v>
       </c>
       <c r="AN38" s="10"/>
       <c r="AO38" s="10">
@@ -4162,7 +4162,7 @@
         <v>-10.680999999999999</v>
       </c>
       <c r="AM39" s="10">
-        <v>16906.128694870029</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="10"/>
       <c r="AO39" s="10">
@@ -4230,7 +4230,7 @@
         <v>5.4139999999999997</v>
       </c>
       <c r="AM40" s="10">
-        <v>22269.965064940028</v>
+        <v>1</v>
       </c>
       <c r="AN40" s="10"/>
       <c r="AO40" s="10">
@@ -4298,7 +4298,7 @@
         <v>14.243</v>
       </c>
       <c r="AM41" s="10">
-        <v>27785.777055220031</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="10"/>
       <c r="AO41" s="10">
@@ -4378,7 +4378,7 @@
         <v>11.544</v>
       </c>
       <c r="AM42" s="10">
-        <v>32502.896173050023</v>
+        <v>1</v>
       </c>
       <c r="AN42" s="10"/>
       <c r="AO42" s="10">
@@ -4458,7 +4458,7 @@
         <v>29.23</v>
       </c>
       <c r="AM43" s="10">
-        <v>37158.537380790018</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="10"/>
       <c r="AO43" s="10">
@@ -4539,7 +4539,7 @@
         <v>3.46</v>
       </c>
       <c r="AM44" s="10">
-        <v>36503.846555610027</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="10"/>
       <c r="AO44" s="10">
@@ -4620,7 +4620,7 @@
         <v>17.126999999999999</v>
       </c>
       <c r="AM45" s="10">
-        <v>35040.304537130025</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="10"/>
       <c r="AO45" s="10">
@@ -4706,7 +4706,7 @@
         <v>42.750999999999998</v>
       </c>
       <c r="AM46" s="10">
-        <v>32755.21897145002</v>
+        <v>1</v>
       </c>
       <c r="AN46" s="10"/>
       <c r="AO46" s="10">
@@ -4828,7 +4828,7 @@
         <v>12.215</v>
       </c>
       <c r="AM47" s="10">
-        <v>32279.002820275025</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="10"/>
       <c r="AO47" s="10">
@@ -4950,7 +4950,7 @@
         <v>17.274999999999999</v>
       </c>
       <c r="AM48" s="10">
-        <v>31256.226655550028</v>
+        <v>1</v>
       </c>
       <c r="AN48" s="10"/>
       <c r="AO48" s="10">
@@ -5072,7 +5072,7 @@
         <v>-20.108000000000001</v>
       </c>
       <c r="AM49" s="10">
-        <v>32727.204127215024</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="10"/>
       <c r="AO49" s="10">
@@ -5194,7 +5194,7 @@
         <v>-9.1669999999999998</v>
       </c>
       <c r="AM50" s="10">
-        <v>44120.455765755061</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="10"/>
       <c r="AO50" s="10">
@@ -5316,7 +5316,7 @@
         <v>7.91</v>
       </c>
       <c r="AM51" s="10">
-        <v>49791.423193930103</v>
+        <v>1</v>
       </c>
       <c r="AN51" s="10"/>
       <c r="AO51" s="10">
@@ -5438,7 +5438,7 @@
         <v>26.248999999999999</v>
       </c>
       <c r="AM52" s="10">
-        <v>52375.271297550091</v>
+        <v>1</v>
       </c>
       <c r="AN52" s="10"/>
       <c r="AO52" s="10">
@@ -5560,7 +5560,7 @@
         <v>21.779</v>
       </c>
       <c r="AM53" s="10">
-        <v>58380.366270060113</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="10"/>
       <c r="AO53" s="10">
@@ -5682,7 +5682,7 @@
         <v>34.415999999999997</v>
       </c>
       <c r="AM54" s="10">
-        <v>57424.48306182013</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="10"/>
       <c r="AO54" s="10">
@@ -5804,7 +5804,7 @@
         <v>21.617999999999999</v>
       </c>
       <c r="AM55" s="10">
-        <v>41837.24178740006</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="10"/>
       <c r="AO55" s="10">
@@ -5926,7 +5926,7 @@
         <v>25.353999999999999</v>
       </c>
       <c r="AM56" s="10">
-        <v>35249.169725570027</v>
+        <v>1</v>
       </c>
       <c r="AN56" s="10"/>
       <c r="AO56" s="10">
@@ -6048,7 +6048,7 @@
         <v>15.053000000000001</v>
       </c>
       <c r="AM57" s="10">
-        <v>41069.132554650045</v>
+        <v>1</v>
       </c>
       <c r="AN57" s="10"/>
       <c r="AO57" s="10">
@@ -6170,7 +6170,7 @@
         <v>29.606000000000002</v>
       </c>
       <c r="AM58" s="10">
-        <v>50833.653015150099</v>
+        <v>1</v>
       </c>
       <c r="AN58" s="10"/>
       <c r="AO58" s="10">
@@ -6292,7 +6292,7 @@
         <v>19.524000000000001</v>
       </c>
       <c r="AM59" s="10">
-        <v>58771.032502140108</v>
+        <v>1</v>
       </c>
       <c r="AN59" s="10"/>
       <c r="AO59" s="10">
@@ -6414,7 +6414,7 @@
         <v>23.172999999999998</v>
       </c>
       <c r="AM60" s="10">
-        <v>63736.298642185109</v>
+        <v>1</v>
       </c>
       <c r="AN60" s="10"/>
       <c r="AO60" s="10">
@@ -6536,7 +6536,7 @@
         <v>16.928000000000001</v>
       </c>
       <c r="AM61" s="10">
-        <v>67334.690257965092</v>
+        <v>1</v>
       </c>
       <c r="AN61" s="10"/>
       <c r="AO61" s="10">
@@ -6658,7 +6658,7 @@
         <v>18.068000000000001</v>
       </c>
       <c r="AM62" s="10">
-        <v>77356.619275930105</v>
+        <v>1</v>
       </c>
       <c r="AN62" s="10"/>
       <c r="AO62" s="10">
@@ -6780,7 +6780,7 @@
         <v>17.335999999999999</v>
       </c>
       <c r="AM63" s="10">
-        <v>87093.008826900099</v>
+        <v>1</v>
       </c>
       <c r="AN63" s="10"/>
       <c r="AO63" s="10">
@@ -6902,7 +6902,7 @@
         <v>20.773</v>
       </c>
       <c r="AM64" s="10">
-        <v>91936.752913315097</v>
+        <v>1</v>
       </c>
       <c r="AN64" s="10"/>
       <c r="AO64" s="10">
@@ -7024,7 +7024,7 @@
         <v>19.867000000000001</v>
       </c>
       <c r="AM65" s="10">
-        <v>93997.819644245101</v>
+        <v>1</v>
       </c>
       <c r="AN65" s="10"/>
       <c r="AO65" s="10">
@@ -7146,7 +7146,7 @@
         <v>45.521000000000001</v>
       </c>
       <c r="AM66" s="10">
-        <v>100592.49228948011</v>
+        <v>1</v>
       </c>
       <c r="AN66" s="10"/>
       <c r="AO66" s="10">
@@ -7268,7 +7268,7 @@
         <v>32.795999999999999</v>
       </c>
       <c r="AM67" s="10">
-        <v>100045.76856968011</v>
+        <v>1</v>
       </c>
       <c r="AN67" s="10"/>
       <c r="AO67" s="10">
@@ -7390,7 +7390,7 @@
         <v>36.933999999999997</v>
       </c>
       <c r="AM68" s="10">
-        <v>104222.7292833901</v>
+        <v>1</v>
       </c>
       <c r="AN68" s="10"/>
       <c r="AO68" s="10">
@@ -7512,7 +7512,7 @@
         <v>29.702999999999999</v>
       </c>
       <c r="AM69" s="10">
-        <v>115852.93517807011</v>
+        <v>1</v>
       </c>
       <c r="AN69" s="10"/>
       <c r="AO69" s="10">
@@ -7634,7 +7634,7 @@
         <v>52.040999999999997</v>
       </c>
       <c r="AM70" s="10">
-        <v>113507.0197978701</v>
+        <v>1</v>
       </c>
       <c r="AN70" s="10"/>
       <c r="AO70" s="10">
@@ -7756,7 +7756,7 @@
         <v>50.014000000000003</v>
       </c>
       <c r="AM71" s="10">
-        <v>100815.26861507009</v>
+        <v>1</v>
       </c>
       <c r="AN71" s="10"/>
       <c r="AO71" s="10">
@@ -7878,7 +7878,7 @@
         <v>44.456000000000003</v>
       </c>
       <c r="AM72" s="10">
-        <v>83255.818882515101</v>
+        <v>1</v>
       </c>
       <c r="AN72" s="10"/>
       <c r="AO72" s="10">
@@ -8000,7 +8000,7 @@
         <v>61.182000000000002</v>
       </c>
       <c r="AM73" s="10">
-        <v>83285.392983700105</v>
+        <v>1</v>
       </c>
       <c r="AN73" s="10"/>
       <c r="AO73" s="10">
@@ -8122,7 +8122,7 @@
         <v>57.259</v>
       </c>
       <c r="AM74" s="10">
-        <v>101989.1201327351</v>
+        <v>1</v>
       </c>
       <c r="AN74" s="10"/>
       <c r="AO74" s="10">
@@ -8246,7 +8246,7 @@
         <v>25.154</v>
       </c>
       <c r="AM75" s="10">
-        <v>115333.35361103507</v>
+        <v>1</v>
       </c>
       <c r="AN75" s="10"/>
       <c r="AO75" s="10">
@@ -8370,7 +8370,7 @@
         <v>33.895000000000003</v>
       </c>
       <c r="AM76" s="10">
-        <v>124019.50111495506</v>
+        <v>1</v>
       </c>
       <c r="AN76" s="10"/>
       <c r="AO76" s="10">
@@ -8494,7 +8494,7 @@
         <v>32.975000000000001</v>
       </c>
       <c r="AM77" s="10">
-        <v>123620.3171383451</v>
+        <v>1</v>
       </c>
       <c r="AN77" s="10"/>
       <c r="AO77" s="10">
@@ -8634,7 +8634,7 @@
         <v>30.126000000000001</v>
       </c>
       <c r="AM78" s="10">
-        <v>114987.18168241509</v>
+        <v>1</v>
       </c>
       <c r="AN78" s="10"/>
       <c r="AO78" s="10">
@@ -8774,7 +8774,7 @@
         <v>52.768000000000001</v>
       </c>
       <c r="AM79" s="10">
-        <v>123193.76534830511</v>
+        <v>1</v>
       </c>
       <c r="AN79" s="10"/>
       <c r="AO79" s="10">
@@ -8914,7 +8914,7 @@
         <v>28.805</v>
       </c>
       <c r="AM80" s="10">
-        <v>118521.79109252008</v>
+        <v>1</v>
       </c>
       <c r="AN80" s="10"/>
       <c r="AO80" s="10">
@@ -9054,7 +9054,7 @@
         <v>23.933</v>
       </c>
       <c r="AM81" s="10">
-        <v>136051.14999493011</v>
+        <v>1</v>
       </c>
       <c r="AN81" s="10">
         <v>740.82529999999997</v>
@@ -9220,7 +9220,7 @@
         <v>40.124000000000002</v>
       </c>
       <c r="AM82" s="10">
-        <v>138047.20536421507</v>
+        <v>1</v>
       </c>
       <c r="AN82" s="14">
         <f>(AN81*3+AN85)/4</f>
@@ -9387,7 +9387,7 @@
         <v>33.53</v>
       </c>
       <c r="AM83" s="10">
-        <v>141363.61237463009</v>
+        <v>1</v>
       </c>
       <c r="AN83" s="14">
         <f>(AN81*2+AN85*2)/4</f>
@@ -9554,7 +9554,7 @@
         <v>38.746000000000002</v>
       </c>
       <c r="AM84" s="10">
-        <v>126274.87379032013</v>
+        <v>1</v>
       </c>
       <c r="AN84" s="14">
         <f>(AN81+AN85*3)/4</f>
@@ -9721,7 +9721,7 @@
         <v>20.984999999999999</v>
       </c>
       <c r="AM85" s="10">
-        <v>120876.11005735009</v>
+        <v>1</v>
       </c>
       <c r="AN85" s="10">
         <v>742.73919999999998</v>
@@ -9887,7 +9887,7 @@
         <v>3.82</v>
       </c>
       <c r="AM86" s="10">
-        <v>103423.8054040701</v>
+        <v>1</v>
       </c>
       <c r="AN86" s="14">
         <f>(AN85+AN87)/2</f>
@@ -10054,7 +10054,7 @@
         <v>17.783000000000001</v>
       </c>
       <c r="AM87" s="10">
-        <v>81367.113054335103</v>
+        <v>1</v>
       </c>
       <c r="AN87" s="10">
         <v>745.85599999999999</v>
@@ -10228,7 +10228,7 @@
         <v>17.873000000000001</v>
       </c>
       <c r="AM88" s="10">
-        <v>83409.431207800109</v>
+        <v>1</v>
       </c>
       <c r="AN88" s="10">
         <v>751.59979999999996</v>
@@ -10402,7 +10402,7 @@
         <v>-14.853</v>
       </c>
       <c r="AM89" s="10">
-        <v>104307.93901395009</v>
+        <v>1</v>
       </c>
       <c r="AN89" s="10">
         <v>753.77959999999996</v>
@@ -10576,7 +10576,7 @@
         <v>42.097000000000001</v>
       </c>
       <c r="AM90" s="10">
-        <v>135181.18188520512</v>
+        <v>1</v>
       </c>
       <c r="AN90" s="10">
         <v>762.13099999999997</v>
@@ -10750,7 +10750,7 @@
         <v>35.825000000000003</v>
       </c>
       <c r="AM91" s="10">
-        <v>143249.14798396011</v>
+        <v>1</v>
       </c>
       <c r="AN91" s="10">
         <v>773.76379999999995</v>
@@ -10924,7 +10924,7 @@
         <v>34.049999999999997</v>
       </c>
       <c r="AM92" s="10">
-        <v>135659.87270285009</v>
+        <v>1</v>
       </c>
       <c r="AN92" s="10">
         <v>796.32100000000003</v>
@@ -11098,7 +11098,7 @@
         <v>-1.9670000000000001</v>
       </c>
       <c r="AM93" s="10">
-        <v>137451.79323821509</v>
+        <v>1</v>
       </c>
       <c r="AN93" s="10">
         <v>796.60550000000001</v>
@@ -11272,7 +11272,7 @@
         <v>12.298999999999999</v>
       </c>
       <c r="AM94" s="10">
-        <v>162122.75175617012</v>
+        <v>1</v>
       </c>
       <c r="AN94" s="10">
         <v>806.01289999999995</v>
@@ -11446,7 +11446,7 @@
         <v>40.280999999999999</v>
       </c>
       <c r="AM95" s="10">
-        <v>168333.24966779008</v>
+        <v>1</v>
       </c>
       <c r="AN95" s="10">
         <v>816.81809999999996</v>
@@ -11620,7 +11620,7 @@
         <v>43.104999999999997</v>
       </c>
       <c r="AM96" s="10">
-        <v>174221.81873573514</v>
+        <v>1</v>
       </c>
       <c r="AN96" s="10">
         <v>834.30550000000005</v>
@@ -11794,7 +11794,7 @@
         <v>17.312999999999999</v>
       </c>
       <c r="AM97" s="10">
-        <v>191680.9298217551</v>
+        <v>1</v>
       </c>
       <c r="AN97" s="10">
         <v>850.15200000000004</v>
@@ -11968,7 +11968,7 @@
         <v>28.391999999999999</v>
       </c>
       <c r="AM98" s="10">
-        <v>188120.37860241509</v>
+        <v>1</v>
       </c>
       <c r="AN98" s="10">
         <v>858.59870000000001</v>
@@ -12147,7 +12147,7 @@
         <v>55.488999999999997</v>
       </c>
       <c r="AM99" s="10">
-        <v>165931.17673565011</v>
+        <v>1</v>
       </c>
       <c r="AN99" s="10">
         <v>865.9674</v>
@@ -12326,7 +12326,7 @@
         <v>26.456</v>
       </c>
       <c r="AM100" s="10">
-        <v>165636.92181192507</v>
+        <v>1</v>
       </c>
       <c r="AN100" s="10">
         <v>862.89750000000004</v>
@@ -12505,7 +12505,7 @@
         <v>61.393000000000001</v>
       </c>
       <c r="AM101" s="10">
-        <v>148006.3869118251</v>
+        <v>1</v>
       </c>
       <c r="AN101" s="10">
         <v>851.58979999999997</v>
@@ -12684,7 +12684,7 @@
         <v>29.94</v>
       </c>
       <c r="AM102" s="10">
-        <v>123230.6615817001</v>
+        <v>1</v>
       </c>
       <c r="AN102" s="10">
         <v>858.52030000000002</v>
@@ -12863,7 +12863,7 @@
         <v>39.262</v>
       </c>
       <c r="AM103" s="10">
-        <v>107720.51487026509</v>
+        <v>1</v>
       </c>
       <c r="AN103" s="10">
         <v>857.05460000000005</v>
@@ -13042,7 +13042,7 @@
         <v>12.561999999999999</v>
       </c>
       <c r="AM104" s="10">
-        <v>70909.479977950105</v>
+        <v>1</v>
       </c>
       <c r="AN104" s="14">
         <f>(AN103+AN105)/2</f>
@@ -13222,7 +13222,7 @@
         <v>46.331000000000003</v>
       </c>
       <c r="AM105" s="10">
-        <v>60247.762770475092</v>
+        <v>1</v>
       </c>
       <c r="AN105" s="10">
         <v>826.92970000000003</v>
@@ -13401,7 +13401,7 @@
         <v>-18.667999999999999</v>
       </c>
       <c r="AM106" s="10">
-        <v>81896.879837770102</v>
+        <v>1</v>
       </c>
       <c r="AN106" s="10">
         <v>811.7654</v>
@@ -13580,7 +13580,7 @@
         <v>-32.74</v>
       </c>
       <c r="AM107" s="10">
-        <v>112490.76285060009</v>
+        <v>1</v>
       </c>
       <c r="AN107" s="10">
         <v>817.0616</v>
@@ -13759,7 +13759,7 @@
         <v>-5.234</v>
       </c>
       <c r="AM108" s="10">
-        <v>106823.3617819301</v>
+        <v>1</v>
       </c>
       <c r="AN108" s="10">
         <v>834.70159999999998</v>
@@ -13938,7 +13938,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="AM109" s="10">
-        <v>113931.0866610551</v>
+        <v>1</v>
       </c>
       <c r="AN109" s="10">
         <v>854.5942</v>
@@ -14117,7 +14117,7 @@
         <v>34.594000000000001</v>
       </c>
       <c r="AM110" s="10">
-        <v>141580.29311559509</v>
+        <v>1</v>
       </c>
       <c r="AN110" s="10">
         <v>1294.8580999999999</v>
@@ -14296,7 +14296,7 @@
         <v>52.04</v>
       </c>
       <c r="AM111" s="10">
-        <v>148324.8257093601</v>
+        <v>1</v>
       </c>
       <c r="AN111" s="10">
         <v>1312.4110000000001</v>
@@ -14475,7 +14475,7 @@
         <v>47.017000000000003</v>
       </c>
       <c r="AM112" s="10">
-        <v>154315.71915964509</v>
+        <v>1</v>
       </c>
       <c r="AN112" s="10">
         <v>1339.1117999999999</v>
@@ -14654,7 +14654,7 @@
         <v>17.177</v>
       </c>
       <c r="AM113" s="10">
-        <v>150586.97080100508</v>
+        <v>1</v>
       </c>
       <c r="AN113" s="10">
         <v>1352.2916</v>
@@ -14833,7 +14833,7 @@
         <v>29.257000000000001</v>
       </c>
       <c r="AM114" s="10">
-        <v>143694.88673032509</v>
+        <v>1</v>
       </c>
       <c r="AN114" s="10">
         <v>1360.3936000000001</v>
@@ -15012,7 +15012,7 @@
         <v>43.655000000000001</v>
       </c>
       <c r="AM115" s="10">
-        <v>134664.01147340011</v>
+        <v>1</v>
       </c>
       <c r="AN115" s="10">
         <v>1379.1165000000001</v>
@@ -15191,7 +15191,7 @@
         <v>76.626000000000005</v>
       </c>
       <c r="AM116" s="10">
-        <v>129435.54201876512</v>
+        <v>1</v>
       </c>
       <c r="AN116" s="10">
         <v>1401.3976</v>
@@ -15370,7 +15370,7 @@
         <v>40.304000000000002</v>
       </c>
       <c r="AM117" s="10">
-        <v>118432.41188593009</v>
+        <v>1</v>
       </c>
       <c r="AN117" s="10">
         <v>1411.8925999999999</v>
@@ -15550,7 +15550,7 @@
         <v>48.17</v>
       </c>
       <c r="AM118" s="10">
-        <v>107861.87951621009</v>
+        <v>1</v>
       </c>
       <c r="AN118" s="10">
         <v>1426.7755999999999</v>
@@ -15732,7 +15732,7 @@
         <v>47.177</v>
       </c>
       <c r="AM119" s="10">
-        <v>128805.52144809507</v>
+        <v>1</v>
       </c>
       <c r="AN119" s="10">
         <v>1420.069</v>
@@ -15914,7 +15914,7 @@
         <v>48.08</v>
       </c>
       <c r="AM120" s="10">
-        <v>146580.83985197011</v>
+        <v>1</v>
       </c>
       <c r="AN120" s="10">
         <v>1407.5423000000001</v>
@@ -16096,7 +16096,7 @@
         <v>57.173000000000002</v>
       </c>
       <c r="AM121" s="10">
-        <v>136004.1357543701</v>
+        <v>1</v>
       </c>
       <c r="AN121" s="10">
         <v>1421.3958</v>
@@ -16278,7 +16278,7 @@
         <v>43.289000000000001</v>
       </c>
       <c r="AM122" s="10">
-        <v>140010.21044837509</v>
+        <v>1</v>
       </c>
       <c r="AN122" s="10">
         <v>1428.5038999999999</v>
@@ -16460,7 +16460,7 @@
         <v>48.975999999999999</v>
       </c>
       <c r="AM123" s="10">
-        <v>146182.74103980511</v>
+        <v>1</v>
       </c>
       <c r="AN123" s="10">
         <v>1426.0064</v>
@@ -16642,7 +16642,7 @@
         <v>18.045000000000002</v>
       </c>
       <c r="AM124" s="10">
-        <v>163701.89167999011</v>
+        <v>1</v>
       </c>
       <c r="AN124" s="10">
         <v>1415.1719000000001</v>
@@ -16824,7 +16824,7 @@
         <v>12.975</v>
       </c>
       <c r="AM125" s="10">
-        <v>167942.63915129012</v>
+        <v>1</v>
       </c>
       <c r="AN125" s="10">
         <v>1421.5597</v>
@@ -17006,7 +17006,7 @@
         <v>14.343</v>
       </c>
       <c r="AM126" s="10">
-        <v>169711.80120095512</v>
+        <v>1</v>
       </c>
       <c r="AN126" s="10">
         <v>1434.5125</v>
@@ -17188,7 +17188,7 @@
         <v>12.244</v>
       </c>
       <c r="AM127" s="10">
-        <v>184502.8838450851</v>
+        <v>1</v>
       </c>
       <c r="AN127" s="10">
         <v>1426.6566</v>
@@ -17370,7 +17370,7 @@
         <v>-52.881999999999998</v>
       </c>
       <c r="AM128" s="10">
-        <v>245688.32837225019</v>
+        <v>1</v>
       </c>
       <c r="AN128" s="10">
         <v>1428.7605000000001</v>
@@ -17552,7 +17552,7 @@
         <v>-15.002000000000001</v>
       </c>
       <c r="AM129" s="10">
-        <v>271965.04911012028</v>
+        <v>1</v>
       </c>
       <c r="AN129" s="10">
         <v>1458.0844</v>
@@ -17734,7 +17734,7 @@
         <v>61.110999999999997</v>
       </c>
       <c r="AM130" s="10">
-        <v>266740.93921902531</v>
+        <v>1</v>
       </c>
       <c r="AN130" s="10">
         <v>1534.4213</v>
@@ -17916,7 +17916,7 @@
         <v>15.315</v>
       </c>
       <c r="AM131" s="10">
-        <v>271036.76269612531</v>
+        <v>1</v>
       </c>
       <c r="AN131" s="10">
         <v>1559.7711999999999</v>
@@ -18098,7 +18098,7 @@
         <v>63.057000000000002</v>
       </c>
       <c r="AM132" s="10">
-        <v>238101.87112852017</v>
+        <v>1</v>
       </c>
       <c r="AN132" s="10">
         <v>1555.2666999999999</v>
@@ -18280,7 +18280,7 @@
         <v>32.057000000000002</v>
       </c>
       <c r="AM133" s="10">
-        <v>220236.1945018401</v>
+        <v>1</v>
       </c>
       <c r="AN133" s="10">
         <v>1537.3171</v>
@@ -18462,7 +18462,7 @@
         <v>-30.123999999999999</v>
       </c>
       <c r="AM134" s="10">
-        <v>192210.58568237509</v>
+        <v>1</v>
       </c>
       <c r="AN134" s="10">
         <v>1542.5172</v>
@@ -18644,7 +18644,7 @@
         <v>-5.9180000000000001</v>
       </c>
       <c r="AM135" s="10">
-        <v>186829.27406330511</v>
+        <v>1</v>
       </c>
       <c r="AN135" s="10">
         <v>1528.325</v>
@@ -18826,7 +18826,7 @@
         <v>6.5780000000000003</v>
       </c>
       <c r="AM136" s="10">
-        <v>212768.13884244015</v>
+        <v>1</v>
       </c>
       <c r="AN136" s="10">
         <v>1524.8947000000001</v>
@@ -19008,7 +19008,7 @@
         <v>-57.453000000000003</v>
       </c>
       <c r="AM137" s="10">
-        <v>305939.29106990539</v>
+        <v>1</v>
       </c>
       <c r="AN137" s="10">
         <v>1534.0571</v>
@@ -19190,7 +19190,7 @@
         <v>-53.533999999999999</v>
       </c>
       <c r="AM138" s="10">
-        <v>356717.59235425037</v>
+        <v>1</v>
       </c>
       <c r="AN138" s="10">
         <v>1541.3214</v>
@@ -19372,7 +19372,7 @@
         <v>-8.42</v>
       </c>
       <c r="AM139" s="10">
-        <v>429878.89634837548</v>
+        <v>1</v>
       </c>
       <c r="AN139" s="10">
         <v>1575.0555999999999</v>
@@ -19554,7 +19554,7 @@
         <v>-2.911</v>
       </c>
       <c r="AM140" s="10">
-        <v>451595.51117691537</v>
+        <v>1</v>
       </c>
       <c r="AN140" s="10">
         <v>1606.3333</v>
@@ -19736,7 +19736,7 @@
         <v>30.417000000000002</v>
       </c>
       <c r="AM141" s="10">
-        <v>448282.82561007031</v>
+        <v>1</v>
       </c>
       <c r="AN141" s="10">
         <v>1638.9118000000001</v>
@@ -19918,7 +19918,7 @@
         <v>96.864000000000004</v>
       </c>
       <c r="AM142" s="10">
-        <v>407371.64746339031</v>
+        <v>1</v>
       </c>
       <c r="AN142" s="10">
         <v>1650.3333</v>
@@ -20100,7 +20100,7 @@
         <v>91.063999999999993</v>
       </c>
       <c r="AM143" s="10">
-        <v>383370.09196791536</v>
+        <v>1</v>
       </c>
       <c r="AN143" s="10">
         <v>1673.9375</v>
@@ -20282,7 +20282,7 @@
         <v>95.072000000000003</v>
       </c>
       <c r="AM144" s="10">
-        <v>432542.80403643043</v>
+        <v>1</v>
       </c>
       <c r="AN144" s="10">
         <v>1710.4167</v>
@@ -20464,7 +20464,7 @@
         <v>59.866</v>
       </c>
       <c r="AM145" s="10">
-        <v>463997.88949030545</v>
+        <v>1</v>
       </c>
       <c r="AN145" s="10">
         <v>1710.7143000000001</v>
@@ -20646,7 +20646,7 @@
         <v>18.503</v>
       </c>
       <c r="AM146" s="10">
-        <v>516911.6574055854</v>
+        <v>1</v>
       </c>
       <c r="AN146" s="10">
         <v>1739.25</v>
@@ -20828,7 +20828,7 @@
         <v>27.120999999999999</v>
       </c>
       <c r="AM147" s="10">
-        <v>589334.01239091041</v>
+        <v>1</v>
       </c>
       <c r="AN147" s="10">
         <v>1736.9231</v>
@@ -21010,7 +21010,7 @@
         <v>22.800999999999998</v>
       </c>
       <c r="AM148" s="10">
-        <v>602774.57311771042</v>
+        <v>1</v>
       </c>
       <c r="AN148" s="10">
         <v>1730.2592999999999</v>
@@ -21192,7 +21192,7 @@
         <v>41.94</v>
       </c>
       <c r="AM149" s="10">
-        <v>689612.99377810536</v>
+        <v>1</v>
       </c>
       <c r="AN149" s="10">
         <v>1744.875</v>
@@ -21374,7 +21374,7 @@
         <v>37.203000000000003</v>
       </c>
       <c r="AM150" s="10">
-        <v>858831.94657730544</v>
+        <v>1</v>
       </c>
       <c r="AN150" s="10">
         <v>3728.8182000000002</v>
@@ -21559,7 +21559,7 @@
         <v>18.100999999999999</v>
       </c>
       <c r="AM151" s="10">
-        <v>1030242.4127077354</v>
+        <v>1</v>
       </c>
       <c r="AN151" s="10">
         <v>3755.96</v>
@@ -21744,7 +21744,7 @@
         <v>-10.395</v>
       </c>
       <c r="AM152" s="10">
-        <v>1036642.3014031255</v>
+        <v>1</v>
       </c>
       <c r="AN152" s="10">
         <v>3798.6522</v>
@@ -21929,7 +21929,7 @@
         <v>-8.8059999999999992</v>
       </c>
       <c r="AM153" s="10">
-        <v>1097202.5595667404</v>
+        <v>1</v>
       </c>
       <c r="AN153" s="10">
         <v>3811.0455000000002</v>
@@ -22114,7 +22114,7 @@
         <v>40.107999999999997</v>
       </c>
       <c r="AM154" s="10">
-        <v>1400227.0948640015</v>
+        <v>1</v>
       </c>
       <c r="AN154" s="10">
         <v>3823.4211</v>
@@ -22299,7 +22299,7 @@
         <v>22.49</v>
       </c>
       <c r="AM155" s="10">
-        <v>1608587.7672443914</v>
+        <v>1</v>
       </c>
       <c r="AN155" s="10">
         <v>3854.6154000000001</v>
@@ -22484,7 +22484,7 @@
         <v>-1.9379999999999999</v>
       </c>
       <c r="AM156" s="10">
-        <v>1765280.2528135069</v>
+        <v>1</v>
       </c>
       <c r="AN156" s="10">
         <v>3924.8420999999998</v>
@@ -22669,7 +22669,7 @@
         <v>84.489000000000004</v>
       </c>
       <c r="AM157" s="10">
-        <v>1143274.4999376158</v>
+        <v>1</v>
       </c>
       <c r="AN157" s="10">
         <v>3930.3683999999998</v>
@@ -22854,7 +22854,7 @@
         <v>18.574000000000002</v>
       </c>
       <c r="AM158" s="10">
-        <v>1169169.6019410314</v>
+        <v>1</v>
       </c>
       <c r="AN158" s="10">
         <v>3959.4117999999999</v>
@@ -23039,7 +23039,7 @@
         <v>25.77</v>
       </c>
       <c r="AM159" s="10">
-        <v>1217597.9275156313</v>
+        <v>1</v>
       </c>
       <c r="AN159" s="10">
         <v>4018.6471000000001</v>
@@ -23224,7 +23224,7 @@
         <v>21.440999999999999</v>
       </c>
       <c r="AM160" s="10">
-        <v>1293817.9891333862</v>
+        <v>1</v>
       </c>
       <c r="AN160" s="10">
         <v>4125.125</v>
@@ -23409,7 +23409,7 @@
         <v>29.454000000000001</v>
       </c>
       <c r="AM161" s="10">
-        <v>1366364.1867408312</v>
+        <v>1</v>
       </c>
       <c r="AN161" s="10">
         <v>4136.3571000000002</v>
@@ -23594,7 +23594,7 @@
         <v>58.216999999999999</v>
       </c>
       <c r="AM162" s="10">
-        <v>1502820.8831636913</v>
+        <v>1</v>
       </c>
       <c r="AN162" s="10">
         <v>4138</v>
@@ -23779,7 +23779,7 @@
         <v>44.585999999999999</v>
       </c>
       <c r="AM163" s="10">
-        <v>1824239.2267509415</v>
+        <v>1</v>
       </c>
       <c r="AN163" s="10">
         <v>4177.25</v>
@@ -23964,7 +23964,7 @@
         <v>12.321</v>
       </c>
       <c r="AM164" s="10">
-        <v>2163285.3354281113</v>
+        <v>1</v>
       </c>
       <c r="AN164" s="10">
         <v>4231.0267000000003</v>
@@ -24149,7 +24149,7 @@
         <v>17.88</v>
       </c>
       <c r="AM165" s="10">
-        <v>2172309.9831751613</v>
+        <v>1</v>
       </c>
       <c r="AN165" s="10">
         <v>4258.0625</v>
@@ -24334,7 +24334,7 @@
         <v>16.402999999999999</v>
       </c>
       <c r="AM166" s="10">
-        <v>2032361.0599833715</v>
+        <v>1</v>
       </c>
       <c r="AN166" s="10">
         <v>4278</v>
@@ -24519,7 +24519,7 @@
         <v>41.085999999999999</v>
       </c>
       <c r="AM167" s="10">
-        <v>2262380.1158363163</v>
+        <v>1</v>
       </c>
       <c r="AN167" s="10">
         <v>4304.6778000000004</v>
@@ -24704,7 +24704,7 @@
         <v>26.899000000000001</v>
       </c>
       <c r="AM168" s="10">
-        <v>1993155.3825385717</v>
+        <v>1</v>
       </c>
       <c r="AN168" s="10">
         <v>4243.4083000000001</v>
@@ -24889,7 +24889,7 @@
         <v>-12.641</v>
       </c>
       <c r="AM169" s="10">
-        <v>1875158.905676251</v>
+        <v>1</v>
       </c>
       <c r="AN169" s="10">
         <v>4193.8633</v>
@@ -25074,7 +25074,7 @@
         <v>-19.972999999999999</v>
       </c>
       <c r="AM170" s="10">
-        <v>2344261.0807408318</v>
+        <v>1</v>
       </c>
       <c r="AN170" s="10">
         <v>4205.16</v>
@@ -25259,7 +25259,7 @@
         <v>-23.695</v>
       </c>
       <c r="AM171" s="10">
-        <v>2699069.4391696565</v>
+        <v>1</v>
       </c>
       <c r="AN171" s="10">
         <v>4231.3615</v>
@@ -25444,7 +25444,7 @@
         <v>1</v>
       </c>
       <c r="AM172" s="10">
-        <v>2828864.8159628217</v>
+        <v>1</v>
       </c>
       <c r="AN172" s="10">
         <v>4274.6832999999997</v>
@@ -25629,7 +25629,7 @@
         <v>34.814999999999998</v>
       </c>
       <c r="AM173" s="10">
-        <v>2931934.3581887963</v>
+        <v>1</v>
       </c>
       <c r="AN173" s="10">
         <v>4270.5102999999999</v>
@@ -25814,7 +25814,7 @@
         <v>2.6349999999999998</v>
       </c>
       <c r="AM174" s="10">
-        <v>3108008.0696862866</v>
+        <v>1</v>
       </c>
       <c r="AN174" s="10">
         <v>5015.8607000000002</v>
@@ -25999,7 +25999,7 @@
         <v>25.315999999999999</v>
       </c>
       <c r="AM175" s="10">
-        <v>3159575.104091302</v>
+        <v>1</v>
       </c>
       <c r="AN175" s="10">
         <v>5081.5339000000004</v>
@@ -26184,7 +26184,7 @@
         <v>23.219000000000001</v>
       </c>
       <c r="AM176" s="10">
-        <v>3263443.1613739766</v>
+        <v>1</v>
       </c>
       <c r="AN176" s="10">
         <v>5054.8796000000002</v>
@@ -26369,7 +26369,7 @@
         <v>26.635999999999999</v>
       </c>
       <c r="AM177" s="10">
-        <v>3365203.6281479714</v>
+        <v>1</v>
       </c>
       <c r="AN177" s="10">
         <v>5096.3906999999999</v>
@@ -26554,7 +26554,7 @@
         <v>45.978999999999999</v>
       </c>
       <c r="AM178" s="10">
-        <v>3597192.0822347319</v>
+        <v>1</v>
       </c>
       <c r="AN178" s="10">
         <v>5170.8735999999999</v>
@@ -26739,7 +26739,7 @@
         <v>31.024000000000001</v>
       </c>
       <c r="AM179" s="10">
-        <v>3684865.2019937066</v>
+        <v>1</v>
       </c>
       <c r="AN179" s="10">
         <v>5204.3662000000004</v>
@@ -26924,7 +26924,7 @@
         <v>2.0550000000000002</v>
       </c>
       <c r="AM180" s="10">
-        <v>3909493.7693313467</v>
+        <v>1</v>
       </c>
       <c r="AN180" s="10">
         <v>5196.6360999999997</v>
@@ -27109,7 +27109,7 @@
         <v>17.251000000000001</v>
       </c>
       <c r="AM181" s="10">
-        <v>4105703.7921629418</v>
+        <v>1</v>
       </c>
       <c r="AN181" s="10">
         <v>5329.4335000000001</v>
@@ -27294,7 +27294,7 @@
         <v>54.664000000000001</v>
       </c>
       <c r="AM182" s="10">
-        <v>3919031.2387455311</v>
+        <v>1</v>
       </c>
       <c r="AN182" s="10">
         <v>5407.4053000000004</v>
@@ -27479,7 +27479,7 @@
         <v>98.683999999999997</v>
       </c>
       <c r="AM183" s="10">
-        <v>3688721.1928033014</v>
+        <v>1</v>
       </c>
       <c r="AN183" s="10">
         <v>5460.2984999999999</v>
@@ -27664,7 +27664,7 @@
         <v>61.616999999999997</v>
       </c>
       <c r="AM184" s="10">
-        <v>4010677.8216021764</v>
+        <v>1</v>
       </c>
       <c r="AN184" s="10">
         <v>5481.3909999999996</v>
@@ -27849,7 +27849,7 @@
         <v>86.587999999999994</v>
       </c>
       <c r="AM185" s="10">
-        <v>3960019.0482852366</v>
+        <v>1</v>
       </c>
       <c r="AN185" s="10">
         <v>5550.6143000000002</v>
@@ -28034,7 +28034,7 @@
         <v>72.412000000000006</v>
       </c>
       <c r="AM186" s="10">
-        <v>4327753.6742958222</v>
+        <v>1</v>
       </c>
       <c r="AN186" s="10">
         <v>5602.8140999999996</v>
@@ -28219,7 +28219,7 @@
         <v>41.319000000000003</v>
       </c>
       <c r="AM187" s="10">
-        <v>5269758.8085020641</v>
+        <v>1</v>
       </c>
       <c r="AN187" s="10">
         <v>5633.4938000000002</v>
@@ -28404,7 +28404,7 @@
         <v>9.3979999999999997</v>
       </c>
       <c r="AM188" s="10">
-        <v>6192346.0050251167</v>
+        <v>1</v>
       </c>
       <c r="AN188" s="10">
         <v>5658.4949999999999</v>
@@ -28589,7 +28589,7 @@
         <v>15.113</v>
       </c>
       <c r="AM189" s="10">
-        <v>6943430.0881967368</v>
+        <v>1</v>
       </c>
       <c r="AN189" s="10">
         <v>5719.8359</v>
@@ -28774,7 +28774,7 @@
         <v>2.036</v>
       </c>
       <c r="AM190" s="10">
-        <v>7762049.23469349</v>
+        <v>1</v>
       </c>
       <c r="AN190" s="10">
         <v>6972.8486999999996</v>
@@ -28959,7 +28959,7 @@
         <v>29.649000000000001</v>
       </c>
       <c r="AM191" s="10">
-        <v>8253222.9797381163</v>
+        <v>1</v>
       </c>
       <c r="AN191" s="10">
         <v>7015.8933999999999</v>
@@ -29144,7 +29144,7 @@
         <v>65.483000000000004</v>
       </c>
       <c r="AM192" s="10">
-        <v>8901316.0385081861</v>
+        <v>1</v>
       </c>
       <c r="AN192" s="10">
         <v>7072.2407999999996</v>
@@ -29329,7 +29329,7 @@
         <v>38.167999999999999</v>
       </c>
       <c r="AM193" s="10">
-        <v>10647205.260520577</v>
+        <v>1</v>
       </c>
       <c r="AN193" s="10">
         <v>7114.8063000000002</v>
@@ -29514,7 +29514,7 @@
         <v>51.405999999999999</v>
       </c>
       <c r="AM194" s="10">
-        <v>11509632.502190247</v>
+        <v>1</v>
       </c>
       <c r="AN194" s="10">
         <v>7204.6731</v>
@@ -29699,7 +29699,7 @@
         <v>112.88500000000001</v>
       </c>
       <c r="AM195" s="10">
-        <v>14348497.126580616</v>
+        <v>1</v>
       </c>
       <c r="AN195" s="10">
         <v>7293.8343999999997</v>
@@ -29884,7 +29884,7 @@
         <v>80.89</v>
       </c>
       <c r="AM196" s="10">
-        <v>17537085.246482797</v>
+        <v>1</v>
       </c>
       <c r="AN196" s="10">
         <v>7361.4951000000001</v>
@@ -30069,7 +30069,7 @@
         <v>94.042000000000002</v>
       </c>
       <c r="AM197" s="10">
-        <v>17585695.030689467</v>
+        <v>1</v>
       </c>
       <c r="AN197" s="10">
         <v>7441.924</v>
@@ -30254,7 +30254,7 @@
         <v>127.889</v>
       </c>
       <c r="AM198" s="10">
-        <v>20756946.40742423</v>
+        <v>1</v>
       </c>
       <c r="AN198" s="10">
         <v>7509.5862999999999</v>
@@ -30439,7 +30439,7 @@
         <v>49.642000000000003</v>
       </c>
       <c r="AM199" s="10">
-        <v>24763204.620472927</v>
+        <v>1</v>
       </c>
       <c r="AN199" s="10">
         <v>7582.7902000000004</v>
@@ -30624,7 +30624,7 @@
         <v>67.367000000000004</v>
       </c>
       <c r="AM200" s="10">
-        <v>22900698.408262745</v>
+        <v>1</v>
       </c>
       <c r="AN200" s="10">
         <v>7725.884</v>
@@ -30809,7 +30809,7 @@
         <v>71.055999999999997</v>
       </c>
       <c r="AM201" s="10">
-        <v>25607272.334110003</v>
+        <v>1</v>
       </c>
       <c r="AN201" s="10">
         <v>7756.8599000000004</v>
@@ -30994,7 +30994,7 @@
         <v>97.513999999999996</v>
       </c>
       <c r="AM202" s="10">
-        <v>31203506.870986912</v>
+        <v>1</v>
       </c>
       <c r="AN202" s="10">
         <v>7904.7511000000004</v>
@@ -31179,7 +31179,7 @@
         <v>45.271999999999998</v>
       </c>
       <c r="AM203" s="10">
-        <v>35203793.055877283</v>
+        <v>1</v>
       </c>
       <c r="AN203" s="10">
         <v>8020.2395999999999</v>
@@ -31364,7 +31364,7 @@
         <v>51.503</v>
       </c>
       <c r="AM204" s="10">
-        <v>35043057.684633344</v>
+        <v>1</v>
       </c>
       <c r="AN204" s="10">
         <v>8075.5977000000003</v>
@@ -31549,7 +31549,7 @@
         <v>107.51</v>
       </c>
       <c r="AM205" s="10">
-        <v>37644355.532301262</v>
+        <v>1</v>
       </c>
       <c r="AN205" s="10">
         <v>9227.3778000000002</v>
@@ -31734,7 +31734,7 @@
         <v>23.616</v>
       </c>
       <c r="AM206" s="10">
-        <v>38978619.186572649</v>
+        <v>1</v>
       </c>
       <c r="AN206" s="10">
         <v>9367.4786999999997</v>
@@ -31919,7 +31919,7 @@
         <v>108.714</v>
       </c>
       <c r="AM207" s="10">
-        <v>40722966.372506499</v>
+        <v>1</v>
       </c>
       <c r="AN207" s="10">
         <v>9559.0841999999993</v>
@@ -32104,7 +32104,7 @@
         <v>68.703999999999994</v>
       </c>
       <c r="AM208" s="10">
-        <v>41813244.566358671</v>
+        <v>1</v>
       </c>
       <c r="AN208" s="10">
         <v>9679.2191999999995</v>
@@ -32289,7 +32289,7 @@
         <v>63.866999999999997</v>
       </c>
       <c r="AM209" s="10">
-        <v>36048900.506774016</v>
+        <v>1</v>
       </c>
       <c r="AN209" s="10">
         <v>9763.1823999999997</v>
@@ -32474,7 +32474,7 @@
         <v>-37.892000000000003</v>
       </c>
       <c r="AM210" s="10">
-        <v>29925427.406741865</v>
+        <v>1</v>
       </c>
       <c r="AN210" s="10">
         <v>9712.6553000000004</v>
@@ -32659,7 +32659,7 @@
         <v>-12.804</v>
       </c>
       <c r="AM211" s="10">
-        <v>29331497.835340779</v>
+        <v>1</v>
       </c>
       <c r="AN211" s="10">
         <v>9738.5184000000008</v>
@@ -32844,7 +32844,7 @@
         <v>-36.893999999999998</v>
       </c>
       <c r="AM212" s="10">
-        <v>24290282.186877981</v>
+        <v>1</v>
       </c>
       <c r="AN212" s="10">
         <v>9654.2819999999992</v>
@@ -33029,7 +33029,7 @@
         <v>-97.393000000000001</v>
       </c>
       <c r="AM213" s="10">
-        <v>24785793.070038088</v>
+        <v>1</v>
       </c>
       <c r="AN213" s="10">
         <v>9517.2214000000004</v>
@@ -33214,7 +33214,7 @@
         <v>-3.8460000000000001</v>
       </c>
       <c r="AM214" s="10">
-        <v>24047766.204866022</v>
+        <v>1</v>
       </c>
       <c r="AN214" s="10">
         <v>9644.9868000000006</v>
@@ -33399,7 +33399,7 @@
         <v>26.477</v>
       </c>
       <c r="AM215" s="10">
-        <v>21058942.790233184</v>
+        <v>1</v>
       </c>
       <c r="AN215" s="10">
         <v>9858.2685999999994</v>
@@ -33584,7 +33584,7 @@
         <v>32.421999999999997</v>
       </c>
       <c r="AM216" s="10">
-        <v>15659823.022392951</v>
+        <v>1</v>
       </c>
       <c r="AN216" s="10">
         <v>9757.9624999999996</v>
@@ -33769,7 +33769,7 @@
         <v>35.1</v>
       </c>
       <c r="AM217" s="10">
-        <v>15414756.34681794</v>
+        <v>1</v>
       </c>
       <c r="AN217" s="10">
         <v>9805.7348999999995</v>
@@ -33954,7 +33954,7 @@
         <v>36.334000000000003</v>
       </c>
       <c r="AM218" s="10">
-        <v>14170010.369014464</v>
+        <v>1</v>
       </c>
       <c r="AN218" s="10">
         <v>9876.2742999999991</v>
@@ -34139,7 +34139,7 @@
         <v>-0.19800000000000001</v>
       </c>
       <c r="AM219" s="10">
-        <v>17808898.583987959</v>
+        <v>1</v>
       </c>
       <c r="AN219" s="10">
         <v>9931.6479999999992</v>
@@ -34324,7 +34324,7 @@
         <v>7.5759999999999996</v>
       </c>
       <c r="AM220" s="10">
-        <v>20521965.192191098</v>
+        <v>1</v>
       </c>
       <c r="AN220" s="10">
         <v>10058.7102</v>
@@ -34509,7 +34509,7 @@
         <v>46.557000000000002</v>
       </c>
       <c r="AM221" s="10">
-        <v>22440150.281908877</v>
+        <v>1</v>
       </c>
       <c r="AN221" s="10">
         <v>10284.9851</v>
@@ -34694,7 +34694,7 @@
         <v>56.399000000000001</v>
       </c>
       <c r="AM222" s="10">
-        <v>24615925.490032535</v>
+        <v>1</v>
       </c>
       <c r="AN222" s="10">
         <v>11141.102999999999</v>
@@ -34879,7 +34879,7 @@
         <v>81.882000000000005</v>
       </c>
       <c r="AM223" s="10">
-        <v>23983078.074048109</v>
+        <v>1</v>
       </c>
       <c r="AN223" s="10">
         <v>11245.808000000001</v>
@@ -35064,7 +35064,7 @@
         <v>71.081000000000003</v>
       </c>
       <c r="AM224" s="10">
-        <v>24068423.822501879</v>
+        <v>1</v>
       </c>
       <c r="AN224" s="10">
         <v>11267.0409</v>
@@ -35249,7 +35249,7 @@
         <v>76.227999999999994</v>
       </c>
       <c r="AM225" s="10">
-        <v>26516724.282401368</v>
+        <v>1</v>
       </c>
       <c r="AN225" s="10">
         <v>11366.8073</v>
@@ -35434,7 +35434,7 @@
         <v>111.3</v>
       </c>
       <c r="AM226" s="10">
-        <v>26634135.021752536</v>
+        <v>1</v>
       </c>
       <c r="AN226" s="10">
         <v>11473.721299999999</v>
@@ -35619,7 +35619,7 @@
         <v>33.027999999999999</v>
       </c>
       <c r="AM227" s="10">
-        <v>27649975.651553161</v>
+        <v>1</v>
       </c>
       <c r="AN227" s="10">
         <v>11533.703299999999</v>
@@ -35804,7 +35804,7 @@
         <v>18.198</v>
       </c>
       <c r="AM228" s="10">
-        <v>29126914.239670467</v>
+        <v>1</v>
       </c>
       <c r="AN228" s="10">
         <v>11573.257100000001</v>
@@ -35989,7 +35989,7 @@
         <v>94.778999999999996</v>
       </c>
       <c r="AM229" s="10">
-        <v>29692994.036778968</v>
+        <v>1</v>
       </c>
       <c r="AN229" s="10">
         <v>11652.688599999999</v>
@@ -36174,7 +36174,7 @@
         <v>78.616</v>
       </c>
       <c r="AM230" s="10">
-        <v>31137825.888302848</v>
+        <v>1</v>
       </c>
       <c r="AN230" s="10">
         <v>11703.1333</v>
@@ -36359,7 +36359,7 @@
         <v>84.438999999999993</v>
       </c>
       <c r="AM231" s="10">
-        <v>31296045.825414576</v>
+        <v>1</v>
       </c>
       <c r="AN231" s="10">
         <v>11813.453100000001</v>
@@ -36544,7 +36544,7 @@
         <v>81.948999999999998</v>
       </c>
       <c r="AM232" s="10">
-        <v>33795239.657185391</v>
+        <v>1</v>
       </c>
       <c r="AN232" s="10">
         <v>11781.614</v>
@@ -36729,7 +36729,7 @@
         <v>41.423000000000002</v>
       </c>
       <c r="AM233" s="10">
-        <v>37707344.163359694</v>
+        <v>1</v>
       </c>
       <c r="AN233" s="10">
         <v>11818.911</v>
@@ -36914,7 +36914,7 @@
         <v>19.613</v>
       </c>
       <c r="AM234" s="10">
-        <v>38725072.557708845</v>
+        <v>1</v>
       </c>
       <c r="AN234" s="10">
         <v>11951.517400000001</v>
@@ -37099,7 +37099,7 @@
         <v>49.430999999999997</v>
       </c>
       <c r="AM235" s="10">
-        <v>44244652.148285955</v>
+        <v>1</v>
       </c>
       <c r="AN235" s="10">
         <v>11945.093000000001</v>
@@ -37284,7 +37284,7 @@
         <v>50.180999999999997</v>
       </c>
       <c r="AM236" s="10">
-        <v>45299261.988479927</v>
+        <v>1</v>
       </c>
       <c r="AN236" s="10">
         <v>11888.040800000001</v>
@@ -37469,7 +37469,7 @@
         <v>22.956</v>
       </c>
       <c r="AM237" s="10">
-        <v>42604395.066828199</v>
+        <v>1</v>
       </c>
       <c r="AN237" s="10">
         <v>11965.8781</v>
@@ -37654,7 +37654,7 @@
         <v>-20.213999999999999</v>
       </c>
       <c r="AM238" s="10">
-        <v>35372290.71928928</v>
+        <v>1</v>
       </c>
       <c r="AN238" s="10">
         <v>11979.1163</v>
@@ -37839,7 +37839,7 @@
         <v>-26.402999999999999</v>
       </c>
       <c r="AM239" s="10">
-        <v>36067267.459674887</v>
+        <v>1</v>
       </c>
       <c r="AN239" s="10">
         <v>11936.965700000001</v>
@@ -38024,7 +38024,7 @@
         <v>-20.713999999999999</v>
       </c>
       <c r="AM240" s="10">
-        <v>28175161.622374009</v>
+        <v>1</v>
       </c>
       <c r="AN240" s="10">
         <v>11931.8172</v>
@@ -38209,7 +38209,7 @@
         <v>-67.353999999999999</v>
       </c>
       <c r="AM241" s="10">
-        <v>15610553.037969176</v>
+        <v>1</v>
       </c>
       <c r="AN241" s="10">
         <v>11735.748600000001</v>
@@ -38394,7 +38394,7 @@
         <v>-144.47499999999999</v>
       </c>
       <c r="AM242" s="10">
-        <v>12590840.708929366</v>
+        <v>1</v>
       </c>
       <c r="AN242" s="10">
         <v>11550.893599999999</v>
@@ -38579,7 +38579,7 @@
         <v>-190.11600000000001</v>
       </c>
       <c r="AM243" s="10">
-        <v>16000374.982121006</v>
+        <v>1</v>
       </c>
       <c r="AN243" s="10">
         <v>11502.073399999999</v>
@@ -38764,7 +38764,7 @@
         <v>-206.11</v>
       </c>
       <c r="AM244" s="10">
-        <v>20499311.933842886</v>
+        <v>1</v>
       </c>
       <c r="AN244" s="10">
         <v>13302.1441</v>
@@ -38949,7 +38949,7 @@
         <v>-49.573999999999998</v>
       </c>
       <c r="AM245" s="10">
-        <v>23105456.602027714</v>
+        <v>1</v>
       </c>
       <c r="AN245" s="10">
         <v>13464.8354</v>
@@ -39134,7 +39134,7 @@
         <v>9.843</v>
       </c>
       <c r="AM246" s="10">
-        <v>24797597.954079892</v>
+        <v>1</v>
       </c>
       <c r="AN246" s="10">
         <v>13624.8172</v>
@@ -39319,7 +39319,7 @@
         <v>48.758000000000003</v>
       </c>
       <c r="AM247" s="10">
-        <v>24444081.258600011</v>
+        <v>1</v>
       </c>
       <c r="AN247" s="10">
         <v>13770.6744</v>
@@ -39504,7 +39504,7 @@
         <v>116.226</v>
       </c>
       <c r="AM248" s="10">
-        <v>24494882.209248796</v>
+        <v>1</v>
       </c>
       <c r="AN248" s="10">
         <v>13676.7464</v>
@@ -39689,7 +39689,7 @@
         <v>58.073999999999998</v>
       </c>
       <c r="AM249" s="10">
-        <v>29217571.215604752</v>
+        <v>1</v>
       </c>
       <c r="AN249" s="10">
         <v>13715.589099999999</v>
@@ -39874,7 +39874,7 @@
         <v>25.065999999999999</v>
       </c>
       <c r="AM250" s="10">
-        <v>32652641.509396587</v>
+        <v>1</v>
       </c>
       <c r="AN250" s="10">
         <v>13951.4679</v>
@@ -40059,7 +40059,7 @@
         <v>57.518999999999998</v>
       </c>
       <c r="AM251" s="10">
-        <v>33530997.202157315</v>
+        <v>1</v>
       </c>
       <c r="AN251" s="10">
         <v>13980.0453</v>
@@ -40244,7 +40244,7 @@
         <v>-13.026999999999999</v>
       </c>
       <c r="AM252" s="10">
-        <v>29414538.203635938</v>
+        <v>1</v>
       </c>
       <c r="AN252" s="10">
         <v>13685.0682</v>
@@ -40405,7 +40405,7 @@
         <v>80.816000000000003</v>
       </c>
       <c r="AM253" s="10">
-        <v>29863926.754086852</v>
+        <v>1</v>
       </c>
       <c r="AN253" s="10">
         <v>13770.545700000001</v>
@@ -40566,7 +40566,7 @@
         <v>56.015000000000001</v>
       </c>
       <c r="AM254" s="10">
-        <v>35142493.08107882</v>
+        <v>1</v>
       </c>
       <c r="AN254" s="10">
         <v>13850.800800000001</v>
@@ -40727,7 +40727,7 @@
         <v>76.649000000000001</v>
       </c>
       <c r="AM255" s="10">
-        <v>35658877.658374175</v>
+        <v>1</v>
       </c>
       <c r="AN255" s="10">
         <v>13935.9372</v>
@@ -40888,7 +40888,7 @@
         <v>70.56</v>
       </c>
       <c r="AM256" s="10">
-        <v>38907722.715940475</v>
+        <v>1</v>
       </c>
       <c r="AN256" s="10">
         <v>13891.9807</v>
@@ -41049,7 +41049,7 @@
         <v>15.465999999999999</v>
       </c>
       <c r="AM257" s="10">
-        <v>39709883.821450263</v>
+        <v>1</v>
       </c>
       <c r="AN257" s="10">
         <v>13997.2996</v>
@@ -41210,7 +41210,7 @@
         <v>49.628</v>
       </c>
       <c r="AM258" s="10">
-        <v>44718352.785054527</v>
+        <v>1</v>
       </c>
       <c r="AN258" s="10">
         <v>14083.2801</v>
@@ -41371,7 +41371,7 @@
         <v>52.587000000000003</v>
       </c>
       <c r="AM259" s="10">
-        <v>53140762.304331213</v>
+        <v>1</v>
       </c>
       <c r="AN259" s="10">
         <v>14191.8524</v>
@@ -41532,7 +41532,7 @@
         <v>109.018</v>
       </c>
       <c r="AM260" s="10">
-        <v>57977427.747817166</v>
+        <v>1</v>
       </c>
       <c r="AN260" s="10">
         <v>16168.933000000001</v>
@@ -41693,7 +41693,7 @@
         <v>103.59399999999999</v>
       </c>
       <c r="AM261" s="10">
-        <v>63182473.760348663</v>
+        <v>1</v>
       </c>
       <c r="AN261" s="10">
         <v>16298.6389</v>
@@ -41854,7 +41854,7 @@
         <v>38.72</v>
       </c>
       <c r="AM262" s="10">
-        <v>65079005.009355068</v>
+        <v>1</v>
       </c>
       <c r="AN262" s="10">
         <v>16517.545999999998</v>
@@ -42015,7 +42015,7 @@
         <v>69.897000000000006</v>
       </c>
       <c r="AM263" s="10">
-        <v>73372872.698395833</v>
+        <v>1</v>
       </c>
       <c r="AN263" s="10">
         <v>16556.617200000001</v>
@@ -42176,7 +42176,7 @@
         <v>85.584000000000003</v>
       </c>
       <c r="AM264" s="10">
-        <v>78852100.137022942</v>
+        <v>1</v>
       </c>
       <c r="AN264" s="10">
         <v>16588.095700000002</v>
@@ -42337,7 +42337,7 @@
         <v>76.905000000000001</v>
       </c>
       <c r="AM265" s="10">
-        <v>79831420.615203455</v>
+        <v>1</v>
       </c>
       <c r="AN265" s="10">
         <v>16735.5494</v>
@@ -42498,7 +42498,7 @@
         <v>132.21600000000001</v>
       </c>
       <c r="AM266" s="10">
-        <v>82409603.634208873</v>
+        <v>1</v>
       </c>
       <c r="AN266" s="10">
         <v>16894.113000000001</v>
@@ -42659,7 +42659,7 @@
         <v>105.559</v>
       </c>
       <c r="AM267" s="10">
-        <v>87932142.909446791</v>
+        <v>1</v>
       </c>
       <c r="AN267" s="10">
         <v>16872.451700000001</v>
@@ -42820,7 +42820,7 @@
         <v>96.212000000000003</v>
       </c>
       <c r="AM268" s="10">
-        <v>82985786.766690925</v>
+        <v>1</v>
       </c>
       <c r="AN268" s="10">
         <v>16843.275699999998</v>
@@ -42981,7 +42981,7 @@
         <v>68.207999999999998</v>
       </c>
       <c r="AM269" s="10">
-        <v>79459616.660862401</v>
+        <v>1</v>
       </c>
       <c r="AN269" s="10">
         <v>16943.550200000001</v>
@@ -43142,7 +43142,7 @@
         <v>40.600999999999999</v>
       </c>
       <c r="AM270" s="10">
-        <v>75488105.208436862</v>
+        <v>1</v>
       </c>
       <c r="AN270" s="10">
         <v>16928.802299999999</v>
@@ -43303,7 +43303,7 @@
         <v>12.202</v>
       </c>
       <c r="AM271" s="10">
-        <v>86260105.092857435</v>
+        <v>1</v>
       </c>
       <c r="AN271" s="10">
         <v>16973.336599999999</v>
@@ -43464,7 +43464,7 @@
         <v>17.597000000000001</v>
       </c>
       <c r="AM272" s="10">
-        <v>92810748.56076172</v>
+        <v>1</v>
       </c>
       <c r="AN272" s="10">
         <v>17066.220099999999</v>
@@ -43620,7 +43620,7 @@
         <v>63.058999999999997</v>
       </c>
       <c r="AM273" s="10">
-        <v>94913751.338819668</v>
+        <v>1</v>
       </c>
       <c r="AN273" s="10">
         <v>17176.599699999999</v>
@@ -43776,7 +43776,7 @@
         <v>1.1719999999999999</v>
       </c>
       <c r="AM274" s="10">
-        <v>103455361.91647168</v>
+        <v>1</v>
       </c>
       <c r="AN274" s="10">
         <v>17305.7156</v>
@@ -43932,7 +43932,7 @@
         <v>5.4980000000000002</v>
       </c>
       <c r="AM275" s="10">
-        <v>113355637.27409409</v>
+        <v>1</v>
       </c>
       <c r="AN275" s="10">
         <v>17398.7997</v>
@@ -44088,7 +44088,7 @@
         <v>35.82</v>
       </c>
       <c r="AM276" s="10">
-        <v>123991799.2613039</v>
+        <v>1</v>
       </c>
       <c r="AN276" s="10">
         <v>17536.6898</v>
@@ -44241,7 +44241,7 @@
         <v>75.204899999999995</v>
       </c>
       <c r="AM277" s="10">
-        <v>139075630.59178457</v>
+        <v>1</v>
       </c>
       <c r="AN277" s="10">
         <v>17684.021700000001</v>
@@ -44394,7 +44394,7 @@
         <v>75.345399999999998</v>
       </c>
       <c r="AM278" s="10">
-        <v>142021215.76818734</v>
+        <v>1</v>
       </c>
       <c r="AN278" s="10">
         <v>17865.490399999999</v>
@@ -44532,7 +44532,7 @@
         <v>75.641199999999998</v>
       </c>
       <c r="AM279" s="10">
-        <v>148959689.47722089</v>
+        <v>1</v>
       </c>
       <c r="AN279" s="10">
         <v>17994.831900000001</v>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -968,10 +968,10 @@
   <dimension ref="A1:BK937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AM138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AL279" sqref="AL279"/>
+      <selection pane="bottomRight" activeCell="AT150" sqref="AT150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Quarterly Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data Description" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1304,10 +1304,10 @@
   <dimension ref="A1:BX937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AP6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AS6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2">
         <v>3</v>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -1455,10 +1455,10 @@
   <dimension ref="A1:CF937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AZ39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BF50" sqref="BF50"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/Code/Data/Quarterly.xlsx
+++ b/Code/Data/Quarterly.xlsx
@@ -1485,10 +1485,10 @@
   <dimension ref="A1:CG937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="BG99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="BB43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BH117" sqref="BH117"/>
+      <selection pane="bottomRight" activeCell="BE59" sqref="BE59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7873,13 +7873,13 @@
       </c>
       <c r="BC51" s="10"/>
       <c r="BD51" s="3">
-        <v>0.16032957997673</v>
+        <v>0.18395308305876101</v>
       </c>
       <c r="BE51" s="12">
-        <v>66.130305091841507</v>
+        <v>1.1350672458004101</v>
       </c>
       <c r="BF51" s="12">
-        <v>194.92119215686299</v>
+        <v>3.3456470588235301</v>
       </c>
       <c r="BJ51" s="10"/>
       <c r="BK51" s="10"/>
@@ -8047,13 +8047,13 @@
       </c>
       <c r="BC52" s="10"/>
       <c r="BD52" s="3">
-        <v>0.134193896120715</v>
+        <v>0.21431705424608599</v>
       </c>
       <c r="BE52" s="12">
-        <v>2.9888991194249801</v>
+        <v>2.4328999422451099</v>
       </c>
       <c r="BF52" s="12">
-        <v>1151.32122285175</v>
+        <v>461.71548914069899</v>
       </c>
       <c r="BJ52" s="10"/>
       <c r="BK52" s="10"/>
@@ -8221,13 +8221,13 @@
       </c>
       <c r="BC53" s="10"/>
       <c r="BD53" s="3">
-        <v>0.115565961516143</v>
+        <v>0.214676514203817</v>
       </c>
       <c r="BE53" s="12">
-        <v>1.5737911481126501</v>
+        <v>2.5031918857672402</v>
       </c>
       <c r="BF53" s="12">
-        <v>3694.3911680831002</v>
+        <v>2896.93538432483</v>
       </c>
       <c r="BJ53" s="10"/>
       <c r="BK53" s="10"/>
@@ -8397,13 +8397,13 @@
       </c>
       <c r="BC54" s="10"/>
       <c r="BD54" s="3">
-        <v>0.10097218987803</v>
+        <v>0.21058559949037201</v>
       </c>
       <c r="BE54" s="12">
-        <v>1.2522422226676899</v>
+        <v>2.4736095001870599</v>
       </c>
       <c r="BF54" s="12">
-        <v>6405.7554220000002</v>
+        <v>6406.7570040000001</v>
       </c>
       <c r="BJ54" s="10"/>
       <c r="BK54" s="10"/>
@@ -8573,13 +8573,13 @@
       </c>
       <c r="BC55" s="10"/>
       <c r="BD55" s="3">
-        <v>9.0838952087527999E-2</v>
+        <v>0.211247890874146</v>
       </c>
       <c r="BE55" s="12">
-        <v>1.08375741983241</v>
+        <v>2.4821098820077401</v>
       </c>
       <c r="BF55" s="12">
-        <v>8161.545196</v>
+        <v>10887.469755</v>
       </c>
       <c r="BJ55" s="10"/>
       <c r="BK55" s="10"/>
@@ -8749,13 +8749,13 @@
       </c>
       <c r="BC56" s="10"/>
       <c r="BD56" s="3">
-        <v>8.8177053113015005E-2</v>
+        <v>0.21685276532526601</v>
       </c>
       <c r="BE56" s="12">
-        <v>1.05645664061773</v>
+        <v>2.5520350779013601</v>
       </c>
       <c r="BF56" s="12">
-        <v>8679.7340550000008</v>
+        <v>14014.523961000001</v>
       </c>
       <c r="BJ56" s="10"/>
       <c r="BK56" s="10"/>
@@ -8925,13 +8925,13 @@
       </c>
       <c r="BC57" s="10"/>
       <c r="BD57" s="3">
-        <v>9.0163245138825995E-2</v>
+        <v>0.224402191455818</v>
       </c>
       <c r="BE57" s="12">
-        <v>1.1126183819394599</v>
+        <v>2.6644106528336899</v>
       </c>
       <c r="BF57" s="12">
-        <v>9017.8445250000004</v>
+        <v>15659.73115</v>
       </c>
       <c r="BJ57" s="10"/>
       <c r="BK57" s="10"/>
@@ -9101,13 +9101,13 @@
       </c>
       <c r="BC58" s="10"/>
       <c r="BD58" s="3">
-        <v>9.4265438635059998E-2</v>
+        <v>0.22652813597295099</v>
       </c>
       <c r="BE58" s="12">
-        <v>1.16218786910587</v>
+        <v>2.73425737450702</v>
       </c>
       <c r="BF58" s="12">
-        <v>9578.2388510000001</v>
+        <v>17066.471086000001</v>
       </c>
       <c r="BJ58" s="10"/>
       <c r="BK58" s="10"/>
@@ -9277,13 +9277,13 @@
       </c>
       <c r="BC59" s="10"/>
       <c r="BD59" s="3">
-        <v>9.3969534378454997E-2</v>
+        <v>0.22225501864844099</v>
       </c>
       <c r="BE59" s="12">
-        <v>1.16804670413914</v>
+        <v>2.7349513981878899</v>
       </c>
       <c r="BF59" s="12">
-        <v>9928.1467229999998</v>
+        <v>18237.540069999999</v>
       </c>
       <c r="BJ59" s="10"/>
       <c r="BK59" s="10"/>
@@ -9453,13 +9453,13 @@
       </c>
       <c r="BC60" s="10"/>
       <c r="BD60" s="3">
-        <v>9.5497745075803997E-2</v>
+        <v>0.22065819892628899</v>
       </c>
       <c r="BE60" s="12">
-        <v>1.1993092535238099</v>
+        <v>2.75342958910145</v>
       </c>
       <c r="BF60" s="12">
-        <v>10206.201419999999</v>
+        <v>19935.458175</v>
       </c>
       <c r="BJ60" s="10"/>
       <c r="BK60" s="10"/>
@@ -9629,13 +9629,13 @@
       </c>
       <c r="BC61" s="10"/>
       <c r="BD61" s="3">
-        <v>0.10040830097504901</v>
+        <v>0.22220106771381101</v>
       </c>
       <c r="BE61" s="12">
-        <v>1.2816918989427699</v>
+        <v>2.7979125569024701</v>
       </c>
       <c r="BF61" s="12">
-        <v>11316.279884</v>
+        <v>22527.119385999998</v>
       </c>
       <c r="BJ61" s="10"/>
       <c r="BK61" s="10"/>
@@ -9805,13 +9805,13 @@
       </c>
       <c r="BC62" s="10"/>
       <c r="BD62" s="3">
-        <v>0.107240480811264</v>
+        <v>0.220416672948541</v>
       </c>
       <c r="BE62" s="12">
-        <v>1.3605019263617</v>
+        <v>2.7893281221450201</v>
       </c>
       <c r="BF62" s="12">
-        <v>12148.334021000001</v>
+        <v>23605.118263</v>
       </c>
       <c r="BJ62" s="10"/>
       <c r="BK62" s="10"/>
@@ -9981,13 +9981,13 @@
       </c>
       <c r="BC63" s="10"/>
       <c r="BD63" s="3">
-        <v>0.109086987248376</v>
+        <v>0.21222366695985501</v>
       </c>
       <c r="BE63" s="12">
-        <v>1.3862068241931</v>
+        <v>2.7311931740625499</v>
       </c>
       <c r="BF63" s="12">
-        <v>12795.064544000001</v>
+        <v>23279.539059999999</v>
       </c>
       <c r="BJ63" s="10"/>
       <c r="BK63" s="10"/>
@@ -10157,13 +10157,13 @@
       </c>
       <c r="BC64" s="10"/>
       <c r="BD64" s="3">
-        <v>0.10992048903540701</v>
+        <v>0.202033375322796</v>
       </c>
       <c r="BE64" s="12">
-        <v>1.4073019362182</v>
+        <v>2.6712027361707502</v>
       </c>
       <c r="BF64" s="12">
-        <v>13050.950564999999</v>
+        <v>21961.637146000001</v>
       </c>
       <c r="BJ64" s="10"/>
       <c r="BK64" s="10"/>
@@ -10333,13 +10333,13 @@
       </c>
       <c r="BC65" s="10"/>
       <c r="BD65" s="3">
-        <v>0.108569635119353</v>
+        <v>0.19626530779151399</v>
       </c>
       <c r="BE65" s="12">
-        <v>1.42101409449759</v>
+        <v>2.6818381891679102</v>
       </c>
       <c r="BF65" s="12">
-        <v>13624.119966</v>
+        <v>21508.910209999998</v>
       </c>
       <c r="BJ65" s="10"/>
       <c r="BK65" s="10"/>
@@ -10509,13 +10509,13 @@
       </c>
       <c r="BC66" s="10"/>
       <c r="BD66" s="3">
-        <v>0.109429839383941</v>
+        <v>0.19685110918749599</v>
       </c>
       <c r="BE66" s="12">
-        <v>1.4475368623226501</v>
+        <v>2.7033116887371502</v>
       </c>
       <c r="BF66" s="12">
-        <v>14026.902797000001</v>
+        <v>21905.949237000001</v>
       </c>
       <c r="BJ66" s="10"/>
       <c r="BK66" s="10"/>
@@ -10685,13 +10685,13 @@
       </c>
       <c r="BC67" s="10"/>
       <c r="BD67" s="3">
-        <v>0.105939501956014</v>
+        <v>0.197763196556617</v>
       </c>
       <c r="BE67" s="12">
-        <v>1.4202431131492099</v>
+        <v>2.6831059210978498</v>
       </c>
       <c r="BF67" s="12">
-        <v>14002.196726</v>
+        <v>22068.659030999999</v>
       </c>
       <c r="BJ67" s="10"/>
       <c r="BK67" s="10"/>
@@ -10861,13 +10861,13 @@
       </c>
       <c r="BC68" s="10"/>
       <c r="BD68" s="3">
-        <v>0.10659847102208</v>
+        <v>0.19509113858910901</v>
       </c>
       <c r="BE68" s="12">
-        <v>1.4527486450376701</v>
+        <v>2.6985907240999198</v>
       </c>
       <c r="BF68" s="12">
-        <v>14633.148728</v>
+        <v>23842.575108000001</v>
       </c>
       <c r="BJ68" s="10"/>
       <c r="BK68" s="10"/>
@@ -11037,13 +11037,13 @@
       </c>
       <c r="BC69" s="10"/>
       <c r="BD69" s="3">
-        <v>0.11436198331777001</v>
+        <v>0.19054944596516701</v>
       </c>
       <c r="BE69" s="12">
-        <v>1.60002739482517</v>
+        <v>2.7564186094706198</v>
       </c>
       <c r="BF69" s="12">
-        <v>17465.215011</v>
+        <v>30081.989637999999</v>
       </c>
       <c r="BJ69" s="10"/>
       <c r="BK69" s="10"/>
@@ -11213,13 +11213,13 @@
       </c>
       <c r="BC70" s="10"/>
       <c r="BD70" s="3">
-        <v>0.12338824141526</v>
+        <v>0.188492269692042</v>
       </c>
       <c r="BE70" s="12">
-        <v>1.7399497258177601</v>
+        <v>2.8089363855383902</v>
       </c>
       <c r="BF70" s="12">
-        <v>20606.452324000002</v>
+        <v>38324.946337000001</v>
       </c>
       <c r="BJ70" s="10"/>
       <c r="BK70" s="10"/>
@@ -11389,13 +11389,13 @@
       </c>
       <c r="BC71" s="10"/>
       <c r="BD71" s="3">
-        <v>0.12771887128985199</v>
+        <v>0.19109408754649401</v>
       </c>
       <c r="BE71" s="12">
-        <v>1.75413346832168</v>
+        <v>2.8896050183827802</v>
       </c>
       <c r="BF71" s="12">
-        <v>22969.034446999998</v>
+        <v>45865.930613999997</v>
       </c>
       <c r="BJ71" s="10"/>
       <c r="BK71" s="10"/>
@@ -11565,13 +11565,13 @@
       </c>
       <c r="BC72" s="10"/>
       <c r="BD72" s="3">
-        <v>0.134476458410239</v>
+        <v>0.19522851825149201</v>
       </c>
       <c r="BE72" s="12">
-        <v>1.78759068781505</v>
+        <v>2.95964168849261</v>
       </c>
       <c r="BF72" s="12">
-        <v>24564.056002000001</v>
+        <v>49356.900307000004</v>
       </c>
       <c r="BJ72" s="10"/>
       <c r="BK72" s="10"/>
@@ -11741,13 +11741,13 @@
       </c>
       <c r="BC73" s="10"/>
       <c r="BD73" s="3">
-        <v>0.14961454480077399</v>
+        <v>0.19593241082207299</v>
       </c>
       <c r="BE73" s="12">
-        <v>1.99210147705425</v>
+        <v>2.9459099452771</v>
       </c>
       <c r="BF73" s="12">
-        <v>27954.516005000001</v>
+        <v>51154.233952000002</v>
       </c>
       <c r="BJ73" s="10"/>
       <c r="BK73" s="10"/>
@@ -11919,13 +11919,13 @@
       </c>
       <c r="BC74" s="15"/>
       <c r="BD74" s="3">
-        <v>0.169655646904941</v>
+        <v>0.19216739328146801</v>
       </c>
       <c r="BE74" s="12">
-        <v>2.32922229123692</v>
+        <v>2.8493347932026398</v>
       </c>
       <c r="BF74" s="12">
-        <v>32197.633185999999</v>
+        <v>54468.192789000001</v>
       </c>
       <c r="BJ74" s="10"/>
       <c r="BK74" s="10"/>
@@ -12097,13 +12097,13 @@
       </c>
       <c r="BC75" s="15"/>
       <c r="BD75" s="3">
-        <v>0.18564299779198501</v>
+        <v>0.19113420284204</v>
       </c>
       <c r="BE75" s="12">
-        <v>2.5317573910081199</v>
+        <v>2.8278149719922898</v>
       </c>
       <c r="BF75" s="12">
-        <v>36756.836259999996</v>
+        <v>60875.546679999999</v>
       </c>
       <c r="BJ75" s="10"/>
       <c r="BK75" s="10"/>
@@ -12275,13 +12275,13 @@
       </c>
       <c r="BC76" s="15"/>
       <c r="BD76" s="3">
-        <v>0.19351326184517001</v>
+        <v>0.194304464164962</v>
       </c>
       <c r="BE76" s="12">
-        <v>2.5510139399859399</v>
+        <v>2.9135684452680501</v>
       </c>
       <c r="BF76" s="12">
-        <v>39780.309372999996</v>
+        <v>67701.801149000006</v>
       </c>
       <c r="BJ76" s="10"/>
       <c r="BK76" s="10"/>
@@ -12453,13 +12453,13 @@
       </c>
       <c r="BC77" s="15"/>
       <c r="BD77" s="3">
-        <v>0.196930368944814</v>
+        <v>0.198084276937917</v>
       </c>
       <c r="BE77" s="12">
-        <v>2.59322717744607</v>
+        <v>3.0208377988512098</v>
       </c>
       <c r="BF77" s="12">
-        <v>42077.073275000002</v>
+        <v>72243.360237999994</v>
       </c>
       <c r="BJ77" s="10"/>
       <c r="BK77" s="10"/>
@@ -12647,13 +12647,13 @@
       </c>
       <c r="BC78" s="15"/>
       <c r="BD78" s="3">
-        <v>0.201104691276107</v>
+        <v>0.19961358822905301</v>
       </c>
       <c r="BE78" s="12">
-        <v>2.9998665594048202</v>
+        <v>3.06136993392552</v>
       </c>
       <c r="BF78" s="12">
-        <v>44029.589678999997</v>
+        <v>74788.344693999999</v>
       </c>
       <c r="BJ78" s="10"/>
       <c r="BK78" s="10"/>
@@ -12841,13 +12841,13 @@
       </c>
       <c r="BC79" s="15"/>
       <c r="BD79" s="3">
-        <v>0.203186973702043</v>
+        <v>0.19994983642300099</v>
       </c>
       <c r="BE79" s="12">
-        <v>2.5457969511816501</v>
+        <v>3.0917145272156699</v>
       </c>
       <c r="BF79" s="12">
-        <v>46561.779836000002</v>
+        <v>79810.865441999995</v>
       </c>
       <c r="BJ79" s="10"/>
       <c r="BK79" s="10"/>
@@ -13035,13 +13035,13 @@
       </c>
       <c r="BC80" s="15"/>
       <c r="BD80" s="3">
-        <v>0.20210479354375799</v>
+        <v>0.199136719424099</v>
       </c>
       <c r="BE80" s="12">
-        <v>1.9441953837433199</v>
+        <v>3.1299940073067098</v>
       </c>
       <c r="BF80" s="12">
-        <v>48728.648090000002</v>
+        <v>85916.428727000006</v>
       </c>
       <c r="BJ80" s="10"/>
       <c r="BK80" s="10"/>
@@ -13231,13 +13231,13 @@
       </c>
       <c r="BC81" s="15"/>
       <c r="BD81" s="3">
-        <v>0.20290218625787801</v>
+        <v>0.19790500557698401</v>
       </c>
       <c r="BE81" s="12">
-        <v>1.7124599510754701</v>
+        <v>3.1728909380363102</v>
       </c>
       <c r="BF81" s="12">
-        <v>51651.455464999999</v>
+        <v>90710.357766000001</v>
       </c>
       <c r="BJ81" s="10"/>
       <c r="BK81" s="10"/>
@@ -13452,13 +13452,13 @@
       </c>
       <c r="BC82" s="15"/>
       <c r="BD82" s="3">
-        <v>0.20639905022382901</v>
+        <v>0.19826153991477499</v>
       </c>
       <c r="BE82" s="12">
-        <v>2.9742643904089401</v>
+        <v>3.2234935565117402</v>
       </c>
       <c r="BF82" s="12">
-        <v>53738.598953000001</v>
+        <v>95392.355555999995</v>
       </c>
       <c r="BJ82" s="10"/>
       <c r="BK82" s="10"/>
@@ -13673,13 +13673,13 @@
       </c>
       <c r="BC83" s="15"/>
       <c r="BD83" s="3">
-        <v>0.21235020802788501</v>
+        <v>0.20207354153700099</v>
       </c>
       <c r="BE83" s="12">
-        <v>1.21266206148936</v>
+        <v>3.3067687913250401</v>
       </c>
       <c r="BF83" s="12">
-        <v>56563.884555999997</v>
+        <v>101781.89273399999</v>
       </c>
       <c r="BJ83" s="10"/>
       <c r="BK83" s="10"/>
@@ -13894,13 +13894,13 @@
       </c>
       <c r="BC84" s="15"/>
       <c r="BD84" s="3">
-        <v>0.21934888301598199</v>
+        <v>0.209675761304668</v>
       </c>
       <c r="BE84" s="12">
-        <v>0.58918622671420395</v>
+        <v>3.44438287088265</v>
       </c>
       <c r="BF84" s="12">
-        <v>60306.887798999996</v>
+        <v>108910.595671</v>
       </c>
       <c r="BJ84" s="10"/>
       <c r="BK84" s="10"/>
@@ -14114,13 +14114,13 @@
       </c>
       <c r="BC85" s="15"/>
       <c r="BD85" s="3">
-        <v>0.224405232336539</v>
+        <v>0.218199312822905</v>
       </c>
       <c r="BE85" s="12">
-        <v>0.48441290156333</v>
+        <v>3.5807839518354201</v>
       </c>
       <c r="BF85" s="12">
-        <v>64588.255320999997</v>
+        <v>114202.32832299999</v>
       </c>
       <c r="BJ85" s="10"/>
       <c r="BK85" s="10"/>
@@ -14335,13 +14335,13 @@
       </c>
       <c r="BC86" s="15"/>
       <c r="BD86" s="3">
-        <v>0.23178053591287601</v>
+        <v>0.224891045022825</v>
       </c>
       <c r="BE86" s="12">
-        <v>0.71462038225532099</v>
+        <v>3.6833538127252199</v>
       </c>
       <c r="BF86" s="12">
-        <v>67746.785942999995</v>
+        <v>119861.69362400001</v>
       </c>
       <c r="BJ86" s="10"/>
       <c r="BK86" s="10"/>
@@ -14555,13 +14555,13 @@
       </c>
       <c r="BC87" s="15"/>
       <c r="BD87" s="3">
-        <v>0.22487302211140101</v>
+        <v>0.22838661915453101</v>
       </c>
       <c r="BE87" s="12">
-        <v>0.90466200865110802</v>
+        <v>3.7724849757482799</v>
       </c>
       <c r="BF87" s="12">
-        <v>70188.954505999995</v>
+        <v>127605.8217</v>
       </c>
       <c r="BJ87" s="10"/>
       <c r="BK87" s="10"/>
@@ -14783,13 +14783,13 @@
       </c>
       <c r="BC88" s="15"/>
       <c r="BD88" s="3">
-        <v>0.20905991619912601</v>
+        <v>0.22848069886821301</v>
       </c>
       <c r="BE88" s="12">
-        <v>0.56086625451513705</v>
+        <v>3.9222347988955599</v>
       </c>
       <c r="BF88" s="12">
-        <v>72095.313829000006</v>
+        <v>133362.447782</v>
       </c>
       <c r="BJ88" s="10"/>
       <c r="BK88" s="10"/>
@@ -15011,13 +15011,13 @@
       </c>
       <c r="BC89" s="15"/>
       <c r="BD89" s="3">
-        <v>0.19563797934706401</v>
+        <v>0.228123380777429</v>
       </c>
       <c r="BE89" s="12">
-        <v>0.37176935211166201</v>
+        <v>3.9753448788877201</v>
       </c>
       <c r="BF89" s="12">
-        <v>76129.857784000007</v>
+        <v>134289.669165</v>
       </c>
       <c r="BJ89" s="10"/>
       <c r="BK89" s="10"/>
@@ -15239,13 +15239,13 @@
       </c>
       <c r="BC90" s="15"/>
       <c r="BD90" s="3">
-        <v>0.19964867565307301</v>
+        <v>0.23825450175270901</v>
       </c>
       <c r="BE90" s="12">
-        <v>0.39101396876626598</v>
+        <v>5.8642664394608497</v>
       </c>
       <c r="BF90" s="12">
-        <v>79726.353902999996</v>
+        <v>136426.999438</v>
       </c>
       <c r="BJ90" s="10"/>
       <c r="BK90" s="10"/>
@@ -15467,13 +15467,13 @@
       </c>
       <c r="BC91" s="15"/>
       <c r="BD91" s="3">
-        <v>0.17544923993405401</v>
+        <v>0.222701338549218</v>
       </c>
       <c r="BE91" s="12">
-        <v>0.46796428102858201</v>
+        <v>2.4828640864920701</v>
       </c>
       <c r="BF91" s="12">
-        <v>91528.095899999898</v>
+        <v>145299.82114499999</v>
       </c>
       <c r="BJ91" s="10"/>
       <c r="BK91" s="10"/>
@@ -15695,13 +15695,13 @@
       </c>
       <c r="BC92" s="15"/>
       <c r="BD92" s="3">
-        <v>0.14691079134858401</v>
+        <v>0.18748705416641701</v>
       </c>
       <c r="BE92" s="12">
-        <v>0.42461838877411401</v>
+        <v>1.06621762555745</v>
       </c>
       <c r="BF92" s="12">
-        <v>103599.56255800001</v>
+        <v>155594.71455899999</v>
       </c>
       <c r="BJ92" s="10"/>
       <c r="BK92" s="10"/>
@@ -15923,13 +15923,13 @@
       </c>
       <c r="BC93" s="15"/>
       <c r="BD93" s="3">
-        <v>0.13437455606952001</v>
+        <v>0.16380273321433</v>
       </c>
       <c r="BE93" s="12">
-        <v>0.31547267990528999</v>
+        <v>0.72338360354564601</v>
       </c>
       <c r="BF93" s="12">
-        <v>107637.98129</v>
+        <v>158044.96051199999</v>
       </c>
       <c r="BJ93" s="10"/>
       <c r="BK93" s="10"/>
@@ -16151,13 +16151,13 @@
       </c>
       <c r="BC94" s="15"/>
       <c r="BD94" s="3">
-        <v>0.144845706952345</v>
+        <v>0.16549832707328199</v>
       </c>
       <c r="BE94" s="3">
-        <v>0.25626121554180398</v>
+        <v>0.77147877908300599</v>
       </c>
       <c r="BF94" s="3">
-        <v>100176.740091</v>
+        <v>154104.80900800001</v>
       </c>
       <c r="BJ94" s="10"/>
       <c r="BK94" s="10"/>
@@ -16379,13 +16379,13 @@
       </c>
       <c r="BC95" s="15"/>
       <c r="BD95" s="3">
-        <v>0.15734428635838199</v>
+        <v>0.17847906905460001</v>
       </c>
       <c r="BE95" s="3">
-        <v>0.25356187763398103</v>
+        <v>0.978559643183049</v>
       </c>
       <c r="BF95" s="3">
-        <v>102385.10507000001</v>
+        <v>157901.31834200001</v>
       </c>
       <c r="BJ95" s="10"/>
       <c r="BK95" s="10"/>
@@ -16607,13 +16607,13 @@
       </c>
       <c r="BC96" s="15"/>
       <c r="BD96" s="3">
-        <v>0.153743480736414</v>
+        <v>0.181073564949289</v>
       </c>
       <c r="BE96" s="3">
-        <v>0.28796908845514002</v>
+        <v>0.97348522498830103</v>
       </c>
       <c r="BF96" s="3">
-        <v>119259.877028</v>
+        <v>181605.31529200001</v>
       </c>
       <c r="BJ96" s="10"/>
       <c r="BK96" s="10"/>
@@ -16835,13 +16835,13 @@
       </c>
       <c r="BC97" s="15"/>
       <c r="BD97" s="3">
-        <v>0.14610373089856099</v>
+        <v>0.175168991036662</v>
       </c>
       <c r="BE97" s="3">
-        <v>0.305496536627062</v>
+        <v>0.84647142690989996</v>
       </c>
       <c r="BF97" s="3">
-        <v>135539.31767600001</v>
+        <v>215392.73313800001</v>
       </c>
       <c r="BJ97" s="10"/>
       <c r="BK97" s="10"/>
@@ -17065,13 +17065,13 @@
         <v>-6.1175000000000007E-2</v>
       </c>
       <c r="BD98" s="3">
-        <v>0.15728655276043699</v>
+        <v>0.18399356255579299</v>
       </c>
       <c r="BE98" s="3">
-        <v>0.28162311297524101</v>
+        <v>0.99543742173133998</v>
       </c>
       <c r="BF98" s="3">
-        <v>130059.53139400001</v>
+        <v>237232.76045500001</v>
       </c>
       <c r="BG98" s="3">
         <v>1.026</v>
@@ -17298,13 +17298,13 @@
         <v>-0.1303</v>
       </c>
       <c r="BD99" s="3">
-        <v>0.16577010577126</v>
+        <v>0.19358471872635599</v>
       </c>
       <c r="BE99" s="3">
-        <v>0.276553043636516</v>
+        <v>1.22066941562113</v>
       </c>
       <c r="BF99" s="3">
-        <v>132346.682118</v>
+        <v>246025.60365199999</v>
       </c>
       <c r="BG99" s="3">
         <v>1.0113000000000001</v>
@@ -17531,13 +17531,13 @@
         <v>-0.19322500000000001</v>
       </c>
       <c r="BD100" s="3">
-        <v>0.15815140810877201</v>
+        <v>0.18960394688801299</v>
       </c>
       <c r="BE100" s="3">
-        <v>0.30042617316040299</v>
+        <v>1.1100212108274099</v>
       </c>
       <c r="BF100" s="3">
-        <v>149935.13651899999</v>
+        <v>248832.60437399999</v>
       </c>
       <c r="BG100" s="3">
         <v>0.97560000000000002</v>
@@ -17764,13 +17764,13 @@
         <v>2.0800000000000003E-2</v>
       </c>
       <c r="BD101" s="3">
-        <v>0.15304436293265</v>
+        <v>0.180474194655494</v>
       </c>
       <c r="BE101" s="3">
-        <v>0.32990879077447599</v>
+        <v>0.896280892947519</v>
       </c>
       <c r="BF101" s="3">
-        <v>171688.17733800001</v>
+        <v>254946.35239399999</v>
       </c>
       <c r="BG101" s="3">
         <v>1.2197</v>
@@ -17997,13 +17997,13 @@
         <v>-9.2499999999999701E-4</v>
       </c>
       <c r="BD102" s="3">
-        <v>0.16877901328775699</v>
+        <v>0.19085365996436299</v>
       </c>
       <c r="BE102" s="3">
-        <v>0.32252055232586202</v>
+        <v>1.0378989329034001</v>
       </c>
       <c r="BF102" s="3">
-        <v>170013.72888000001</v>
+        <v>260675.82152900001</v>
       </c>
       <c r="BG102" s="3">
         <v>1.1686000000000001</v>
@@ -18230,13 +18230,13 @@
         <v>0.44482499999999997</v>
       </c>
       <c r="BD103" s="3">
-        <v>0.17856703778911501</v>
+        <v>0.20394014386424</v>
       </c>
       <c r="BE103" s="3">
-        <v>0.31067075639800601</v>
+        <v>1.38835540597116</v>
       </c>
       <c r="BF103" s="3">
-        <v>165858.997703</v>
+        <v>266825.44107499998</v>
       </c>
       <c r="BG103" s="3">
         <v>1.6315</v>
@@ -18464,13 +18464,13 @@
         <v>0.83892500000000003</v>
       </c>
       <c r="BD104" s="3">
-        <v>0.153392018208275</v>
+        <v>0.18839191267326499</v>
       </c>
       <c r="BE104" s="3">
-        <v>0.31676623764374201</v>
+        <v>1.1702789470216599</v>
       </c>
       <c r="BF104" s="3">
-        <v>173988.77579099999</v>
+        <v>272777.59204000002</v>
       </c>
       <c r="BG104" s="3">
         <v>2.1772</v>
@@ -18697,13 +18697,13 @@
         <v>0.7399</v>
       </c>
       <c r="BD105" s="3">
-        <v>0.124453650527158</v>
+        <v>0.15687543677497701</v>
       </c>
       <c r="BE105" s="3">
-        <v>0.33875147175141601</v>
+        <v>0.72777562559151499</v>
       </c>
       <c r="BF105" s="3">
-        <v>191917.47080800001</v>
+        <v>277215.59786400001</v>
       </c>
       <c r="BG105" s="3">
         <v>2.1158999999999999</v>
@@ -18930,13 +18930,13 @@
         <v>0.34040000000000004</v>
       </c>
       <c r="BD106" s="3">
-        <v>0.111240753358216</v>
+        <v>0.13957029244587299</v>
       </c>
       <c r="BE106" s="3">
-        <v>0.34343707032229798</v>
+        <v>0.56287280603171497</v>
       </c>
       <c r="BF106" s="3">
-        <v>195941.16817200001</v>
+        <v>279686.73942200001</v>
       </c>
       <c r="BG106" s="3">
         <v>1.5933999999999999</v>
@@ -19163,13 +19163,13 @@
         <v>0.249975</v>
       </c>
       <c r="BD107" s="3">
-        <v>0.108376174732987</v>
+        <v>0.136502169078354</v>
       </c>
       <c r="BE107" s="3">
-        <v>0.34452778152562102</v>
+        <v>0.52784529536886604</v>
       </c>
       <c r="BF107" s="3">
-        <v>199461.298962</v>
+        <v>285122.78755000001</v>
       </c>
       <c r="BG107" s="3">
         <v>1.4368000000000001</v>
@@ -19396,13 +19396,13 @@
         <v>0.213725</v>
       </c>
       <c r="BD108" s="3">
-        <v>0.10974023803825</v>
+        <v>0.13889420851436099</v>
       </c>
       <c r="BE108" s="3">
-        <v>0.354752272471407</v>
+        <v>0.52803870991618795</v>
       </c>
       <c r="BF108" s="3">
-        <v>210936.96853099999</v>
+        <v>289986.84016800002</v>
       </c>
       <c r="BG108" s="3">
         <v>1.3525</v>
@@ -19629,13 +19629,13 @@
         <v>-4.9750000000000003E-3</v>
       </c>
       <c r="BD109" s="3">
-        <v>0.1098987214824</v>
+        <v>0.13837206753720399</v>
       </c>
       <c r="BE109" s="3">
-        <v>0.37748801829532602</v>
+        <v>0.50798326737312305</v>
       </c>
       <c r="BF109" s="3">
-        <v>229825.462302</v>
+        <v>289758.43168500002</v>
       </c>
       <c r="BG109" s="3">
         <v>1.1652</v>
@@ -19862,13 +19862,13 @@
         <v>-8.7049999999999988E-2</v>
       </c>
       <c r="BD110" s="3">
-        <v>0.10833218633861</v>
+        <v>0.13560704452264999</v>
       </c>
       <c r="BE110" s="3">
-        <v>0.39132803677058903</v>
+        <v>0.48470937223272498</v>
       </c>
       <c r="BF110" s="3">
-        <v>237793.80991499999</v>
+        <v>278124.18306000001</v>
       </c>
       <c r="BG110" s="3">
         <v>1.0137</v>
@@ -20095,13 +20095,13 @@
         <v>-7.4124999999999996E-2</v>
       </c>
       <c r="BD111" s="3">
-        <v>0.107698836669813</v>
+        <v>0.13421165875969901</v>
       </c>
       <c r="BE111" s="3">
-        <v>0.39458778102885</v>
+        <v>0.47204809840214701</v>
       </c>
       <c r="BF111" s="3">
-        <v>243005.42312200001</v>
+        <v>270245.75417899998</v>
       </c>
       <c r="BG111" s="3">
         <v>0.99609999999999999</v>
@@ -20328,13 +20328,13 @@
         <v>-0.13437499999999999</v>
       </c>
       <c r="BD112" s="3">
-        <v>0.108671845817465</v>
+        <v>0.13176377263712299</v>
       </c>
       <c r="BE112" s="3">
-        <v>0.391679367401498</v>
+        <v>0.45762813629803201</v>
       </c>
       <c r="BF112" s="3">
-        <v>252291.192668</v>
+        <v>272648.61108</v>
       </c>
       <c r="BG112" s="3">
         <v>0.89380000000000004</v>
@@ -20561,13 +20561,13 @@
         <v>-0.19112499999999999</v>
       </c>
       <c r="BD113" s="3">
-        <v>0.110469437882341</v>
+        <v>0.126927924018883</v>
       </c>
       <c r="BE113" s="3">
-        <v>0.394439474929969</v>
+        <v>0.43844670291879001</v>
       </c>
       <c r="BF113" s="3">
-        <v>267490.18715999997</v>
+        <v>279468.70235899999</v>
       </c>
       <c r="BG113" s="3">
         <v>0.95240000000000002</v>
@@ -20794,13 +20794,13 @@
         <v>-0.214475</v>
       </c>
       <c r="BD114" s="3">
-        <v>0.110525551398639</v>
+        <v>0.12131145566312899</v>
       </c>
       <c r="BE114" s="3">
-        <v>0.39992797611277497</v>
+        <v>0.42287207150232597</v>
       </c>
       <c r="BF114" s="3">
-        <v>276493.12016799999</v>
+        <v>283770.24865700002</v>
       </c>
       <c r="BG114" s="3">
         <v>0.90690000000000004</v>
@@ -21027,13 +21027,13 @@
         <v>-0.20880000000000001</v>
       </c>
       <c r="BD115" s="3">
-        <v>0.109990512447944</v>
+        <v>0.117486412141215</v>
       </c>
       <c r="BE115" s="3">
-        <v>0.40229704348744799</v>
+        <v>0.41407832381601001</v>
       </c>
       <c r="BF115" s="3">
-        <v>283744.87874100002</v>
+        <v>287814.903406</v>
       </c>
       <c r="BG115" s="3">
         <v>0.84830000000000005</v>
@@ -21260,13 +21260,13 @@
         <v>-0.14255000000000001</v>
       </c>
       <c r="BD116" s="3">
-        <v>0.11052398255283299</v>
+        <v>0.11729020461293101</v>
       </c>
       <c r="BE116" s="3">
-        <v>0.40458508200450499</v>
+        <v>0.41741822679584201</v>
       </c>
       <c r="BF116" s="3">
-        <v>294722.40779500001</v>
+        <v>298882.85821600002</v>
       </c>
       <c r="BG116" s="3">
         <v>0.96399999999999997</v>
@@ -21493,13 +21493,13 @@
         <v>-0.24445</v>
       </c>
       <c r="BD117" s="3">
-        <v>0.112772461378488</v>
+        <v>0.120071935792574</v>
       </c>
       <c r="BE117" s="3">
-        <v>0.41293081350142402</v>
+        <v>0.43220797890319002</v>
       </c>
       <c r="BF117" s="3">
-        <v>311065.97813900001</v>
+        <v>318264.95408199902</v>
       </c>
       <c r="BG117" s="3">
         <v>0.88529999999999998</v>
@@ -21727,13 +21727,13 @@
         <v>-0.35142500000000004</v>
       </c>
       <c r="BD118" s="3">
-        <v>0.113211548714078</v>
+        <v>0.120937348838443</v>
       </c>
       <c r="BE118" s="3">
-        <v>0.42125921300791203</v>
+        <v>0.44070936026665403</v>
       </c>
       <c r="BF118" s="3">
-        <v>320213.18320899899</v>
+        <v>329827.82807099901</v>
       </c>
       <c r="BG118" s="3">
         <v>0.74839999999999995</v>
@@ -21963,13 +21963,13 @@
         <v>-0.35807500000000003</v>
       </c>
       <c r="BD119" s="3">
-        <v>0.112228146616504</v>
+        <v>0.120155005060994</v>
       </c>
       <c r="BE119" s="3">
-        <v>0.42247296280958002</v>
+        <v>0.44045168898072601</v>
       </c>
       <c r="BF119" s="3">
-        <v>326827.28383099998</v>
+        <v>337842.56680500001</v>
       </c>
       <c r="BG119" s="3">
         <v>0.69720000000000004</v>
@@ -22199,13 +22199,13 @@
         <v>-0.41002500000000003</v>
       </c>
       <c r="BD120" s="3">
-        <v>0.111526786969188</v>
+        <v>0.119281548617363</v>
       </c>
       <c r="BE120" s="3">
-        <v>0.41896653649468202</v>
+        <v>0.43678677510234498</v>
       </c>
       <c r="BF120" s="3">
-        <v>336955.91786699998</v>
+        <v>349170.77591199998</v>
       </c>
       <c r="BG120" s="3">
         <v>0.61029999999999995</v>
@@ -22435,13 +22435,13 @@
         <v>-0.39570000000000005</v>
       </c>
       <c r="BD121" s="3">
-        <v>0.112339716848848</v>
+        <v>0.120008517187491</v>
       </c>
       <c r="BE121" s="3">
-        <v>0.419816604072828</v>
+        <v>0.43974075280974501</v>
       </c>
       <c r="BF121" s="3">
-        <v>351993.59345300001</v>
+        <v>364656.33336500003</v>
       </c>
       <c r="BG121" s="3">
         <v>0.63759999999999994</v>
@@ -22671,13 +22671,13 @@
         <v>-0.27247499999999997</v>
       </c>
       <c r="BD122" s="3">
-        <v>0.11344490231458799</v>
+        <v>0.12159185717446901</v>
       </c>
       <c r="BE122" s="3">
-        <v>0.42944137766544899</v>
+        <v>0.45097600168323898</v>
       </c>
       <c r="BF122" s="3">
-        <v>364709.21085500001</v>
+        <v>377378.47096599999</v>
       </c>
       <c r="BG122" s="3">
         <v>0.66539999999999999</v>
@@ -22907,13 +22907,13 @@
         <v>-0.25080000000000002</v>
       </c>
       <c r="BD123" s="3">
-        <v>0.113122476918026</v>
+        <v>0.120975013521594</v>
       </c>
       <c r="BE123" s="3">
-        <v>0.43326866733564101</v>
+        <v>0.45408997581057797</v>
       </c>
       <c r="BF123" s="3">
-        <v>376526.35007399903</v>
+        <v>387265.42195899901</v>
       </c>
       <c r="BG123" s="3">
         <v>0.69</v>
@@ -23143,13 +23143,13 @@
         <v>-0.40362499999999996</v>
       </c>
       <c r="BD124" s="3">
-        <v>0.111015560894342</v>
+        <v>0.118059053279676</v>
       </c>
       <c r="BE124" s="3">
-        <v>0.42621934630059899</v>
+        <v>0.44599421558664398</v>
       </c>
       <c r="BF124" s="3">
-        <v>385842.07025099901</v>
+        <v>396601.65957499901</v>
       </c>
       <c r="BG124" s="3">
         <v>0.65900000000000003</v>
@@ -23379,13 +23379,13 @@
         <v>-0.24897499999999997</v>
       </c>
       <c r="BD125" s="3">
-        <v>0.10926164970783001</v>
+        <v>0.115959492371777</v>
       </c>
       <c r="BE125" s="3">
-        <v>0.41959523469816001</v>
+        <v>0.44017810886301101</v>
       </c>
       <c r="BF125" s="3">
-        <v>393826.64285699901</v>
+        <v>406641.391165999</v>
       </c>
       <c r="BG125" s="3">
         <v>0.77180000000000004</v>
@@ -23615,13 +23615,13 @@
         <v>-0.2445</v>
       </c>
       <c r="BD126" s="3">
-        <v>0.107959548216346</v>
+        <v>0.115344517316773</v>
       </c>
       <c r="BE126" s="3">
-        <v>0.41985561579880498</v>
+        <v>0.44017242405594298</v>
       </c>
       <c r="BF126" s="3">
-        <v>394857.39814100001</v>
+        <v>409772.73260400002</v>
       </c>
       <c r="BG126" s="3">
         <v>0.92379999999999995</v>
@@ -23851,13 +23851,13 @@
         <v>-0.18429999999999996</v>
       </c>
       <c r="BD127" s="3">
-        <v>0.10694164813798999</v>
+        <v>0.114478402728767</v>
       </c>
       <c r="BE127" s="3">
-        <v>0.41797066565456198</v>
+        <v>0.436133293219024</v>
       </c>
       <c r="BF127" s="3">
-        <v>399343.04122700001</v>
+        <v>408843.91354600003</v>
       </c>
       <c r="BG127" s="3">
         <v>0.93500000000000005</v>
@@ -24087,13 +24087,13 @@
         <v>-7.8300000000000008E-2</v>
       </c>
       <c r="BD128" s="3">
-        <v>0.105829768669653</v>
+        <v>0.11358443197394399</v>
       </c>
       <c r="BE128" s="3">
-        <v>0.40955356175851398</v>
+        <v>0.43314550748632202</v>
       </c>
       <c r="BF128" s="3">
-        <v>412189.93431899999</v>
+        <v>432400.53721400001</v>
       </c>
       <c r="BG128" s="3">
         <v>0.8629</v>
@@ -24323,13 +24323,13 @@
         <v>9.3750000000000014E-2</v>
       </c>
       <c r="BD129" s="3">
-        <v>0.104772153143371</v>
+        <v>0.112343659928306</v>
       </c>
       <c r="BE129" s="3">
-        <v>0.40122962820854902</v>
+        <v>0.43306847195491199</v>
       </c>
       <c r="BF129" s="3">
-        <v>427658.57303099998</v>
+        <v>487395.12177099998</v>
       </c>
       <c r="BG129" s="3">
         <v>0.98980000000000001</v>
@@ -24559,13 +24559,13 @@
         <v>0.22002499999999997</v>
       </c>
       <c r="BD130" s="3">
-        <v>0.104044294173496</v>
+        <v>0.11229246756839301</v>
       </c>
       <c r="BE130" s="3">
-        <v>0.40238398113603002</v>
+        <v>0.44132950050429198</v>
       </c>
       <c r="BF130" s="3">
-        <v>432015.24177800003</v>
+        <v>554451.86956799997</v>
       </c>
       <c r="BG130" s="3">
         <v>0.96340000000000003</v>
@@ -24795,13 +24795,13 @@
         <v>0.41004999999999997</v>
       </c>
       <c r="BD131" s="3">
-        <v>0.102199904922189</v>
+        <v>0.110552919601796</v>
       </c>
       <c r="BE131" s="3">
-        <v>0.400000637245298</v>
+        <v>0.43537919152896198</v>
       </c>
       <c r="BF131" s="3">
-        <v>436754.45563699998</v>
+        <v>596600.89863500104</v>
       </c>
       <c r="BG131" s="3">
         <v>1.1214999999999999</v>
@@ -25031,13 +25031,13 @@
         <v>0.40697499999999998</v>
       </c>
       <c r="BD132" s="3">
-        <v>9.7541452685181995E-2</v>
+        <v>0.105691496443963</v>
       </c>
       <c r="BE132" s="3">
-        <v>0.381808262197677</v>
+        <v>0.410589171874857</v>
       </c>
       <c r="BF132" s="3">
-        <v>445404.41354799899</v>
+        <v>599295.38989300095</v>
       </c>
       <c r="BG132" s="3">
         <v>1.1418999999999999</v>
@@ -25267,13 +25267,13 @@
         <v>0.55515000000000003</v>
       </c>
       <c r="BD133" s="3">
-        <v>9.1867858468742E-2</v>
+        <v>0.10012167146045101</v>
       </c>
       <c r="BE133" s="3">
-        <v>0.35696394259852898</v>
+        <v>0.384402539649708</v>
       </c>
       <c r="BF133" s="3">
-        <v>452814.92828199902</v>
+        <v>579323.12285400101</v>
       </c>
       <c r="BG133" s="3">
         <v>1.4448000000000001</v>
@@ -25503,13 +25503,13 @@
         <v>0.77115</v>
       </c>
       <c r="BD134" s="3">
-        <v>8.6812205492627997E-2</v>
+        <v>9.61926048953715E-2</v>
       </c>
       <c r="BE134" s="3">
-        <v>0.33784489435479798</v>
+        <v>0.36836914907128798</v>
       </c>
       <c r="BF134" s="3">
-        <v>444973.96526499902</v>
+        <v>554166.88142600004</v>
       </c>
       <c r="BG134" s="3">
         <v>1.5509999999999999</v>
@@ -25739,13 +25739,13 @@
         <v>0.74307499999999993</v>
       </c>
       <c r="BD135" s="3">
-        <v>8.5776670972133998E-2</v>
+        <v>9.4628113639360495E-2</v>
       </c>
       <c r="BE135" s="3">
-        <v>0.337008921355331</v>
+        <v>0.36457571558924201</v>
       </c>
       <c r="BF135" s="3">
-        <v>448925.314931</v>
+        <v>539062.61877700104</v>
       </c>
       <c r="BG135" s="3">
         <v>1.5548999999999999</v>
@@ -25975,13 +25975,13 @@
         <v>0.36220000000000002</v>
       </c>
       <c r="BD136" s="3">
-        <v>8.8185292030966006E-2</v>
+        <v>9.5802855610275794E-2</v>
       </c>
       <c r="BE136" s="3">
-        <v>0.34955643711067602</v>
+        <v>0.37245064232967401</v>
       </c>
       <c r="BF136" s="3">
-        <v>475401.90082600003</v>
+        <v>548182.92000800103</v>
       </c>
       <c r="BG136" s="3">
         <v>1.6774</v>
@@ -26211,13 +26211,13 @@
         <v>0.48142499999999999</v>
       </c>
       <c r="BD137" s="3">
-        <v>9.0982171880596999E-2</v>
+        <v>9.8197534498659603E-2</v>
       </c>
       <c r="BE137" s="3">
-        <v>0.360694054933131</v>
+        <v>0.38504293582951099</v>
       </c>
       <c r="BF137" s="3">
-        <v>509585.037717</v>
+        <v>575247.58849000104</v>
       </c>
       <c r="BG137" s="3">
         <v>1.5542</v>
@@ -26447,13 +26447,13 @@
         <v>0.2656</v>
       </c>
       <c r="BD138" s="3">
-        <v>9.1000206091229996E-2</v>
+        <v>9.9332393209383293E-2</v>
       </c>
       <c r="BE138" s="3">
-        <v>0.35993805700138698</v>
+        <v>0.39037054489607398</v>
       </c>
       <c r="BF138" s="3">
-        <v>514859.24478000001</v>
+        <v>595950.53228900104</v>
       </c>
       <c r="BG138" s="3">
         <v>1.1416999999999999</v>
@@ -26685,13 +26685,13 @@
         <v>-5.4499999999999965E-3</v>
       </c>
       <c r="BD139" s="3">
-        <v>9.0753859900629993E-2</v>
+        <v>9.8431541290753599E-2</v>
       </c>
       <c r="BE139" s="3">
-        <v>0.356663737640182</v>
+        <v>0.38228243770440901</v>
       </c>
       <c r="BF139" s="3">
-        <v>517288.66819599998</v>
+        <v>604404.23213200003</v>
       </c>
       <c r="BG139" s="3">
         <v>0.89</v>
@@ -26923,13 +26923,13 @@
         <v>-9.8674999999999999E-2</v>
       </c>
       <c r="BD140" s="3">
-        <v>9.1686384503664994E-2</v>
+        <v>9.63454278994757E-2</v>
       </c>
       <c r="BE140" s="3">
-        <v>0.35923179806250299</v>
+        <v>0.36705215763836102</v>
       </c>
       <c r="BF140" s="3">
-        <v>539596.43202299904</v>
+        <v>606079.12960700004</v>
       </c>
       <c r="BG140" s="3">
         <v>0.88780000000000003</v>
@@ -27161,13 +27161,13 @@
         <v>3.9625E-2</v>
       </c>
       <c r="BD141" s="3">
-        <v>9.2507046533527995E-2</v>
+        <v>9.4772382842493494E-2</v>
       </c>
       <c r="BE141" s="3">
-        <v>0.365376874528691</v>
+        <v>0.35779248415542297</v>
       </c>
       <c r="BF141" s="3">
-        <v>569839.51083899895</v>
+        <v>604684.02785800002</v>
       </c>
       <c r="BG141" s="3">
         <v>0.94359999999999999</v>
@@ -27399,13 +27399,13 @@
         <v>3.5875000000000004E-2</v>
       </c>
       <c r="BD142" s="3">
-        <v>8.8952937407489996E-2</v>
+        <v>9.1903066120946703E-2</v>
       </c>
       <c r="BE142" s="3">
-        <v>0.35755347955380201</v>
+        <v>0.34649923951664602</v>
       </c>
       <c r="BF142" s="3">
-        <v>558238.840814</v>
+        <v>575499.71504799998</v>
       </c>
       <c r="BG142" s="3">
         <v>0.95289999999999997</v>
@@ -27637,13 +27637,13 @@
         <v>-7.7149999999999996E-2</v>
       </c>
       <c r="BD143" s="3">
-        <v>8.5076896434250995E-2</v>
+        <v>8.9126766499728505E-2</v>
       </c>
       <c r="BE143" s="3">
-        <v>0.34806969644597402</v>
+        <v>0.34071617181951303</v>
       </c>
       <c r="BF143" s="3">
-        <v>539527.66899599996</v>
+        <v>554376.87906399998</v>
       </c>
       <c r="BG143" s="3">
         <v>0.877</v>
@@ -27875,13 +27875,13 @@
         <v>-4.9800000000000004E-2</v>
       </c>
       <c r="BD144" s="3">
-        <v>8.3723845152155002E-2</v>
+        <v>8.7805938617518994E-2</v>
       </c>
       <c r="BE144" s="3">
-        <v>0.34683893183866898</v>
+        <v>0.342299824722607</v>
       </c>
       <c r="BF144" s="3">
-        <v>544309.38919300097</v>
+        <v>559597.44567600102</v>
       </c>
       <c r="BG144" s="3">
         <v>0.95779999999999998</v>
@@ -28113,13 +28113,13 @@
         <v>-0.100975</v>
       </c>
       <c r="BD145" s="3">
-        <v>8.4642999668490995E-2</v>
+        <v>8.8231655305638104E-2</v>
       </c>
       <c r="BE145" s="3">
-        <v>0.354446259058664</v>
+        <v>0.34814606714966201</v>
       </c>
       <c r="BF145" s="3">
-        <v>571384.567821</v>
+        <v>583731.24020200095</v>
       </c>
       <c r="BG145" s="3">
         <v>0.99639999999999995</v>
@@ -28351,13 +28351,13 @@
         <v>-2.2450000000000001E-2</v>
       </c>
       <c r="BD146" s="3">
-        <v>8.3350445187202998E-2</v>
+        <v>8.7373494784597897E-2</v>
       </c>
       <c r="BE146" s="3">
-        <v>0.35433942075258401</v>
+        <v>0.34427772496258602</v>
       </c>
       <c r="BF146" s="3">
-        <v>572747.85307799897</v>
+        <v>584154.66466999904</v>
       </c>
       <c r="BG146" s="3">
         <v>1.0276000000000001</v>
@@ -28589,13 +28589,13 @@
         <v>3.7799999999999993E-2</v>
       </c>
       <c r="BD147" s="3">
-        <v>8.2545211719847994E-2</v>
+        <v>8.7096922869808996E-2</v>
       </c>
       <c r="BE147" s="3">
-        <v>0.357560714241553</v>
+        <v>0.346725595722431</v>
       </c>
       <c r="BF147" s="3">
-        <v>578854.59837099805</v>
+        <v>592391.35166999802</v>
       </c>
       <c r="BG147" s="3">
         <v>1.1998</v>
@@ -28827,13 +28827,13 @@
         <v>0.21395</v>
       </c>
       <c r="BD148" s="3">
-        <v>8.3100940554145006E-2</v>
+        <v>8.7347311038133799E-2</v>
       </c>
       <c r="BE148" s="3">
-        <v>0.36519778828713401</v>
+        <v>0.35613226940426601</v>
       </c>
       <c r="BF148" s="3">
-        <v>605220.62265799905</v>
+        <v>620251.97499699797</v>
       </c>
       <c r="BG148" s="3">
         <v>1.2437</v>
@@ -29065,13 +29065,13 @@
         <v>0.22452499999999997</v>
       </c>
       <c r="BD149" s="3">
-        <v>8.4882595590634005E-2</v>
+        <v>8.8599207862926702E-2</v>
       </c>
       <c r="BE149" s="3">
-        <v>0.37589276283496897</v>
+        <v>0.36994871612716901</v>
       </c>
       <c r="BF149" s="3">
-        <v>646480.26452099998</v>
+        <v>668454.10531999904</v>
       </c>
       <c r="BG149" s="3">
         <v>1.4291</v>
@@ -29303,13 +29303,13 @@
         <v>0.261075</v>
       </c>
       <c r="BD150" s="3">
-        <v>8.3739719689330999E-2</v>
+        <v>8.8152311126601005E-2</v>
       </c>
       <c r="BE150" s="3">
-        <v>0.37367858475329901</v>
+        <v>0.37084312377696599</v>
       </c>
       <c r="BF150" s="3">
-        <v>652963.24330300104</v>
+        <v>684205.32857400004</v>
       </c>
       <c r="BG150" s="3">
         <v>1.8412999999999999</v>
@@ -29546,13 +29546,13 @@
         <v>0.265625</v>
       </c>
       <c r="BD151" s="3">
-        <v>8.3885983875489997E-2</v>
+        <v>8.8971682961072204E-2</v>
       </c>
       <c r="BE151" s="3">
-        <v>0.37871700597491198</v>
+        <v>0.37778449550932203</v>
       </c>
       <c r="BF151" s="3">
-        <v>670961.53617700096</v>
+        <v>704042.39160500094</v>
       </c>
       <c r="BG151" s="3">
         <v>1.972</v>
@@ -29789,13 +29789,13 @@
         <v>0.47762499999999997</v>
       </c>
       <c r="BD152" s="3">
-        <v>8.6234366133703E-2</v>
+        <v>9.10237290275447E-2</v>
       </c>
       <c r="BE152" s="3">
-        <v>0.39512507919832801</v>
+        <v>0.39252842529805998</v>
       </c>
       <c r="BF152" s="3">
-        <v>719383.185201001</v>
+        <v>741476.79032100202</v>
       </c>
       <c r="BG152" s="3">
         <v>2.0950000000000002</v>
@@ -30032,13 +30032,13 @@
         <v>0.48585</v>
       </c>
       <c r="BD153" s="3">
-        <v>8.8059394820539996E-2</v>
+        <v>9.2284885043628903E-2</v>
       </c>
       <c r="BE153" s="3">
-        <v>0.40968025916748602</v>
+        <v>0.40288171341023599</v>
       </c>
       <c r="BF153" s="3">
-        <v>764820.32628000097</v>
+        <v>777450.36399800098</v>
       </c>
       <c r="BG153" s="3">
         <v>1.9807999999999999</v>
@@ -30275,13 +30275,13 @@
         <v>0.16820000000000002</v>
       </c>
       <c r="BD154" s="3">
-        <v>8.5869919429733002E-2</v>
+        <v>9.1224099377405596E-2</v>
       </c>
       <c r="BE154" s="3">
-        <v>0.40686360779719399</v>
+        <v>0.398514027836253</v>
       </c>
       <c r="BF154" s="3">
-        <v>753679.60455299995</v>
+        <v>769947.22196700005</v>
       </c>
       <c r="BG154" s="3">
         <v>1.8228</v>
@@ -30518,13 +30518,13 @@
         <v>-2.0299999999999999E-2</v>
       </c>
       <c r="BD155" s="3">
-        <v>8.4747383383226002E-2</v>
+        <v>9.1485735578219901E-2</v>
       </c>
       <c r="BE155" s="3">
-        <v>0.40740080249020499</v>
+        <v>0.401063132345579</v>
       </c>
       <c r="BF155" s="3">
-        <v>750805.117111</v>
+        <v>776975.590845</v>
       </c>
       <c r="BG155" s="3">
         <v>1.6871</v>
@@ -30761,13 +30761,13 @@
         <v>-3.9900000000000019E-2</v>
       </c>
       <c r="BD156" s="3">
-        <v>8.6937409265431004E-2</v>
+        <v>9.3389492671592605E-2</v>
       </c>
       <c r="BE156" s="3">
-        <v>0.42268343408800901</v>
+        <v>0.41654830440637802</v>
       </c>
       <c r="BF156" s="3">
-        <v>800187.44256400003</v>
+        <v>825967.21187899995</v>
       </c>
       <c r="BG156" s="3">
         <v>1.6107</v>
@@ -31004,13 +31004,13 @@
         <v>-0.35852500000000004</v>
       </c>
       <c r="BD157" s="3">
-        <v>8.8416142300110995E-2</v>
+        <v>9.4849643448382107E-2</v>
       </c>
       <c r="BE157" s="3">
-        <v>0.43515432801062898</v>
+        <v>0.43436518910064997</v>
       </c>
       <c r="BF157" s="3">
-        <v>855971.31530100002</v>
+        <v>886237.21618700004</v>
       </c>
       <c r="BG157" s="3">
         <v>1.5905</v>
@@ -31247,13 +31247,13 @@
         <v>-0.17615</v>
       </c>
       <c r="BD158" s="3">
-        <v>8.4729078005526995E-2</v>
+        <v>9.2673566022909701E-2</v>
       </c>
       <c r="BE158" s="3">
-        <v>0.42276394115192001</v>
+        <v>0.430154309651547</v>
       </c>
       <c r="BF158" s="3">
-        <v>836074.36494</v>
+        <v>882615.18565600005</v>
       </c>
       <c r="BG158" s="3">
         <v>1.593</v>
@@ -31490,13 +31490,13 @@
         <v>-0.12994999999999998</v>
       </c>
       <c r="BD159" s="3">
-        <v>8.0248352776047999E-2</v>
+        <v>8.8907961464829405E-2</v>
       </c>
       <c r="BE159" s="3">
-        <v>0.40513732323438001</v>
+        <v>0.41579188779742798</v>
       </c>
       <c r="BF159" s="3">
-        <v>796075.61965699994</v>
+        <v>853433.63927199901</v>
       </c>
       <c r="BG159" s="3">
         <v>1.4676</v>
@@ -31733,13 +31733,13 @@
         <v>-4.8099999999999997E-2</v>
       </c>
       <c r="BD160" s="3">
-        <v>8.1718250850916996E-2</v>
+        <v>8.8476818976236604E-2</v>
       </c>
       <c r="BE160" s="3">
-        <v>0.41536908536806699</v>
+        <v>0.41598292619168298</v>
       </c>
       <c r="BF160" s="3">
-        <v>830582.27102699899</v>
+        <v>875993.30236299895</v>
       </c>
       <c r="BG160" s="3">
         <v>1.4797</v>
@@ -31976,13 +31976,13 @@
         <v>9.9725000000000008E-2</v>
       </c>
       <c r="BD161" s="3">
-        <v>8.6497241071109995E-2</v>
+        <v>9.1788093273054094E-2</v>
       </c>
       <c r="BE161" s="3">
-        <v>0.44362968944108999</v>
+        <v>0.43598039196781202</v>
       </c>
       <c r="BF161" s="3">
-        <v>912372.99968699901</v>
+        <v>951115.27888899902</v>
       </c>
       <c r="BG161" s="3">
         <v>1.524</v>
@@ -32219,13 +32219,13 @@
         <v>0.19262499999999999</v>
       </c>
       <c r="BD162" s="3">
-        <v>8.8863053571093004E-2</v>
+        <v>9.5969352362422697E-2</v>
       </c>
       <c r="BE162" s="3">
-        <v>0.46681034025423301</v>
+        <v>0.46526361432306201</v>
       </c>
       <c r="BF162" s="3">
-        <v>959335.87584399898</v>
+        <v>1014619.1955950001</v>
       </c>
       <c r="BG162" s="3">
         <v>1.5034000000000001</v>
@@ -32462,13 +32462,13 @@
         <v>0.439025</v>
       </c>
       <c r="BD163" s="3">
-        <v>8.8476823852007003E-2</v>
+        <v>9.7481357448031103E-2</v>
       </c>
       <c r="BE163" s="3">
-        <v>0.47455922040375098</v>
+        <v>0.48475995089219898</v>
       </c>
       <c r="BF163" s="3">
-        <v>966770.18469799997</v>
+        <v>1041815.1880570001</v>
       </c>
       <c r="BG163" s="3">
         <v>1.7632000000000001</v>
@@ -32705,13 +32705,13 @@
         <v>0.47524999999999995</v>
       </c>
       <c r="BD164" s="3">
-        <v>8.8451213810080004E-2</v>
+        <v>9.5848009146308102E-2</v>
       </c>
       <c r="BE164" s="3">
-        <v>0.47472258515393001</v>
+        <v>0.48391276797447702</v>
       </c>
       <c r="BF164" s="3">
-        <v>984170.76196900196</v>
+        <v>1051064.1223319999</v>
       </c>
       <c r="BG164" s="3">
         <v>1.7269000000000001</v>
@@ -32948,13 +32948,13 @@
         <v>0.455675</v>
       </c>
       <c r="BD165" s="3">
-        <v>8.7989992423445004E-2</v>
+        <v>9.2987632155279498E-2</v>
       </c>
       <c r="BE165" s="3">
-        <v>0.46945747545170402</v>
+        <v>0.472024525039697</v>
       </c>
       <c r="BF165" s="3">
-        <v>1005244.212053</v>
+        <v>1048292.986383</v>
       </c>
       <c r="BG165" s="3">
         <v>1.6442000000000001</v>
@@ -33191,13 +33191,13 @@
         <v>0.26757500000000001</v>
       </c>
       <c r="BD166" s="3">
-        <v>8.6583195760755002E-2</v>
+        <v>9.1903579477757499E-2</v>
       </c>
       <c r="BE166" s="3">
-        <v>0.46491958079231499</v>
+        <v>0.46692677602039001</v>
       </c>
       <c r="BF166" s="3">
-        <v>1005743.163708</v>
+        <v>1043393.937817</v>
       </c>
       <c r="BG166" s="3">
         <v>1.4482999999999999</v>
@@ -33434,13 +33434,13 @@
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="BD167" s="3">
-        <v>8.5105764655282995E-2</v>
+        <v>9.1700148715228205E-2</v>
       </c>
       <c r="BE167" s="3">
-        <v>0.46143260614345399</v>
+        <v>0.46808400013568502</v>
       </c>
       <c r="BF167" s="3">
-        <v>1004114.421647</v>
+        <v>1052799.2064439999</v>
       </c>
       <c r="BG167" s="3">
         <v>1.2152000000000001</v>
@@ -33677,13 +33677,13 @@
         <v>6.08E-2</v>
       </c>
       <c r="BD168" s="3">
-        <v>8.6125718418775005E-2</v>
+        <v>9.1720680229395002E-2</v>
       </c>
       <c r="BE168" s="3">
-        <v>0.46607366836560399</v>
+        <v>0.46857339113407198</v>
       </c>
       <c r="BF168" s="3">
-        <v>1036397.270263</v>
+        <v>1086534.195416</v>
       </c>
       <c r="BG168" s="3">
         <v>1.2535000000000001</v>
@@ -33920,13 +33920,13 @@
         <v>0.34792500000000004</v>
       </c>
       <c r="BD169" s="3">
-        <v>8.6504011312098006E-2</v>
+        <v>9.1227397678685901E-2</v>
       </c>
       <c r="BE169" s="3">
-        <v>0.46344286210748098</v>
+        <v>0.46492377592838902</v>
       </c>
       <c r="BF169" s="3">
-        <v>1052834.475412</v>
+        <v>1113729.103593</v>
       </c>
       <c r="BG169" s="3">
         <v>1.6213</v>
@@ -34163,13 +34163,13 @@
         <v>0.28492499999999998</v>
       </c>
       <c r="BD170" s="3">
-        <v>8.6354588903019003E-2</v>
+        <v>9.2351021839123901E-2</v>
       </c>
       <c r="BE170" s="3">
-        <v>0.46396991771948398</v>
+        <v>0.47301467679493098</v>
       </c>
       <c r="BF170" s="3">
-        <v>1047787.382448</v>
+        <v>1128938.1245820001</v>
       </c>
       <c r="BG170" s="3">
         <v>1.5216000000000001</v>
@@ -34406,13 +34406,13 @@
         <v>0.20732499999999998</v>
       </c>
       <c r="BD171" s="3">
-        <v>8.7355054852066003E-2</v>
+        <v>9.4969761704192607E-2</v>
       </c>
       <c r="BE171" s="3">
-        <v>0.47278427334548701</v>
+        <v>0.49256118708894298</v>
       </c>
       <c r="BF171" s="3">
-        <v>1063344.288308</v>
+        <v>1172130.6602479999</v>
       </c>
       <c r="BG171" s="3">
         <v>1.4752000000000001</v>
@@ -34649,13 +34649,13 @@
         <v>0.20484999999999998</v>
       </c>
       <c r="BD172" s="3">
-        <v>9.0502114983782994E-2</v>
+        <v>9.7208709081763003E-2</v>
       </c>
       <c r="BE172" s="3">
-        <v>0.48642626914901399</v>
+        <v>0.50607480717238096</v>
       </c>
       <c r="BF172" s="3">
-        <v>1119161.411882</v>
+        <v>1235839.9295930001</v>
       </c>
       <c r="BG172" s="3">
         <v>1.4875</v>
@@ -34892,13 +34892,13 @@
         <v>0.18975</v>
       </c>
       <c r="BD173" s="3">
-        <v>9.1931480710982005E-2</v>
+        <v>9.7010891729449794E-2</v>
       </c>
       <c r="BE173" s="3">
-        <v>0.48795015834571598</v>
+        <v>0.49997155703822599</v>
       </c>
       <c r="BF173" s="3">
-        <v>1158109.0792410001</v>
+        <v>1263137.6316579999</v>
       </c>
       <c r="BG173" s="3">
         <v>1.5107999999999999</v>
@@ -35135,13 +35135,13 @@
         <v>0.12354999999999999</v>
       </c>
       <c r="BD174" s="3">
-        <v>9.0118829904766995E-2</v>
+        <v>9.6824940225198206E-2</v>
       </c>
       <c r="BE174" s="3">
-        <v>0.47825119993639298</v>
+        <v>0.49303890050215199</v>
       </c>
       <c r="BF174" s="3">
-        <v>1144914.921572</v>
+        <v>1257073.9782410001</v>
       </c>
       <c r="BG174" s="3">
         <v>1.3742000000000001</v>
@@ -35378,13 +35378,13 @@
         <v>4.6975000000000003E-2</v>
       </c>
       <c r="BD175" s="3">
-        <v>8.8879966643726993E-2</v>
+        <v>9.7997031239655294E-2</v>
       </c>
       <c r="BE175" s="3">
-        <v>0.47562836766065097</v>
+        <v>0.49960535578270598</v>
       </c>
       <c r="BF175" s="3">
-        <v>1140101.155398</v>
+        <v>1267389.4143099999</v>
       </c>
       <c r="BG175" s="3">
         <v>1.3351999999999999</v>
@@ -35621,13 +35621,13 @@
         <v>0.12515000000000001</v>
       </c>
       <c r="BD176" s="3">
-        <v>9.1476244892242001E-2</v>
+        <v>0.100195826219834</v>
       </c>
       <c r="BE176" s="3">
-        <v>0.493924847601379</v>
+        <v>0.51646638452765004</v>
       </c>
       <c r="BF176" s="3">
-        <v>1201238.4962249999</v>
+        <v>1329431.5372609999</v>
       </c>
       <c r="BG176" s="3">
         <v>1.5062</v>
@@ -35864,13 +35864,13 @@
         <v>0.13067500000000001</v>
       </c>
       <c r="BD177" s="3">
-        <v>9.3556159960108007E-2</v>
+        <v>9.9708888561341399E-2</v>
       </c>
       <c r="BE177" s="3">
-        <v>0.508704812263854</v>
+        <v>0.51969344773535298</v>
       </c>
       <c r="BF177" s="3">
-        <v>1261131.684564</v>
+        <v>1373624.804581</v>
       </c>
       <c r="BG177" s="3">
         <v>1.4388000000000001</v>
@@ -36107,13 +36107,13 @@
         <v>7.1899999999999992E-2</v>
       </c>
       <c r="BD178" s="3">
-        <v>9.3347976519483997E-2</v>
+        <v>9.8007302548250103E-2</v>
       </c>
       <c r="BE178" s="3">
-        <v>0.51362588314105195</v>
+        <v>0.51288000216504104</v>
       </c>
       <c r="BF178" s="3">
-        <v>1271120.861152</v>
+        <v>1354747.9522820001</v>
       </c>
       <c r="BG178" s="3">
         <v>1.4533</v>
@@ -36350,13 +36350,13 @@
         <v>1.7750000000000005E-3</v>
       </c>
       <c r="BD179" s="3">
-        <v>9.1519476421853999E-2</v>
+        <v>9.6091235624672006E-2</v>
       </c>
       <c r="BE179" s="3">
-        <v>0.51278398558041505</v>
+        <v>0.50889703477466097</v>
       </c>
       <c r="BF179" s="3">
-        <v>1271050.393833</v>
+        <v>1339364.4774720001</v>
       </c>
       <c r="BG179" s="3">
         <v>1.4012</v>
@@ -36593,13 +36593,13 @@
         <v>-2.4625000000000001E-2</v>
       </c>
       <c r="BD180" s="3">
-        <v>9.0382151282107998E-2</v>
+        <v>9.4754266721934002E-2</v>
       </c>
       <c r="BE180" s="3">
-        <v>0.512417283364901</v>
+        <v>0.51392834619212002</v>
       </c>
       <c r="BF180" s="3">
-        <v>1308328.5930880001</v>
+        <v>1379822.7631969999</v>
       </c>
       <c r="BG180" s="3">
         <v>1.4315</v>
@@ -36836,13 +36836,13 @@
         <v>-0.12909999999999999</v>
       </c>
       <c r="BD181" s="3">
-        <v>8.9287828367637004E-2</v>
+        <v>9.2505791037579804E-2</v>
       </c>
       <c r="BE181" s="3">
-        <v>0.50725774903656795</v>
+        <v>0.51096760296174304</v>
       </c>
       <c r="BF181" s="3">
-        <v>1350991.667019</v>
+        <v>1426684.376039</v>
       </c>
       <c r="BG181" s="3">
         <v>1.3460000000000001</v>
@@ -37079,13 +37079,13 @@
         <v>-0.32047499999999995</v>
       </c>
       <c r="BD182" s="3">
-        <v>8.6260685919720997E-2</v>
+        <v>8.95188896643693E-2</v>
       </c>
       <c r="BE182" s="3">
-        <v>0.48343075648276801</v>
+        <v>0.493087375225501</v>
       </c>
       <c r="BF182" s="3">
-        <v>1313322.3218759999</v>
+        <v>1402545.1649239999</v>
       </c>
       <c r="BG182" s="3">
         <v>1.2428999999999999</v>
@@ -37322,13 +37322,13 @@
         <v>-0.30645</v>
       </c>
       <c r="BD183" s="3">
-        <v>8.3960786272857996E-2</v>
+        <v>8.7360526230093494E-2</v>
       </c>
       <c r="BE183" s="3">
-        <v>0.46360117816438801</v>
+        <v>0.47639479392581002</v>
       </c>
       <c r="BF183" s="3">
-        <v>1266909.634199</v>
+        <v>1356254.48377</v>
       </c>
       <c r="BG183" s="3">
         <v>1.2508999999999999</v>
@@ -37565,13 +37565,13 @@
         <v>-0.31940000000000002</v>
       </c>
       <c r="BD184" s="3">
-        <v>8.3883037642049005E-2</v>
+        <v>8.6936153557970505E-2</v>
       </c>
       <c r="BE184" s="3">
-        <v>0.45751906171116302</v>
+        <v>0.46768546200406302</v>
       </c>
       <c r="BF184" s="3">
-        <v>1284483.932756</v>
+        <v>1365085.6788910001</v>
       </c>
       <c r="BG184" s="3">
         <v>1.2150000000000001</v>
@@ -37808,13 +37808,13 @@
         <v>-0.25207499999999999</v>
       </c>
       <c r="BD185" s="3">
-        <v>8.2638251029754001E-2</v>
+        <v>8.4476952260826702E-2</v>
       </c>
       <c r="BE185" s="3">
-        <v>0.45175479220239001</v>
+        <v>0.45304482796592699</v>
       </c>
       <c r="BF185" s="3">
-        <v>1313293.3809720001</v>
+        <v>1373790.446738</v>
       </c>
       <c r="BG185" s="3">
         <v>1.2815000000000001</v>
@@ -38051,13 +38051,13 @@
         <v>-0.259575</v>
       </c>
       <c r="BD186" s="3">
-        <v>7.9438197147320005E-2</v>
+        <v>8.0002704411172396E-2</v>
       </c>
       <c r="BE186" s="3">
-        <v>0.43402941835218101</v>
+        <v>0.42419702397794001</v>
       </c>
       <c r="BF186" s="3">
-        <v>1273488.4809079999</v>
+        <v>1306116.3662459999</v>
       </c>
       <c r="BG186" s="3">
         <v>1.2770999999999999</v>
@@ -38294,13 +38294,13 @@
         <v>-0.26277499999999998</v>
       </c>
       <c r="BD187" s="3">
-        <v>7.7680585894412998E-2</v>
+        <v>7.7551042355454805E-2</v>
       </c>
       <c r="BE187" s="3">
-        <v>0.42659370842218203</v>
+        <v>0.41028480184389499</v>
       </c>
       <c r="BF187" s="3">
-        <v>1253120.415242</v>
+        <v>1267650.525997</v>
       </c>
       <c r="BG187" s="3">
         <v>1.3073999999999999</v>
@@ -38537,13 +38537,13 @@
         <v>-0.2112</v>
       </c>
       <c r="BD188" s="3">
-        <v>7.9507563331361997E-2</v>
+        <v>7.9991704142931205E-2</v>
       </c>
       <c r="BE188" s="3">
-        <v>0.437431581092531</v>
+        <v>0.42726953031528803</v>
       </c>
       <c r="BF188" s="3">
-        <v>1315307.7961850001</v>
+        <v>1346071.0409599999</v>
       </c>
       <c r="BG188" s="3">
         <v>1.3132999999999999</v>
@@ -38780,13 +38780,13 @@
         <v>-9.1175000000000006E-2</v>
       </c>
       <c r="BD189" s="3">
-        <v>8.1645503759540994E-2</v>
+        <v>8.2873271568599402E-2</v>
       </c>
       <c r="BE189" s="3">
-        <v>0.44995153777067998</v>
+        <v>0.44900507808502099</v>
       </c>
       <c r="BF189" s="3">
-        <v>1401810.431655</v>
+        <v>1463473.877817</v>
       </c>
       <c r="BG189" s="3">
         <v>1.4167000000000001</v>
@@ -39023,13 +39023,13 @@
         <v>-0.27934999999999999</v>
       </c>
       <c r="BD190" s="3">
-        <v>7.9907681235962993E-2</v>
+        <v>8.2180385316430404E-2</v>
       </c>
       <c r="BE190" s="3">
-        <v>0.437230802543981</v>
+        <v>0.44248097117239898</v>
       </c>
       <c r="BF190" s="3">
-        <v>1369229.4134509999</v>
+        <v>1454889.054151</v>
       </c>
       <c r="BG190" s="3">
         <v>1.3314999999999999</v>
@@ -39266,13 +39266,13 @@
         <v>-0.31377500000000003</v>
       </c>
       <c r="BD191" s="3">
-        <v>7.7931653320703995E-2</v>
+        <v>8.0111699622274296E-2</v>
       </c>
       <c r="BE191" s="3">
-        <v>0.42640228820349502</v>
+        <v>0.426690089252725</v>
       </c>
       <c r="BF191" s="3">
-        <v>1332472.3659930001</v>
+        <v>1405601.3965419999</v>
       </c>
       <c r="BG191" s="3">
         <v>1.2784</v>
@@ -39509,13 +39509,13 @@
         <v>-0.37607500000000005</v>
       </c>
       <c r="BD192" s="3">
-        <v>8.0030012787788998E-2</v>
+        <v>8.1492797114471605E-2</v>
       </c>
       <c r="BE192" s="3">
-        <v>0.44026266913119</v>
+        <v>0.42964781413515302</v>
       </c>
       <c r="BF192" s="3">
-        <v>1417943.302006</v>
+        <v>1464728.7177500001</v>
       </c>
       <c r="BG192" s="3">
         <v>1.2848999999999999</v>
@@ -39752,13 +39752,13 @@
         <v>-0.34962499999999996</v>
       </c>
       <c r="BD193" s="3">
-        <v>8.2690759157363999E-2</v>
+        <v>8.3481963562084399E-2</v>
       </c>
       <c r="BE193" s="3">
-        <v>0.460430589618607</v>
+        <v>0.44285541325515498</v>
       </c>
       <c r="BF193" s="3">
-        <v>1541428.3677399999</v>
+        <v>1573055.449297</v>
       </c>
       <c r="BG193" s="3">
         <v>1.3058000000000001</v>
@@ -39995,13 +39995,13 @@
         <v>-0.42622499999999997</v>
       </c>
       <c r="BD194" s="3">
-        <v>8.0970213447365005E-2</v>
+        <v>8.1343622425269102E-2</v>
       </c>
       <c r="BE194" s="3">
-        <v>0.45005784346244099</v>
+        <v>0.43259274029622502</v>
       </c>
       <c r="BF194" s="3">
-        <v>1516576.454445</v>
+        <v>1550285.888909</v>
       </c>
       <c r="BG194" s="3">
         <v>1.2424999999999999</v>
@@ -40238,13 +40238,13 @@
         <v>-0.48419999999999996</v>
       </c>
       <c r="BD195" s="3">
-        <v>7.9326846731240006E-2</v>
+        <v>7.9228891426911294E-2</v>
       </c>
       <c r="BE195" s="3">
-        <v>0.44081880865453599</v>
+        <v>0.42483540383970297</v>
       </c>
       <c r="BF195" s="3">
-        <v>1484302.863905</v>
+        <v>1520779.5674419899</v>
       </c>
       <c r="BG195" s="3">
         <v>1.1975</v>
@@ -40481,13 +40481,13 @@
         <v>-0.49975000000000003</v>
       </c>
       <c r="BD196" s="3">
-        <v>8.2045091853422999E-2</v>
+        <v>8.1961991960999195E-2</v>
       </c>
       <c r="BE196" s="3">
-        <v>0.45897740179574398</v>
+        <v>0.44309622786608999</v>
       </c>
       <c r="BF196" s="3">
-        <v>1585697.855064</v>
+        <v>1622946.4541859999</v>
       </c>
       <c r="BG196" s="3">
         <v>1.2225999999999999</v>
@@ -40724,13 +40724,13 @@
         <v>-0.37725000000000009</v>
       </c>
       <c r="BD197" s="3">
-        <v>8.5682340685590996E-2</v>
+        <v>8.7257391043650295E-2</v>
       </c>
       <c r="BE197" s="3">
-        <v>0.49363399903577398</v>
+        <v>0.484113939898701</v>
       </c>
       <c r="BF197" s="3">
-        <v>1774877.924722</v>
+        <v>1856432.698355</v>
       </c>
       <c r="BG197" s="3">
         <v>1.3562000000000001</v>
@@ -40967,13 +40967,13 @@
         <v>-0.37787500000000002</v>
       </c>
       <c r="BD198" s="3">
-        <v>8.4254035535221997E-2</v>
+        <v>8.9069311208941904E-2</v>
       </c>
       <c r="BE198" s="3">
-        <v>0.50112710073391997</v>
+        <v>0.50102763382000504</v>
       </c>
       <c r="BF198" s="3">
-        <v>1820395.1988979999</v>
+        <v>1963260.6869020001</v>
       </c>
       <c r="BG198" s="3">
         <v>1.3443000000000001</v>
@@ -41210,13 +41210,13 @@
         <v>-0.39492499999999997</v>
       </c>
       <c r="BD199" s="3">
-        <v>8.0544981765361998E-2</v>
+        <v>8.5774298540575999E-2</v>
       </c>
       <c r="BE199" s="3">
-        <v>0.49029347246113503</v>
+        <v>0.491069598143279</v>
       </c>
       <c r="BF199" s="3">
-        <v>1794671.0088839999</v>
+        <v>1944667.7211130001</v>
       </c>
       <c r="BG199" s="3">
         <v>1.3249</v>
@@ -41453,13 +41453,13 @@
         <v>-2.6275000000000007E-2</v>
       </c>
       <c r="BD200" s="3">
-        <v>7.9751550107385993E-2</v>
+        <v>8.3830668884080597E-2</v>
       </c>
       <c r="BE200" s="3">
-        <v>0.48786582443825299</v>
+        <v>0.48713464359083303</v>
       </c>
       <c r="BF200" s="3">
-        <v>1841793.121387</v>
+        <v>1973962.0342659999</v>
       </c>
       <c r="BG200" s="3">
         <v>2.0169000000000001</v>
@@ -41696,13 +41696,13 @@
         <v>9.9324999999999997E-2</v>
       </c>
       <c r="BD201" s="3">
-        <v>8.0584860121308E-2</v>
+        <v>8.5485815289618697E-2</v>
       </c>
       <c r="BE201" s="3">
-        <v>0.49544549404110499</v>
+        <v>0.50542849417748903</v>
       </c>
       <c r="BF201" s="3">
-        <v>1934358.572381</v>
+        <v>2095529.3774039999</v>
       </c>
       <c r="BG201" s="3">
         <v>2.1269</v>
@@ -41939,13 +41939,13 @@
         <v>-0.14847500000000002</v>
       </c>
       <c r="BD202" s="3">
-        <v>7.8429057882262995E-2</v>
+        <v>8.7200331549039806E-2</v>
       </c>
       <c r="BE202" s="3">
-        <v>0.48747814581998999</v>
+        <v>0.51458915218921397</v>
       </c>
       <c r="BF202" s="3">
-        <v>1918496.6387130001</v>
+        <v>2141942.8826970002</v>
       </c>
       <c r="BG202" s="3">
         <v>1.833</v>
@@ -42182,13 +42182,13 @@
         <v>-0.183</v>
       </c>
       <c r="BD203" s="3">
-        <v>7.6543500877357007E-2</v>
+        <v>8.6837262262623394E-2</v>
       </c>
       <c r="BE203" s="3">
-        <v>0.48314940686660002</v>
+        <v>0.51306388873522701</v>
       </c>
       <c r="BF203" s="3">
-        <v>1914998.750609</v>
+        <v>2153899.3396999999</v>
       </c>
       <c r="BG203" s="3">
         <v>1.7621</v>
@@ -42425,13 +42425,13 @@
         <v>-1.4574999999999998E-2</v>
       </c>
       <c r="BD204" s="3">
-        <v>7.8530144732589999E-2</v>
+        <v>8.5441149045543993E-2</v>
       </c>
       <c r="BE204" s="3">
-        <v>0.491563541252311</v>
+        <v>0.50530179899408101</v>
       </c>
       <c r="BF204" s="3">
-        <v>2033460.790418</v>
+        <v>2198009.4816919998</v>
       </c>
       <c r="BG204" s="3">
         <v>2.0268999999999999</v>
@@ -42668,13 +42668,13 @@
         <v>-4.1075E-2</v>
       </c>
       <c r="BD205" s="3">
-        <v>8.1921579105803E-2</v>
+        <v>8.5583091674896097E-2</v>
       </c>
       <c r="BE205" s="3">
-        <v>0.51001163083462198</v>
+        <v>0.51733370630320896</v>
       </c>
       <c r="BF205" s="3">
-        <v>2239412.315339</v>
+        <v>2401940.4380979999</v>
       </c>
       <c r="BG205" s="3">
         <v>2.0446</v>
@@ -42911,13 +42911,13 @@
         <v>0.14902500000000002</v>
       </c>
       <c r="BD206" s="3">
-        <v>8.1545071333401997E-2</v>
+        <v>8.6126926882751406E-2</v>
       </c>
       <c r="BE206" s="3">
-        <v>0.50335288148540103</v>
+        <v>0.51769974380684702</v>
       </c>
       <c r="BF206" s="3">
-        <v>2306907.4125040001</v>
+        <v>2548321.8655079999</v>
       </c>
       <c r="BG206" s="3">
         <v>2.3315999999999999</v>
@@ -43154,13 +43154,13 @@
         <v>0.58607500000000001</v>
       </c>
       <c r="BD207" s="3">
-        <v>7.8792418978004E-2</v>
+        <v>8.4088242013658096E-2</v>
       </c>
       <c r="BE207" s="3">
-        <v>0.48944490148430098</v>
+        <v>0.50203399727648401</v>
       </c>
       <c r="BF207" s="3">
-        <v>2303722.6324570002</v>
+        <v>2562218.7626140001</v>
       </c>
       <c r="BG207" s="3">
         <v>2.835</v>
@@ -43397,13 +43397,13 @@
         <v>0.96545000000000003</v>
       </c>
       <c r="BD208" s="3">
-        <v>7.7684153700989994E-2</v>
+        <v>8.1606393118093201E-2</v>
       </c>
       <c r="BE208" s="3">
-        <v>0.48361475057809999</v>
+        <v>0.49066970492885897</v>
       </c>
       <c r="BF208" s="3">
-        <v>2341169.599314</v>
+        <v>2561597.767488</v>
       </c>
       <c r="BG208" s="3">
         <v>3.2391999999999999</v>
@@ -43640,13 +43640,13 @@
         <v>1.261725</v>
       </c>
       <c r="BD209" s="3">
-        <v>7.7357900511360003E-2</v>
+        <v>8.1288271296230993E-2</v>
       </c>
       <c r="BE209" s="3">
-        <v>0.480007273716543</v>
+        <v>0.49993537013274703</v>
       </c>
       <c r="BF209" s="3">
-        <v>2382246.484313</v>
+        <v>2656825.0827310001</v>
       </c>
       <c r="BG209" s="3">
         <v>3.6334</v>
@@ -43883,13 +43883,13 @@
         <v>0.95327500000000009</v>
       </c>
       <c r="BD210" s="3">
-        <v>7.4588046961187995E-2</v>
+        <v>8.1795689006737296E-2</v>
       </c>
       <c r="BE210" s="3">
-        <v>0.45632314436406601</v>
+        <v>0.49883236894402799</v>
       </c>
       <c r="BF210" s="3">
-        <v>2291416.4393150001</v>
+        <v>2663676.4441800001</v>
       </c>
       <c r="BG210" s="3">
         <v>3.2886000000000002</v>
@@ -44126,13 +44126,13 @@
         <v>0.80967500000000003</v>
       </c>
       <c r="BD211" s="3">
-        <v>7.4693695538186E-2</v>
+        <v>8.3312012602712093E-2</v>
       </c>
       <c r="BE211" s="3">
-        <v>0.46130447551179199</v>
+        <v>0.50174876537059399</v>
       </c>
       <c r="BF211" s="3">
-        <v>2335282.9905829998</v>
+        <v>2720618.7734070001</v>
       </c>
       <c r="BG211" s="3">
         <v>3.1236000000000002</v>
@@ -44369,13 +44369,13 @@
         <v>0.91379999999999995</v>
       </c>
       <c r="BD212" s="3">
-        <v>7.8657056769207007E-2</v>
+        <v>8.4283830472676097E-2</v>
       </c>
       <c r="BE212" s="3">
-        <v>0.49027660024477498</v>
+        <v>0.50662322712076302</v>
       </c>
       <c r="BF212" s="3">
-        <v>2504881.8178569898</v>
+        <v>2787436.30204099</v>
       </c>
       <c r="BG212" s="3">
         <v>3.3347000000000002</v>
@@ -44612,13 +44612,13 @@
         <v>0.41409999999999997</v>
       </c>
       <c r="BD213" s="3">
-        <v>8.3427035885646997E-2</v>
+        <v>8.59482791044692E-2</v>
       </c>
       <c r="BE213" s="3">
-        <v>0.53551218990688598</v>
+        <v>0.54032342122226495</v>
       </c>
       <c r="BF213" s="3">
-        <v>2735988.5041949898</v>
+        <v>2977749.7124359901</v>
       </c>
       <c r="BG213" s="3">
         <v>3.0945</v>
@@ -44855,13 +44855,13 @@
         <v>0.43317500000000003</v>
       </c>
       <c r="BD214" s="3">
-        <v>8.3372046053063004E-2</v>
+        <v>8.7356355338351996E-2</v>
       </c>
       <c r="BE214" s="3">
-        <v>0.54440205988254697</v>
+        <v>0.56728672572210703</v>
       </c>
       <c r="BF214" s="3">
-        <v>2750809.8607439902</v>
+        <v>3081500.5056769899</v>
       </c>
       <c r="BG214" s="3">
         <v>2.7568000000000001</v>
@@ -45098,13 +45098,13 @@
         <v>0.78210000000000002</v>
       </c>
       <c r="BD215" s="3">
-        <v>8.1883194951639995E-2</v>
+        <v>8.9613732612615696E-2</v>
       </c>
       <c r="BE215" s="3">
-        <v>0.54848724410233995</v>
+        <v>0.592813071789696</v>
       </c>
       <c r="BF215" s="3">
-        <v>2740736.2332159998</v>
+        <v>3175606.8052019998</v>
       </c>
       <c r="BG215" s="3">
         <v>3.1526999999999998</v>
@@ -45341,13 +45341,13 @@
         <v>1.4215750000000003</v>
       </c>
       <c r="BD216" s="3">
-        <v>8.2792040033692005E-2</v>
+        <v>9.1172940003264799E-2</v>
       </c>
       <c r="BE216" s="3">
-        <v>0.56759313568248204</v>
+        <v>0.61266999625742902</v>
       </c>
       <c r="BF216" s="3">
-        <v>2845020.9377390002</v>
+        <v>3274913.8419539998</v>
       </c>
       <c r="BG216" s="3">
         <v>4.1440999999999999</v>
@@ -45584,13 +45584,13 @@
         <v>1.0042</v>
       </c>
       <c r="BD217" s="3">
-        <v>8.4252753061261995E-2</v>
+        <v>9.0724245279500196E-2</v>
       </c>
       <c r="BE217" s="3">
-        <v>0.59450429116210701</v>
+        <v>0.62202407657130998</v>
       </c>
       <c r="BF217" s="3">
-        <v>3019994.3116159998</v>
+        <v>3403907.5050849998</v>
       </c>
       <c r="BG217" s="3">
         <v>3.87</v>
@@ -45827,13 +45827,13 @@
         <v>0.35760000000000003</v>
       </c>
       <c r="BD218" s="3">
-        <v>8.1503732207594007E-2</v>
+        <v>8.7471484827057994E-2</v>
       </c>
       <c r="BE218" s="3">
-        <v>0.58244151503849595</v>
+        <v>0.60130187508627897</v>
       </c>
       <c r="BF218" s="3">
-        <v>2995803.7217069999</v>
+        <v>3369746.6348669999</v>
       </c>
       <c r="BG218" s="3">
         <v>3.2366999999999999</v>
@@ -46070,13 +46070,13 @@
         <v>-0.5616000000000001</v>
       </c>
       <c r="BD219" s="3">
-        <v>8.0532308597004998E-2</v>
+        <v>8.6376307936715496E-2</v>
       </c>
       <c r="BE219" s="3">
-        <v>0.58167793978111004</v>
+        <v>0.59881882312801404</v>
       </c>
       <c r="BF219" s="3">
-        <v>3088969.8194550001</v>
+        <v>3484856.151606</v>
       </c>
       <c r="BG219" s="3">
         <v>2.6349999999999998</v>
@@ -46313,13 +46313,13 @@
         <v>-0.62172499999999997</v>
       </c>
       <c r="BD220" s="3">
-        <v>8.3240160109828001E-2</v>
+        <v>8.7694823605026798E-2</v>
       </c>
       <c r="BE220" s="3">
-        <v>0.58847565992775197</v>
+        <v>0.60769688407141997</v>
       </c>
       <c r="BF220" s="3">
-        <v>3279793.776143</v>
+        <v>3695097.5630950001</v>
       </c>
       <c r="BG220" s="3">
         <v>2.359</v>
@@ -46556,13 +46556,13 @@
         <v>-0.57804999999999995</v>
       </c>
       <c r="BD221" s="3">
-        <v>8.7948816730821E-2</v>
+        <v>9.0300949247276496E-2</v>
       </c>
       <c r="BE221" s="3">
-        <v>0.61012965267277797</v>
+        <v>0.62036871395604198</v>
       </c>
       <c r="BF221" s="3">
-        <v>3576108.3148480002</v>
+        <v>3943891.9401670098</v>
       </c>
       <c r="BG221" s="3">
         <v>1.982</v>
@@ -46799,13 +46799,13 @@
         <v>-0.58327499999999999</v>
       </c>
       <c r="BD222" s="3">
-        <v>8.9164097769559997E-2</v>
+        <v>9.2462568095499104E-2</v>
       </c>
       <c r="BE222" s="3">
-        <v>0.59890714238583898</v>
+        <v>0.60497682808174003</v>
       </c>
       <c r="BF222" s="3">
-        <v>3607723.47969101</v>
+        <v>3941210.9591390099</v>
       </c>
       <c r="BG222" s="3">
         <v>1.8884000000000001</v>
@@ -47042,13 +47042,13 @@
         <v>-0.44525000000000003</v>
       </c>
       <c r="BD223" s="3">
-        <v>9.0859515105452995E-2</v>
+        <v>9.6949187151510005E-2</v>
       </c>
       <c r="BE223" s="3">
-        <v>0.60112151750699305</v>
+        <v>0.60940290284809495</v>
       </c>
       <c r="BF223" s="3">
-        <v>3714065.60151301</v>
+        <v>4104680.27256501</v>
       </c>
       <c r="BG223" s="3">
         <v>1.8445</v>
@@ -47285,13 +47285,13 @@
         <v>-0.46884999999999999</v>
       </c>
       <c r="BD224" s="3">
-        <v>9.3660634224333003E-2</v>
+        <v>0.102507832387635</v>
       </c>
       <c r="BE224" s="3">
-        <v>0.616210432773317</v>
+        <v>0.64878326058607805</v>
       </c>
       <c r="BF224" s="3">
-        <v>3928666.9853550098</v>
+        <v>4510936.3091000104</v>
       </c>
       <c r="BG224" s="3">
         <v>1.8208</v>
@@ -47528,13 +47528,13 @@
         <v>-0.69082499999999991</v>
       </c>
       <c r="BD225" s="3">
-        <v>9.3612301015254001E-2</v>
+        <v>0.105321815034882</v>
       </c>
       <c r="BE225" s="3">
-        <v>0.63596782603104096</v>
+        <v>0.69706632328084805</v>
       </c>
       <c r="BF225" s="3">
-        <v>4175518.8345320099</v>
+        <v>4972443.697985</v>
       </c>
       <c r="BG225" s="3">
         <v>1.6519999999999999</v>
@@ -47771,13 +47771,13 @@
         <v>-0.74007500000000004</v>
       </c>
       <c r="BD226" s="3">
-        <v>8.8029764138720004E-2</v>
+        <v>0.102737572557624</v>
       </c>
       <c r="BE226" s="3">
-        <v>0.615428487177201</v>
+        <v>0.68655077343851401</v>
       </c>
       <c r="BF226" s="3">
-        <v>4060756.0510710101</v>
+        <v>4916068.3207399901</v>
       </c>
       <c r="BG226" s="3">
         <v>1.8519000000000001</v>
@@ -48014,13 +48014,13 @@
         <v>-0.55317500000000008</v>
       </c>
       <c r="BD227" s="3">
-        <v>8.4569949682673007E-2</v>
+        <v>9.8239531573195593E-2</v>
       </c>
       <c r="BE227" s="3">
-        <v>0.60070404696318902</v>
+        <v>0.651688658367503</v>
       </c>
       <c r="BF227" s="3">
-        <v>3967814.75508</v>
+        <v>4670458.50287499</v>
       </c>
       <c r="BG227" s="3">
         <v>1.9699</v>
@@ -48257,13 +48257,13 @@
         <v>-0.62437500000000001</v>
       </c>
       <c r="BD228" s="3">
-        <v>8.6673684993683997E-2</v>
+        <v>9.5080999525865198E-2</v>
       </c>
       <c r="BE228" s="3">
-        <v>0.59568661454204197</v>
+        <v>0.62028946111899597</v>
       </c>
       <c r="BF228" s="3">
-        <v>3981673.3224490001</v>
+        <v>4478498.2211169899</v>
       </c>
       <c r="BG228" s="3">
         <v>1.7806999999999999</v>
@@ -48500,13 +48500,13 @@
         <v>-0.48800000000000004</v>
       </c>
       <c r="BD229" s="3">
-        <v>8.9853553156928001E-2</v>
+        <v>9.2631190271571198E-2</v>
       </c>
       <c r="BE229" s="3">
-        <v>0.60346780512793696</v>
+        <v>0.61071028725975196</v>
       </c>
       <c r="BF229" s="3">
-        <v>4182304.4128479999</v>
+        <v>4535829.8696919996</v>
       </c>
       <c r="BG229" s="3">
         <v>1.8502000000000001</v>
@@ -48743,13 +48743,13 @@
         <v>-0.52727500000000005</v>
       </c>
       <c r="BD230" s="3">
-        <v>8.7384372049983006E-2</v>
+        <v>8.9206374125823995E-2</v>
       </c>
       <c r="BE230" s="3">
-        <v>0.57712685641266404</v>
+        <v>0.58357305720296004</v>
       </c>
       <c r="BF230" s="3">
-        <v>4109927.3895089999</v>
+        <v>4414276.3657280104</v>
       </c>
       <c r="BG230" s="3">
         <v>1.6903999999999999</v>
@@ -48986,13 +48986,13 @@
         <v>-0.47494999999999998</v>
       </c>
       <c r="BD231" s="3">
-        <v>8.3974511972031998E-2</v>
+        <v>8.5374414205811197E-2</v>
       </c>
       <c r="BE231" s="3">
-        <v>0.56024326812598602</v>
+        <v>0.56116200427825502</v>
       </c>
       <c r="BF231" s="3">
-        <v>4106470.0907999999</v>
+        <v>4372594.3995310096</v>
       </c>
       <c r="BG231" s="3">
         <v>1.6846000000000001</v>
@@ -49229,13 +49229,13 @@
         <v>-0.44802500000000001</v>
       </c>
       <c r="BD232" s="3">
-        <v>8.5402259644087E-2</v>
+        <v>8.4994133561557703E-2</v>
       </c>
       <c r="BE232" s="3">
-        <v>0.56625310057322198</v>
+        <v>0.55799248291292602</v>
       </c>
       <c r="BF232" s="3">
-        <v>4247936.5680830004</v>
+        <v>4472036.7364800004</v>
       </c>
       <c r="BG232" s="3">
         <v>1.772</v>
@@ -49472,13 +49472,13 @@
         <v>-0.55820000000000003</v>
       </c>
       <c r="BD233" s="3">
-        <v>8.9375468530747001E-2</v>
+        <v>8.77285452016522E-2</v>
       </c>
       <c r="BE233" s="3">
-        <v>0.60471564550571899</v>
+        <v>0.59287934278586196</v>
       </c>
       <c r="BF233" s="3">
-        <v>4652148.7742259996</v>
+        <v>4890956.5496389996</v>
       </c>
       <c r="BG233" s="3">
         <v>1.6173999999999999</v>
@@ -49715,13 +49715,13 @@
         <v>-0.55722499999999997</v>
       </c>
       <c r="BD234" s="3">
-        <v>9.0920914567916997E-2</v>
+        <v>8.95479340568687E-2</v>
       </c>
       <c r="BE234" s="3">
-        <v>0.62282246590900103</v>
+        <v>0.61462134855205697</v>
       </c>
       <c r="BF234" s="3">
-        <v>4840215.1360240001</v>
+        <v>5139590.8901770003</v>
       </c>
       <c r="BG234" s="3">
         <v>1.5329999999999999</v>
@@ -49958,13 +49958,13 @@
         <v>-0.420825</v>
       </c>
       <c r="BD235" s="3">
-        <v>9.0517642669864007E-2</v>
+        <v>8.9492930720289798E-2</v>
       </c>
       <c r="BE235" s="3">
-        <v>0.63980613325249502</v>
+        <v>0.63129220306723099</v>
       </c>
       <c r="BF235" s="3">
-        <v>5049163.8098390102</v>
+        <v>5344047.5036310097</v>
       </c>
       <c r="BG235" s="3">
         <v>1.6978</v>
@@ -50201,13 +50201,13 @@
         <v>-4.7349999999999996E-2</v>
       </c>
       <c r="BD236" s="3">
-        <v>9.2736412060644993E-2</v>
+        <v>9.0094968485261898E-2</v>
       </c>
       <c r="BE236" s="3">
-        <v>0.66078901129704404</v>
+        <v>0.65486239956091297</v>
       </c>
       <c r="BF236" s="3">
-        <v>5267143.5087880101</v>
+        <v>5583666.3671540096</v>
       </c>
       <c r="BG236" s="3">
         <v>2.2343999999999999</v>
@@ -50444,13 +50444,13 @@
         <v>0.25547500000000001</v>
       </c>
       <c r="BD237" s="3">
-        <v>9.4904020186513005E-2</v>
+        <v>9.0758016547488302E-2</v>
       </c>
       <c r="BE237" s="3">
-        <v>0.695161899961248</v>
+        <v>0.69753720393809004</v>
       </c>
       <c r="BF237" s="3">
-        <v>5648177.3395640096</v>
+        <v>6089851.5676150098</v>
       </c>
       <c r="BG237" s="3">
         <v>2.7972999999999999</v>
@@ -50687,13 +50687,13 @@
         <v>0.74192499999999995</v>
       </c>
       <c r="BD238" s="3">
-        <v>9.4167504094957E-2</v>
+        <v>9.05416549638937E-2</v>
       </c>
       <c r="BE238" s="3">
-        <v>0.69582812982576203</v>
+        <v>0.70673600383133395</v>
       </c>
       <c r="BF238" s="3">
-        <v>5666142.1126809996</v>
+        <v>6258135.1088190004</v>
       </c>
       <c r="BG238" s="3">
         <v>3.5019999999999998</v>
@@ -50930,13 +50930,13 @@
         <v>0.66260000000000008</v>
       </c>
       <c r="BD239" s="3">
-        <v>9.0368501537136006E-2</v>
+        <v>8.8673406143471703E-2</v>
       </c>
       <c r="BE239" s="3">
-        <v>0.68642527723577296</v>
+        <v>0.70694138721217004</v>
       </c>
       <c r="BF239" s="3">
-        <v>5489451.6482739998</v>
+        <v>6225421.2761209998</v>
       </c>
       <c r="BG239" s="3">
         <v>3.4013</v>
@@ -51173,13 +51173,13 @@
         <v>1.614125</v>
       </c>
       <c r="BD240" s="3">
-        <v>8.8548799670930003E-2</v>
+        <v>8.90314366492964E-2</v>
       </c>
       <c r="BE240" s="3">
-        <v>0.68413512737292004</v>
+        <v>0.72001544771900705</v>
       </c>
       <c r="BF240" s="3">
-        <v>5135900.18566899</v>
+        <v>5963122.9381859899</v>
       </c>
       <c r="BG240" s="3">
         <v>4.8465999999999996</v>
@@ -51416,13 +51416,13 @@
         <v>2.5589249999999999</v>
       </c>
       <c r="BD241" s="3">
-        <v>8.8800902606725005E-2</v>
+        <v>9.0697847347261898E-2</v>
       </c>
       <c r="BE241" s="3">
-        <v>0.70987957638340904</v>
+        <v>0.75865602097137996</v>
       </c>
       <c r="BF241" s="3">
-        <v>5027189.2391590001</v>
+        <v>5858776.8492699899</v>
       </c>
       <c r="BG241" s="3">
         <v>7.2518000000000002</v>
@@ -51659,13 +51659,13 @@
         <v>2.3615000000000004</v>
       </c>
       <c r="BD242" s="3">
-        <v>9.0394203497413006E-2</v>
+        <v>9.1914431229790303E-2</v>
       </c>
       <c r="BE242" s="3">
-        <v>0.715997654719989</v>
+        <v>0.76353802109560098</v>
       </c>
       <c r="BF242" s="3">
-        <v>4934471.3104849998</v>
+        <v>5680795.1202640003</v>
       </c>
       <c r="BG242" s="3">
         <v>6.0926</v>
@@ -51902,13 +51902,13 @@
         <v>0.977275</v>
       </c>
       <c r="BD243" s="3">
-        <v>9.3473623287093993E-2</v>
+        <v>9.3991087468097506E-2</v>
       </c>
       <c r="BE243" s="3">
-        <v>0.71506832572467904</v>
+        <v>0.746561141142012</v>
       </c>
       <c r="BF243" s="3">
-        <v>5153166.8890020102</v>
+        <v>5735226.8599150097</v>
       </c>
       <c r="BG243" s="3">
         <v>4.5029000000000003</v>
@@ -52145,13 +52145,13 @@
         <v>-0.10685</v>
       </c>
       <c r="BD244" s="3">
-        <v>9.8543847077089006E-2</v>
+        <v>9.7090200470377405E-2</v>
       </c>
       <c r="BE244" s="3">
-        <v>0.71044071844678303</v>
+        <v>0.73147581910949</v>
       </c>
       <c r="BF244" s="3">
-        <v>5398701.6815689998</v>
+        <v>5964205.7262290101</v>
       </c>
       <c r="BG244" s="3">
         <v>3.1901999999999999</v>
@@ -52388,13 +52388,13 @@
         <v>-0.31840000000000002</v>
       </c>
       <c r="BD245" s="3">
-        <v>0.10063453274742699</v>
+        <v>9.75961714763834E-2</v>
       </c>
       <c r="BE245" s="3">
-        <v>0.72354366315951602</v>
+        <v>0.73604486818006998</v>
       </c>
       <c r="BF245" s="3">
-        <v>5711297.0364199998</v>
+        <v>6334266.7337579997</v>
       </c>
       <c r="BG245" s="3">
         <v>2.6547999999999998</v>
@@ -52631,13 +52631,13 @@
         <v>-0.19042500000000001</v>
       </c>
       <c r="BD246" s="3">
-        <v>9.8354822355158994E-2</v>
+        <v>9.6093148846950804E-2</v>
       </c>
       <c r="BE246" s="3">
-        <v>0.713884416693641</v>
+        <v>0.71497346051473998</v>
       </c>
       <c r="BF246" s="3">
-        <v>5677925.6653460003</v>
+        <v>6337770.2450099904</v>
       </c>
       <c r="BG246" s="3">
         <v>2.3338000000000001</v>
@@ -52874,13 +52874,13 @@
         <v>-0.13297500000000001</v>
       </c>
       <c r="BD247" s="3">
-        <v>9.6099663872733998E-2</v>
+        <v>9.4547232513405202E-2</v>
       </c>
       <c r="BE247" s="3">
-        <v>0.70998455238674396</v>
+        <v>0.69785912804619998</v>
       </c>
       <c r="BF247" s="3">
-        <v>5773586.6631939998</v>
+        <v>6397047.4544949904</v>
       </c>
       <c r="BG247" s="3">
         <v>2.5171999999999999</v>
@@ -53117,13 +53117,13 @@
         <v>-0.13464999999999999</v>
       </c>
       <c r="BD248" s="3">
-        <v>9.7292009750287997E-2</v>
+        <v>9.86677459273856E-2</v>
       </c>
       <c r="BE248" s="3">
-        <v>0.71160119145474299</v>
+        <v>0.72118900836142097</v>
       </c>
       <c r="BF248" s="3">
-        <v>5964945.3999199998</v>
+        <v>6840674.0853270004</v>
       </c>
       <c r="BG248" s="3">
         <v>2.5743</v>
@@ -53360,13 +53360,13 @@
         <v>-0.16390000000000002</v>
       </c>
       <c r="BD249" s="3">
-        <v>0.100704839928955</v>
+        <v>0.104755457745825</v>
       </c>
       <c r="BE249" s="3">
-        <v>0.73305781799091696</v>
+        <v>0.78098239938526204</v>
       </c>
       <c r="BF249" s="3">
-        <v>6444698.6985480003</v>
+        <v>7785301.4370280001</v>
       </c>
       <c r="BG249" s="3">
         <v>2.3157999999999999</v>
@@ -53603,13 +53603,13 @@
         <v>-0.2001</v>
       </c>
       <c r="BD250" s="3">
-        <v>0.10184445786646</v>
+        <v>0.105812944586542</v>
       </c>
       <c r="BE250" s="3">
-        <v>0.738830908614722</v>
+        <v>0.79685336743980895</v>
       </c>
       <c r="BF250" s="3">
-        <v>6692351.2768890001</v>
+        <v>8311218.8123629997</v>
       </c>
       <c r="BG250" s="3">
         <v>2.0299</v>
@@ -53846,13 +53846,13 @@
         <v>-0.12257499999999999</v>
       </c>
       <c r="BD251" s="3">
-        <v>0.102683897988842</v>
+        <v>0.104243192079483</v>
       </c>
       <c r="BE251" s="3">
-        <v>0.74968316846670302</v>
+        <v>0.78362885759638601</v>
       </c>
       <c r="BF251" s="3">
-        <v>6923534.7012789901</v>
+        <v>8293989.30873599</v>
       </c>
       <c r="BG251" s="3">
         <v>2.1107</v>
@@ -54089,13 +54089,13 @@
         <v>-0.10205</v>
       </c>
       <c r="BD252" s="3">
-        <v>0.103939626411853</v>
+        <v>0.102203513786695</v>
       </c>
       <c r="BE252" s="3">
-        <v>0.75195009403217605</v>
+        <v>0.76902253953984301</v>
       </c>
       <c r="BF252" s="3">
-        <v>6969741.3217599904</v>
+        <v>8036547.6815779898</v>
       </c>
       <c r="BG252" s="3">
         <v>2.7482000000000002</v>
@@ -54308,13 +54308,13 @@
         <v>2.5049999999999989E-2</v>
       </c>
       <c r="BD253" s="3">
-        <v>0.105473445879523</v>
+        <v>0.10291828270195599</v>
       </c>
       <c r="BE253" s="3">
-        <v>0.75795647585162895</v>
+        <v>0.78492833611912805</v>
       </c>
       <c r="BF253" s="3">
-        <v>7064151.8047820004</v>
+        <v>8103247.2093869997</v>
       </c>
       <c r="BG253" s="3">
         <v>2.8654000000000002</v>
@@ -54527,13 +54527,13 @@
         <v>-0.25905</v>
       </c>
       <c r="BD254" s="3">
-        <v>0.10565478964223</v>
+        <v>0.10618597712367001</v>
       </c>
       <c r="BE254" s="3">
-        <v>0.76144005392360903</v>
+        <v>0.80746694900210203</v>
       </c>
       <c r="BF254" s="3">
-        <v>7120991.0151549997</v>
+        <v>8427415.3296180107</v>
       </c>
       <c r="BG254" s="3">
         <v>2.5446</v>
@@ -54746,13 +54746,13 @@
         <v>-0.25342500000000001</v>
       </c>
       <c r="BD255" s="3">
-        <v>0.106907679242241</v>
+        <v>0.108694306846668</v>
       </c>
       <c r="BE255" s="3">
-        <v>0.77648060561029997</v>
+        <v>0.82166768738821105</v>
       </c>
       <c r="BF255" s="3">
-        <v>7410524.6845183996</v>
+        <v>8820076.4102024008</v>
       </c>
       <c r="BG255" s="3">
         <v>2.6608999999999998</v>
@@ -54965,13 +54965,13 @@
         <v>-0.343725</v>
       </c>
       <c r="BD256" s="3">
-        <v>0.10722100350283301</v>
+        <v>0.107700685363146</v>
       </c>
       <c r="BE256" s="3">
-        <v>0.78056306829565703</v>
+        <v>0.81562488862194504</v>
       </c>
       <c r="BF256" s="3">
-        <v>7605885.9432226</v>
+        <v>8949204.4518245906</v>
       </c>
       <c r="BG256" s="3">
         <v>2.4359999999999999</v>
@@ -55184,13 +55184,13 @@
         <v>-0.26882499999999998</v>
       </c>
       <c r="BD257" s="3">
-        <v>0.10777845808825399</v>
+        <v>0.105373951345423</v>
       </c>
       <c r="BE257" s="3">
-        <v>0.77954390686548103</v>
+        <v>0.79900445815154997</v>
       </c>
       <c r="BF257" s="3">
-        <v>7714342.8174075997</v>
+        <v>8864786.5669855792</v>
       </c>
       <c r="BG257" s="3">
         <v>2.2204999999999999</v>
@@ -55403,13 +55403,13 @@
         <v>-0.201875</v>
       </c>
       <c r="BD258" s="3">
-        <v>0.10728999211141001</v>
+        <v>0.103642921692826</v>
       </c>
       <c r="BE258" s="3">
-        <v>0.76788620883138503</v>
+        <v>0.77551292275828898</v>
       </c>
       <c r="BF258" s="3">
-        <v>7594126.5465988005</v>
+        <v>8694283.8634268008</v>
       </c>
       <c r="BG258" s="3">
         <v>2.1053999999999999</v>
@@ -55622,13 +55622,13 @@
         <v>-0.34557500000000002</v>
       </c>
       <c r="BD259" s="3">
-        <v>0.10862856843363</v>
+        <v>0.10612370754334501</v>
       </c>
       <c r="BE259" s="3">
-        <v>0.76459704126625305</v>
+        <v>0.76951017977812697</v>
       </c>
       <c r="BF259" s="3">
-        <v>7627943.4226056002</v>
+        <v>8753077.4897136092</v>
       </c>
       <c r="BG259" s="3">
         <v>2.0493000000000001</v>
@@ -55841,13 +55841,13 @@
         <v>-0.11365</v>
       </c>
       <c r="BD260" s="3">
-        <v>0.11056801859465699</v>
+        <v>0.109675293947521</v>
       </c>
       <c r="BE260" s="3">
-        <v>0.76309632996370902</v>
+        <v>0.77874273153669005</v>
       </c>
       <c r="BF260" s="3">
-        <v>7770564.5117295999</v>
+        <v>8949898.6297166198</v>
       </c>
       <c r="BG260" s="3">
         <v>2.0004</v>
@@ -56060,13 +56060,13 @@
         <v>-0.12620000000000001</v>
       </c>
       <c r="BD261" s="3">
-        <v>0.11248740624912799</v>
+        <v>0.111915766299071</v>
       </c>
       <c r="BE261" s="3">
-        <v>0.76247423265619796</v>
+        <v>0.78932816940640504</v>
       </c>
       <c r="BF261" s="3">
-        <v>7988308.2359253997</v>
+        <v>9114404.0081404205</v>
       </c>
       <c r="BG261" s="3">
         <v>1.8586</v>
@@ -56279,13 +56279,13 @@
         <v>-0.30115000000000003</v>
       </c>
       <c r="BD262" s="3">
-        <v>0.11186646401436599</v>
+        <v>0.111458985286585</v>
       </c>
       <c r="BE262" s="3">
-        <v>0.75433863617858898</v>
+        <v>0.78367598998256305</v>
       </c>
       <c r="BF262" s="3">
-        <v>8039005.9909459902</v>
+        <v>9231827.9545130096</v>
       </c>
       <c r="BG262" s="3">
         <v>1.6918</v>
@@ -56498,13 +56498,13 @@
         <v>-0.36865000000000003</v>
       </c>
       <c r="BD263" s="3">
-        <v>0.110896153037965</v>
+        <v>0.110464202009379</v>
       </c>
       <c r="BE263" s="3">
-        <v>0.74541432451989897</v>
+        <v>0.76625126137547295</v>
       </c>
       <c r="BF263" s="3">
-        <v>8009921.3953829901</v>
+        <v>9300161.9677649997</v>
       </c>
       <c r="BG263" s="3">
         <v>1.5889</v>
@@ -56717,13 +56717,13 @@
         <v>-0.31905</v>
       </c>
       <c r="BD264" s="3">
-        <v>0.110056201659051</v>
+        <v>0.10939995171092801</v>
       </c>
       <c r="BE264" s="3">
-        <v>0.73970938827211996</v>
+        <v>0.75328185534726899</v>
       </c>
       <c r="BF264" s="3">
-        <v>7927580.5353049999</v>
+        <v>9290172.55363</v>
       </c>
       <c r="BG264" s="3">
         <v>1.6941999999999999</v>
@@ -56936,13 +56936,13 @@
         <v>-0.16302499999999998</v>
       </c>
       <c r="BD265" s="3">
-        <v>0.11064948473436</v>
+        <v>0.109327597742057</v>
       </c>
       <c r="BE265" s="3">
-        <v>0.74234860625396204</v>
+        <v>0.75319794254986805</v>
       </c>
       <c r="BF265" s="3">
-        <v>7904768.8357140003</v>
+        <v>9274517.3236290105</v>
       </c>
       <c r="BG265" s="3">
         <v>1.9925999999999999</v>
@@ -57155,13 +57155,13 @@
         <v>-0.26582499999999998</v>
       </c>
       <c r="BD266" s="3">
-        <v>0.11091883233761</v>
+        <v>0.10902974490378201</v>
       </c>
       <c r="BE266" s="3">
-        <v>0.74730824519333205</v>
+        <v>0.75875145258501697</v>
       </c>
       <c r="BF266" s="3">
-        <v>7869259.1561740097</v>
+        <v>9210331.8705920205</v>
       </c>
       <c r="BG266" s="3">
         <v>2.0068999999999999</v>
@@ -57374,13 +57374,13 @@
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="BD267" s="3">
-        <v>0.11126215120496</v>
+        <v>0.108728453330884</v>
       </c>
       <c r="BE267" s="3">
-        <v>0.74558651332711701</v>
+        <v>0.75864456785934498</v>
       </c>
       <c r="BF267" s="3">
-        <v>7825937.1072070096</v>
+        <v>9136399.0658940393</v>
       </c>
       <c r="BG267" s="3">
         <v>2.0863999999999998</v>
@@ -57593,13 +57593,13 @@
         <v>0.2757</v>
       </c>
       <c r="BD268" s="3">
-        <v>0.110246226918173</v>
+        <v>0.107514298534767</v>
       </c>
       <c r="BE268" s="3">
-        <v>0.73232936936190596</v>
+        <v>0.74557559538318496</v>
       </c>
       <c r="BF268" s="3">
-        <v>7659761.6533350199</v>
+        <v>8913493.7999510393</v>
       </c>
       <c r="BG268" s="3">
         <v>2.3969999999999998</v>
@@ -57809,13 +57809,13 @@
         <v>0.49834999999999996</v>
       </c>
       <c r="BD269" s="3">
-        <v>0.109590111068558</v>
+        <v>0.106880121992855</v>
       </c>
       <c r="BE269" s="3">
-        <v>0.72609058077815303</v>
+        <v>0.738206622686162</v>
       </c>
       <c r="BF269" s="3">
-        <v>7572438.9285230199</v>
+        <v>8650945.8629610296</v>
       </c>
       <c r="BG269" s="3">
         <v>2.6116000000000001</v>
@@ -58025,13 +58025,13 @@
         <v>0.48517500000000002</v>
       </c>
       <c r="BD270" s="3">
-        <v>0.108956253547199</v>
+        <v>0.108121971490504</v>
       </c>
       <c r="BE270" s="3">
-        <v>0.72897378478852803</v>
+        <v>0.75451626074989697</v>
       </c>
       <c r="BF270" s="3">
-        <v>7587074.5321890097</v>
+        <v>8664171.4152450096</v>
       </c>
       <c r="BG270" s="3">
         <v>2.6930000000000001</v>
@@ -58241,13 +58241,13 @@
         <v>-0.15785000000000002</v>
       </c>
       <c r="BD271" s="3">
-        <v>0.110042348731199</v>
+        <v>0.110840740556282</v>
       </c>
       <c r="BE271" s="3">
-        <v>0.73883262312384801</v>
+        <v>0.77899950214850999</v>
       </c>
       <c r="BF271" s="3">
-        <v>7739304.60931399</v>
+        <v>8963266.5944539905</v>
       </c>
       <c r="BG271" s="3">
         <v>2.0855000000000001</v>
@@ -58455,13 +58455,13 @@
       </c>
       <c r="BC272" s="15"/>
       <c r="BD272" s="3">
-        <v>0.111991615600868</v>
+        <v>0.112532278003487</v>
       </c>
       <c r="BE272" s="3">
-        <v>0.74757298223563295</v>
+        <v>0.78068260723795802</v>
       </c>
       <c r="BF272" s="3">
-        <v>7864884.5255679898</v>
+        <v>9131131.2330459803</v>
       </c>
       <c r="BH272" s="3">
         <v>104</v>
@@ -58666,13 +58666,13 @@
       </c>
       <c r="BC273" s="15"/>
       <c r="BD273" s="3">
-        <v>0.115037580443903</v>
+        <v>0.11517370371451199</v>
       </c>
       <c r="BE273" s="3">
-        <v>0.75829779440719203</v>
+        <v>0.78627226024902996</v>
       </c>
       <c r="BF273" s="3">
-        <v>8026413.9860739997</v>
+        <v>9442333.3688729908</v>
       </c>
       <c r="BH273" s="3">
         <v>110</v>
@@ -58877,13 +58877,13 @@
       </c>
       <c r="BC274" s="15"/>
       <c r="BD274" s="3">
-        <v>0.117047429968654</v>
+        <v>0.11875117025418599</v>
       </c>
       <c r="BE274" s="3">
-        <v>0.76896329085972503</v>
+        <v>0.80250408799958495</v>
       </c>
       <c r="BF274" s="3">
-        <v>8197313.0779109998</v>
+        <v>9809755.2384499907</v>
       </c>
       <c r="BH274" s="3">
         <v>117</v>
@@ -59086,13 +59086,13 @@
       </c>
       <c r="BC275" s="15"/>
       <c r="BD275" s="3">
-        <v>0.119165318989712</v>
+        <v>0.12158161037408299</v>
       </c>
       <c r="BE275" s="3">
-        <v>0.78020201605956097</v>
+        <v>0.81180675838613003</v>
       </c>
       <c r="BF275" s="3">
-        <v>8502357.1960300002</v>
+        <v>10049062.680808</v>
       </c>
       <c r="BH275" s="3">
         <v>114</v>
@@ -59295,13 +59295,13 @@
       </c>
       <c r="BC276" s="15"/>
       <c r="BD276" s="3">
-        <v>0.120803588445183</v>
+        <v>0.122377588345172</v>
       </c>
       <c r="BE276" s="3">
-        <v>0.78437595822168105</v>
+        <v>0.80864872476127903</v>
       </c>
       <c r="BF276" s="3">
-        <v>8794222.4364869893</v>
+        <v>10148839.078023</v>
       </c>
       <c r="BH276" s="3">
         <v>106</v>
@@ -59501,13 +59501,13 @@
       </c>
       <c r="BC277" s="15"/>
       <c r="BD277" s="3">
-        <v>0.120581787184065</v>
+        <v>0.120592831632753</v>
       </c>
       <c r="BE277" s="3">
-        <v>0.78120358557897696</v>
+        <v>0.79584916020778895</v>
       </c>
       <c r="BF277" s="3">
-        <v>11051764.7461234</v>
+        <v>12610062.3198811</v>
       </c>
       <c r="BH277" s="3">
         <v>111</v>
@@ -59707,13 +59707,13 @@
       </c>
       <c r="BC278" s="15"/>
       <c r="BD278" s="3">
-        <v>0.11944488587704601</v>
+        <v>0.11991690019283301</v>
       </c>
       <c r="BE278" s="3">
-        <v>0.77853570086592505</v>
+        <v>0.79753993458693795</v>
       </c>
       <c r="BF278" s="3">
-        <v>10944034.5394175</v>
+        <v>12663747.820432</v>
       </c>
       <c r="BH278" s="3">
         <v>113</v>
@@ -59894,13 +59894,13 @@
       </c>
       <c r="BC279" s="10"/>
       <c r="BD279" s="3">
-        <v>0.11728081822831</v>
+        <v>0.119227990024406</v>
       </c>
       <c r="BE279" s="3">
-        <v>0.77323048293112395</v>
+        <v>0.79932699407939101</v>
       </c>
       <c r="BF279" s="3">
-        <v>11837285.5927434</v>
+        <v>13961350.381428299</v>
       </c>
       <c r="BH279" s="3">
         <v>107</v>
